--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.03166</v>
+        <v>6.72267</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8608</v>
+        <v>7.80367</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8724</v>
+        <v>9.055619999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7981</v>
+        <v>11.5934</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0362</v>
+        <v>11.6601</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2389</v>
+        <v>15.8581</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6321</v>
+        <v>13.6285</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3729</v>
+        <v>13.0628</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3914</v>
+        <v>19.5284</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.4983</v>
+        <v>14.5114</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3645</v>
+        <v>14.9675</v>
       </c>
       <c r="D5" t="n">
-        <v>46.7246</v>
+        <v>18.4159</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.3461</v>
+        <v>17.1848</v>
       </c>
       <c r="C6" t="n">
-        <v>22.2238</v>
+        <v>16.8647</v>
       </c>
       <c r="D6" t="n">
-        <v>37.2077</v>
+        <v>23.4934</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.6712</v>
+        <v>19.5293</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7423</v>
+        <v>18.3879</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1229</v>
+        <v>23.4617</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.4853</v>
+        <v>14.7193</v>
       </c>
       <c r="C8" t="n">
-        <v>17.3418</v>
+        <v>17.0385</v>
       </c>
       <c r="D8" t="n">
-        <v>36.9239</v>
+        <v>23.3771</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7456</v>
+        <v>15.4319</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2322</v>
+        <v>17.1873</v>
       </c>
       <c r="D9" t="n">
-        <v>36.0778</v>
+        <v>23.0185</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.4338</v>
+        <v>15.8673</v>
       </c>
       <c r="C10" t="n">
-        <v>16.6247</v>
+        <v>17.2997</v>
       </c>
       <c r="D10" t="n">
-        <v>35.2448</v>
+        <v>23.4883</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.6039</v>
+        <v>17.0327</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9514</v>
+        <v>17.2119</v>
       </c>
       <c r="D11" t="n">
-        <v>38.7777</v>
+        <v>23.5138</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.1041</v>
+        <v>18.2409</v>
       </c>
       <c r="C12" t="n">
-        <v>16.085</v>
+        <v>17.4016</v>
       </c>
       <c r="D12" t="n">
-        <v>37.8479</v>
+        <v>23.5347</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.3986</v>
+        <v>19.4057</v>
       </c>
       <c r="C13" t="n">
-        <v>16.1092</v>
+        <v>17.4424</v>
       </c>
       <c r="D13" t="n">
-        <v>38.9921</v>
+        <v>23.5722</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8368</v>
+        <v>16.5142</v>
       </c>
       <c r="C14" t="n">
-        <v>15.6269</v>
+        <v>17.3834</v>
       </c>
       <c r="D14" t="n">
-        <v>27.0483</v>
+        <v>23.4931</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.6258</v>
+        <v>17.0182</v>
       </c>
       <c r="C15" t="n">
-        <v>17.1519</v>
+        <v>17.5513</v>
       </c>
       <c r="D15" t="n">
-        <v>36.9075</v>
+        <v>23.5538</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.4138</v>
+        <v>17.1094</v>
       </c>
       <c r="C16" t="n">
-        <v>16.4714</v>
+        <v>17.608</v>
       </c>
       <c r="D16" t="n">
-        <v>39.772</v>
+        <v>23.5627</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.019</v>
+        <v>17.8063</v>
       </c>
       <c r="C17" t="n">
-        <v>15.655</v>
+        <v>17.67</v>
       </c>
       <c r="D17" t="n">
-        <v>40.061</v>
+        <v>22.8752</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.02237</v>
+        <v>6.76449</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7334</v>
+        <v>7.77959</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5767</v>
+        <v>9.02008</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.718</v>
+        <v>11.79</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9533</v>
+        <v>11.615</v>
       </c>
       <c r="D3" t="n">
-        <v>25.8368</v>
+        <v>15.801</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.0151</v>
+        <v>13.793</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2748</v>
+        <v>12.9387</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7464</v>
+        <v>18.2447</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.5299</v>
+        <v>14.5286</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3041</v>
+        <v>14.9165</v>
       </c>
       <c r="D5" t="n">
-        <v>42.4143</v>
+        <v>18.2701</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9747</v>
+        <v>17.3326</v>
       </c>
       <c r="C6" t="n">
-        <v>22.978</v>
+        <v>16.7267</v>
       </c>
       <c r="D6" t="n">
-        <v>33.0704</v>
+        <v>23.4506</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.0203</v>
+        <v>19.6822</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7073</v>
+        <v>18.3179</v>
       </c>
       <c r="D7" t="n">
-        <v>36.458</v>
+        <v>23.4671</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.29</v>
+        <v>14.7443</v>
       </c>
       <c r="C8" t="n">
-        <v>17.0985</v>
+        <v>16.9548</v>
       </c>
       <c r="D8" t="n">
-        <v>23.002</v>
+        <v>23.4266</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1501</v>
+        <v>15.5015</v>
       </c>
       <c r="C9" t="n">
-        <v>16.3237</v>
+        <v>17.2853</v>
       </c>
       <c r="D9" t="n">
-        <v>27.6495</v>
+        <v>22.8703</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.693</v>
+        <v>16.2065</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2385</v>
+        <v>17.1455</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3916</v>
+        <v>23.5338</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3848</v>
+        <v>17.0849</v>
       </c>
       <c r="C11" t="n">
-        <v>15.3554</v>
+        <v>17.2793</v>
       </c>
       <c r="D11" t="n">
-        <v>28.931</v>
+        <v>23.5131</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.2453</v>
+        <v>18.3635</v>
       </c>
       <c r="C12" t="n">
-        <v>15.4606</v>
+        <v>17.278</v>
       </c>
       <c r="D12" t="n">
-        <v>25.6498</v>
+        <v>23.5784</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.102</v>
+        <v>19.5598</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3376</v>
+        <v>17.3837</v>
       </c>
       <c r="D13" t="n">
-        <v>38.0142</v>
+        <v>23.5638</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.1789</v>
+        <v>16.6015</v>
       </c>
       <c r="C14" t="n">
-        <v>15.463</v>
+        <v>17.3637</v>
       </c>
       <c r="D14" t="n">
-        <v>31.6072</v>
+        <v>23.5065</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6105</v>
+        <v>17.1036</v>
       </c>
       <c r="C15" t="n">
-        <v>15.3018</v>
+        <v>17.4459</v>
       </c>
       <c r="D15" t="n">
-        <v>35.8512</v>
+        <v>23.5739</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7213</v>
+        <v>17.3372</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5868</v>
+        <v>17.4855</v>
       </c>
       <c r="D16" t="n">
-        <v>38.8967</v>
+        <v>23.4603</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.7943</v>
+        <v>17.875</v>
       </c>
       <c r="C17" t="n">
-        <v>15.644</v>
+        <v>17.5576</v>
       </c>
       <c r="D17" t="n">
-        <v>31.2418</v>
+        <v>23.5066</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.721830000000001</v>
+        <v>7.40909</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5423</v>
+        <v>8.07155</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2373</v>
+        <v>9.244389999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6542</v>
+        <v>12.6193</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3335</v>
+        <v>11.056</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2214</v>
+        <v>15.8267</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.9056</v>
+        <v>16.3763</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0841</v>
+        <v>14.0861</v>
       </c>
       <c r="D4" t="n">
-        <v>34.1562</v>
+        <v>21.8841</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.78</v>
+        <v>17.083</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7009</v>
+        <v>14.8629</v>
       </c>
       <c r="D5" t="n">
-        <v>44.6243</v>
+        <v>24.3513</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4044</v>
+        <v>20.5756</v>
       </c>
       <c r="C6" t="n">
-        <v>18.4901</v>
+        <v>16.4607</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8592</v>
+        <v>29.0343</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.3201</v>
+        <v>24.0074</v>
       </c>
       <c r="C7" t="n">
-        <v>16.3911</v>
+        <v>17.6711</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2415</v>
+        <v>33.5611</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8948</v>
+        <v>18.26</v>
       </c>
       <c r="C8" t="n">
-        <v>15.6362</v>
+        <v>16.8884</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6323</v>
+        <v>24.0471</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3348</v>
+        <v>18.4923</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9527</v>
+        <v>16.8763</v>
       </c>
       <c r="D9" t="n">
-        <v>34.9031</v>
+        <v>25.1373</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.1561</v>
+        <v>19.0934</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2955</v>
+        <v>16.8965</v>
       </c>
       <c r="D10" t="n">
-        <v>24.4438</v>
+        <v>26.9908</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.2055</v>
+        <v>20.6067</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4582</v>
+        <v>16.9019</v>
       </c>
       <c r="D11" t="n">
-        <v>37.008</v>
+        <v>29.0447</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.3474</v>
+        <v>22.1243</v>
       </c>
       <c r="C12" t="n">
-        <v>15.3526</v>
+        <v>16.9079</v>
       </c>
       <c r="D12" t="n">
-        <v>36.1498</v>
+        <v>31.1194</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5834</v>
+        <v>23.4748</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0951</v>
+        <v>16.9151</v>
       </c>
       <c r="D13" t="n">
-        <v>32.052</v>
+        <v>33.2586</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.6443</v>
+        <v>20.1714</v>
       </c>
       <c r="C14" t="n">
-        <v>15.3318</v>
+        <v>16.8899</v>
       </c>
       <c r="D14" t="n">
-        <v>34.897</v>
+        <v>27.4942</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.6539</v>
+        <v>20.303</v>
       </c>
       <c r="C15" t="n">
-        <v>15.6808</v>
+        <v>16.8103</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2887</v>
+        <v>27.4842</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.9711</v>
+        <v>20.6261</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4452</v>
+        <v>16.8634</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1082</v>
+        <v>28.9682</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.8797</v>
+        <v>21.5957</v>
       </c>
       <c r="C17" t="n">
-        <v>15.4801</v>
+        <v>16.8521</v>
       </c>
       <c r="D17" t="n">
-        <v>30.6256</v>
+        <v>28.9953</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.09721</v>
+        <v>5.97522</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2228</v>
+        <v>7.71412</v>
       </c>
       <c r="D2" t="n">
-        <v>14.457</v>
+        <v>8.91076</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3393</v>
+        <v>11.2035</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5166</v>
+        <v>12.4887</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2626</v>
+        <v>15.1514</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.6084</v>
+        <v>15.6113</v>
       </c>
       <c r="C4" t="n">
-        <v>24.131</v>
+        <v>16.1813</v>
       </c>
       <c r="D4" t="n">
-        <v>36.5167</v>
+        <v>20.2219</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.1248</v>
+        <v>13.4421</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0307</v>
+        <v>15.1511</v>
       </c>
       <c r="D5" t="n">
-        <v>46.978</v>
+        <v>20.0977</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.2707</v>
+        <v>16.4063</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3957</v>
+        <v>16.6105</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3822</v>
+        <v>21.7585</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.7996</v>
+        <v>19.1264</v>
       </c>
       <c r="C7" t="n">
-        <v>17.186</v>
+        <v>18.235</v>
       </c>
       <c r="D7" t="n">
-        <v>39.5344</v>
+        <v>24.0799</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.566</v>
+        <v>13.6325</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5087</v>
+        <v>17.5079</v>
       </c>
       <c r="D8" t="n">
-        <v>37.081</v>
+        <v>23.8402</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.767</v>
+        <v>15.3882</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2737</v>
+        <v>17.1588</v>
       </c>
       <c r="D9" t="n">
-        <v>39.1716</v>
+        <v>23.6995</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.6641</v>
+        <v>16.9418</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5234</v>
+        <v>17.3238</v>
       </c>
       <c r="D10" t="n">
-        <v>39.5998</v>
+        <v>23.8652</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.5379</v>
+        <v>16.3173</v>
       </c>
       <c r="C11" t="n">
-        <v>18.6429</v>
+        <v>17.4446</v>
       </c>
       <c r="D11" t="n">
-        <v>40.4112</v>
+        <v>23.8848</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.3604</v>
+        <v>17.7472</v>
       </c>
       <c r="C12" t="n">
-        <v>17.6123</v>
+        <v>17.2895</v>
       </c>
       <c r="D12" t="n">
-        <v>40.3708</v>
+        <v>24.4214</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.6947</v>
+        <v>19.0536</v>
       </c>
       <c r="C13" t="n">
-        <v>17.4415</v>
+        <v>17.4356</v>
       </c>
       <c r="D13" t="n">
-        <v>40.8286</v>
+        <v>25.5806</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.4647</v>
+        <v>15.5377</v>
       </c>
       <c r="C14" t="n">
-        <v>17.3753</v>
+        <v>17.5561</v>
       </c>
       <c r="D14" t="n">
-        <v>41.991</v>
+        <v>25.5775</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.5319</v>
+        <v>16.6006</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2072</v>
+        <v>17.5136</v>
       </c>
       <c r="D15" t="n">
-        <v>42.8606</v>
+        <v>26.6998</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.7085</v>
+        <v>17.4479</v>
       </c>
       <c r="C16" t="n">
-        <v>16.9204</v>
+        <v>17.4772</v>
       </c>
       <c r="D16" t="n">
-        <v>41.79</v>
+        <v>26.3655</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.6776</v>
+        <v>17.3404</v>
       </c>
       <c r="C17" t="n">
-        <v>17.3752</v>
+        <v>17.6034</v>
       </c>
       <c r="D17" t="n">
-        <v>42.0192</v>
+        <v>24.9965</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.11683</v>
+        <v>6.01834</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2075</v>
+        <v>7.70367</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1602</v>
+        <v>8.84342</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3919</v>
+        <v>11.1614</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5231</v>
+        <v>12.4883</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7837</v>
+        <v>15.1875</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.8325</v>
+        <v>15.4459</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3355</v>
+        <v>16.061</v>
       </c>
       <c r="D4" t="n">
-        <v>35.9034</v>
+        <v>19.4722</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.3215</v>
+        <v>13.7691</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5111</v>
+        <v>15.4351</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2761</v>
+        <v>21.1332</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3642</v>
+        <v>16.6333</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7466</v>
+        <v>16.8428</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4859</v>
+        <v>23.2943</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.0959</v>
+        <v>19.4522</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0759</v>
+        <v>18.4522</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5639</v>
+        <v>23.4834</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.7657</v>
+        <v>13.7274</v>
       </c>
       <c r="C8" t="n">
-        <v>16.3538</v>
+        <v>17.8838</v>
       </c>
       <c r="D8" t="n">
-        <v>37.5905</v>
+        <v>23.0163</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3259</v>
+        <v>15.5263</v>
       </c>
       <c r="C9" t="n">
-        <v>16.5549</v>
+        <v>17.4835</v>
       </c>
       <c r="D9" t="n">
-        <v>38.999</v>
+        <v>23.1575</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0359</v>
+        <v>17.2289</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0648</v>
+        <v>17.6527</v>
       </c>
       <c r="D10" t="n">
-        <v>38.1417</v>
+        <v>23.7131</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.6602</v>
+        <v>16.5103</v>
       </c>
       <c r="C11" t="n">
-        <v>18.7322</v>
+        <v>17.7764</v>
       </c>
       <c r="D11" t="n">
-        <v>39.1172</v>
+        <v>23.4116</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.8642</v>
+        <v>18.0337</v>
       </c>
       <c r="C12" t="n">
-        <v>17.5728</v>
+        <v>17.7602</v>
       </c>
       <c r="D12" t="n">
-        <v>40.7898</v>
+        <v>23.7486</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.0399</v>
+        <v>19.3688</v>
       </c>
       <c r="C13" t="n">
-        <v>17.75</v>
+        <v>17.777</v>
       </c>
       <c r="D13" t="n">
-        <v>41.3517</v>
+        <v>24.4815</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.0543</v>
+        <v>15.7456</v>
       </c>
       <c r="C14" t="n">
-        <v>17.7311</v>
+        <v>17.7595</v>
       </c>
       <c r="D14" t="n">
-        <v>40.8393</v>
+        <v>25.1045</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.925</v>
+        <v>16.7891</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2257</v>
+        <v>17.8712</v>
       </c>
       <c r="D15" t="n">
-        <v>42.4861</v>
+        <v>24.9283</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.5843</v>
+        <v>17.8336</v>
       </c>
       <c r="C16" t="n">
-        <v>17.5159</v>
+        <v>17.7675</v>
       </c>
       <c r="D16" t="n">
-        <v>41.032</v>
+        <v>24.3176</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.8074</v>
+        <v>17.4824</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6133</v>
+        <v>17.6533</v>
       </c>
       <c r="D17" t="n">
-        <v>42.4521</v>
+        <v>24.991</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.525180000000001</v>
+        <v>7.19311</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5313</v>
+        <v>7.91157</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4697</v>
+        <v>9.19603</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.8214</v>
+        <v>13.4756</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4755</v>
+        <v>12.6852</v>
       </c>
       <c r="D3" t="n">
-        <v>24.9184</v>
+        <v>16.7122</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.2949</v>
+        <v>19.2565</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7548</v>
+        <v>16.6258</v>
       </c>
       <c r="D4" t="n">
-        <v>35.253</v>
+        <v>23.1064</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.2062</v>
+        <v>17.0227</v>
       </c>
       <c r="C5" t="n">
-        <v>30.4337</v>
+        <v>15.5516</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2382</v>
+        <v>23.3103</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.8263</v>
+        <v>20.985</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3607</v>
+        <v>16.5864</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0898</v>
+        <v>27.306</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3088</v>
+        <v>24.955</v>
       </c>
       <c r="C7" t="n">
-        <v>17.932</v>
+        <v>17.8872</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6881</v>
+        <v>29.8926</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.3772</v>
+        <v>19.9572</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2234</v>
+        <v>17.4902</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6808</v>
+        <v>27.3775</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.1281</v>
+        <v>20.1842</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0313</v>
+        <v>17.6124</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0055</v>
+        <v>27.7189</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.0241</v>
+        <v>21.4345</v>
       </c>
       <c r="C10" t="n">
-        <v>18.8306</v>
+        <v>17.3861</v>
       </c>
       <c r="D10" t="n">
-        <v>39.9198</v>
+        <v>28.527</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.8548</v>
+        <v>21.5436</v>
       </c>
       <c r="C11" t="n">
-        <v>18.9468</v>
+        <v>17.4468</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1388</v>
+        <v>29.8182</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.8403</v>
+        <v>22.6145</v>
       </c>
       <c r="C12" t="n">
-        <v>18.3933</v>
+        <v>17.4953</v>
       </c>
       <c r="D12" t="n">
-        <v>40.6115</v>
+        <v>30.0012</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.7732</v>
+        <v>23.1123</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2664</v>
+        <v>17.5773</v>
       </c>
       <c r="D13" t="n">
-        <v>42.5397</v>
+        <v>30.5147</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>38.0313</v>
+        <v>22.6204</v>
       </c>
       <c r="C14" t="n">
-        <v>18.3828</v>
+        <v>17.4069</v>
       </c>
       <c r="D14" t="n">
-        <v>42.2313</v>
+        <v>30.3626</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>38.0344</v>
+        <v>22.4662</v>
       </c>
       <c r="C15" t="n">
-        <v>17.6861</v>
+        <v>17.4807</v>
       </c>
       <c r="D15" t="n">
-        <v>43.2848</v>
+        <v>30.3636</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.9617</v>
+        <v>22.864</v>
       </c>
       <c r="C16" t="n">
-        <v>17.7581</v>
+        <v>17.5012</v>
       </c>
       <c r="D16" t="n">
-        <v>43.1151</v>
+        <v>30.4169</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>38.1113</v>
+        <v>23.0316</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6398</v>
+        <v>17.4588</v>
       </c>
       <c r="D17" t="n">
-        <v>41.9754</v>
+        <v>31.0864</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.73204</v>
+        <v>9.741770000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>7.72095</v>
+        <v>11.8473</v>
       </c>
       <c r="D2" t="n">
-        <v>9.04827</v>
+        <v>16.0037</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.6778</v>
+        <v>14.9594</v>
       </c>
       <c r="C3" t="n">
-        <v>12.2711</v>
+        <v>15.9768</v>
       </c>
       <c r="D3" t="n">
-        <v>16.0116</v>
+        <v>23.1323</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.6925</v>
+        <v>17.0582</v>
       </c>
       <c r="C4" t="n">
-        <v>14.9397</v>
+        <v>18.8269</v>
       </c>
       <c r="D4" t="n">
-        <v>19.7028</v>
+        <v>23.8883</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.3896</v>
+        <v>17.3647</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5119</v>
+        <v>22.1033</v>
       </c>
       <c r="D5" t="n">
-        <v>17.7331</v>
+        <v>23.4278</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2333</v>
+        <v>20.2152</v>
       </c>
       <c r="C6" t="n">
-        <v>21.1952</v>
+        <v>26.654</v>
       </c>
       <c r="D6" t="n">
-        <v>23.4353</v>
+        <v>23.317</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.5134</v>
+        <v>22.5289</v>
       </c>
       <c r="C7" t="n">
-        <v>25.1518</v>
+        <v>31.2978</v>
       </c>
       <c r="D7" t="n">
-        <v>23.4611</v>
+        <v>23.3148</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.7395</v>
+        <v>18.2845</v>
       </c>
       <c r="C8" t="n">
-        <v>19.6851</v>
+        <v>25.9651</v>
       </c>
       <c r="D8" t="n">
-        <v>23.4909</v>
+        <v>23.6214</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.6119</v>
+        <v>18.8941</v>
       </c>
       <c r="C9" t="n">
-        <v>19.3726</v>
+        <v>25.389</v>
       </c>
       <c r="D9" t="n">
-        <v>23.1013</v>
+        <v>23.3559</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.0817</v>
+        <v>18.7915</v>
       </c>
       <c r="C10" t="n">
-        <v>20.3387</v>
+        <v>25.8215</v>
       </c>
       <c r="D10" t="n">
-        <v>23.5391</v>
+        <v>23.3619</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.058</v>
+        <v>19.9879</v>
       </c>
       <c r="C11" t="n">
-        <v>21.3599</v>
+        <v>26.9726</v>
       </c>
       <c r="D11" t="n">
-        <v>23.5512</v>
+        <v>23.435</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.2246</v>
+        <v>21.1763</v>
       </c>
       <c r="C12" t="n">
-        <v>23.051</v>
+        <v>28.7404</v>
       </c>
       <c r="D12" t="n">
-        <v>23.49</v>
+        <v>23.388</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.4179</v>
+        <v>22.3419</v>
       </c>
       <c r="C13" t="n">
-        <v>24.1919</v>
+        <v>30.3742</v>
       </c>
       <c r="D13" t="n">
-        <v>23.518</v>
+        <v>23.4061</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.4944</v>
+        <v>19.8337</v>
       </c>
       <c r="C14" t="n">
-        <v>21.704</v>
+        <v>27.948</v>
       </c>
       <c r="D14" t="n">
-        <v>23.6076</v>
+        <v>23.3866</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.0033</v>
+        <v>20.0881</v>
       </c>
       <c r="C15" t="n">
-        <v>21.2978</v>
+        <v>27.1417</v>
       </c>
       <c r="D15" t="n">
-        <v>23.5773</v>
+        <v>23.4267</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.9859</v>
+        <v>19.9844</v>
       </c>
       <c r="C16" t="n">
-        <v>21.6767</v>
+        <v>27.5191</v>
       </c>
       <c r="D16" t="n">
-        <v>23.5411</v>
+        <v>23.4216</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.7678</v>
+        <v>20.7391</v>
       </c>
       <c r="C17" t="n">
-        <v>22.463</v>
+        <v>28.1367</v>
       </c>
       <c r="D17" t="n">
-        <v>23.5666</v>
+        <v>23.5633</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.76125</v>
+        <v>9.832269999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>7.70616</v>
+        <v>11.8304</v>
       </c>
       <c r="D2" t="n">
-        <v>9.007999999999999</v>
+        <v>15.8566</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.6729</v>
+        <v>15.5262</v>
       </c>
       <c r="C3" t="n">
-        <v>12.7427</v>
+        <v>16.8922</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7502</v>
+        <v>22.1988</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9683</v>
+        <v>18.1614</v>
       </c>
       <c r="C4" t="n">
-        <v>16.193</v>
+        <v>20.2129</v>
       </c>
       <c r="D4" t="n">
-        <v>19.3904</v>
+        <v>23.2873</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.4065</v>
+        <v>17.449</v>
       </c>
       <c r="C5" t="n">
-        <v>17.3678</v>
+        <v>22.2053</v>
       </c>
       <c r="D5" t="n">
-        <v>18.321</v>
+        <v>23.3015</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2466</v>
+        <v>20.3517</v>
       </c>
       <c r="C6" t="n">
-        <v>21.1506</v>
+        <v>26.5487</v>
       </c>
       <c r="D6" t="n">
-        <v>23.4962</v>
+        <v>23.2533</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.6878</v>
+        <v>22.7557</v>
       </c>
       <c r="C7" t="n">
-        <v>25.0795</v>
+        <v>31.1607</v>
       </c>
       <c r="D7" t="n">
-        <v>23.4911</v>
+        <v>23.3156</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.7286</v>
+        <v>18.3857</v>
       </c>
       <c r="C8" t="n">
-        <v>19.6577</v>
+        <v>25.7894</v>
       </c>
       <c r="D8" t="n">
-        <v>23.4928</v>
+        <v>23.3445</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.4658</v>
+        <v>18.9343</v>
       </c>
       <c r="C9" t="n">
-        <v>19.3387</v>
+        <v>25.5677</v>
       </c>
       <c r="D9" t="n">
-        <v>22.9216</v>
+        <v>23.3569</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.006</v>
+        <v>19.3913</v>
       </c>
       <c r="C10" t="n">
-        <v>20.1859</v>
+        <v>25.4596</v>
       </c>
       <c r="D10" t="n">
-        <v>23.5718</v>
+        <v>23.4503</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2043</v>
+        <v>20.1342</v>
       </c>
       <c r="C11" t="n">
-        <v>21.3749</v>
+        <v>26.8401</v>
       </c>
       <c r="D11" t="n">
-        <v>23.5827</v>
+        <v>23.4075</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.3884</v>
+        <v>21.4326</v>
       </c>
       <c r="C12" t="n">
-        <v>23.0255</v>
+        <v>28.7176</v>
       </c>
       <c r="D12" t="n">
-        <v>23.5897</v>
+        <v>23.3931</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.5673</v>
+        <v>22.6369</v>
       </c>
       <c r="C13" t="n">
-        <v>24.0727</v>
+        <v>30.2634</v>
       </c>
       <c r="D13" t="n">
-        <v>23.6336</v>
+        <v>23.4078</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.583</v>
+        <v>20.0495</v>
       </c>
       <c r="C14" t="n">
-        <v>21.5493</v>
+        <v>27.8109</v>
       </c>
       <c r="D14" t="n">
-        <v>23.6011</v>
+        <v>23.4384</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.757</v>
+        <v>20.0868</v>
       </c>
       <c r="C15" t="n">
-        <v>21.4368</v>
+        <v>27.0996</v>
       </c>
       <c r="D15" t="n">
-        <v>23.5537</v>
+        <v>23.4458</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.1753</v>
+        <v>20.2567</v>
       </c>
       <c r="C16" t="n">
-        <v>21.6589</v>
+        <v>27.4604</v>
       </c>
       <c r="D16" t="n">
-        <v>23.6448</v>
+        <v>23.4096</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.9242</v>
+        <v>20.9127</v>
       </c>
       <c r="C17" t="n">
-        <v>22.4221</v>
+        <v>28.0836</v>
       </c>
       <c r="D17" t="n">
-        <v>23.6831</v>
+        <v>23.4264</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.40903</v>
+        <v>11.2636</v>
       </c>
       <c r="C2" t="n">
-        <v>7.99215</v>
+        <v>12.3843</v>
       </c>
       <c r="D2" t="n">
-        <v>9.22991</v>
+        <v>16.1786</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12.9216</v>
+        <v>17.0475</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5464</v>
+        <v>18.0995</v>
       </c>
       <c r="D3" t="n">
-        <v>16.4674</v>
+        <v>23.4293</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15.6612</v>
+        <v>22.1028</v>
       </c>
       <c r="C4" t="n">
-        <v>16.641</v>
+        <v>21.8569</v>
       </c>
       <c r="D4" t="n">
-        <v>21.4731</v>
+        <v>29.1461</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0025</v>
+        <v>21.5144</v>
       </c>
       <c r="C5" t="n">
-        <v>18.0518</v>
+        <v>23.1814</v>
       </c>
       <c r="D5" t="n">
-        <v>24.2235</v>
+        <v>34.0769</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.5355</v>
+        <v>25.3651</v>
       </c>
       <c r="C6" t="n">
-        <v>21.8321</v>
+        <v>27.5721</v>
       </c>
       <c r="D6" t="n">
-        <v>28.9943</v>
+        <v>39.3539</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>23.9848</v>
+        <v>29.0765</v>
       </c>
       <c r="C7" t="n">
-        <v>25.755</v>
+        <v>32.1277</v>
       </c>
       <c r="D7" t="n">
-        <v>33.4716</v>
+        <v>44.095</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.1188</v>
+        <v>23.6432</v>
       </c>
       <c r="C8" t="n">
-        <v>19.5037</v>
+        <v>26.2095</v>
       </c>
       <c r="D8" t="n">
-        <v>24.0226</v>
+        <v>34.8615</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.4274</v>
+        <v>23.3509</v>
       </c>
       <c r="C9" t="n">
-        <v>19.7819</v>
+        <v>25.1031</v>
       </c>
       <c r="D9" t="n">
-        <v>25.2831</v>
+        <v>35.3224</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.2124</v>
+        <v>24.189</v>
       </c>
       <c r="C10" t="n">
-        <v>20.6947</v>
+        <v>26.3883</v>
       </c>
       <c r="D10" t="n">
-        <v>26.8163</v>
+        <v>36.8346</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.6296</v>
+        <v>25.4362</v>
       </c>
       <c r="C11" t="n">
-        <v>21.9961</v>
+        <v>27.82</v>
       </c>
       <c r="D11" t="n">
-        <v>28.9399</v>
+        <v>39.2372</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0902</v>
+        <v>26.9555</v>
       </c>
       <c r="C12" t="n">
-        <v>23.6244</v>
+        <v>29.8256</v>
       </c>
       <c r="D12" t="n">
-        <v>31.0477</v>
+        <v>41.4554</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.3864</v>
+        <v>28.3375</v>
       </c>
       <c r="C13" t="n">
-        <v>24.9944</v>
+        <v>31.4483</v>
       </c>
       <c r="D13" t="n">
-        <v>33.1613</v>
+        <v>43.7574</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.1768</v>
+        <v>25.4753</v>
       </c>
       <c r="C14" t="n">
-        <v>21.9628</v>
+        <v>28.623</v>
       </c>
       <c r="D14" t="n">
-        <v>27.4387</v>
+        <v>38.3241</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.2609</v>
+        <v>25.2727</v>
       </c>
       <c r="C15" t="n">
-        <v>21.6539</v>
+        <v>28.1806</v>
       </c>
       <c r="D15" t="n">
-        <v>27.9647</v>
+        <v>38.2314</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5471</v>
+        <v>25.5612</v>
       </c>
       <c r="C16" t="n">
-        <v>22.1893</v>
+        <v>28.2279</v>
       </c>
       <c r="D16" t="n">
-        <v>28.8604</v>
+        <v>39.0478</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.508</v>
+        <v>26.3572</v>
       </c>
       <c r="C17" t="n">
-        <v>23.1373</v>
+        <v>29.1011</v>
       </c>
       <c r="D17" t="n">
-        <v>30.2074</v>
+        <v>40.4329</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.96018</v>
+        <v>8.285909999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>7.59188</v>
+        <v>11.6333</v>
       </c>
       <c r="D2" t="n">
-        <v>8.91714</v>
+        <v>15.6502</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.0986</v>
+        <v>15.1451</v>
       </c>
       <c r="C3" t="n">
-        <v>12.6342</v>
+        <v>17.5624</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1784</v>
+        <v>23.8013</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15.6012</v>
+        <v>20.0614</v>
       </c>
       <c r="C4" t="n">
-        <v>16.9018</v>
+        <v>21.7636</v>
       </c>
       <c r="D4" t="n">
-        <v>19.9747</v>
+        <v>29.0079</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.5001</v>
+        <v>16.3196</v>
       </c>
       <c r="C5" t="n">
-        <v>17.8608</v>
+        <v>23.0815</v>
       </c>
       <c r="D5" t="n">
-        <v>20.3276</v>
+        <v>27.0679</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.3474</v>
+        <v>19.0512</v>
       </c>
       <c r="C6" t="n">
-        <v>21.3029</v>
+        <v>26.7447</v>
       </c>
       <c r="D6" t="n">
-        <v>21.86</v>
+        <v>29.7738</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.0901</v>
+        <v>21.9657</v>
       </c>
       <c r="C7" t="n">
-        <v>25.2408</v>
+        <v>31.4122</v>
       </c>
       <c r="D7" t="n">
-        <v>24.3534</v>
+        <v>32.7577</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.5332</v>
+        <v>16.326</v>
       </c>
       <c r="C8" t="n">
-        <v>21.5331</v>
+        <v>27.6931</v>
       </c>
       <c r="D8" t="n">
-        <v>22.9912</v>
+        <v>31.0033</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.3044</v>
+        <v>18.2856</v>
       </c>
       <c r="C9" t="n">
-        <v>22.2081</v>
+        <v>27.9944</v>
       </c>
       <c r="D9" t="n">
-        <v>23.2681</v>
+        <v>30.9667</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.9906</v>
+        <v>19.9767</v>
       </c>
       <c r="C10" t="n">
-        <v>22.7603</v>
+        <v>28.5118</v>
       </c>
       <c r="D10" t="n">
-        <v>24.5249</v>
+        <v>31.1497</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.2599</v>
+        <v>18.92</v>
       </c>
       <c r="C11" t="n">
-        <v>21.6689</v>
+        <v>27.894</v>
       </c>
       <c r="D11" t="n">
-        <v>24.2161</v>
+        <v>32.3114</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7488</v>
+        <v>20.4396</v>
       </c>
       <c r="C12" t="n">
-        <v>21.5935</v>
+        <v>28.0297</v>
       </c>
       <c r="D12" t="n">
-        <v>24.2759</v>
+        <v>31.7994</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.0678</v>
+        <v>21.9105</v>
       </c>
       <c r="C13" t="n">
-        <v>22.0083</v>
+        <v>27.2626</v>
       </c>
       <c r="D13" t="n">
-        <v>24.744</v>
+        <v>32.209</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.4456</v>
+        <v>18.2415</v>
       </c>
       <c r="C14" t="n">
-        <v>21.703</v>
+        <v>27.7327</v>
       </c>
       <c r="D14" t="n">
-        <v>25.6865</v>
+        <v>32.0086</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.6026</v>
+        <v>19.4255</v>
       </c>
       <c r="C15" t="n">
-        <v>22.2573</v>
+        <v>27.6643</v>
       </c>
       <c r="D15" t="n">
-        <v>26.2464</v>
+        <v>31.4687</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.4977</v>
+        <v>20.3656</v>
       </c>
       <c r="C16" t="n">
-        <v>22.3165</v>
+        <v>28.3907</v>
       </c>
       <c r="D16" t="n">
-        <v>25.4908</v>
+        <v>31.515</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.276</v>
+        <v>20.0776</v>
       </c>
       <c r="C17" t="n">
-        <v>22.0305</v>
+        <v>28.4361</v>
       </c>
       <c r="D17" t="n">
-        <v>25.9546</v>
+        <v>31.7279</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.02301</v>
+        <v>8.42862</v>
       </c>
       <c r="C2" t="n">
-        <v>7.61579</v>
+        <v>11.6556</v>
       </c>
       <c r="D2" t="n">
-        <v>8.840719999999999</v>
+        <v>15.427</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.262</v>
+        <v>15.323</v>
       </c>
       <c r="C3" t="n">
-        <v>12.819</v>
+        <v>17.6893</v>
       </c>
       <c r="D3" t="n">
-        <v>15.2808</v>
+        <v>23.6448</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15.9474</v>
+        <v>20.5324</v>
       </c>
       <c r="C4" t="n">
-        <v>17.7833</v>
+        <v>22.4723</v>
       </c>
       <c r="D4" t="n">
-        <v>20.4726</v>
+        <v>28.9615</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8377</v>
+        <v>16.2633</v>
       </c>
       <c r="C5" t="n">
-        <v>17.8246</v>
+        <v>23.3114</v>
       </c>
       <c r="D5" t="n">
-        <v>21.5629</v>
+        <v>27.1478</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.5867</v>
+        <v>19.26</v>
       </c>
       <c r="C6" t="n">
-        <v>21.3446</v>
+        <v>26.9294</v>
       </c>
       <c r="D6" t="n">
-        <v>22.2865</v>
+        <v>29.7618</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.4332</v>
+        <v>22.3807</v>
       </c>
       <c r="C7" t="n">
-        <v>25.4604</v>
+        <v>31.6783</v>
       </c>
       <c r="D7" t="n">
-        <v>23.3896</v>
+        <v>30.6209</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.7766</v>
+        <v>16.6719</v>
       </c>
       <c r="C8" t="n">
-        <v>22.1588</v>
+        <v>28.3851</v>
       </c>
       <c r="D8" t="n">
-        <v>23.1297</v>
+        <v>30.149</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.5288</v>
+        <v>18.8298</v>
       </c>
       <c r="C9" t="n">
-        <v>22.8242</v>
+        <v>28.9091</v>
       </c>
       <c r="D9" t="n">
-        <v>23.2292</v>
+        <v>30.904</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.171</v>
+        <v>20.5355</v>
       </c>
       <c r="C10" t="n">
-        <v>22.6507</v>
+        <v>29.0503</v>
       </c>
       <c r="D10" t="n">
-        <v>23.2632</v>
+        <v>31.35</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.492</v>
+        <v>19.122</v>
       </c>
       <c r="C11" t="n">
-        <v>22.2301</v>
+        <v>28.284</v>
       </c>
       <c r="D11" t="n">
-        <v>23.5883</v>
+        <v>31.3592</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9548</v>
+        <v>20.8357</v>
       </c>
       <c r="C12" t="n">
-        <v>21.6855</v>
+        <v>28.4783</v>
       </c>
       <c r="D12" t="n">
-        <v>23.9943</v>
+        <v>31.837</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.4022</v>
+        <v>22.3926</v>
       </c>
       <c r="C13" t="n">
-        <v>22.0123</v>
+        <v>27.8646</v>
       </c>
       <c r="D13" t="n">
-        <v>24.1904</v>
+        <v>31.9311</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.7707</v>
+        <v>18.6401</v>
       </c>
       <c r="C14" t="n">
-        <v>22.0249</v>
+        <v>28.6171</v>
       </c>
       <c r="D14" t="n">
-        <v>24.6425</v>
+        <v>31.8638</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.7817</v>
+        <v>19.8782</v>
       </c>
       <c r="C15" t="n">
-        <v>22.2462</v>
+        <v>28.867</v>
       </c>
       <c r="D15" t="n">
-        <v>24.9898</v>
+        <v>31.345</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8947</v>
+        <v>20.9147</v>
       </c>
       <c r="C16" t="n">
-        <v>22.6476</v>
+        <v>28.49</v>
       </c>
       <c r="D16" t="n">
-        <v>25.1058</v>
+        <v>31.8102</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4999</v>
+        <v>20.2718</v>
       </c>
       <c r="C17" t="n">
-        <v>22.0618</v>
+        <v>28.3442</v>
       </c>
       <c r="D17" t="n">
-        <v>25.0008</v>
+        <v>32.2644</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.20407</v>
+        <v>10.8246</v>
       </c>
       <c r="C2" t="n">
-        <v>7.93441</v>
+        <v>12.3412</v>
       </c>
       <c r="D2" t="n">
-        <v>9.183619999999999</v>
+        <v>16.1414</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.3609</v>
+        <v>19.5924</v>
       </c>
       <c r="C3" t="n">
-        <v>14.1327</v>
+        <v>21.0185</v>
       </c>
       <c r="D3" t="n">
-        <v>16.2424</v>
+        <v>26.2876</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.0524</v>
+        <v>26.9087</v>
       </c>
       <c r="C4" t="n">
-        <v>19.3128</v>
+        <v>25.2976</v>
       </c>
       <c r="D4" t="n">
-        <v>23.2295</v>
+        <v>32.682</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0512</v>
+        <v>22.0985</v>
       </c>
       <c r="C5" t="n">
-        <v>18.6055</v>
+        <v>24.0851</v>
       </c>
       <c r="D5" t="n">
-        <v>23.3251</v>
+        <v>32.6147</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.9799</v>
+        <v>26.2284</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9248</v>
+        <v>27.9408</v>
       </c>
       <c r="D6" t="n">
-        <v>27.4352</v>
+        <v>36.4404</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.9118</v>
+        <v>30.7013</v>
       </c>
       <c r="C7" t="n">
-        <v>25.9187</v>
+        <v>32.6716</v>
       </c>
       <c r="D7" t="n">
-        <v>30.0753</v>
+        <v>41.4746</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8935</v>
+        <v>27.2527</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5141</v>
+        <v>30.4551</v>
       </c>
       <c r="D8" t="n">
-        <v>27.51</v>
+        <v>41.1576</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5401</v>
+        <v>26.9531</v>
       </c>
       <c r="C9" t="n">
-        <v>22.9276</v>
+        <v>29.6579</v>
       </c>
       <c r="D9" t="n">
-        <v>27.5287</v>
+        <v>38.9546</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.7219</v>
+        <v>27.7218</v>
       </c>
       <c r="C10" t="n">
-        <v>22.793</v>
+        <v>29.9661</v>
       </c>
       <c r="D10" t="n">
-        <v>28.8806</v>
+        <v>39.6761</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8397</v>
+        <v>28.0717</v>
       </c>
       <c r="C11" t="n">
-        <v>22.6617</v>
+        <v>29.4822</v>
       </c>
       <c r="D11" t="n">
-        <v>29.6172</v>
+        <v>40.309</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.755</v>
+        <v>28.2915</v>
       </c>
       <c r="C12" t="n">
-        <v>23.5326</v>
+        <v>30.0053</v>
       </c>
       <c r="D12" t="n">
-        <v>30.6209</v>
+        <v>41.3917</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.9106</v>
+        <v>29.0339</v>
       </c>
       <c r="C13" t="n">
-        <v>23.4559</v>
+        <v>30.4761</v>
       </c>
       <c r="D13" t="n">
-        <v>30.5559</v>
+        <v>39.853</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.9297</v>
+        <v>28.5364</v>
       </c>
       <c r="C14" t="n">
-        <v>24.3753</v>
+        <v>30.7267</v>
       </c>
       <c r="D14" t="n">
-        <v>30.5601</v>
+        <v>40.1976</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.4021</v>
+        <v>28.2852</v>
       </c>
       <c r="C15" t="n">
-        <v>23.6744</v>
+        <v>30.6505</v>
       </c>
       <c r="D15" t="n">
-        <v>30.1122</v>
+        <v>39.5924</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7582</v>
+        <v>28.6255</v>
       </c>
       <c r="C16" t="n">
-        <v>23.9728</v>
+        <v>30.691</v>
       </c>
       <c r="D16" t="n">
-        <v>31.134</v>
+        <v>41.2886</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.6503</v>
+        <v>28.4995</v>
       </c>
       <c r="C17" t="n">
-        <v>23.648</v>
+        <v>30.3815</v>
       </c>
       <c r="D17" t="n">
-        <v>31.0712</v>
+        <v>39.0173</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.741770000000001</v>
+        <v>9.728809999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8473</v>
+        <v>11.8389</v>
       </c>
       <c r="D2" t="n">
-        <v>16.0037</v>
+        <v>15.9845</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.9594</v>
+        <v>15.6588</v>
       </c>
       <c r="C3" t="n">
-        <v>15.9768</v>
+        <v>17.4916</v>
       </c>
       <c r="D3" t="n">
-        <v>23.1323</v>
+        <v>23.6531</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17.0582</v>
+        <v>16.6496</v>
       </c>
       <c r="C4" t="n">
-        <v>18.8269</v>
+        <v>19.4812</v>
       </c>
       <c r="D4" t="n">
-        <v>23.8883</v>
+        <v>23.2918</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.3647</v>
+        <v>17.3638</v>
       </c>
       <c r="C5" t="n">
-        <v>22.1033</v>
+        <v>22.1772</v>
       </c>
       <c r="D5" t="n">
-        <v>23.4278</v>
+        <v>23.4027</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.2152</v>
+        <v>20.1852</v>
       </c>
       <c r="C6" t="n">
-        <v>26.654</v>
+        <v>26.5883</v>
       </c>
       <c r="D6" t="n">
-        <v>23.317</v>
+        <v>23.3864</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.5289</v>
+        <v>21.7973</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2978</v>
+        <v>30.8726</v>
       </c>
       <c r="D7" t="n">
-        <v>23.3148</v>
+        <v>23.3581</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2845</v>
+        <v>18.2506</v>
       </c>
       <c r="C8" t="n">
-        <v>25.9651</v>
+        <v>25.8233</v>
       </c>
       <c r="D8" t="n">
-        <v>23.6214</v>
+        <v>23.3138</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.8941</v>
+        <v>18.7889</v>
       </c>
       <c r="C9" t="n">
-        <v>25.389</v>
+        <v>25.388</v>
       </c>
       <c r="D9" t="n">
-        <v>23.3559</v>
+        <v>23.3705</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.7915</v>
+        <v>18.8239</v>
       </c>
       <c r="C10" t="n">
-        <v>25.8215</v>
+        <v>25.5665</v>
       </c>
       <c r="D10" t="n">
-        <v>23.3619</v>
+        <v>23.3572</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.9879</v>
+        <v>19.9056</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9726</v>
+        <v>27.0756</v>
       </c>
       <c r="D11" t="n">
-        <v>23.435</v>
+        <v>23.4098</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.1763</v>
+        <v>21.1728</v>
       </c>
       <c r="C12" t="n">
-        <v>28.7404</v>
+        <v>28.6015</v>
       </c>
       <c r="D12" t="n">
-        <v>23.388</v>
+        <v>23.974</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.3419</v>
+        <v>22.2007</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3742</v>
+        <v>30.2695</v>
       </c>
       <c r="D13" t="n">
-        <v>23.4061</v>
+        <v>23.4434</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.8337</v>
+        <v>19.8693</v>
       </c>
       <c r="C14" t="n">
-        <v>27.948</v>
+        <v>27.8877</v>
       </c>
       <c r="D14" t="n">
-        <v>23.3866</v>
+        <v>23.4139</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.0881</v>
+        <v>19.8281</v>
       </c>
       <c r="C15" t="n">
-        <v>27.1417</v>
+        <v>27.2511</v>
       </c>
       <c r="D15" t="n">
-        <v>23.4267</v>
+        <v>23.462</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.9844</v>
+        <v>20.1251</v>
       </c>
       <c r="C16" t="n">
-        <v>27.5191</v>
+        <v>27.4577</v>
       </c>
       <c r="D16" t="n">
-        <v>23.4216</v>
+        <v>23.4421</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.7391</v>
+        <v>20.6505</v>
       </c>
       <c r="C17" t="n">
-        <v>28.1367</v>
+        <v>28.1558</v>
       </c>
       <c r="D17" t="n">
-        <v>23.5633</v>
+        <v>23.741</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.832269999999999</v>
+        <v>9.828049999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8304</v>
+        <v>11.7996</v>
       </c>
       <c r="D2" t="n">
-        <v>15.8566</v>
+        <v>15.8244</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.5262</v>
+        <v>15.1824</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8922</v>
+        <v>16.9354</v>
       </c>
       <c r="D3" t="n">
-        <v>22.1988</v>
+        <v>21.353</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.1614</v>
+        <v>17.156</v>
       </c>
       <c r="C4" t="n">
-        <v>20.2129</v>
+        <v>19.2242</v>
       </c>
       <c r="D4" t="n">
-        <v>23.2873</v>
+        <v>23.2582</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.449</v>
+        <v>17.5446</v>
       </c>
       <c r="C5" t="n">
-        <v>22.2053</v>
+        <v>22.2802</v>
       </c>
       <c r="D5" t="n">
-        <v>23.3015</v>
+        <v>23.3016</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.3517</v>
+        <v>20.2762</v>
       </c>
       <c r="C6" t="n">
-        <v>26.5487</v>
+        <v>26.554</v>
       </c>
       <c r="D6" t="n">
-        <v>23.2533</v>
+        <v>23.2919</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7557</v>
+        <v>22.6575</v>
       </c>
       <c r="C7" t="n">
-        <v>31.1607</v>
+        <v>31.1787</v>
       </c>
       <c r="D7" t="n">
-        <v>23.3156</v>
+        <v>23.3783</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3857</v>
+        <v>18.2677</v>
       </c>
       <c r="C8" t="n">
-        <v>25.7894</v>
+        <v>25.8384</v>
       </c>
       <c r="D8" t="n">
-        <v>23.3445</v>
+        <v>23.3298</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9343</v>
+        <v>18.707</v>
       </c>
       <c r="C9" t="n">
-        <v>25.5677</v>
+        <v>25.4001</v>
       </c>
       <c r="D9" t="n">
-        <v>23.3569</v>
+        <v>23.3354</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.3913</v>
+        <v>19.432</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4596</v>
+        <v>25.6713</v>
       </c>
       <c r="D10" t="n">
-        <v>23.4503</v>
+        <v>23.2857</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.1342</v>
+        <v>20.1265</v>
       </c>
       <c r="C11" t="n">
-        <v>26.8401</v>
+        <v>26.8384</v>
       </c>
       <c r="D11" t="n">
-        <v>23.4075</v>
+        <v>23.4016</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4326</v>
+        <v>21.3879</v>
       </c>
       <c r="C12" t="n">
-        <v>28.7176</v>
+        <v>28.7299</v>
       </c>
       <c r="D12" t="n">
-        <v>23.3931</v>
+        <v>23.3797</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6369</v>
+        <v>22.6225</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2634</v>
+        <v>30.2749</v>
       </c>
       <c r="D13" t="n">
-        <v>23.4078</v>
+        <v>23.4495</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0495</v>
+        <v>19.9457</v>
       </c>
       <c r="C14" t="n">
-        <v>27.8109</v>
+        <v>27.9429</v>
       </c>
       <c r="D14" t="n">
-        <v>23.4384</v>
+        <v>23.4619</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.0868</v>
+        <v>20.0902</v>
       </c>
       <c r="C15" t="n">
-        <v>27.0996</v>
+        <v>26.9431</v>
       </c>
       <c r="D15" t="n">
-        <v>23.4458</v>
+        <v>23.3788</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.2567</v>
+        <v>20.2136</v>
       </c>
       <c r="C16" t="n">
-        <v>27.4604</v>
+        <v>27.3766</v>
       </c>
       <c r="D16" t="n">
-        <v>23.4096</v>
+        <v>23.462</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.9127</v>
+        <v>20.8003</v>
       </c>
       <c r="C17" t="n">
-        <v>28.0836</v>
+        <v>28.1084</v>
       </c>
       <c r="D17" t="n">
-        <v>23.4264</v>
+        <v>23.4501</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.2636</v>
+        <v>11.2514</v>
       </c>
       <c r="C2" t="n">
-        <v>12.3843</v>
+        <v>12.3864</v>
       </c>
       <c r="D2" t="n">
-        <v>16.1786</v>
+        <v>16.1511</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0475</v>
+        <v>16.9676</v>
       </c>
       <c r="C3" t="n">
-        <v>18.0995</v>
+        <v>18.2852</v>
       </c>
       <c r="D3" t="n">
-        <v>23.4293</v>
+        <v>23.3472</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.1028</v>
+        <v>19.7955</v>
       </c>
       <c r="C4" t="n">
-        <v>21.8569</v>
+        <v>21.1431</v>
       </c>
       <c r="D4" t="n">
-        <v>29.1461</v>
+        <v>29.4504</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.5144</v>
+        <v>21.4941</v>
       </c>
       <c r="C5" t="n">
-        <v>23.1814</v>
+        <v>23.0727</v>
       </c>
       <c r="D5" t="n">
-        <v>34.0769</v>
+        <v>33.9314</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.3651</v>
+        <v>25.3164</v>
       </c>
       <c r="C6" t="n">
-        <v>27.5721</v>
+        <v>27.3776</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3539</v>
+        <v>39.2409</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0765</v>
+        <v>29.0845</v>
       </c>
       <c r="C7" t="n">
-        <v>32.1277</v>
+        <v>31.9811</v>
       </c>
       <c r="D7" t="n">
-        <v>44.095</v>
+        <v>43.538</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.6432</v>
+        <v>24.0489</v>
       </c>
       <c r="C8" t="n">
-        <v>26.2095</v>
+        <v>26.0713</v>
       </c>
       <c r="D8" t="n">
-        <v>34.8615</v>
+        <v>34.7442</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3509</v>
+        <v>23.0295</v>
       </c>
       <c r="C9" t="n">
-        <v>25.1031</v>
+        <v>25.2027</v>
       </c>
       <c r="D9" t="n">
-        <v>35.3224</v>
+        <v>35.1942</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.189</v>
+        <v>23.8233</v>
       </c>
       <c r="C10" t="n">
-        <v>26.3883</v>
+        <v>25.955</v>
       </c>
       <c r="D10" t="n">
-        <v>36.8346</v>
+        <v>36.6081</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.4362</v>
+        <v>25.4338</v>
       </c>
       <c r="C11" t="n">
-        <v>27.82</v>
+        <v>27.6546</v>
       </c>
       <c r="D11" t="n">
-        <v>39.2372</v>
+        <v>39.0756</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.9555</v>
+        <v>26.9735</v>
       </c>
       <c r="C12" t="n">
-        <v>29.8256</v>
+        <v>29.5432</v>
       </c>
       <c r="D12" t="n">
-        <v>41.4554</v>
+        <v>41.3095</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.3375</v>
+        <v>28.0868</v>
       </c>
       <c r="C13" t="n">
-        <v>31.4483</v>
+        <v>31.4253</v>
       </c>
       <c r="D13" t="n">
-        <v>43.7574</v>
+        <v>43.513</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.4753</v>
+        <v>25.5531</v>
       </c>
       <c r="C14" t="n">
-        <v>28.623</v>
+        <v>28.4106</v>
       </c>
       <c r="D14" t="n">
-        <v>38.3241</v>
+        <v>38.1974</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2727</v>
+        <v>25.2508</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1806</v>
+        <v>27.5737</v>
       </c>
       <c r="D15" t="n">
-        <v>38.2314</v>
+        <v>38.5028</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5612</v>
+        <v>25.2775</v>
       </c>
       <c r="C16" t="n">
-        <v>28.2279</v>
+        <v>27.9058</v>
       </c>
       <c r="D16" t="n">
-        <v>39.0478</v>
+        <v>38.9399</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.3572</v>
+        <v>26.404</v>
       </c>
       <c r="C17" t="n">
-        <v>29.1011</v>
+        <v>28.9188</v>
       </c>
       <c r="D17" t="n">
-        <v>40.4329</v>
+        <v>39.5128</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.285909999999999</v>
+        <v>8.29327</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6333</v>
+        <v>11.6289</v>
       </c>
       <c r="D2" t="n">
-        <v>15.6502</v>
+        <v>15.6682</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.1451</v>
+        <v>14.9815</v>
       </c>
       <c r="C3" t="n">
-        <v>17.5624</v>
+        <v>17.385</v>
       </c>
       <c r="D3" t="n">
-        <v>23.8013</v>
+        <v>23.313</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.0614</v>
+        <v>20.036</v>
       </c>
       <c r="C4" t="n">
-        <v>21.7636</v>
+        <v>22.8199</v>
       </c>
       <c r="D4" t="n">
-        <v>29.0079</v>
+        <v>29.5597</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3196</v>
+        <v>16.0176</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0815</v>
+        <v>22.5908</v>
       </c>
       <c r="D5" t="n">
-        <v>27.0679</v>
+        <v>27.2214</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.0512</v>
+        <v>18.9543</v>
       </c>
       <c r="C6" t="n">
-        <v>26.7447</v>
+        <v>26.7676</v>
       </c>
       <c r="D6" t="n">
-        <v>29.7738</v>
+        <v>29.7231</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9657</v>
+        <v>21.9416</v>
       </c>
       <c r="C7" t="n">
-        <v>31.4122</v>
+        <v>31.4222</v>
       </c>
       <c r="D7" t="n">
-        <v>32.7577</v>
+        <v>32.7933</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.326</v>
+        <v>16.3187</v>
       </c>
       <c r="C8" t="n">
-        <v>27.6931</v>
+        <v>27.7631</v>
       </c>
       <c r="D8" t="n">
-        <v>31.0033</v>
+        <v>31.8196</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2856</v>
+        <v>18.3394</v>
       </c>
       <c r="C9" t="n">
-        <v>27.9944</v>
+        <v>28.5255</v>
       </c>
       <c r="D9" t="n">
-        <v>30.9667</v>
+        <v>30.8754</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.9767</v>
+        <v>19.9094</v>
       </c>
       <c r="C10" t="n">
-        <v>28.5118</v>
+        <v>28.7079</v>
       </c>
       <c r="D10" t="n">
-        <v>31.1497</v>
+        <v>31.9549</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.92</v>
+        <v>18.8259</v>
       </c>
       <c r="C11" t="n">
-        <v>27.894</v>
+        <v>28.1982</v>
       </c>
       <c r="D11" t="n">
-        <v>32.3114</v>
+        <v>32.2316</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.4396</v>
+        <v>20.3856</v>
       </c>
       <c r="C12" t="n">
-        <v>28.0297</v>
+        <v>27.8327</v>
       </c>
       <c r="D12" t="n">
-        <v>31.7994</v>
+        <v>32.1693</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.9105</v>
+        <v>21.8307</v>
       </c>
       <c r="C13" t="n">
-        <v>27.2626</v>
+        <v>27.7349</v>
       </c>
       <c r="D13" t="n">
-        <v>32.209</v>
+        <v>31.9532</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.2415</v>
+        <v>18.3264</v>
       </c>
       <c r="C14" t="n">
-        <v>27.7327</v>
+        <v>27.9185</v>
       </c>
       <c r="D14" t="n">
-        <v>32.0086</v>
+        <v>31.8295</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.4255</v>
+        <v>19.3087</v>
       </c>
       <c r="C15" t="n">
-        <v>27.6643</v>
+        <v>27.996</v>
       </c>
       <c r="D15" t="n">
-        <v>31.4687</v>
+        <v>31.5229</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.3656</v>
+        <v>20.3808</v>
       </c>
       <c r="C16" t="n">
-        <v>28.3907</v>
+        <v>28.1035</v>
       </c>
       <c r="D16" t="n">
-        <v>31.515</v>
+        <v>32.6208</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.0776</v>
+        <v>20.0015</v>
       </c>
       <c r="C17" t="n">
-        <v>28.4361</v>
+        <v>28.2466</v>
       </c>
       <c r="D17" t="n">
-        <v>31.7279</v>
+        <v>31.7818</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.42862</v>
+        <v>8.42991</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6556</v>
+        <v>11.6677</v>
       </c>
       <c r="D2" t="n">
-        <v>15.427</v>
+        <v>15.4307</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.323</v>
+        <v>15.1641</v>
       </c>
       <c r="C3" t="n">
-        <v>17.6893</v>
+        <v>18.0463</v>
       </c>
       <c r="D3" t="n">
-        <v>23.6448</v>
+        <v>23.8638</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.5324</v>
+        <v>20.7233</v>
       </c>
       <c r="C4" t="n">
-        <v>22.4723</v>
+        <v>23.4764</v>
       </c>
       <c r="D4" t="n">
-        <v>28.9615</v>
+        <v>28.353</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.2633</v>
+        <v>16.2565</v>
       </c>
       <c r="C5" t="n">
-        <v>23.3114</v>
+        <v>22.8367</v>
       </c>
       <c r="D5" t="n">
-        <v>27.1478</v>
+        <v>27.287</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.26</v>
+        <v>19.296</v>
       </c>
       <c r="C6" t="n">
-        <v>26.9294</v>
+        <v>26.875</v>
       </c>
       <c r="D6" t="n">
-        <v>29.7618</v>
+        <v>29.7601</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.3807</v>
+        <v>22.3696</v>
       </c>
       <c r="C7" t="n">
-        <v>31.6783</v>
+        <v>31.7946</v>
       </c>
       <c r="D7" t="n">
-        <v>30.6209</v>
+        <v>30.5378</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.6719</v>
+        <v>16.652</v>
       </c>
       <c r="C8" t="n">
-        <v>28.3851</v>
+        <v>28.2339</v>
       </c>
       <c r="D8" t="n">
-        <v>30.149</v>
+        <v>30.6189</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.8298</v>
+        <v>18.7437</v>
       </c>
       <c r="C9" t="n">
-        <v>28.9091</v>
+        <v>28.9482</v>
       </c>
       <c r="D9" t="n">
-        <v>30.904</v>
+        <v>31.015</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.5355</v>
+        <v>20.5678</v>
       </c>
       <c r="C10" t="n">
-        <v>29.0503</v>
+        <v>29.3566</v>
       </c>
       <c r="D10" t="n">
-        <v>31.35</v>
+        <v>31.057</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.122</v>
+        <v>19.1736</v>
       </c>
       <c r="C11" t="n">
-        <v>28.284</v>
+        <v>28.7786</v>
       </c>
       <c r="D11" t="n">
-        <v>31.3592</v>
+        <v>30.8131</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.8357</v>
+        <v>20.8321</v>
       </c>
       <c r="C12" t="n">
-        <v>28.4783</v>
+        <v>28.5049</v>
       </c>
       <c r="D12" t="n">
-        <v>31.837</v>
+        <v>31.6106</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.3926</v>
+        <v>22.3237</v>
       </c>
       <c r="C13" t="n">
-        <v>27.8646</v>
+        <v>28.0196</v>
       </c>
       <c r="D13" t="n">
-        <v>31.9311</v>
+        <v>32.0898</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6401</v>
+        <v>18.6181</v>
       </c>
       <c r="C14" t="n">
-        <v>28.6171</v>
+        <v>28.1683</v>
       </c>
       <c r="D14" t="n">
-        <v>31.8638</v>
+        <v>31.6155</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.8782</v>
+        <v>19.8791</v>
       </c>
       <c r="C15" t="n">
-        <v>28.867</v>
+        <v>28.4504</v>
       </c>
       <c r="D15" t="n">
-        <v>31.345</v>
+        <v>31.9507</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.9147</v>
+        <v>20.8678</v>
       </c>
       <c r="C16" t="n">
-        <v>28.49</v>
+        <v>28.732</v>
       </c>
       <c r="D16" t="n">
-        <v>31.8102</v>
+        <v>32.2112</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.2718</v>
+        <v>20.3268</v>
       </c>
       <c r="C17" t="n">
-        <v>28.3442</v>
+        <v>28.4569</v>
       </c>
       <c r="D17" t="n">
-        <v>32.2644</v>
+        <v>31.4946</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8246</v>
+        <v>10.823</v>
       </c>
       <c r="C2" t="n">
-        <v>12.3412</v>
+        <v>12.3339</v>
       </c>
       <c r="D2" t="n">
-        <v>16.1414</v>
+        <v>16.1356</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5924</v>
+        <v>19.4805</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0185</v>
+        <v>20.2795</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2876</v>
+        <v>26.112</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.9087</v>
+        <v>26.7419</v>
       </c>
       <c r="C4" t="n">
-        <v>25.2976</v>
+        <v>25.2441</v>
       </c>
       <c r="D4" t="n">
-        <v>32.682</v>
+        <v>32.597</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.0985</v>
+        <v>22.0114</v>
       </c>
       <c r="C5" t="n">
-        <v>24.0851</v>
+        <v>24.3944</v>
       </c>
       <c r="D5" t="n">
-        <v>32.6147</v>
+        <v>32.6036</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.2284</v>
+        <v>26.2673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.9408</v>
+        <v>27.7094</v>
       </c>
       <c r="D6" t="n">
-        <v>36.4404</v>
+        <v>36.5526</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.7013</v>
+        <v>30.8052</v>
       </c>
       <c r="C7" t="n">
-        <v>32.6716</v>
+        <v>32.358</v>
       </c>
       <c r="D7" t="n">
-        <v>41.4746</v>
+        <v>41.4323</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.2527</v>
+        <v>27.0902</v>
       </c>
       <c r="C8" t="n">
-        <v>30.4551</v>
+        <v>29.8709</v>
       </c>
       <c r="D8" t="n">
-        <v>41.1576</v>
+        <v>40.0851</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.9531</v>
+        <v>27.5517</v>
       </c>
       <c r="C9" t="n">
-        <v>29.6579</v>
+        <v>29.4724</v>
       </c>
       <c r="D9" t="n">
-        <v>38.9546</v>
+        <v>38.985</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.7218</v>
+        <v>27.7932</v>
       </c>
       <c r="C10" t="n">
-        <v>29.9661</v>
+        <v>28.535</v>
       </c>
       <c r="D10" t="n">
-        <v>39.6761</v>
+        <v>39.139</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.0717</v>
+        <v>28.2442</v>
       </c>
       <c r="C11" t="n">
-        <v>29.4822</v>
+        <v>29.5214</v>
       </c>
       <c r="D11" t="n">
-        <v>40.309</v>
+        <v>40.5717</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.2915</v>
+        <v>28.2474</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0053</v>
+        <v>29.9067</v>
       </c>
       <c r="D12" t="n">
-        <v>41.3917</v>
+        <v>39.5313</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.0339</v>
+        <v>28.5357</v>
       </c>
       <c r="C13" t="n">
-        <v>30.4761</v>
+        <v>30.2017</v>
       </c>
       <c r="D13" t="n">
-        <v>39.853</v>
+        <v>39.8914</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.5364</v>
+        <v>28.3741</v>
       </c>
       <c r="C14" t="n">
-        <v>30.7267</v>
+        <v>30.6439</v>
       </c>
       <c r="D14" t="n">
-        <v>40.1976</v>
+        <v>40.8616</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.2852</v>
+        <v>28.2969</v>
       </c>
       <c r="C15" t="n">
-        <v>30.6505</v>
+        <v>30.7753</v>
       </c>
       <c r="D15" t="n">
-        <v>39.5924</v>
+        <v>41.8276</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.6255</v>
+        <v>28.5315</v>
       </c>
       <c r="C16" t="n">
-        <v>30.691</v>
+        <v>30.1758</v>
       </c>
       <c r="D16" t="n">
-        <v>41.2886</v>
+        <v>39.7844</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.4995</v>
+        <v>28.5995</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3815</v>
+        <v>30.5871</v>
       </c>
       <c r="D17" t="n">
-        <v>39.0173</v>
+        <v>41.6261</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.728809999999999</v>
+        <v>9.70173</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8389</v>
+        <v>11.8114</v>
       </c>
       <c r="D2" t="n">
-        <v>15.9845</v>
+        <v>15.9999</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.6588</v>
+        <v>15.7799</v>
       </c>
       <c r="C3" t="n">
-        <v>17.4916</v>
+        <v>16.6767</v>
       </c>
       <c r="D3" t="n">
-        <v>23.6531</v>
+        <v>23.7723</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16.6496</v>
+        <v>16.7543</v>
       </c>
       <c r="C4" t="n">
-        <v>19.4812</v>
+        <v>18.1481</v>
       </c>
       <c r="D4" t="n">
-        <v>23.2918</v>
+        <v>23.1741</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.3638</v>
+        <v>17.3523</v>
       </c>
       <c r="C5" t="n">
-        <v>22.1772</v>
+        <v>22.2962</v>
       </c>
       <c r="D5" t="n">
-        <v>23.4027</v>
+        <v>23.3363</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.1852</v>
+        <v>20.2044</v>
       </c>
       <c r="C6" t="n">
-        <v>26.5883</v>
+        <v>26.6022</v>
       </c>
       <c r="D6" t="n">
-        <v>23.3864</v>
+        <v>23.5674</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.7973</v>
+        <v>22.5312</v>
       </c>
       <c r="C7" t="n">
-        <v>30.8726</v>
+        <v>31.4063</v>
       </c>
       <c r="D7" t="n">
-        <v>23.3581</v>
+        <v>23.3346</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2506</v>
+        <v>18.291</v>
       </c>
       <c r="C8" t="n">
-        <v>25.8233</v>
+        <v>25.954</v>
       </c>
       <c r="D8" t="n">
-        <v>23.3138</v>
+        <v>23.3076</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.7889</v>
+        <v>18.3451</v>
       </c>
       <c r="C9" t="n">
-        <v>25.388</v>
+        <v>25.302</v>
       </c>
       <c r="D9" t="n">
-        <v>23.3705</v>
+        <v>23.2539</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.8239</v>
+        <v>18.962</v>
       </c>
       <c r="C10" t="n">
-        <v>25.5665</v>
+        <v>25.9694</v>
       </c>
       <c r="D10" t="n">
-        <v>23.3572</v>
+        <v>23.2935</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.9056</v>
+        <v>19.9723</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0756</v>
+        <v>26.9785</v>
       </c>
       <c r="D11" t="n">
-        <v>23.4098</v>
+        <v>23.3682</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.1728</v>
+        <v>21.1896</v>
       </c>
       <c r="C12" t="n">
-        <v>28.6015</v>
+        <v>28.776</v>
       </c>
       <c r="D12" t="n">
-        <v>23.974</v>
+        <v>23.4146</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.2007</v>
+        <v>22.392</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2695</v>
+        <v>30.4017</v>
       </c>
       <c r="D13" t="n">
-        <v>23.4434</v>
+        <v>23.4097</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.8693</v>
+        <v>19.7661</v>
       </c>
       <c r="C14" t="n">
-        <v>27.8877</v>
+        <v>27.8977</v>
       </c>
       <c r="D14" t="n">
-        <v>23.4139</v>
+        <v>23.3962</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.8281</v>
+        <v>19.9949</v>
       </c>
       <c r="C15" t="n">
-        <v>27.2511</v>
+        <v>27.2899</v>
       </c>
       <c r="D15" t="n">
-        <v>23.462</v>
+        <v>23.4225</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.1251</v>
+        <v>19.8601</v>
       </c>
       <c r="C16" t="n">
-        <v>27.4577</v>
+        <v>27.4864</v>
       </c>
       <c r="D16" t="n">
-        <v>23.4421</v>
+        <v>23.4472</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.6505</v>
+        <v>20.7649</v>
       </c>
       <c r="C17" t="n">
-        <v>28.1558</v>
+        <v>28.1529</v>
       </c>
       <c r="D17" t="n">
-        <v>23.741</v>
+        <v>23.4277</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.828049999999999</v>
+        <v>9.76862</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7996</v>
+        <v>11.8076</v>
       </c>
       <c r="D2" t="n">
-        <v>15.8244</v>
+        <v>15.882</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.1824</v>
+        <v>15.8794</v>
       </c>
       <c r="C3" t="n">
-        <v>16.9354</v>
+        <v>18.6024</v>
       </c>
       <c r="D3" t="n">
-        <v>21.353</v>
+        <v>23.1615</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17.156</v>
+        <v>17.2733</v>
       </c>
       <c r="C4" t="n">
-        <v>19.2242</v>
+        <v>19.3362</v>
       </c>
       <c r="D4" t="n">
-        <v>23.2582</v>
+        <v>23.2562</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.5446</v>
+        <v>17.5156</v>
       </c>
       <c r="C5" t="n">
-        <v>22.2802</v>
+        <v>22.266</v>
       </c>
       <c r="D5" t="n">
-        <v>23.3016</v>
+        <v>23.2803</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.2762</v>
+        <v>20.3625</v>
       </c>
       <c r="C6" t="n">
-        <v>26.554</v>
+        <v>26.4851</v>
       </c>
       <c r="D6" t="n">
-        <v>23.2919</v>
+        <v>23.2433</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.6575</v>
+        <v>22.7782</v>
       </c>
       <c r="C7" t="n">
-        <v>31.1787</v>
+        <v>31.2585</v>
       </c>
       <c r="D7" t="n">
-        <v>23.3783</v>
+        <v>23.3326</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2677</v>
+        <v>18.3308</v>
       </c>
       <c r="C8" t="n">
-        <v>25.8384</v>
+        <v>25.9441</v>
       </c>
       <c r="D8" t="n">
-        <v>23.3298</v>
+        <v>23.3443</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.707</v>
+        <v>18.8552</v>
       </c>
       <c r="C9" t="n">
-        <v>25.4001</v>
+        <v>24.7668</v>
       </c>
       <c r="D9" t="n">
-        <v>23.3354</v>
+        <v>23.3604</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.432</v>
+        <v>18.8523</v>
       </c>
       <c r="C10" t="n">
-        <v>25.6713</v>
+        <v>25.4536</v>
       </c>
       <c r="D10" t="n">
-        <v>23.2857</v>
+        <v>23.435</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.1265</v>
+        <v>20.1072</v>
       </c>
       <c r="C11" t="n">
-        <v>26.8384</v>
+        <v>26.9582</v>
       </c>
       <c r="D11" t="n">
-        <v>23.4016</v>
+        <v>23.4129</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.3879</v>
+        <v>21.4197</v>
       </c>
       <c r="C12" t="n">
-        <v>28.7299</v>
+        <v>28.7722</v>
       </c>
       <c r="D12" t="n">
-        <v>23.3797</v>
+        <v>23.3483</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6225</v>
+        <v>22.6094</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2749</v>
+        <v>30.3568</v>
       </c>
       <c r="D13" t="n">
-        <v>23.4495</v>
+        <v>23.3999</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.9457</v>
+        <v>20.0003</v>
       </c>
       <c r="C14" t="n">
-        <v>27.9429</v>
+        <v>27.7689</v>
       </c>
       <c r="D14" t="n">
-        <v>23.4619</v>
+        <v>23.4489</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.0902</v>
+        <v>19.9873</v>
       </c>
       <c r="C15" t="n">
-        <v>26.9431</v>
+        <v>27.0968</v>
       </c>
       <c r="D15" t="n">
-        <v>23.3788</v>
+        <v>23.3519</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.2136</v>
+        <v>20.2808</v>
       </c>
       <c r="C16" t="n">
-        <v>27.3766</v>
+        <v>27.3791</v>
       </c>
       <c r="D16" t="n">
-        <v>23.462</v>
+        <v>23.4217</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.8003</v>
+        <v>20.9062</v>
       </c>
       <c r="C17" t="n">
-        <v>28.1084</v>
+        <v>28.2225</v>
       </c>
       <c r="D17" t="n">
-        <v>23.4501</v>
+        <v>23.4314</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.2514</v>
+        <v>11.1142</v>
       </c>
       <c r="C2" t="n">
-        <v>12.3864</v>
+        <v>12.3763</v>
       </c>
       <c r="D2" t="n">
-        <v>16.1511</v>
+        <v>16.2776</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.9676</v>
+        <v>17.1842</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2852</v>
+        <v>18.508</v>
       </c>
       <c r="D3" t="n">
-        <v>23.3472</v>
+        <v>23.7154</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.7955</v>
+        <v>20.6646</v>
       </c>
       <c r="C4" t="n">
-        <v>21.1431</v>
+        <v>21.2037</v>
       </c>
       <c r="D4" t="n">
-        <v>29.4504</v>
+        <v>29.2008</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.4941</v>
+        <v>21.3128</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0727</v>
+        <v>23.2314</v>
       </c>
       <c r="D5" t="n">
-        <v>33.9314</v>
+        <v>34.2777</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.3164</v>
+        <v>25.2354</v>
       </c>
       <c r="C6" t="n">
-        <v>27.3776</v>
+        <v>27.5921</v>
       </c>
       <c r="D6" t="n">
-        <v>39.2409</v>
+        <v>39.4555</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0845</v>
+        <v>28.9847</v>
       </c>
       <c r="C7" t="n">
-        <v>31.9811</v>
+        <v>32.1479</v>
       </c>
       <c r="D7" t="n">
-        <v>43.538</v>
+        <v>44.3062</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.0489</v>
+        <v>23.638</v>
       </c>
       <c r="C8" t="n">
-        <v>26.0713</v>
+        <v>26.2523</v>
       </c>
       <c r="D8" t="n">
-        <v>34.7442</v>
+        <v>35.0099</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.0295</v>
+        <v>23.1983</v>
       </c>
       <c r="C9" t="n">
-        <v>25.2027</v>
+        <v>25.3275</v>
       </c>
       <c r="D9" t="n">
-        <v>35.1942</v>
+        <v>35.6059</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.8233</v>
+        <v>23.5447</v>
       </c>
       <c r="C10" t="n">
-        <v>25.955</v>
+        <v>26.4026</v>
       </c>
       <c r="D10" t="n">
-        <v>36.6081</v>
+        <v>36.5823</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.4338</v>
+        <v>25.28</v>
       </c>
       <c r="C11" t="n">
-        <v>27.6546</v>
+        <v>27.7476</v>
       </c>
       <c r="D11" t="n">
-        <v>39.0756</v>
+        <v>39.3148</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.9735</v>
+        <v>26.8219</v>
       </c>
       <c r="C12" t="n">
-        <v>29.5432</v>
+        <v>29.6553</v>
       </c>
       <c r="D12" t="n">
-        <v>41.3095</v>
+        <v>41.6223</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.0868</v>
+        <v>27.9387</v>
       </c>
       <c r="C13" t="n">
-        <v>31.4253</v>
+        <v>31.5251</v>
       </c>
       <c r="D13" t="n">
-        <v>43.513</v>
+        <v>43.907</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.5531</v>
+        <v>25.3458</v>
       </c>
       <c r="C14" t="n">
-        <v>28.4106</v>
+        <v>28.519</v>
       </c>
       <c r="D14" t="n">
-        <v>38.1974</v>
+        <v>38.4386</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2508</v>
+        <v>25.2629</v>
       </c>
       <c r="C15" t="n">
-        <v>27.5737</v>
+        <v>27.9105</v>
       </c>
       <c r="D15" t="n">
-        <v>38.5028</v>
+        <v>38.4205</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.2775</v>
+        <v>25.2778</v>
       </c>
       <c r="C16" t="n">
-        <v>27.9058</v>
+        <v>28.248</v>
       </c>
       <c r="D16" t="n">
-        <v>38.9399</v>
+        <v>38.9384</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.404</v>
+        <v>26.3618</v>
       </c>
       <c r="C17" t="n">
-        <v>28.9188</v>
+        <v>29.0459</v>
       </c>
       <c r="D17" t="n">
-        <v>39.5128</v>
+        <v>40.2687</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.29327</v>
+        <v>8.26356</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6289</v>
+        <v>11.6295</v>
       </c>
       <c r="D2" t="n">
-        <v>15.6682</v>
+        <v>15.6639</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.9815</v>
+        <v>15.0681</v>
       </c>
       <c r="C3" t="n">
-        <v>17.385</v>
+        <v>17.5246</v>
       </c>
       <c r="D3" t="n">
-        <v>23.313</v>
+        <v>24.0767</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.036</v>
+        <v>19.9596</v>
       </c>
       <c r="C4" t="n">
-        <v>22.8199</v>
+        <v>22.6471</v>
       </c>
       <c r="D4" t="n">
-        <v>29.5597</v>
+        <v>29.5435</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0176</v>
+        <v>16.0002</v>
       </c>
       <c r="C5" t="n">
-        <v>22.5908</v>
+        <v>23.0084</v>
       </c>
       <c r="D5" t="n">
-        <v>27.2214</v>
+        <v>26.7646</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.9543</v>
+        <v>19.068</v>
       </c>
       <c r="C6" t="n">
-        <v>26.7676</v>
+        <v>26.8382</v>
       </c>
       <c r="D6" t="n">
-        <v>29.7231</v>
+        <v>29.6989</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9416</v>
+        <v>21.9091</v>
       </c>
       <c r="C7" t="n">
-        <v>31.4222</v>
+        <v>31.4924</v>
       </c>
       <c r="D7" t="n">
-        <v>32.7933</v>
+        <v>32.7614</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.3187</v>
+        <v>16.2767</v>
       </c>
       <c r="C8" t="n">
-        <v>27.7631</v>
+        <v>27.702</v>
       </c>
       <c r="D8" t="n">
-        <v>31.8196</v>
+        <v>32.044</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.3394</v>
+        <v>18.4261</v>
       </c>
       <c r="C9" t="n">
-        <v>28.5255</v>
+        <v>28.1298</v>
       </c>
       <c r="D9" t="n">
-        <v>30.8754</v>
+        <v>31.4367</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.9094</v>
+        <v>20.0407</v>
       </c>
       <c r="C10" t="n">
-        <v>28.7079</v>
+        <v>28.8537</v>
       </c>
       <c r="D10" t="n">
-        <v>31.9549</v>
+        <v>31.9392</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.8259</v>
+        <v>18.9457</v>
       </c>
       <c r="C11" t="n">
-        <v>28.1982</v>
+        <v>27.8915</v>
       </c>
       <c r="D11" t="n">
-        <v>32.2316</v>
+        <v>30.6889</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.3856</v>
+        <v>20.4122</v>
       </c>
       <c r="C12" t="n">
-        <v>27.8327</v>
+        <v>27.9975</v>
       </c>
       <c r="D12" t="n">
-        <v>32.1693</v>
+        <v>32.1794</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.8307</v>
+        <v>21.9449</v>
       </c>
       <c r="C13" t="n">
-        <v>27.7349</v>
+        <v>27.5399</v>
       </c>
       <c r="D13" t="n">
-        <v>31.9532</v>
+        <v>32.7912</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.3264</v>
+        <v>18.2869</v>
       </c>
       <c r="C14" t="n">
-        <v>27.9185</v>
+        <v>27.833</v>
       </c>
       <c r="D14" t="n">
-        <v>31.8295</v>
+        <v>32.36</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3087</v>
+        <v>19.5863</v>
       </c>
       <c r="C15" t="n">
-        <v>27.996</v>
+        <v>28.2851</v>
       </c>
       <c r="D15" t="n">
-        <v>31.5229</v>
+        <v>31.6983</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.3808</v>
+        <v>20.3721</v>
       </c>
       <c r="C16" t="n">
-        <v>28.1035</v>
+        <v>28.3062</v>
       </c>
       <c r="D16" t="n">
-        <v>32.6208</v>
+        <v>32.2698</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.0015</v>
+        <v>19.9341</v>
       </c>
       <c r="C17" t="n">
-        <v>28.2466</v>
+        <v>28.3565</v>
       </c>
       <c r="D17" t="n">
-        <v>31.7818</v>
+        <v>31.3205</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.42991</v>
+        <v>8.362780000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6677</v>
+        <v>11.6529</v>
       </c>
       <c r="D2" t="n">
-        <v>15.4307</v>
+        <v>15.4369</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.1641</v>
+        <v>15.3491</v>
       </c>
       <c r="C3" t="n">
-        <v>18.0463</v>
+        <v>17.6279</v>
       </c>
       <c r="D3" t="n">
-        <v>23.8638</v>
+        <v>23.9496</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.7233</v>
+        <v>20.5599</v>
       </c>
       <c r="C4" t="n">
-        <v>23.4764</v>
+        <v>23.1276</v>
       </c>
       <c r="D4" t="n">
-        <v>28.353</v>
+        <v>28.7833</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.2565</v>
+        <v>16.371</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8367</v>
+        <v>23.1158</v>
       </c>
       <c r="D5" t="n">
-        <v>27.287</v>
+        <v>27.5468</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.296</v>
+        <v>19.3666</v>
       </c>
       <c r="C6" t="n">
-        <v>26.875</v>
+        <v>26.8356</v>
       </c>
       <c r="D6" t="n">
-        <v>29.7601</v>
+        <v>29.7678</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.3696</v>
+        <v>22.3531</v>
       </c>
       <c r="C7" t="n">
-        <v>31.7946</v>
+        <v>31.7844</v>
       </c>
       <c r="D7" t="n">
-        <v>30.5378</v>
+        <v>32.054</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.652</v>
+        <v>16.6353</v>
       </c>
       <c r="C8" t="n">
-        <v>28.2339</v>
+        <v>28.1204</v>
       </c>
       <c r="D8" t="n">
-        <v>30.6189</v>
+        <v>30.8416</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.7437</v>
+        <v>18.8134</v>
       </c>
       <c r="C9" t="n">
-        <v>28.9482</v>
+        <v>28.7469</v>
       </c>
       <c r="D9" t="n">
-        <v>31.015</v>
+        <v>30.5494</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.5678</v>
+        <v>20.517</v>
       </c>
       <c r="C10" t="n">
-        <v>29.3566</v>
+        <v>29.208</v>
       </c>
       <c r="D10" t="n">
-        <v>31.057</v>
+        <v>31.2229</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1736</v>
+        <v>19.1934</v>
       </c>
       <c r="C11" t="n">
-        <v>28.7786</v>
+        <v>29.1968</v>
       </c>
       <c r="D11" t="n">
-        <v>30.8131</v>
+        <v>32.6739</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.8321</v>
+        <v>20.8197</v>
       </c>
       <c r="C12" t="n">
-        <v>28.5049</v>
+        <v>28.5329</v>
       </c>
       <c r="D12" t="n">
-        <v>31.6106</v>
+        <v>31.8329</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.3237</v>
+        <v>22.3273</v>
       </c>
       <c r="C13" t="n">
-        <v>28.0196</v>
+        <v>28.214</v>
       </c>
       <c r="D13" t="n">
-        <v>32.0898</v>
+        <v>32.4697</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6181</v>
+        <v>18.6548</v>
       </c>
       <c r="C14" t="n">
-        <v>28.1683</v>
+        <v>28.4351</v>
       </c>
       <c r="D14" t="n">
-        <v>31.6155</v>
+        <v>32.3889</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.8791</v>
+        <v>19.8676</v>
       </c>
       <c r="C15" t="n">
-        <v>28.4504</v>
+        <v>28.6707</v>
       </c>
       <c r="D15" t="n">
-        <v>31.9507</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.8678</v>
+        <v>20.9011</v>
       </c>
       <c r="C16" t="n">
-        <v>28.732</v>
+        <v>28.6303</v>
       </c>
       <c r="D16" t="n">
-        <v>32.2112</v>
+        <v>32.4217</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.3268</v>
+        <v>20.3155</v>
       </c>
       <c r="C17" t="n">
-        <v>28.4569</v>
+        <v>28.8106</v>
       </c>
       <c r="D17" t="n">
-        <v>31.4946</v>
+        <v>32.7048</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.823</v>
+        <v>10.8014</v>
       </c>
       <c r="C2" t="n">
-        <v>12.3339</v>
+        <v>12.3242</v>
       </c>
       <c r="D2" t="n">
-        <v>16.1356</v>
+        <v>16.0555</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4805</v>
+        <v>19.7768</v>
       </c>
       <c r="C3" t="n">
-        <v>20.2795</v>
+        <v>20.7027</v>
       </c>
       <c r="D3" t="n">
-        <v>26.112</v>
+        <v>26.4807</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.7419</v>
+        <v>26.6368</v>
       </c>
       <c r="C4" t="n">
-        <v>25.2441</v>
+        <v>25.8376</v>
       </c>
       <c r="D4" t="n">
-        <v>32.597</v>
+        <v>32.5633</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.0114</v>
+        <v>22.1078</v>
       </c>
       <c r="C5" t="n">
-        <v>24.3944</v>
+        <v>24.2965</v>
       </c>
       <c r="D5" t="n">
-        <v>32.6036</v>
+        <v>32.3695</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.2673</v>
+        <v>26.2882</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7094</v>
+        <v>27.9463</v>
       </c>
       <c r="D6" t="n">
-        <v>36.5526</v>
+        <v>36.6495</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.8052</v>
+        <v>30.7915</v>
       </c>
       <c r="C7" t="n">
-        <v>32.358</v>
+        <v>32.7165</v>
       </c>
       <c r="D7" t="n">
-        <v>41.4323</v>
+        <v>41.5261</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.0902</v>
+        <v>27.7298</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8709</v>
+        <v>30.6106</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0851</v>
+        <v>38.9894</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.5517</v>
+        <v>27.5271</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4724</v>
+        <v>30.0722</v>
       </c>
       <c r="D9" t="n">
-        <v>38.985</v>
+        <v>39.2726</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.7932</v>
+        <v>27.5049</v>
       </c>
       <c r="C10" t="n">
-        <v>28.535</v>
+        <v>29.1834</v>
       </c>
       <c r="D10" t="n">
-        <v>39.139</v>
+        <v>40.0028</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.2442</v>
+        <v>27.9105</v>
       </c>
       <c r="C11" t="n">
-        <v>29.5214</v>
+        <v>29.3761</v>
       </c>
       <c r="D11" t="n">
-        <v>40.5717</v>
+        <v>39.4989</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.2474</v>
+        <v>28.0809</v>
       </c>
       <c r="C12" t="n">
-        <v>29.9067</v>
+        <v>30.3061</v>
       </c>
       <c r="D12" t="n">
-        <v>39.5313</v>
+        <v>38.5706</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.5357</v>
+        <v>28.7935</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2017</v>
+        <v>30.655</v>
       </c>
       <c r="D13" t="n">
-        <v>39.8914</v>
+        <v>39.5213</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.3741</v>
+        <v>28.5581</v>
       </c>
       <c r="C14" t="n">
-        <v>30.6439</v>
+        <v>30.7514</v>
       </c>
       <c r="D14" t="n">
-        <v>40.8616</v>
+        <v>41.2854</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.2969</v>
+        <v>28.5111</v>
       </c>
       <c r="C15" t="n">
-        <v>30.7753</v>
+        <v>30.64</v>
       </c>
       <c r="D15" t="n">
-        <v>41.8276</v>
+        <v>39.6821</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.5315</v>
+        <v>28.5372</v>
       </c>
       <c r="C16" t="n">
-        <v>30.1758</v>
+        <v>30.7342</v>
       </c>
       <c r="D16" t="n">
-        <v>39.7844</v>
+        <v>41.2084</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.5995</v>
+        <v>28.5304</v>
       </c>
       <c r="C17" t="n">
-        <v>30.5871</v>
+        <v>30.3359</v>
       </c>
       <c r="D17" t="n">
-        <v>41.6261</v>
+        <v>40.1981</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.70173</v>
+        <v>10.3904</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8114</v>
+        <v>11.2904</v>
       </c>
       <c r="D2" t="n">
-        <v>15.9999</v>
+        <v>14.6583</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.7799</v>
+        <v>19.357</v>
       </c>
       <c r="C3" t="n">
-        <v>16.6767</v>
+        <v>17.0789</v>
       </c>
       <c r="D3" t="n">
-        <v>23.7723</v>
+        <v>23.7784</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16.7543</v>
+        <v>26.3358</v>
       </c>
       <c r="C4" t="n">
-        <v>18.1481</v>
+        <v>21.4161</v>
       </c>
       <c r="D4" t="n">
-        <v>23.1741</v>
+        <v>29.1779</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.3523</v>
+        <v>22.2906</v>
       </c>
       <c r="C5" t="n">
-        <v>22.2962</v>
+        <v>23.0526</v>
       </c>
       <c r="D5" t="n">
-        <v>23.3363</v>
+        <v>27.5696</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.2044</v>
+        <v>25.518</v>
       </c>
       <c r="C6" t="n">
-        <v>26.6022</v>
+        <v>26.7735</v>
       </c>
       <c r="D6" t="n">
-        <v>23.5674</v>
+        <v>31.3694</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.5312</v>
+        <v>30.2649</v>
       </c>
       <c r="C7" t="n">
-        <v>31.4063</v>
+        <v>31.4198</v>
       </c>
       <c r="D7" t="n">
-        <v>23.3346</v>
+        <v>34.363</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.291</v>
+        <v>21.8303</v>
       </c>
       <c r="C8" t="n">
-        <v>25.954</v>
+        <v>29.3918</v>
       </c>
       <c r="D8" t="n">
-        <v>23.3076</v>
+        <v>32.2441</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.3451</v>
+        <v>25.2395</v>
       </c>
       <c r="C9" t="n">
-        <v>25.302</v>
+        <v>28.973</v>
       </c>
       <c r="D9" t="n">
-        <v>23.2539</v>
+        <v>32.2997</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.962</v>
+        <v>27.6411</v>
       </c>
       <c r="C10" t="n">
-        <v>25.9694</v>
+        <v>29.8334</v>
       </c>
       <c r="D10" t="n">
-        <v>23.2935</v>
+        <v>33.515</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.9723</v>
+        <v>25.1658</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9785</v>
+        <v>30.123</v>
       </c>
       <c r="D11" t="n">
-        <v>23.3682</v>
+        <v>33.2475</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.1896</v>
+        <v>27.5767</v>
       </c>
       <c r="C12" t="n">
-        <v>28.776</v>
+        <v>29.9836</v>
       </c>
       <c r="D12" t="n">
-        <v>23.4146</v>
+        <v>34.0953</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.392</v>
+        <v>30.2596</v>
       </c>
       <c r="C13" t="n">
-        <v>30.4017</v>
+        <v>30.3224</v>
       </c>
       <c r="D13" t="n">
-        <v>23.4097</v>
+        <v>34.3427</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.7661</v>
+        <v>24.6734</v>
       </c>
       <c r="C14" t="n">
-        <v>27.8977</v>
+        <v>30.0634</v>
       </c>
       <c r="D14" t="n">
-        <v>23.3962</v>
+        <v>34.3496</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.9949</v>
+        <v>26.8533</v>
       </c>
       <c r="C15" t="n">
-        <v>27.2899</v>
+        <v>30.2064</v>
       </c>
       <c r="D15" t="n">
-        <v>23.4225</v>
+        <v>34.8755</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.8601</v>
+        <v>28.3598</v>
       </c>
       <c r="C16" t="n">
-        <v>27.4864</v>
+        <v>29.9729</v>
       </c>
       <c r="D16" t="n">
-        <v>23.4472</v>
+        <v>34.7735</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.7649</v>
+        <v>26.8198</v>
       </c>
       <c r="C17" t="n">
-        <v>28.1529</v>
+        <v>30.1146</v>
       </c>
       <c r="D17" t="n">
-        <v>23.4277</v>
+        <v>35.5805</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.76862</v>
+        <v>11.0574</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8076</v>
+        <v>11.3601</v>
       </c>
       <c r="D2" t="n">
-        <v>15.882</v>
+        <v>14.8004</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.8794</v>
+        <v>20.2535</v>
       </c>
       <c r="C3" t="n">
-        <v>18.6024</v>
+        <v>17.2073</v>
       </c>
       <c r="D3" t="n">
-        <v>23.1615</v>
+        <v>24.0854</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17.2733</v>
+        <v>27.9658</v>
       </c>
       <c r="C4" t="n">
-        <v>19.3362</v>
+        <v>21.2204</v>
       </c>
       <c r="D4" t="n">
-        <v>23.2562</v>
+        <v>28.1498</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.5156</v>
+        <v>22.2872</v>
       </c>
       <c r="C5" t="n">
-        <v>22.266</v>
+        <v>22.9746</v>
       </c>
       <c r="D5" t="n">
-        <v>23.2803</v>
+        <v>28.2528</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.3625</v>
+        <v>26.4304</v>
       </c>
       <c r="C6" t="n">
-        <v>26.4851</v>
+        <v>26.7926</v>
       </c>
       <c r="D6" t="n">
-        <v>23.2433</v>
+        <v>28.706</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7782</v>
+        <v>31.3663</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2585</v>
+        <v>31.3919</v>
       </c>
       <c r="D7" t="n">
-        <v>23.3326</v>
+        <v>32.9862</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3308</v>
+        <v>22.6135</v>
       </c>
       <c r="C8" t="n">
-        <v>25.9441</v>
+        <v>29.6871</v>
       </c>
       <c r="D8" t="n">
-        <v>23.3443</v>
+        <v>32.5227</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.8552</v>
+        <v>26.1571</v>
       </c>
       <c r="C9" t="n">
-        <v>24.7668</v>
+        <v>29.3779</v>
       </c>
       <c r="D9" t="n">
-        <v>23.3604</v>
+        <v>33.8505</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.8523</v>
+        <v>29.2423</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4536</v>
+        <v>29.7581</v>
       </c>
       <c r="D10" t="n">
-        <v>23.435</v>
+        <v>34.1903</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.1072</v>
+        <v>26.2005</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9582</v>
+        <v>29.0112</v>
       </c>
       <c r="D11" t="n">
-        <v>23.4129</v>
+        <v>34.2254</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4197</v>
+        <v>28.5795</v>
       </c>
       <c r="C12" t="n">
-        <v>28.7722</v>
+        <v>29.6701</v>
       </c>
       <c r="D12" t="n">
-        <v>23.3483</v>
+        <v>34.8783</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6094</v>
+        <v>31.365</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3568</v>
+        <v>30.2489</v>
       </c>
       <c r="D13" t="n">
-        <v>23.3999</v>
+        <v>34.8828</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0003</v>
+        <v>25.6501</v>
       </c>
       <c r="C14" t="n">
-        <v>27.7689</v>
+        <v>30.3439</v>
       </c>
       <c r="D14" t="n">
-        <v>23.4489</v>
+        <v>37.0211</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.9873</v>
+        <v>27.9227</v>
       </c>
       <c r="C15" t="n">
-        <v>27.0968</v>
+        <v>30.3844</v>
       </c>
       <c r="D15" t="n">
-        <v>23.3519</v>
+        <v>36.1718</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.2808</v>
+        <v>29.6791</v>
       </c>
       <c r="C16" t="n">
-        <v>27.3791</v>
+        <v>30.4883</v>
       </c>
       <c r="D16" t="n">
-        <v>23.4217</v>
+        <v>37.9354</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.9062</v>
+        <v>27.7972</v>
       </c>
       <c r="C17" t="n">
-        <v>28.2225</v>
+        <v>30.4581</v>
       </c>
       <c r="D17" t="n">
-        <v>23.4314</v>
+        <v>38.1238</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.1142</v>
+        <v>13.0657</v>
       </c>
       <c r="C2" t="n">
-        <v>12.3763</v>
+        <v>12.245</v>
       </c>
       <c r="D2" t="n">
-        <v>16.2776</v>
+        <v>16.0431</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.1842</v>
+        <v>23.4495</v>
       </c>
       <c r="C3" t="n">
-        <v>18.508</v>
+        <v>20.1493</v>
       </c>
       <c r="D3" t="n">
-        <v>23.7154</v>
+        <v>25.7606</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.6646</v>
+        <v>31.888</v>
       </c>
       <c r="C4" t="n">
-        <v>21.2037</v>
+        <v>25.2683</v>
       </c>
       <c r="D4" t="n">
-        <v>29.2008</v>
+        <v>34.3228</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.3128</v>
+        <v>27.2309</v>
       </c>
       <c r="C5" t="n">
-        <v>23.2314</v>
+        <v>24.1004</v>
       </c>
       <c r="D5" t="n">
-        <v>34.2777</v>
+        <v>33.9111</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.2354</v>
+        <v>32.5206</v>
       </c>
       <c r="C6" t="n">
-        <v>27.5921</v>
+        <v>27.8009</v>
       </c>
       <c r="D6" t="n">
-        <v>39.4555</v>
+        <v>38.5775</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9847</v>
+        <v>38.6658</v>
       </c>
       <c r="C7" t="n">
-        <v>32.1479</v>
+        <v>32.4131</v>
       </c>
       <c r="D7" t="n">
-        <v>44.3062</v>
+        <v>38.4721</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.638</v>
+        <v>34.6349</v>
       </c>
       <c r="C8" t="n">
-        <v>26.2523</v>
+        <v>29.1603</v>
       </c>
       <c r="D8" t="n">
-        <v>35.0099</v>
+        <v>37.7464</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.1983</v>
+        <v>35.5433</v>
       </c>
       <c r="C9" t="n">
-        <v>25.3275</v>
+        <v>29.2196</v>
       </c>
       <c r="D9" t="n">
-        <v>35.6059</v>
+        <v>39.4964</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.5447</v>
+        <v>35.5879</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4026</v>
+        <v>29.6447</v>
       </c>
       <c r="D10" t="n">
-        <v>36.5823</v>
+        <v>40.3859</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.28</v>
+        <v>36.3227</v>
       </c>
       <c r="C11" t="n">
-        <v>27.7476</v>
+        <v>29.8003</v>
       </c>
       <c r="D11" t="n">
-        <v>39.3148</v>
+        <v>42.7393</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.8219</v>
+        <v>35.4056</v>
       </c>
       <c r="C12" t="n">
-        <v>29.6553</v>
+        <v>30.0637</v>
       </c>
       <c r="D12" t="n">
-        <v>41.6223</v>
+        <v>44.0411</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.9387</v>
+        <v>36.2566</v>
       </c>
       <c r="C13" t="n">
-        <v>31.5251</v>
+        <v>30.3906</v>
       </c>
       <c r="D13" t="n">
-        <v>43.907</v>
+        <v>44.0318</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.3458</v>
+        <v>36.2031</v>
       </c>
       <c r="C14" t="n">
-        <v>28.519</v>
+        <v>30.0231</v>
       </c>
       <c r="D14" t="n">
-        <v>38.4386</v>
+        <v>43.6339</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2629</v>
+        <v>36.8674</v>
       </c>
       <c r="C15" t="n">
-        <v>27.9105</v>
+        <v>30.2919</v>
       </c>
       <c r="D15" t="n">
-        <v>38.4205</v>
+        <v>44.4912</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.2778</v>
+        <v>36.1128</v>
       </c>
       <c r="C16" t="n">
-        <v>28.248</v>
+        <v>30.1039</v>
       </c>
       <c r="D16" t="n">
-        <v>38.9384</v>
+        <v>44.0284</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.3618</v>
+        <v>36.0665</v>
       </c>
       <c r="C17" t="n">
-        <v>29.0459</v>
+        <v>30.3219</v>
       </c>
       <c r="D17" t="n">
-        <v>40.2687</v>
+        <v>44.017</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.26356</v>
+        <v>5.26316</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6295</v>
+        <v>9.59417</v>
       </c>
       <c r="D2" t="n">
-        <v>15.6639</v>
+        <v>12.3545</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.0681</v>
+        <v>10.1464</v>
       </c>
       <c r="C3" t="n">
-        <v>17.5246</v>
+        <v>16.4248</v>
       </c>
       <c r="D3" t="n">
-        <v>24.0767</v>
+        <v>22.7308</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.9596</v>
+        <v>14.6252</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6471</v>
+        <v>22.8233</v>
       </c>
       <c r="D4" t="n">
-        <v>29.5435</v>
+        <v>31.0645</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0002</v>
+        <v>17.6932</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0084</v>
+        <v>22.699</v>
       </c>
       <c r="D5" t="n">
-        <v>26.7646</v>
+        <v>30.6253</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.068</v>
+        <v>21.4338</v>
       </c>
       <c r="C6" t="n">
-        <v>26.8382</v>
+        <v>25.8929</v>
       </c>
       <c r="D6" t="n">
-        <v>29.6989</v>
+        <v>35.1846</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9091</v>
+        <v>24.6378</v>
       </c>
       <c r="C7" t="n">
-        <v>31.4924</v>
+        <v>30.4799</v>
       </c>
       <c r="D7" t="n">
-        <v>32.7614</v>
+        <v>38.8986</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2767</v>
+        <v>21.8356</v>
       </c>
       <c r="C8" t="n">
-        <v>27.702</v>
+        <v>29.2663</v>
       </c>
       <c r="D8" t="n">
-        <v>32.044</v>
+        <v>37.7555</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.4261</v>
+        <v>22.7831</v>
       </c>
       <c r="C9" t="n">
-        <v>28.1298</v>
+        <v>29.4311</v>
       </c>
       <c r="D9" t="n">
-        <v>31.4367</v>
+        <v>37.2257</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.0407</v>
+        <v>23.3775</v>
       </c>
       <c r="C10" t="n">
-        <v>28.8537</v>
+        <v>29.5699</v>
       </c>
       <c r="D10" t="n">
-        <v>31.9392</v>
+        <v>36.4822</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.9457</v>
+        <v>23.9341</v>
       </c>
       <c r="C11" t="n">
-        <v>27.8915</v>
+        <v>29.1626</v>
       </c>
       <c r="D11" t="n">
-        <v>30.6889</v>
+        <v>37.0235</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.4122</v>
+        <v>23.6693</v>
       </c>
       <c r="C12" t="n">
-        <v>27.9975</v>
+        <v>29.5139</v>
       </c>
       <c r="D12" t="n">
-        <v>32.1794</v>
+        <v>37.1263</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.9449</v>
+        <v>24.0465</v>
       </c>
       <c r="C13" t="n">
-        <v>27.5399</v>
+        <v>29.3853</v>
       </c>
       <c r="D13" t="n">
-        <v>32.7912</v>
+        <v>37.1506</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.2869</v>
+        <v>23.4635</v>
       </c>
       <c r="C14" t="n">
-        <v>27.833</v>
+        <v>29.8357</v>
       </c>
       <c r="D14" t="n">
-        <v>32.36</v>
+        <v>37.1417</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.5863</v>
+        <v>23.856</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2851</v>
+        <v>29.586</v>
       </c>
       <c r="D15" t="n">
-        <v>31.6983</v>
+        <v>37.6355</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.3721</v>
+        <v>23.798</v>
       </c>
       <c r="C16" t="n">
-        <v>28.3062</v>
+        <v>29.4692</v>
       </c>
       <c r="D16" t="n">
-        <v>32.2698</v>
+        <v>36.9477</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.9341</v>
+        <v>23.8222</v>
       </c>
       <c r="C17" t="n">
-        <v>28.3565</v>
+        <v>30.0401</v>
       </c>
       <c r="D17" t="n">
-        <v>31.3205</v>
+        <v>37.1944</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.362780000000001</v>
+        <v>5.27504</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6529</v>
+        <v>9.71496</v>
       </c>
       <c r="D2" t="n">
-        <v>15.4369</v>
+        <v>12.4224</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3491</v>
+        <v>10.2043</v>
       </c>
       <c r="C3" t="n">
-        <v>17.6279</v>
+        <v>16.5466</v>
       </c>
       <c r="D3" t="n">
-        <v>23.9496</v>
+        <v>22.7057</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.5599</v>
+        <v>14.6922</v>
       </c>
       <c r="C4" t="n">
-        <v>23.1276</v>
+        <v>22.6139</v>
       </c>
       <c r="D4" t="n">
-        <v>28.7833</v>
+        <v>31.5365</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.371</v>
+        <v>17.9727</v>
       </c>
       <c r="C5" t="n">
-        <v>23.1158</v>
+        <v>22.5733</v>
       </c>
       <c r="D5" t="n">
-        <v>27.5468</v>
+        <v>30.5185</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3666</v>
+        <v>21.8316</v>
       </c>
       <c r="C6" t="n">
-        <v>26.8356</v>
+        <v>26.0507</v>
       </c>
       <c r="D6" t="n">
-        <v>29.7678</v>
+        <v>36.0348</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.3531</v>
+        <v>25.1766</v>
       </c>
       <c r="C7" t="n">
-        <v>31.7844</v>
+        <v>30.584</v>
       </c>
       <c r="D7" t="n">
-        <v>32.054</v>
+        <v>40.2586</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.6353</v>
+        <v>22.302</v>
       </c>
       <c r="C8" t="n">
-        <v>28.1204</v>
+        <v>29.426</v>
       </c>
       <c r="D8" t="n">
-        <v>30.8416</v>
+        <v>38.4563</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.8134</v>
+        <v>23.5371</v>
       </c>
       <c r="C9" t="n">
-        <v>28.7469</v>
+        <v>29.0963</v>
       </c>
       <c r="D9" t="n">
-        <v>30.5494</v>
+        <v>37.7498</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.517</v>
+        <v>23.7544</v>
       </c>
       <c r="C10" t="n">
-        <v>29.208</v>
+        <v>29.7477</v>
       </c>
       <c r="D10" t="n">
-        <v>31.2229</v>
+        <v>37.5317</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1934</v>
+        <v>24.5892</v>
       </c>
       <c r="C11" t="n">
-        <v>29.1968</v>
+        <v>29.5398</v>
       </c>
       <c r="D11" t="n">
-        <v>32.6739</v>
+        <v>37.01</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.8197</v>
+        <v>24.1191</v>
       </c>
       <c r="C12" t="n">
-        <v>28.5329</v>
+        <v>29.5976</v>
       </c>
       <c r="D12" t="n">
-        <v>31.8329</v>
+        <v>37.7795</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.3273</v>
+        <v>24.0682</v>
       </c>
       <c r="C13" t="n">
-        <v>28.214</v>
+        <v>29.8068</v>
       </c>
       <c r="D13" t="n">
-        <v>32.4697</v>
+        <v>37.659</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6548</v>
+        <v>23.9106</v>
       </c>
       <c r="C14" t="n">
-        <v>28.4351</v>
+        <v>30.0299</v>
       </c>
       <c r="D14" t="n">
-        <v>32.3889</v>
+        <v>37.7609</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.8676</v>
+        <v>24.2056</v>
       </c>
       <c r="C15" t="n">
-        <v>28.6707</v>
+        <v>29.9142</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>37.9932</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.9011</v>
+        <v>24.3544</v>
       </c>
       <c r="C16" t="n">
-        <v>28.6303</v>
+        <v>29.7216</v>
       </c>
       <c r="D16" t="n">
-        <v>32.4217</v>
+        <v>38.4397</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.3155</v>
+        <v>24.1592</v>
       </c>
       <c r="C17" t="n">
-        <v>28.8106</v>
+        <v>30.2004</v>
       </c>
       <c r="D17" t="n">
-        <v>32.7048</v>
+        <v>38.0431</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8014</v>
+        <v>8.2456</v>
       </c>
       <c r="C2" t="n">
-        <v>12.3242</v>
+        <v>11.6691</v>
       </c>
       <c r="D2" t="n">
-        <v>16.0555</v>
+        <v>15.2608</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.7768</v>
+        <v>15.7114</v>
       </c>
       <c r="C3" t="n">
-        <v>20.7027</v>
+        <v>19.071</v>
       </c>
       <c r="D3" t="n">
-        <v>26.4807</v>
+        <v>28.0751</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.6368</v>
+        <v>22.6108</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8376</v>
+        <v>25.4338</v>
       </c>
       <c r="D4" t="n">
-        <v>32.5633</v>
+        <v>38.9372</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.1078</v>
+        <v>23.7896</v>
       </c>
       <c r="C5" t="n">
-        <v>24.2965</v>
+        <v>24.3705</v>
       </c>
       <c r="D5" t="n">
-        <v>32.3695</v>
+        <v>37.2712</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.2882</v>
+        <v>28.7049</v>
       </c>
       <c r="C6" t="n">
-        <v>27.9463</v>
+        <v>27.5773</v>
       </c>
       <c r="D6" t="n">
-        <v>36.6495</v>
+        <v>42.8918</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.7915</v>
+        <v>34.2911</v>
       </c>
       <c r="C7" t="n">
-        <v>32.7165</v>
+        <v>31.8511</v>
       </c>
       <c r="D7" t="n">
-        <v>41.5261</v>
+        <v>49.6886</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.7298</v>
+        <v>31.3776</v>
       </c>
       <c r="C8" t="n">
-        <v>30.6106</v>
+        <v>30.8374</v>
       </c>
       <c r="D8" t="n">
-        <v>38.9894</v>
+        <v>46.6255</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.5271</v>
+        <v>31.7576</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0722</v>
+        <v>30.883</v>
       </c>
       <c r="D9" t="n">
-        <v>39.2726</v>
+        <v>46.8208</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.5049</v>
+        <v>32.199</v>
       </c>
       <c r="C10" t="n">
-        <v>29.1834</v>
+        <v>31.1371</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0028</v>
+        <v>47.0152</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.9105</v>
+        <v>32.4553</v>
       </c>
       <c r="C11" t="n">
-        <v>29.3761</v>
+        <v>31.2742</v>
       </c>
       <c r="D11" t="n">
-        <v>39.4989</v>
+        <v>46.6713</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.0809</v>
+        <v>32.6073</v>
       </c>
       <c r="C12" t="n">
-        <v>30.3061</v>
+        <v>31.3557</v>
       </c>
       <c r="D12" t="n">
-        <v>38.5706</v>
+        <v>47.2299</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.7935</v>
+        <v>32.4919</v>
       </c>
       <c r="C13" t="n">
-        <v>30.655</v>
+        <v>31.1664</v>
       </c>
       <c r="D13" t="n">
-        <v>39.5213</v>
+        <v>46.9016</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.5581</v>
+        <v>32.5345</v>
       </c>
       <c r="C14" t="n">
-        <v>30.7514</v>
+        <v>31.3879</v>
       </c>
       <c r="D14" t="n">
-        <v>41.2854</v>
+        <v>47.052</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.5111</v>
+        <v>33.2501</v>
       </c>
       <c r="C15" t="n">
-        <v>30.64</v>
+        <v>31.0047</v>
       </c>
       <c r="D15" t="n">
-        <v>39.6821</v>
+        <v>46.9631</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.5372</v>
+        <v>32.4879</v>
       </c>
       <c r="C16" t="n">
-        <v>30.7342</v>
+        <v>31.4331</v>
       </c>
       <c r="D16" t="n">
-        <v>41.2084</v>
+        <v>47.3325</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.5304</v>
+        <v>33.0412</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3359</v>
+        <v>31.1668</v>
       </c>
       <c r="D17" t="n">
-        <v>40.1981</v>
+        <v>47.2244</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3904</v>
+        <v>9.18736</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2904</v>
+        <v>11.3201</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6583</v>
+        <v>14.6221</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.357</v>
+        <v>17.3169</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0789</v>
+        <v>17.1868</v>
       </c>
       <c r="D3" t="n">
-        <v>23.7784</v>
+        <v>23.784</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.3358</v>
+        <v>23.6499</v>
       </c>
       <c r="C4" t="n">
-        <v>21.4161</v>
+        <v>21.606</v>
       </c>
       <c r="D4" t="n">
-        <v>29.1779</v>
+        <v>28.646</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.2906</v>
+        <v>19.4795</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0526</v>
+        <v>22.8571</v>
       </c>
       <c r="D5" t="n">
-        <v>27.5696</v>
+        <v>27.7288</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.518</v>
+        <v>23.1678</v>
       </c>
       <c r="C6" t="n">
-        <v>26.7735</v>
+        <v>26.8542</v>
       </c>
       <c r="D6" t="n">
-        <v>31.3694</v>
+        <v>30.9695</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.2649</v>
+        <v>27.5429</v>
       </c>
       <c r="C7" t="n">
-        <v>31.4198</v>
+        <v>31.5526</v>
       </c>
       <c r="D7" t="n">
-        <v>34.363</v>
+        <v>34.4901</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.8303</v>
+        <v>19.8617</v>
       </c>
       <c r="C8" t="n">
-        <v>29.3918</v>
+        <v>29.2523</v>
       </c>
       <c r="D8" t="n">
-        <v>32.2441</v>
+        <v>32.0751</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.2395</v>
+        <v>22.3353</v>
       </c>
       <c r="C9" t="n">
-        <v>28.973</v>
+        <v>29.3133</v>
       </c>
       <c r="D9" t="n">
-        <v>32.2997</v>
+        <v>32.6456</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.6411</v>
+        <v>24.4782</v>
       </c>
       <c r="C10" t="n">
-        <v>29.8334</v>
+        <v>29.7316</v>
       </c>
       <c r="D10" t="n">
-        <v>33.515</v>
+        <v>32.3749</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1658</v>
+        <v>23.3212</v>
       </c>
       <c r="C11" t="n">
-        <v>30.123</v>
+        <v>29.7125</v>
       </c>
       <c r="D11" t="n">
-        <v>33.2475</v>
+        <v>33.7872</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.5767</v>
+        <v>25.0659</v>
       </c>
       <c r="C12" t="n">
-        <v>29.9836</v>
+        <v>30.0683</v>
       </c>
       <c r="D12" t="n">
-        <v>34.0953</v>
+        <v>34.2089</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.2596</v>
+        <v>27.5215</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3224</v>
+        <v>29.9523</v>
       </c>
       <c r="D13" t="n">
-        <v>34.3427</v>
+        <v>34.4916</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.6734</v>
+        <v>22.4213</v>
       </c>
       <c r="C14" t="n">
-        <v>30.0634</v>
+        <v>29.6735</v>
       </c>
       <c r="D14" t="n">
-        <v>34.3496</v>
+        <v>34.2973</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.8533</v>
+        <v>23.9927</v>
       </c>
       <c r="C15" t="n">
-        <v>30.2064</v>
+        <v>29.5949</v>
       </c>
       <c r="D15" t="n">
-        <v>34.8755</v>
+        <v>34.612</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.3598</v>
+        <v>25.3043</v>
       </c>
       <c r="C16" t="n">
-        <v>29.9729</v>
+        <v>30.0704</v>
       </c>
       <c r="D16" t="n">
-        <v>34.7735</v>
+        <v>34.5985</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.8198</v>
+        <v>24.4652</v>
       </c>
       <c r="C17" t="n">
-        <v>30.1146</v>
+        <v>30.1651</v>
       </c>
       <c r="D17" t="n">
-        <v>35.5805</v>
+        <v>35.3302</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0574</v>
+        <v>9.59098</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3601</v>
+        <v>11.3819</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8004</v>
+        <v>14.7909</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.2535</v>
+        <v>18.1778</v>
       </c>
       <c r="C3" t="n">
-        <v>17.2073</v>
+        <v>17.2751</v>
       </c>
       <c r="D3" t="n">
-        <v>24.0854</v>
+        <v>23.8929</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.9658</v>
+        <v>24.546</v>
       </c>
       <c r="C4" t="n">
-        <v>21.2204</v>
+        <v>20.8711</v>
       </c>
       <c r="D4" t="n">
-        <v>28.1498</v>
+        <v>28.974</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.2872</v>
+        <v>19.8667</v>
       </c>
       <c r="C5" t="n">
-        <v>22.9746</v>
+        <v>22.5824</v>
       </c>
       <c r="D5" t="n">
-        <v>28.2528</v>
+        <v>28.2442</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4304</v>
+        <v>23.7275</v>
       </c>
       <c r="C6" t="n">
-        <v>26.7926</v>
+        <v>26.6768</v>
       </c>
       <c r="D6" t="n">
-        <v>28.706</v>
+        <v>28.322</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.3663</v>
+        <v>28.516</v>
       </c>
       <c r="C7" t="n">
-        <v>31.3919</v>
+        <v>31.4376</v>
       </c>
       <c r="D7" t="n">
-        <v>32.9862</v>
+        <v>32.1517</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.6135</v>
+        <v>20.2622</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6871</v>
+        <v>29.0388</v>
       </c>
       <c r="D8" t="n">
-        <v>32.5227</v>
+        <v>31.8757</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.1571</v>
+        <v>23.7454</v>
       </c>
       <c r="C9" t="n">
-        <v>29.3779</v>
+        <v>29.087</v>
       </c>
       <c r="D9" t="n">
-        <v>33.8505</v>
+        <v>33.4272</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.2423</v>
+        <v>25.8284</v>
       </c>
       <c r="C10" t="n">
-        <v>29.7581</v>
+        <v>29.3071</v>
       </c>
       <c r="D10" t="n">
-        <v>34.1903</v>
+        <v>34.2433</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>26.2005</v>
+        <v>23.5833</v>
       </c>
       <c r="C11" t="n">
-        <v>29.0112</v>
+        <v>29.0818</v>
       </c>
       <c r="D11" t="n">
-        <v>34.2254</v>
+        <v>34.502</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.5795</v>
+        <v>25.8084</v>
       </c>
       <c r="C12" t="n">
-        <v>29.6701</v>
+        <v>29.7007</v>
       </c>
       <c r="D12" t="n">
-        <v>34.8783</v>
+        <v>34.7595</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.365</v>
+        <v>28.4529</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2489</v>
+        <v>30.382</v>
       </c>
       <c r="D13" t="n">
-        <v>34.8828</v>
+        <v>35.5381</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.6501</v>
+        <v>23.0912</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3439</v>
+        <v>30.428</v>
       </c>
       <c r="D14" t="n">
-        <v>37.0211</v>
+        <v>37.1523</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.9227</v>
+        <v>24.7773</v>
       </c>
       <c r="C15" t="n">
-        <v>30.3844</v>
+        <v>30.3775</v>
       </c>
       <c r="D15" t="n">
-        <v>36.1718</v>
+        <v>37.1862</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.6791</v>
+        <v>25.9324</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4883</v>
+        <v>30.6831</v>
       </c>
       <c r="D16" t="n">
-        <v>37.9354</v>
+        <v>37.7661</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.7972</v>
+        <v>25.2313</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4581</v>
+        <v>30.534</v>
       </c>
       <c r="D17" t="n">
-        <v>38.1238</v>
+        <v>37.8079</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0657</v>
+        <v>11.4188</v>
       </c>
       <c r="C2" t="n">
-        <v>12.245</v>
+        <v>12.2515</v>
       </c>
       <c r="D2" t="n">
-        <v>16.0431</v>
+        <v>15.9621</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.4495</v>
+        <v>20.5579</v>
       </c>
       <c r="C3" t="n">
-        <v>20.1493</v>
+        <v>19.9957</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7606</v>
+        <v>26.0671</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.888</v>
+        <v>28.7303</v>
       </c>
       <c r="C4" t="n">
-        <v>25.2683</v>
+        <v>25.8671</v>
       </c>
       <c r="D4" t="n">
-        <v>34.3228</v>
+        <v>34.3616</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.2309</v>
+        <v>24.393</v>
       </c>
       <c r="C5" t="n">
-        <v>24.1004</v>
+        <v>24.181</v>
       </c>
       <c r="D5" t="n">
-        <v>33.9111</v>
+        <v>32.7378</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.5206</v>
+        <v>29.4488</v>
       </c>
       <c r="C6" t="n">
-        <v>27.8009</v>
+        <v>27.7118</v>
       </c>
       <c r="D6" t="n">
-        <v>38.5775</v>
+        <v>38.6225</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.6658</v>
+        <v>35.1578</v>
       </c>
       <c r="C7" t="n">
-        <v>32.4131</v>
+        <v>32.4711</v>
       </c>
       <c r="D7" t="n">
-        <v>38.4721</v>
+        <v>38.6903</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.6349</v>
+        <v>31.4765</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1603</v>
+        <v>29.3752</v>
       </c>
       <c r="D8" t="n">
-        <v>37.7464</v>
+        <v>36.7506</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>35.5433</v>
+        <v>31.4781</v>
       </c>
       <c r="C9" t="n">
-        <v>29.2196</v>
+        <v>29.4197</v>
       </c>
       <c r="D9" t="n">
-        <v>39.4964</v>
+        <v>39.901</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.5879</v>
+        <v>32.0312</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6447</v>
+        <v>28.9494</v>
       </c>
       <c r="D10" t="n">
-        <v>40.3859</v>
+        <v>40.3671</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36.3227</v>
+        <v>32.8273</v>
       </c>
       <c r="C11" t="n">
-        <v>29.8003</v>
+        <v>30.1931</v>
       </c>
       <c r="D11" t="n">
-        <v>42.7393</v>
+        <v>42.8415</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.4056</v>
+        <v>32.9411</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0637</v>
+        <v>30.1413</v>
       </c>
       <c r="D12" t="n">
-        <v>44.0411</v>
+        <v>44.2514</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.2566</v>
+        <v>32.3482</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3906</v>
+        <v>30.2632</v>
       </c>
       <c r="D13" t="n">
-        <v>44.0318</v>
+        <v>43.5605</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>36.2031</v>
+        <v>32.7158</v>
       </c>
       <c r="C14" t="n">
-        <v>30.0231</v>
+        <v>30.4812</v>
       </c>
       <c r="D14" t="n">
-        <v>43.6339</v>
+        <v>43.5159</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.8674</v>
+        <v>32.7836</v>
       </c>
       <c r="C15" t="n">
-        <v>30.2919</v>
+        <v>29.7223</v>
       </c>
       <c r="D15" t="n">
-        <v>44.4912</v>
+        <v>43.9528</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.1128</v>
+        <v>33.1458</v>
       </c>
       <c r="C16" t="n">
-        <v>30.1039</v>
+        <v>30.8152</v>
       </c>
       <c r="D16" t="n">
-        <v>44.0284</v>
+        <v>44.0559</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>36.0665</v>
+        <v>33.6021</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3219</v>
+        <v>30.4209</v>
       </c>
       <c r="D17" t="n">
-        <v>44.017</v>
+        <v>43.6333</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.26316</v>
+        <v>4.51997</v>
       </c>
       <c r="C2" t="n">
-        <v>9.59417</v>
+        <v>9.609719999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>12.3545</v>
+        <v>12.346</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1464</v>
+        <v>8.84221</v>
       </c>
       <c r="C3" t="n">
-        <v>16.4248</v>
+        <v>16.4596</v>
       </c>
       <c r="D3" t="n">
-        <v>22.7308</v>
+        <v>22.8055</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.6252</v>
+        <v>12.7803</v>
       </c>
       <c r="C4" t="n">
-        <v>22.8233</v>
+        <v>22.9714</v>
       </c>
       <c r="D4" t="n">
-        <v>31.0645</v>
+        <v>31.4987</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.6932</v>
+        <v>15.0835</v>
       </c>
       <c r="C5" t="n">
-        <v>22.699</v>
+        <v>22.5428</v>
       </c>
       <c r="D5" t="n">
-        <v>30.6253</v>
+        <v>30.1637</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.4338</v>
+        <v>18.3485</v>
       </c>
       <c r="C6" t="n">
-        <v>25.8929</v>
+        <v>25.9295</v>
       </c>
       <c r="D6" t="n">
-        <v>35.1846</v>
+        <v>35.0181</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.6378</v>
+        <v>21.4711</v>
       </c>
       <c r="C7" t="n">
-        <v>30.4799</v>
+        <v>30.5444</v>
       </c>
       <c r="D7" t="n">
-        <v>38.8986</v>
+        <v>38.867</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.8356</v>
+        <v>19.3831</v>
       </c>
       <c r="C8" t="n">
-        <v>29.2663</v>
+        <v>29.6395</v>
       </c>
       <c r="D8" t="n">
-        <v>37.7555</v>
+        <v>37.3447</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.7831</v>
+        <v>19.9987</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4311</v>
+        <v>29.3681</v>
       </c>
       <c r="D9" t="n">
-        <v>37.2257</v>
+        <v>36.5887</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.3775</v>
+        <v>19.7698</v>
       </c>
       <c r="C10" t="n">
-        <v>29.5699</v>
+        <v>29.3815</v>
       </c>
       <c r="D10" t="n">
-        <v>36.4822</v>
+        <v>36.298</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.9341</v>
+        <v>20.5467</v>
       </c>
       <c r="C11" t="n">
-        <v>29.1626</v>
+        <v>29.4144</v>
       </c>
       <c r="D11" t="n">
-        <v>37.0235</v>
+        <v>37.0047</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.6693</v>
+        <v>20.0607</v>
       </c>
       <c r="C12" t="n">
-        <v>29.5139</v>
+        <v>29.4981</v>
       </c>
       <c r="D12" t="n">
-        <v>37.1263</v>
+        <v>37.2169</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.0465</v>
+        <v>19.9462</v>
       </c>
       <c r="C13" t="n">
-        <v>29.3853</v>
+        <v>29.7059</v>
       </c>
       <c r="D13" t="n">
-        <v>37.1506</v>
+        <v>36.8792</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.4635</v>
+        <v>20.1003</v>
       </c>
       <c r="C14" t="n">
-        <v>29.8357</v>
+        <v>29.7431</v>
       </c>
       <c r="D14" t="n">
-        <v>37.1417</v>
+        <v>36.5931</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.856</v>
+        <v>20.545</v>
       </c>
       <c r="C15" t="n">
-        <v>29.586</v>
+        <v>29.9513</v>
       </c>
       <c r="D15" t="n">
-        <v>37.6355</v>
+        <v>36.8631</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.798</v>
+        <v>20.257</v>
       </c>
       <c r="C16" t="n">
-        <v>29.4692</v>
+        <v>29.9928</v>
       </c>
       <c r="D16" t="n">
-        <v>36.9477</v>
+        <v>36.8956</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.8222</v>
+        <v>20.6824</v>
       </c>
       <c r="C17" t="n">
-        <v>30.0401</v>
+        <v>30.1008</v>
       </c>
       <c r="D17" t="n">
-        <v>37.1944</v>
+        <v>36.7845</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.27504</v>
+        <v>4.56045</v>
       </c>
       <c r="C2" t="n">
-        <v>9.71496</v>
+        <v>9.73203</v>
       </c>
       <c r="D2" t="n">
-        <v>12.4224</v>
+        <v>12.417</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2043</v>
+        <v>8.93577</v>
       </c>
       <c r="C3" t="n">
-        <v>16.5466</v>
+        <v>16.6947</v>
       </c>
       <c r="D3" t="n">
-        <v>22.7057</v>
+        <v>23.0878</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.6922</v>
+        <v>12.9803</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6139</v>
+        <v>22.881</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5365</v>
+        <v>32.1037</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.9727</v>
+        <v>15.3033</v>
       </c>
       <c r="C5" t="n">
-        <v>22.5733</v>
+        <v>22.9095</v>
       </c>
       <c r="D5" t="n">
-        <v>30.5185</v>
+        <v>30.8285</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21.8316</v>
+        <v>18.6794</v>
       </c>
       <c r="C6" t="n">
-        <v>26.0507</v>
+        <v>26.0464</v>
       </c>
       <c r="D6" t="n">
-        <v>36.0348</v>
+        <v>35.8675</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.1766</v>
+        <v>21.9542</v>
       </c>
       <c r="C7" t="n">
-        <v>30.584</v>
+        <v>30.6389</v>
       </c>
       <c r="D7" t="n">
-        <v>40.2586</v>
+        <v>40.3524</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.302</v>
+        <v>19.5658</v>
       </c>
       <c r="C8" t="n">
-        <v>29.426</v>
+        <v>29.8271</v>
       </c>
       <c r="D8" t="n">
-        <v>38.4563</v>
+        <v>38.1557</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.5371</v>
+        <v>20.0135</v>
       </c>
       <c r="C9" t="n">
-        <v>29.0963</v>
+        <v>29.6063</v>
       </c>
       <c r="D9" t="n">
-        <v>37.7498</v>
+        <v>37.6559</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.7544</v>
+        <v>20.5474</v>
       </c>
       <c r="C10" t="n">
-        <v>29.7477</v>
+        <v>29.6267</v>
       </c>
       <c r="D10" t="n">
-        <v>37.5317</v>
+        <v>37.8736</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.5892</v>
+        <v>20.9027</v>
       </c>
       <c r="C11" t="n">
-        <v>29.5398</v>
+        <v>29.8467</v>
       </c>
       <c r="D11" t="n">
-        <v>37.01</v>
+        <v>37.5038</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.1191</v>
+        <v>20.7866</v>
       </c>
       <c r="C12" t="n">
-        <v>29.5976</v>
+        <v>29.8418</v>
       </c>
       <c r="D12" t="n">
-        <v>37.7795</v>
+        <v>37.8853</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.0682</v>
+        <v>21.0266</v>
       </c>
       <c r="C13" t="n">
-        <v>29.8068</v>
+        <v>29.8887</v>
       </c>
       <c r="D13" t="n">
-        <v>37.659</v>
+        <v>37.2872</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9106</v>
+        <v>20.909</v>
       </c>
       <c r="C14" t="n">
-        <v>30.0299</v>
+        <v>29.9347</v>
       </c>
       <c r="D14" t="n">
-        <v>37.7609</v>
+        <v>37.657</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.2056</v>
+        <v>20.7472</v>
       </c>
       <c r="C15" t="n">
-        <v>29.9142</v>
+        <v>29.8002</v>
       </c>
       <c r="D15" t="n">
-        <v>37.9932</v>
+        <v>37.7933</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.3544</v>
+        <v>20.8912</v>
       </c>
       <c r="C16" t="n">
-        <v>29.7216</v>
+        <v>29.9273</v>
       </c>
       <c r="D16" t="n">
-        <v>38.4397</v>
+        <v>38.2071</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.1592</v>
+        <v>20.873</v>
       </c>
       <c r="C17" t="n">
-        <v>30.2004</v>
+        <v>30.1855</v>
       </c>
       <c r="D17" t="n">
-        <v>38.0431</v>
+        <v>37.7702</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.2456</v>
+        <v>8.183820000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6691</v>
+        <v>11.6738</v>
       </c>
       <c r="D2" t="n">
-        <v>15.2608</v>
+        <v>15.1892</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.7114</v>
+        <v>15.6805</v>
       </c>
       <c r="C3" t="n">
-        <v>19.071</v>
+        <v>18.9471</v>
       </c>
       <c r="D3" t="n">
-        <v>28.0751</v>
+        <v>27.9364</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.6108</v>
+        <v>22.436</v>
       </c>
       <c r="C4" t="n">
-        <v>25.4338</v>
+        <v>25.7647</v>
       </c>
       <c r="D4" t="n">
-        <v>38.9372</v>
+        <v>38.6372</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.7896</v>
+        <v>23.2063</v>
       </c>
       <c r="C5" t="n">
-        <v>24.3705</v>
+        <v>24.5436</v>
       </c>
       <c r="D5" t="n">
-        <v>37.2712</v>
+        <v>37.5161</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.7049</v>
+        <v>26.5695</v>
       </c>
       <c r="C6" t="n">
-        <v>27.5773</v>
+        <v>27.5244</v>
       </c>
       <c r="D6" t="n">
-        <v>42.8918</v>
+        <v>42.9182</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.2911</v>
+        <v>32.3383</v>
       </c>
       <c r="C7" t="n">
-        <v>31.8511</v>
+        <v>31.7728</v>
       </c>
       <c r="D7" t="n">
-        <v>49.6886</v>
+        <v>49.6704</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.3776</v>
+        <v>29.4858</v>
       </c>
       <c r="C8" t="n">
-        <v>30.8374</v>
+        <v>31.1323</v>
       </c>
       <c r="D8" t="n">
-        <v>46.6255</v>
+        <v>46.6371</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7576</v>
+        <v>29.6865</v>
       </c>
       <c r="C9" t="n">
-        <v>30.883</v>
+        <v>30.7709</v>
       </c>
       <c r="D9" t="n">
-        <v>46.8208</v>
+        <v>47.1314</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.199</v>
+        <v>30.5725</v>
       </c>
       <c r="C10" t="n">
-        <v>31.1371</v>
+        <v>31.0849</v>
       </c>
       <c r="D10" t="n">
-        <v>47.0152</v>
+        <v>46.6066</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.4553</v>
+        <v>30.8629</v>
       </c>
       <c r="C11" t="n">
-        <v>31.2742</v>
+        <v>31.0439</v>
       </c>
       <c r="D11" t="n">
-        <v>46.6713</v>
+        <v>46.5795</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.6073</v>
+        <v>30.3582</v>
       </c>
       <c r="C12" t="n">
-        <v>31.3557</v>
+        <v>31.2537</v>
       </c>
       <c r="D12" t="n">
-        <v>47.2299</v>
+        <v>46.5746</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.4919</v>
+        <v>30.7649</v>
       </c>
       <c r="C13" t="n">
-        <v>31.1664</v>
+        <v>31.3055</v>
       </c>
       <c r="D13" t="n">
-        <v>46.9016</v>
+        <v>46.7329</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.5345</v>
+        <v>30.6355</v>
       </c>
       <c r="C14" t="n">
-        <v>31.3879</v>
+        <v>31.1977</v>
       </c>
       <c r="D14" t="n">
-        <v>47.052</v>
+        <v>46.843</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.2501</v>
+        <v>30.2704</v>
       </c>
       <c r="C15" t="n">
-        <v>31.0047</v>
+        <v>31.3804</v>
       </c>
       <c r="D15" t="n">
-        <v>46.9631</v>
+        <v>47.3448</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.4879</v>
+        <v>31.3463</v>
       </c>
       <c r="C16" t="n">
-        <v>31.4331</v>
+        <v>31.3335</v>
       </c>
       <c r="D16" t="n">
-        <v>47.3325</v>
+        <v>47.2905</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.0412</v>
+        <v>31.2636</v>
       </c>
       <c r="C17" t="n">
-        <v>31.1668</v>
+        <v>31.5055</v>
       </c>
       <c r="D17" t="n">
-        <v>47.2244</v>
+        <v>46.6429</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.18736</v>
+        <v>9.174989999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3201</v>
+        <v>11.3215</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6221</v>
+        <v>14.6555</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3169</v>
+        <v>17.3856</v>
       </c>
       <c r="C3" t="n">
-        <v>17.1868</v>
+        <v>16.8617</v>
       </c>
       <c r="D3" t="n">
-        <v>23.784</v>
+        <v>24.1677</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6499</v>
+        <v>24.5598</v>
       </c>
       <c r="C4" t="n">
-        <v>21.606</v>
+        <v>21.7837</v>
       </c>
       <c r="D4" t="n">
-        <v>28.646</v>
+        <v>29.4309</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.4795</v>
+        <v>19.3075</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8571</v>
+        <v>23.0107</v>
       </c>
       <c r="D5" t="n">
-        <v>27.7288</v>
+        <v>27.795</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.1678</v>
+        <v>23.0874</v>
       </c>
       <c r="C6" t="n">
-        <v>26.8542</v>
+        <v>26.9381</v>
       </c>
       <c r="D6" t="n">
-        <v>30.9695</v>
+        <v>30.9002</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.5429</v>
+        <v>27.5632</v>
       </c>
       <c r="C7" t="n">
-        <v>31.5526</v>
+        <v>31.4498</v>
       </c>
       <c r="D7" t="n">
-        <v>34.4901</v>
+        <v>34.5137</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8617</v>
+        <v>19.5881</v>
       </c>
       <c r="C8" t="n">
-        <v>29.2523</v>
+        <v>29.0599</v>
       </c>
       <c r="D8" t="n">
-        <v>32.0751</v>
+        <v>31.3617</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.3353</v>
+        <v>22.1478</v>
       </c>
       <c r="C9" t="n">
-        <v>29.3133</v>
+        <v>29.2966</v>
       </c>
       <c r="D9" t="n">
-        <v>32.6456</v>
+        <v>33.2809</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.4782</v>
+        <v>24.8454</v>
       </c>
       <c r="C10" t="n">
-        <v>29.7316</v>
+        <v>29.7776</v>
       </c>
       <c r="D10" t="n">
-        <v>32.3749</v>
+        <v>33.8374</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.3212</v>
+        <v>23.0179</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7125</v>
+        <v>29.7036</v>
       </c>
       <c r="D11" t="n">
-        <v>33.7872</v>
+        <v>34.3053</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.0659</v>
+        <v>25.1168</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0683</v>
+        <v>30.1589</v>
       </c>
       <c r="D12" t="n">
-        <v>34.2089</v>
+        <v>34.3821</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.5215</v>
+        <v>27.499</v>
       </c>
       <c r="C13" t="n">
-        <v>29.9523</v>
+        <v>29.9004</v>
       </c>
       <c r="D13" t="n">
-        <v>34.4916</v>
+        <v>34.769</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.4213</v>
+        <v>22.5848</v>
       </c>
       <c r="C14" t="n">
-        <v>29.6735</v>
+        <v>29.9569</v>
       </c>
       <c r="D14" t="n">
-        <v>34.2973</v>
+        <v>34.7429</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.9927</v>
+        <v>23.9931</v>
       </c>
       <c r="C15" t="n">
-        <v>29.5949</v>
+        <v>30.2124</v>
       </c>
       <c r="D15" t="n">
-        <v>34.612</v>
+        <v>34.4332</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3043</v>
+        <v>25.0377</v>
       </c>
       <c r="C16" t="n">
-        <v>30.0704</v>
+        <v>30.0404</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5985</v>
+        <v>35.4493</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4652</v>
+        <v>24.6266</v>
       </c>
       <c r="C17" t="n">
-        <v>30.1651</v>
+        <v>30.3642</v>
       </c>
       <c r="D17" t="n">
-        <v>35.3302</v>
+        <v>35.657</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.59098</v>
+        <v>9.602220000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3819</v>
+        <v>11.4076</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7909</v>
+        <v>14.8124</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.1778</v>
+        <v>17.8092</v>
       </c>
       <c r="C3" t="n">
-        <v>17.2751</v>
+        <v>17.3066</v>
       </c>
       <c r="D3" t="n">
-        <v>23.8929</v>
+        <v>24.075</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.546</v>
+        <v>24.8612</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8711</v>
+        <v>21.1708</v>
       </c>
       <c r="D4" t="n">
-        <v>28.974</v>
+        <v>28.6106</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.8667</v>
+        <v>19.7389</v>
       </c>
       <c r="C5" t="n">
-        <v>22.5824</v>
+        <v>22.7265</v>
       </c>
       <c r="D5" t="n">
-        <v>28.2442</v>
+        <v>28.2203</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.7275</v>
+        <v>23.7105</v>
       </c>
       <c r="C6" t="n">
-        <v>26.6768</v>
+        <v>26.7541</v>
       </c>
       <c r="D6" t="n">
-        <v>28.322</v>
+        <v>30.2897</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.516</v>
+        <v>28.5294</v>
       </c>
       <c r="C7" t="n">
-        <v>31.4376</v>
+        <v>31.5011</v>
       </c>
       <c r="D7" t="n">
-        <v>32.1517</v>
+        <v>32.4833</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2622</v>
+        <v>20.182</v>
       </c>
       <c r="C8" t="n">
-        <v>29.0388</v>
+        <v>29.3657</v>
       </c>
       <c r="D8" t="n">
-        <v>31.8757</v>
+        <v>32.8985</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7454</v>
+        <v>23.3201</v>
       </c>
       <c r="C9" t="n">
-        <v>29.087</v>
+        <v>29.6386</v>
       </c>
       <c r="D9" t="n">
-        <v>33.4272</v>
+        <v>34.5758</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.8284</v>
+        <v>26.0423</v>
       </c>
       <c r="C10" t="n">
-        <v>29.3071</v>
+        <v>29.8064</v>
       </c>
       <c r="D10" t="n">
-        <v>34.2433</v>
+        <v>34.2076</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.5833</v>
+        <v>23.9324</v>
       </c>
       <c r="C11" t="n">
-        <v>29.0818</v>
+        <v>29.3494</v>
       </c>
       <c r="D11" t="n">
-        <v>34.502</v>
+        <v>34.7692</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8084</v>
+        <v>25.8278</v>
       </c>
       <c r="C12" t="n">
-        <v>29.7007</v>
+        <v>29.6953</v>
       </c>
       <c r="D12" t="n">
-        <v>34.7595</v>
+        <v>34.5775</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.4529</v>
+        <v>28.4934</v>
       </c>
       <c r="C13" t="n">
-        <v>30.382</v>
+        <v>30.4255</v>
       </c>
       <c r="D13" t="n">
-        <v>35.5381</v>
+        <v>35.9089</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.0912</v>
+        <v>22.8954</v>
       </c>
       <c r="C14" t="n">
-        <v>30.428</v>
+        <v>30.4374</v>
       </c>
       <c r="D14" t="n">
-        <v>37.1523</v>
+        <v>37.0138</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.7773</v>
+        <v>24.697</v>
       </c>
       <c r="C15" t="n">
-        <v>30.3775</v>
+        <v>30.5424</v>
       </c>
       <c r="D15" t="n">
-        <v>37.1862</v>
+        <v>36.7015</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.9324</v>
+        <v>26.4501</v>
       </c>
       <c r="C16" t="n">
-        <v>30.6831</v>
+        <v>30.6973</v>
       </c>
       <c r="D16" t="n">
-        <v>37.7661</v>
+        <v>37.7066</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.2313</v>
+        <v>25.4216</v>
       </c>
       <c r="C17" t="n">
-        <v>30.534</v>
+        <v>30.5363</v>
       </c>
       <c r="D17" t="n">
-        <v>37.8079</v>
+        <v>37.4729</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.4188</v>
+        <v>11.4059</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2515</v>
+        <v>12.2626</v>
       </c>
       <c r="D2" t="n">
-        <v>15.9621</v>
+        <v>15.9876</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.5579</v>
+        <v>20.4993</v>
       </c>
       <c r="C3" t="n">
-        <v>19.9957</v>
+        <v>20.828</v>
       </c>
       <c r="D3" t="n">
-        <v>26.0671</v>
+        <v>26.1779</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.7303</v>
+        <v>29.1795</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8671</v>
+        <v>26.1555</v>
       </c>
       <c r="D4" t="n">
-        <v>34.3616</v>
+        <v>34.3644</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.393</v>
+        <v>24.4681</v>
       </c>
       <c r="C5" t="n">
-        <v>24.181</v>
+        <v>24.2558</v>
       </c>
       <c r="D5" t="n">
-        <v>32.7378</v>
+        <v>32.6485</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.4488</v>
+        <v>29.5033</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7118</v>
+        <v>27.5469</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6225</v>
+        <v>38.1123</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.1578</v>
+        <v>34.985</v>
       </c>
       <c r="C7" t="n">
-        <v>32.4711</v>
+        <v>32.4281</v>
       </c>
       <c r="D7" t="n">
-        <v>38.6903</v>
+        <v>38.534</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.4765</v>
+        <v>31.9525</v>
       </c>
       <c r="C8" t="n">
-        <v>29.3752</v>
+        <v>28.8526</v>
       </c>
       <c r="D8" t="n">
-        <v>36.7506</v>
+        <v>37.0181</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.4781</v>
+        <v>31.3637</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4197</v>
+        <v>29.3365</v>
       </c>
       <c r="D9" t="n">
-        <v>39.901</v>
+        <v>39.3229</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.0312</v>
+        <v>32.4453</v>
       </c>
       <c r="C10" t="n">
-        <v>28.9494</v>
+        <v>29.9174</v>
       </c>
       <c r="D10" t="n">
-        <v>40.3671</v>
+        <v>41.273</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.8273</v>
+        <v>32.3451</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1931</v>
+        <v>29.7751</v>
       </c>
       <c r="D11" t="n">
-        <v>42.8415</v>
+        <v>42.4078</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.9411</v>
+        <v>33.0465</v>
       </c>
       <c r="C12" t="n">
-        <v>30.1413</v>
+        <v>30.1564</v>
       </c>
       <c r="D12" t="n">
-        <v>44.2514</v>
+        <v>44.0245</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.3482</v>
+        <v>32.5494</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2632</v>
+        <v>30.0999</v>
       </c>
       <c r="D13" t="n">
-        <v>43.5605</v>
+        <v>44.2847</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.7158</v>
+        <v>33.4296</v>
       </c>
       <c r="C14" t="n">
-        <v>30.4812</v>
+        <v>30.3637</v>
       </c>
       <c r="D14" t="n">
-        <v>43.5159</v>
+        <v>42.6016</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.7836</v>
+        <v>32.8667</v>
       </c>
       <c r="C15" t="n">
-        <v>29.7223</v>
+        <v>30.1452</v>
       </c>
       <c r="D15" t="n">
-        <v>43.9528</v>
+        <v>43.9382</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.1458</v>
+        <v>33.076</v>
       </c>
       <c r="C16" t="n">
-        <v>30.8152</v>
+        <v>31.1352</v>
       </c>
       <c r="D16" t="n">
-        <v>44.0559</v>
+        <v>44.0389</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.6021</v>
+        <v>33.1828</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4209</v>
+        <v>30.6526</v>
       </c>
       <c r="D17" t="n">
-        <v>43.6333</v>
+        <v>43.8381</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.51997</v>
+        <v>4.50236</v>
       </c>
       <c r="C2" t="n">
-        <v>9.609719999999999</v>
+        <v>9.59244</v>
       </c>
       <c r="D2" t="n">
-        <v>12.346</v>
+        <v>12.3405</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.84221</v>
+        <v>8.80917</v>
       </c>
       <c r="C3" t="n">
-        <v>16.4596</v>
+        <v>16.5677</v>
       </c>
       <c r="D3" t="n">
-        <v>22.8055</v>
+        <v>22.9909</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7803</v>
+        <v>12.7338</v>
       </c>
       <c r="C4" t="n">
-        <v>22.9714</v>
+        <v>22.8026</v>
       </c>
       <c r="D4" t="n">
-        <v>31.4987</v>
+        <v>31.6386</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0835</v>
+        <v>15.1214</v>
       </c>
       <c r="C5" t="n">
-        <v>22.5428</v>
+        <v>22.6232</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1637</v>
+        <v>30.4631</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3485</v>
+        <v>18.301</v>
       </c>
       <c r="C6" t="n">
-        <v>25.9295</v>
+        <v>25.9628</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0181</v>
+        <v>35.3964</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.4711</v>
+        <v>21.3987</v>
       </c>
       <c r="C7" t="n">
-        <v>30.5444</v>
+        <v>30.4886</v>
       </c>
       <c r="D7" t="n">
-        <v>38.867</v>
+        <v>38.921</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.3831</v>
+        <v>19.4446</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6395</v>
+        <v>29.3607</v>
       </c>
       <c r="D8" t="n">
-        <v>37.3447</v>
+        <v>36.9472</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.9987</v>
+        <v>19.9632</v>
       </c>
       <c r="C9" t="n">
-        <v>29.3681</v>
+        <v>28.8936</v>
       </c>
       <c r="D9" t="n">
-        <v>36.5887</v>
+        <v>36.4343</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.7698</v>
+        <v>19.8908</v>
       </c>
       <c r="C10" t="n">
-        <v>29.3815</v>
+        <v>29.4316</v>
       </c>
       <c r="D10" t="n">
-        <v>36.298</v>
+        <v>36.4262</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.5467</v>
+        <v>20.4396</v>
       </c>
       <c r="C11" t="n">
-        <v>29.4144</v>
+        <v>29.6698</v>
       </c>
       <c r="D11" t="n">
-        <v>37.0047</v>
+        <v>36.5243</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0607</v>
+        <v>20.3035</v>
       </c>
       <c r="C12" t="n">
-        <v>29.4981</v>
+        <v>29.5161</v>
       </c>
       <c r="D12" t="n">
-        <v>37.2169</v>
+        <v>36.8043</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.9462</v>
+        <v>20.205</v>
       </c>
       <c r="C13" t="n">
-        <v>29.7059</v>
+        <v>29.5195</v>
       </c>
       <c r="D13" t="n">
-        <v>36.8792</v>
+        <v>36.8294</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.1003</v>
+        <v>20.3549</v>
       </c>
       <c r="C14" t="n">
-        <v>29.7431</v>
+        <v>29.8407</v>
       </c>
       <c r="D14" t="n">
-        <v>36.5931</v>
+        <v>36.6229</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.545</v>
+        <v>20.1781</v>
       </c>
       <c r="C15" t="n">
-        <v>29.9513</v>
+        <v>29.8805</v>
       </c>
       <c r="D15" t="n">
-        <v>36.8631</v>
+        <v>36.6317</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.257</v>
+        <v>20.2152</v>
       </c>
       <c r="C16" t="n">
-        <v>29.9928</v>
+        <v>29.9658</v>
       </c>
       <c r="D16" t="n">
-        <v>36.8956</v>
+        <v>37.2255</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.6824</v>
+        <v>20.7153</v>
       </c>
       <c r="C17" t="n">
-        <v>30.1008</v>
+        <v>29.8434</v>
       </c>
       <c r="D17" t="n">
-        <v>36.7845</v>
+        <v>37.251</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.56045</v>
+        <v>4.54694</v>
       </c>
       <c r="C2" t="n">
-        <v>9.73203</v>
+        <v>9.71735</v>
       </c>
       <c r="D2" t="n">
-        <v>12.417</v>
+        <v>12.4464</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.93577</v>
+        <v>8.93993</v>
       </c>
       <c r="C3" t="n">
-        <v>16.6947</v>
+        <v>16.7578</v>
       </c>
       <c r="D3" t="n">
-        <v>23.0878</v>
+        <v>23.2446</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.9803</v>
+        <v>12.926</v>
       </c>
       <c r="C4" t="n">
-        <v>22.881</v>
+        <v>22.6608</v>
       </c>
       <c r="D4" t="n">
-        <v>32.1037</v>
+        <v>32.5809</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.3033</v>
+        <v>15.2528</v>
       </c>
       <c r="C5" t="n">
-        <v>22.9095</v>
+        <v>22.9213</v>
       </c>
       <c r="D5" t="n">
-        <v>30.8285</v>
+        <v>31.1944</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.6794</v>
+        <v>18.636</v>
       </c>
       <c r="C6" t="n">
-        <v>26.0464</v>
+        <v>26.2004</v>
       </c>
       <c r="D6" t="n">
-        <v>35.8675</v>
+        <v>36.051</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9542</v>
+        <v>21.902</v>
       </c>
       <c r="C7" t="n">
-        <v>30.6389</v>
+        <v>30.6397</v>
       </c>
       <c r="D7" t="n">
-        <v>40.3524</v>
+        <v>40.3576</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.5658</v>
+        <v>19.8008</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8271</v>
+        <v>29.6636</v>
       </c>
       <c r="D8" t="n">
-        <v>38.1557</v>
+        <v>38.0241</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.0135</v>
+        <v>20.3268</v>
       </c>
       <c r="C9" t="n">
-        <v>29.6063</v>
+        <v>29.8132</v>
       </c>
       <c r="D9" t="n">
-        <v>37.6559</v>
+        <v>37.9189</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.5474</v>
+        <v>20.9011</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6267</v>
+        <v>29.5355</v>
       </c>
       <c r="D10" t="n">
-        <v>37.8736</v>
+        <v>37.7985</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.9027</v>
+        <v>20.8276</v>
       </c>
       <c r="C11" t="n">
-        <v>29.8467</v>
+        <v>29.656</v>
       </c>
       <c r="D11" t="n">
-        <v>37.5038</v>
+        <v>37.4097</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7866</v>
+        <v>20.7837</v>
       </c>
       <c r="C12" t="n">
-        <v>29.8418</v>
+        <v>29.5739</v>
       </c>
       <c r="D12" t="n">
-        <v>37.8853</v>
+        <v>37.5947</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0266</v>
+        <v>21.1165</v>
       </c>
       <c r="C13" t="n">
-        <v>29.8887</v>
+        <v>29.8703</v>
       </c>
       <c r="D13" t="n">
-        <v>37.2872</v>
+        <v>37.4857</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.909</v>
+        <v>20.7223</v>
       </c>
       <c r="C14" t="n">
-        <v>29.9347</v>
+        <v>29.9591</v>
       </c>
       <c r="D14" t="n">
-        <v>37.657</v>
+        <v>37.8444</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.7472</v>
+        <v>20.6771</v>
       </c>
       <c r="C15" t="n">
-        <v>29.8002</v>
+        <v>29.7735</v>
       </c>
       <c r="D15" t="n">
-        <v>37.7933</v>
+        <v>37.6552</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.8912</v>
+        <v>20.9691</v>
       </c>
       <c r="C16" t="n">
-        <v>29.9273</v>
+        <v>29.781</v>
       </c>
       <c r="D16" t="n">
-        <v>38.2071</v>
+        <v>38.1192</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.873</v>
+        <v>21.0047</v>
       </c>
       <c r="C17" t="n">
-        <v>30.1855</v>
+        <v>30.0595</v>
       </c>
       <c r="D17" t="n">
-        <v>37.7702</v>
+        <v>38.0511</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.183820000000001</v>
+        <v>8.137890000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6738</v>
+        <v>11.6637</v>
       </c>
       <c r="D2" t="n">
-        <v>15.1892</v>
+        <v>15.2243</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.6805</v>
+        <v>15.6348</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9471</v>
+        <v>19.0431</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9364</v>
+        <v>28.1053</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.436</v>
+        <v>22.4311</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7647</v>
+        <v>25.3987</v>
       </c>
       <c r="D4" t="n">
-        <v>38.6372</v>
+        <v>38.7555</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2063</v>
+        <v>22.5814</v>
       </c>
       <c r="C5" t="n">
-        <v>24.5436</v>
+        <v>24.669</v>
       </c>
       <c r="D5" t="n">
-        <v>37.5161</v>
+        <v>38.1834</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.5695</v>
+        <v>26.6376</v>
       </c>
       <c r="C6" t="n">
-        <v>27.5244</v>
+        <v>27.5354</v>
       </c>
       <c r="D6" t="n">
-        <v>42.9182</v>
+        <v>43.1461</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.3383</v>
+        <v>32.2562</v>
       </c>
       <c r="C7" t="n">
-        <v>31.7728</v>
+        <v>31.7814</v>
       </c>
       <c r="D7" t="n">
-        <v>49.6704</v>
+        <v>49.6348</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.4858</v>
+        <v>29.4883</v>
       </c>
       <c r="C8" t="n">
-        <v>31.1323</v>
+        <v>31.0878</v>
       </c>
       <c r="D8" t="n">
-        <v>46.6371</v>
+        <v>46.6068</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.6865</v>
+        <v>29.5314</v>
       </c>
       <c r="C9" t="n">
-        <v>30.7709</v>
+        <v>30.8396</v>
       </c>
       <c r="D9" t="n">
-        <v>47.1314</v>
+        <v>46.2109</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.5725</v>
+        <v>30.2447</v>
       </c>
       <c r="C10" t="n">
-        <v>31.0849</v>
+        <v>31.1737</v>
       </c>
       <c r="D10" t="n">
-        <v>46.6066</v>
+        <v>46.9363</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.8629</v>
+        <v>31.1018</v>
       </c>
       <c r="C11" t="n">
-        <v>31.0439</v>
+        <v>31.0787</v>
       </c>
       <c r="D11" t="n">
-        <v>46.5795</v>
+        <v>46.3861</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.3582</v>
+        <v>30.5633</v>
       </c>
       <c r="C12" t="n">
-        <v>31.2537</v>
+        <v>31.2491</v>
       </c>
       <c r="D12" t="n">
-        <v>46.5746</v>
+        <v>46.8908</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.7649</v>
+        <v>30.9938</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3055</v>
+        <v>31.2618</v>
       </c>
       <c r="D13" t="n">
-        <v>46.7329</v>
+        <v>47.2741</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.6355</v>
+        <v>30.5768</v>
       </c>
       <c r="C14" t="n">
-        <v>31.1977</v>
+        <v>31.1988</v>
       </c>
       <c r="D14" t="n">
-        <v>46.843</v>
+        <v>45.6845</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.2704</v>
+        <v>30.9214</v>
       </c>
       <c r="C15" t="n">
-        <v>31.3804</v>
+        <v>31.4013</v>
       </c>
       <c r="D15" t="n">
-        <v>47.3448</v>
+        <v>46.8738</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.3463</v>
+        <v>30.7895</v>
       </c>
       <c r="C16" t="n">
-        <v>31.3335</v>
+        <v>31.3925</v>
       </c>
       <c r="D16" t="n">
-        <v>47.2905</v>
+        <v>47.3743</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.2636</v>
+        <v>30.6785</v>
       </c>
       <c r="C17" t="n">
-        <v>31.5055</v>
+        <v>31.1654</v>
       </c>
       <c r="D17" t="n">
-        <v>46.6429</v>
+        <v>47.4423</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.174989999999999</v>
+        <v>9.1738</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3215</v>
+        <v>11.3116</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6555</v>
+        <v>14.6408</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3856</v>
+        <v>17.3137</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8617</v>
+        <v>17.0619</v>
       </c>
       <c r="D3" t="n">
-        <v>24.1677</v>
+        <v>24.0981</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.5598</v>
+        <v>24.377</v>
       </c>
       <c r="C4" t="n">
-        <v>21.7837</v>
+        <v>21.7557</v>
       </c>
       <c r="D4" t="n">
-        <v>29.4309</v>
+        <v>31.9967</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.3075</v>
+        <v>19.493</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0107</v>
+        <v>22.9186</v>
       </c>
       <c r="D5" t="n">
-        <v>27.795</v>
+        <v>33.0307</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.0874</v>
+        <v>23.1134</v>
       </c>
       <c r="C6" t="n">
-        <v>26.9381</v>
+        <v>26.8462</v>
       </c>
       <c r="D6" t="n">
-        <v>30.9002</v>
+        <v>38.5379</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.5632</v>
+        <v>27.6008</v>
       </c>
       <c r="C7" t="n">
-        <v>31.4498</v>
+        <v>31.5081</v>
       </c>
       <c r="D7" t="n">
-        <v>34.5137</v>
+        <v>38.755</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.5881</v>
+        <v>19.8898</v>
       </c>
       <c r="C8" t="n">
-        <v>29.0599</v>
+        <v>29.3881</v>
       </c>
       <c r="D8" t="n">
-        <v>31.3617</v>
+        <v>40.9949</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.1478</v>
+        <v>22.4813</v>
       </c>
       <c r="C9" t="n">
-        <v>29.2966</v>
+        <v>29.6577</v>
       </c>
       <c r="D9" t="n">
-        <v>33.2809</v>
+        <v>42.5998</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.8454</v>
+        <v>24.5217</v>
       </c>
       <c r="C10" t="n">
-        <v>29.7776</v>
+        <v>29.4996</v>
       </c>
       <c r="D10" t="n">
-        <v>33.8374</v>
+        <v>42.9604</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.0179</v>
+        <v>23.0607</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7036</v>
+        <v>30.0503</v>
       </c>
       <c r="D11" t="n">
-        <v>34.3053</v>
+        <v>43.9527</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.1168</v>
+        <v>25.1306</v>
       </c>
       <c r="C12" t="n">
-        <v>30.1589</v>
+        <v>29.6405</v>
       </c>
       <c r="D12" t="n">
-        <v>34.3821</v>
+        <v>46.562</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.499</v>
+        <v>27.5135</v>
       </c>
       <c r="C13" t="n">
-        <v>29.9004</v>
+        <v>30.0264</v>
       </c>
       <c r="D13" t="n">
-        <v>34.769</v>
+        <v>45.7702</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.5848</v>
+        <v>22.3885</v>
       </c>
       <c r="C14" t="n">
-        <v>29.9569</v>
+        <v>29.9942</v>
       </c>
       <c r="D14" t="n">
-        <v>34.7429</v>
+        <v>43.9887</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.9931</v>
+        <v>23.9006</v>
       </c>
       <c r="C15" t="n">
-        <v>30.2124</v>
+        <v>30.4442</v>
       </c>
       <c r="D15" t="n">
-        <v>34.4332</v>
+        <v>45.1548</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0377</v>
+        <v>25.3418</v>
       </c>
       <c r="C16" t="n">
-        <v>30.0404</v>
+        <v>29.78</v>
       </c>
       <c r="D16" t="n">
-        <v>35.4493</v>
+        <v>45.41</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.6266</v>
+        <v>24.4167</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3642</v>
+        <v>30.0902</v>
       </c>
       <c r="D17" t="n">
-        <v>35.657</v>
+        <v>46.9353</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.602220000000001</v>
+        <v>9.600199999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4076</v>
+        <v>11.3934</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8124</v>
+        <v>14.7675</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.8092</v>
+        <v>17.8429</v>
       </c>
       <c r="C3" t="n">
-        <v>17.3066</v>
+        <v>17.1124</v>
       </c>
       <c r="D3" t="n">
-        <v>24.075</v>
+        <v>23.9292</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.8612</v>
+        <v>24.9149</v>
       </c>
       <c r="C4" t="n">
-        <v>21.1708</v>
+        <v>21.4335</v>
       </c>
       <c r="D4" t="n">
-        <v>28.6106</v>
+        <v>31.2106</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.7389</v>
+        <v>19.6229</v>
       </c>
       <c r="C5" t="n">
-        <v>22.7265</v>
+        <v>22.6299</v>
       </c>
       <c r="D5" t="n">
-        <v>28.2203</v>
+        <v>31.8028</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.7105</v>
+        <v>23.6433</v>
       </c>
       <c r="C6" t="n">
-        <v>26.7541</v>
+        <v>26.7865</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2897</v>
+        <v>38.5732</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.5294</v>
+        <v>28.5874</v>
       </c>
       <c r="C7" t="n">
-        <v>31.5011</v>
+        <v>31.4152</v>
       </c>
       <c r="D7" t="n">
-        <v>32.4833</v>
+        <v>38.4394</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.182</v>
+        <v>20.5263</v>
       </c>
       <c r="C8" t="n">
-        <v>29.3657</v>
+        <v>29.5087</v>
       </c>
       <c r="D8" t="n">
-        <v>32.8985</v>
+        <v>37.0383</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3201</v>
+        <v>23.4412</v>
       </c>
       <c r="C9" t="n">
-        <v>29.6386</v>
+        <v>29.0384</v>
       </c>
       <c r="D9" t="n">
-        <v>34.5758</v>
+        <v>37.9259</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.0423</v>
+        <v>25.5424</v>
       </c>
       <c r="C10" t="n">
-        <v>29.8064</v>
+        <v>29.7339</v>
       </c>
       <c r="D10" t="n">
-        <v>34.2076</v>
+        <v>39.0028</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.9324</v>
+        <v>23.7981</v>
       </c>
       <c r="C11" t="n">
-        <v>29.3494</v>
+        <v>29.6552</v>
       </c>
       <c r="D11" t="n">
-        <v>34.7692</v>
+        <v>42.5395</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8278</v>
+        <v>25.8495</v>
       </c>
       <c r="C12" t="n">
-        <v>29.6953</v>
+        <v>30.1298</v>
       </c>
       <c r="D12" t="n">
-        <v>34.5775</v>
+        <v>44.0412</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.4934</v>
+        <v>28.4235</v>
       </c>
       <c r="C13" t="n">
-        <v>30.4255</v>
+        <v>30.3752</v>
       </c>
       <c r="D13" t="n">
-        <v>35.9089</v>
+        <v>44.0729</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.8954</v>
+        <v>22.6366</v>
       </c>
       <c r="C14" t="n">
-        <v>30.4374</v>
+        <v>30.1096</v>
       </c>
       <c r="D14" t="n">
-        <v>37.0138</v>
+        <v>44.2347</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.697</v>
+        <v>24.611</v>
       </c>
       <c r="C15" t="n">
-        <v>30.5424</v>
+        <v>30.4594</v>
       </c>
       <c r="D15" t="n">
-        <v>36.7015</v>
+        <v>46.3781</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.4501</v>
+        <v>26.3443</v>
       </c>
       <c r="C16" t="n">
-        <v>30.6973</v>
+        <v>30.5238</v>
       </c>
       <c r="D16" t="n">
-        <v>37.7066</v>
+        <v>47.6446</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.4216</v>
+        <v>25.3483</v>
       </c>
       <c r="C17" t="n">
-        <v>30.5363</v>
+        <v>30.3892</v>
       </c>
       <c r="D17" t="n">
-        <v>37.4729</v>
+        <v>50.1309</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.4059</v>
+        <v>11.3888</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2626</v>
+        <v>12.2909</v>
       </c>
       <c r="D2" t="n">
-        <v>15.9876</v>
+        <v>15.972</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.4993</v>
+        <v>20.4798</v>
       </c>
       <c r="C3" t="n">
-        <v>20.828</v>
+        <v>20.5713</v>
       </c>
       <c r="D3" t="n">
-        <v>26.1779</v>
+        <v>26.993</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.1795</v>
+        <v>28.4955</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1555</v>
+        <v>27.6654</v>
       </c>
       <c r="D4" t="n">
-        <v>34.3644</v>
+        <v>34.7419</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4681</v>
+        <v>24.5077</v>
       </c>
       <c r="C5" t="n">
-        <v>24.2558</v>
+        <v>24.4655</v>
       </c>
       <c r="D5" t="n">
-        <v>32.6485</v>
+        <v>35.5398</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.5033</v>
+        <v>29.4567</v>
       </c>
       <c r="C6" t="n">
-        <v>27.5469</v>
+        <v>27.6984</v>
       </c>
       <c r="D6" t="n">
-        <v>38.1123</v>
+        <v>38.6516</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.985</v>
+        <v>34.9989</v>
       </c>
       <c r="C7" t="n">
-        <v>32.4281</v>
+        <v>32.457</v>
       </c>
       <c r="D7" t="n">
-        <v>38.534</v>
+        <v>43.691</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.9525</v>
+        <v>31.631</v>
       </c>
       <c r="C8" t="n">
-        <v>28.8526</v>
+        <v>28.9258</v>
       </c>
       <c r="D8" t="n">
-        <v>37.0181</v>
+        <v>42.9646</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3637</v>
+        <v>31.3524</v>
       </c>
       <c r="C9" t="n">
-        <v>29.3365</v>
+        <v>28.9143</v>
       </c>
       <c r="D9" t="n">
-        <v>39.3229</v>
+        <v>44.1424</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.4453</v>
+        <v>31.6495</v>
       </c>
       <c r="C10" t="n">
-        <v>29.9174</v>
+        <v>29.5315</v>
       </c>
       <c r="D10" t="n">
-        <v>41.273</v>
+        <v>44.1481</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3451</v>
+        <v>32.2584</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7751</v>
+        <v>30.2518</v>
       </c>
       <c r="D11" t="n">
-        <v>42.4078</v>
+        <v>46.2105</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.0465</v>
+        <v>32.2916</v>
       </c>
       <c r="C12" t="n">
-        <v>30.1564</v>
+        <v>29.9898</v>
       </c>
       <c r="D12" t="n">
-        <v>44.0245</v>
+        <v>50.7273</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.5494</v>
+        <v>32.3082</v>
       </c>
       <c r="C13" t="n">
-        <v>30.0999</v>
+        <v>30.4531</v>
       </c>
       <c r="D13" t="n">
-        <v>44.2847</v>
+        <v>50.8307</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.4296</v>
+        <v>32.9134</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3637</v>
+        <v>30.4184</v>
       </c>
       <c r="D14" t="n">
-        <v>42.6016</v>
+        <v>50.1676</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.8667</v>
+        <v>33.1157</v>
       </c>
       <c r="C15" t="n">
-        <v>30.1452</v>
+        <v>30.5081</v>
       </c>
       <c r="D15" t="n">
-        <v>43.9382</v>
+        <v>50.7229</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.076</v>
+        <v>32.9258</v>
       </c>
       <c r="C16" t="n">
-        <v>31.1352</v>
+        <v>30.2861</v>
       </c>
       <c r="D16" t="n">
-        <v>44.0389</v>
+        <v>50.5924</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.1828</v>
+        <v>33.0794</v>
       </c>
       <c r="C17" t="n">
-        <v>30.6526</v>
+        <v>30.7894</v>
       </c>
       <c r="D17" t="n">
-        <v>43.8381</v>
+        <v>50.7455</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.50236</v>
+        <v>4.50463</v>
       </c>
       <c r="C2" t="n">
-        <v>9.59244</v>
+        <v>9.5947</v>
       </c>
       <c r="D2" t="n">
-        <v>12.3405</v>
+        <v>12.3414</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.80917</v>
+        <v>8.82733</v>
       </c>
       <c r="C3" t="n">
-        <v>16.5677</v>
+        <v>16.2302</v>
       </c>
       <c r="D3" t="n">
-        <v>22.9909</v>
+        <v>23.4281</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7338</v>
+        <v>12.6501</v>
       </c>
       <c r="C4" t="n">
-        <v>22.8026</v>
+        <v>22.4015</v>
       </c>
       <c r="D4" t="n">
-        <v>31.6386</v>
+        <v>33.4242</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1214</v>
+        <v>15.1876</v>
       </c>
       <c r="C5" t="n">
-        <v>22.6232</v>
+        <v>22.5008</v>
       </c>
       <c r="D5" t="n">
-        <v>30.4631</v>
+        <v>38.2046</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.301</v>
+        <v>18.3128</v>
       </c>
       <c r="C6" t="n">
-        <v>25.9628</v>
+        <v>25.9958</v>
       </c>
       <c r="D6" t="n">
-        <v>35.3964</v>
+        <v>46.0012</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.3987</v>
+        <v>21.3562</v>
       </c>
       <c r="C7" t="n">
-        <v>30.4886</v>
+        <v>30.5099</v>
       </c>
       <c r="D7" t="n">
-        <v>38.921</v>
+        <v>53.8296</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.4446</v>
+        <v>19.3211</v>
       </c>
       <c r="C8" t="n">
-        <v>29.3607</v>
+        <v>29.0857</v>
       </c>
       <c r="D8" t="n">
-        <v>36.9472</v>
+        <v>48.8329</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.9632</v>
+        <v>19.9448</v>
       </c>
       <c r="C9" t="n">
-        <v>28.8936</v>
+        <v>29.2018</v>
       </c>
       <c r="D9" t="n">
-        <v>36.4343</v>
+        <v>49.7869</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.8908</v>
+        <v>19.7857</v>
       </c>
       <c r="C10" t="n">
-        <v>29.4316</v>
+        <v>29.5905</v>
       </c>
       <c r="D10" t="n">
-        <v>36.4262</v>
+        <v>49.5567</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.4396</v>
+        <v>19.8537</v>
       </c>
       <c r="C11" t="n">
-        <v>29.6698</v>
+        <v>29.4957</v>
       </c>
       <c r="D11" t="n">
-        <v>36.5243</v>
+        <v>49.9929</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.3035</v>
+        <v>20.089</v>
       </c>
       <c r="C12" t="n">
-        <v>29.5161</v>
+        <v>29.4447</v>
       </c>
       <c r="D12" t="n">
-        <v>36.8043</v>
+        <v>48.6777</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.205</v>
+        <v>19.8436</v>
       </c>
       <c r="C13" t="n">
-        <v>29.5195</v>
+        <v>29.6802</v>
       </c>
       <c r="D13" t="n">
-        <v>36.8294</v>
+        <v>50.1276</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.3549</v>
+        <v>20.3597</v>
       </c>
       <c r="C14" t="n">
-        <v>29.8407</v>
+        <v>29.7441</v>
       </c>
       <c r="D14" t="n">
-        <v>36.6229</v>
+        <v>49.9327</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.1781</v>
+        <v>20.602</v>
       </c>
       <c r="C15" t="n">
-        <v>29.8805</v>
+        <v>29.8549</v>
       </c>
       <c r="D15" t="n">
-        <v>36.6317</v>
+        <v>50.0412</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.2152</v>
+        <v>20.3088</v>
       </c>
       <c r="C16" t="n">
-        <v>29.9658</v>
+        <v>29.7663</v>
       </c>
       <c r="D16" t="n">
-        <v>37.2255</v>
+        <v>49.8133</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.7153</v>
+        <v>20.3486</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8434</v>
+        <v>29.9253</v>
       </c>
       <c r="D17" t="n">
-        <v>37.251</v>
+        <v>50.2348</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.54694</v>
+        <v>4.53935</v>
       </c>
       <c r="C2" t="n">
-        <v>9.71735</v>
+        <v>9.722239999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>12.4464</v>
+        <v>12.381</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.93993</v>
+        <v>8.92797</v>
       </c>
       <c r="C3" t="n">
-        <v>16.7578</v>
+        <v>16.5861</v>
       </c>
       <c r="D3" t="n">
-        <v>23.2446</v>
+        <v>23.774</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.926</v>
+        <v>12.8938</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6608</v>
+        <v>22.5792</v>
       </c>
       <c r="D4" t="n">
-        <v>32.5809</v>
+        <v>34.1703</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.2528</v>
+        <v>15.3989</v>
       </c>
       <c r="C5" t="n">
-        <v>22.9213</v>
+        <v>22.9724</v>
       </c>
       <c r="D5" t="n">
-        <v>31.1944</v>
+        <v>38.193</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.636</v>
+        <v>18.6532</v>
       </c>
       <c r="C6" t="n">
-        <v>26.2004</v>
+        <v>26.1079</v>
       </c>
       <c r="D6" t="n">
-        <v>36.051</v>
+        <v>45.0299</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.902</v>
+        <v>21.858</v>
       </c>
       <c r="C7" t="n">
-        <v>30.6397</v>
+        <v>30.5377</v>
       </c>
       <c r="D7" t="n">
-        <v>40.3576</v>
+        <v>53.8462</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8008</v>
+        <v>19.4369</v>
       </c>
       <c r="C8" t="n">
-        <v>29.6636</v>
+        <v>29.1857</v>
       </c>
       <c r="D8" t="n">
-        <v>38.0241</v>
+        <v>48.717</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.3268</v>
+        <v>19.9881</v>
       </c>
       <c r="C9" t="n">
-        <v>29.8132</v>
+        <v>29.5754</v>
       </c>
       <c r="D9" t="n">
-        <v>37.9189</v>
+        <v>49.9628</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.9011</v>
+        <v>20.6286</v>
       </c>
       <c r="C10" t="n">
-        <v>29.5355</v>
+        <v>29.6538</v>
       </c>
       <c r="D10" t="n">
-        <v>37.7985</v>
+        <v>49.5989</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.8276</v>
+        <v>20.7754</v>
       </c>
       <c r="C11" t="n">
-        <v>29.656</v>
+        <v>29.6629</v>
       </c>
       <c r="D11" t="n">
-        <v>37.4097</v>
+        <v>48.9974</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7837</v>
+        <v>20.6551</v>
       </c>
       <c r="C12" t="n">
-        <v>29.5739</v>
+        <v>29.9367</v>
       </c>
       <c r="D12" t="n">
-        <v>37.5947</v>
+        <v>49.418</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1165</v>
+        <v>20.8936</v>
       </c>
       <c r="C13" t="n">
-        <v>29.8703</v>
+        <v>29.8168</v>
       </c>
       <c r="D13" t="n">
-        <v>37.4857</v>
+        <v>49.6298</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.7223</v>
+        <v>20.5579</v>
       </c>
       <c r="C14" t="n">
-        <v>29.9591</v>
+        <v>29.9174</v>
       </c>
       <c r="D14" t="n">
-        <v>37.8444</v>
+        <v>49.5872</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.6771</v>
+        <v>20.6377</v>
       </c>
       <c r="C15" t="n">
-        <v>29.7735</v>
+        <v>30.0206</v>
       </c>
       <c r="D15" t="n">
-        <v>37.6552</v>
+        <v>50.6174</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.9691</v>
+        <v>20.6672</v>
       </c>
       <c r="C16" t="n">
-        <v>29.781</v>
+        <v>30.0604</v>
       </c>
       <c r="D16" t="n">
-        <v>38.1192</v>
+        <v>50.2571</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0047</v>
+        <v>20.7657</v>
       </c>
       <c r="C17" t="n">
-        <v>30.0595</v>
+        <v>29.7086</v>
       </c>
       <c r="D17" t="n">
-        <v>38.0511</v>
+        <v>49.3677</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.137890000000001</v>
+        <v>8.09362</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6637</v>
+        <v>11.5911</v>
       </c>
       <c r="D2" t="n">
-        <v>15.2243</v>
+        <v>15.1237</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.6348</v>
+        <v>15.4356</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0431</v>
+        <v>18.8977</v>
       </c>
       <c r="D3" t="n">
-        <v>28.1053</v>
+        <v>28.132</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.4311</v>
+        <v>22.2213</v>
       </c>
       <c r="C4" t="n">
-        <v>25.3987</v>
+        <v>25.3415</v>
       </c>
       <c r="D4" t="n">
-        <v>38.7555</v>
+        <v>39.8835</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.5814</v>
+        <v>22.9643</v>
       </c>
       <c r="C5" t="n">
-        <v>24.669</v>
+        <v>24.8218</v>
       </c>
       <c r="D5" t="n">
-        <v>38.1834</v>
+        <v>40.7064</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.6376</v>
+        <v>26.7347</v>
       </c>
       <c r="C6" t="n">
-        <v>27.5354</v>
+        <v>27.7083</v>
       </c>
       <c r="D6" t="n">
-        <v>43.1461</v>
+        <v>46.9643</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.2562</v>
+        <v>32.2469</v>
       </c>
       <c r="C7" t="n">
-        <v>31.7814</v>
+        <v>31.974</v>
       </c>
       <c r="D7" t="n">
-        <v>49.6348</v>
+        <v>55.6793</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.4883</v>
+        <v>29.921</v>
       </c>
       <c r="C8" t="n">
-        <v>31.0878</v>
+        <v>30.9701</v>
       </c>
       <c r="D8" t="n">
-        <v>46.6068</v>
+        <v>52.7422</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.5314</v>
+        <v>30.179</v>
       </c>
       <c r="C9" t="n">
-        <v>30.8396</v>
+        <v>31.021</v>
       </c>
       <c r="D9" t="n">
-        <v>46.2109</v>
+        <v>52.8213</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.2447</v>
+        <v>30.357</v>
       </c>
       <c r="C10" t="n">
-        <v>31.1737</v>
+        <v>30.9792</v>
       </c>
       <c r="D10" t="n">
-        <v>46.9363</v>
+        <v>52.8076</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.1018</v>
+        <v>31.092</v>
       </c>
       <c r="C11" t="n">
-        <v>31.0787</v>
+        <v>31.1311</v>
       </c>
       <c r="D11" t="n">
-        <v>46.3861</v>
+        <v>52.3703</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.5633</v>
+        <v>30.1221</v>
       </c>
       <c r="C12" t="n">
-        <v>31.2491</v>
+        <v>31.2809</v>
       </c>
       <c r="D12" t="n">
-        <v>46.8908</v>
+        <v>52.8858</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.9938</v>
+        <v>30.3772</v>
       </c>
       <c r="C13" t="n">
-        <v>31.2618</v>
+        <v>31.4568</v>
       </c>
       <c r="D13" t="n">
-        <v>47.2741</v>
+        <v>53.9816</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.5768</v>
+        <v>30.8167</v>
       </c>
       <c r="C14" t="n">
-        <v>31.1988</v>
+        <v>31.4416</v>
       </c>
       <c r="D14" t="n">
-        <v>45.6845</v>
+        <v>52.4454</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.9214</v>
+        <v>30.3165</v>
       </c>
       <c r="C15" t="n">
-        <v>31.4013</v>
+        <v>31.6407</v>
       </c>
       <c r="D15" t="n">
-        <v>46.8738</v>
+        <v>52.8372</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.7895</v>
+        <v>30.6051</v>
       </c>
       <c r="C16" t="n">
-        <v>31.3925</v>
+        <v>31.5944</v>
       </c>
       <c r="D16" t="n">
-        <v>47.3743</v>
+        <v>53.237</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.6785</v>
+        <v>30.9729</v>
       </c>
       <c r="C17" t="n">
-        <v>31.1654</v>
+        <v>31.3766</v>
       </c>
       <c r="D17" t="n">
-        <v>47.4423</v>
+        <v>52.5129</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.1738</v>
+        <v>9.14194</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3116</v>
+        <v>11.2653</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6408</v>
+        <v>14.6055</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3137</v>
+        <v>17.3634</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0619</v>
+        <v>17.0415</v>
       </c>
       <c r="D3" t="n">
-        <v>24.0981</v>
+        <v>23.9161</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.377</v>
+        <v>23.1412</v>
       </c>
       <c r="C4" t="n">
-        <v>21.7557</v>
+        <v>21.3666</v>
       </c>
       <c r="D4" t="n">
-        <v>31.9967</v>
+        <v>32.4619</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.493</v>
+        <v>19.5037</v>
       </c>
       <c r="C5" t="n">
-        <v>22.9186</v>
+        <v>23.1544</v>
       </c>
       <c r="D5" t="n">
-        <v>33.0307</v>
+        <v>32.6143</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.1134</v>
+        <v>23.098</v>
       </c>
       <c r="C6" t="n">
-        <v>26.8462</v>
+        <v>26.9147</v>
       </c>
       <c r="D6" t="n">
-        <v>38.5379</v>
+        <v>38.3853</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.6008</v>
+        <v>27.5606</v>
       </c>
       <c r="C7" t="n">
-        <v>31.5081</v>
+        <v>31.5153</v>
       </c>
       <c r="D7" t="n">
-        <v>38.755</v>
+        <v>38.6347</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8898</v>
+        <v>19.561</v>
       </c>
       <c r="C8" t="n">
-        <v>29.3881</v>
+        <v>29.1625</v>
       </c>
       <c r="D8" t="n">
-        <v>40.9949</v>
+        <v>40.3022</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4813</v>
+        <v>22.1082</v>
       </c>
       <c r="C9" t="n">
-        <v>29.6577</v>
+        <v>29.1692</v>
       </c>
       <c r="D9" t="n">
-        <v>42.5998</v>
+        <v>41.4735</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5217</v>
+        <v>24.2207</v>
       </c>
       <c r="C10" t="n">
-        <v>29.4996</v>
+        <v>29.772</v>
       </c>
       <c r="D10" t="n">
-        <v>42.9604</v>
+        <v>43.5348</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.0607</v>
+        <v>23.2805</v>
       </c>
       <c r="C11" t="n">
-        <v>30.0503</v>
+        <v>29.5605</v>
       </c>
       <c r="D11" t="n">
-        <v>43.9527</v>
+        <v>43.484</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.1306</v>
+        <v>25.2239</v>
       </c>
       <c r="C12" t="n">
-        <v>29.6405</v>
+        <v>29.9786</v>
       </c>
       <c r="D12" t="n">
-        <v>46.562</v>
+        <v>45.8248</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.5135</v>
+        <v>27.5565</v>
       </c>
       <c r="C13" t="n">
-        <v>30.0264</v>
+        <v>30.2853</v>
       </c>
       <c r="D13" t="n">
-        <v>45.7702</v>
+        <v>46.5771</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3885</v>
+        <v>22.3491</v>
       </c>
       <c r="C14" t="n">
-        <v>29.9942</v>
+        <v>30.1064</v>
       </c>
       <c r="D14" t="n">
-        <v>43.9887</v>
+        <v>47.3119</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.9006</v>
+        <v>23.8705</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4442</v>
+        <v>30.1994</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1548</v>
+        <v>44.1422</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3418</v>
+        <v>25.1572</v>
       </c>
       <c r="C16" t="n">
-        <v>29.78</v>
+        <v>29.9449</v>
       </c>
       <c r="D16" t="n">
-        <v>45.41</v>
+        <v>46.7833</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4167</v>
+        <v>24.3481</v>
       </c>
       <c r="C17" t="n">
-        <v>30.0902</v>
+        <v>29.9859</v>
       </c>
       <c r="D17" t="n">
-        <v>46.9353</v>
+        <v>47.4501</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.600199999999999</v>
+        <v>9.5871</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3934</v>
+        <v>11.4087</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7675</v>
+        <v>14.785</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.8429</v>
+        <v>18.1588</v>
       </c>
       <c r="C3" t="n">
-        <v>17.1124</v>
+        <v>17.1549</v>
       </c>
       <c r="D3" t="n">
-        <v>23.9292</v>
+        <v>25.2288</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.9149</v>
+        <v>25.5335</v>
       </c>
       <c r="C4" t="n">
-        <v>21.4335</v>
+        <v>21.6839</v>
       </c>
       <c r="D4" t="n">
-        <v>31.2106</v>
+        <v>30.553</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.6229</v>
+        <v>19.5326</v>
       </c>
       <c r="C5" t="n">
-        <v>22.6299</v>
+        <v>23.074</v>
       </c>
       <c r="D5" t="n">
-        <v>31.8028</v>
+        <v>31.9855</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.6433</v>
+        <v>23.6661</v>
       </c>
       <c r="C6" t="n">
-        <v>26.7865</v>
+        <v>26.8432</v>
       </c>
       <c r="D6" t="n">
-        <v>38.5732</v>
+        <v>37.5783</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.5874</v>
+        <v>28.5397</v>
       </c>
       <c r="C7" t="n">
-        <v>31.4152</v>
+        <v>31.4912</v>
       </c>
       <c r="D7" t="n">
-        <v>38.4394</v>
+        <v>38.5771</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5263</v>
+        <v>20.1898</v>
       </c>
       <c r="C8" t="n">
-        <v>29.5087</v>
+        <v>29.1836</v>
       </c>
       <c r="D8" t="n">
-        <v>37.0383</v>
+        <v>36.7411</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.4412</v>
+        <v>23.4792</v>
       </c>
       <c r="C9" t="n">
-        <v>29.0384</v>
+        <v>29.2086</v>
       </c>
       <c r="D9" t="n">
-        <v>37.9259</v>
+        <v>38.1743</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.5424</v>
+        <v>25.484</v>
       </c>
       <c r="C10" t="n">
-        <v>29.7339</v>
+        <v>28.9501</v>
       </c>
       <c r="D10" t="n">
-        <v>39.0028</v>
+        <v>38.9642</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.7981</v>
+        <v>23.8516</v>
       </c>
       <c r="C11" t="n">
-        <v>29.6552</v>
+        <v>29.2297</v>
       </c>
       <c r="D11" t="n">
-        <v>42.5395</v>
+        <v>40.9162</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8495</v>
+        <v>25.9648</v>
       </c>
       <c r="C12" t="n">
-        <v>30.1298</v>
+        <v>29.6324</v>
       </c>
       <c r="D12" t="n">
-        <v>44.0412</v>
+        <v>43.8214</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.4235</v>
+        <v>28.499</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3752</v>
+        <v>30.43</v>
       </c>
       <c r="D13" t="n">
-        <v>44.0729</v>
+        <v>43.9014</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.6366</v>
+        <v>22.4854</v>
       </c>
       <c r="C14" t="n">
-        <v>30.1096</v>
+        <v>30.2594</v>
       </c>
       <c r="D14" t="n">
-        <v>44.2347</v>
+        <v>44.1502</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.611</v>
+        <v>24.5773</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4594</v>
+        <v>30.2796</v>
       </c>
       <c r="D15" t="n">
-        <v>46.3781</v>
+        <v>46.7475</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.3443</v>
+        <v>26.3988</v>
       </c>
       <c r="C16" t="n">
-        <v>30.5238</v>
+        <v>30.3324</v>
       </c>
       <c r="D16" t="n">
-        <v>47.6446</v>
+        <v>47.2235</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.3483</v>
+        <v>25.4552</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3892</v>
+        <v>30.4343</v>
       </c>
       <c r="D17" t="n">
-        <v>50.1309</v>
+        <v>50.7109</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3888</v>
+        <v>11.3709</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2909</v>
+        <v>12.2757</v>
       </c>
       <c r="D2" t="n">
-        <v>15.972</v>
+        <v>15.9666</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.4798</v>
+        <v>20.378</v>
       </c>
       <c r="C3" t="n">
-        <v>20.5713</v>
+        <v>20.5863</v>
       </c>
       <c r="D3" t="n">
-        <v>26.993</v>
+        <v>26.7855</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.4955</v>
+        <v>28.4079</v>
       </c>
       <c r="C4" t="n">
-        <v>27.6654</v>
+        <v>25.5987</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7419</v>
+        <v>37.066</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.5077</v>
+        <v>24.3994</v>
       </c>
       <c r="C5" t="n">
-        <v>24.4655</v>
+        <v>24.3763</v>
       </c>
       <c r="D5" t="n">
-        <v>35.5398</v>
+        <v>33.8952</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.4567</v>
+        <v>29.4845</v>
       </c>
       <c r="C6" t="n">
-        <v>27.6984</v>
+        <v>27.7925</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6516</v>
+        <v>38.5086</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.9989</v>
+        <v>34.9269</v>
       </c>
       <c r="C7" t="n">
-        <v>32.457</v>
+        <v>32.4916</v>
       </c>
       <c r="D7" t="n">
-        <v>43.691</v>
+        <v>43.728</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.631</v>
+        <v>31.7754</v>
       </c>
       <c r="C8" t="n">
-        <v>28.9258</v>
+        <v>29.8514</v>
       </c>
       <c r="D8" t="n">
-        <v>42.9646</v>
+        <v>43.9395</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3524</v>
+        <v>32.0668</v>
       </c>
       <c r="C9" t="n">
-        <v>28.9143</v>
+        <v>29.2488</v>
       </c>
       <c r="D9" t="n">
-        <v>44.1424</v>
+        <v>43.5231</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.6495</v>
+        <v>32.2186</v>
       </c>
       <c r="C10" t="n">
-        <v>29.5315</v>
+        <v>30.0428</v>
       </c>
       <c r="D10" t="n">
-        <v>44.1481</v>
+        <v>44.0634</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.2584</v>
+        <v>32.4448</v>
       </c>
       <c r="C11" t="n">
-        <v>30.2518</v>
+        <v>30.0239</v>
       </c>
       <c r="D11" t="n">
-        <v>46.2105</v>
+        <v>45.8663</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.2916</v>
+        <v>32.4967</v>
       </c>
       <c r="C12" t="n">
-        <v>29.9898</v>
+        <v>30.1281</v>
       </c>
       <c r="D12" t="n">
-        <v>50.7273</v>
+        <v>50.7309</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.3082</v>
+        <v>32.452</v>
       </c>
       <c r="C13" t="n">
-        <v>30.4531</v>
+        <v>30.8089</v>
       </c>
       <c r="D13" t="n">
-        <v>50.8307</v>
+        <v>50.4962</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.9134</v>
+        <v>33.1713</v>
       </c>
       <c r="C14" t="n">
-        <v>30.4184</v>
+        <v>30.5044</v>
       </c>
       <c r="D14" t="n">
-        <v>50.1676</v>
+        <v>49.809</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.1157</v>
+        <v>32.8116</v>
       </c>
       <c r="C15" t="n">
-        <v>30.5081</v>
+        <v>29.7375</v>
       </c>
       <c r="D15" t="n">
-        <v>50.7229</v>
+        <v>50.781</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.9258</v>
+        <v>32.8364</v>
       </c>
       <c r="C16" t="n">
-        <v>30.2861</v>
+        <v>30.2361</v>
       </c>
       <c r="D16" t="n">
-        <v>50.5924</v>
+        <v>50.7653</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.0794</v>
+        <v>33.216</v>
       </c>
       <c r="C17" t="n">
-        <v>30.7894</v>
+        <v>30.9179</v>
       </c>
       <c r="D17" t="n">
-        <v>50.7455</v>
+        <v>50.8161</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.50463</v>
+        <v>4.50602</v>
       </c>
       <c r="C2" t="n">
-        <v>9.5947</v>
+        <v>9.58197</v>
       </c>
       <c r="D2" t="n">
-        <v>12.3414</v>
+        <v>12.3448</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.82733</v>
+        <v>8.82738</v>
       </c>
       <c r="C3" t="n">
-        <v>16.2302</v>
+        <v>16.3799</v>
       </c>
       <c r="D3" t="n">
-        <v>23.4281</v>
+        <v>23.5692</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.6501</v>
+        <v>12.7618</v>
       </c>
       <c r="C4" t="n">
-        <v>22.4015</v>
+        <v>22.8817</v>
       </c>
       <c r="D4" t="n">
-        <v>33.4242</v>
+        <v>34.2153</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1876</v>
+        <v>15.073</v>
       </c>
       <c r="C5" t="n">
-        <v>22.5008</v>
+        <v>22.8362</v>
       </c>
       <c r="D5" t="n">
-        <v>38.2046</v>
+        <v>38.5463</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3128</v>
+        <v>18.3118</v>
       </c>
       <c r="C6" t="n">
-        <v>25.9958</v>
+        <v>25.9673</v>
       </c>
       <c r="D6" t="n">
-        <v>46.0012</v>
+        <v>46.0046</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.3562</v>
+        <v>21.3789</v>
       </c>
       <c r="C7" t="n">
-        <v>30.5099</v>
+        <v>30.4759</v>
       </c>
       <c r="D7" t="n">
-        <v>53.8296</v>
+        <v>53.998</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.3211</v>
+        <v>19.1076</v>
       </c>
       <c r="C8" t="n">
-        <v>29.0857</v>
+        <v>29.0285</v>
       </c>
       <c r="D8" t="n">
-        <v>48.8329</v>
+        <v>49.1128</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.9448</v>
+        <v>19.9545</v>
       </c>
       <c r="C9" t="n">
-        <v>29.2018</v>
+        <v>29.4192</v>
       </c>
       <c r="D9" t="n">
-        <v>49.7869</v>
+        <v>48.7735</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.7857</v>
+        <v>19.8288</v>
       </c>
       <c r="C10" t="n">
-        <v>29.5905</v>
+        <v>29.4013</v>
       </c>
       <c r="D10" t="n">
-        <v>49.5567</v>
+        <v>48.7872</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.8537</v>
+        <v>20.3434</v>
       </c>
       <c r="C11" t="n">
-        <v>29.4957</v>
+        <v>29.2299</v>
       </c>
       <c r="D11" t="n">
-        <v>49.9929</v>
+        <v>49.7839</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.089</v>
+        <v>19.931</v>
       </c>
       <c r="C12" t="n">
-        <v>29.4447</v>
+        <v>29.3541</v>
       </c>
       <c r="D12" t="n">
-        <v>48.6777</v>
+        <v>50.0155</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.8436</v>
+        <v>20.3056</v>
       </c>
       <c r="C13" t="n">
-        <v>29.6802</v>
+        <v>29.7013</v>
       </c>
       <c r="D13" t="n">
-        <v>50.1276</v>
+        <v>50.0306</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.3597</v>
+        <v>19.8168</v>
       </c>
       <c r="C14" t="n">
-        <v>29.7441</v>
+        <v>29.7477</v>
       </c>
       <c r="D14" t="n">
-        <v>49.9327</v>
+        <v>50.5832</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.602</v>
+        <v>20.2675</v>
       </c>
       <c r="C15" t="n">
-        <v>29.8549</v>
+        <v>29.8927</v>
       </c>
       <c r="D15" t="n">
-        <v>50.0412</v>
+        <v>50.5359</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.3088</v>
+        <v>20.4082</v>
       </c>
       <c r="C16" t="n">
-        <v>29.7663</v>
+        <v>29.7454</v>
       </c>
       <c r="D16" t="n">
-        <v>49.8133</v>
+        <v>49.1687</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.3486</v>
+        <v>20.4459</v>
       </c>
       <c r="C17" t="n">
-        <v>29.9253</v>
+        <v>29.7714</v>
       </c>
       <c r="D17" t="n">
-        <v>50.2348</v>
+        <v>49.4801</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.53935</v>
+        <v>4.55623</v>
       </c>
       <c r="C2" t="n">
-        <v>9.722239999999999</v>
+        <v>9.721869999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>12.381</v>
+        <v>12.4607</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.92797</v>
+        <v>8.935280000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>16.5861</v>
+        <v>16.612</v>
       </c>
       <c r="D3" t="n">
-        <v>23.774</v>
+        <v>23.7505</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8938</v>
+        <v>12.934</v>
       </c>
       <c r="C4" t="n">
-        <v>22.5792</v>
+        <v>22.5923</v>
       </c>
       <c r="D4" t="n">
-        <v>34.1703</v>
+        <v>34.3861</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.3989</v>
+        <v>15.3225</v>
       </c>
       <c r="C5" t="n">
-        <v>22.9724</v>
+        <v>22.8505</v>
       </c>
       <c r="D5" t="n">
-        <v>38.193</v>
+        <v>37.2723</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.6532</v>
+        <v>18.6732</v>
       </c>
       <c r="C6" t="n">
-        <v>26.1079</v>
+        <v>26.1713</v>
       </c>
       <c r="D6" t="n">
-        <v>45.0299</v>
+        <v>45.011</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.858</v>
+        <v>21.8951</v>
       </c>
       <c r="C7" t="n">
-        <v>30.5377</v>
+        <v>30.6138</v>
       </c>
       <c r="D7" t="n">
-        <v>53.8462</v>
+        <v>53.9074</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.4369</v>
+        <v>19.4779</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1857</v>
+        <v>29.2377</v>
       </c>
       <c r="D8" t="n">
-        <v>48.717</v>
+        <v>49.8123</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.9881</v>
+        <v>20.5247</v>
       </c>
       <c r="C9" t="n">
-        <v>29.5754</v>
+        <v>29.5103</v>
       </c>
       <c r="D9" t="n">
-        <v>49.9628</v>
+        <v>49.0552</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.6286</v>
+        <v>20.5412</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6538</v>
+        <v>29.6035</v>
       </c>
       <c r="D10" t="n">
-        <v>49.5989</v>
+        <v>49.6271</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.7754</v>
+        <v>20.5549</v>
       </c>
       <c r="C11" t="n">
-        <v>29.6629</v>
+        <v>29.7276</v>
       </c>
       <c r="D11" t="n">
-        <v>48.9974</v>
+        <v>50.5057</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.6551</v>
+        <v>20.4391</v>
       </c>
       <c r="C12" t="n">
-        <v>29.9367</v>
+        <v>29.8283</v>
       </c>
       <c r="D12" t="n">
-        <v>49.418</v>
+        <v>49.0222</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.8936</v>
+        <v>20.5365</v>
       </c>
       <c r="C13" t="n">
-        <v>29.8168</v>
+        <v>29.8301</v>
       </c>
       <c r="D13" t="n">
-        <v>49.6298</v>
+        <v>49.7119</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.5579</v>
+        <v>20.9434</v>
       </c>
       <c r="C14" t="n">
-        <v>29.9174</v>
+        <v>30.0018</v>
       </c>
       <c r="D14" t="n">
-        <v>49.5872</v>
+        <v>49.6768</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.6377</v>
+        <v>20.9315</v>
       </c>
       <c r="C15" t="n">
-        <v>30.0206</v>
+        <v>29.8863</v>
       </c>
       <c r="D15" t="n">
-        <v>50.6174</v>
+        <v>50.5702</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.6672</v>
+        <v>20.9063</v>
       </c>
       <c r="C16" t="n">
-        <v>30.0604</v>
+        <v>30.0349</v>
       </c>
       <c r="D16" t="n">
-        <v>50.2571</v>
+        <v>51.4182</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.7657</v>
+        <v>20.9417</v>
       </c>
       <c r="C17" t="n">
-        <v>29.7086</v>
+        <v>30.0688</v>
       </c>
       <c r="D17" t="n">
-        <v>49.3677</v>
+        <v>50.836</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.09362</v>
+        <v>8.144220000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5911</v>
+        <v>11.6665</v>
       </c>
       <c r="D2" t="n">
-        <v>15.1237</v>
+        <v>15.184</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.4356</v>
+        <v>15.5536</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8977</v>
+        <v>19.0987</v>
       </c>
       <c r="D3" t="n">
-        <v>28.132</v>
+        <v>28.2248</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.2213</v>
+        <v>22.3222</v>
       </c>
       <c r="C4" t="n">
-        <v>25.3415</v>
+        <v>25.2115</v>
       </c>
       <c r="D4" t="n">
-        <v>39.8835</v>
+        <v>39.8709</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.9643</v>
+        <v>22.486</v>
       </c>
       <c r="C5" t="n">
-        <v>24.8218</v>
+        <v>24.8995</v>
       </c>
       <c r="D5" t="n">
-        <v>40.7064</v>
+        <v>40.3524</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.7347</v>
+        <v>26.5456</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7083</v>
+        <v>27.6707</v>
       </c>
       <c r="D6" t="n">
-        <v>46.9643</v>
+        <v>46.9407</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.2469</v>
+        <v>32.1216</v>
       </c>
       <c r="C7" t="n">
-        <v>31.974</v>
+        <v>32.0088</v>
       </c>
       <c r="D7" t="n">
-        <v>55.6793</v>
+        <v>55.7324</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.921</v>
+        <v>29.2336</v>
       </c>
       <c r="C8" t="n">
-        <v>30.9701</v>
+        <v>30.9975</v>
       </c>
       <c r="D8" t="n">
-        <v>52.7422</v>
+        <v>51.2118</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.179</v>
+        <v>30.3083</v>
       </c>
       <c r="C9" t="n">
-        <v>31.021</v>
+        <v>30.8174</v>
       </c>
       <c r="D9" t="n">
-        <v>52.8213</v>
+        <v>52.8767</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.357</v>
+        <v>30.2471</v>
       </c>
       <c r="C10" t="n">
-        <v>30.9792</v>
+        <v>31.1745</v>
       </c>
       <c r="D10" t="n">
-        <v>52.8076</v>
+        <v>52.5124</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.092</v>
+        <v>30.5699</v>
       </c>
       <c r="C11" t="n">
-        <v>31.1311</v>
+        <v>31.4829</v>
       </c>
       <c r="D11" t="n">
-        <v>52.3703</v>
+        <v>53.3743</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.1221</v>
+        <v>30.4406</v>
       </c>
       <c r="C12" t="n">
-        <v>31.2809</v>
+        <v>31.634</v>
       </c>
       <c r="D12" t="n">
-        <v>52.8858</v>
+        <v>52.6481</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.3772</v>
+        <v>30.8434</v>
       </c>
       <c r="C13" t="n">
-        <v>31.4568</v>
+        <v>31.5306</v>
       </c>
       <c r="D13" t="n">
-        <v>53.9816</v>
+        <v>53.1028</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.8167</v>
+        <v>30.6572</v>
       </c>
       <c r="C14" t="n">
-        <v>31.4416</v>
+        <v>31.3741</v>
       </c>
       <c r="D14" t="n">
-        <v>52.4454</v>
+        <v>52.0606</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.3165</v>
+        <v>31.0186</v>
       </c>
       <c r="C15" t="n">
-        <v>31.6407</v>
+        <v>31.5136</v>
       </c>
       <c r="D15" t="n">
-        <v>52.8372</v>
+        <v>52.3522</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.6051</v>
+        <v>30.806</v>
       </c>
       <c r="C16" t="n">
-        <v>31.5944</v>
+        <v>31.6851</v>
       </c>
       <c r="D16" t="n">
-        <v>53.237</v>
+        <v>52.4431</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.9729</v>
+        <v>31.0857</v>
       </c>
       <c r="C17" t="n">
-        <v>31.3766</v>
+        <v>31.3548</v>
       </c>
       <c r="D17" t="n">
-        <v>52.5129</v>
+        <v>53.324</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.14194</v>
+        <v>9.15127</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2653</v>
+        <v>11.31</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6055</v>
+        <v>14.9268</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3634</v>
+        <v>17.3649</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0415</v>
+        <v>16.8753</v>
       </c>
       <c r="D3" t="n">
-        <v>23.9161</v>
+        <v>23.9212</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.1412</v>
+        <v>24.0972</v>
       </c>
       <c r="C4" t="n">
-        <v>21.3666</v>
+        <v>21.8549</v>
       </c>
       <c r="D4" t="n">
-        <v>32.4619</v>
+        <v>29.8003</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.5037</v>
+        <v>19.0517</v>
       </c>
       <c r="C5" t="n">
-        <v>23.1544</v>
+        <v>22.9064</v>
       </c>
       <c r="D5" t="n">
-        <v>32.6143</v>
+        <v>30.9508</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.098</v>
+        <v>23.1349</v>
       </c>
       <c r="C6" t="n">
-        <v>26.9147</v>
+        <v>26.9775</v>
       </c>
       <c r="D6" t="n">
-        <v>38.3853</v>
+        <v>34.7609</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.5606</v>
+        <v>27.6776</v>
       </c>
       <c r="C7" t="n">
-        <v>31.5153</v>
+        <v>31.6052</v>
       </c>
       <c r="D7" t="n">
-        <v>38.6347</v>
+        <v>38.6368</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.561</v>
+        <v>19.7325</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1625</v>
+        <v>29.256</v>
       </c>
       <c r="D8" t="n">
-        <v>40.3022</v>
+        <v>36.536</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.1082</v>
+        <v>22.6171</v>
       </c>
       <c r="C9" t="n">
-        <v>29.1692</v>
+        <v>29.5062</v>
       </c>
       <c r="D9" t="n">
-        <v>41.4735</v>
+        <v>41.2028</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.2207</v>
+        <v>25.046</v>
       </c>
       <c r="C10" t="n">
-        <v>29.772</v>
+        <v>29.9652</v>
       </c>
       <c r="D10" t="n">
-        <v>43.5348</v>
+        <v>44.7628</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.2805</v>
+        <v>22.8549</v>
       </c>
       <c r="C11" t="n">
-        <v>29.5605</v>
+        <v>30.0056</v>
       </c>
       <c r="D11" t="n">
-        <v>43.484</v>
+        <v>44.0779</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.2239</v>
+        <v>25.1547</v>
       </c>
       <c r="C12" t="n">
-        <v>29.9786</v>
+        <v>29.9476</v>
       </c>
       <c r="D12" t="n">
-        <v>45.8248</v>
+        <v>46.6717</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.5565</v>
+        <v>27.5771</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2853</v>
+        <v>30.2908</v>
       </c>
       <c r="D13" t="n">
-        <v>46.5771</v>
+        <v>48.6728</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3491</v>
+        <v>22.6018</v>
       </c>
       <c r="C14" t="n">
-        <v>30.1064</v>
+        <v>29.6007</v>
       </c>
       <c r="D14" t="n">
-        <v>47.3119</v>
+        <v>45.706</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.8705</v>
+        <v>24.0841</v>
       </c>
       <c r="C15" t="n">
-        <v>30.1994</v>
+        <v>29.5571</v>
       </c>
       <c r="D15" t="n">
-        <v>44.1422</v>
+        <v>49.2978</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1572</v>
+        <v>25.7929</v>
       </c>
       <c r="C16" t="n">
-        <v>29.9449</v>
+        <v>29.783</v>
       </c>
       <c r="D16" t="n">
-        <v>46.7833</v>
+        <v>49.8294</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.3481</v>
+        <v>24.2667</v>
       </c>
       <c r="C17" t="n">
-        <v>29.9859</v>
+        <v>29.8919</v>
       </c>
       <c r="D17" t="n">
-        <v>47.4501</v>
+        <v>49.0782</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.5871</v>
+        <v>9.623089999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4087</v>
+        <v>11.4203</v>
       </c>
       <c r="D2" t="n">
-        <v>14.785</v>
+        <v>15.0907</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.1588</v>
+        <v>18.2582</v>
       </c>
       <c r="C3" t="n">
-        <v>17.1549</v>
+        <v>17.1418</v>
       </c>
       <c r="D3" t="n">
-        <v>25.2288</v>
+        <v>23.7548</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.5335</v>
+        <v>25.3875</v>
       </c>
       <c r="C4" t="n">
-        <v>21.6839</v>
+        <v>20.8702</v>
       </c>
       <c r="D4" t="n">
-        <v>30.553</v>
+        <v>29.0084</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.5326</v>
+        <v>19.844</v>
       </c>
       <c r="C5" t="n">
-        <v>23.074</v>
+        <v>22.8665</v>
       </c>
       <c r="D5" t="n">
-        <v>31.9855</v>
+        <v>31.3949</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.6661</v>
+        <v>23.7988</v>
       </c>
       <c r="C6" t="n">
-        <v>26.8432</v>
+        <v>26.6386</v>
       </c>
       <c r="D6" t="n">
-        <v>37.5783</v>
+        <v>34.6449</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.5397</v>
+        <v>28.574</v>
       </c>
       <c r="C7" t="n">
-        <v>31.4912</v>
+        <v>31.4755</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5771</v>
+        <v>35.569</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1898</v>
+        <v>20.4226</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1836</v>
+        <v>29.1034</v>
       </c>
       <c r="D8" t="n">
-        <v>36.7411</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.4792</v>
+        <v>23.6703</v>
       </c>
       <c r="C9" t="n">
-        <v>29.2086</v>
+        <v>29.1912</v>
       </c>
       <c r="D9" t="n">
-        <v>38.1743</v>
+        <v>37.5379</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.484</v>
+        <v>25.6014</v>
       </c>
       <c r="C10" t="n">
-        <v>28.9501</v>
+        <v>29.6403</v>
       </c>
       <c r="D10" t="n">
-        <v>38.9642</v>
+        <v>39.3366</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.8516</v>
+        <v>23.8627</v>
       </c>
       <c r="C11" t="n">
-        <v>29.2297</v>
+        <v>29.9713</v>
       </c>
       <c r="D11" t="n">
-        <v>40.9162</v>
+        <v>41.6808</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.9648</v>
+        <v>25.8329</v>
       </c>
       <c r="C12" t="n">
-        <v>29.6324</v>
+        <v>29.7762</v>
       </c>
       <c r="D12" t="n">
-        <v>43.8214</v>
+        <v>44.7207</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.499</v>
+        <v>28.534</v>
       </c>
       <c r="C13" t="n">
-        <v>30.43</v>
+        <v>30.2873</v>
       </c>
       <c r="D13" t="n">
-        <v>43.9014</v>
+        <v>45.3462</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.4854</v>
+        <v>22.8292</v>
       </c>
       <c r="C14" t="n">
-        <v>30.2594</v>
+        <v>30.6699</v>
       </c>
       <c r="D14" t="n">
-        <v>44.1502</v>
+        <v>46.8881</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.5773</v>
+        <v>24.7944</v>
       </c>
       <c r="C15" t="n">
-        <v>30.2796</v>
+        <v>30.4355</v>
       </c>
       <c r="D15" t="n">
-        <v>46.7475</v>
+        <v>49.07</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.3988</v>
+        <v>26.166</v>
       </c>
       <c r="C16" t="n">
-        <v>30.3324</v>
+        <v>30.171</v>
       </c>
       <c r="D16" t="n">
-        <v>47.2235</v>
+        <v>47.9726</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.4552</v>
+        <v>25.3501</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4343</v>
+        <v>30.671</v>
       </c>
       <c r="D17" t="n">
-        <v>50.7109</v>
+        <v>48.4997</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3709</v>
+        <v>11.4024</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2757</v>
+        <v>12.2863</v>
       </c>
       <c r="D2" t="n">
-        <v>15.9666</v>
+        <v>16.4574</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.378</v>
+        <v>20.4631</v>
       </c>
       <c r="C3" t="n">
-        <v>20.5863</v>
+        <v>20.4882</v>
       </c>
       <c r="D3" t="n">
-        <v>26.7855</v>
+        <v>26.0512</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.4079</v>
+        <v>28.7651</v>
       </c>
       <c r="C4" t="n">
-        <v>25.5987</v>
+        <v>25.8048</v>
       </c>
       <c r="D4" t="n">
-        <v>37.066</v>
+        <v>33.3333</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.3994</v>
+        <v>24.5885</v>
       </c>
       <c r="C5" t="n">
-        <v>24.3763</v>
+        <v>24.5704</v>
       </c>
       <c r="D5" t="n">
-        <v>33.8952</v>
+        <v>31.8737</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.4845</v>
+        <v>29.5266</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7925</v>
+        <v>27.5681</v>
       </c>
       <c r="D6" t="n">
-        <v>38.5086</v>
+        <v>35.0797</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.9269</v>
+        <v>35.0761</v>
       </c>
       <c r="C7" t="n">
-        <v>32.4916</v>
+        <v>32.3738</v>
       </c>
       <c r="D7" t="n">
-        <v>43.728</v>
+        <v>42.6865</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.7754</v>
+        <v>31.6797</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8514</v>
+        <v>29.5326</v>
       </c>
       <c r="D8" t="n">
-        <v>43.9395</v>
+        <v>42.3583</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.0668</v>
+        <v>33.0029</v>
       </c>
       <c r="C9" t="n">
-        <v>29.2488</v>
+        <v>29.0708</v>
       </c>
       <c r="D9" t="n">
-        <v>43.5231</v>
+        <v>43.9103</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.2186</v>
+        <v>32.8355</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0428</v>
+        <v>29.483</v>
       </c>
       <c r="D10" t="n">
-        <v>44.0634</v>
+        <v>46.6809</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.4448</v>
+        <v>32.5709</v>
       </c>
       <c r="C11" t="n">
-        <v>30.0239</v>
+        <v>29.7814</v>
       </c>
       <c r="D11" t="n">
-        <v>45.8663</v>
+        <v>49.1414</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4967</v>
+        <v>32.8214</v>
       </c>
       <c r="C12" t="n">
-        <v>30.1281</v>
+        <v>29.9231</v>
       </c>
       <c r="D12" t="n">
-        <v>50.7309</v>
+        <v>50.2301</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.452</v>
+        <v>32.1902</v>
       </c>
       <c r="C13" t="n">
-        <v>30.8089</v>
+        <v>30.1509</v>
       </c>
       <c r="D13" t="n">
-        <v>50.4962</v>
+        <v>49.8427</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.1713</v>
+        <v>32.9795</v>
       </c>
       <c r="C14" t="n">
-        <v>30.5044</v>
+        <v>30.6355</v>
       </c>
       <c r="D14" t="n">
-        <v>49.809</v>
+        <v>48.9834</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.8116</v>
+        <v>33.2237</v>
       </c>
       <c r="C15" t="n">
-        <v>29.7375</v>
+        <v>30.5552</v>
       </c>
       <c r="D15" t="n">
-        <v>50.781</v>
+        <v>49.2344</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.8364</v>
+        <v>33.0267</v>
       </c>
       <c r="C16" t="n">
-        <v>30.2361</v>
+        <v>30.4224</v>
       </c>
       <c r="D16" t="n">
-        <v>50.7653</v>
+        <v>49.3223</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.216</v>
+        <v>33.3022</v>
       </c>
       <c r="C17" t="n">
-        <v>30.9179</v>
+        <v>30.8297</v>
       </c>
       <c r="D17" t="n">
-        <v>50.8161</v>
+        <v>50.1469</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.50602</v>
+        <v>4.50747</v>
       </c>
       <c r="C2" t="n">
-        <v>9.58197</v>
+        <v>9.581720000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>12.3448</v>
+        <v>12.446</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.82738</v>
+        <v>8.85164</v>
       </c>
       <c r="C3" t="n">
-        <v>16.3799</v>
+        <v>16.5007</v>
       </c>
       <c r="D3" t="n">
-        <v>23.5692</v>
+        <v>23.6548</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7618</v>
+        <v>12.7366</v>
       </c>
       <c r="C4" t="n">
-        <v>22.8817</v>
+        <v>22.8442</v>
       </c>
       <c r="D4" t="n">
-        <v>34.2153</v>
+        <v>33.7378</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.073</v>
+        <v>15.0874</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8362</v>
+        <v>22.5961</v>
       </c>
       <c r="D5" t="n">
-        <v>38.5463</v>
+        <v>37.926</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3118</v>
+        <v>18.3871</v>
       </c>
       <c r="C6" t="n">
-        <v>25.9673</v>
+        <v>26.0138</v>
       </c>
       <c r="D6" t="n">
-        <v>46.0046</v>
+        <v>45.4463</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.3789</v>
+        <v>21.4427</v>
       </c>
       <c r="C7" t="n">
-        <v>30.4759</v>
+        <v>30.5364</v>
       </c>
       <c r="D7" t="n">
-        <v>53.998</v>
+        <v>52.9663</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.1076</v>
+        <v>19.4517</v>
       </c>
       <c r="C8" t="n">
-        <v>29.0285</v>
+        <v>29.3749</v>
       </c>
       <c r="D8" t="n">
-        <v>49.1128</v>
+        <v>47.0085</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.9545</v>
+        <v>19.7386</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4192</v>
+        <v>29.3966</v>
       </c>
       <c r="D9" t="n">
-        <v>48.7735</v>
+        <v>49.4186</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.8288</v>
+        <v>20.3074</v>
       </c>
       <c r="C10" t="n">
-        <v>29.4013</v>
+        <v>29.5495</v>
       </c>
       <c r="D10" t="n">
-        <v>48.7872</v>
+        <v>47.8394</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.3434</v>
+        <v>20.3614</v>
       </c>
       <c r="C11" t="n">
-        <v>29.2299</v>
+        <v>29.7588</v>
       </c>
       <c r="D11" t="n">
-        <v>49.7839</v>
+        <v>48.2017</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.931</v>
+        <v>20.4902</v>
       </c>
       <c r="C12" t="n">
-        <v>29.3541</v>
+        <v>29.5639</v>
       </c>
       <c r="D12" t="n">
-        <v>50.0155</v>
+        <v>48.9092</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3056</v>
+        <v>20.0721</v>
       </c>
       <c r="C13" t="n">
-        <v>29.7013</v>
+        <v>29.6692</v>
       </c>
       <c r="D13" t="n">
-        <v>50.0306</v>
+        <v>51.6315</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.8168</v>
+        <v>20.3313</v>
       </c>
       <c r="C14" t="n">
-        <v>29.7477</v>
+        <v>29.8345</v>
       </c>
       <c r="D14" t="n">
-        <v>50.5832</v>
+        <v>51.589</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.2675</v>
+        <v>20.3527</v>
       </c>
       <c r="C15" t="n">
-        <v>29.8927</v>
+        <v>29.85</v>
       </c>
       <c r="D15" t="n">
-        <v>50.5359</v>
+        <v>51.0199</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4082</v>
+        <v>20.3805</v>
       </c>
       <c r="C16" t="n">
-        <v>29.7454</v>
+        <v>29.9496</v>
       </c>
       <c r="D16" t="n">
-        <v>49.1687</v>
+        <v>51.5877</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.4459</v>
+        <v>20.5118</v>
       </c>
       <c r="C17" t="n">
-        <v>29.7714</v>
+        <v>29.954</v>
       </c>
       <c r="D17" t="n">
-        <v>49.4801</v>
+        <v>51.8504</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.55623</v>
+        <v>4.55554</v>
       </c>
       <c r="C2" t="n">
-        <v>9.721869999999999</v>
+        <v>9.74128</v>
       </c>
       <c r="D2" t="n">
-        <v>12.4607</v>
+        <v>12.5496</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.935280000000001</v>
+        <v>8.9199</v>
       </c>
       <c r="C3" t="n">
-        <v>16.612</v>
+        <v>16.6694</v>
       </c>
       <c r="D3" t="n">
-        <v>23.7505</v>
+        <v>23.8513</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.934</v>
+        <v>12.9089</v>
       </c>
       <c r="C4" t="n">
-        <v>22.5923</v>
+        <v>22.4487</v>
       </c>
       <c r="D4" t="n">
-        <v>34.3861</v>
+        <v>33.7701</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.3225</v>
+        <v>15.4609</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8505</v>
+        <v>22.8146</v>
       </c>
       <c r="D5" t="n">
-        <v>37.2723</v>
+        <v>37.8359</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.6732</v>
+        <v>18.731</v>
       </c>
       <c r="C6" t="n">
-        <v>26.1713</v>
+        <v>26.1474</v>
       </c>
       <c r="D6" t="n">
-        <v>45.011</v>
+        <v>44.4456</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.8951</v>
+        <v>21.9237</v>
       </c>
       <c r="C7" t="n">
-        <v>30.6138</v>
+        <v>30.5958</v>
       </c>
       <c r="D7" t="n">
-        <v>53.9074</v>
+        <v>52.944</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.4779</v>
+        <v>19.6495</v>
       </c>
       <c r="C8" t="n">
-        <v>29.2377</v>
+        <v>29.8397</v>
       </c>
       <c r="D8" t="n">
-        <v>49.8123</v>
+        <v>46.2024</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5247</v>
+        <v>20.3557</v>
       </c>
       <c r="C9" t="n">
-        <v>29.5103</v>
+        <v>29.721</v>
       </c>
       <c r="D9" t="n">
-        <v>49.0552</v>
+        <v>47.87</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.5412</v>
+        <v>20.5591</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6035</v>
+        <v>29.3251</v>
       </c>
       <c r="D10" t="n">
-        <v>49.6271</v>
+        <v>47.0394</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.5549</v>
+        <v>20.9595</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7276</v>
+        <v>29.6306</v>
       </c>
       <c r="D11" t="n">
-        <v>50.5057</v>
+        <v>49.1603</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.4391</v>
+        <v>20.4426</v>
       </c>
       <c r="C12" t="n">
-        <v>29.8283</v>
+        <v>29.8849</v>
       </c>
       <c r="D12" t="n">
-        <v>49.0222</v>
+        <v>49.2331</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.5365</v>
+        <v>21.0694</v>
       </c>
       <c r="C13" t="n">
-        <v>29.8301</v>
+        <v>29.976</v>
       </c>
       <c r="D13" t="n">
-        <v>49.7119</v>
+        <v>49.6292</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.9434</v>
+        <v>20.6482</v>
       </c>
       <c r="C14" t="n">
-        <v>30.0018</v>
+        <v>30.028</v>
       </c>
       <c r="D14" t="n">
-        <v>49.6768</v>
+        <v>50.1266</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9315</v>
+        <v>20.5226</v>
       </c>
       <c r="C15" t="n">
-        <v>29.8863</v>
+        <v>29.9768</v>
       </c>
       <c r="D15" t="n">
-        <v>50.5702</v>
+        <v>51.9407</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.9063</v>
+        <v>20.8152</v>
       </c>
       <c r="C16" t="n">
-        <v>30.0349</v>
+        <v>30.0032</v>
       </c>
       <c r="D16" t="n">
-        <v>51.4182</v>
+        <v>51.0073</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.9417</v>
+        <v>21.1938</v>
       </c>
       <c r="C17" t="n">
-        <v>30.0688</v>
+        <v>30.2317</v>
       </c>
       <c r="D17" t="n">
-        <v>50.836</v>
+        <v>50.5663</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.144220000000001</v>
+        <v>8.15094</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6665</v>
+        <v>11.6694</v>
       </c>
       <c r="D2" t="n">
-        <v>15.184</v>
+        <v>15.4769</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.5536</v>
+        <v>15.5887</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0987</v>
+        <v>19.0126</v>
       </c>
       <c r="D3" t="n">
-        <v>28.2248</v>
+        <v>28.6347</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.3222</v>
+        <v>22.3248</v>
       </c>
       <c r="C4" t="n">
-        <v>25.2115</v>
+        <v>25.3255</v>
       </c>
       <c r="D4" t="n">
-        <v>39.8709</v>
+        <v>39.7946</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.486</v>
+        <v>23.2172</v>
       </c>
       <c r="C5" t="n">
-        <v>24.8995</v>
+        <v>24.7054</v>
       </c>
       <c r="D5" t="n">
-        <v>40.3524</v>
+        <v>40.7921</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.5456</v>
+        <v>26.7155</v>
       </c>
       <c r="C6" t="n">
-        <v>27.6707</v>
+        <v>27.5631</v>
       </c>
       <c r="D6" t="n">
-        <v>46.9407</v>
+        <v>47.2013</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.1216</v>
+        <v>32.4168</v>
       </c>
       <c r="C7" t="n">
-        <v>32.0088</v>
+        <v>31.838</v>
       </c>
       <c r="D7" t="n">
-        <v>55.7324</v>
+        <v>54.7823</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.2336</v>
+        <v>29.6272</v>
       </c>
       <c r="C8" t="n">
-        <v>30.9975</v>
+        <v>30.8369</v>
       </c>
       <c r="D8" t="n">
-        <v>51.2118</v>
+        <v>52.4423</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.3083</v>
+        <v>29.72</v>
       </c>
       <c r="C9" t="n">
-        <v>30.8174</v>
+        <v>30.8655</v>
       </c>
       <c r="D9" t="n">
-        <v>52.8767</v>
+        <v>52.8736</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.2471</v>
+        <v>30.0127</v>
       </c>
       <c r="C10" t="n">
-        <v>31.1745</v>
+        <v>30.9999</v>
       </c>
       <c r="D10" t="n">
-        <v>52.5124</v>
+        <v>53.6605</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.5699</v>
+        <v>31.1104</v>
       </c>
       <c r="C11" t="n">
-        <v>31.4829</v>
+        <v>31.1093</v>
       </c>
       <c r="D11" t="n">
-        <v>53.3743</v>
+        <v>54.3448</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.4406</v>
+        <v>30.6131</v>
       </c>
       <c r="C12" t="n">
-        <v>31.634</v>
+        <v>31.3925</v>
       </c>
       <c r="D12" t="n">
-        <v>52.6481</v>
+        <v>54.2955</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.8434</v>
+        <v>30.4058</v>
       </c>
       <c r="C13" t="n">
-        <v>31.5306</v>
+        <v>31.2888</v>
       </c>
       <c r="D13" t="n">
-        <v>53.1028</v>
+        <v>54.1713</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.6572</v>
+        <v>30.6266</v>
       </c>
       <c r="C14" t="n">
-        <v>31.3741</v>
+        <v>31.2151</v>
       </c>
       <c r="D14" t="n">
-        <v>52.0606</v>
+        <v>54.6853</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.0186</v>
+        <v>30.4837</v>
       </c>
       <c r="C15" t="n">
-        <v>31.5136</v>
+        <v>31.5479</v>
       </c>
       <c r="D15" t="n">
-        <v>52.3522</v>
+        <v>54.1235</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.806</v>
+        <v>30.7193</v>
       </c>
       <c r="C16" t="n">
-        <v>31.6851</v>
+        <v>31.4782</v>
       </c>
       <c r="D16" t="n">
-        <v>52.4431</v>
+        <v>54.4635</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.0857</v>
+        <v>31.1992</v>
       </c>
       <c r="C17" t="n">
-        <v>31.3548</v>
+        <v>31.4532</v>
       </c>
       <c r="D17" t="n">
-        <v>53.324</v>
+        <v>54.3066</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.15127</v>
+        <v>9.1098</v>
       </c>
       <c r="C2" t="n">
-        <v>11.31</v>
+        <v>11.3133</v>
       </c>
       <c r="D2" t="n">
-        <v>14.9268</v>
+        <v>14.6276</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3649</v>
+        <v>17.4727</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8753</v>
+        <v>17.2589</v>
       </c>
       <c r="D3" t="n">
-        <v>23.9212</v>
+        <v>24.6031</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0972</v>
+        <v>23.798</v>
       </c>
       <c r="C4" t="n">
-        <v>21.8549</v>
+        <v>21.512</v>
       </c>
       <c r="D4" t="n">
-        <v>29.8003</v>
+        <v>32.1307</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0517</v>
+        <v>19.111</v>
       </c>
       <c r="C5" t="n">
-        <v>22.9064</v>
+        <v>23.2899</v>
       </c>
       <c r="D5" t="n">
-        <v>30.9508</v>
+        <v>32.7126</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.1349</v>
+        <v>23.0096</v>
       </c>
       <c r="C6" t="n">
-        <v>26.9775</v>
+        <v>26.8504</v>
       </c>
       <c r="D6" t="n">
-        <v>34.7609</v>
+        <v>37.4412</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.6776</v>
+        <v>27.5115</v>
       </c>
       <c r="C7" t="n">
-        <v>31.6052</v>
+        <v>31.4579</v>
       </c>
       <c r="D7" t="n">
-        <v>38.6368</v>
+        <v>41.2258</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.7325</v>
+        <v>19.8082</v>
       </c>
       <c r="C8" t="n">
-        <v>29.256</v>
+        <v>29.5516</v>
       </c>
       <c r="D8" t="n">
-        <v>36.536</v>
+        <v>39.6099</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.6171</v>
+        <v>22.336</v>
       </c>
       <c r="C9" t="n">
-        <v>29.5062</v>
+        <v>29.0944</v>
       </c>
       <c r="D9" t="n">
-        <v>41.2028</v>
+        <v>40.6119</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.046</v>
+        <v>24.6726</v>
       </c>
       <c r="C10" t="n">
-        <v>29.9652</v>
+        <v>29.4877</v>
       </c>
       <c r="D10" t="n">
-        <v>44.7628</v>
+        <v>42.6376</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.8549</v>
+        <v>22.8846</v>
       </c>
       <c r="C11" t="n">
-        <v>30.0056</v>
+        <v>29.8426</v>
       </c>
       <c r="D11" t="n">
-        <v>44.0779</v>
+        <v>43.8983</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.1547</v>
+        <v>25.0392</v>
       </c>
       <c r="C12" t="n">
-        <v>29.9476</v>
+        <v>29.8615</v>
       </c>
       <c r="D12" t="n">
-        <v>46.6717</v>
+        <v>46.6261</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.5771</v>
+        <v>27.3949</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2908</v>
+        <v>30.1844</v>
       </c>
       <c r="D13" t="n">
-        <v>48.6728</v>
+        <v>46.5249</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.6018</v>
+        <v>22.3418</v>
       </c>
       <c r="C14" t="n">
-        <v>29.6007</v>
+        <v>29.7512</v>
       </c>
       <c r="D14" t="n">
-        <v>45.706</v>
+        <v>43.9683</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.0841</v>
+        <v>24.3211</v>
       </c>
       <c r="C15" t="n">
-        <v>29.5571</v>
+        <v>29.8351</v>
       </c>
       <c r="D15" t="n">
-        <v>49.2978</v>
+        <v>43.6814</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.7929</v>
+        <v>25.3226</v>
       </c>
       <c r="C16" t="n">
-        <v>29.783</v>
+        <v>29.6988</v>
       </c>
       <c r="D16" t="n">
-        <v>49.8294</v>
+        <v>45.183</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.2667</v>
+        <v>24.2569</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8919</v>
+        <v>30.0923</v>
       </c>
       <c r="D17" t="n">
-        <v>49.0782</v>
+        <v>47.5998</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.623089999999999</v>
+        <v>9.55301</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4203</v>
+        <v>11.3293</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0907</v>
+        <v>14.7267</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.2582</v>
+        <v>17.9149</v>
       </c>
       <c r="C3" t="n">
-        <v>17.1418</v>
+        <v>17.1813</v>
       </c>
       <c r="D3" t="n">
-        <v>23.7548</v>
+        <v>24.5967</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.3875</v>
+        <v>25.1509</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8702</v>
+        <v>21.5867</v>
       </c>
       <c r="D4" t="n">
-        <v>29.0084</v>
+        <v>30.8251</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.844</v>
+        <v>19.5566</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8665</v>
+        <v>23.1589</v>
       </c>
       <c r="D5" t="n">
-        <v>31.3949</v>
+        <v>31.6668</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.7988</v>
+        <v>23.6452</v>
       </c>
       <c r="C6" t="n">
-        <v>26.6386</v>
+        <v>26.6314</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6449</v>
+        <v>38.6901</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.574</v>
+        <v>28.416</v>
       </c>
       <c r="C7" t="n">
-        <v>31.4755</v>
+        <v>31.3344</v>
       </c>
       <c r="D7" t="n">
-        <v>35.569</v>
+        <v>38.6609</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4226</v>
+        <v>20.1608</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1034</v>
+        <v>29.1393</v>
       </c>
       <c r="D8" t="n">
-        <v>36.3</v>
+        <v>39.4394</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6703</v>
+        <v>23.3116</v>
       </c>
       <c r="C9" t="n">
-        <v>29.1912</v>
+        <v>29.248</v>
       </c>
       <c r="D9" t="n">
-        <v>37.5379</v>
+        <v>37.9538</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.6014</v>
+        <v>25.5935</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6403</v>
+        <v>29.509</v>
       </c>
       <c r="D10" t="n">
-        <v>39.3366</v>
+        <v>39.3033</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.8627</v>
+        <v>23.8133</v>
       </c>
       <c r="C11" t="n">
-        <v>29.9713</v>
+        <v>29.4891</v>
       </c>
       <c r="D11" t="n">
-        <v>41.6808</v>
+        <v>39.9521</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8329</v>
+        <v>25.9324</v>
       </c>
       <c r="C12" t="n">
-        <v>29.7762</v>
+        <v>29.4512</v>
       </c>
       <c r="D12" t="n">
-        <v>44.7207</v>
+        <v>43.7642</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.534</v>
+        <v>28.3975</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2873</v>
+        <v>30.2911</v>
       </c>
       <c r="D13" t="n">
-        <v>45.3462</v>
+        <v>43.7594</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.8292</v>
+        <v>22.9308</v>
       </c>
       <c r="C14" t="n">
-        <v>30.6699</v>
+        <v>30.3247</v>
       </c>
       <c r="D14" t="n">
-        <v>46.8881</v>
+        <v>44.2148</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.7944</v>
+        <v>24.8093</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4355</v>
+        <v>30.4604</v>
       </c>
       <c r="D15" t="n">
-        <v>49.07</v>
+        <v>46.0974</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.166</v>
+        <v>26.3158</v>
       </c>
       <c r="C16" t="n">
-        <v>30.171</v>
+        <v>30.3588</v>
       </c>
       <c r="D16" t="n">
-        <v>47.9726</v>
+        <v>48.2387</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.3501</v>
+        <v>25.1163</v>
       </c>
       <c r="C17" t="n">
-        <v>30.671</v>
+        <v>30.6585</v>
       </c>
       <c r="D17" t="n">
-        <v>48.4997</v>
+        <v>50.3858</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.4024</v>
+        <v>11.3496</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2863</v>
+        <v>12.1985</v>
       </c>
       <c r="D2" t="n">
-        <v>16.4574</v>
+        <v>15.8863</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.4631</v>
+        <v>20.4943</v>
       </c>
       <c r="C3" t="n">
-        <v>20.4882</v>
+        <v>20.0996</v>
       </c>
       <c r="D3" t="n">
-        <v>26.0512</v>
+        <v>26.5829</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.7651</v>
+        <v>28.3098</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8048</v>
+        <v>25.4853</v>
       </c>
       <c r="D4" t="n">
-        <v>33.3333</v>
+        <v>35.7357</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.5885</v>
+        <v>24.2773</v>
       </c>
       <c r="C5" t="n">
-        <v>24.5704</v>
+        <v>24.4966</v>
       </c>
       <c r="D5" t="n">
-        <v>31.8737</v>
+        <v>34.8385</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.5266</v>
+        <v>29.2504</v>
       </c>
       <c r="C6" t="n">
-        <v>27.5681</v>
+        <v>27.629</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0797</v>
+        <v>38.4937</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.0761</v>
+        <v>34.9514</v>
       </c>
       <c r="C7" t="n">
-        <v>32.3738</v>
+        <v>32.4058</v>
       </c>
       <c r="D7" t="n">
-        <v>42.6865</v>
+        <v>43.6484</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.6797</v>
+        <v>31.0716</v>
       </c>
       <c r="C8" t="n">
-        <v>29.5326</v>
+        <v>29.4776</v>
       </c>
       <c r="D8" t="n">
-        <v>42.3583</v>
+        <v>43.3856</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.0029</v>
+        <v>31.2822</v>
       </c>
       <c r="C9" t="n">
-        <v>29.0708</v>
+        <v>29.2394</v>
       </c>
       <c r="D9" t="n">
-        <v>43.9103</v>
+        <v>44.2151</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.8355</v>
+        <v>31.757</v>
       </c>
       <c r="C10" t="n">
-        <v>29.483</v>
+        <v>29.5531</v>
       </c>
       <c r="D10" t="n">
-        <v>46.6809</v>
+        <v>43.8169</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.5709</v>
+        <v>32.5731</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7814</v>
+        <v>30.0574</v>
       </c>
       <c r="D11" t="n">
-        <v>49.1414</v>
+        <v>46.5899</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.8214</v>
+        <v>32.5343</v>
       </c>
       <c r="C12" t="n">
-        <v>29.9231</v>
+        <v>29.9772</v>
       </c>
       <c r="D12" t="n">
-        <v>50.2301</v>
+        <v>50.9828</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.1902</v>
+        <v>32.6089</v>
       </c>
       <c r="C13" t="n">
-        <v>30.1509</v>
+        <v>29.7761</v>
       </c>
       <c r="D13" t="n">
-        <v>49.8427</v>
+        <v>51.3975</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.9795</v>
+        <v>32.8718</v>
       </c>
       <c r="C14" t="n">
-        <v>30.6355</v>
+        <v>30.1537</v>
       </c>
       <c r="D14" t="n">
-        <v>48.9834</v>
+        <v>48.6148</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.2237</v>
+        <v>32.8681</v>
       </c>
       <c r="C15" t="n">
-        <v>30.5552</v>
+        <v>30.4772</v>
       </c>
       <c r="D15" t="n">
-        <v>49.2344</v>
+        <v>49.7116</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.0267</v>
+        <v>32.4853</v>
       </c>
       <c r="C16" t="n">
-        <v>30.4224</v>
+        <v>30.5302</v>
       </c>
       <c r="D16" t="n">
-        <v>49.3223</v>
+        <v>51.0521</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.3022</v>
+        <v>32.8233</v>
       </c>
       <c r="C17" t="n">
-        <v>30.8297</v>
+        <v>30.6832</v>
       </c>
       <c r="D17" t="n">
-        <v>50.1469</v>
+        <v>50.8378</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.50747</v>
+        <v>4.50262</v>
       </c>
       <c r="C2" t="n">
-        <v>9.581720000000001</v>
+        <v>9.5646</v>
       </c>
       <c r="D2" t="n">
-        <v>12.446</v>
+        <v>12.3204</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.85164</v>
+        <v>8.820650000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>16.5007</v>
+        <v>16.4139</v>
       </c>
       <c r="D3" t="n">
-        <v>23.6548</v>
+        <v>23.591</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7366</v>
+        <v>12.7796</v>
       </c>
       <c r="C4" t="n">
-        <v>22.8442</v>
+        <v>22.8184</v>
       </c>
       <c r="D4" t="n">
-        <v>33.7378</v>
+        <v>33.6673</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0874</v>
+        <v>15.1495</v>
       </c>
       <c r="C5" t="n">
-        <v>22.5961</v>
+        <v>22.6445</v>
       </c>
       <c r="D5" t="n">
-        <v>37.926</v>
+        <v>38.3447</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3871</v>
+        <v>18.3369</v>
       </c>
       <c r="C6" t="n">
-        <v>26.0138</v>
+        <v>25.8433</v>
       </c>
       <c r="D6" t="n">
-        <v>45.4463</v>
+        <v>45.1805</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.4427</v>
+        <v>21.3481</v>
       </c>
       <c r="C7" t="n">
-        <v>30.5364</v>
+        <v>30.3799</v>
       </c>
       <c r="D7" t="n">
-        <v>52.9663</v>
+        <v>53.9673</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.4517</v>
+        <v>19.3865</v>
       </c>
       <c r="C8" t="n">
-        <v>29.3749</v>
+        <v>29.166</v>
       </c>
       <c r="D8" t="n">
-        <v>47.0085</v>
+        <v>48.1475</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.7386</v>
+        <v>19.6928</v>
       </c>
       <c r="C9" t="n">
-        <v>29.3966</v>
+        <v>28.9876</v>
       </c>
       <c r="D9" t="n">
-        <v>49.4186</v>
+        <v>49.0205</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3074</v>
+        <v>20.045</v>
       </c>
       <c r="C10" t="n">
-        <v>29.5495</v>
+        <v>29.3026</v>
       </c>
       <c r="D10" t="n">
-        <v>47.8394</v>
+        <v>48.8748</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.3614</v>
+        <v>20.5112</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7588</v>
+        <v>28.9666</v>
       </c>
       <c r="D11" t="n">
-        <v>48.2017</v>
+        <v>49.3474</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.4902</v>
+        <v>20.0935</v>
       </c>
       <c r="C12" t="n">
-        <v>29.5639</v>
+        <v>29.4436</v>
       </c>
       <c r="D12" t="n">
-        <v>48.9092</v>
+        <v>49.4187</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.0721</v>
+        <v>20.2437</v>
       </c>
       <c r="C13" t="n">
-        <v>29.6692</v>
+        <v>29.7968</v>
       </c>
       <c r="D13" t="n">
-        <v>51.6315</v>
+        <v>49.9699</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.3313</v>
+        <v>20.2591</v>
       </c>
       <c r="C14" t="n">
-        <v>29.8345</v>
+        <v>29.6361</v>
       </c>
       <c r="D14" t="n">
-        <v>51.589</v>
+        <v>50.2905</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.3527</v>
+        <v>20.3006</v>
       </c>
       <c r="C15" t="n">
-        <v>29.85</v>
+        <v>29.7389</v>
       </c>
       <c r="D15" t="n">
-        <v>51.0199</v>
+        <v>50.0271</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.3805</v>
+        <v>20.2823</v>
       </c>
       <c r="C16" t="n">
-        <v>29.9496</v>
+        <v>29.7444</v>
       </c>
       <c r="D16" t="n">
-        <v>51.5877</v>
+        <v>49.3764</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.5118</v>
+        <v>20.5838</v>
       </c>
       <c r="C17" t="n">
-        <v>29.954</v>
+        <v>29.9193</v>
       </c>
       <c r="D17" t="n">
-        <v>51.8504</v>
+        <v>51.0525</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.55554</v>
+        <v>4.52269</v>
       </c>
       <c r="C2" t="n">
-        <v>9.74128</v>
+        <v>9.65616</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5496</v>
+        <v>12.4039</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.9199</v>
+        <v>8.86464</v>
       </c>
       <c r="C3" t="n">
-        <v>16.6694</v>
+        <v>16.3574</v>
       </c>
       <c r="D3" t="n">
-        <v>23.8513</v>
+        <v>23.4367</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.9089</v>
+        <v>12.888</v>
       </c>
       <c r="C4" t="n">
-        <v>22.4487</v>
+        <v>22.6074</v>
       </c>
       <c r="D4" t="n">
-        <v>33.7701</v>
+        <v>34.0476</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.4609</v>
+        <v>15.3049</v>
       </c>
       <c r="C5" t="n">
-        <v>22.8146</v>
+        <v>22.4083</v>
       </c>
       <c r="D5" t="n">
-        <v>37.8359</v>
+        <v>38.0254</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.731</v>
+        <v>18.6695</v>
       </c>
       <c r="C6" t="n">
-        <v>26.1474</v>
+        <v>25.9756</v>
       </c>
       <c r="D6" t="n">
-        <v>44.4456</v>
+        <v>44.6423</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9237</v>
+        <v>21.8438</v>
       </c>
       <c r="C7" t="n">
-        <v>30.5958</v>
+        <v>30.4608</v>
       </c>
       <c r="D7" t="n">
-        <v>52.944</v>
+        <v>53.9874</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.6495</v>
+        <v>19.6841</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8397</v>
+        <v>29.1942</v>
       </c>
       <c r="D8" t="n">
-        <v>46.2024</v>
+        <v>49.4745</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.3557</v>
+        <v>20.2486</v>
       </c>
       <c r="C9" t="n">
-        <v>29.721</v>
+        <v>29.5844</v>
       </c>
       <c r="D9" t="n">
-        <v>47.87</v>
+        <v>48.2058</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.5591</v>
+        <v>20.3265</v>
       </c>
       <c r="C10" t="n">
-        <v>29.3251</v>
+        <v>29.1754</v>
       </c>
       <c r="D10" t="n">
-        <v>47.0394</v>
+        <v>47.7698</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.9595</v>
+        <v>20.8053</v>
       </c>
       <c r="C11" t="n">
-        <v>29.6306</v>
+        <v>29.7537</v>
       </c>
       <c r="D11" t="n">
-        <v>49.1603</v>
+        <v>49.6633</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.4426</v>
+        <v>20.5674</v>
       </c>
       <c r="C12" t="n">
-        <v>29.8849</v>
+        <v>29.4639</v>
       </c>
       <c r="D12" t="n">
-        <v>49.2331</v>
+        <v>49.4874</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0694</v>
+        <v>20.756</v>
       </c>
       <c r="C13" t="n">
-        <v>29.976</v>
+        <v>29.8308</v>
       </c>
       <c r="D13" t="n">
-        <v>49.6292</v>
+        <v>49.7562</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6482</v>
+        <v>20.885</v>
       </c>
       <c r="C14" t="n">
-        <v>30.028</v>
+        <v>29.5422</v>
       </c>
       <c r="D14" t="n">
-        <v>50.1266</v>
+        <v>49.2424</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.5226</v>
+        <v>20.9582</v>
       </c>
       <c r="C15" t="n">
-        <v>29.9768</v>
+        <v>29.8111</v>
       </c>
       <c r="D15" t="n">
-        <v>51.9407</v>
+        <v>49.9575</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.8152</v>
+        <v>20.625</v>
       </c>
       <c r="C16" t="n">
-        <v>30.0032</v>
+        <v>29.9452</v>
       </c>
       <c r="D16" t="n">
-        <v>51.0073</v>
+        <v>50.606</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1938</v>
+        <v>21.0085</v>
       </c>
       <c r="C17" t="n">
-        <v>30.2317</v>
+        <v>29.6709</v>
       </c>
       <c r="D17" t="n">
-        <v>50.5663</v>
+        <v>50.2379</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.15094</v>
+        <v>8.1243</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6694</v>
+        <v>11.5673</v>
       </c>
       <c r="D2" t="n">
-        <v>15.4769</v>
+        <v>15.1308</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.5887</v>
+        <v>15.5575</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0126</v>
+        <v>18.9537</v>
       </c>
       <c r="D3" t="n">
-        <v>28.6347</v>
+        <v>28.1874</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.3248</v>
+        <v>22.4236</v>
       </c>
       <c r="C4" t="n">
-        <v>25.3255</v>
+        <v>25.4468</v>
       </c>
       <c r="D4" t="n">
-        <v>39.7946</v>
+        <v>39.6763</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2172</v>
+        <v>22.7918</v>
       </c>
       <c r="C5" t="n">
-        <v>24.7054</v>
+        <v>24.3924</v>
       </c>
       <c r="D5" t="n">
-        <v>40.7921</v>
+        <v>40.5115</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.7155</v>
+        <v>26.5404</v>
       </c>
       <c r="C6" t="n">
-        <v>27.5631</v>
+        <v>27.4634</v>
       </c>
       <c r="D6" t="n">
-        <v>47.2013</v>
+        <v>47.0457</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.4168</v>
+        <v>32.1108</v>
       </c>
       <c r="C7" t="n">
-        <v>31.838</v>
+        <v>31.7148</v>
       </c>
       <c r="D7" t="n">
-        <v>54.7823</v>
+        <v>55.6716</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.6272</v>
+        <v>29.0971</v>
       </c>
       <c r="C8" t="n">
-        <v>30.8369</v>
+        <v>30.9599</v>
       </c>
       <c r="D8" t="n">
-        <v>52.4423</v>
+        <v>51.9128</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.72</v>
+        <v>30.1297</v>
       </c>
       <c r="C9" t="n">
-        <v>30.8655</v>
+        <v>30.9305</v>
       </c>
       <c r="D9" t="n">
-        <v>52.8736</v>
+        <v>52.5091</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0127</v>
+        <v>30.4903</v>
       </c>
       <c r="C10" t="n">
-        <v>30.9999</v>
+        <v>30.8328</v>
       </c>
       <c r="D10" t="n">
-        <v>53.6605</v>
+        <v>52.4711</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.1104</v>
+        <v>30.2769</v>
       </c>
       <c r="C11" t="n">
-        <v>31.1093</v>
+        <v>31.1949</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3448</v>
+        <v>52.0833</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.6131</v>
+        <v>30.2942</v>
       </c>
       <c r="C12" t="n">
-        <v>31.3925</v>
+        <v>31.1326</v>
       </c>
       <c r="D12" t="n">
-        <v>54.2955</v>
+        <v>52.045</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.4058</v>
+        <v>30.7228</v>
       </c>
       <c r="C13" t="n">
-        <v>31.2888</v>
+        <v>31.149</v>
       </c>
       <c r="D13" t="n">
-        <v>54.1713</v>
+        <v>52.5626</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.6266</v>
+        <v>30.327</v>
       </c>
       <c r="C14" t="n">
-        <v>31.2151</v>
+        <v>31.0929</v>
       </c>
       <c r="D14" t="n">
-        <v>54.6853</v>
+        <v>52.9769</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.4837</v>
+        <v>30.6002</v>
       </c>
       <c r="C15" t="n">
-        <v>31.5479</v>
+        <v>31.4959</v>
       </c>
       <c r="D15" t="n">
-        <v>54.1235</v>
+        <v>53.0305</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.7193</v>
+        <v>30.6599</v>
       </c>
       <c r="C16" t="n">
-        <v>31.4782</v>
+        <v>31.3418</v>
       </c>
       <c r="D16" t="n">
-        <v>54.4635</v>
+        <v>52.6742</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.1992</v>
+        <v>30.827</v>
       </c>
       <c r="C17" t="n">
-        <v>31.4532</v>
+        <v>31.1885</v>
       </c>
       <c r="D17" t="n">
-        <v>54.3066</v>
+        <v>52.8028</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.1098</v>
+        <v>9.15692</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3133</v>
+        <v>11.2963</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6276</v>
+        <v>14.9116</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.4727</v>
+        <v>17.3968</v>
       </c>
       <c r="C3" t="n">
-        <v>17.2589</v>
+        <v>17.1171</v>
       </c>
       <c r="D3" t="n">
-        <v>24.6031</v>
+        <v>23.9065</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.798</v>
+        <v>23.8993</v>
       </c>
       <c r="C4" t="n">
-        <v>21.512</v>
+        <v>22.3586</v>
       </c>
       <c r="D4" t="n">
-        <v>32.1307</v>
+        <v>30.7189</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.111</v>
+        <v>19.4793</v>
       </c>
       <c r="C5" t="n">
-        <v>23.2899</v>
+        <v>23.8128</v>
       </c>
       <c r="D5" t="n">
-        <v>32.7126</v>
+        <v>31.2028</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.0096</v>
+        <v>23.1032</v>
       </c>
       <c r="C6" t="n">
-        <v>26.8504</v>
+        <v>28.2589</v>
       </c>
       <c r="D6" t="n">
-        <v>37.4412</v>
+        <v>34.767</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.5115</v>
+        <v>27.5394</v>
       </c>
       <c r="C7" t="n">
-        <v>31.4579</v>
+        <v>33.1765</v>
       </c>
       <c r="D7" t="n">
-        <v>41.2258</v>
+        <v>38.4937</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8082</v>
+        <v>19.6825</v>
       </c>
       <c r="C8" t="n">
-        <v>29.5516</v>
+        <v>30.4186</v>
       </c>
       <c r="D8" t="n">
-        <v>39.6099</v>
+        <v>36.1458</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.336</v>
+        <v>22.1934</v>
       </c>
       <c r="C9" t="n">
-        <v>29.0944</v>
+        <v>31.1795</v>
       </c>
       <c r="D9" t="n">
-        <v>40.6119</v>
+        <v>40.7078</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.6726</v>
+        <v>24.5968</v>
       </c>
       <c r="C10" t="n">
-        <v>29.4877</v>
+        <v>31.1954</v>
       </c>
       <c r="D10" t="n">
-        <v>42.6376</v>
+        <v>43.2523</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.8846</v>
+        <v>23.2312</v>
       </c>
       <c r="C11" t="n">
-        <v>29.8426</v>
+        <v>31.5849</v>
       </c>
       <c r="D11" t="n">
-        <v>43.8983</v>
+        <v>45.1821</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.0392</v>
+        <v>25.0881</v>
       </c>
       <c r="C12" t="n">
-        <v>29.8615</v>
+        <v>31.5406</v>
       </c>
       <c r="D12" t="n">
-        <v>46.6261</v>
+        <v>45.5595</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.3949</v>
+        <v>27.4906</v>
       </c>
       <c r="C13" t="n">
-        <v>30.1844</v>
+        <v>31.972</v>
       </c>
       <c r="D13" t="n">
-        <v>46.5249</v>
+        <v>48.7238</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3418</v>
+        <v>22.4323</v>
       </c>
       <c r="C14" t="n">
-        <v>29.7512</v>
+        <v>31.6005</v>
       </c>
       <c r="D14" t="n">
-        <v>43.9683</v>
+        <v>47.8542</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.3211</v>
+        <v>24.3912</v>
       </c>
       <c r="C15" t="n">
-        <v>29.8351</v>
+        <v>31.8706</v>
       </c>
       <c r="D15" t="n">
-        <v>43.6814</v>
+        <v>46.364</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3226</v>
+        <v>25.6474</v>
       </c>
       <c r="C16" t="n">
-        <v>29.6988</v>
+        <v>31.4391</v>
       </c>
       <c r="D16" t="n">
-        <v>45.183</v>
+        <v>47.0628</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.2569</v>
+        <v>24.4277</v>
       </c>
       <c r="C17" t="n">
-        <v>30.0923</v>
+        <v>31.4163</v>
       </c>
       <c r="D17" t="n">
-        <v>47.5998</v>
+        <v>49.1016</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.55301</v>
+        <v>9.572240000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3293</v>
+        <v>11.3218</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7267</v>
+        <v>15.003</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.9149</v>
+        <v>18.1828</v>
       </c>
       <c r="C3" t="n">
-        <v>17.1813</v>
+        <v>17.4977</v>
       </c>
       <c r="D3" t="n">
-        <v>24.5967</v>
+        <v>23.3567</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.1509</v>
+        <v>24.7764</v>
       </c>
       <c r="C4" t="n">
-        <v>21.5867</v>
+        <v>22.2136</v>
       </c>
       <c r="D4" t="n">
-        <v>30.8251</v>
+        <v>30.3075</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.5566</v>
+        <v>19.3204</v>
       </c>
       <c r="C5" t="n">
-        <v>23.1589</v>
+        <v>23.988</v>
       </c>
       <c r="D5" t="n">
-        <v>31.6668</v>
+        <v>31.2013</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.6452</v>
+        <v>23.6393</v>
       </c>
       <c r="C6" t="n">
-        <v>26.6314</v>
+        <v>28.4139</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6901</v>
+        <v>34.1147</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.416</v>
+        <v>28.5184</v>
       </c>
       <c r="C7" t="n">
-        <v>31.3344</v>
+        <v>33.171</v>
       </c>
       <c r="D7" t="n">
-        <v>38.6609</v>
+        <v>34.7411</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1608</v>
+        <v>20.3715</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1393</v>
+        <v>30.5473</v>
       </c>
       <c r="D8" t="n">
-        <v>39.4394</v>
+        <v>36.2217</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3116</v>
+        <v>23.6384</v>
       </c>
       <c r="C9" t="n">
-        <v>29.248</v>
+        <v>30.6878</v>
       </c>
       <c r="D9" t="n">
-        <v>37.9538</v>
+        <v>38.8113</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.5935</v>
+        <v>25.9318</v>
       </c>
       <c r="C10" t="n">
-        <v>29.509</v>
+        <v>30.8308</v>
       </c>
       <c r="D10" t="n">
-        <v>39.3033</v>
+        <v>39.9393</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.8133</v>
+        <v>23.5652</v>
       </c>
       <c r="C11" t="n">
-        <v>29.4891</v>
+        <v>31.0258</v>
       </c>
       <c r="D11" t="n">
-        <v>39.9521</v>
+        <v>43.1114</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.9324</v>
+        <v>25.8136</v>
       </c>
       <c r="C12" t="n">
-        <v>29.4512</v>
+        <v>31.4573</v>
       </c>
       <c r="D12" t="n">
-        <v>43.7642</v>
+        <v>45.7623</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.3975</v>
+        <v>28.4403</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2911</v>
+        <v>31.8508</v>
       </c>
       <c r="D13" t="n">
-        <v>43.7594</v>
+        <v>46.7375</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.9308</v>
+        <v>22.7569</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3247</v>
+        <v>32.2062</v>
       </c>
       <c r="D14" t="n">
-        <v>44.2148</v>
+        <v>46.8496</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.8093</v>
+        <v>25.0631</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4604</v>
+        <v>32.087</v>
       </c>
       <c r="D15" t="n">
-        <v>46.0974</v>
+        <v>47.5702</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.3158</v>
+        <v>26.5269</v>
       </c>
       <c r="C16" t="n">
-        <v>30.3588</v>
+        <v>31.834</v>
       </c>
       <c r="D16" t="n">
-        <v>48.2387</v>
+        <v>48.7672</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1163</v>
+        <v>25.0909</v>
       </c>
       <c r="C17" t="n">
-        <v>30.6585</v>
+        <v>32.3325</v>
       </c>
       <c r="D17" t="n">
-        <v>50.3858</v>
+        <v>47.7836</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3496</v>
+        <v>11.3586</v>
       </c>
       <c r="C2" t="n">
-        <v>12.1985</v>
+        <v>12.2105</v>
       </c>
       <c r="D2" t="n">
-        <v>15.8863</v>
+        <v>16.3552</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.4943</v>
+        <v>20.4349</v>
       </c>
       <c r="C3" t="n">
-        <v>20.0996</v>
+        <v>20.8544</v>
       </c>
       <c r="D3" t="n">
-        <v>26.5829</v>
+        <v>25.523</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.3098</v>
+        <v>28.2784</v>
       </c>
       <c r="C4" t="n">
-        <v>25.4853</v>
+        <v>27.7431</v>
       </c>
       <c r="D4" t="n">
-        <v>35.7357</v>
+        <v>34.183</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.2773</v>
+        <v>24.4805</v>
       </c>
       <c r="C5" t="n">
-        <v>24.4966</v>
+        <v>25.6701</v>
       </c>
       <c r="D5" t="n">
-        <v>34.8385</v>
+        <v>34.2903</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.2504</v>
+        <v>29.4966</v>
       </c>
       <c r="C6" t="n">
-        <v>27.629</v>
+        <v>29.0382</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4937</v>
+        <v>34.287</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.9514</v>
+        <v>35.1056</v>
       </c>
       <c r="C7" t="n">
-        <v>32.4058</v>
+        <v>34.0875</v>
       </c>
       <c r="D7" t="n">
-        <v>43.6484</v>
+        <v>39.1793</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.0716</v>
+        <v>31.5042</v>
       </c>
       <c r="C8" t="n">
-        <v>29.4776</v>
+        <v>30.8707</v>
       </c>
       <c r="D8" t="n">
-        <v>43.3856</v>
+        <v>41.3913</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.2822</v>
+        <v>31.5948</v>
       </c>
       <c r="C9" t="n">
-        <v>29.2394</v>
+        <v>31.0197</v>
       </c>
       <c r="D9" t="n">
-        <v>44.2151</v>
+        <v>44.2227</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.757</v>
+        <v>32.0339</v>
       </c>
       <c r="C10" t="n">
-        <v>29.5531</v>
+        <v>30.8996</v>
       </c>
       <c r="D10" t="n">
-        <v>43.8169</v>
+        <v>47.3004</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.5731</v>
+        <v>32.1856</v>
       </c>
       <c r="C11" t="n">
-        <v>30.0574</v>
+        <v>31.17</v>
       </c>
       <c r="D11" t="n">
-        <v>46.5899</v>
+        <v>48.1874</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.5343</v>
+        <v>32.533</v>
       </c>
       <c r="C12" t="n">
-        <v>29.9772</v>
+        <v>31.562</v>
       </c>
       <c r="D12" t="n">
-        <v>50.9828</v>
+        <v>49.2096</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.6089</v>
+        <v>33.0566</v>
       </c>
       <c r="C13" t="n">
-        <v>29.7761</v>
+        <v>31.7874</v>
       </c>
       <c r="D13" t="n">
-        <v>51.3975</v>
+        <v>48.6976</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.8718</v>
+        <v>32.3699</v>
       </c>
       <c r="C14" t="n">
-        <v>30.1537</v>
+        <v>31.9079</v>
       </c>
       <c r="D14" t="n">
-        <v>48.6148</v>
+        <v>48.9942</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.8681</v>
+        <v>32.9265</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4772</v>
+        <v>32.2759</v>
       </c>
       <c r="D15" t="n">
-        <v>49.7116</v>
+        <v>49.2479</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.4853</v>
+        <v>33.3273</v>
       </c>
       <c r="C16" t="n">
-        <v>30.5302</v>
+        <v>32.2856</v>
       </c>
       <c r="D16" t="n">
-        <v>51.0521</v>
+        <v>49.8208</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.8233</v>
+        <v>33.0206</v>
       </c>
       <c r="C17" t="n">
-        <v>30.6832</v>
+        <v>32.008</v>
       </c>
       <c r="D17" t="n">
-        <v>50.8378</v>
+        <v>50.7223</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.50262</v>
+        <v>4.50721</v>
       </c>
       <c r="C2" t="n">
-        <v>9.5646</v>
+        <v>9.497859999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>12.3204</v>
+        <v>12.4129</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.820650000000001</v>
+        <v>8.804449999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>16.4139</v>
+        <v>16.4585</v>
       </c>
       <c r="D3" t="n">
-        <v>23.591</v>
+        <v>23.5688</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7796</v>
+        <v>12.7112</v>
       </c>
       <c r="C4" t="n">
-        <v>22.8184</v>
+        <v>23.0115</v>
       </c>
       <c r="D4" t="n">
-        <v>33.6673</v>
+        <v>33.5863</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1495</v>
+        <v>15.124</v>
       </c>
       <c r="C5" t="n">
-        <v>22.6445</v>
+        <v>23.3728</v>
       </c>
       <c r="D5" t="n">
-        <v>38.3447</v>
+        <v>37.4708</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3369</v>
+        <v>18.3274</v>
       </c>
       <c r="C6" t="n">
-        <v>25.8433</v>
+        <v>27.0286</v>
       </c>
       <c r="D6" t="n">
-        <v>45.1805</v>
+        <v>45.3371</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.3481</v>
+        <v>21.3647</v>
       </c>
       <c r="C7" t="n">
-        <v>30.3799</v>
+        <v>31.7287</v>
       </c>
       <c r="D7" t="n">
-        <v>53.9673</v>
+        <v>53.1274</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.3865</v>
+        <v>19.0419</v>
       </c>
       <c r="C8" t="n">
-        <v>29.166</v>
+        <v>30.5802</v>
       </c>
       <c r="D8" t="n">
-        <v>48.1475</v>
+        <v>48.3088</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.6928</v>
+        <v>19.8746</v>
       </c>
       <c r="C9" t="n">
-        <v>28.9876</v>
+        <v>30.5525</v>
       </c>
       <c r="D9" t="n">
-        <v>49.0205</v>
+        <v>48.0427</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.045</v>
+        <v>19.8776</v>
       </c>
       <c r="C10" t="n">
-        <v>29.3026</v>
+        <v>30.5702</v>
       </c>
       <c r="D10" t="n">
-        <v>48.8748</v>
+        <v>47.845</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.5112</v>
+        <v>20.3294</v>
       </c>
       <c r="C11" t="n">
-        <v>28.9666</v>
+        <v>30.4044</v>
       </c>
       <c r="D11" t="n">
-        <v>49.3474</v>
+        <v>46.9902</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0935</v>
+        <v>20.3552</v>
       </c>
       <c r="C12" t="n">
-        <v>29.4436</v>
+        <v>30.5395</v>
       </c>
       <c r="D12" t="n">
-        <v>49.4187</v>
+        <v>50.243</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.2437</v>
+        <v>20.1273</v>
       </c>
       <c r="C13" t="n">
-        <v>29.7968</v>
+        <v>30.9192</v>
       </c>
       <c r="D13" t="n">
-        <v>49.9699</v>
+        <v>50.0345</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.2591</v>
+        <v>19.9813</v>
       </c>
       <c r="C14" t="n">
-        <v>29.6361</v>
+        <v>30.8523</v>
       </c>
       <c r="D14" t="n">
-        <v>50.2905</v>
+        <v>52.1207</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.3006</v>
+        <v>20.2301</v>
       </c>
       <c r="C15" t="n">
-        <v>29.7389</v>
+        <v>30.7495</v>
       </c>
       <c r="D15" t="n">
-        <v>50.0271</v>
+        <v>51.1116</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.2823</v>
+        <v>20.2625</v>
       </c>
       <c r="C16" t="n">
-        <v>29.7444</v>
+        <v>30.7938</v>
       </c>
       <c r="D16" t="n">
-        <v>49.3764</v>
+        <v>52.9725</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.5838</v>
+        <v>20.6412</v>
       </c>
       <c r="C17" t="n">
-        <v>29.9193</v>
+        <v>31.1505</v>
       </c>
       <c r="D17" t="n">
-        <v>51.0525</v>
+        <v>50.69</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.52269</v>
+        <v>4.55337</v>
       </c>
       <c r="C2" t="n">
-        <v>9.65616</v>
+        <v>9.667120000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>12.4039</v>
+        <v>12.4694</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.86464</v>
+        <v>8.886089999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>16.3574</v>
+        <v>16.7466</v>
       </c>
       <c r="D3" t="n">
-        <v>23.4367</v>
+        <v>23.728</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.888</v>
+        <v>12.8683</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6074</v>
+        <v>22.4124</v>
       </c>
       <c r="D4" t="n">
-        <v>34.0476</v>
+        <v>33.7487</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.3049</v>
+        <v>15.3424</v>
       </c>
       <c r="C5" t="n">
-        <v>22.4083</v>
+        <v>23.7348</v>
       </c>
       <c r="D5" t="n">
-        <v>38.0254</v>
+        <v>37.0457</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.6695</v>
+        <v>18.6489</v>
       </c>
       <c r="C6" t="n">
-        <v>25.9756</v>
+        <v>27.0888</v>
       </c>
       <c r="D6" t="n">
-        <v>44.6423</v>
+        <v>44.5881</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.8438</v>
+        <v>21.8625</v>
       </c>
       <c r="C7" t="n">
-        <v>30.4608</v>
+        <v>31.9146</v>
       </c>
       <c r="D7" t="n">
-        <v>53.9874</v>
+        <v>52.4938</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.6841</v>
+        <v>19.6365</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1942</v>
+        <v>30.6997</v>
       </c>
       <c r="D8" t="n">
-        <v>49.4745</v>
+        <v>47.8096</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.2486</v>
+        <v>20.3222</v>
       </c>
       <c r="C9" t="n">
-        <v>29.5844</v>
+        <v>30.1231</v>
       </c>
       <c r="D9" t="n">
-        <v>48.2058</v>
+        <v>47.2301</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3265</v>
+        <v>20.4718</v>
       </c>
       <c r="C10" t="n">
-        <v>29.1754</v>
+        <v>30.7522</v>
       </c>
       <c r="D10" t="n">
-        <v>47.7698</v>
+        <v>48.3141</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.8053</v>
+        <v>20.9487</v>
       </c>
       <c r="C11" t="n">
-        <v>29.7537</v>
+        <v>31.0954</v>
       </c>
       <c r="D11" t="n">
-        <v>49.6633</v>
+        <v>48.5718</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.5674</v>
+        <v>20.6801</v>
       </c>
       <c r="C12" t="n">
-        <v>29.4639</v>
+        <v>30.8202</v>
       </c>
       <c r="D12" t="n">
-        <v>49.4874</v>
+        <v>48.2942</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.756</v>
+        <v>21.086</v>
       </c>
       <c r="C13" t="n">
-        <v>29.8308</v>
+        <v>30.9574</v>
       </c>
       <c r="D13" t="n">
-        <v>49.7562</v>
+        <v>50.2832</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.885</v>
+        <v>20.4823</v>
       </c>
       <c r="C14" t="n">
-        <v>29.5422</v>
+        <v>31.2905</v>
       </c>
       <c r="D14" t="n">
-        <v>49.2424</v>
+        <v>50.5307</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9582</v>
+        <v>20.7763</v>
       </c>
       <c r="C15" t="n">
-        <v>29.8111</v>
+        <v>31.4467</v>
       </c>
       <c r="D15" t="n">
-        <v>49.9575</v>
+        <v>50.1633</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.625</v>
+        <v>20.9969</v>
       </c>
       <c r="C16" t="n">
-        <v>29.9452</v>
+        <v>31.3004</v>
       </c>
       <c r="D16" t="n">
-        <v>50.606</v>
+        <v>50.1162</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0085</v>
+        <v>21.0121</v>
       </c>
       <c r="C17" t="n">
-        <v>29.6709</v>
+        <v>31.3317</v>
       </c>
       <c r="D17" t="n">
-        <v>50.2379</v>
+        <v>51.5624</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.1243</v>
+        <v>8.146039999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5673</v>
+        <v>11.5964</v>
       </c>
       <c r="D2" t="n">
-        <v>15.1308</v>
+        <v>15.4426</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.5575</v>
+        <v>15.5034</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9537</v>
+        <v>19.0988</v>
       </c>
       <c r="D3" t="n">
-        <v>28.1874</v>
+        <v>28.4692</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.4236</v>
+        <v>22.351</v>
       </c>
       <c r="C4" t="n">
-        <v>25.4468</v>
+        <v>25.73</v>
       </c>
       <c r="D4" t="n">
-        <v>39.6763</v>
+        <v>40.0798</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.7918</v>
+        <v>23.0497</v>
       </c>
       <c r="C5" t="n">
-        <v>24.3924</v>
+        <v>25.9819</v>
       </c>
       <c r="D5" t="n">
-        <v>40.5115</v>
+        <v>41.083</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.5404</v>
+        <v>26.5984</v>
       </c>
       <c r="C6" t="n">
-        <v>27.4634</v>
+        <v>28.929</v>
       </c>
       <c r="D6" t="n">
-        <v>47.0457</v>
+        <v>47.3379</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.1108</v>
+        <v>32.3242</v>
       </c>
       <c r="C7" t="n">
-        <v>31.7148</v>
+        <v>33.5538</v>
       </c>
       <c r="D7" t="n">
-        <v>55.6716</v>
+        <v>54.7139</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.0971</v>
+        <v>29.3565</v>
       </c>
       <c r="C8" t="n">
-        <v>30.9599</v>
+        <v>32.4116</v>
       </c>
       <c r="D8" t="n">
-        <v>51.9128</v>
+        <v>53.42</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.1297</v>
+        <v>29.5382</v>
       </c>
       <c r="C9" t="n">
-        <v>30.9305</v>
+        <v>32.2852</v>
       </c>
       <c r="D9" t="n">
-        <v>52.5091</v>
+        <v>53.1089</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.4903</v>
+        <v>30.4114</v>
       </c>
       <c r="C10" t="n">
-        <v>30.8328</v>
+        <v>32.4604</v>
       </c>
       <c r="D10" t="n">
-        <v>52.4711</v>
+        <v>53.1556</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.2769</v>
+        <v>30.7107</v>
       </c>
       <c r="C11" t="n">
-        <v>31.1949</v>
+        <v>32.9149</v>
       </c>
       <c r="D11" t="n">
-        <v>52.0833</v>
+        <v>53.0768</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.2942</v>
+        <v>30.6573</v>
       </c>
       <c r="C12" t="n">
-        <v>31.1326</v>
+        <v>32.6607</v>
       </c>
       <c r="D12" t="n">
-        <v>52.045</v>
+        <v>53.5134</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.7228</v>
+        <v>30.8412</v>
       </c>
       <c r="C13" t="n">
-        <v>31.149</v>
+        <v>32.7718</v>
       </c>
       <c r="D13" t="n">
-        <v>52.5626</v>
+        <v>53.4324</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.327</v>
+        <v>30.5642</v>
       </c>
       <c r="C14" t="n">
-        <v>31.0929</v>
+        <v>32.817</v>
       </c>
       <c r="D14" t="n">
-        <v>52.9769</v>
+        <v>53.8579</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.6002</v>
+        <v>30.4549</v>
       </c>
       <c r="C15" t="n">
-        <v>31.4959</v>
+        <v>32.5798</v>
       </c>
       <c r="D15" t="n">
-        <v>53.0305</v>
+        <v>53.9647</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.6599</v>
+        <v>30.7183</v>
       </c>
       <c r="C16" t="n">
-        <v>31.3418</v>
+        <v>32.8391</v>
       </c>
       <c r="D16" t="n">
-        <v>52.6742</v>
+        <v>52.9156</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.827</v>
+        <v>30.9467</v>
       </c>
       <c r="C17" t="n">
-        <v>31.1885</v>
+        <v>32.7329</v>
       </c>
       <c r="D17" t="n">
-        <v>52.8028</v>
+        <v>54.0882</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.15692</v>
+        <v>9.40554</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2963</v>
+        <v>11.598</v>
       </c>
       <c r="D2" t="n">
-        <v>14.9116</v>
+        <v>14.9597</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3968</v>
+        <v>17.5916</v>
       </c>
       <c r="C3" t="n">
-        <v>17.1171</v>
+        <v>17.9577</v>
       </c>
       <c r="D3" t="n">
-        <v>23.9065</v>
+        <v>22.97</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8993</v>
+        <v>23.7386</v>
       </c>
       <c r="C4" t="n">
-        <v>22.3586</v>
+        <v>22.5637</v>
       </c>
       <c r="D4" t="n">
-        <v>30.7189</v>
+        <v>30.8422</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.4793</v>
+        <v>18.8405</v>
       </c>
       <c r="C5" t="n">
-        <v>23.8128</v>
+        <v>25.1301</v>
       </c>
       <c r="D5" t="n">
-        <v>31.2028</v>
+        <v>31.0608</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.1032</v>
+        <v>22.7725</v>
       </c>
       <c r="C6" t="n">
-        <v>28.2589</v>
+        <v>29.178</v>
       </c>
       <c r="D6" t="n">
-        <v>34.767</v>
+        <v>34.7777</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.5394</v>
+        <v>26.9488</v>
       </c>
       <c r="C7" t="n">
-        <v>33.1765</v>
+        <v>34.3364</v>
       </c>
       <c r="D7" t="n">
-        <v>38.4937</v>
+        <v>38.1602</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.6825</v>
+        <v>19.5558</v>
       </c>
       <c r="C8" t="n">
-        <v>30.4186</v>
+        <v>31.5976</v>
       </c>
       <c r="D8" t="n">
-        <v>36.1458</v>
+        <v>37.1332</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.1934</v>
+        <v>22.515</v>
       </c>
       <c r="C9" t="n">
-        <v>31.1795</v>
+        <v>32.2377</v>
       </c>
       <c r="D9" t="n">
-        <v>40.7078</v>
+        <v>41.5488</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5968</v>
+        <v>24.3881</v>
       </c>
       <c r="C10" t="n">
-        <v>31.1954</v>
+        <v>32.0385</v>
       </c>
       <c r="D10" t="n">
-        <v>43.2523</v>
+        <v>42.5398</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.2312</v>
+        <v>22.6583</v>
       </c>
       <c r="C11" t="n">
-        <v>31.5849</v>
+        <v>32.4238</v>
       </c>
       <c r="D11" t="n">
-        <v>45.1821</v>
+        <v>43.4907</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.0881</v>
+        <v>24.6606</v>
       </c>
       <c r="C12" t="n">
-        <v>31.5406</v>
+        <v>32.3496</v>
       </c>
       <c r="D12" t="n">
-        <v>45.5595</v>
+        <v>44.5793</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.4906</v>
+        <v>26.8745</v>
       </c>
       <c r="C13" t="n">
-        <v>31.972</v>
+        <v>33.1133</v>
       </c>
       <c r="D13" t="n">
-        <v>48.7238</v>
+        <v>44.5068</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.4323</v>
+        <v>22.0449</v>
       </c>
       <c r="C14" t="n">
-        <v>31.6005</v>
+        <v>32.227</v>
       </c>
       <c r="D14" t="n">
-        <v>47.8542</v>
+        <v>43.6357</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.3912</v>
+        <v>23.8049</v>
       </c>
       <c r="C15" t="n">
-        <v>31.8706</v>
+        <v>32.4493</v>
       </c>
       <c r="D15" t="n">
-        <v>46.364</v>
+        <v>44.3725</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.6474</v>
+        <v>25.109</v>
       </c>
       <c r="C16" t="n">
-        <v>31.4391</v>
+        <v>32.4276</v>
       </c>
       <c r="D16" t="n">
-        <v>47.0628</v>
+        <v>43.9845</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4277</v>
+        <v>23.7907</v>
       </c>
       <c r="C17" t="n">
-        <v>31.4163</v>
+        <v>32.6266</v>
       </c>
       <c r="D17" t="n">
-        <v>49.1016</v>
+        <v>45.2786</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.572240000000001</v>
+        <v>9.687950000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3218</v>
+        <v>11.5813</v>
       </c>
       <c r="D2" t="n">
-        <v>15.003</v>
+        <v>14.8217</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.1828</v>
+        <v>18.2663</v>
       </c>
       <c r="C3" t="n">
-        <v>17.4977</v>
+        <v>17.6671</v>
       </c>
       <c r="D3" t="n">
-        <v>23.3567</v>
+        <v>23.5443</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.7764</v>
+        <v>25.2587</v>
       </c>
       <c r="C4" t="n">
-        <v>22.2136</v>
+        <v>22.6988</v>
       </c>
       <c r="D4" t="n">
-        <v>30.3075</v>
+        <v>29.4035</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.3204</v>
+        <v>19.1103</v>
       </c>
       <c r="C5" t="n">
-        <v>23.988</v>
+        <v>25.1527</v>
       </c>
       <c r="D5" t="n">
-        <v>31.2013</v>
+        <v>31.1022</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.6393</v>
+        <v>23.1462</v>
       </c>
       <c r="C6" t="n">
-        <v>28.4139</v>
+        <v>29.1198</v>
       </c>
       <c r="D6" t="n">
-        <v>34.1147</v>
+        <v>34.3315</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.5184</v>
+        <v>27.8557</v>
       </c>
       <c r="C7" t="n">
-        <v>33.171</v>
+        <v>34.1493</v>
       </c>
       <c r="D7" t="n">
-        <v>34.7411</v>
+        <v>34.4542</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3715</v>
+        <v>19.9162</v>
       </c>
       <c r="C8" t="n">
-        <v>30.5473</v>
+        <v>31.1634</v>
       </c>
       <c r="D8" t="n">
-        <v>36.2217</v>
+        <v>34.6238</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6384</v>
+        <v>23.4483</v>
       </c>
       <c r="C9" t="n">
-        <v>30.6878</v>
+        <v>31.8117</v>
       </c>
       <c r="D9" t="n">
-        <v>38.8113</v>
+        <v>36.4501</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.9318</v>
+        <v>25.1528</v>
       </c>
       <c r="C10" t="n">
-        <v>30.8308</v>
+        <v>31.3365</v>
       </c>
       <c r="D10" t="n">
-        <v>39.9393</v>
+        <v>39.195</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.5652</v>
+        <v>23.092</v>
       </c>
       <c r="C11" t="n">
-        <v>31.0258</v>
+        <v>32.0863</v>
       </c>
       <c r="D11" t="n">
-        <v>43.1114</v>
+        <v>41.0186</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8136</v>
+        <v>25.4136</v>
       </c>
       <c r="C12" t="n">
-        <v>31.4573</v>
+        <v>32.29</v>
       </c>
       <c r="D12" t="n">
-        <v>45.7623</v>
+        <v>40.9874</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.4403</v>
+        <v>27.6891</v>
       </c>
       <c r="C13" t="n">
-        <v>31.8508</v>
+        <v>33.0216</v>
       </c>
       <c r="D13" t="n">
-        <v>46.7375</v>
+        <v>43.8214</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.7569</v>
+        <v>22.3567</v>
       </c>
       <c r="C14" t="n">
-        <v>32.2062</v>
+        <v>32.896</v>
       </c>
       <c r="D14" t="n">
-        <v>46.8496</v>
+        <v>43.6598</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.0631</v>
+        <v>24.1635</v>
       </c>
       <c r="C15" t="n">
-        <v>32.087</v>
+        <v>32.5557</v>
       </c>
       <c r="D15" t="n">
-        <v>47.5702</v>
+        <v>43.2426</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.5269</v>
+        <v>26.3608</v>
       </c>
       <c r="C16" t="n">
-        <v>31.834</v>
+        <v>33.045</v>
       </c>
       <c r="D16" t="n">
-        <v>48.7672</v>
+        <v>44.0961</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.0909</v>
+        <v>24.6829</v>
       </c>
       <c r="C17" t="n">
-        <v>32.3325</v>
+        <v>33.1236</v>
       </c>
       <c r="D17" t="n">
-        <v>47.7836</v>
+        <v>44.6502</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3586</v>
+        <v>11.6003</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2105</v>
+        <v>12.5481</v>
       </c>
       <c r="D2" t="n">
-        <v>16.3552</v>
+        <v>16.3655</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.4349</v>
+        <v>20.9151</v>
       </c>
       <c r="C3" t="n">
-        <v>20.8544</v>
+        <v>21.1671</v>
       </c>
       <c r="D3" t="n">
-        <v>25.523</v>
+        <v>25.8968</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.2784</v>
+        <v>29.0198</v>
       </c>
       <c r="C4" t="n">
-        <v>27.7431</v>
+        <v>26.9288</v>
       </c>
       <c r="D4" t="n">
-        <v>34.183</v>
+        <v>33.655</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4805</v>
+        <v>24.5429</v>
       </c>
       <c r="C5" t="n">
-        <v>25.6701</v>
+        <v>26.6531</v>
       </c>
       <c r="D5" t="n">
-        <v>34.2903</v>
+        <v>34.4881</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.4966</v>
+        <v>29.6146</v>
       </c>
       <c r="C6" t="n">
-        <v>29.0382</v>
+        <v>30.2053</v>
       </c>
       <c r="D6" t="n">
-        <v>34.287</v>
+        <v>34.5228</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.1056</v>
+        <v>35.2299</v>
       </c>
       <c r="C7" t="n">
-        <v>34.0875</v>
+        <v>35.5761</v>
       </c>
       <c r="D7" t="n">
-        <v>39.1793</v>
+        <v>40.2739</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.5042</v>
+        <v>32.1078</v>
       </c>
       <c r="C8" t="n">
-        <v>30.8707</v>
+        <v>31.9573</v>
       </c>
       <c r="D8" t="n">
-        <v>41.3913</v>
+        <v>39.1276</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.5948</v>
+        <v>31.6311</v>
       </c>
       <c r="C9" t="n">
-        <v>31.0197</v>
+        <v>31.7034</v>
       </c>
       <c r="D9" t="n">
-        <v>44.2227</v>
+        <v>41.4546</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.0339</v>
+        <v>31.7966</v>
       </c>
       <c r="C10" t="n">
-        <v>30.8996</v>
+        <v>31.8441</v>
       </c>
       <c r="D10" t="n">
-        <v>47.3004</v>
+        <v>41.9569</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.1856</v>
+        <v>32.6519</v>
       </c>
       <c r="C11" t="n">
-        <v>31.17</v>
+        <v>32.8202</v>
       </c>
       <c r="D11" t="n">
-        <v>48.1874</v>
+        <v>45.4325</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.533</v>
+        <v>33.0913</v>
       </c>
       <c r="C12" t="n">
-        <v>31.562</v>
+        <v>32.6521</v>
       </c>
       <c r="D12" t="n">
-        <v>49.2096</v>
+        <v>45.7253</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.0566</v>
+        <v>32.7745</v>
       </c>
       <c r="C13" t="n">
-        <v>31.7874</v>
+        <v>32.7492</v>
       </c>
       <c r="D13" t="n">
-        <v>48.6976</v>
+        <v>45.2031</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.3699</v>
+        <v>32.7637</v>
       </c>
       <c r="C14" t="n">
-        <v>31.9079</v>
+        <v>33.1196</v>
       </c>
       <c r="D14" t="n">
-        <v>48.9942</v>
+        <v>45.4325</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.9265</v>
+        <v>32.6913</v>
       </c>
       <c r="C15" t="n">
-        <v>32.2759</v>
+        <v>33.3274</v>
       </c>
       <c r="D15" t="n">
-        <v>49.2479</v>
+        <v>44.8501</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.3273</v>
+        <v>33.4157</v>
       </c>
       <c r="C16" t="n">
-        <v>32.2856</v>
+        <v>33.2663</v>
       </c>
       <c r="D16" t="n">
-        <v>49.8208</v>
+        <v>45.8464</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.0206</v>
+        <v>33.5292</v>
       </c>
       <c r="C17" t="n">
-        <v>32.008</v>
+        <v>33.6668</v>
       </c>
       <c r="D17" t="n">
-        <v>50.7223</v>
+        <v>45.2892</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.50721</v>
+        <v>4.54132</v>
       </c>
       <c r="C2" t="n">
-        <v>9.497859999999999</v>
+        <v>9.762409999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>12.4129</v>
+        <v>12.3734</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.804449999999999</v>
+        <v>8.900410000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>16.4585</v>
+        <v>17.0013</v>
       </c>
       <c r="D3" t="n">
-        <v>23.5688</v>
+        <v>23.678</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7112</v>
+        <v>12.8533</v>
       </c>
       <c r="C4" t="n">
-        <v>23.0115</v>
+        <v>23.797</v>
       </c>
       <c r="D4" t="n">
-        <v>33.5863</v>
+        <v>33.716</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.124</v>
+        <v>14.8635</v>
       </c>
       <c r="C5" t="n">
-        <v>23.3728</v>
+        <v>24.0824</v>
       </c>
       <c r="D5" t="n">
-        <v>37.4708</v>
+        <v>36.3838</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3274</v>
+        <v>18.137</v>
       </c>
       <c r="C6" t="n">
-        <v>27.0286</v>
+        <v>27.7034</v>
       </c>
       <c r="D6" t="n">
-        <v>45.3371</v>
+        <v>44.2995</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.3647</v>
+        <v>21.1747</v>
       </c>
       <c r="C7" t="n">
-        <v>31.7287</v>
+        <v>32.69</v>
       </c>
       <c r="D7" t="n">
-        <v>53.1274</v>
+        <v>52.9295</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0419</v>
+        <v>19.2216</v>
       </c>
       <c r="C8" t="n">
-        <v>30.5802</v>
+        <v>31.3731</v>
       </c>
       <c r="D8" t="n">
-        <v>48.3088</v>
+        <v>47.1945</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.8746</v>
+        <v>19.6914</v>
       </c>
       <c r="C9" t="n">
-        <v>30.5525</v>
+        <v>31.516</v>
       </c>
       <c r="D9" t="n">
-        <v>48.0427</v>
+        <v>47.1684</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.8776</v>
+        <v>19.9451</v>
       </c>
       <c r="C10" t="n">
-        <v>30.5702</v>
+        <v>31.3797</v>
       </c>
       <c r="D10" t="n">
-        <v>47.845</v>
+        <v>48.4727</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.3294</v>
+        <v>20.2063</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4044</v>
+        <v>31.4502</v>
       </c>
       <c r="D11" t="n">
-        <v>46.9902</v>
+        <v>47.5441</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.3552</v>
+        <v>19.8548</v>
       </c>
       <c r="C12" t="n">
-        <v>30.5395</v>
+        <v>31.4215</v>
       </c>
       <c r="D12" t="n">
-        <v>50.243</v>
+        <v>48.9513</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.1273</v>
+        <v>19.9971</v>
       </c>
       <c r="C13" t="n">
-        <v>30.9192</v>
+        <v>32.0815</v>
       </c>
       <c r="D13" t="n">
-        <v>50.0345</v>
+        <v>50.4071</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.9813</v>
+        <v>20.0777</v>
       </c>
       <c r="C14" t="n">
-        <v>30.8523</v>
+        <v>31.9234</v>
       </c>
       <c r="D14" t="n">
-        <v>52.1207</v>
+        <v>48.6421</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.2301</v>
+        <v>20.0028</v>
       </c>
       <c r="C15" t="n">
-        <v>30.7495</v>
+        <v>31.8311</v>
       </c>
       <c r="D15" t="n">
-        <v>51.1116</v>
+        <v>50.417</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.2625</v>
+        <v>19.9789</v>
       </c>
       <c r="C16" t="n">
-        <v>30.7938</v>
+        <v>31.6857</v>
       </c>
       <c r="D16" t="n">
-        <v>52.9725</v>
+        <v>50.2138</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.6412</v>
+        <v>20.5108</v>
       </c>
       <c r="C17" t="n">
-        <v>31.1505</v>
+        <v>31.8706</v>
       </c>
       <c r="D17" t="n">
-        <v>50.69</v>
+        <v>49.6379</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.55337</v>
+        <v>4.56118</v>
       </c>
       <c r="C2" t="n">
-        <v>9.667120000000001</v>
+        <v>9.802020000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>12.4694</v>
+        <v>12.2432</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.886089999999999</v>
+        <v>8.932370000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>16.7466</v>
+        <v>17.0837</v>
       </c>
       <c r="D3" t="n">
-        <v>23.728</v>
+        <v>23.4009</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8683</v>
+        <v>12.964</v>
       </c>
       <c r="C4" t="n">
-        <v>22.4124</v>
+        <v>23.5699</v>
       </c>
       <c r="D4" t="n">
-        <v>33.7487</v>
+        <v>33.5928</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.3424</v>
+        <v>15.0425</v>
       </c>
       <c r="C5" t="n">
-        <v>23.7348</v>
+        <v>24.4391</v>
       </c>
       <c r="D5" t="n">
-        <v>37.0457</v>
+        <v>35.9461</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.6489</v>
+        <v>18.4079</v>
       </c>
       <c r="C6" t="n">
-        <v>27.0888</v>
+        <v>27.6672</v>
       </c>
       <c r="D6" t="n">
-        <v>44.5881</v>
+        <v>43.684</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.8625</v>
+        <v>21.5945</v>
       </c>
       <c r="C7" t="n">
-        <v>31.9146</v>
+        <v>32.806</v>
       </c>
       <c r="D7" t="n">
-        <v>52.4938</v>
+        <v>51.3301</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.6365</v>
+        <v>19.3641</v>
       </c>
       <c r="C8" t="n">
-        <v>30.6997</v>
+        <v>31.3298</v>
       </c>
       <c r="D8" t="n">
-        <v>47.8096</v>
+        <v>46.3021</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.3222</v>
+        <v>19.9977</v>
       </c>
       <c r="C9" t="n">
-        <v>30.1231</v>
+        <v>31.5167</v>
       </c>
       <c r="D9" t="n">
-        <v>47.2301</v>
+        <v>45.9872</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.4718</v>
+        <v>20.3082</v>
       </c>
       <c r="C10" t="n">
-        <v>30.7522</v>
+        <v>31.4424</v>
       </c>
       <c r="D10" t="n">
-        <v>48.3141</v>
+        <v>46.6451</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.9487</v>
+        <v>20.6811</v>
       </c>
       <c r="C11" t="n">
-        <v>31.0954</v>
+        <v>31.5894</v>
       </c>
       <c r="D11" t="n">
-        <v>48.5718</v>
+        <v>46.1732</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.6801</v>
+        <v>20.3401</v>
       </c>
       <c r="C12" t="n">
-        <v>30.8202</v>
+        <v>31.701</v>
       </c>
       <c r="D12" t="n">
-        <v>48.2942</v>
+        <v>47.3899</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.086</v>
+        <v>20.4841</v>
       </c>
       <c r="C13" t="n">
-        <v>30.9574</v>
+        <v>32.1047</v>
       </c>
       <c r="D13" t="n">
-        <v>50.2832</v>
+        <v>48.1415</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.4823</v>
+        <v>20.5314</v>
       </c>
       <c r="C14" t="n">
-        <v>31.2905</v>
+        <v>32.0792</v>
       </c>
       <c r="D14" t="n">
-        <v>50.5307</v>
+        <v>47.7375</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.7763</v>
+        <v>20.8627</v>
       </c>
       <c r="C15" t="n">
-        <v>31.4467</v>
+        <v>31.9168</v>
       </c>
       <c r="D15" t="n">
-        <v>50.1633</v>
+        <v>48.6838</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.9969</v>
+        <v>20.7178</v>
       </c>
       <c r="C16" t="n">
-        <v>31.3004</v>
+        <v>32.202</v>
       </c>
       <c r="D16" t="n">
-        <v>50.1162</v>
+        <v>49.3612</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0121</v>
+        <v>20.5693</v>
       </c>
       <c r="C17" t="n">
-        <v>31.3317</v>
+        <v>32.2194</v>
       </c>
       <c r="D17" t="n">
-        <v>51.5624</v>
+        <v>49.2433</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.146039999999999</v>
+        <v>8.27661</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5964</v>
+        <v>11.9364</v>
       </c>
       <c r="D2" t="n">
-        <v>15.4426</v>
+        <v>15.3778</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.5034</v>
+        <v>15.7028</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0988</v>
+        <v>19.9787</v>
       </c>
       <c r="D3" t="n">
-        <v>28.4692</v>
+        <v>28.1788</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.351</v>
+        <v>22.7156</v>
       </c>
       <c r="C4" t="n">
-        <v>25.73</v>
+        <v>26.8312</v>
       </c>
       <c r="D4" t="n">
-        <v>40.0798</v>
+        <v>39.7541</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.0497</v>
+        <v>21.9054</v>
       </c>
       <c r="C5" t="n">
-        <v>25.9819</v>
+        <v>26.3209</v>
       </c>
       <c r="D5" t="n">
-        <v>41.083</v>
+        <v>40.5775</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.5984</v>
+        <v>26.6135</v>
       </c>
       <c r="C6" t="n">
-        <v>28.929</v>
+        <v>29.9998</v>
       </c>
       <c r="D6" t="n">
-        <v>47.3379</v>
+        <v>46.8321</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.3242</v>
+        <v>32.4241</v>
       </c>
       <c r="C7" t="n">
-        <v>33.5538</v>
+        <v>34.8893</v>
       </c>
       <c r="D7" t="n">
-        <v>54.7139</v>
+        <v>54.9528</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.3565</v>
+        <v>29.7651</v>
       </c>
       <c r="C8" t="n">
-        <v>32.4116</v>
+        <v>33.9459</v>
       </c>
       <c r="D8" t="n">
-        <v>53.42</v>
+        <v>52.8437</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.5382</v>
+        <v>30.6211</v>
       </c>
       <c r="C9" t="n">
-        <v>32.2852</v>
+        <v>33.342</v>
       </c>
       <c r="D9" t="n">
-        <v>53.1089</v>
+        <v>51.8288</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.4114</v>
+        <v>30.3026</v>
       </c>
       <c r="C10" t="n">
-        <v>32.4604</v>
+        <v>33.895</v>
       </c>
       <c r="D10" t="n">
-        <v>53.1556</v>
+        <v>53.0922</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.7107</v>
+        <v>30.9035</v>
       </c>
       <c r="C11" t="n">
-        <v>32.9149</v>
+        <v>34.2666</v>
       </c>
       <c r="D11" t="n">
-        <v>53.0768</v>
+        <v>52.909</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.6573</v>
+        <v>30.5663</v>
       </c>
       <c r="C12" t="n">
-        <v>32.6607</v>
+        <v>34.1024</v>
       </c>
       <c r="D12" t="n">
-        <v>53.5134</v>
+        <v>52.0377</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.8412</v>
+        <v>30.6415</v>
       </c>
       <c r="C13" t="n">
-        <v>32.7718</v>
+        <v>34.3842</v>
       </c>
       <c r="D13" t="n">
-        <v>53.4324</v>
+        <v>53.0171</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.5642</v>
+        <v>31.0667</v>
       </c>
       <c r="C14" t="n">
-        <v>32.817</v>
+        <v>34.0686</v>
       </c>
       <c r="D14" t="n">
-        <v>53.8579</v>
+        <v>52.3995</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.4549</v>
+        <v>31.3522</v>
       </c>
       <c r="C15" t="n">
-        <v>32.5798</v>
+        <v>34.3219</v>
       </c>
       <c r="D15" t="n">
-        <v>53.9647</v>
+        <v>53.1344</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.7183</v>
+        <v>30.8861</v>
       </c>
       <c r="C16" t="n">
-        <v>32.8391</v>
+        <v>34.1</v>
       </c>
       <c r="D16" t="n">
-        <v>52.9156</v>
+        <v>53.0801</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.9467</v>
+        <v>30.9002</v>
       </c>
       <c r="C17" t="n">
-        <v>32.7329</v>
+        <v>34.0006</v>
       </c>
       <c r="D17" t="n">
-        <v>54.0882</v>
+        <v>53.8209</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.40554</v>
+        <v>10.3747</v>
       </c>
       <c r="C2" t="n">
-        <v>11.598</v>
+        <v>12.9138</v>
       </c>
       <c r="D2" t="n">
-        <v>14.9597</v>
+        <v>18.127</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.5916</v>
+        <v>19.3572</v>
       </c>
       <c r="C3" t="n">
-        <v>17.9577</v>
+        <v>19.3043</v>
       </c>
       <c r="D3" t="n">
-        <v>22.97</v>
+        <v>28.9384</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7386</v>
+        <v>26.8042</v>
       </c>
       <c r="C4" t="n">
-        <v>22.5637</v>
+        <v>23.9355</v>
       </c>
       <c r="D4" t="n">
-        <v>30.8422</v>
+        <v>35.1984</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18.8405</v>
+        <v>20.3684</v>
       </c>
       <c r="C5" t="n">
-        <v>25.1301</v>
+        <v>26.6522</v>
       </c>
       <c r="D5" t="n">
-        <v>31.0608</v>
+        <v>37.0612</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.7725</v>
+        <v>24.4348</v>
       </c>
       <c r="C6" t="n">
-        <v>29.178</v>
+        <v>31.3232</v>
       </c>
       <c r="D6" t="n">
-        <v>34.7777</v>
+        <v>38.718</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>26.9488</v>
+        <v>29.0456</v>
       </c>
       <c r="C7" t="n">
-        <v>34.3364</v>
+        <v>36.4553</v>
       </c>
       <c r="D7" t="n">
-        <v>38.1602</v>
+        <v>38.7043</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.5558</v>
+        <v>21.0985</v>
       </c>
       <c r="C8" t="n">
-        <v>31.5976</v>
+        <v>34.325</v>
       </c>
       <c r="D8" t="n">
-        <v>37.1332</v>
+        <v>39.7274</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.515</v>
+        <v>24.1455</v>
       </c>
       <c r="C9" t="n">
-        <v>32.2377</v>
+        <v>34.4679</v>
       </c>
       <c r="D9" t="n">
-        <v>41.5488</v>
+        <v>43.3101</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3881</v>
+        <v>26.2513</v>
       </c>
       <c r="C10" t="n">
-        <v>32.0385</v>
+        <v>34.0617</v>
       </c>
       <c r="D10" t="n">
-        <v>42.5398</v>
+        <v>46.338</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.6583</v>
+        <v>24.1919</v>
       </c>
       <c r="C11" t="n">
-        <v>32.4238</v>
+        <v>34.4455</v>
       </c>
       <c r="D11" t="n">
-        <v>43.4907</v>
+        <v>48.4528</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.6606</v>
+        <v>26.3728</v>
       </c>
       <c r="C12" t="n">
-        <v>32.3496</v>
+        <v>34.7979</v>
       </c>
       <c r="D12" t="n">
-        <v>44.5793</v>
+        <v>51.2082</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.8745</v>
+        <v>28.927</v>
       </c>
       <c r="C13" t="n">
-        <v>33.1133</v>
+        <v>35.018</v>
       </c>
       <c r="D13" t="n">
-        <v>44.5068</v>
+        <v>51.3362</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.0449</v>
+        <v>24.1775</v>
       </c>
       <c r="C14" t="n">
-        <v>32.227</v>
+        <v>34.5085</v>
       </c>
       <c r="D14" t="n">
-        <v>43.6357</v>
+        <v>51.9386</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.8049</v>
+        <v>25.543</v>
       </c>
       <c r="C15" t="n">
-        <v>32.4493</v>
+        <v>34.9304</v>
       </c>
       <c r="D15" t="n">
-        <v>44.3725</v>
+        <v>52.0904</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.109</v>
+        <v>26.8394</v>
       </c>
       <c r="C16" t="n">
-        <v>32.4276</v>
+        <v>34.8776</v>
       </c>
       <c r="D16" t="n">
-        <v>43.9845</v>
+        <v>52.0947</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.7907</v>
+        <v>25.583</v>
       </c>
       <c r="C17" t="n">
-        <v>32.6266</v>
+        <v>34.8513</v>
       </c>
       <c r="D17" t="n">
-        <v>45.2786</v>
+        <v>51.1492</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.687950000000001</v>
+        <v>10.6848</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5813</v>
+        <v>12.9327</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8217</v>
+        <v>17.946</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.2663</v>
+        <v>20.1047</v>
       </c>
       <c r="C3" t="n">
-        <v>17.6671</v>
+        <v>20.4022</v>
       </c>
       <c r="D3" t="n">
-        <v>23.5443</v>
+        <v>28.1315</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.2587</v>
+        <v>27.3517</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6988</v>
+        <v>23.9125</v>
       </c>
       <c r="D4" t="n">
-        <v>29.4035</v>
+        <v>35.2922</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.1103</v>
+        <v>20.8216</v>
       </c>
       <c r="C5" t="n">
-        <v>25.1527</v>
+        <v>26.7243</v>
       </c>
       <c r="D5" t="n">
-        <v>31.1022</v>
+        <v>35.7531</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.1462</v>
+        <v>24.8949</v>
       </c>
       <c r="C6" t="n">
-        <v>29.1198</v>
+        <v>31.0909</v>
       </c>
       <c r="D6" t="n">
-        <v>34.3315</v>
+        <v>36.9292</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.8557</v>
+        <v>29.9125</v>
       </c>
       <c r="C7" t="n">
-        <v>34.1493</v>
+        <v>36.434</v>
       </c>
       <c r="D7" t="n">
-        <v>34.4542</v>
+        <v>42.2268</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9162</v>
+        <v>21.7859</v>
       </c>
       <c r="C8" t="n">
-        <v>31.1634</v>
+        <v>33.3065</v>
       </c>
       <c r="D8" t="n">
-        <v>34.6238</v>
+        <v>41.8939</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.4483</v>
+        <v>25.0106</v>
       </c>
       <c r="C9" t="n">
-        <v>31.8117</v>
+        <v>33.6803</v>
       </c>
       <c r="D9" t="n">
-        <v>36.4501</v>
+        <v>43.4244</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1528</v>
+        <v>27.1237</v>
       </c>
       <c r="C10" t="n">
-        <v>31.3365</v>
+        <v>33.913</v>
       </c>
       <c r="D10" t="n">
-        <v>39.195</v>
+        <v>48.6614</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.092</v>
+        <v>24.8681</v>
       </c>
       <c r="C11" t="n">
-        <v>32.0863</v>
+        <v>34.3054</v>
       </c>
       <c r="D11" t="n">
-        <v>41.0186</v>
+        <v>51.2371</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.4136</v>
+        <v>27.1451</v>
       </c>
       <c r="C12" t="n">
-        <v>32.29</v>
+        <v>34.8379</v>
       </c>
       <c r="D12" t="n">
-        <v>40.9874</v>
+        <v>49.9596</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.6891</v>
+        <v>29.8993</v>
       </c>
       <c r="C13" t="n">
-        <v>33.0216</v>
+        <v>34.9476</v>
       </c>
       <c r="D13" t="n">
-        <v>43.8214</v>
+        <v>51.9662</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3567</v>
+        <v>24.1835</v>
       </c>
       <c r="C14" t="n">
-        <v>32.896</v>
+        <v>35.2972</v>
       </c>
       <c r="D14" t="n">
-        <v>43.6598</v>
+        <v>50.515</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.1635</v>
+        <v>26.26</v>
       </c>
       <c r="C15" t="n">
-        <v>32.5557</v>
+        <v>35.6223</v>
       </c>
       <c r="D15" t="n">
-        <v>43.2426</v>
+        <v>50.9821</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.3608</v>
+        <v>27.7812</v>
       </c>
       <c r="C16" t="n">
-        <v>33.045</v>
+        <v>35.3537</v>
       </c>
       <c r="D16" t="n">
-        <v>44.0961</v>
+        <v>50.9783</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.6829</v>
+        <v>26.2295</v>
       </c>
       <c r="C17" t="n">
-        <v>33.1236</v>
+        <v>35.4886</v>
       </c>
       <c r="D17" t="n">
-        <v>44.6502</v>
+        <v>51.2703</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.6003</v>
+        <v>13.0025</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5481</v>
+        <v>14.0454</v>
       </c>
       <c r="D2" t="n">
-        <v>16.3655</v>
+        <v>19.7605</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.9151</v>
+        <v>23.2941</v>
       </c>
       <c r="C3" t="n">
-        <v>21.1671</v>
+        <v>23.6353</v>
       </c>
       <c r="D3" t="n">
-        <v>25.8968</v>
+        <v>31.0266</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.0198</v>
+        <v>31.7625</v>
       </c>
       <c r="C4" t="n">
-        <v>26.9288</v>
+        <v>29.6902</v>
       </c>
       <c r="D4" t="n">
-        <v>33.655</v>
+        <v>36.3966</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.5429</v>
+        <v>26.7902</v>
       </c>
       <c r="C5" t="n">
-        <v>26.6531</v>
+        <v>29.0182</v>
       </c>
       <c r="D5" t="n">
-        <v>34.4881</v>
+        <v>37.6939</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.6146</v>
+        <v>31.872</v>
       </c>
       <c r="C6" t="n">
-        <v>30.2053</v>
+        <v>32.778</v>
       </c>
       <c r="D6" t="n">
-        <v>34.5228</v>
+        <v>43.7076</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.2299</v>
+        <v>37.6669</v>
       </c>
       <c r="C7" t="n">
-        <v>35.5761</v>
+        <v>38.2186</v>
       </c>
       <c r="D7" t="n">
-        <v>40.2739</v>
+        <v>44.8174</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.1078</v>
+        <v>33.7029</v>
       </c>
       <c r="C8" t="n">
-        <v>31.9573</v>
+        <v>34.3952</v>
       </c>
       <c r="D8" t="n">
-        <v>39.1276</v>
+        <v>49.0155</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.6311</v>
+        <v>34.3587</v>
       </c>
       <c r="C9" t="n">
-        <v>31.7034</v>
+        <v>34.5368</v>
       </c>
       <c r="D9" t="n">
-        <v>41.4546</v>
+        <v>50.026</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.7966</v>
+        <v>35.0904</v>
       </c>
       <c r="C10" t="n">
-        <v>31.8441</v>
+        <v>34.3419</v>
       </c>
       <c r="D10" t="n">
-        <v>41.9569</v>
+        <v>48.8978</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.6519</v>
+        <v>35.4429</v>
       </c>
       <c r="C11" t="n">
-        <v>32.8202</v>
+        <v>34.7539</v>
       </c>
       <c r="D11" t="n">
-        <v>45.4325</v>
+        <v>51.5799</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.0913</v>
+        <v>34.9157</v>
       </c>
       <c r="C12" t="n">
-        <v>32.6521</v>
+        <v>35.1497</v>
       </c>
       <c r="D12" t="n">
-        <v>45.7253</v>
+        <v>51.4856</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.7745</v>
+        <v>35.3094</v>
       </c>
       <c r="C13" t="n">
-        <v>32.7492</v>
+        <v>35.8474</v>
       </c>
       <c r="D13" t="n">
-        <v>45.2031</v>
+        <v>51.9401</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.7637</v>
+        <v>35.3355</v>
       </c>
       <c r="C14" t="n">
-        <v>33.1196</v>
+        <v>35.9253</v>
       </c>
       <c r="D14" t="n">
-        <v>45.4325</v>
+        <v>52.1228</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6913</v>
+        <v>35.5891</v>
       </c>
       <c r="C15" t="n">
-        <v>33.3274</v>
+        <v>36.1861</v>
       </c>
       <c r="D15" t="n">
-        <v>44.8501</v>
+        <v>50.4738</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.4157</v>
+        <v>35.6682</v>
       </c>
       <c r="C16" t="n">
-        <v>33.2663</v>
+        <v>36.4805</v>
       </c>
       <c r="D16" t="n">
-        <v>45.8464</v>
+        <v>51.1163</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.5292</v>
+        <v>35.7883</v>
       </c>
       <c r="C17" t="n">
-        <v>33.6668</v>
+        <v>36.2906</v>
       </c>
       <c r="D17" t="n">
-        <v>45.2892</v>
+        <v>50.1981</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.54132</v>
+        <v>4.77717</v>
       </c>
       <c r="C2" t="n">
-        <v>9.762409999999999</v>
+        <v>10.9189</v>
       </c>
       <c r="D2" t="n">
-        <v>12.3734</v>
+        <v>15.0465</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.900410000000001</v>
+        <v>9.327870000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0013</v>
+        <v>18.9682</v>
       </c>
       <c r="D3" t="n">
-        <v>23.678</v>
+        <v>28.7702</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8533</v>
+        <v>13.4621</v>
       </c>
       <c r="C4" t="n">
-        <v>23.797</v>
+        <v>26.1196</v>
       </c>
       <c r="D4" t="n">
-        <v>33.716</v>
+        <v>40.7979</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8635</v>
+        <v>15.8633</v>
       </c>
       <c r="C5" t="n">
-        <v>24.0824</v>
+        <v>26.2491</v>
       </c>
       <c r="D5" t="n">
-        <v>36.3838</v>
+        <v>44.5411</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.137</v>
+        <v>19.1702</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7034</v>
+        <v>29.9246</v>
       </c>
       <c r="D6" t="n">
-        <v>44.2995</v>
+        <v>53.2735</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.1747</v>
+        <v>22.422</v>
       </c>
       <c r="C7" t="n">
-        <v>32.69</v>
+        <v>35.0596</v>
       </c>
       <c r="D7" t="n">
-        <v>52.9295</v>
+        <v>62.7217</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.2216</v>
+        <v>20.3019</v>
       </c>
       <c r="C8" t="n">
-        <v>31.3731</v>
+        <v>33.4798</v>
       </c>
       <c r="D8" t="n">
-        <v>47.1945</v>
+        <v>55.5784</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.6914</v>
+        <v>20.4255</v>
       </c>
       <c r="C9" t="n">
-        <v>31.516</v>
+        <v>33.3847</v>
       </c>
       <c r="D9" t="n">
-        <v>47.1684</v>
+        <v>54.7322</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.9451</v>
+        <v>20.8096</v>
       </c>
       <c r="C10" t="n">
-        <v>31.3797</v>
+        <v>33.7661</v>
       </c>
       <c r="D10" t="n">
-        <v>48.4727</v>
+        <v>58.0257</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.2063</v>
+        <v>21.1104</v>
       </c>
       <c r="C11" t="n">
-        <v>31.4502</v>
+        <v>33.5501</v>
       </c>
       <c r="D11" t="n">
-        <v>47.5441</v>
+        <v>56.2036</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.8548</v>
+        <v>20.9975</v>
       </c>
       <c r="C12" t="n">
-        <v>31.4215</v>
+        <v>33.9313</v>
       </c>
       <c r="D12" t="n">
-        <v>48.9513</v>
+        <v>58.5992</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.9971</v>
+        <v>21.1029</v>
       </c>
       <c r="C13" t="n">
-        <v>32.0815</v>
+        <v>34.2762</v>
       </c>
       <c r="D13" t="n">
-        <v>50.4071</v>
+        <v>57.9203</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0777</v>
+        <v>21.382</v>
       </c>
       <c r="C14" t="n">
-        <v>31.9234</v>
+        <v>34.0439</v>
       </c>
       <c r="D14" t="n">
-        <v>48.6421</v>
+        <v>58.6385</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.0028</v>
+        <v>21.2896</v>
       </c>
       <c r="C15" t="n">
-        <v>31.8311</v>
+        <v>34.3668</v>
       </c>
       <c r="D15" t="n">
-        <v>50.417</v>
+        <v>60.5055</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.9789</v>
+        <v>21.2207</v>
       </c>
       <c r="C16" t="n">
-        <v>31.6857</v>
+        <v>34.4917</v>
       </c>
       <c r="D16" t="n">
-        <v>50.2138</v>
+        <v>59.7491</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.5108</v>
+        <v>21.495</v>
       </c>
       <c r="C17" t="n">
-        <v>31.8706</v>
+        <v>34.3089</v>
       </c>
       <c r="D17" t="n">
-        <v>49.6379</v>
+        <v>60.1866</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.56118</v>
+        <v>4.78531</v>
       </c>
       <c r="C2" t="n">
-        <v>9.802020000000001</v>
+        <v>10.994</v>
       </c>
       <c r="D2" t="n">
-        <v>12.2432</v>
+        <v>14.9212</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.932370000000001</v>
+        <v>9.39217</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0837</v>
+        <v>19.0411</v>
       </c>
       <c r="D3" t="n">
-        <v>23.4009</v>
+        <v>28.3836</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.964</v>
+        <v>13.5106</v>
       </c>
       <c r="C4" t="n">
-        <v>23.5699</v>
+        <v>25.5798</v>
       </c>
       <c r="D4" t="n">
-        <v>33.5928</v>
+        <v>39.4686</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0425</v>
+        <v>15.9286</v>
       </c>
       <c r="C5" t="n">
-        <v>24.4391</v>
+        <v>26.4614</v>
       </c>
       <c r="D5" t="n">
-        <v>35.9461</v>
+        <v>42.0872</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.4079</v>
+        <v>19.4441</v>
       </c>
       <c r="C6" t="n">
-        <v>27.6672</v>
+        <v>29.9888</v>
       </c>
       <c r="D6" t="n">
-        <v>43.684</v>
+        <v>52.0606</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.5945</v>
+        <v>22.8383</v>
       </c>
       <c r="C7" t="n">
-        <v>32.806</v>
+        <v>35.135</v>
       </c>
       <c r="D7" t="n">
-        <v>51.3301</v>
+        <v>60.9878</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.3641</v>
+        <v>20.5139</v>
       </c>
       <c r="C8" t="n">
-        <v>31.3298</v>
+        <v>33.7615</v>
       </c>
       <c r="D8" t="n">
-        <v>46.3021</v>
+        <v>54.1168</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.9977</v>
+        <v>20.9039</v>
       </c>
       <c r="C9" t="n">
-        <v>31.5167</v>
+        <v>34.0159</v>
       </c>
       <c r="D9" t="n">
-        <v>45.9872</v>
+        <v>52.9744</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3082</v>
+        <v>21.2713</v>
       </c>
       <c r="C10" t="n">
-        <v>31.4424</v>
+        <v>33.9798</v>
       </c>
       <c r="D10" t="n">
-        <v>46.6451</v>
+        <v>53.4625</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.6811</v>
+        <v>21.6401</v>
       </c>
       <c r="C11" t="n">
-        <v>31.5894</v>
+        <v>33.7893</v>
       </c>
       <c r="D11" t="n">
-        <v>46.1732</v>
+        <v>54.7316</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.3401</v>
+        <v>21.5748</v>
       </c>
       <c r="C12" t="n">
-        <v>31.701</v>
+        <v>33.9919</v>
       </c>
       <c r="D12" t="n">
-        <v>47.3899</v>
+        <v>57.2104</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.4841</v>
+        <v>21.7902</v>
       </c>
       <c r="C13" t="n">
-        <v>32.1047</v>
+        <v>34.6301</v>
       </c>
       <c r="D13" t="n">
-        <v>48.1415</v>
+        <v>56.823</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.5314</v>
+        <v>21.4217</v>
       </c>
       <c r="C14" t="n">
-        <v>32.0792</v>
+        <v>34.3608</v>
       </c>
       <c r="D14" t="n">
-        <v>47.7375</v>
+        <v>57.8808</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.8627</v>
+        <v>21.74</v>
       </c>
       <c r="C15" t="n">
-        <v>31.9168</v>
+        <v>34.1683</v>
       </c>
       <c r="D15" t="n">
-        <v>48.6838</v>
+        <v>57.0933</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.7178</v>
+        <v>21.8985</v>
       </c>
       <c r="C16" t="n">
-        <v>32.202</v>
+        <v>34.5562</v>
       </c>
       <c r="D16" t="n">
-        <v>49.3612</v>
+        <v>57.5053</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.5693</v>
+        <v>21.4247</v>
       </c>
       <c r="C17" t="n">
-        <v>32.2194</v>
+        <v>34.7803</v>
       </c>
       <c r="D17" t="n">
-        <v>49.2433</v>
+        <v>58.3302</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.27661</v>
+        <v>8.89866</v>
       </c>
       <c r="C2" t="n">
-        <v>11.9364</v>
+        <v>13.562</v>
       </c>
       <c r="D2" t="n">
-        <v>15.3778</v>
+        <v>19.0679</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.7028</v>
+        <v>17.0902</v>
       </c>
       <c r="C3" t="n">
-        <v>19.9787</v>
+        <v>22.8153</v>
       </c>
       <c r="D3" t="n">
-        <v>28.1788</v>
+        <v>34.7079</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.7156</v>
+        <v>24.729</v>
       </c>
       <c r="C4" t="n">
-        <v>26.8312</v>
+        <v>30.0845</v>
       </c>
       <c r="D4" t="n">
-        <v>39.7541</v>
+        <v>49.7259</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.9054</v>
+        <v>23.9536</v>
       </c>
       <c r="C5" t="n">
-        <v>26.3209</v>
+        <v>29.488</v>
       </c>
       <c r="D5" t="n">
-        <v>40.5775</v>
+        <v>48.3901</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.6135</v>
+        <v>28.2794</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9998</v>
+        <v>32.501</v>
       </c>
       <c r="D6" t="n">
-        <v>46.8321</v>
+        <v>55.5042</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.4241</v>
+        <v>34.3919</v>
       </c>
       <c r="C7" t="n">
-        <v>34.8893</v>
+        <v>37.4716</v>
       </c>
       <c r="D7" t="n">
-        <v>54.9528</v>
+        <v>62.294</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.7651</v>
+        <v>31.6003</v>
       </c>
       <c r="C8" t="n">
-        <v>33.9459</v>
+        <v>36.5081</v>
       </c>
       <c r="D8" t="n">
-        <v>52.8437</v>
+        <v>60.3902</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.6211</v>
+        <v>31.9974</v>
       </c>
       <c r="C9" t="n">
-        <v>33.342</v>
+        <v>36.2917</v>
       </c>
       <c r="D9" t="n">
-        <v>51.8288</v>
+        <v>61.0703</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.3026</v>
+        <v>32.1198</v>
       </c>
       <c r="C10" t="n">
-        <v>33.895</v>
+        <v>36.7296</v>
       </c>
       <c r="D10" t="n">
-        <v>53.0922</v>
+        <v>62.1324</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.9035</v>
+        <v>32.4942</v>
       </c>
       <c r="C11" t="n">
-        <v>34.2666</v>
+        <v>36.532</v>
       </c>
       <c r="D11" t="n">
-        <v>52.909</v>
+        <v>61.9252</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.5663</v>
+        <v>32.1068</v>
       </c>
       <c r="C12" t="n">
-        <v>34.1024</v>
+        <v>36.5002</v>
       </c>
       <c r="D12" t="n">
-        <v>52.0377</v>
+        <v>62.0068</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.6415</v>
+        <v>33.3352</v>
       </c>
       <c r="C13" t="n">
-        <v>34.3842</v>
+        <v>36.948</v>
       </c>
       <c r="D13" t="n">
-        <v>53.0171</v>
+        <v>61.9866</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31.0667</v>
+        <v>32.5502</v>
       </c>
       <c r="C14" t="n">
-        <v>34.0686</v>
+        <v>37.1123</v>
       </c>
       <c r="D14" t="n">
-        <v>52.3995</v>
+        <v>62.5933</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.3522</v>
+        <v>32.8023</v>
       </c>
       <c r="C15" t="n">
-        <v>34.3219</v>
+        <v>36.5568</v>
       </c>
       <c r="D15" t="n">
-        <v>53.1344</v>
+        <v>63.1279</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.8861</v>
+        <v>32.9207</v>
       </c>
       <c r="C16" t="n">
-        <v>34.1</v>
+        <v>36.7056</v>
       </c>
       <c r="D16" t="n">
-        <v>53.0801</v>
+        <v>62.9776</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.9002</v>
+        <v>32.9732</v>
       </c>
       <c r="C17" t="n">
-        <v>34.0006</v>
+        <v>36.8027</v>
       </c>
       <c r="D17" t="n">
-        <v>53.8209</v>
+        <v>62.9494</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.09564</v>
+        <v>10.3007</v>
       </c>
       <c r="C2" t="n">
-        <v>14.6656</v>
+        <v>17.999</v>
       </c>
       <c r="D2" t="n">
-        <v>16.636</v>
+        <v>21.3107</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0113</v>
+        <v>19.3098</v>
       </c>
       <c r="C3" t="n">
-        <v>24.4558</v>
+        <v>27.4099</v>
       </c>
       <c r="D3" t="n">
-        <v>28.1689</v>
+        <v>32.4947</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8531</v>
+        <v>26.107</v>
       </c>
       <c r="C4" t="n">
-        <v>32.095</v>
+        <v>33.741</v>
       </c>
       <c r="D4" t="n">
-        <v>37.6776</v>
+        <v>42.4358</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.3099</v>
+        <v>20.5775</v>
       </c>
       <c r="C5" t="n">
-        <v>34.1394</v>
+        <v>36.6749</v>
       </c>
       <c r="D5" t="n">
-        <v>43.3463</v>
+        <v>43.9847</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.1155</v>
+        <v>24.4322</v>
       </c>
       <c r="C6" t="n">
-        <v>38.6079</v>
+        <v>38.7983</v>
       </c>
       <c r="D6" t="n">
-        <v>50.9597</v>
+        <v>43.7446</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.6035</v>
+        <v>28.9921</v>
       </c>
       <c r="C7" t="n">
-        <v>43.919</v>
+        <v>43.8319</v>
       </c>
       <c r="D7" t="n">
-        <v>50.5429</v>
+        <v>50.9372</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.697</v>
+        <v>20.9249</v>
       </c>
       <c r="C8" t="n">
-        <v>41.0944</v>
+        <v>40.9966</v>
       </c>
       <c r="D8" t="n">
-        <v>47.7815</v>
+        <v>47.2966</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.3759</v>
+        <v>23.6054</v>
       </c>
       <c r="C9" t="n">
-        <v>42.7494</v>
+        <v>45.7545</v>
       </c>
       <c r="D9" t="n">
-        <v>46.4347</v>
+        <v>50.2751</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3791</v>
+        <v>26.0611</v>
       </c>
       <c r="C10" t="n">
-        <v>43.2657</v>
+        <v>46.4772</v>
       </c>
       <c r="D10" t="n">
-        <v>49.8261</v>
+        <v>50.8757</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.4409</v>
+        <v>24.4168</v>
       </c>
       <c r="C11" t="n">
-        <v>45.219</v>
+        <v>49.7955</v>
       </c>
       <c r="D11" t="n">
-        <v>52.1843</v>
+        <v>59.6947</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.2405</v>
+        <v>26.5231</v>
       </c>
       <c r="C12" t="n">
-        <v>44.7711</v>
+        <v>51.1013</v>
       </c>
       <c r="D12" t="n">
-        <v>50.377</v>
+        <v>60.2876</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.4983</v>
+        <v>28.9384</v>
       </c>
       <c r="C13" t="n">
-        <v>43.9348</v>
+        <v>50.6258</v>
       </c>
       <c r="D13" t="n">
-        <v>50.1805</v>
+        <v>63.2199</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3605</v>
+        <v>23.7167</v>
       </c>
       <c r="C14" t="n">
-        <v>44.7788</v>
+        <v>52.0082</v>
       </c>
       <c r="D14" t="n">
-        <v>51.7115</v>
+        <v>62.3884</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.9379</v>
+        <v>25.3427</v>
       </c>
       <c r="C15" t="n">
-        <v>44.4717</v>
+        <v>50.9368</v>
       </c>
       <c r="D15" t="n">
-        <v>56.6546</v>
+        <v>60.9701</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.9506</v>
+        <v>26.8467</v>
       </c>
       <c r="C16" t="n">
-        <v>45.2144</v>
+        <v>50.7925</v>
       </c>
       <c r="D16" t="n">
-        <v>59.6327</v>
+        <v>60.9268</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4534</v>
+        <v>25.9061</v>
       </c>
       <c r="C17" t="n">
-        <v>48.5281</v>
+        <v>51.6898</v>
       </c>
       <c r="D17" t="n">
-        <v>60.8418</v>
+        <v>66.1636</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.574960000000001</v>
+        <v>10.6643</v>
       </c>
       <c r="C2" t="n">
-        <v>14.8207</v>
+        <v>17.8227</v>
       </c>
       <c r="D2" t="n">
-        <v>16.5953</v>
+        <v>21.1375</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.1811</v>
+        <v>20.0994</v>
       </c>
       <c r="C3" t="n">
-        <v>24.8934</v>
+        <v>26.7977</v>
       </c>
       <c r="D3" t="n">
-        <v>27.2943</v>
+        <v>31.28</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.8314</v>
+        <v>27.5476</v>
       </c>
       <c r="C4" t="n">
-        <v>31.4501</v>
+        <v>34.708</v>
       </c>
       <c r="D4" t="n">
-        <v>35.8437</v>
+        <v>36.6047</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.1855</v>
+        <v>20.6777</v>
       </c>
       <c r="C5" t="n">
-        <v>32.2546</v>
+        <v>35.1025</v>
       </c>
       <c r="D5" t="n">
-        <v>38.2703</v>
+        <v>43.1928</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.7261</v>
+        <v>24.7731</v>
       </c>
       <c r="C6" t="n">
-        <v>38.4994</v>
+        <v>37.8224</v>
       </c>
       <c r="D6" t="n">
-        <v>39.8589</v>
+        <v>43.6823</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.4751</v>
+        <v>29.8422</v>
       </c>
       <c r="C7" t="n">
-        <v>38.7351</v>
+        <v>43.8493</v>
       </c>
       <c r="D7" t="n">
-        <v>50.8456</v>
+        <v>50.7092</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1303</v>
+        <v>21.4931</v>
       </c>
       <c r="C8" t="n">
-        <v>37.9587</v>
+        <v>42.1367</v>
       </c>
       <c r="D8" t="n">
-        <v>46.8157</v>
+        <v>49.5544</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.398</v>
+        <v>24.8968</v>
       </c>
       <c r="C9" t="n">
-        <v>38.5656</v>
+        <v>44.8394</v>
       </c>
       <c r="D9" t="n">
-        <v>46.6492</v>
+        <v>50.8065</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.6598</v>
+        <v>27.3008</v>
       </c>
       <c r="C10" t="n">
-        <v>39.4433</v>
+        <v>48.9496</v>
       </c>
       <c r="D10" t="n">
-        <v>50.4897</v>
+        <v>56.0685</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.0004</v>
+        <v>25.1512</v>
       </c>
       <c r="C11" t="n">
-        <v>39.8655</v>
+        <v>48.5115</v>
       </c>
       <c r="D11" t="n">
-        <v>52.0191</v>
+        <v>60.6486</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8996</v>
+        <v>27.0639</v>
       </c>
       <c r="C12" t="n">
-        <v>43.1054</v>
+        <v>50.1447</v>
       </c>
       <c r="D12" t="n">
-        <v>53.8239</v>
+        <v>60.1664</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.4447</v>
+        <v>29.815</v>
       </c>
       <c r="C13" t="n">
-        <v>43.8444</v>
+        <v>50.3665</v>
       </c>
       <c r="D13" t="n">
-        <v>59.1668</v>
+        <v>59.8793</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.5928</v>
+        <v>23.893</v>
       </c>
       <c r="C14" t="n">
-        <v>44.4401</v>
+        <v>51.4065</v>
       </c>
       <c r="D14" t="n">
-        <v>54.8724</v>
+        <v>61.3443</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.7228</v>
+        <v>26.0482</v>
       </c>
       <c r="C15" t="n">
-        <v>46.554</v>
+        <v>50.6258</v>
       </c>
       <c r="D15" t="n">
-        <v>55.3035</v>
+        <v>62.6845</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.3064</v>
+        <v>27.7507</v>
       </c>
       <c r="C16" t="n">
-        <v>48.7753</v>
+        <v>51.1911</v>
       </c>
       <c r="D16" t="n">
-        <v>56.7384</v>
+        <v>62.6976</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.3585</v>
+        <v>26.3799</v>
       </c>
       <c r="C17" t="n">
-        <v>50.8425</v>
+        <v>50.6631</v>
       </c>
       <c r="D17" t="n">
-        <v>59.4751</v>
+        <v>67.07810000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3712</v>
+        <v>12.992</v>
       </c>
       <c r="C2" t="n">
-        <v>16.0494</v>
+        <v>19.5154</v>
       </c>
       <c r="D2" t="n">
-        <v>17.6194</v>
+        <v>22.4714</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.5061</v>
+        <v>22.8485</v>
       </c>
       <c r="C3" t="n">
-        <v>28.0824</v>
+        <v>31.0773</v>
       </c>
       <c r="D3" t="n">
-        <v>30.3445</v>
+        <v>33.9824</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.2178</v>
+        <v>32.0784</v>
       </c>
       <c r="C4" t="n">
-        <v>36.2823</v>
+        <v>35.7888</v>
       </c>
       <c r="D4" t="n">
-        <v>42.6543</v>
+        <v>45.0376</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.7336</v>
+        <v>26.6117</v>
       </c>
       <c r="C5" t="n">
-        <v>36.5378</v>
+        <v>36.9574</v>
       </c>
       <c r="D5" t="n">
-        <v>38.3815</v>
+        <v>50.9095</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3679</v>
+        <v>31.6001</v>
       </c>
       <c r="C6" t="n">
-        <v>38.5794</v>
+        <v>40.215</v>
       </c>
       <c r="D6" t="n">
-        <v>50.9091</v>
+        <v>50.5103</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.9957</v>
+        <v>37.6094</v>
       </c>
       <c r="C7" t="n">
-        <v>43.6445</v>
+        <v>43.9464</v>
       </c>
       <c r="D7" t="n">
-        <v>58.4492</v>
+        <v>50.6005</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.0834</v>
+        <v>34.1291</v>
       </c>
       <c r="C8" t="n">
-        <v>43.6689</v>
+        <v>47.9841</v>
       </c>
       <c r="D8" t="n">
-        <v>49.8324</v>
+        <v>50.9009</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.3107</v>
+        <v>34.0591</v>
       </c>
       <c r="C9" t="n">
-        <v>43.9739</v>
+        <v>51.4746</v>
       </c>
       <c r="D9" t="n">
-        <v>50.6965</v>
+        <v>57.5686</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.3605</v>
+        <v>34.4129</v>
       </c>
       <c r="C10" t="n">
-        <v>43.945</v>
+        <v>50.0275</v>
       </c>
       <c r="D10" t="n">
-        <v>51.4779</v>
+        <v>62.12</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.455</v>
+        <v>35.1966</v>
       </c>
       <c r="C11" t="n">
-        <v>47.0744</v>
+        <v>51.4226</v>
       </c>
       <c r="D11" t="n">
-        <v>56.4995</v>
+        <v>60.1856</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.5319</v>
+        <v>34.4699</v>
       </c>
       <c r="C12" t="n">
-        <v>50.5839</v>
+        <v>50.8881</v>
       </c>
       <c r="D12" t="n">
-        <v>60.5791</v>
+        <v>60.348</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.5514</v>
+        <v>35.1892</v>
       </c>
       <c r="C13" t="n">
-        <v>50.8475</v>
+        <v>50.2017</v>
       </c>
       <c r="D13" t="n">
-        <v>60.8408</v>
+        <v>60.8059</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.4657</v>
+        <v>34.7718</v>
       </c>
       <c r="C14" t="n">
-        <v>49.689</v>
+        <v>51.2203</v>
       </c>
       <c r="D14" t="n">
-        <v>60.6504</v>
+        <v>62.5736</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.0292</v>
+        <v>35.2595</v>
       </c>
       <c r="C15" t="n">
-        <v>50.5741</v>
+        <v>51.5109</v>
       </c>
       <c r="D15" t="n">
-        <v>60.5564</v>
+        <v>60.0094</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.2889</v>
+        <v>35.5967</v>
       </c>
       <c r="C16" t="n">
-        <v>50.3597</v>
+        <v>51.0172</v>
       </c>
       <c r="D16" t="n">
-        <v>60.4412</v>
+        <v>59.5541</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.1124</v>
+        <v>35.6455</v>
       </c>
       <c r="C17" t="n">
-        <v>50.7491</v>
+        <v>50.167</v>
       </c>
       <c r="D17" t="n">
-        <v>60.9094</v>
+        <v>57.4808</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.50691</v>
+        <v>4.7545</v>
       </c>
       <c r="C2" t="n">
-        <v>12.4015</v>
+        <v>15.0031</v>
       </c>
       <c r="D2" t="n">
-        <v>15.6105</v>
+        <v>19.5948</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.81382</v>
+        <v>9.283099999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>23.6868</v>
+        <v>28.4466</v>
       </c>
       <c r="D3" t="n">
-        <v>29.4647</v>
+        <v>36.6455</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.6952</v>
+        <v>13.3612</v>
       </c>
       <c r="C4" t="n">
-        <v>34.2842</v>
+        <v>40.4921</v>
       </c>
       <c r="D4" t="n">
-        <v>42.1029</v>
+        <v>51.7386</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0906</v>
+        <v>15.756</v>
       </c>
       <c r="C5" t="n">
-        <v>37.7742</v>
+        <v>43.4628</v>
       </c>
       <c r="D5" t="n">
-        <v>48.5503</v>
+        <v>57.3833</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3914</v>
+        <v>19.1383</v>
       </c>
       <c r="C6" t="n">
-        <v>45.9484</v>
+        <v>52.7531</v>
       </c>
       <c r="D6" t="n">
-        <v>57.9149</v>
+        <v>68.2627</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.447</v>
+        <v>22.3973</v>
       </c>
       <c r="C7" t="n">
-        <v>53.9314</v>
+        <v>61.6836</v>
       </c>
       <c r="D7" t="n">
-        <v>67.63039999999999</v>
+        <v>80.7246</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.1275</v>
+        <v>20.0149</v>
       </c>
       <c r="C8" t="n">
-        <v>49.4219</v>
+        <v>55.6448</v>
       </c>
       <c r="D8" t="n">
-        <v>62.3058</v>
+        <v>68.9485</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.4579</v>
+        <v>20.5568</v>
       </c>
       <c r="C9" t="n">
-        <v>50.2971</v>
+        <v>53.8618</v>
       </c>
       <c r="D9" t="n">
-        <v>61.5685</v>
+        <v>72.47410000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.2983</v>
+        <v>21.0609</v>
       </c>
       <c r="C10" t="n">
-        <v>47.7096</v>
+        <v>55.212</v>
       </c>
       <c r="D10" t="n">
-        <v>62.3513</v>
+        <v>73.98090000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.6466</v>
+        <v>21.1127</v>
       </c>
       <c r="C11" t="n">
-        <v>51.1058</v>
+        <v>57.5298</v>
       </c>
       <c r="D11" t="n">
-        <v>62.9702</v>
+        <v>74.6837</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.4646</v>
+        <v>21.0931</v>
       </c>
       <c r="C12" t="n">
-        <v>49.7992</v>
+        <v>57.9618</v>
       </c>
       <c r="D12" t="n">
-        <v>63.7927</v>
+        <v>75.4757</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3638</v>
+        <v>21.245</v>
       </c>
       <c r="C13" t="n">
-        <v>49.8902</v>
+        <v>60.5377</v>
       </c>
       <c r="D13" t="n">
-        <v>64.5214</v>
+        <v>75.5368</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.4179</v>
+        <v>21.2773</v>
       </c>
       <c r="C14" t="n">
-        <v>48.1891</v>
+        <v>59.7559</v>
       </c>
       <c r="D14" t="n">
-        <v>65.9093</v>
+        <v>74.81359999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.3721</v>
+        <v>21.4588</v>
       </c>
       <c r="C15" t="n">
-        <v>50.7431</v>
+        <v>58.7197</v>
       </c>
       <c r="D15" t="n">
-        <v>65.09910000000001</v>
+        <v>76.06189999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5933</v>
+        <v>21.1211</v>
       </c>
       <c r="C16" t="n">
-        <v>50.7613</v>
+        <v>59.6709</v>
       </c>
       <c r="D16" t="n">
-        <v>64.4567</v>
+        <v>75.6431</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.637</v>
+        <v>21.5835</v>
       </c>
       <c r="C17" t="n">
-        <v>51.3681</v>
+        <v>61.045</v>
       </c>
       <c r="D17" t="n">
-        <v>64.6033</v>
+        <v>75.8809</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.54134</v>
+        <v>4.7794</v>
       </c>
       <c r="C2" t="n">
-        <v>12.433</v>
+        <v>14.8832</v>
       </c>
       <c r="D2" t="n">
-        <v>15.5607</v>
+        <v>19.6758</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.919219999999999</v>
+        <v>9.357049999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>23.7755</v>
+        <v>28.1875</v>
       </c>
       <c r="D3" t="n">
-        <v>29.6992</v>
+        <v>37.0556</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.889</v>
+        <v>13.5566</v>
       </c>
       <c r="C4" t="n">
-        <v>34.5658</v>
+        <v>40.5952</v>
       </c>
       <c r="D4" t="n">
-        <v>42.6752</v>
+        <v>51.6003</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.3279</v>
+        <v>15.9264</v>
       </c>
       <c r="C5" t="n">
-        <v>37.4619</v>
+        <v>43.1226</v>
       </c>
       <c r="D5" t="n">
-        <v>49.3297</v>
+        <v>56.2538</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.724</v>
+        <v>19.4028</v>
       </c>
       <c r="C6" t="n">
-        <v>45.1142</v>
+        <v>51.572</v>
       </c>
       <c r="D6" t="n">
-        <v>58.2475</v>
+        <v>67.1571</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9193</v>
+        <v>22.8135</v>
       </c>
       <c r="C7" t="n">
-        <v>53.9407</v>
+        <v>60.1855</v>
       </c>
       <c r="D7" t="n">
-        <v>69.053</v>
+        <v>79.11969999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.7937</v>
+        <v>20.5568</v>
       </c>
       <c r="C8" t="n">
-        <v>49.4193</v>
+        <v>53.9481</v>
       </c>
       <c r="D8" t="n">
-        <v>62.555</v>
+        <v>69.5112</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.2032</v>
+        <v>21.0351</v>
       </c>
       <c r="C9" t="n">
-        <v>50.3096</v>
+        <v>54.6976</v>
       </c>
       <c r="D9" t="n">
-        <v>64.369</v>
+        <v>69.7567</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3862</v>
+        <v>21.2412</v>
       </c>
       <c r="C10" t="n">
-        <v>50.6831</v>
+        <v>53.1398</v>
       </c>
       <c r="D10" t="n">
-        <v>63.5677</v>
+        <v>70.5767</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.7343</v>
+        <v>21.3994</v>
       </c>
       <c r="C11" t="n">
-        <v>50.1641</v>
+        <v>56.7611</v>
       </c>
       <c r="D11" t="n">
-        <v>63.5362</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7404</v>
+        <v>21.5283</v>
       </c>
       <c r="C12" t="n">
-        <v>48.7313</v>
+        <v>53.8156</v>
       </c>
       <c r="D12" t="n">
-        <v>63.318</v>
+        <v>75.2593</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.7687</v>
+        <v>21.5224</v>
       </c>
       <c r="C13" t="n">
-        <v>50.6874</v>
+        <v>54.5594</v>
       </c>
       <c r="D13" t="n">
-        <v>62.7002</v>
+        <v>75.1632</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.7687</v>
+        <v>21.7198</v>
       </c>
       <c r="C14" t="n">
-        <v>49.7365</v>
+        <v>56.0857</v>
       </c>
       <c r="D14" t="n">
-        <v>63.266</v>
+        <v>73.521</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9188</v>
+        <v>21.5869</v>
       </c>
       <c r="C15" t="n">
-        <v>50.5726</v>
+        <v>58.3675</v>
       </c>
       <c r="D15" t="n">
-        <v>62.6163</v>
+        <v>74.2621</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.9516</v>
+        <v>21.5096</v>
       </c>
       <c r="C16" t="n">
-        <v>51.8029</v>
+        <v>57.3184</v>
       </c>
       <c r="D16" t="n">
-        <v>62.9559</v>
+        <v>75.0737</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1819</v>
+        <v>21.6632</v>
       </c>
       <c r="C17" t="n">
-        <v>51.4185</v>
+        <v>57.843</v>
       </c>
       <c r="D17" t="n">
-        <v>64.2281</v>
+        <v>74.4308</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.12154</v>
+        <v>8.88641</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2605</v>
+        <v>18.8299</v>
       </c>
       <c r="D2" t="n">
-        <v>17.3301</v>
+        <v>22.3166</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3841</v>
+        <v>17.0207</v>
       </c>
       <c r="C3" t="n">
-        <v>28.1118</v>
+        <v>34.652</v>
       </c>
       <c r="D3" t="n">
-        <v>32.4997</v>
+        <v>40.927</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.9281</v>
+        <v>24.5897</v>
       </c>
       <c r="C4" t="n">
-        <v>39.2535</v>
+        <v>49.2468</v>
       </c>
       <c r="D4" t="n">
-        <v>46.365</v>
+        <v>57.9294</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.8785</v>
+        <v>23.7928</v>
       </c>
       <c r="C5" t="n">
-        <v>41.1061</v>
+        <v>47.35</v>
       </c>
       <c r="D5" t="n">
-        <v>51.7472</v>
+        <v>60.2688</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.6257</v>
+        <v>28.1568</v>
       </c>
       <c r="C6" t="n">
-        <v>47.3549</v>
+        <v>55.2613</v>
       </c>
       <c r="D6" t="n">
-        <v>61.3189</v>
+        <v>71.3219</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.2842</v>
+        <v>34.3171</v>
       </c>
       <c r="C7" t="n">
-        <v>56.3786</v>
+        <v>62.1609</v>
       </c>
       <c r="D7" t="n">
-        <v>71.98390000000001</v>
+        <v>79.4105</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.5348</v>
+        <v>31.4224</v>
       </c>
       <c r="C8" t="n">
-        <v>52.0512</v>
+        <v>61.1404</v>
       </c>
       <c r="D8" t="n">
-        <v>65.384</v>
+        <v>78.10080000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.1908</v>
+        <v>31.4861</v>
       </c>
       <c r="C9" t="n">
-        <v>52.7451</v>
+        <v>61.0621</v>
       </c>
       <c r="D9" t="n">
-        <v>66.5146</v>
+        <v>79.6926</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.3332</v>
+        <v>32.242</v>
       </c>
       <c r="C10" t="n">
-        <v>53.2704</v>
+        <v>62.0263</v>
       </c>
       <c r="D10" t="n">
-        <v>66.419</v>
+        <v>79.5947</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.4737</v>
+        <v>32.9238</v>
       </c>
       <c r="C11" t="n">
-        <v>52.722</v>
+        <v>61.7893</v>
       </c>
       <c r="D11" t="n">
-        <v>65.6358</v>
+        <v>81.78740000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30.4153</v>
+        <v>32.3812</v>
       </c>
       <c r="C12" t="n">
-        <v>52.9179</v>
+        <v>62.1973</v>
       </c>
       <c r="D12" t="n">
-        <v>66.5051</v>
+        <v>81.70480000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.2018</v>
+        <v>32.5946</v>
       </c>
       <c r="C13" t="n">
-        <v>52.449</v>
+        <v>61.9959</v>
       </c>
       <c r="D13" t="n">
-        <v>68.02589999999999</v>
+        <v>81.64100000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.5631</v>
+        <v>32.7225</v>
       </c>
       <c r="C14" t="n">
-        <v>53.0134</v>
+        <v>60.5424</v>
       </c>
       <c r="D14" t="n">
-        <v>68.4812</v>
+        <v>81.17959999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.8641</v>
+        <v>33.2948</v>
       </c>
       <c r="C15" t="n">
-        <v>53.2863</v>
+        <v>61.8679</v>
       </c>
       <c r="D15" t="n">
-        <v>69.1431</v>
+        <v>81.3755</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>31.0219</v>
+        <v>33.0537</v>
       </c>
       <c r="C16" t="n">
-        <v>52.867</v>
+        <v>61.9978</v>
       </c>
       <c r="D16" t="n">
-        <v>67.6957</v>
+        <v>81.24160000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.2863</v>
+        <v>33.0374</v>
       </c>
       <c r="C17" t="n">
-        <v>53.087</v>
+        <v>61.7585</v>
       </c>
       <c r="D17" t="n">
-        <v>69.3984</v>
+        <v>81.3511</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3747</v>
+        <v>10.2227</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9138</v>
+        <v>12.7022</v>
       </c>
       <c r="D2" t="n">
-        <v>18.127</v>
+        <v>17.4356</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3572</v>
+        <v>18.8371</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3043</v>
+        <v>19.1477</v>
       </c>
       <c r="D3" t="n">
-        <v>28.9384</v>
+        <v>26.5451</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.8042</v>
+        <v>25.9337</v>
       </c>
       <c r="C4" t="n">
-        <v>23.9355</v>
+        <v>24.3149</v>
       </c>
       <c r="D4" t="n">
-        <v>35.1984</v>
+        <v>32.0202</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.3684</v>
+        <v>21.0362</v>
       </c>
       <c r="C5" t="n">
-        <v>26.6522</v>
+        <v>26.97</v>
       </c>
       <c r="D5" t="n">
-        <v>37.0612</v>
+        <v>34.2224</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.4348</v>
+        <v>24.2527</v>
       </c>
       <c r="C6" t="n">
-        <v>31.3232</v>
+        <v>31.2538</v>
       </c>
       <c r="D6" t="n">
-        <v>38.718</v>
+        <v>38.5292</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0456</v>
+        <v>29.0166</v>
       </c>
       <c r="C7" t="n">
-        <v>36.4553</v>
+        <v>36.4684</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7043</v>
+        <v>38.5826</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.0985</v>
+        <v>20.8885</v>
       </c>
       <c r="C8" t="n">
-        <v>34.325</v>
+        <v>33.7816</v>
       </c>
       <c r="D8" t="n">
-        <v>39.7274</v>
+        <v>40.0353</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.1455</v>
+        <v>23.6532</v>
       </c>
       <c r="C9" t="n">
-        <v>34.4679</v>
+        <v>34.0362</v>
       </c>
       <c r="D9" t="n">
-        <v>43.3101</v>
+        <v>42.0228</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.2513</v>
+        <v>26.3597</v>
       </c>
       <c r="C10" t="n">
-        <v>34.0617</v>
+        <v>34.4141</v>
       </c>
       <c r="D10" t="n">
-        <v>46.338</v>
+        <v>46.4081</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.1919</v>
+        <v>24.4149</v>
       </c>
       <c r="C11" t="n">
-        <v>34.4455</v>
+        <v>34.1475</v>
       </c>
       <c r="D11" t="n">
-        <v>48.4528</v>
+        <v>46.7743</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.3728</v>
+        <v>26.507</v>
       </c>
       <c r="C12" t="n">
-        <v>34.7979</v>
+        <v>34.9595</v>
       </c>
       <c r="D12" t="n">
-        <v>51.2082</v>
+        <v>50.7264</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.927</v>
+        <v>28.9837</v>
       </c>
       <c r="C13" t="n">
-        <v>35.018</v>
+        <v>35.2995</v>
       </c>
       <c r="D13" t="n">
-        <v>51.3362</v>
+        <v>49.7024</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1775</v>
+        <v>23.8085</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5085</v>
+        <v>34.8798</v>
       </c>
       <c r="D14" t="n">
-        <v>51.9386</v>
+        <v>52.0565</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.543</v>
+        <v>25.3489</v>
       </c>
       <c r="C15" t="n">
-        <v>34.9304</v>
+        <v>34.414</v>
       </c>
       <c r="D15" t="n">
-        <v>52.0904</v>
+        <v>51.7562</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.8394</v>
+        <v>27.0649</v>
       </c>
       <c r="C16" t="n">
-        <v>34.8776</v>
+        <v>35.116</v>
       </c>
       <c r="D16" t="n">
-        <v>52.0947</v>
+        <v>50.8664</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.583</v>
+        <v>25.6982</v>
       </c>
       <c r="C17" t="n">
-        <v>34.8513</v>
+        <v>34.6872</v>
       </c>
       <c r="D17" t="n">
-        <v>51.1492</v>
+        <v>51.5232</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.6848</v>
+        <v>10.6759</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9327</v>
+        <v>12.7875</v>
       </c>
       <c r="D2" t="n">
-        <v>17.946</v>
+        <v>17.3054</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.1047</v>
+        <v>19.9901</v>
       </c>
       <c r="C3" t="n">
-        <v>20.4022</v>
+        <v>19.3241</v>
       </c>
       <c r="D3" t="n">
-        <v>28.1315</v>
+        <v>26.9655</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.3517</v>
+        <v>26.3887</v>
       </c>
       <c r="C4" t="n">
-        <v>23.9125</v>
+        <v>23.968</v>
       </c>
       <c r="D4" t="n">
-        <v>35.2922</v>
+        <v>33.1372</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.8216</v>
+        <v>20.572</v>
       </c>
       <c r="C5" t="n">
-        <v>26.7243</v>
+        <v>26.7341</v>
       </c>
       <c r="D5" t="n">
-        <v>35.7531</v>
+        <v>34.8449</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.8949</v>
+        <v>24.821</v>
       </c>
       <c r="C6" t="n">
-        <v>31.0909</v>
+        <v>31.2619</v>
       </c>
       <c r="D6" t="n">
-        <v>36.9292</v>
+        <v>38.4772</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9125</v>
+        <v>29.8828</v>
       </c>
       <c r="C7" t="n">
-        <v>36.434</v>
+        <v>36.3278</v>
       </c>
       <c r="D7" t="n">
-        <v>42.2268</v>
+        <v>41.6359</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.7859</v>
+        <v>21.6444</v>
       </c>
       <c r="C8" t="n">
-        <v>33.3065</v>
+        <v>33.9662</v>
       </c>
       <c r="D8" t="n">
-        <v>41.8939</v>
+        <v>42.6662</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.0106</v>
+        <v>24.5465</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6803</v>
+        <v>33.2023</v>
       </c>
       <c r="D9" t="n">
-        <v>43.4244</v>
+        <v>44.2052</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.1237</v>
+        <v>27.5863</v>
       </c>
       <c r="C10" t="n">
-        <v>33.913</v>
+        <v>33.7156</v>
       </c>
       <c r="D10" t="n">
-        <v>48.6614</v>
+        <v>46.437</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8681</v>
+        <v>25.053</v>
       </c>
       <c r="C11" t="n">
-        <v>34.3054</v>
+        <v>34.2562</v>
       </c>
       <c r="D11" t="n">
-        <v>51.2371</v>
+        <v>46.4508</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1451</v>
+        <v>27.0623</v>
       </c>
       <c r="C12" t="n">
-        <v>34.8379</v>
+        <v>34.9362</v>
       </c>
       <c r="D12" t="n">
-        <v>49.9596</v>
+        <v>49.8572</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8993</v>
+        <v>29.884</v>
       </c>
       <c r="C13" t="n">
-        <v>34.9476</v>
+        <v>34.9485</v>
       </c>
       <c r="D13" t="n">
-        <v>51.9662</v>
+        <v>50.7679</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1835</v>
+        <v>24.3023</v>
       </c>
       <c r="C14" t="n">
-        <v>35.2972</v>
+        <v>35.3344</v>
       </c>
       <c r="D14" t="n">
-        <v>50.515</v>
+        <v>49.8704</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.26</v>
+        <v>26.3923</v>
       </c>
       <c r="C15" t="n">
-        <v>35.6223</v>
+        <v>35.3318</v>
       </c>
       <c r="D15" t="n">
-        <v>50.9821</v>
+        <v>49.9173</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.7812</v>
+        <v>27.9554</v>
       </c>
       <c r="C16" t="n">
-        <v>35.3537</v>
+        <v>35.3022</v>
       </c>
       <c r="D16" t="n">
-        <v>50.9783</v>
+        <v>51.626</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.2295</v>
+        <v>26.1384</v>
       </c>
       <c r="C17" t="n">
-        <v>35.4886</v>
+        <v>35.7141</v>
       </c>
       <c r="D17" t="n">
-        <v>51.2703</v>
+        <v>51.9223</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0025</v>
+        <v>12.9767</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0454</v>
+        <v>13.9037</v>
       </c>
       <c r="D2" t="n">
-        <v>19.7605</v>
+        <v>19.0393</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.2941</v>
+        <v>22.9702</v>
       </c>
       <c r="C3" t="n">
-        <v>23.6353</v>
+        <v>23.1049</v>
       </c>
       <c r="D3" t="n">
-        <v>31.0266</v>
+        <v>30.4329</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.7625</v>
+        <v>31.7528</v>
       </c>
       <c r="C4" t="n">
-        <v>29.6902</v>
+        <v>29.6781</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3966</v>
+        <v>35.5229</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.7902</v>
+        <v>26.5242</v>
       </c>
       <c r="C5" t="n">
-        <v>29.0182</v>
+        <v>28.6014</v>
       </c>
       <c r="D5" t="n">
-        <v>37.6939</v>
+        <v>36.0642</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.872</v>
+        <v>31.7042</v>
       </c>
       <c r="C6" t="n">
-        <v>32.778</v>
+        <v>32.9623</v>
       </c>
       <c r="D6" t="n">
-        <v>43.7076</v>
+        <v>38.5561</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.6669</v>
+        <v>37.6557</v>
       </c>
       <c r="C7" t="n">
-        <v>38.2186</v>
+        <v>38.1939</v>
       </c>
       <c r="D7" t="n">
-        <v>44.8174</v>
+        <v>44.1521</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.7029</v>
+        <v>33.9514</v>
       </c>
       <c r="C8" t="n">
-        <v>34.3952</v>
+        <v>34.6403</v>
       </c>
       <c r="D8" t="n">
-        <v>49.0155</v>
+        <v>48.6536</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3587</v>
+        <v>34.447</v>
       </c>
       <c r="C9" t="n">
-        <v>34.5368</v>
+        <v>34.1701</v>
       </c>
       <c r="D9" t="n">
-        <v>50.026</v>
+        <v>48.6088</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.0904</v>
+        <v>34.2785</v>
       </c>
       <c r="C10" t="n">
-        <v>34.3419</v>
+        <v>34.7162</v>
       </c>
       <c r="D10" t="n">
-        <v>48.8978</v>
+        <v>50.8543</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.4429</v>
+        <v>34.5535</v>
       </c>
       <c r="C11" t="n">
-        <v>34.7539</v>
+        <v>35.3662</v>
       </c>
       <c r="D11" t="n">
-        <v>51.5799</v>
+        <v>50.802</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.9157</v>
+        <v>34.7582</v>
       </c>
       <c r="C12" t="n">
-        <v>35.1497</v>
+        <v>35.4993</v>
       </c>
       <c r="D12" t="n">
-        <v>51.4856</v>
+        <v>51.0069</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.3094</v>
+        <v>35.3124</v>
       </c>
       <c r="C13" t="n">
-        <v>35.8474</v>
+        <v>35.7327</v>
       </c>
       <c r="D13" t="n">
-        <v>51.9401</v>
+        <v>51.4995</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.3355</v>
+        <v>35.5035</v>
       </c>
       <c r="C14" t="n">
-        <v>35.9253</v>
+        <v>35.7458</v>
       </c>
       <c r="D14" t="n">
-        <v>52.1228</v>
+        <v>51.3399</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.5891</v>
+        <v>35.6073</v>
       </c>
       <c r="C15" t="n">
-        <v>36.1861</v>
+        <v>35.8123</v>
       </c>
       <c r="D15" t="n">
-        <v>50.4738</v>
+        <v>51.1808</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.6682</v>
+        <v>35.2387</v>
       </c>
       <c r="C16" t="n">
-        <v>36.4805</v>
+        <v>35.9448</v>
       </c>
       <c r="D16" t="n">
-        <v>51.1163</v>
+        <v>51.1003</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.7883</v>
+        <v>35.7503</v>
       </c>
       <c r="C17" t="n">
-        <v>36.2906</v>
+        <v>36.1134</v>
       </c>
       <c r="D17" t="n">
-        <v>50.1981</v>
+        <v>51.1833</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77717</v>
+        <v>4.75733</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9189</v>
+        <v>10.8305</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0465</v>
+        <v>14.6294</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.327870000000001</v>
+        <v>9.274509999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9682</v>
+        <v>18.7847</v>
       </c>
       <c r="D3" t="n">
-        <v>28.7702</v>
+        <v>27.8059</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4621</v>
+        <v>13.3605</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1196</v>
+        <v>25.4812</v>
       </c>
       <c r="D4" t="n">
-        <v>40.7979</v>
+        <v>39.0301</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8633</v>
+        <v>15.8325</v>
       </c>
       <c r="C5" t="n">
-        <v>26.2491</v>
+        <v>26.3109</v>
       </c>
       <c r="D5" t="n">
-        <v>44.5411</v>
+        <v>43.6579</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1702</v>
+        <v>19.1344</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9246</v>
+        <v>29.8477</v>
       </c>
       <c r="D6" t="n">
-        <v>53.2735</v>
+        <v>51.4681</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.422</v>
+        <v>22.4208</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0596</v>
+        <v>34.9698</v>
       </c>
       <c r="D7" t="n">
-        <v>62.7217</v>
+        <v>61.2763</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3019</v>
+        <v>20.1794</v>
       </c>
       <c r="C8" t="n">
-        <v>33.4798</v>
+        <v>33.7638</v>
       </c>
       <c r="D8" t="n">
-        <v>55.5784</v>
+        <v>56.0428</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.4255</v>
+        <v>20.3405</v>
       </c>
       <c r="C9" t="n">
-        <v>33.3847</v>
+        <v>33.8924</v>
       </c>
       <c r="D9" t="n">
-        <v>54.7322</v>
+        <v>52.8199</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8096</v>
+        <v>21.3197</v>
       </c>
       <c r="C10" t="n">
-        <v>33.7661</v>
+        <v>33.8856</v>
       </c>
       <c r="D10" t="n">
-        <v>58.0257</v>
+        <v>55.5151</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1104</v>
+        <v>21.3766</v>
       </c>
       <c r="C11" t="n">
-        <v>33.5501</v>
+        <v>33.6848</v>
       </c>
       <c r="D11" t="n">
-        <v>56.2036</v>
+        <v>57.6934</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9975</v>
+        <v>21.1451</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9313</v>
+        <v>33.7375</v>
       </c>
       <c r="D12" t="n">
-        <v>58.5992</v>
+        <v>55.3965</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1029</v>
+        <v>21.7132</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2762</v>
+        <v>34.3326</v>
       </c>
       <c r="D13" t="n">
-        <v>57.9203</v>
+        <v>58.1706</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.382</v>
+        <v>21.1089</v>
       </c>
       <c r="C14" t="n">
-        <v>34.0439</v>
+        <v>34.3361</v>
       </c>
       <c r="D14" t="n">
-        <v>58.6385</v>
+        <v>57.8611</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2896</v>
+        <v>21.2236</v>
       </c>
       <c r="C15" t="n">
-        <v>34.3668</v>
+        <v>34.0596</v>
       </c>
       <c r="D15" t="n">
-        <v>60.5055</v>
+        <v>57.7542</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2207</v>
+        <v>21.5407</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4917</v>
+        <v>34.4963</v>
       </c>
       <c r="D16" t="n">
-        <v>59.7491</v>
+        <v>56.9041</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.495</v>
+        <v>21.2608</v>
       </c>
       <c r="C17" t="n">
-        <v>34.3089</v>
+        <v>34.2918</v>
       </c>
       <c r="D17" t="n">
-        <v>60.1866</v>
+        <v>58.1278</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.78531</v>
+        <v>4.77631</v>
       </c>
       <c r="C2" t="n">
-        <v>10.994</v>
+        <v>10.9312</v>
       </c>
       <c r="D2" t="n">
-        <v>14.9212</v>
+        <v>14.4752</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.39217</v>
+        <v>9.321960000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0411</v>
+        <v>18.8137</v>
       </c>
       <c r="D3" t="n">
-        <v>28.3836</v>
+        <v>27.1601</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5106</v>
+        <v>13.3854</v>
       </c>
       <c r="C4" t="n">
-        <v>25.5798</v>
+        <v>25.3726</v>
       </c>
       <c r="D4" t="n">
-        <v>39.4686</v>
+        <v>38.2994</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9286</v>
+        <v>16.0835</v>
       </c>
       <c r="C5" t="n">
-        <v>26.4614</v>
+        <v>26.378</v>
       </c>
       <c r="D5" t="n">
-        <v>42.0872</v>
+        <v>42.1697</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4441</v>
+        <v>19.4012</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9888</v>
+        <v>30.1139</v>
       </c>
       <c r="D6" t="n">
-        <v>52.0606</v>
+        <v>50.3065</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8383</v>
+        <v>22.8135</v>
       </c>
       <c r="C7" t="n">
-        <v>35.135</v>
+        <v>35.0439</v>
       </c>
       <c r="D7" t="n">
-        <v>60.9878</v>
+        <v>59.9694</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5139</v>
+        <v>20.4204</v>
       </c>
       <c r="C8" t="n">
-        <v>33.7615</v>
+        <v>33.4852</v>
       </c>
       <c r="D8" t="n">
-        <v>54.1168</v>
+        <v>52.9195</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9039</v>
+        <v>21.1464</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0159</v>
+        <v>33.8205</v>
       </c>
       <c r="D9" t="n">
-        <v>52.9744</v>
+        <v>51.63</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2713</v>
+        <v>21.5958</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9798</v>
+        <v>34.0376</v>
       </c>
       <c r="D10" t="n">
-        <v>53.4625</v>
+        <v>53.4938</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6401</v>
+        <v>21.4909</v>
       </c>
       <c r="C11" t="n">
-        <v>33.7893</v>
+        <v>33.952</v>
       </c>
       <c r="D11" t="n">
-        <v>54.7316</v>
+        <v>54.8137</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.5748</v>
+        <v>21.4286</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9919</v>
+        <v>34.116</v>
       </c>
       <c r="D12" t="n">
-        <v>57.2104</v>
+        <v>54.1709</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.7902</v>
+        <v>21.6987</v>
       </c>
       <c r="C13" t="n">
-        <v>34.6301</v>
+        <v>34.4444</v>
       </c>
       <c r="D13" t="n">
-        <v>56.823</v>
+        <v>55.0971</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.4217</v>
+        <v>21.6022</v>
       </c>
       <c r="C14" t="n">
-        <v>34.3608</v>
+        <v>34.2647</v>
       </c>
       <c r="D14" t="n">
-        <v>57.8808</v>
+        <v>55.9502</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.74</v>
+        <v>21.7568</v>
       </c>
       <c r="C15" t="n">
-        <v>34.1683</v>
+        <v>34.3974</v>
       </c>
       <c r="D15" t="n">
-        <v>57.0933</v>
+        <v>55.2005</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.8985</v>
+        <v>21.4532</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5562</v>
+        <v>34.2572</v>
       </c>
       <c r="D16" t="n">
-        <v>57.5053</v>
+        <v>54.9947</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.4247</v>
+        <v>21.2239</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7803</v>
+        <v>34.6205</v>
       </c>
       <c r="D17" t="n">
-        <v>58.3302</v>
+        <v>57.1535</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.89866</v>
+        <v>8.77941</v>
       </c>
       <c r="C2" t="n">
-        <v>13.562</v>
+        <v>13.3311</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0679</v>
+        <v>18.3105</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0902</v>
+        <v>16.8346</v>
       </c>
       <c r="C3" t="n">
-        <v>22.8153</v>
+        <v>22.2946</v>
       </c>
       <c r="D3" t="n">
-        <v>34.7079</v>
+        <v>33.6124</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.729</v>
+        <v>24.0426</v>
       </c>
       <c r="C4" t="n">
-        <v>30.0845</v>
+        <v>29.3601</v>
       </c>
       <c r="D4" t="n">
-        <v>49.7259</v>
+        <v>47.1643</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.9536</v>
+        <v>24.4098</v>
       </c>
       <c r="C5" t="n">
-        <v>29.488</v>
+        <v>29.2625</v>
       </c>
       <c r="D5" t="n">
-        <v>48.3901</v>
+        <v>47.4803</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2794</v>
+        <v>28.3164</v>
       </c>
       <c r="C6" t="n">
-        <v>32.501</v>
+        <v>32.4307</v>
       </c>
       <c r="D6" t="n">
-        <v>55.5042</v>
+        <v>53.7132</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3919</v>
+        <v>34.224</v>
       </c>
       <c r="C7" t="n">
-        <v>37.4716</v>
+        <v>37.4398</v>
       </c>
       <c r="D7" t="n">
-        <v>62.294</v>
+        <v>62.1217</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.6003</v>
+        <v>31.3416</v>
       </c>
       <c r="C8" t="n">
-        <v>36.5081</v>
+        <v>36.4807</v>
       </c>
       <c r="D8" t="n">
-        <v>60.3902</v>
+        <v>58.8802</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.9974</v>
+        <v>32.299</v>
       </c>
       <c r="C9" t="n">
-        <v>36.2917</v>
+        <v>36.5086</v>
       </c>
       <c r="D9" t="n">
-        <v>61.0703</v>
+        <v>61.6902</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.1198</v>
+        <v>32.3893</v>
       </c>
       <c r="C10" t="n">
-        <v>36.7296</v>
+        <v>36.637</v>
       </c>
       <c r="D10" t="n">
-        <v>62.1324</v>
+        <v>61.8057</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.4942</v>
+        <v>33.0297</v>
       </c>
       <c r="C11" t="n">
-        <v>36.532</v>
+        <v>36.4134</v>
       </c>
       <c r="D11" t="n">
-        <v>61.9252</v>
+        <v>61.6753</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.1068</v>
+        <v>32.2397</v>
       </c>
       <c r="C12" t="n">
-        <v>36.5002</v>
+        <v>36.8337</v>
       </c>
       <c r="D12" t="n">
-        <v>62.0068</v>
+        <v>61.2859</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.3352</v>
+        <v>32.989</v>
       </c>
       <c r="C13" t="n">
-        <v>36.948</v>
+        <v>36.9246</v>
       </c>
       <c r="D13" t="n">
-        <v>61.9866</v>
+        <v>62.1635</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.5502</v>
+        <v>32.0949</v>
       </c>
       <c r="C14" t="n">
-        <v>37.1123</v>
+        <v>37.039</v>
       </c>
       <c r="D14" t="n">
-        <v>62.5933</v>
+        <v>60.7057</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.8023</v>
+        <v>32.7124</v>
       </c>
       <c r="C15" t="n">
-        <v>36.5568</v>
+        <v>36.555</v>
       </c>
       <c r="D15" t="n">
-        <v>63.1279</v>
+        <v>61.2572</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.9207</v>
+        <v>32.8375</v>
       </c>
       <c r="C16" t="n">
-        <v>36.7056</v>
+        <v>36.6498</v>
       </c>
       <c r="D16" t="n">
-        <v>62.9776</v>
+        <v>61.9885</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.9732</v>
+        <v>32.5562</v>
       </c>
       <c r="C17" t="n">
-        <v>36.8027</v>
+        <v>36.9403</v>
       </c>
       <c r="D17" t="n">
-        <v>62.9494</v>
+        <v>61.4495</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3007</v>
+        <v>10.3545</v>
       </c>
       <c r="C2" t="n">
-        <v>17.999</v>
+        <v>17.4332</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3107</v>
+        <v>21.245</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3098</v>
+        <v>19.4584</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4099</v>
+        <v>26.8708</v>
       </c>
       <c r="D3" t="n">
-        <v>32.4947</v>
+        <v>32.0529</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.107</v>
+        <v>26.9161</v>
       </c>
       <c r="C4" t="n">
-        <v>33.741</v>
+        <v>32.116</v>
       </c>
       <c r="D4" t="n">
-        <v>42.4358</v>
+        <v>42.5399</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.5775</v>
+        <v>20.5722</v>
       </c>
       <c r="C5" t="n">
-        <v>36.6749</v>
+        <v>34.9961</v>
       </c>
       <c r="D5" t="n">
-        <v>43.9847</v>
+        <v>43.6409</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.4322</v>
+        <v>24.3306</v>
       </c>
       <c r="C6" t="n">
-        <v>38.7983</v>
+        <v>38.6169</v>
       </c>
       <c r="D6" t="n">
-        <v>43.7446</v>
+        <v>43.6497</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9921</v>
+        <v>29.057</v>
       </c>
       <c r="C7" t="n">
-        <v>43.8319</v>
+        <v>41.7792</v>
       </c>
       <c r="D7" t="n">
-        <v>50.9372</v>
+        <v>50.8616</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.9249</v>
+        <v>21.1065</v>
       </c>
       <c r="C8" t="n">
-        <v>40.9966</v>
+        <v>38.351</v>
       </c>
       <c r="D8" t="n">
-        <v>47.2966</v>
+        <v>48.0539</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6054</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>45.7545</v>
+        <v>45.6718</v>
       </c>
       <c r="D9" t="n">
-        <v>50.2751</v>
+        <v>50.8978</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.0611</v>
+        <v>26.5508</v>
       </c>
       <c r="C10" t="n">
-        <v>46.4772</v>
+        <v>47.8462</v>
       </c>
       <c r="D10" t="n">
-        <v>50.8757</v>
+        <v>54.651</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4168</v>
+        <v>24.3809</v>
       </c>
       <c r="C11" t="n">
-        <v>49.7955</v>
+        <v>49.6052</v>
       </c>
       <c r="D11" t="n">
-        <v>59.6947</v>
+        <v>57.7956</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.5231</v>
+        <v>26.3989</v>
       </c>
       <c r="C12" t="n">
-        <v>51.1013</v>
+        <v>50.4033</v>
       </c>
       <c r="D12" t="n">
-        <v>60.2876</v>
+        <v>59.0695</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.9384</v>
+        <v>29.0178</v>
       </c>
       <c r="C13" t="n">
-        <v>50.6258</v>
+        <v>49.6908</v>
       </c>
       <c r="D13" t="n">
-        <v>63.2199</v>
+        <v>60.2326</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.7167</v>
+        <v>23.823</v>
       </c>
       <c r="C14" t="n">
-        <v>52.0082</v>
+        <v>51.7285</v>
       </c>
       <c r="D14" t="n">
-        <v>62.3884</v>
+        <v>60.8484</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.3427</v>
+        <v>25.4086</v>
       </c>
       <c r="C15" t="n">
-        <v>50.9368</v>
+        <v>51.0439</v>
       </c>
       <c r="D15" t="n">
-        <v>60.9701</v>
+        <v>61.4834</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.8467</v>
+        <v>26.9022</v>
       </c>
       <c r="C16" t="n">
-        <v>50.7925</v>
+        <v>52.155</v>
       </c>
       <c r="D16" t="n">
-        <v>60.9268</v>
+        <v>63.5987</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.9061</v>
+        <v>25.7359</v>
       </c>
       <c r="C17" t="n">
-        <v>51.6898</v>
+        <v>51.4113</v>
       </c>
       <c r="D17" t="n">
-        <v>66.1636</v>
+        <v>61.894</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.6643</v>
+        <v>10.7122</v>
       </c>
       <c r="C2" t="n">
-        <v>17.8227</v>
+        <v>17.3016</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1375</v>
+        <v>21.1221</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0994</v>
+        <v>20.1653</v>
       </c>
       <c r="C3" t="n">
-        <v>26.7977</v>
+        <v>27.8741</v>
       </c>
       <c r="D3" t="n">
-        <v>31.28</v>
+        <v>29.8618</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.5476</v>
+        <v>27.5166</v>
       </c>
       <c r="C4" t="n">
-        <v>34.708</v>
+        <v>33.8231</v>
       </c>
       <c r="D4" t="n">
-        <v>36.6047</v>
+        <v>38.5601</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.6777</v>
+        <v>20.9815</v>
       </c>
       <c r="C5" t="n">
-        <v>35.1025</v>
+        <v>35.4615</v>
       </c>
       <c r="D5" t="n">
-        <v>43.1928</v>
+        <v>41.884</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.7731</v>
+        <v>25.0127</v>
       </c>
       <c r="C6" t="n">
-        <v>37.8224</v>
+        <v>37.4314</v>
       </c>
       <c r="D6" t="n">
-        <v>43.6823</v>
+        <v>44.1218</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.8422</v>
+        <v>29.9708</v>
       </c>
       <c r="C7" t="n">
-        <v>43.8493</v>
+        <v>42.8494</v>
       </c>
       <c r="D7" t="n">
-        <v>50.7092</v>
+        <v>50.2888</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.4931</v>
+        <v>21.571</v>
       </c>
       <c r="C8" t="n">
-        <v>42.1367</v>
+        <v>41.7913</v>
       </c>
       <c r="D8" t="n">
-        <v>49.5544</v>
+        <v>47.5151</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.8968</v>
+        <v>25.154</v>
       </c>
       <c r="C9" t="n">
-        <v>44.8394</v>
+        <v>44.791</v>
       </c>
       <c r="D9" t="n">
-        <v>50.8065</v>
+        <v>50.888</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.3008</v>
+        <v>27.5223</v>
       </c>
       <c r="C10" t="n">
-        <v>48.9496</v>
+        <v>46.8975</v>
       </c>
       <c r="D10" t="n">
-        <v>56.0685</v>
+        <v>54.5294</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1512</v>
+        <v>24.887</v>
       </c>
       <c r="C11" t="n">
-        <v>48.5115</v>
+        <v>49.9405</v>
       </c>
       <c r="D11" t="n">
-        <v>60.6486</v>
+        <v>59.3055</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.0639</v>
+        <v>27.1083</v>
       </c>
       <c r="C12" t="n">
-        <v>50.1447</v>
+        <v>50.487</v>
       </c>
       <c r="D12" t="n">
-        <v>60.1664</v>
+        <v>59.515</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.815</v>
+        <v>29.9036</v>
       </c>
       <c r="C13" t="n">
-        <v>50.3665</v>
+        <v>50.8033</v>
       </c>
       <c r="D13" t="n">
-        <v>59.8793</v>
+        <v>61.1791</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.893</v>
+        <v>24.1711</v>
       </c>
       <c r="C14" t="n">
-        <v>51.4065</v>
+        <v>50.6736</v>
       </c>
       <c r="D14" t="n">
-        <v>61.3443</v>
+        <v>60.4161</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.0482</v>
+        <v>26.4203</v>
       </c>
       <c r="C15" t="n">
-        <v>50.6258</v>
+        <v>51.2299</v>
       </c>
       <c r="D15" t="n">
-        <v>62.6845</v>
+        <v>65.4798</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.7507</v>
+        <v>27.8844</v>
       </c>
       <c r="C16" t="n">
-        <v>51.1911</v>
+        <v>50.9871</v>
       </c>
       <c r="D16" t="n">
-        <v>62.6976</v>
+        <v>65.60590000000001</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.3799</v>
+        <v>26.4855</v>
       </c>
       <c r="C17" t="n">
-        <v>50.6631</v>
+        <v>51.4858</v>
       </c>
       <c r="D17" t="n">
-        <v>67.07810000000001</v>
+        <v>66.32980000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.992</v>
+        <v>12.9979</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5154</v>
+        <v>19.0821</v>
       </c>
       <c r="D2" t="n">
-        <v>22.4714</v>
+        <v>22.4938</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>22.8485</v>
+        <v>23.1554</v>
       </c>
       <c r="C3" t="n">
-        <v>31.0773</v>
+        <v>30.8951</v>
       </c>
       <c r="D3" t="n">
-        <v>33.9824</v>
+        <v>34.4605</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0784</v>
+        <v>32.1131</v>
       </c>
       <c r="C4" t="n">
-        <v>35.7888</v>
+        <v>35.5363</v>
       </c>
       <c r="D4" t="n">
-        <v>45.0376</v>
+        <v>42.4068</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.6117</v>
+        <v>26.7244</v>
       </c>
       <c r="C5" t="n">
-        <v>36.9574</v>
+        <v>37.5401</v>
       </c>
       <c r="D5" t="n">
-        <v>50.9095</v>
+        <v>50.3701</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6001</v>
+        <v>31.6589</v>
       </c>
       <c r="C6" t="n">
-        <v>40.215</v>
+        <v>41.9128</v>
       </c>
       <c r="D6" t="n">
-        <v>50.5103</v>
+        <v>50.6233</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.6094</v>
+        <v>37.5404</v>
       </c>
       <c r="C7" t="n">
-        <v>43.9464</v>
+        <v>49.6817</v>
       </c>
       <c r="D7" t="n">
-        <v>50.6005</v>
+        <v>50.8182</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.1291</v>
+        <v>33.4841</v>
       </c>
       <c r="C8" t="n">
-        <v>47.9841</v>
+        <v>47.2253</v>
       </c>
       <c r="D8" t="n">
-        <v>50.9009</v>
+        <v>50.7755</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.0591</v>
+        <v>34.3481</v>
       </c>
       <c r="C9" t="n">
-        <v>51.4746</v>
+        <v>50.2726</v>
       </c>
       <c r="D9" t="n">
-        <v>57.5686</v>
+        <v>60.1043</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.4129</v>
+        <v>34.4829</v>
       </c>
       <c r="C10" t="n">
-        <v>50.0275</v>
+        <v>49.1692</v>
       </c>
       <c r="D10" t="n">
-        <v>62.12</v>
+        <v>60.6816</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.1966</v>
+        <v>35.1093</v>
       </c>
       <c r="C11" t="n">
-        <v>51.4226</v>
+        <v>50.8685</v>
       </c>
       <c r="D11" t="n">
-        <v>60.1856</v>
+        <v>60.9809</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.4699</v>
+        <v>35.4049</v>
       </c>
       <c r="C12" t="n">
-        <v>50.8881</v>
+        <v>50.5603</v>
       </c>
       <c r="D12" t="n">
-        <v>60.348</v>
+        <v>60.6348</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.1892</v>
+        <v>34.974</v>
       </c>
       <c r="C13" t="n">
-        <v>50.2017</v>
+        <v>50.8311</v>
       </c>
       <c r="D13" t="n">
-        <v>60.8059</v>
+        <v>60.5822</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.7718</v>
+        <v>35.1457</v>
       </c>
       <c r="C14" t="n">
-        <v>51.2203</v>
+        <v>50.0231</v>
       </c>
       <c r="D14" t="n">
-        <v>62.5736</v>
+        <v>60.7523</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.2595</v>
+        <v>35.5522</v>
       </c>
       <c r="C15" t="n">
-        <v>51.5109</v>
+        <v>50.7357</v>
       </c>
       <c r="D15" t="n">
-        <v>60.0094</v>
+        <v>59.498</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.5967</v>
+        <v>35.5756</v>
       </c>
       <c r="C16" t="n">
-        <v>51.0172</v>
+        <v>51.1925</v>
       </c>
       <c r="D16" t="n">
-        <v>59.5541</v>
+        <v>60.4022</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.6455</v>
+        <v>35.9068</v>
       </c>
       <c r="C17" t="n">
-        <v>50.167</v>
+        <v>51.2189</v>
       </c>
       <c r="D17" t="n">
-        <v>57.4808</v>
+        <v>60.4863</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.7545</v>
+        <v>4.78238</v>
       </c>
       <c r="C2" t="n">
-        <v>15.0031</v>
+        <v>14.6764</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5948</v>
+        <v>19.6941</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.283099999999999</v>
+        <v>9.35098</v>
       </c>
       <c r="C3" t="n">
-        <v>28.4466</v>
+        <v>28.1163</v>
       </c>
       <c r="D3" t="n">
-        <v>36.6455</v>
+        <v>36.7372</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3612</v>
+        <v>13.4304</v>
       </c>
       <c r="C4" t="n">
-        <v>40.4921</v>
+        <v>39.824</v>
       </c>
       <c r="D4" t="n">
-        <v>51.7386</v>
+        <v>51.3444</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.756</v>
+        <v>15.8898</v>
       </c>
       <c r="C5" t="n">
-        <v>43.4628</v>
+        <v>44.2153</v>
       </c>
       <c r="D5" t="n">
-        <v>57.3833</v>
+        <v>57.3212</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1383</v>
+        <v>19.2427</v>
       </c>
       <c r="C6" t="n">
-        <v>52.7531</v>
+        <v>53.454</v>
       </c>
       <c r="D6" t="n">
-        <v>68.2627</v>
+        <v>68.4507</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.3973</v>
+        <v>22.467</v>
       </c>
       <c r="C7" t="n">
-        <v>61.6836</v>
+        <v>62.3221</v>
       </c>
       <c r="D7" t="n">
-        <v>80.7246</v>
+        <v>81.0245</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0149</v>
+        <v>20.0677</v>
       </c>
       <c r="C8" t="n">
-        <v>55.6448</v>
+        <v>55.0538</v>
       </c>
       <c r="D8" t="n">
-        <v>68.9485</v>
+        <v>69.56019999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5568</v>
+        <v>20.1925</v>
       </c>
       <c r="C9" t="n">
-        <v>53.8618</v>
+        <v>54.973</v>
       </c>
       <c r="D9" t="n">
-        <v>72.47410000000001</v>
+        <v>73.2578</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.0609</v>
+        <v>21.012</v>
       </c>
       <c r="C10" t="n">
-        <v>55.212</v>
+        <v>54.1574</v>
       </c>
       <c r="D10" t="n">
-        <v>73.98090000000001</v>
+        <v>72.6588</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1127</v>
+        <v>21.3133</v>
       </c>
       <c r="C11" t="n">
-        <v>57.5298</v>
+        <v>57.41</v>
       </c>
       <c r="D11" t="n">
-        <v>74.6837</v>
+        <v>75.328</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.0931</v>
+        <v>20.9899</v>
       </c>
       <c r="C12" t="n">
-        <v>57.9618</v>
+        <v>56.8086</v>
       </c>
       <c r="D12" t="n">
-        <v>75.4757</v>
+        <v>74.1551</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.245</v>
+        <v>21.4883</v>
       </c>
       <c r="C13" t="n">
-        <v>60.5377</v>
+        <v>57.3222</v>
       </c>
       <c r="D13" t="n">
-        <v>75.5368</v>
+        <v>75.72069999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2773</v>
+        <v>21.1623</v>
       </c>
       <c r="C14" t="n">
-        <v>59.7559</v>
+        <v>56.7716</v>
       </c>
       <c r="D14" t="n">
-        <v>74.81359999999999</v>
+        <v>74.8822</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4588</v>
+        <v>21.1881</v>
       </c>
       <c r="C15" t="n">
-        <v>58.7197</v>
+        <v>57.6586</v>
       </c>
       <c r="D15" t="n">
-        <v>76.06189999999999</v>
+        <v>74.98</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1211</v>
+        <v>21.5208</v>
       </c>
       <c r="C16" t="n">
-        <v>59.6709</v>
+        <v>58.3484</v>
       </c>
       <c r="D16" t="n">
-        <v>75.6431</v>
+        <v>74.85850000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.5835</v>
+        <v>21.4781</v>
       </c>
       <c r="C17" t="n">
-        <v>61.045</v>
+        <v>59.0594</v>
       </c>
       <c r="D17" t="n">
-        <v>75.8809</v>
+        <v>78.68470000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.7794</v>
+        <v>4.80691</v>
       </c>
       <c r="C2" t="n">
-        <v>14.8832</v>
+        <v>14.585</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6758</v>
+        <v>19.6802</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.357049999999999</v>
+        <v>9.41817</v>
       </c>
       <c r="C3" t="n">
-        <v>28.1875</v>
+        <v>27.6316</v>
       </c>
       <c r="D3" t="n">
-        <v>37.0556</v>
+        <v>36.9366</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5566</v>
+        <v>13.6068</v>
       </c>
       <c r="C4" t="n">
-        <v>40.5952</v>
+        <v>39.3668</v>
       </c>
       <c r="D4" t="n">
-        <v>51.6003</v>
+        <v>52.0567</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9264</v>
+        <v>16.0289</v>
       </c>
       <c r="C5" t="n">
-        <v>43.1226</v>
+        <v>42.0112</v>
       </c>
       <c r="D5" t="n">
-        <v>56.2538</v>
+        <v>57.3203</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4028</v>
+        <v>19.5102</v>
       </c>
       <c r="C6" t="n">
-        <v>51.572</v>
+        <v>51.7039</v>
       </c>
       <c r="D6" t="n">
-        <v>67.1571</v>
+        <v>67.9577</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8135</v>
+        <v>22.8794</v>
       </c>
       <c r="C7" t="n">
-        <v>60.1855</v>
+        <v>60.5244</v>
       </c>
       <c r="D7" t="n">
-        <v>79.11969999999999</v>
+        <v>79.09099999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5568</v>
+        <v>20.6266</v>
       </c>
       <c r="C8" t="n">
-        <v>53.9481</v>
+        <v>53.965</v>
       </c>
       <c r="D8" t="n">
-        <v>69.5112</v>
+        <v>69.1875</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0351</v>
+        <v>21.4428</v>
       </c>
       <c r="C9" t="n">
-        <v>54.6976</v>
+        <v>53.402</v>
       </c>
       <c r="D9" t="n">
-        <v>69.7567</v>
+        <v>70.431</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2412</v>
+        <v>21.1517</v>
       </c>
       <c r="C10" t="n">
-        <v>53.1398</v>
+        <v>54.8922</v>
       </c>
       <c r="D10" t="n">
-        <v>70.5767</v>
+        <v>71.3776</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3994</v>
+        <v>21.8343</v>
       </c>
       <c r="C11" t="n">
-        <v>56.7611</v>
+        <v>56.1971</v>
       </c>
       <c r="D11" t="n">
-        <v>72.5</v>
+        <v>73.36</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.5283</v>
+        <v>21.2598</v>
       </c>
       <c r="C12" t="n">
-        <v>53.8156</v>
+        <v>57.1292</v>
       </c>
       <c r="D12" t="n">
-        <v>75.2593</v>
+        <v>73.82899999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5224</v>
+        <v>21.6277</v>
       </c>
       <c r="C13" t="n">
-        <v>54.5594</v>
+        <v>56.5367</v>
       </c>
       <c r="D13" t="n">
-        <v>75.1632</v>
+        <v>73.3944</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7198</v>
+        <v>21.5164</v>
       </c>
       <c r="C14" t="n">
-        <v>56.0857</v>
+        <v>57.5641</v>
       </c>
       <c r="D14" t="n">
-        <v>73.521</v>
+        <v>71.7598</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5869</v>
+        <v>21.5672</v>
       </c>
       <c r="C15" t="n">
-        <v>58.3675</v>
+        <v>56.7718</v>
       </c>
       <c r="D15" t="n">
-        <v>74.2621</v>
+        <v>74.8203</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5096</v>
+        <v>21.7023</v>
       </c>
       <c r="C16" t="n">
-        <v>57.3184</v>
+        <v>56.8035</v>
       </c>
       <c r="D16" t="n">
-        <v>75.0737</v>
+        <v>76.2771</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6632</v>
+        <v>21.593</v>
       </c>
       <c r="C17" t="n">
-        <v>57.843</v>
+        <v>58.1594</v>
       </c>
       <c r="D17" t="n">
-        <v>74.4308</v>
+        <v>76.22329999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.88641</v>
+        <v>8.92923</v>
       </c>
       <c r="C2" t="n">
-        <v>18.8299</v>
+        <v>18.3161</v>
       </c>
       <c r="D2" t="n">
-        <v>22.3166</v>
+        <v>22.394</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0207</v>
+        <v>17.1428</v>
       </c>
       <c r="C3" t="n">
-        <v>34.652</v>
+        <v>33.8106</v>
       </c>
       <c r="D3" t="n">
-        <v>40.927</v>
+        <v>41.114</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.5897</v>
+        <v>24.6029</v>
       </c>
       <c r="C4" t="n">
-        <v>49.2468</v>
+        <v>48.3107</v>
       </c>
       <c r="D4" t="n">
-        <v>57.9294</v>
+        <v>57.3867</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.7928</v>
+        <v>24.5405</v>
       </c>
       <c r="C5" t="n">
-        <v>47.35</v>
+        <v>47.3471</v>
       </c>
       <c r="D5" t="n">
-        <v>60.2688</v>
+        <v>59.8006</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.1568</v>
+        <v>28.3082</v>
       </c>
       <c r="C6" t="n">
-        <v>55.2613</v>
+        <v>53.9852</v>
       </c>
       <c r="D6" t="n">
-        <v>71.3219</v>
+        <v>71.054</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3171</v>
+        <v>34.4308</v>
       </c>
       <c r="C7" t="n">
-        <v>62.1609</v>
+        <v>62.0699</v>
       </c>
       <c r="D7" t="n">
-        <v>79.4105</v>
+        <v>80.5701</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.4224</v>
+        <v>31.4253</v>
       </c>
       <c r="C8" t="n">
-        <v>61.1404</v>
+        <v>59.4127</v>
       </c>
       <c r="D8" t="n">
-        <v>78.10080000000001</v>
+        <v>77.70650000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.4861</v>
+        <v>31.9329</v>
       </c>
       <c r="C9" t="n">
-        <v>61.0621</v>
+        <v>61.0811</v>
       </c>
       <c r="D9" t="n">
-        <v>79.6926</v>
+        <v>81.07510000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.242</v>
+        <v>32.6395</v>
       </c>
       <c r="C10" t="n">
-        <v>62.0263</v>
+        <v>60.503</v>
       </c>
       <c r="D10" t="n">
-        <v>79.5947</v>
+        <v>80.5209</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.9238</v>
+        <v>33.1152</v>
       </c>
       <c r="C11" t="n">
-        <v>61.7893</v>
+        <v>61.5756</v>
       </c>
       <c r="D11" t="n">
-        <v>81.78740000000001</v>
+        <v>80.9569</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.3812</v>
+        <v>32.7201</v>
       </c>
       <c r="C12" t="n">
-        <v>62.1973</v>
+        <v>61.7125</v>
       </c>
       <c r="D12" t="n">
-        <v>81.70480000000001</v>
+        <v>82.03530000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.5946</v>
+        <v>32.8472</v>
       </c>
       <c r="C13" t="n">
-        <v>61.9959</v>
+        <v>62.3658</v>
       </c>
       <c r="D13" t="n">
-        <v>81.64100000000001</v>
+        <v>80.09529999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.7225</v>
+        <v>32.8841</v>
       </c>
       <c r="C14" t="n">
-        <v>60.5424</v>
+        <v>61.0993</v>
       </c>
       <c r="D14" t="n">
-        <v>81.17959999999999</v>
+        <v>81.9224</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.2948</v>
+        <v>33.2014</v>
       </c>
       <c r="C15" t="n">
-        <v>61.8679</v>
+        <v>61.2768</v>
       </c>
       <c r="D15" t="n">
-        <v>81.3755</v>
+        <v>80.71850000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.0537</v>
+        <v>32.7073</v>
       </c>
       <c r="C16" t="n">
-        <v>61.9978</v>
+        <v>61.6134</v>
       </c>
       <c r="D16" t="n">
-        <v>81.24160000000001</v>
+        <v>80.46120000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.0374</v>
+        <v>32.817</v>
       </c>
       <c r="C17" t="n">
-        <v>61.7585</v>
+        <v>60.8554</v>
       </c>
       <c r="D17" t="n">
-        <v>81.3511</v>
+        <v>81.768</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3545</v>
+        <v>10.3955</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4332</v>
+        <v>17.5554</v>
       </c>
       <c r="D2" t="n">
-        <v>21.245</v>
+        <v>21.2474</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4584</v>
+        <v>19.5069</v>
       </c>
       <c r="C3" t="n">
-        <v>26.8708</v>
+        <v>27.6351</v>
       </c>
       <c r="D3" t="n">
-        <v>32.0529</v>
+        <v>32.5414</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.9161</v>
+        <v>25.9921</v>
       </c>
       <c r="C4" t="n">
-        <v>32.116</v>
+        <v>33.0653</v>
       </c>
       <c r="D4" t="n">
-        <v>42.5399</v>
+        <v>38.3489</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.5722</v>
+        <v>21.4934</v>
       </c>
       <c r="C5" t="n">
-        <v>34.9961</v>
+        <v>35.6355</v>
       </c>
       <c r="D5" t="n">
-        <v>43.6409</v>
+        <v>43.811</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.3306</v>
+        <v>24.3855</v>
       </c>
       <c r="C6" t="n">
-        <v>38.6169</v>
+        <v>38.4429</v>
       </c>
       <c r="D6" t="n">
-        <v>43.6497</v>
+        <v>43.9786</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.057</v>
+        <v>29.0036</v>
       </c>
       <c r="C7" t="n">
-        <v>41.7792</v>
+        <v>39.4691</v>
       </c>
       <c r="D7" t="n">
-        <v>50.8616</v>
+        <v>51.0141</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.1065</v>
+        <v>21.2592</v>
       </c>
       <c r="C8" t="n">
-        <v>38.351</v>
+        <v>39.12</v>
       </c>
       <c r="D8" t="n">
-        <v>48.0539</v>
+        <v>46.2632</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>23.9098</v>
       </c>
       <c r="C9" t="n">
-        <v>45.6718</v>
+        <v>46.0775</v>
       </c>
       <c r="D9" t="n">
-        <v>50.8978</v>
+        <v>49.0834</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.5508</v>
+        <v>26.3197</v>
       </c>
       <c r="C10" t="n">
-        <v>47.8462</v>
+        <v>47.6657</v>
       </c>
       <c r="D10" t="n">
-        <v>54.651</v>
+        <v>51.8787</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.3809</v>
+        <v>24.3246</v>
       </c>
       <c r="C11" t="n">
-        <v>49.6052</v>
+        <v>45.8761</v>
       </c>
       <c r="D11" t="n">
-        <v>57.7956</v>
+        <v>55.4824</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.3989</v>
+        <v>26.4748</v>
       </c>
       <c r="C12" t="n">
-        <v>50.4033</v>
+        <v>47.7773</v>
       </c>
       <c r="D12" t="n">
-        <v>59.0695</v>
+        <v>59.7333</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.0178</v>
+        <v>29.0656</v>
       </c>
       <c r="C13" t="n">
-        <v>49.6908</v>
+        <v>51.0836</v>
       </c>
       <c r="D13" t="n">
-        <v>60.2326</v>
+        <v>58.3998</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.823</v>
+        <v>24.171</v>
       </c>
       <c r="C14" t="n">
-        <v>51.7285</v>
+        <v>49.7917</v>
       </c>
       <c r="D14" t="n">
-        <v>60.8484</v>
+        <v>63.9336</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4086</v>
+        <v>25.6555</v>
       </c>
       <c r="C15" t="n">
-        <v>51.0439</v>
+        <v>50.0646</v>
       </c>
       <c r="D15" t="n">
-        <v>61.4834</v>
+        <v>65.0564</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.9022</v>
+        <v>26.5899</v>
       </c>
       <c r="C16" t="n">
-        <v>52.155</v>
+        <v>50.9153</v>
       </c>
       <c r="D16" t="n">
-        <v>63.5987</v>
+        <v>65.00790000000001</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.7359</v>
+        <v>25.8537</v>
       </c>
       <c r="C17" t="n">
-        <v>51.4113</v>
+        <v>50.6325</v>
       </c>
       <c r="D17" t="n">
-        <v>61.894</v>
+        <v>63.4578</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7122</v>
+        <v>10.6964</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3016</v>
+        <v>17.38</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1221</v>
+        <v>21.0402</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.1653</v>
+        <v>20.018</v>
       </c>
       <c r="C3" t="n">
-        <v>27.8741</v>
+        <v>27.0415</v>
       </c>
       <c r="D3" t="n">
-        <v>29.8618</v>
+        <v>32.0425</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.5166</v>
+        <v>27.2181</v>
       </c>
       <c r="C4" t="n">
-        <v>33.8231</v>
+        <v>34.3168</v>
       </c>
       <c r="D4" t="n">
-        <v>38.5601</v>
+        <v>39.7788</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9815</v>
+        <v>20.997</v>
       </c>
       <c r="C5" t="n">
-        <v>35.4615</v>
+        <v>34.927</v>
       </c>
       <c r="D5" t="n">
-        <v>41.884</v>
+        <v>38.6346</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.0127</v>
+        <v>24.8583</v>
       </c>
       <c r="C6" t="n">
-        <v>37.4314</v>
+        <v>37.6244</v>
       </c>
       <c r="D6" t="n">
-        <v>44.1218</v>
+        <v>43.697</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9708</v>
+        <v>29.9502</v>
       </c>
       <c r="C7" t="n">
-        <v>42.8494</v>
+        <v>42.9303</v>
       </c>
       <c r="D7" t="n">
-        <v>50.2888</v>
+        <v>49.0055</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.571</v>
+        <v>21.637</v>
       </c>
       <c r="C8" t="n">
-        <v>41.7913</v>
+        <v>40.1198</v>
       </c>
       <c r="D8" t="n">
-        <v>47.5151</v>
+        <v>46.1691</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.154</v>
+        <v>25.0094</v>
       </c>
       <c r="C9" t="n">
-        <v>44.791</v>
+        <v>44.167</v>
       </c>
       <c r="D9" t="n">
-        <v>50.888</v>
+        <v>50.9603</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.5223</v>
+        <v>27.6456</v>
       </c>
       <c r="C10" t="n">
-        <v>46.8975</v>
+        <v>44.0555</v>
       </c>
       <c r="D10" t="n">
-        <v>54.5294</v>
+        <v>53.1836</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.887</v>
+        <v>25.3202</v>
       </c>
       <c r="C11" t="n">
-        <v>49.9405</v>
+        <v>46.7035</v>
       </c>
       <c r="D11" t="n">
-        <v>59.3055</v>
+        <v>59.785</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1083</v>
+        <v>27.2575</v>
       </c>
       <c r="C12" t="n">
-        <v>50.487</v>
+        <v>50.3043</v>
       </c>
       <c r="D12" t="n">
-        <v>59.515</v>
+        <v>58.5474</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9036</v>
+        <v>29.936</v>
       </c>
       <c r="C13" t="n">
-        <v>50.8033</v>
+        <v>49.7868</v>
       </c>
       <c r="D13" t="n">
-        <v>61.1791</v>
+        <v>61.5741</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1711</v>
+        <v>24.248</v>
       </c>
       <c r="C14" t="n">
-        <v>50.6736</v>
+        <v>49.6899</v>
       </c>
       <c r="D14" t="n">
-        <v>60.4161</v>
+        <v>61.1973</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.4203</v>
+        <v>26.3356</v>
       </c>
       <c r="C15" t="n">
-        <v>51.2299</v>
+        <v>48.9987</v>
       </c>
       <c r="D15" t="n">
-        <v>65.4798</v>
+        <v>62.3126</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.8844</v>
+        <v>27.7354</v>
       </c>
       <c r="C16" t="n">
-        <v>50.9871</v>
+        <v>50.9314</v>
       </c>
       <c r="D16" t="n">
-        <v>65.60590000000001</v>
+        <v>61.6871</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.4855</v>
+        <v>26.514</v>
       </c>
       <c r="C17" t="n">
-        <v>51.4858</v>
+        <v>51.3052</v>
       </c>
       <c r="D17" t="n">
-        <v>66.32980000000001</v>
+        <v>62.799</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.9979</v>
+        <v>13.1167</v>
       </c>
       <c r="C2" t="n">
-        <v>19.0821</v>
+        <v>19.1674</v>
       </c>
       <c r="D2" t="n">
-        <v>22.4938</v>
+        <v>22.455</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.1554</v>
+        <v>23.3614</v>
       </c>
       <c r="C3" t="n">
-        <v>30.8951</v>
+        <v>30.8494</v>
       </c>
       <c r="D3" t="n">
-        <v>34.4605</v>
+        <v>33.7564</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.1131</v>
+        <v>31.1325</v>
       </c>
       <c r="C4" t="n">
-        <v>35.5363</v>
+        <v>34.9813</v>
       </c>
       <c r="D4" t="n">
-        <v>42.4068</v>
+        <v>45.4868</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.7244</v>
+        <v>26.7823</v>
       </c>
       <c r="C5" t="n">
-        <v>37.5401</v>
+        <v>36.1473</v>
       </c>
       <c r="D5" t="n">
-        <v>50.3701</v>
+        <v>50.4805</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6589</v>
+        <v>31.8823</v>
       </c>
       <c r="C6" t="n">
-        <v>41.9128</v>
+        <v>41.5283</v>
       </c>
       <c r="D6" t="n">
-        <v>50.6233</v>
+        <v>50.7374</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.5404</v>
+        <v>37.6735</v>
       </c>
       <c r="C7" t="n">
-        <v>49.6817</v>
+        <v>50.7981</v>
       </c>
       <c r="D7" t="n">
-        <v>50.8182</v>
+        <v>50.7552</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.4841</v>
+        <v>33.852</v>
       </c>
       <c r="C8" t="n">
-        <v>47.2253</v>
+        <v>47.4219</v>
       </c>
       <c r="D8" t="n">
-        <v>50.7755</v>
+        <v>52.6508</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3481</v>
+        <v>34.6887</v>
       </c>
       <c r="C9" t="n">
-        <v>50.2726</v>
+        <v>51.1793</v>
       </c>
       <c r="D9" t="n">
-        <v>60.1043</v>
+        <v>60.0984</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.4829</v>
+        <v>34.5684</v>
       </c>
       <c r="C10" t="n">
-        <v>49.1692</v>
+        <v>51.0389</v>
       </c>
       <c r="D10" t="n">
-        <v>60.6816</v>
+        <v>60.5655</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.1093</v>
+        <v>34.6826</v>
       </c>
       <c r="C11" t="n">
-        <v>50.8685</v>
+        <v>50.6135</v>
       </c>
       <c r="D11" t="n">
-        <v>60.9809</v>
+        <v>64.0962</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.4049</v>
+        <v>34.4112</v>
       </c>
       <c r="C12" t="n">
-        <v>50.5603</v>
+        <v>50.6359</v>
       </c>
       <c r="D12" t="n">
-        <v>60.6348</v>
+        <v>60.1453</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.974</v>
+        <v>35.4849</v>
       </c>
       <c r="C13" t="n">
-        <v>50.8311</v>
+        <v>51.008</v>
       </c>
       <c r="D13" t="n">
-        <v>60.5822</v>
+        <v>60.9016</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.1457</v>
+        <v>34.9334</v>
       </c>
       <c r="C14" t="n">
-        <v>50.0231</v>
+        <v>50.1895</v>
       </c>
       <c r="D14" t="n">
-        <v>60.7523</v>
+        <v>60.6877</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.5522</v>
+        <v>35.2947</v>
       </c>
       <c r="C15" t="n">
-        <v>50.7357</v>
+        <v>49.8451</v>
       </c>
       <c r="D15" t="n">
-        <v>59.498</v>
+        <v>60.2854</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.5756</v>
+        <v>35.1139</v>
       </c>
       <c r="C16" t="n">
-        <v>51.1925</v>
+        <v>50.881</v>
       </c>
       <c r="D16" t="n">
-        <v>60.4022</v>
+        <v>59.9763</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.9068</v>
+        <v>36.0837</v>
       </c>
       <c r="C17" t="n">
-        <v>51.2189</v>
+        <v>51.4846</v>
       </c>
       <c r="D17" t="n">
-        <v>60.4863</v>
+        <v>60.3573</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.78238</v>
+        <v>4.77336</v>
       </c>
       <c r="C2" t="n">
-        <v>14.6764</v>
+        <v>14.7771</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6941</v>
+        <v>19.5262</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.35098</v>
+        <v>9.311489999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>28.1163</v>
+        <v>27.9436</v>
       </c>
       <c r="D3" t="n">
-        <v>36.7372</v>
+        <v>36.4779</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4304</v>
+        <v>13.4255</v>
       </c>
       <c r="C4" t="n">
-        <v>39.824</v>
+        <v>39.7042</v>
       </c>
       <c r="D4" t="n">
-        <v>51.3444</v>
+        <v>51.2112</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8898</v>
+        <v>15.8827</v>
       </c>
       <c r="C5" t="n">
-        <v>44.2153</v>
+        <v>43.8943</v>
       </c>
       <c r="D5" t="n">
-        <v>57.3212</v>
+        <v>56.1049</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2427</v>
+        <v>19.1942</v>
       </c>
       <c r="C6" t="n">
-        <v>53.454</v>
+        <v>52.0671</v>
       </c>
       <c r="D6" t="n">
-        <v>68.4507</v>
+        <v>68.2058</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.467</v>
+        <v>22.4209</v>
       </c>
       <c r="C7" t="n">
-        <v>62.3221</v>
+        <v>61.2607</v>
       </c>
       <c r="D7" t="n">
-        <v>81.0245</v>
+        <v>79.43559999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0677</v>
+        <v>20.1484</v>
       </c>
       <c r="C8" t="n">
-        <v>55.0538</v>
+        <v>53.8339</v>
       </c>
       <c r="D8" t="n">
-        <v>69.56019999999999</v>
+        <v>67.01560000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.1925</v>
+        <v>20.2739</v>
       </c>
       <c r="C9" t="n">
-        <v>54.973</v>
+        <v>52.8568</v>
       </c>
       <c r="D9" t="n">
-        <v>73.2578</v>
+        <v>75.07299999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.012</v>
+        <v>21.2242</v>
       </c>
       <c r="C10" t="n">
-        <v>54.1574</v>
+        <v>56.4566</v>
       </c>
       <c r="D10" t="n">
-        <v>72.6588</v>
+        <v>72.8043</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3133</v>
+        <v>21.3375</v>
       </c>
       <c r="C11" t="n">
-        <v>57.41</v>
+        <v>56.618</v>
       </c>
       <c r="D11" t="n">
-        <v>75.328</v>
+        <v>75.5903</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9899</v>
+        <v>20.7198</v>
       </c>
       <c r="C12" t="n">
-        <v>56.8086</v>
+        <v>57.1062</v>
       </c>
       <c r="D12" t="n">
-        <v>74.1551</v>
+        <v>74.55240000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4883</v>
+        <v>21.4791</v>
       </c>
       <c r="C13" t="n">
-        <v>57.3222</v>
+        <v>55.5966</v>
       </c>
       <c r="D13" t="n">
-        <v>75.72069999999999</v>
+        <v>75.4735</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.1623</v>
+        <v>21.5247</v>
       </c>
       <c r="C14" t="n">
-        <v>56.7716</v>
+        <v>59.0085</v>
       </c>
       <c r="D14" t="n">
-        <v>74.8822</v>
+        <v>75.96850000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.1881</v>
+        <v>21.438</v>
       </c>
       <c r="C15" t="n">
-        <v>57.6586</v>
+        <v>58.4953</v>
       </c>
       <c r="D15" t="n">
-        <v>74.98</v>
+        <v>74.399</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5208</v>
+        <v>21.3178</v>
       </c>
       <c r="C16" t="n">
-        <v>58.3484</v>
+        <v>57.1635</v>
       </c>
       <c r="D16" t="n">
-        <v>74.85850000000001</v>
+        <v>74.4036</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.4781</v>
+        <v>21.2295</v>
       </c>
       <c r="C17" t="n">
-        <v>59.0594</v>
+        <v>57.7606</v>
       </c>
       <c r="D17" t="n">
-        <v>78.68470000000001</v>
+        <v>76.3034</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.80691</v>
+        <v>4.79313</v>
       </c>
       <c r="C2" t="n">
-        <v>14.585</v>
+        <v>14.6389</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6802</v>
+        <v>19.559</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.41817</v>
+        <v>9.372260000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>27.6316</v>
+        <v>27.6809</v>
       </c>
       <c r="D3" t="n">
-        <v>36.9366</v>
+        <v>36.5064</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.6068</v>
+        <v>13.5947</v>
       </c>
       <c r="C4" t="n">
-        <v>39.3668</v>
+        <v>39.3696</v>
       </c>
       <c r="D4" t="n">
-        <v>52.0567</v>
+        <v>50.7448</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0289</v>
+        <v>16.0324</v>
       </c>
       <c r="C5" t="n">
-        <v>42.0112</v>
+        <v>42.7483</v>
       </c>
       <c r="D5" t="n">
-        <v>57.3203</v>
+        <v>56.4542</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5102</v>
+        <v>19.4563</v>
       </c>
       <c r="C6" t="n">
-        <v>51.7039</v>
+        <v>50.5032</v>
       </c>
       <c r="D6" t="n">
-        <v>67.9577</v>
+        <v>67.5561</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8794</v>
+        <v>22.8258</v>
       </c>
       <c r="C7" t="n">
-        <v>60.5244</v>
+        <v>59.8891</v>
       </c>
       <c r="D7" t="n">
-        <v>79.09099999999999</v>
+        <v>78.7277</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6266</v>
+        <v>20.3832</v>
       </c>
       <c r="C8" t="n">
-        <v>53.965</v>
+        <v>52.9099</v>
       </c>
       <c r="D8" t="n">
-        <v>69.1875</v>
+        <v>67.9045</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.4428</v>
+        <v>21.0556</v>
       </c>
       <c r="C9" t="n">
-        <v>53.402</v>
+        <v>51.8632</v>
       </c>
       <c r="D9" t="n">
-        <v>70.431</v>
+        <v>66.14490000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1517</v>
+        <v>21.2669</v>
       </c>
       <c r="C10" t="n">
-        <v>54.8922</v>
+        <v>54.2486</v>
       </c>
       <c r="D10" t="n">
-        <v>71.3776</v>
+        <v>70.5296</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8343</v>
+        <v>21.5341</v>
       </c>
       <c r="C11" t="n">
-        <v>56.1971</v>
+        <v>55.2672</v>
       </c>
       <c r="D11" t="n">
-        <v>73.36</v>
+        <v>71.1046</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.2598</v>
+        <v>21.4373</v>
       </c>
       <c r="C12" t="n">
-        <v>57.1292</v>
+        <v>54.1554</v>
       </c>
       <c r="D12" t="n">
-        <v>73.82899999999999</v>
+        <v>73.0172</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.6277</v>
+        <v>21.5491</v>
       </c>
       <c r="C13" t="n">
-        <v>56.5367</v>
+        <v>56.8834</v>
       </c>
       <c r="D13" t="n">
-        <v>73.3944</v>
+        <v>71.9586</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5164</v>
+        <v>21.7697</v>
       </c>
       <c r="C14" t="n">
-        <v>57.5641</v>
+        <v>57.1742</v>
       </c>
       <c r="D14" t="n">
-        <v>71.7598</v>
+        <v>73.8232</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5672</v>
+        <v>21.6244</v>
       </c>
       <c r="C15" t="n">
-        <v>56.7718</v>
+        <v>57.1237</v>
       </c>
       <c r="D15" t="n">
-        <v>74.8203</v>
+        <v>74.6698</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7023</v>
+        <v>21.5761</v>
       </c>
       <c r="C16" t="n">
-        <v>56.8035</v>
+        <v>56.7741</v>
       </c>
       <c r="D16" t="n">
-        <v>76.2771</v>
+        <v>76.59220000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.593</v>
+        <v>21.6514</v>
       </c>
       <c r="C17" t="n">
-        <v>58.1594</v>
+        <v>59.0179</v>
       </c>
       <c r="D17" t="n">
-        <v>76.22329999999999</v>
+        <v>73.3271</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.92923</v>
+        <v>8.87274</v>
       </c>
       <c r="C2" t="n">
-        <v>18.3161</v>
+        <v>18.404</v>
       </c>
       <c r="D2" t="n">
-        <v>22.394</v>
+        <v>22.2374</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.1428</v>
+        <v>17.0313</v>
       </c>
       <c r="C3" t="n">
-        <v>33.8106</v>
+        <v>33.924</v>
       </c>
       <c r="D3" t="n">
-        <v>41.114</v>
+        <v>40.5667</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.6029</v>
+        <v>24.517</v>
       </c>
       <c r="C4" t="n">
-        <v>48.3107</v>
+        <v>48.2545</v>
       </c>
       <c r="D4" t="n">
-        <v>57.3867</v>
+        <v>57.572</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.5405</v>
+        <v>24.2151</v>
       </c>
       <c r="C5" t="n">
-        <v>47.3471</v>
+        <v>47.7562</v>
       </c>
       <c r="D5" t="n">
-        <v>59.8006</v>
+        <v>60.8017</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.3082</v>
+        <v>28.3172</v>
       </c>
       <c r="C6" t="n">
-        <v>53.9852</v>
+        <v>54.2042</v>
       </c>
       <c r="D6" t="n">
-        <v>71.054</v>
+        <v>71.2604</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.4308</v>
+        <v>34.5059</v>
       </c>
       <c r="C7" t="n">
-        <v>62.0699</v>
+        <v>62.1127</v>
       </c>
       <c r="D7" t="n">
-        <v>80.5701</v>
+        <v>79.4448</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.4253</v>
+        <v>31.5936</v>
       </c>
       <c r="C8" t="n">
-        <v>59.4127</v>
+        <v>59.8904</v>
       </c>
       <c r="D8" t="n">
-        <v>77.70650000000001</v>
+        <v>78.68819999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.9329</v>
+        <v>31.9658</v>
       </c>
       <c r="C9" t="n">
-        <v>61.0811</v>
+        <v>60.2482</v>
       </c>
       <c r="D9" t="n">
-        <v>81.07510000000001</v>
+        <v>79.65179999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.6395</v>
+        <v>32.8454</v>
       </c>
       <c r="C10" t="n">
-        <v>60.503</v>
+        <v>60.8361</v>
       </c>
       <c r="D10" t="n">
-        <v>80.5209</v>
+        <v>80.7247</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.1152</v>
+        <v>33.0505</v>
       </c>
       <c r="C11" t="n">
-        <v>61.5756</v>
+        <v>61.472</v>
       </c>
       <c r="D11" t="n">
-        <v>80.9569</v>
+        <v>79.7332</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.7201</v>
+        <v>32.7408</v>
       </c>
       <c r="C12" t="n">
-        <v>61.7125</v>
+        <v>60.6541</v>
       </c>
       <c r="D12" t="n">
-        <v>82.03530000000001</v>
+        <v>81.4181</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.8472</v>
+        <v>32.8684</v>
       </c>
       <c r="C13" t="n">
-        <v>62.3658</v>
+        <v>62.8732</v>
       </c>
       <c r="D13" t="n">
-        <v>80.09529999999999</v>
+        <v>82.0719</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.8841</v>
+        <v>33.0234</v>
       </c>
       <c r="C14" t="n">
-        <v>61.0993</v>
+        <v>61.5666</v>
       </c>
       <c r="D14" t="n">
-        <v>81.9224</v>
+        <v>80.9353</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.2014</v>
+        <v>32.4598</v>
       </c>
       <c r="C15" t="n">
-        <v>61.2768</v>
+        <v>62.3838</v>
       </c>
       <c r="D15" t="n">
-        <v>80.71850000000001</v>
+        <v>80.56100000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7073</v>
+        <v>32.6996</v>
       </c>
       <c r="C16" t="n">
-        <v>61.6134</v>
+        <v>61.7727</v>
       </c>
       <c r="D16" t="n">
-        <v>80.46120000000001</v>
+        <v>81.55119999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.817</v>
+        <v>32.4587</v>
       </c>
       <c r="C17" t="n">
-        <v>60.8554</v>
+        <v>62.156</v>
       </c>
       <c r="D17" t="n">
-        <v>81.768</v>
+        <v>81.9515</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3955</v>
+        <v>10.2962</v>
       </c>
       <c r="C2" t="n">
-        <v>17.5554</v>
+        <v>17.4585</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2474</v>
+        <v>21.5608</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5069</v>
+        <v>19.1449</v>
       </c>
       <c r="C3" t="n">
-        <v>27.6351</v>
+        <v>26.7822</v>
       </c>
       <c r="D3" t="n">
-        <v>32.5414</v>
+        <v>32.5921</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.9921</v>
+        <v>26.0906</v>
       </c>
       <c r="C4" t="n">
-        <v>33.0653</v>
+        <v>33.1502</v>
       </c>
       <c r="D4" t="n">
-        <v>38.3489</v>
+        <v>43.1766</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.4934</v>
+        <v>20.6188</v>
       </c>
       <c r="C5" t="n">
-        <v>35.6355</v>
+        <v>35.0634</v>
       </c>
       <c r="D5" t="n">
-        <v>43.811</v>
+        <v>43.9506</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.3855</v>
+        <v>24.4188</v>
       </c>
       <c r="C6" t="n">
-        <v>38.4429</v>
+        <v>38.5021</v>
       </c>
       <c r="D6" t="n">
-        <v>43.9786</v>
+        <v>43.7149</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0036</v>
+        <v>28.9596</v>
       </c>
       <c r="C7" t="n">
-        <v>39.4691</v>
+        <v>38.6389</v>
       </c>
       <c r="D7" t="n">
-        <v>51.0141</v>
+        <v>49.1303</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.2592</v>
+        <v>21.1725</v>
       </c>
       <c r="C8" t="n">
-        <v>39.12</v>
+        <v>39.9736</v>
       </c>
       <c r="D8" t="n">
-        <v>46.2632</v>
+        <v>47.6437</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9098</v>
+        <v>24.2402</v>
       </c>
       <c r="C9" t="n">
-        <v>46.0775</v>
+        <v>43.6334</v>
       </c>
       <c r="D9" t="n">
-        <v>49.0834</v>
+        <v>52.8149</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.3197</v>
+        <v>26.3921</v>
       </c>
       <c r="C10" t="n">
-        <v>47.6657</v>
+        <v>46.0225</v>
       </c>
       <c r="D10" t="n">
-        <v>51.8787</v>
+        <v>54.011</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.3246</v>
+        <v>24.2334</v>
       </c>
       <c r="C11" t="n">
-        <v>45.8761</v>
+        <v>48.0855</v>
       </c>
       <c r="D11" t="n">
-        <v>55.4824</v>
+        <v>58.0499</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4748</v>
+        <v>26.443</v>
       </c>
       <c r="C12" t="n">
-        <v>47.7773</v>
+        <v>49.9683</v>
       </c>
       <c r="D12" t="n">
-        <v>59.7333</v>
+        <v>61.0592</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.0656</v>
+        <v>28.931</v>
       </c>
       <c r="C13" t="n">
-        <v>51.0836</v>
+        <v>50.666</v>
       </c>
       <c r="D13" t="n">
-        <v>58.3998</v>
+        <v>59.777</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.171</v>
+        <v>23.8806</v>
       </c>
       <c r="C14" t="n">
-        <v>49.7917</v>
+        <v>51.1569</v>
       </c>
       <c r="D14" t="n">
-        <v>63.9336</v>
+        <v>63.5648</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6555</v>
+        <v>25.2892</v>
       </c>
       <c r="C15" t="n">
-        <v>50.0646</v>
+        <v>52.1158</v>
       </c>
       <c r="D15" t="n">
-        <v>65.0564</v>
+        <v>63.653</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.5899</v>
+        <v>26.729</v>
       </c>
       <c r="C16" t="n">
-        <v>50.9153</v>
+        <v>51.4865</v>
       </c>
       <c r="D16" t="n">
-        <v>65.00790000000001</v>
+        <v>61.3797</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.8537</v>
+        <v>25.8333</v>
       </c>
       <c r="C17" t="n">
-        <v>50.6325</v>
+        <v>50.8487</v>
       </c>
       <c r="D17" t="n">
-        <v>63.4578</v>
+        <v>63.316</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.6964</v>
+        <v>10.6069</v>
       </c>
       <c r="C2" t="n">
-        <v>17.38</v>
+        <v>17.3071</v>
       </c>
       <c r="D2" t="n">
-        <v>21.0402</v>
+        <v>21.3875</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.018</v>
+        <v>19.9324</v>
       </c>
       <c r="C3" t="n">
-        <v>27.0415</v>
+        <v>26.4688</v>
       </c>
       <c r="D3" t="n">
-        <v>32.0425</v>
+        <v>32.8403</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.2181</v>
+        <v>26.7091</v>
       </c>
       <c r="C4" t="n">
-        <v>34.3168</v>
+        <v>33.5078</v>
       </c>
       <c r="D4" t="n">
-        <v>39.7788</v>
+        <v>38.9248</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.997</v>
+        <v>21.0951</v>
       </c>
       <c r="C5" t="n">
-        <v>34.927</v>
+        <v>36.0534</v>
       </c>
       <c r="D5" t="n">
-        <v>38.6346</v>
+        <v>43.3239</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.8583</v>
+        <v>24.7599</v>
       </c>
       <c r="C6" t="n">
-        <v>37.6244</v>
+        <v>37.3153</v>
       </c>
       <c r="D6" t="n">
-        <v>43.697</v>
+        <v>44.0479</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9502</v>
+        <v>29.8408</v>
       </c>
       <c r="C7" t="n">
-        <v>42.9303</v>
+        <v>42.8917</v>
       </c>
       <c r="D7" t="n">
-        <v>49.0055</v>
+        <v>50.8744</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.637</v>
+        <v>21.5575</v>
       </c>
       <c r="C8" t="n">
-        <v>40.1198</v>
+        <v>39.2709</v>
       </c>
       <c r="D8" t="n">
-        <v>46.1691</v>
+        <v>49.4094</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.0094</v>
+        <v>25.0718</v>
       </c>
       <c r="C9" t="n">
-        <v>44.167</v>
+        <v>46.916</v>
       </c>
       <c r="D9" t="n">
-        <v>50.9603</v>
+        <v>50.9143</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.6456</v>
+        <v>27.0198</v>
       </c>
       <c r="C10" t="n">
-        <v>44.0555</v>
+        <v>47.1126</v>
       </c>
       <c r="D10" t="n">
-        <v>53.1836</v>
+        <v>54.4856</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.3202</v>
+        <v>24.9161</v>
       </c>
       <c r="C11" t="n">
-        <v>46.7035</v>
+        <v>49.9132</v>
       </c>
       <c r="D11" t="n">
-        <v>59.785</v>
+        <v>57.3198</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.2575</v>
+        <v>27.114</v>
       </c>
       <c r="C12" t="n">
-        <v>50.3043</v>
+        <v>51.1084</v>
       </c>
       <c r="D12" t="n">
-        <v>58.5474</v>
+        <v>61.4005</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.936</v>
+        <v>29.836</v>
       </c>
       <c r="C13" t="n">
-        <v>49.7868</v>
+        <v>49.9104</v>
       </c>
       <c r="D13" t="n">
-        <v>61.5741</v>
+        <v>62.8357</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.248</v>
+        <v>23.9615</v>
       </c>
       <c r="C14" t="n">
-        <v>49.6899</v>
+        <v>50.6084</v>
       </c>
       <c r="D14" t="n">
-        <v>61.1973</v>
+        <v>62.0041</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.3356</v>
+        <v>26.1869</v>
       </c>
       <c r="C15" t="n">
-        <v>48.9987</v>
+        <v>51.0357</v>
       </c>
       <c r="D15" t="n">
-        <v>62.3126</v>
+        <v>61.7777</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.7354</v>
+        <v>27.3731</v>
       </c>
       <c r="C16" t="n">
-        <v>50.9314</v>
+        <v>51.2325</v>
       </c>
       <c r="D16" t="n">
-        <v>61.6871</v>
+        <v>62.204</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.514</v>
+        <v>26.5248</v>
       </c>
       <c r="C17" t="n">
-        <v>51.3052</v>
+        <v>51.226</v>
       </c>
       <c r="D17" t="n">
-        <v>62.799</v>
+        <v>64.99760000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.1167</v>
+        <v>12.9975</v>
       </c>
       <c r="C2" t="n">
-        <v>19.1674</v>
+        <v>19.0123</v>
       </c>
       <c r="D2" t="n">
-        <v>22.455</v>
+        <v>22.8412</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.3614</v>
+        <v>22.9788</v>
       </c>
       <c r="C3" t="n">
-        <v>30.8494</v>
+        <v>30.8161</v>
       </c>
       <c r="D3" t="n">
-        <v>33.7564</v>
+        <v>34.7347</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.1325</v>
+        <v>32.1703</v>
       </c>
       <c r="C4" t="n">
-        <v>34.9813</v>
+        <v>35.354</v>
       </c>
       <c r="D4" t="n">
-        <v>45.4868</v>
+        <v>44.5206</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.7823</v>
+        <v>26.4209</v>
       </c>
       <c r="C5" t="n">
-        <v>36.1473</v>
+        <v>37.7254</v>
       </c>
       <c r="D5" t="n">
-        <v>50.4805</v>
+        <v>50.7703</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.8823</v>
+        <v>31.571</v>
       </c>
       <c r="C6" t="n">
-        <v>41.5283</v>
+        <v>38.313</v>
       </c>
       <c r="D6" t="n">
-        <v>50.7374</v>
+        <v>50.6386</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.6735</v>
+        <v>37.5016</v>
       </c>
       <c r="C7" t="n">
-        <v>50.7981</v>
+        <v>49.5998</v>
       </c>
       <c r="D7" t="n">
-        <v>50.7552</v>
+        <v>50.9124</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.852</v>
+        <v>33.7793</v>
       </c>
       <c r="C8" t="n">
-        <v>47.4219</v>
+        <v>48.8506</v>
       </c>
       <c r="D8" t="n">
-        <v>52.6508</v>
+        <v>53.9378</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.6887</v>
+        <v>33.8151</v>
       </c>
       <c r="C9" t="n">
-        <v>51.1793</v>
+        <v>49.0983</v>
       </c>
       <c r="D9" t="n">
-        <v>60.0984</v>
+        <v>60.6963</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.5684</v>
+        <v>33.9081</v>
       </c>
       <c r="C10" t="n">
-        <v>51.0389</v>
+        <v>50.692</v>
       </c>
       <c r="D10" t="n">
-        <v>60.5655</v>
+        <v>60.6128</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.6826</v>
+        <v>34.7224</v>
       </c>
       <c r="C11" t="n">
-        <v>50.6135</v>
+        <v>50.6764</v>
       </c>
       <c r="D11" t="n">
-        <v>64.0962</v>
+        <v>60.1299</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.4112</v>
+        <v>34.2642</v>
       </c>
       <c r="C12" t="n">
-        <v>50.6359</v>
+        <v>51.3861</v>
       </c>
       <c r="D12" t="n">
-        <v>60.1453</v>
+        <v>58.7086</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.4849</v>
+        <v>35.2005</v>
       </c>
       <c r="C13" t="n">
-        <v>51.008</v>
+        <v>51.494</v>
       </c>
       <c r="D13" t="n">
-        <v>60.9016</v>
+        <v>62.2539</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.9334</v>
+        <v>34.9028</v>
       </c>
       <c r="C14" t="n">
-        <v>50.1895</v>
+        <v>50.9055</v>
       </c>
       <c r="D14" t="n">
-        <v>60.6877</v>
+        <v>60.8849</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.2947</v>
+        <v>35.496</v>
       </c>
       <c r="C15" t="n">
-        <v>49.8451</v>
+        <v>51.8853</v>
       </c>
       <c r="D15" t="n">
-        <v>60.2854</v>
+        <v>60.2586</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.1139</v>
+        <v>35.7355</v>
       </c>
       <c r="C16" t="n">
-        <v>50.881</v>
+        <v>51.0648</v>
       </c>
       <c r="D16" t="n">
-        <v>59.9763</v>
+        <v>59.7218</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>36.0837</v>
+        <v>35.6403</v>
       </c>
       <c r="C17" t="n">
-        <v>51.4846</v>
+        <v>50.7838</v>
       </c>
       <c r="D17" t="n">
-        <v>60.3573</v>
+        <v>58.548</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77336</v>
+        <v>4.75334</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7771</v>
+        <v>14.7157</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5262</v>
+        <v>19.8727</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.311489999999999</v>
+        <v>9.312580000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>27.9436</v>
+        <v>28.1675</v>
       </c>
       <c r="D3" t="n">
-        <v>36.4779</v>
+        <v>37.3171</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4255</v>
+        <v>13.4021</v>
       </c>
       <c r="C4" t="n">
-        <v>39.7042</v>
+        <v>40.1158</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2112</v>
+        <v>52.0124</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8827</v>
+        <v>15.7915</v>
       </c>
       <c r="C5" t="n">
-        <v>43.8943</v>
+        <v>43.5072</v>
       </c>
       <c r="D5" t="n">
-        <v>56.1049</v>
+        <v>59.0416</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1942</v>
+        <v>19.1216</v>
       </c>
       <c r="C6" t="n">
-        <v>52.0671</v>
+        <v>51.554</v>
       </c>
       <c r="D6" t="n">
-        <v>68.2058</v>
+        <v>69.3467</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4209</v>
+        <v>22.4087</v>
       </c>
       <c r="C7" t="n">
-        <v>61.2607</v>
+        <v>61.1635</v>
       </c>
       <c r="D7" t="n">
-        <v>79.43559999999999</v>
+        <v>81.44119999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1484</v>
+        <v>20.1418</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8339</v>
+        <v>55.676</v>
       </c>
       <c r="D8" t="n">
-        <v>67.01560000000001</v>
+        <v>71.759</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.2739</v>
+        <v>20.683</v>
       </c>
       <c r="C9" t="n">
-        <v>52.8568</v>
+        <v>54.9076</v>
       </c>
       <c r="D9" t="n">
-        <v>75.07299999999999</v>
+        <v>71.6935</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2242</v>
+        <v>20.8518</v>
       </c>
       <c r="C10" t="n">
-        <v>56.4566</v>
+        <v>53.7608</v>
       </c>
       <c r="D10" t="n">
-        <v>72.8043</v>
+        <v>71.1503</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3375</v>
+        <v>21.2488</v>
       </c>
       <c r="C11" t="n">
-        <v>56.618</v>
+        <v>56.1541</v>
       </c>
       <c r="D11" t="n">
-        <v>75.5903</v>
+        <v>75.1823</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7198</v>
+        <v>21.1847</v>
       </c>
       <c r="C12" t="n">
-        <v>57.1062</v>
+        <v>57.31</v>
       </c>
       <c r="D12" t="n">
-        <v>74.55240000000001</v>
+        <v>75.4919</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4791</v>
+        <v>21.2499</v>
       </c>
       <c r="C13" t="n">
-        <v>55.5966</v>
+        <v>58.5765</v>
       </c>
       <c r="D13" t="n">
-        <v>75.4735</v>
+        <v>77.0629</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5247</v>
+        <v>21.0876</v>
       </c>
       <c r="C14" t="n">
-        <v>59.0085</v>
+        <v>58.3689</v>
       </c>
       <c r="D14" t="n">
-        <v>75.96850000000001</v>
+        <v>74.59569999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.438</v>
+        <v>21.1934</v>
       </c>
       <c r="C15" t="n">
-        <v>58.4953</v>
+        <v>57.8597</v>
       </c>
       <c r="D15" t="n">
-        <v>74.399</v>
+        <v>77.44499999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3178</v>
+        <v>21.2271</v>
       </c>
       <c r="C16" t="n">
-        <v>57.1635</v>
+        <v>58.6419</v>
       </c>
       <c r="D16" t="n">
-        <v>74.4036</v>
+        <v>76.2538</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2295</v>
+        <v>21.3232</v>
       </c>
       <c r="C17" t="n">
-        <v>57.7606</v>
+        <v>59.4474</v>
       </c>
       <c r="D17" t="n">
-        <v>76.3034</v>
+        <v>77.6429</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.79313</v>
+        <v>4.77611</v>
       </c>
       <c r="C2" t="n">
-        <v>14.6389</v>
+        <v>14.5647</v>
       </c>
       <c r="D2" t="n">
-        <v>19.559</v>
+        <v>19.9182</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.372260000000001</v>
+        <v>9.364280000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>27.6809</v>
+        <v>27.8729</v>
       </c>
       <c r="D3" t="n">
-        <v>36.5064</v>
+        <v>37.424</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5947</v>
+        <v>13.4934</v>
       </c>
       <c r="C4" t="n">
-        <v>39.3696</v>
+        <v>38.6688</v>
       </c>
       <c r="D4" t="n">
-        <v>50.7448</v>
+        <v>52.251</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0324</v>
+        <v>16.0631</v>
       </c>
       <c r="C5" t="n">
-        <v>42.7483</v>
+        <v>42.2376</v>
       </c>
       <c r="D5" t="n">
-        <v>56.4542</v>
+        <v>57.8479</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4563</v>
+        <v>19.3639</v>
       </c>
       <c r="C6" t="n">
-        <v>50.5032</v>
+        <v>50.8325</v>
       </c>
       <c r="D6" t="n">
-        <v>67.5561</v>
+        <v>68.5827</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8258</v>
+        <v>22.771</v>
       </c>
       <c r="C7" t="n">
-        <v>59.8891</v>
+        <v>60.0205</v>
       </c>
       <c r="D7" t="n">
-        <v>78.7277</v>
+        <v>79.4706</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3832</v>
+        <v>20.4536</v>
       </c>
       <c r="C8" t="n">
-        <v>52.9099</v>
+        <v>53.8857</v>
       </c>
       <c r="D8" t="n">
-        <v>67.9045</v>
+        <v>71.1474</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0556</v>
+        <v>21.1526</v>
       </c>
       <c r="C9" t="n">
-        <v>51.8632</v>
+        <v>52.163</v>
       </c>
       <c r="D9" t="n">
-        <v>66.14490000000001</v>
+        <v>73.4042</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2669</v>
+        <v>21.2553</v>
       </c>
       <c r="C10" t="n">
-        <v>54.2486</v>
+        <v>53.1089</v>
       </c>
       <c r="D10" t="n">
-        <v>70.5296</v>
+        <v>72.18770000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5341</v>
+        <v>21.4689</v>
       </c>
       <c r="C11" t="n">
-        <v>55.2672</v>
+        <v>55.6426</v>
       </c>
       <c r="D11" t="n">
-        <v>71.1046</v>
+        <v>72.89700000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4373</v>
+        <v>21.4067</v>
       </c>
       <c r="C12" t="n">
-        <v>54.1554</v>
+        <v>55.893</v>
       </c>
       <c r="D12" t="n">
-        <v>73.0172</v>
+        <v>73.3008</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5491</v>
+        <v>21.16</v>
       </c>
       <c r="C13" t="n">
-        <v>56.8834</v>
+        <v>55.6498</v>
       </c>
       <c r="D13" t="n">
-        <v>71.9586</v>
+        <v>74.8515</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7697</v>
+        <v>21.3566</v>
       </c>
       <c r="C14" t="n">
-        <v>57.1742</v>
+        <v>56.2989</v>
       </c>
       <c r="D14" t="n">
-        <v>73.8232</v>
+        <v>74.1015</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.6244</v>
+        <v>21.5912</v>
       </c>
       <c r="C15" t="n">
-        <v>57.1237</v>
+        <v>54.5511</v>
       </c>
       <c r="D15" t="n">
-        <v>74.6698</v>
+        <v>76.5284</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5761</v>
+        <v>21.6245</v>
       </c>
       <c r="C16" t="n">
-        <v>56.7741</v>
+        <v>57.3551</v>
       </c>
       <c r="D16" t="n">
-        <v>76.59220000000001</v>
+        <v>76.7457</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6514</v>
+        <v>21.5516</v>
       </c>
       <c r="C17" t="n">
-        <v>59.0179</v>
+        <v>57.831</v>
       </c>
       <c r="D17" t="n">
-        <v>73.3271</v>
+        <v>76.56010000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87274</v>
+        <v>8.83381</v>
       </c>
       <c r="C2" t="n">
-        <v>18.404</v>
+        <v>18.3436</v>
       </c>
       <c r="D2" t="n">
-        <v>22.2374</v>
+        <v>22.7025</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0313</v>
+        <v>16.9252</v>
       </c>
       <c r="C3" t="n">
-        <v>33.924</v>
+        <v>33.8518</v>
       </c>
       <c r="D3" t="n">
-        <v>40.5667</v>
+        <v>41.4968</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.517</v>
+        <v>24.4595</v>
       </c>
       <c r="C4" t="n">
-        <v>48.2545</v>
+        <v>48.5651</v>
       </c>
       <c r="D4" t="n">
-        <v>57.572</v>
+        <v>58.9988</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.2151</v>
+        <v>24.715</v>
       </c>
       <c r="C5" t="n">
-        <v>47.7562</v>
+        <v>47.2296</v>
       </c>
       <c r="D5" t="n">
-        <v>60.8017</v>
+        <v>62.059</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.3172</v>
+        <v>28.1536</v>
       </c>
       <c r="C6" t="n">
-        <v>54.2042</v>
+        <v>54.3541</v>
       </c>
       <c r="D6" t="n">
-        <v>71.2604</v>
+        <v>71.50360000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.5059</v>
+        <v>34.2537</v>
       </c>
       <c r="C7" t="n">
-        <v>62.1127</v>
+        <v>62.0613</v>
       </c>
       <c r="D7" t="n">
-        <v>79.4448</v>
+        <v>83.3914</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.5936</v>
+        <v>31.735</v>
       </c>
       <c r="C8" t="n">
-        <v>59.8904</v>
+        <v>59.8865</v>
       </c>
       <c r="D8" t="n">
-        <v>78.68819999999999</v>
+        <v>79.75230000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.9658</v>
+        <v>32.929</v>
       </c>
       <c r="C9" t="n">
-        <v>60.2482</v>
+        <v>59.6424</v>
       </c>
       <c r="D9" t="n">
-        <v>79.65179999999999</v>
+        <v>82.0883</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.8454</v>
+        <v>32.2935</v>
       </c>
       <c r="C10" t="n">
-        <v>60.8361</v>
+        <v>60.6563</v>
       </c>
       <c r="D10" t="n">
-        <v>80.7247</v>
+        <v>81.36499999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.0505</v>
+        <v>32.3378</v>
       </c>
       <c r="C11" t="n">
-        <v>61.472</v>
+        <v>61.1942</v>
       </c>
       <c r="D11" t="n">
-        <v>79.7332</v>
+        <v>82.8622</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.7408</v>
+        <v>32.619</v>
       </c>
       <c r="C12" t="n">
-        <v>60.6541</v>
+        <v>61.7347</v>
       </c>
       <c r="D12" t="n">
-        <v>81.4181</v>
+        <v>82.6538</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.8684</v>
+        <v>32.5518</v>
       </c>
       <c r="C13" t="n">
-        <v>62.8732</v>
+        <v>60.3445</v>
       </c>
       <c r="D13" t="n">
-        <v>82.0719</v>
+        <v>83.0594</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.0234</v>
+        <v>32.2589</v>
       </c>
       <c r="C14" t="n">
-        <v>61.5666</v>
+        <v>61.5211</v>
       </c>
       <c r="D14" t="n">
-        <v>80.9353</v>
+        <v>83.6885</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.4598</v>
+        <v>32.7623</v>
       </c>
       <c r="C15" t="n">
-        <v>62.3838</v>
+        <v>61.0158</v>
       </c>
       <c r="D15" t="n">
-        <v>80.56100000000001</v>
+        <v>82.71850000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.6996</v>
+        <v>32.8665</v>
       </c>
       <c r="C16" t="n">
-        <v>61.7727</v>
+        <v>61.9847</v>
       </c>
       <c r="D16" t="n">
-        <v>81.55119999999999</v>
+        <v>81.96299999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.4587</v>
+        <v>32.7037</v>
       </c>
       <c r="C17" t="n">
-        <v>62.156</v>
+        <v>61.1742</v>
       </c>
       <c r="D17" t="n">
-        <v>81.9515</v>
+        <v>81.3725</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2962</v>
+        <v>10.2642</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4585</v>
+        <v>17.5507</v>
       </c>
       <c r="D2" t="n">
-        <v>21.5608</v>
+        <v>21.1512</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.1449</v>
+        <v>19.1678</v>
       </c>
       <c r="C3" t="n">
-        <v>26.7822</v>
+        <v>26.0894</v>
       </c>
       <c r="D3" t="n">
-        <v>32.5921</v>
+        <v>32.7817</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.0906</v>
+        <v>25.1879</v>
       </c>
       <c r="C4" t="n">
-        <v>33.1502</v>
+        <v>33.5445</v>
       </c>
       <c r="D4" t="n">
-        <v>43.1766</v>
+        <v>39.9274</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.6188</v>
+        <v>21.0088</v>
       </c>
       <c r="C5" t="n">
-        <v>35.0634</v>
+        <v>34.5291</v>
       </c>
       <c r="D5" t="n">
-        <v>43.9506</v>
+        <v>43.6673</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.4188</v>
+        <v>24.3119</v>
       </c>
       <c r="C6" t="n">
-        <v>38.5021</v>
+        <v>38.4317</v>
       </c>
       <c r="D6" t="n">
-        <v>43.7149</v>
+        <v>43.8807</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9596</v>
+        <v>29.067</v>
       </c>
       <c r="C7" t="n">
-        <v>38.6389</v>
+        <v>42.8025</v>
       </c>
       <c r="D7" t="n">
-        <v>49.1303</v>
+        <v>50.6828</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.1725</v>
+        <v>21.1806</v>
       </c>
       <c r="C8" t="n">
-        <v>39.9736</v>
+        <v>40.154</v>
       </c>
       <c r="D8" t="n">
-        <v>47.6437</v>
+        <v>46.7852</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.2402</v>
+        <v>23.817</v>
       </c>
       <c r="C9" t="n">
-        <v>43.6334</v>
+        <v>43.4186</v>
       </c>
       <c r="D9" t="n">
-        <v>52.8149</v>
+        <v>47.1134</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.3921</v>
+        <v>26.3412</v>
       </c>
       <c r="C10" t="n">
-        <v>46.0225</v>
+        <v>44.8511</v>
       </c>
       <c r="D10" t="n">
-        <v>54.011</v>
+        <v>56.5934</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2334</v>
+        <v>24.2979</v>
       </c>
       <c r="C11" t="n">
-        <v>48.0855</v>
+        <v>49.7973</v>
       </c>
       <c r="D11" t="n">
-        <v>58.0499</v>
+        <v>57.3116</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.443</v>
+        <v>26.4453</v>
       </c>
       <c r="C12" t="n">
-        <v>49.9683</v>
+        <v>49.6655</v>
       </c>
       <c r="D12" t="n">
-        <v>61.0592</v>
+        <v>57.9607</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.931</v>
+        <v>28.9989</v>
       </c>
       <c r="C13" t="n">
-        <v>50.666</v>
+        <v>50.9001</v>
       </c>
       <c r="D13" t="n">
-        <v>59.777</v>
+        <v>58.6248</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.8806</v>
+        <v>23.8712</v>
       </c>
       <c r="C14" t="n">
-        <v>51.1569</v>
+        <v>50.3531</v>
       </c>
       <c r="D14" t="n">
-        <v>63.5648</v>
+        <v>59.7989</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2892</v>
+        <v>25.4886</v>
       </c>
       <c r="C15" t="n">
-        <v>52.1158</v>
+        <v>50.4913</v>
       </c>
       <c r="D15" t="n">
-        <v>63.653</v>
+        <v>59.1912</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.729</v>
+        <v>26.9085</v>
       </c>
       <c r="C16" t="n">
-        <v>51.4865</v>
+        <v>50.8333</v>
       </c>
       <c r="D16" t="n">
-        <v>61.3797</v>
+        <v>60.0984</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.8333</v>
+        <v>25.8656</v>
       </c>
       <c r="C17" t="n">
-        <v>50.8487</v>
+        <v>50.5202</v>
       </c>
       <c r="D17" t="n">
-        <v>63.316</v>
+        <v>60.933</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.6069</v>
+        <v>10.7458</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3071</v>
+        <v>17.4167</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3875</v>
+        <v>20.9566</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.9324</v>
+        <v>20.0985</v>
       </c>
       <c r="C3" t="n">
-        <v>26.4688</v>
+        <v>26.2559</v>
       </c>
       <c r="D3" t="n">
-        <v>32.8403</v>
+        <v>32.1405</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.7091</v>
+        <v>27.7112</v>
       </c>
       <c r="C4" t="n">
-        <v>33.5078</v>
+        <v>34.1299</v>
       </c>
       <c r="D4" t="n">
-        <v>38.9248</v>
+        <v>38.9386</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.0951</v>
+        <v>20.7344</v>
       </c>
       <c r="C5" t="n">
-        <v>36.0534</v>
+        <v>36.1764</v>
       </c>
       <c r="D5" t="n">
-        <v>43.3239</v>
+        <v>40.2338</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.7599</v>
+        <v>24.8822</v>
       </c>
       <c r="C6" t="n">
-        <v>37.3153</v>
+        <v>38.066</v>
       </c>
       <c r="D6" t="n">
-        <v>44.0479</v>
+        <v>43.9285</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.8408</v>
+        <v>29.9382</v>
       </c>
       <c r="C7" t="n">
-        <v>42.8917</v>
+        <v>43.6454</v>
       </c>
       <c r="D7" t="n">
-        <v>50.8744</v>
+        <v>49.8613</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.5575</v>
+        <v>21.6302</v>
       </c>
       <c r="C8" t="n">
-        <v>39.2709</v>
+        <v>39.5294</v>
       </c>
       <c r="D8" t="n">
-        <v>49.4094</v>
+        <v>47.8709</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.0718</v>
+        <v>24.9566</v>
       </c>
       <c r="C9" t="n">
-        <v>46.916</v>
+        <v>44.3427</v>
       </c>
       <c r="D9" t="n">
-        <v>50.9143</v>
+        <v>50.5659</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.0198</v>
+        <v>27.1767</v>
       </c>
       <c r="C10" t="n">
-        <v>47.1126</v>
+        <v>46.039</v>
       </c>
       <c r="D10" t="n">
-        <v>54.4856</v>
+        <v>53.4326</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9161</v>
+        <v>25.0236</v>
       </c>
       <c r="C11" t="n">
-        <v>49.9132</v>
+        <v>47.736</v>
       </c>
       <c r="D11" t="n">
-        <v>57.3198</v>
+        <v>58.5905</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.114</v>
+        <v>27.3456</v>
       </c>
       <c r="C12" t="n">
-        <v>51.1084</v>
+        <v>50.0616</v>
       </c>
       <c r="D12" t="n">
-        <v>61.4005</v>
+        <v>59.9504</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.836</v>
+        <v>29.9468</v>
       </c>
       <c r="C13" t="n">
-        <v>49.9104</v>
+        <v>50.5386</v>
       </c>
       <c r="D13" t="n">
-        <v>62.8357</v>
+        <v>60.7935</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9615</v>
+        <v>24.0416</v>
       </c>
       <c r="C14" t="n">
-        <v>50.6084</v>
+        <v>51.7318</v>
       </c>
       <c r="D14" t="n">
-        <v>62.0041</v>
+        <v>60.5995</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.1869</v>
+        <v>26.3464</v>
       </c>
       <c r="C15" t="n">
-        <v>51.0357</v>
+        <v>52.5205</v>
       </c>
       <c r="D15" t="n">
-        <v>61.7777</v>
+        <v>61.6035</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.3731</v>
+        <v>27.068</v>
       </c>
       <c r="C16" t="n">
-        <v>51.2325</v>
+        <v>51.3255</v>
       </c>
       <c r="D16" t="n">
-        <v>62.204</v>
+        <v>64.7039</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.5248</v>
+        <v>26.3856</v>
       </c>
       <c r="C17" t="n">
-        <v>51.226</v>
+        <v>51.2436</v>
       </c>
       <c r="D17" t="n">
-        <v>64.99760000000001</v>
+        <v>61.5636</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.9975</v>
+        <v>13.0701</v>
       </c>
       <c r="C2" t="n">
-        <v>19.0123</v>
+        <v>19.1319</v>
       </c>
       <c r="D2" t="n">
-        <v>22.8412</v>
+        <v>22.3372</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>22.9788</v>
+        <v>23.2737</v>
       </c>
       <c r="C3" t="n">
-        <v>30.8161</v>
+        <v>31.1632</v>
       </c>
       <c r="D3" t="n">
-        <v>34.7347</v>
+        <v>34.6584</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.1703</v>
+        <v>32.0242</v>
       </c>
       <c r="C4" t="n">
-        <v>35.354</v>
+        <v>35.5004</v>
       </c>
       <c r="D4" t="n">
-        <v>44.5206</v>
+        <v>41.6169</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.4209</v>
+        <v>26.698</v>
       </c>
       <c r="C5" t="n">
-        <v>37.7254</v>
+        <v>34.1588</v>
       </c>
       <c r="D5" t="n">
-        <v>50.7703</v>
+        <v>47.0014</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.571</v>
+        <v>31.7778</v>
       </c>
       <c r="C6" t="n">
-        <v>38.313</v>
+        <v>41.5963</v>
       </c>
       <c r="D6" t="n">
-        <v>50.6386</v>
+        <v>50.7148</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.5016</v>
+        <v>37.6244</v>
       </c>
       <c r="C7" t="n">
-        <v>49.5998</v>
+        <v>43.6566</v>
       </c>
       <c r="D7" t="n">
-        <v>50.9124</v>
+        <v>50.6901</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.7793</v>
+        <v>33.2275</v>
       </c>
       <c r="C8" t="n">
-        <v>48.8506</v>
+        <v>45.03</v>
       </c>
       <c r="D8" t="n">
-        <v>53.9378</v>
+        <v>50.6451</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.8151</v>
+        <v>33.8443</v>
       </c>
       <c r="C9" t="n">
-        <v>49.0983</v>
+        <v>50.5596</v>
       </c>
       <c r="D9" t="n">
-        <v>60.6963</v>
+        <v>57.417</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.9081</v>
+        <v>34.7723</v>
       </c>
       <c r="C10" t="n">
-        <v>50.692</v>
+        <v>50.4268</v>
       </c>
       <c r="D10" t="n">
-        <v>60.6128</v>
+        <v>60.2903</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.7224</v>
+        <v>34.3982</v>
       </c>
       <c r="C11" t="n">
-        <v>50.6764</v>
+        <v>50.618</v>
       </c>
       <c r="D11" t="n">
-        <v>60.1299</v>
+        <v>58.3973</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.2642</v>
+        <v>35.2574</v>
       </c>
       <c r="C12" t="n">
-        <v>51.3861</v>
+        <v>51.3004</v>
       </c>
       <c r="D12" t="n">
-        <v>58.7086</v>
+        <v>60.3385</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.2005</v>
+        <v>35.0687</v>
       </c>
       <c r="C13" t="n">
-        <v>51.494</v>
+        <v>50.7034</v>
       </c>
       <c r="D13" t="n">
-        <v>62.2539</v>
+        <v>59.4571</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.9028</v>
+        <v>35.0938</v>
       </c>
       <c r="C14" t="n">
-        <v>50.9055</v>
+        <v>50.9106</v>
       </c>
       <c r="D14" t="n">
-        <v>60.8849</v>
+        <v>59.6317</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.496</v>
+        <v>35.4214</v>
       </c>
       <c r="C15" t="n">
-        <v>51.8853</v>
+        <v>50.6508</v>
       </c>
       <c r="D15" t="n">
-        <v>60.2586</v>
+        <v>59.4057</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.7355</v>
+        <v>35.6245</v>
       </c>
       <c r="C16" t="n">
-        <v>51.0648</v>
+        <v>50.5612</v>
       </c>
       <c r="D16" t="n">
-        <v>59.7218</v>
+        <v>58.7142</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.6403</v>
+        <v>35.5346</v>
       </c>
       <c r="C17" t="n">
-        <v>50.7838</v>
+        <v>50.8319</v>
       </c>
       <c r="D17" t="n">
-        <v>58.548</v>
+        <v>55.9208</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.75334</v>
+        <v>4.77648</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7157</v>
+        <v>14.7589</v>
       </c>
       <c r="D2" t="n">
-        <v>19.8727</v>
+        <v>19.5889</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.312580000000001</v>
+        <v>9.30176</v>
       </c>
       <c r="C3" t="n">
-        <v>28.1675</v>
+        <v>27.9139</v>
       </c>
       <c r="D3" t="n">
-        <v>37.3171</v>
+        <v>36.5858</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4021</v>
+        <v>13.4428</v>
       </c>
       <c r="C4" t="n">
-        <v>40.1158</v>
+        <v>39.9619</v>
       </c>
       <c r="D4" t="n">
-        <v>52.0124</v>
+        <v>50.6916</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7915</v>
+        <v>15.8363</v>
       </c>
       <c r="C5" t="n">
-        <v>43.5072</v>
+        <v>43.5855</v>
       </c>
       <c r="D5" t="n">
-        <v>59.0416</v>
+        <v>57.2154</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1216</v>
+        <v>19.196</v>
       </c>
       <c r="C6" t="n">
-        <v>51.554</v>
+        <v>51.8046</v>
       </c>
       <c r="D6" t="n">
-        <v>69.3467</v>
+        <v>68.3918</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4087</v>
+        <v>22.4563</v>
       </c>
       <c r="C7" t="n">
-        <v>61.1635</v>
+        <v>61.0819</v>
       </c>
       <c r="D7" t="n">
-        <v>81.44119999999999</v>
+        <v>79.6294</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1418</v>
+        <v>20.2567</v>
       </c>
       <c r="C8" t="n">
-        <v>55.676</v>
+        <v>55.8886</v>
       </c>
       <c r="D8" t="n">
-        <v>71.759</v>
+        <v>69.6469</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.683</v>
+        <v>20.6927</v>
       </c>
       <c r="C9" t="n">
-        <v>54.9076</v>
+        <v>54.8934</v>
       </c>
       <c r="D9" t="n">
-        <v>71.6935</v>
+        <v>71.62730000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8518</v>
+        <v>21.198</v>
       </c>
       <c r="C10" t="n">
-        <v>53.7608</v>
+        <v>53.9</v>
       </c>
       <c r="D10" t="n">
-        <v>71.1503</v>
+        <v>74.3053</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2488</v>
+        <v>21.5771</v>
       </c>
       <c r="C11" t="n">
-        <v>56.1541</v>
+        <v>56.3193</v>
       </c>
       <c r="D11" t="n">
-        <v>75.1823</v>
+        <v>75.3647</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.1847</v>
+        <v>21.2395</v>
       </c>
       <c r="C12" t="n">
-        <v>57.31</v>
+        <v>57.9237</v>
       </c>
       <c r="D12" t="n">
-        <v>75.4919</v>
+        <v>74.925</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2499</v>
+        <v>21.7516</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5765</v>
+        <v>58.9671</v>
       </c>
       <c r="D13" t="n">
-        <v>77.0629</v>
+        <v>74.4957</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.0876</v>
+        <v>20.8741</v>
       </c>
       <c r="C14" t="n">
-        <v>58.3689</v>
+        <v>59.3245</v>
       </c>
       <c r="D14" t="n">
-        <v>74.59569999999999</v>
+        <v>73.6908</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.1934</v>
+        <v>20.9698</v>
       </c>
       <c r="C15" t="n">
-        <v>57.8597</v>
+        <v>57.0382</v>
       </c>
       <c r="D15" t="n">
-        <v>77.44499999999999</v>
+        <v>75.7016</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2271</v>
+        <v>21.0126</v>
       </c>
       <c r="C16" t="n">
-        <v>58.6419</v>
+        <v>60.4812</v>
       </c>
       <c r="D16" t="n">
-        <v>76.2538</v>
+        <v>75.87569999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.3232</v>
+        <v>21.3974</v>
       </c>
       <c r="C17" t="n">
-        <v>59.4474</v>
+        <v>60.6658</v>
       </c>
       <c r="D17" t="n">
-        <v>77.6429</v>
+        <v>75.5574</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77611</v>
+        <v>4.79019</v>
       </c>
       <c r="C2" t="n">
-        <v>14.5647</v>
+        <v>14.6627</v>
       </c>
       <c r="D2" t="n">
-        <v>19.9182</v>
+        <v>19.6272</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.364280000000001</v>
+        <v>9.390739999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>27.8729</v>
+        <v>28.0545</v>
       </c>
       <c r="D3" t="n">
-        <v>37.424</v>
+        <v>36.8263</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4934</v>
+        <v>13.5217</v>
       </c>
       <c r="C4" t="n">
-        <v>38.6688</v>
+        <v>39.5566</v>
       </c>
       <c r="D4" t="n">
-        <v>52.251</v>
+        <v>50.9111</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0631</v>
+        <v>16.1188</v>
       </c>
       <c r="C5" t="n">
-        <v>42.2376</v>
+        <v>42.8463</v>
       </c>
       <c r="D5" t="n">
-        <v>57.8479</v>
+        <v>56.903</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3639</v>
+        <v>19.4388</v>
       </c>
       <c r="C6" t="n">
-        <v>50.8325</v>
+        <v>50.6038</v>
       </c>
       <c r="D6" t="n">
-        <v>68.5827</v>
+        <v>68.1052</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.771</v>
+        <v>22.8529</v>
       </c>
       <c r="C7" t="n">
-        <v>60.0205</v>
+        <v>59.6855</v>
       </c>
       <c r="D7" t="n">
-        <v>79.4706</v>
+        <v>79.4395</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4536</v>
+        <v>20.4424</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8857</v>
+        <v>50.843</v>
       </c>
       <c r="D8" t="n">
-        <v>71.1474</v>
+        <v>67.4774</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1526</v>
+        <v>21.2144</v>
       </c>
       <c r="C9" t="n">
-        <v>52.163</v>
+        <v>53.17</v>
       </c>
       <c r="D9" t="n">
-        <v>73.4042</v>
+        <v>68.96559999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2553</v>
+        <v>21.795</v>
       </c>
       <c r="C10" t="n">
-        <v>53.1089</v>
+        <v>52.6901</v>
       </c>
       <c r="D10" t="n">
-        <v>72.18770000000001</v>
+        <v>72.6816</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4689</v>
+        <v>21.6961</v>
       </c>
       <c r="C11" t="n">
-        <v>55.6426</v>
+        <v>54.6216</v>
       </c>
       <c r="D11" t="n">
-        <v>72.89700000000001</v>
+        <v>73.3121</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4067</v>
+        <v>21.3591</v>
       </c>
       <c r="C12" t="n">
-        <v>55.893</v>
+        <v>54.4525</v>
       </c>
       <c r="D12" t="n">
-        <v>73.3008</v>
+        <v>73.51139999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.16</v>
+        <v>21.7666</v>
       </c>
       <c r="C13" t="n">
-        <v>55.6498</v>
+        <v>56.642</v>
       </c>
       <c r="D13" t="n">
-        <v>74.8515</v>
+        <v>73.8245</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3566</v>
+        <v>21.407</v>
       </c>
       <c r="C14" t="n">
-        <v>56.2989</v>
+        <v>56.5539</v>
       </c>
       <c r="D14" t="n">
-        <v>74.1015</v>
+        <v>74.1123</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5912</v>
+        <v>21.6025</v>
       </c>
       <c r="C15" t="n">
-        <v>54.5511</v>
+        <v>56.464</v>
       </c>
       <c r="D15" t="n">
-        <v>76.5284</v>
+        <v>72.8317</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.6245</v>
+        <v>21.6185</v>
       </c>
       <c r="C16" t="n">
-        <v>57.3551</v>
+        <v>56.5426</v>
       </c>
       <c r="D16" t="n">
-        <v>76.7457</v>
+        <v>74.87350000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.5516</v>
+        <v>21.6596</v>
       </c>
       <c r="C17" t="n">
-        <v>57.831</v>
+        <v>57.3889</v>
       </c>
       <c r="D17" t="n">
-        <v>76.56010000000001</v>
+        <v>74.29649999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.83381</v>
+        <v>8.900410000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>18.3436</v>
+        <v>18.5423</v>
       </c>
       <c r="D2" t="n">
-        <v>22.7025</v>
+        <v>22.2816</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.9252</v>
+        <v>17.0437</v>
       </c>
       <c r="C3" t="n">
-        <v>33.8518</v>
+        <v>34.2278</v>
       </c>
       <c r="D3" t="n">
-        <v>41.4968</v>
+        <v>40.3418</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.4595</v>
+        <v>24.5393</v>
       </c>
       <c r="C4" t="n">
-        <v>48.5651</v>
+        <v>48.1243</v>
       </c>
       <c r="D4" t="n">
-        <v>58.9988</v>
+        <v>57.6415</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.715</v>
+        <v>23.3146</v>
       </c>
       <c r="C5" t="n">
-        <v>47.2296</v>
+        <v>47.0157</v>
       </c>
       <c r="D5" t="n">
-        <v>62.059</v>
+        <v>59.9047</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.1536</v>
+        <v>28.275</v>
       </c>
       <c r="C6" t="n">
-        <v>54.3541</v>
+        <v>54.1926</v>
       </c>
       <c r="D6" t="n">
-        <v>71.50360000000001</v>
+        <v>71.2501</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.2537</v>
+        <v>34.3763</v>
       </c>
       <c r="C7" t="n">
-        <v>62.0613</v>
+        <v>62.1212</v>
       </c>
       <c r="D7" t="n">
-        <v>83.3914</v>
+        <v>79.1794</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.735</v>
+        <v>31.4118</v>
       </c>
       <c r="C8" t="n">
-        <v>59.8865</v>
+        <v>60.0727</v>
       </c>
       <c r="D8" t="n">
-        <v>79.75230000000001</v>
+        <v>77.8858</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.929</v>
+        <v>31.3062</v>
       </c>
       <c r="C9" t="n">
-        <v>59.6424</v>
+        <v>60.8832</v>
       </c>
       <c r="D9" t="n">
-        <v>82.0883</v>
+        <v>78.81</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.2935</v>
+        <v>32.2849</v>
       </c>
       <c r="C10" t="n">
-        <v>60.6563</v>
+        <v>61.705</v>
       </c>
       <c r="D10" t="n">
-        <v>81.36499999999999</v>
+        <v>80.3527</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3378</v>
+        <v>32.7671</v>
       </c>
       <c r="C11" t="n">
-        <v>61.1942</v>
+        <v>61.2605</v>
       </c>
       <c r="D11" t="n">
-        <v>82.8622</v>
+        <v>80.5214</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.619</v>
+        <v>32.7907</v>
       </c>
       <c r="C12" t="n">
-        <v>61.7347</v>
+        <v>61.8267</v>
       </c>
       <c r="D12" t="n">
-        <v>82.6538</v>
+        <v>80.825</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.5518</v>
+        <v>33.1773</v>
       </c>
       <c r="C13" t="n">
-        <v>60.3445</v>
+        <v>61.9717</v>
       </c>
       <c r="D13" t="n">
-        <v>83.0594</v>
+        <v>81.2419</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.2589</v>
+        <v>32.5451</v>
       </c>
       <c r="C14" t="n">
-        <v>61.5211</v>
+        <v>61.6154</v>
       </c>
       <c r="D14" t="n">
-        <v>83.6885</v>
+        <v>80.37779999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.7623</v>
+        <v>32.5654</v>
       </c>
       <c r="C15" t="n">
-        <v>61.0158</v>
+        <v>61.7727</v>
       </c>
       <c r="D15" t="n">
-        <v>82.71850000000001</v>
+        <v>80.8573</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.8665</v>
+        <v>32.5627</v>
       </c>
       <c r="C16" t="n">
-        <v>61.9847</v>
+        <v>62.1529</v>
       </c>
       <c r="D16" t="n">
-        <v>81.96299999999999</v>
+        <v>80.6914</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.7037</v>
+        <v>32.6715</v>
       </c>
       <c r="C17" t="n">
-        <v>61.1742</v>
+        <v>62.4824</v>
       </c>
       <c r="D17" t="n">
-        <v>81.3725</v>
+        <v>80.465</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2642</v>
+        <v>10.3929</v>
       </c>
       <c r="C2" t="n">
-        <v>17.5507</v>
+        <v>17.5682</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1512</v>
+        <v>21.1596</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.1678</v>
+        <v>19.5765</v>
       </c>
       <c r="C3" t="n">
-        <v>26.0894</v>
+        <v>26.527</v>
       </c>
       <c r="D3" t="n">
-        <v>32.7817</v>
+        <v>32.1407</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.1879</v>
+        <v>26.1819</v>
       </c>
       <c r="C4" t="n">
-        <v>33.5445</v>
+        <v>33.5852</v>
       </c>
       <c r="D4" t="n">
-        <v>39.9274</v>
+        <v>39.9625</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.0088</v>
+        <v>20.6508</v>
       </c>
       <c r="C5" t="n">
-        <v>34.5291</v>
+        <v>34.8574</v>
       </c>
       <c r="D5" t="n">
-        <v>43.6673</v>
+        <v>43.8213</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.3119</v>
+        <v>24.4643</v>
       </c>
       <c r="C6" t="n">
-        <v>38.4317</v>
+        <v>38.7123</v>
       </c>
       <c r="D6" t="n">
-        <v>43.8807</v>
+        <v>44.0778</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.067</v>
+        <v>29.0987</v>
       </c>
       <c r="C7" t="n">
-        <v>42.8025</v>
+        <v>40.5353</v>
       </c>
       <c r="D7" t="n">
-        <v>50.6828</v>
+        <v>48.7372</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.1806</v>
+        <v>20.9988</v>
       </c>
       <c r="C8" t="n">
-        <v>40.154</v>
+        <v>40.7644</v>
       </c>
       <c r="D8" t="n">
-        <v>46.7852</v>
+        <v>45.6114</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.817</v>
+        <v>23.9077</v>
       </c>
       <c r="C9" t="n">
-        <v>43.4186</v>
+        <v>43.0378</v>
       </c>
       <c r="D9" t="n">
-        <v>47.1134</v>
+        <v>50.596</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.3412</v>
+        <v>26.4945</v>
       </c>
       <c r="C10" t="n">
-        <v>44.8511</v>
+        <v>49.8696</v>
       </c>
       <c r="D10" t="n">
-        <v>56.5934</v>
+        <v>52.6391</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2979</v>
+        <v>24.343</v>
       </c>
       <c r="C11" t="n">
-        <v>49.7973</v>
+        <v>49.7338</v>
       </c>
       <c r="D11" t="n">
-        <v>57.3116</v>
+        <v>59.1932</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4453</v>
+        <v>26.4702</v>
       </c>
       <c r="C12" t="n">
-        <v>49.6655</v>
+        <v>49.4344</v>
       </c>
       <c r="D12" t="n">
-        <v>57.9607</v>
+        <v>56.1387</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.9989</v>
+        <v>29.0471</v>
       </c>
       <c r="C13" t="n">
-        <v>50.9001</v>
+        <v>51.5367</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6248</v>
+        <v>60.0652</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.8712</v>
+        <v>23.9069</v>
       </c>
       <c r="C14" t="n">
-        <v>50.3531</v>
+        <v>52.7788</v>
       </c>
       <c r="D14" t="n">
-        <v>59.7989</v>
+        <v>58.3147</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4886</v>
+        <v>25.6565</v>
       </c>
       <c r="C15" t="n">
-        <v>50.4913</v>
+        <v>52.4313</v>
       </c>
       <c r="D15" t="n">
-        <v>59.1912</v>
+        <v>58.0182</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.9085</v>
+        <v>26.9403</v>
       </c>
       <c r="C16" t="n">
-        <v>50.8333</v>
+        <v>50.9445</v>
       </c>
       <c r="D16" t="n">
-        <v>60.0984</v>
+        <v>59.5296</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.8656</v>
+        <v>25.9528</v>
       </c>
       <c r="C17" t="n">
-        <v>50.5202</v>
+        <v>51.6544</v>
       </c>
       <c r="D17" t="n">
-        <v>60.933</v>
+        <v>60.3955</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7458</v>
+        <v>10.6972</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4167</v>
+        <v>17.435</v>
       </c>
       <c r="D2" t="n">
-        <v>20.9566</v>
+        <v>21.0005</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0985</v>
+        <v>20.2401</v>
       </c>
       <c r="C3" t="n">
-        <v>26.2559</v>
+        <v>28.0962</v>
       </c>
       <c r="D3" t="n">
-        <v>32.1405</v>
+        <v>33.6843</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.7112</v>
+        <v>27.9686</v>
       </c>
       <c r="C4" t="n">
-        <v>34.1299</v>
+        <v>34.8566</v>
       </c>
       <c r="D4" t="n">
-        <v>38.9386</v>
+        <v>38.1198</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.7344</v>
+        <v>20.8668</v>
       </c>
       <c r="C5" t="n">
-        <v>36.1764</v>
+        <v>35.5689</v>
       </c>
       <c r="D5" t="n">
-        <v>40.2338</v>
+        <v>40.6539</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.8822</v>
+        <v>24.8672</v>
       </c>
       <c r="C6" t="n">
-        <v>38.066</v>
+        <v>36.4732</v>
       </c>
       <c r="D6" t="n">
-        <v>43.9285</v>
+        <v>43.9431</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9382</v>
+        <v>29.9456</v>
       </c>
       <c r="C7" t="n">
-        <v>43.6454</v>
+        <v>41.4609</v>
       </c>
       <c r="D7" t="n">
-        <v>49.8613</v>
+        <v>50.5638</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6302</v>
+        <v>21.8514</v>
       </c>
       <c r="C8" t="n">
-        <v>39.5294</v>
+        <v>42.2242</v>
       </c>
       <c r="D8" t="n">
-        <v>47.8709</v>
+        <v>47.379</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.9566</v>
+        <v>25.1687</v>
       </c>
       <c r="C9" t="n">
-        <v>44.3427</v>
+        <v>43.7711</v>
       </c>
       <c r="D9" t="n">
-        <v>50.5659</v>
+        <v>50.7156</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.1767</v>
+        <v>27.9692</v>
       </c>
       <c r="C10" t="n">
-        <v>46.039</v>
+        <v>45.348</v>
       </c>
       <c r="D10" t="n">
-        <v>53.4326</v>
+        <v>51.7056</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0236</v>
+        <v>25.141</v>
       </c>
       <c r="C11" t="n">
-        <v>47.736</v>
+        <v>50.6557</v>
       </c>
       <c r="D11" t="n">
-        <v>58.5905</v>
+        <v>58.989</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.3456</v>
+        <v>27.4665</v>
       </c>
       <c r="C12" t="n">
-        <v>50.0616</v>
+        <v>51.3328</v>
       </c>
       <c r="D12" t="n">
-        <v>59.9504</v>
+        <v>60.5972</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9468</v>
+        <v>29.9546</v>
       </c>
       <c r="C13" t="n">
-        <v>50.5386</v>
+        <v>51.2312</v>
       </c>
       <c r="D13" t="n">
-        <v>60.7935</v>
+        <v>59.144</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0416</v>
+        <v>24.3849</v>
       </c>
       <c r="C14" t="n">
-        <v>51.7318</v>
+        <v>52.187</v>
       </c>
       <c r="D14" t="n">
-        <v>60.5995</v>
+        <v>60.5556</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.3464</v>
+        <v>26.4548</v>
       </c>
       <c r="C15" t="n">
-        <v>52.5205</v>
+        <v>51.1037</v>
       </c>
       <c r="D15" t="n">
-        <v>61.6035</v>
+        <v>60.0849</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.068</v>
+        <v>27.4321</v>
       </c>
       <c r="C16" t="n">
-        <v>51.3255</v>
+        <v>51.7323</v>
       </c>
       <c r="D16" t="n">
-        <v>64.7039</v>
+        <v>60.7166</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.3856</v>
+        <v>26.3118</v>
       </c>
       <c r="C17" t="n">
-        <v>51.2436</v>
+        <v>51.1816</v>
       </c>
       <c r="D17" t="n">
-        <v>61.5636</v>
+        <v>63.4075</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0701</v>
+        <v>13.0807</v>
       </c>
       <c r="C2" t="n">
-        <v>19.1319</v>
+        <v>19.1693</v>
       </c>
       <c r="D2" t="n">
-        <v>22.3372</v>
+        <v>22.3869</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.2737</v>
+        <v>23.3276</v>
       </c>
       <c r="C3" t="n">
-        <v>31.1632</v>
+        <v>30.7678</v>
       </c>
       <c r="D3" t="n">
-        <v>34.6584</v>
+        <v>34.1991</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0242</v>
+        <v>31.7816</v>
       </c>
       <c r="C4" t="n">
-        <v>35.5004</v>
+        <v>35.6476</v>
       </c>
       <c r="D4" t="n">
-        <v>41.6169</v>
+        <v>41.6443</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.698</v>
+        <v>26.4861</v>
       </c>
       <c r="C5" t="n">
-        <v>34.1588</v>
+        <v>36.7049</v>
       </c>
       <c r="D5" t="n">
-        <v>47.0014</v>
+        <v>50.1728</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.7778</v>
+        <v>31.6833</v>
       </c>
       <c r="C6" t="n">
-        <v>41.5963</v>
+        <v>38.4795</v>
       </c>
       <c r="D6" t="n">
-        <v>50.7148</v>
+        <v>50.4689</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.6244</v>
+        <v>37.7256</v>
       </c>
       <c r="C7" t="n">
-        <v>43.6566</v>
+        <v>44.4675</v>
       </c>
       <c r="D7" t="n">
-        <v>50.6901</v>
+        <v>50.7967</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.2275</v>
+        <v>33.7972</v>
       </c>
       <c r="C8" t="n">
-        <v>45.03</v>
+        <v>48.9916</v>
       </c>
       <c r="D8" t="n">
-        <v>50.6451</v>
+        <v>50.493</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.8443</v>
+        <v>34.0187</v>
       </c>
       <c r="C9" t="n">
-        <v>50.5596</v>
+        <v>49.4029</v>
       </c>
       <c r="D9" t="n">
-        <v>57.417</v>
+        <v>59.5662</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.7723</v>
+        <v>34.3226</v>
       </c>
       <c r="C10" t="n">
-        <v>50.4268</v>
+        <v>50.438</v>
       </c>
       <c r="D10" t="n">
-        <v>60.2903</v>
+        <v>58.9855</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.3982</v>
+        <v>34.1344</v>
       </c>
       <c r="C11" t="n">
-        <v>50.618</v>
+        <v>51.0104</v>
       </c>
       <c r="D11" t="n">
-        <v>58.3973</v>
+        <v>60.15</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.2574</v>
+        <v>34.6063</v>
       </c>
       <c r="C12" t="n">
-        <v>51.3004</v>
+        <v>51.3286</v>
       </c>
       <c r="D12" t="n">
-        <v>60.3385</v>
+        <v>60.8384</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.0687</v>
+        <v>35.635</v>
       </c>
       <c r="C13" t="n">
-        <v>50.7034</v>
+        <v>50.5246</v>
       </c>
       <c r="D13" t="n">
-        <v>59.4571</v>
+        <v>59.0818</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.0938</v>
+        <v>35.2703</v>
       </c>
       <c r="C14" t="n">
-        <v>50.9106</v>
+        <v>50.6365</v>
       </c>
       <c r="D14" t="n">
-        <v>59.6317</v>
+        <v>59.5757</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.4214</v>
+        <v>35.8766</v>
       </c>
       <c r="C15" t="n">
-        <v>50.6508</v>
+        <v>51.1289</v>
       </c>
       <c r="D15" t="n">
-        <v>59.4057</v>
+        <v>60.0215</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.6245</v>
+        <v>35.4151</v>
       </c>
       <c r="C16" t="n">
-        <v>50.5612</v>
+        <v>50.8754</v>
       </c>
       <c r="D16" t="n">
-        <v>58.7142</v>
+        <v>60.2498</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.5346</v>
+        <v>35.7866</v>
       </c>
       <c r="C17" t="n">
-        <v>50.8319</v>
+        <v>50.8458</v>
       </c>
       <c r="D17" t="n">
-        <v>55.9208</v>
+        <v>59.9594</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77648</v>
+        <v>4.75493</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7589</v>
+        <v>14.7003</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5889</v>
+        <v>19.5025</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.30176</v>
+        <v>9.31221</v>
       </c>
       <c r="C3" t="n">
-        <v>27.9139</v>
+        <v>27.9624</v>
       </c>
       <c r="D3" t="n">
-        <v>36.5858</v>
+        <v>36.5627</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4428</v>
+        <v>13.4084</v>
       </c>
       <c r="C4" t="n">
-        <v>39.9619</v>
+        <v>40.0715</v>
       </c>
       <c r="D4" t="n">
-        <v>50.6916</v>
+        <v>51.7242</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8363</v>
+        <v>15.8344</v>
       </c>
       <c r="C5" t="n">
-        <v>43.5855</v>
+        <v>43.2442</v>
       </c>
       <c r="D5" t="n">
-        <v>57.2154</v>
+        <v>58.2207</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.196</v>
+        <v>19.19</v>
       </c>
       <c r="C6" t="n">
-        <v>51.8046</v>
+        <v>51.434</v>
       </c>
       <c r="D6" t="n">
-        <v>68.3918</v>
+        <v>68.8724</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4563</v>
+        <v>22.4667</v>
       </c>
       <c r="C7" t="n">
-        <v>61.0819</v>
+        <v>61.5266</v>
       </c>
       <c r="D7" t="n">
-        <v>79.6294</v>
+        <v>81.1825</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2567</v>
+        <v>20.2069</v>
       </c>
       <c r="C8" t="n">
-        <v>55.8886</v>
+        <v>55.3166</v>
       </c>
       <c r="D8" t="n">
-        <v>69.6469</v>
+        <v>69.34780000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6927</v>
+        <v>21.1753</v>
       </c>
       <c r="C9" t="n">
-        <v>54.8934</v>
+        <v>55.2565</v>
       </c>
       <c r="D9" t="n">
-        <v>71.62730000000001</v>
+        <v>69.5665</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.198</v>
+        <v>21.2815</v>
       </c>
       <c r="C10" t="n">
-        <v>53.9</v>
+        <v>57.1106</v>
       </c>
       <c r="D10" t="n">
-        <v>74.3053</v>
+        <v>71.4823</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5771</v>
+        <v>21.2911</v>
       </c>
       <c r="C11" t="n">
-        <v>56.3193</v>
+        <v>56.6375</v>
       </c>
       <c r="D11" t="n">
-        <v>75.3647</v>
+        <v>72.45869999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.2395</v>
+        <v>21.2148</v>
       </c>
       <c r="C12" t="n">
-        <v>57.9237</v>
+        <v>55.8219</v>
       </c>
       <c r="D12" t="n">
-        <v>74.925</v>
+        <v>74.32940000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.7516</v>
+        <v>21.1</v>
       </c>
       <c r="C13" t="n">
-        <v>58.9671</v>
+        <v>59.1841</v>
       </c>
       <c r="D13" t="n">
-        <v>74.4957</v>
+        <v>75.7837</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.8741</v>
+        <v>21.229</v>
       </c>
       <c r="C14" t="n">
-        <v>59.3245</v>
+        <v>56.1344</v>
       </c>
       <c r="D14" t="n">
-        <v>73.6908</v>
+        <v>74.9624</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9698</v>
+        <v>21.3303</v>
       </c>
       <c r="C15" t="n">
-        <v>57.0382</v>
+        <v>58.0185</v>
       </c>
       <c r="D15" t="n">
-        <v>75.7016</v>
+        <v>76.67619999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.0126</v>
+        <v>21.455</v>
       </c>
       <c r="C16" t="n">
-        <v>60.4812</v>
+        <v>58.3358</v>
       </c>
       <c r="D16" t="n">
-        <v>75.87569999999999</v>
+        <v>74.55</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.3974</v>
+        <v>21.2427</v>
       </c>
       <c r="C17" t="n">
-        <v>60.6658</v>
+        <v>59.4201</v>
       </c>
       <c r="D17" t="n">
-        <v>75.5574</v>
+        <v>76.3244</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.79019</v>
+        <v>4.78612</v>
       </c>
       <c r="C2" t="n">
-        <v>14.6627</v>
+        <v>14.5822</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6272</v>
+        <v>19.4297</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.390739999999999</v>
+        <v>9.37026</v>
       </c>
       <c r="C3" t="n">
-        <v>28.0545</v>
+        <v>27.6138</v>
       </c>
       <c r="D3" t="n">
-        <v>36.8263</v>
+        <v>36.9122</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5217</v>
+        <v>13.5289</v>
       </c>
       <c r="C4" t="n">
-        <v>39.5566</v>
+        <v>39.4181</v>
       </c>
       <c r="D4" t="n">
-        <v>50.9111</v>
+        <v>51.2156</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.1188</v>
+        <v>16.1137</v>
       </c>
       <c r="C5" t="n">
-        <v>42.8463</v>
+        <v>42.7025</v>
       </c>
       <c r="D5" t="n">
-        <v>56.903</v>
+        <v>57.2142</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4388</v>
+        <v>19.4413</v>
       </c>
       <c r="C6" t="n">
-        <v>50.6038</v>
+        <v>50.6847</v>
       </c>
       <c r="D6" t="n">
-        <v>68.1052</v>
+        <v>67.8997</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8529</v>
+        <v>22.8865</v>
       </c>
       <c r="C7" t="n">
-        <v>59.6855</v>
+        <v>59.8748</v>
       </c>
       <c r="D7" t="n">
-        <v>79.4395</v>
+        <v>79.2696</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4424</v>
+        <v>20.4054</v>
       </c>
       <c r="C8" t="n">
-        <v>50.843</v>
+        <v>52.4765</v>
       </c>
       <c r="D8" t="n">
-        <v>67.4774</v>
+        <v>68.14749999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.2144</v>
+        <v>20.9194</v>
       </c>
       <c r="C9" t="n">
-        <v>53.17</v>
+        <v>52.6812</v>
       </c>
       <c r="D9" t="n">
-        <v>68.96559999999999</v>
+        <v>69.9046</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.795</v>
+        <v>21.4543</v>
       </c>
       <c r="C10" t="n">
-        <v>52.6901</v>
+        <v>54.3922</v>
       </c>
       <c r="D10" t="n">
-        <v>72.6816</v>
+        <v>71.36450000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6961</v>
+        <v>21.4836</v>
       </c>
       <c r="C11" t="n">
-        <v>54.6216</v>
+        <v>55.0946</v>
       </c>
       <c r="D11" t="n">
-        <v>73.3121</v>
+        <v>71.78489999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.3591</v>
+        <v>21.4944</v>
       </c>
       <c r="C12" t="n">
-        <v>54.4525</v>
+        <v>55.3865</v>
       </c>
       <c r="D12" t="n">
-        <v>73.51139999999999</v>
+        <v>71.5848</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.7666</v>
+        <v>21.3091</v>
       </c>
       <c r="C13" t="n">
-        <v>56.642</v>
+        <v>56.8861</v>
       </c>
       <c r="D13" t="n">
-        <v>73.8245</v>
+        <v>75.16540000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.407</v>
+        <v>21.5299</v>
       </c>
       <c r="C14" t="n">
-        <v>56.5539</v>
+        <v>55.6722</v>
       </c>
       <c r="D14" t="n">
-        <v>74.1123</v>
+        <v>74.19589999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.6025</v>
+        <v>21.8242</v>
       </c>
       <c r="C15" t="n">
-        <v>56.464</v>
+        <v>56.8008</v>
       </c>
       <c r="D15" t="n">
-        <v>72.8317</v>
+        <v>74.90860000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.6185</v>
+        <v>21.2302</v>
       </c>
       <c r="C16" t="n">
-        <v>56.5426</v>
+        <v>57.1895</v>
       </c>
       <c r="D16" t="n">
-        <v>74.87350000000001</v>
+        <v>74.5827</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6596</v>
+        <v>21.6328</v>
       </c>
       <c r="C17" t="n">
-        <v>57.3889</v>
+        <v>56.6798</v>
       </c>
       <c r="D17" t="n">
-        <v>74.29649999999999</v>
+        <v>74.81780000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.900410000000001</v>
+        <v>8.91235</v>
       </c>
       <c r="C2" t="n">
-        <v>18.5423</v>
+        <v>18.5444</v>
       </c>
       <c r="D2" t="n">
-        <v>22.2816</v>
+        <v>22.2383</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0437</v>
+        <v>17.0257</v>
       </c>
       <c r="C3" t="n">
-        <v>34.2278</v>
+        <v>34.2292</v>
       </c>
       <c r="D3" t="n">
-        <v>40.3418</v>
+        <v>40.5821</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.5393</v>
+        <v>24.5019</v>
       </c>
       <c r="C4" t="n">
-        <v>48.1243</v>
+        <v>48.1624</v>
       </c>
       <c r="D4" t="n">
-        <v>57.6415</v>
+        <v>57.3229</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.3146</v>
+        <v>24.7257</v>
       </c>
       <c r="C5" t="n">
-        <v>47.0157</v>
+        <v>47.831</v>
       </c>
       <c r="D5" t="n">
-        <v>59.9047</v>
+        <v>59.5747</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.275</v>
+        <v>28.2477</v>
       </c>
       <c r="C6" t="n">
-        <v>54.1926</v>
+        <v>54.1223</v>
       </c>
       <c r="D6" t="n">
-        <v>71.2501</v>
+        <v>70.6199</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3763</v>
+        <v>34.3473</v>
       </c>
       <c r="C7" t="n">
-        <v>62.1212</v>
+        <v>62.263</v>
       </c>
       <c r="D7" t="n">
-        <v>79.1794</v>
+        <v>79.0523</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.4118</v>
+        <v>30.883</v>
       </c>
       <c r="C8" t="n">
-        <v>60.0727</v>
+        <v>60.4699</v>
       </c>
       <c r="D8" t="n">
-        <v>77.8858</v>
+        <v>77.28530000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3062</v>
+        <v>32.2772</v>
       </c>
       <c r="C9" t="n">
-        <v>60.8832</v>
+        <v>61.8573</v>
       </c>
       <c r="D9" t="n">
-        <v>78.81</v>
+        <v>79.6378</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.2849</v>
+        <v>32.4582</v>
       </c>
       <c r="C10" t="n">
-        <v>61.705</v>
+        <v>59.8475</v>
       </c>
       <c r="D10" t="n">
-        <v>80.3527</v>
+        <v>80.4195</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.7671</v>
+        <v>32.3923</v>
       </c>
       <c r="C11" t="n">
-        <v>61.2605</v>
+        <v>60.9729</v>
       </c>
       <c r="D11" t="n">
-        <v>80.5214</v>
+        <v>80.3951</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.7907</v>
+        <v>32.2521</v>
       </c>
       <c r="C12" t="n">
-        <v>61.8267</v>
+        <v>61.0918</v>
       </c>
       <c r="D12" t="n">
-        <v>80.825</v>
+        <v>80.6965</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.1773</v>
+        <v>32.3232</v>
       </c>
       <c r="C13" t="n">
-        <v>61.9717</v>
+        <v>62.2283</v>
       </c>
       <c r="D13" t="n">
-        <v>81.2419</v>
+        <v>80.3169</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.5451</v>
+        <v>32.7098</v>
       </c>
       <c r="C14" t="n">
-        <v>61.6154</v>
+        <v>61.4814</v>
       </c>
       <c r="D14" t="n">
-        <v>80.37779999999999</v>
+        <v>81.55159999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.5654</v>
+        <v>33.124</v>
       </c>
       <c r="C15" t="n">
-        <v>61.7727</v>
+        <v>61.9965</v>
       </c>
       <c r="D15" t="n">
-        <v>80.8573</v>
+        <v>80.6373</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.5627</v>
+        <v>32.7168</v>
       </c>
       <c r="C16" t="n">
-        <v>62.1529</v>
+        <v>62.6137</v>
       </c>
       <c r="D16" t="n">
-        <v>80.6914</v>
+        <v>79.98950000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.6715</v>
+        <v>32.963</v>
       </c>
       <c r="C17" t="n">
-        <v>62.4824</v>
+        <v>61.4841</v>
       </c>
       <c r="D17" t="n">
-        <v>80.465</v>
+        <v>80.501</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3929</v>
+        <v>10.2399</v>
       </c>
       <c r="C2" t="n">
-        <v>17.5682</v>
+        <v>17.4267</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1596</v>
+        <v>21.0693</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5765</v>
+        <v>19.3044</v>
       </c>
       <c r="C3" t="n">
-        <v>26.527</v>
+        <v>26.7055</v>
       </c>
       <c r="D3" t="n">
-        <v>32.1407</v>
+        <v>32.1135</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.1819</v>
+        <v>26.4962</v>
       </c>
       <c r="C4" t="n">
-        <v>33.5852</v>
+        <v>32.4701</v>
       </c>
       <c r="D4" t="n">
-        <v>39.9625</v>
+        <v>41.5797</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.6508</v>
+        <v>21.2235</v>
       </c>
       <c r="C5" t="n">
-        <v>34.8574</v>
+        <v>34.6102</v>
       </c>
       <c r="D5" t="n">
-        <v>43.8213</v>
+        <v>44.1527</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.4643</v>
+        <v>24.3883</v>
       </c>
       <c r="C6" t="n">
-        <v>38.7123</v>
+        <v>38.3226</v>
       </c>
       <c r="D6" t="n">
-        <v>44.0778</v>
+        <v>43.8387</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0987</v>
+        <v>29.0148</v>
       </c>
       <c r="C7" t="n">
-        <v>40.5353</v>
+        <v>39.7349</v>
       </c>
       <c r="D7" t="n">
-        <v>48.7372</v>
+        <v>50.5044</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.9988</v>
+        <v>21.1342</v>
       </c>
       <c r="C8" t="n">
-        <v>40.7644</v>
+        <v>40.3548</v>
       </c>
       <c r="D8" t="n">
-        <v>45.6114</v>
+        <v>45.4245</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9077</v>
+        <v>23.6718</v>
       </c>
       <c r="C9" t="n">
-        <v>43.0378</v>
+        <v>45.2211</v>
       </c>
       <c r="D9" t="n">
-        <v>50.596</v>
+        <v>51.8219</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.4945</v>
+        <v>26.5473</v>
       </c>
       <c r="C10" t="n">
-        <v>49.8696</v>
+        <v>45.7261</v>
       </c>
       <c r="D10" t="n">
-        <v>52.6391</v>
+        <v>54.5167</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.343</v>
+        <v>24.2391</v>
       </c>
       <c r="C11" t="n">
-        <v>49.7338</v>
+        <v>47.2453</v>
       </c>
       <c r="D11" t="n">
-        <v>59.1932</v>
+        <v>55.0178</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4702</v>
+        <v>26.4729</v>
       </c>
       <c r="C12" t="n">
-        <v>49.4344</v>
+        <v>49.2352</v>
       </c>
       <c r="D12" t="n">
-        <v>56.1387</v>
+        <v>56.3148</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.0471</v>
+        <v>28.9429</v>
       </c>
       <c r="C13" t="n">
-        <v>51.5367</v>
+        <v>51.4751</v>
       </c>
       <c r="D13" t="n">
-        <v>60.0652</v>
+        <v>60.1093</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9069</v>
+        <v>23.7961</v>
       </c>
       <c r="C14" t="n">
-        <v>52.7788</v>
+        <v>49.0241</v>
       </c>
       <c r="D14" t="n">
-        <v>58.3147</v>
+        <v>58.2926</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6565</v>
+        <v>25.6207</v>
       </c>
       <c r="C15" t="n">
-        <v>52.4313</v>
+        <v>50.748</v>
       </c>
       <c r="D15" t="n">
-        <v>58.0182</v>
+        <v>61.0076</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.9403</v>
+        <v>26.8374</v>
       </c>
       <c r="C16" t="n">
-        <v>50.9445</v>
+        <v>49.6352</v>
       </c>
       <c r="D16" t="n">
-        <v>59.5296</v>
+        <v>62.0657</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.9528</v>
+        <v>25.66</v>
       </c>
       <c r="C17" t="n">
-        <v>51.6544</v>
+        <v>51.0397</v>
       </c>
       <c r="D17" t="n">
-        <v>60.3955</v>
+        <v>62.6988</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.6972</v>
+        <v>10.6661</v>
       </c>
       <c r="C2" t="n">
-        <v>17.435</v>
+        <v>17.3302</v>
       </c>
       <c r="D2" t="n">
-        <v>21.0005</v>
+        <v>20.8589</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.2401</v>
+        <v>19.9868</v>
       </c>
       <c r="C3" t="n">
-        <v>28.0962</v>
+        <v>27.3846</v>
       </c>
       <c r="D3" t="n">
-        <v>33.6843</v>
+        <v>32.8549</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.9686</v>
+        <v>27.6985</v>
       </c>
       <c r="C4" t="n">
-        <v>34.8566</v>
+        <v>34.6345</v>
       </c>
       <c r="D4" t="n">
-        <v>38.1198</v>
+        <v>37.4239</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.8668</v>
+        <v>21.0734</v>
       </c>
       <c r="C5" t="n">
-        <v>35.5689</v>
+        <v>35.2363</v>
       </c>
       <c r="D5" t="n">
-        <v>40.6539</v>
+        <v>40.4485</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.8672</v>
+        <v>24.756</v>
       </c>
       <c r="C6" t="n">
-        <v>36.4732</v>
+        <v>37.5388</v>
       </c>
       <c r="D6" t="n">
-        <v>43.9431</v>
+        <v>43.872</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9456</v>
+        <v>29.8693</v>
       </c>
       <c r="C7" t="n">
-        <v>41.4609</v>
+        <v>42.1593</v>
       </c>
       <c r="D7" t="n">
-        <v>50.5638</v>
+        <v>49.9178</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.8514</v>
+        <v>21.82</v>
       </c>
       <c r="C8" t="n">
-        <v>42.2242</v>
+        <v>40.0766</v>
       </c>
       <c r="D8" t="n">
-        <v>47.379</v>
+        <v>49.1355</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.1687</v>
+        <v>24.8823</v>
       </c>
       <c r="C9" t="n">
-        <v>43.7711</v>
+        <v>44.4987</v>
       </c>
       <c r="D9" t="n">
-        <v>50.7156</v>
+        <v>49.9458</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.9692</v>
+        <v>27.2735</v>
       </c>
       <c r="C10" t="n">
-        <v>45.348</v>
+        <v>47.8059</v>
       </c>
       <c r="D10" t="n">
-        <v>51.7056</v>
+        <v>51.1198</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.141</v>
+        <v>25.133</v>
       </c>
       <c r="C11" t="n">
-        <v>50.6557</v>
+        <v>46.3928</v>
       </c>
       <c r="D11" t="n">
-        <v>58.989</v>
+        <v>59.9114</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.4665</v>
+        <v>27.167</v>
       </c>
       <c r="C12" t="n">
-        <v>51.3328</v>
+        <v>50.579</v>
       </c>
       <c r="D12" t="n">
-        <v>60.5972</v>
+        <v>60.6859</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9546</v>
+        <v>29.8527</v>
       </c>
       <c r="C13" t="n">
-        <v>51.2312</v>
+        <v>50.1988</v>
       </c>
       <c r="D13" t="n">
-        <v>59.144</v>
+        <v>61.2267</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.3849</v>
+        <v>24.1453</v>
       </c>
       <c r="C14" t="n">
-        <v>52.187</v>
+        <v>50.2721</v>
       </c>
       <c r="D14" t="n">
-        <v>60.5556</v>
+        <v>59.8734</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.4548</v>
+        <v>26.3944</v>
       </c>
       <c r="C15" t="n">
-        <v>51.1037</v>
+        <v>49.8737</v>
       </c>
       <c r="D15" t="n">
-        <v>60.0849</v>
+        <v>61.3053</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.4321</v>
+        <v>28.0537</v>
       </c>
       <c r="C16" t="n">
-        <v>51.7323</v>
+        <v>51.0794</v>
       </c>
       <c r="D16" t="n">
-        <v>60.7166</v>
+        <v>62.501</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.3118</v>
+        <v>26.3468</v>
       </c>
       <c r="C17" t="n">
-        <v>51.1816</v>
+        <v>51.1057</v>
       </c>
       <c r="D17" t="n">
-        <v>63.4075</v>
+        <v>62.0892</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0807</v>
+        <v>12.9899</v>
       </c>
       <c r="C2" t="n">
-        <v>19.1693</v>
+        <v>19.0506</v>
       </c>
       <c r="D2" t="n">
-        <v>22.3869</v>
+        <v>22.2305</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.3276</v>
+        <v>23.2703</v>
       </c>
       <c r="C3" t="n">
-        <v>30.7678</v>
+        <v>30.975</v>
       </c>
       <c r="D3" t="n">
-        <v>34.1991</v>
+        <v>33.989</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.7816</v>
+        <v>32.5409</v>
       </c>
       <c r="C4" t="n">
-        <v>35.6476</v>
+        <v>36.8822</v>
       </c>
       <c r="D4" t="n">
-        <v>41.6443</v>
+        <v>40.5547</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.4861</v>
+        <v>26.5263</v>
       </c>
       <c r="C5" t="n">
-        <v>36.7049</v>
+        <v>37.1846</v>
       </c>
       <c r="D5" t="n">
-        <v>50.1728</v>
+        <v>50.6893</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6833</v>
+        <v>31.6583</v>
       </c>
       <c r="C6" t="n">
-        <v>38.4795</v>
+        <v>38.7859</v>
       </c>
       <c r="D6" t="n">
-        <v>50.4689</v>
+        <v>45.0729</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.7256</v>
+        <v>37.567</v>
       </c>
       <c r="C7" t="n">
-        <v>44.4675</v>
+        <v>51.0853</v>
       </c>
       <c r="D7" t="n">
-        <v>50.7967</v>
+        <v>51.0161</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.7972</v>
+        <v>33.6615</v>
       </c>
       <c r="C8" t="n">
-        <v>48.9916</v>
+        <v>48.0234</v>
       </c>
       <c r="D8" t="n">
-        <v>50.493</v>
+        <v>50.9648</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.0187</v>
+        <v>34.7385</v>
       </c>
       <c r="C9" t="n">
-        <v>49.4029</v>
+        <v>49.6817</v>
       </c>
       <c r="D9" t="n">
-        <v>59.5662</v>
+        <v>59.9351</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.3226</v>
+        <v>34.4351</v>
       </c>
       <c r="C10" t="n">
-        <v>50.438</v>
+        <v>50.8055</v>
       </c>
       <c r="D10" t="n">
-        <v>58.9855</v>
+        <v>60.3846</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.1344</v>
+        <v>34.2731</v>
       </c>
       <c r="C11" t="n">
-        <v>51.0104</v>
+        <v>50.6443</v>
       </c>
       <c r="D11" t="n">
-        <v>60.15</v>
+        <v>60.5227</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.6063</v>
+        <v>34.04</v>
       </c>
       <c r="C12" t="n">
-        <v>51.3286</v>
+        <v>51.8349</v>
       </c>
       <c r="D12" t="n">
-        <v>60.8384</v>
+        <v>60.3155</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.635</v>
+        <v>35.2917</v>
       </c>
       <c r="C13" t="n">
-        <v>50.5246</v>
+        <v>51.0832</v>
       </c>
       <c r="D13" t="n">
-        <v>59.0818</v>
+        <v>60.2202</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.2703</v>
+        <v>35.0762</v>
       </c>
       <c r="C14" t="n">
-        <v>50.6365</v>
+        <v>50.0987</v>
       </c>
       <c r="D14" t="n">
-        <v>59.5757</v>
+        <v>58.0158</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.8766</v>
+        <v>35.6014</v>
       </c>
       <c r="C15" t="n">
-        <v>51.1289</v>
+        <v>51.2002</v>
       </c>
       <c r="D15" t="n">
-        <v>60.0215</v>
+        <v>58.9954</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.4151</v>
+        <v>35.6124</v>
       </c>
       <c r="C16" t="n">
-        <v>50.8754</v>
+        <v>50.6088</v>
       </c>
       <c r="D16" t="n">
-        <v>60.2498</v>
+        <v>58.4937</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.7866</v>
+        <v>35.6953</v>
       </c>
       <c r="C17" t="n">
-        <v>50.8458</v>
+        <v>50.5566</v>
       </c>
       <c r="D17" t="n">
-        <v>59.9594</v>
+        <v>60.2184</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.75493</v>
+        <v>4.75882</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7003</v>
+        <v>14.6187</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5025</v>
+        <v>19.3942</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.31221</v>
+        <v>9.30758</v>
       </c>
       <c r="C3" t="n">
-        <v>27.9624</v>
+        <v>28.1023</v>
       </c>
       <c r="D3" t="n">
-        <v>36.5627</v>
+        <v>36.56</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4084</v>
+        <v>13.3401</v>
       </c>
       <c r="C4" t="n">
-        <v>40.0715</v>
+        <v>39.3521</v>
       </c>
       <c r="D4" t="n">
-        <v>51.7242</v>
+        <v>50.6885</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8344</v>
+        <v>15.9175</v>
       </c>
       <c r="C5" t="n">
-        <v>43.2442</v>
+        <v>43.6851</v>
       </c>
       <c r="D5" t="n">
-        <v>58.2207</v>
+        <v>57.688</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.19</v>
+        <v>19.1827</v>
       </c>
       <c r="C6" t="n">
-        <v>51.434</v>
+        <v>51.9582</v>
       </c>
       <c r="D6" t="n">
-        <v>68.8724</v>
+        <v>68.5087</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4667</v>
+        <v>22.4305</v>
       </c>
       <c r="C7" t="n">
-        <v>61.5266</v>
+        <v>61.1339</v>
       </c>
       <c r="D7" t="n">
-        <v>81.1825</v>
+        <v>80.5342</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2069</v>
+        <v>20.1897</v>
       </c>
       <c r="C8" t="n">
-        <v>55.3166</v>
+        <v>54.3855</v>
       </c>
       <c r="D8" t="n">
-        <v>69.34780000000001</v>
+        <v>70.34099999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1753</v>
+        <v>20.6731</v>
       </c>
       <c r="C9" t="n">
-        <v>55.2565</v>
+        <v>53.1455</v>
       </c>
       <c r="D9" t="n">
-        <v>69.5665</v>
+        <v>74.2829</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2815</v>
+        <v>21.0655</v>
       </c>
       <c r="C10" t="n">
-        <v>57.1106</v>
+        <v>55.6715</v>
       </c>
       <c r="D10" t="n">
-        <v>71.4823</v>
+        <v>73.3925</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2911</v>
+        <v>21.2888</v>
       </c>
       <c r="C11" t="n">
-        <v>56.6375</v>
+        <v>56.1413</v>
       </c>
       <c r="D11" t="n">
-        <v>72.45869999999999</v>
+        <v>75.3486</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.2148</v>
+        <v>21.137</v>
       </c>
       <c r="C12" t="n">
-        <v>55.8219</v>
+        <v>58.0657</v>
       </c>
       <c r="D12" t="n">
-        <v>74.32940000000001</v>
+        <v>74.58029999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1</v>
+        <v>21.3121</v>
       </c>
       <c r="C13" t="n">
-        <v>59.1841</v>
+        <v>56.7679</v>
       </c>
       <c r="D13" t="n">
-        <v>75.7837</v>
+        <v>70.8458</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.229</v>
+        <v>21.1537</v>
       </c>
       <c r="C14" t="n">
-        <v>56.1344</v>
+        <v>58.7257</v>
       </c>
       <c r="D14" t="n">
-        <v>74.9624</v>
+        <v>76.4378</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.3303</v>
+        <v>21.0947</v>
       </c>
       <c r="C15" t="n">
-        <v>58.0185</v>
+        <v>58.0146</v>
       </c>
       <c r="D15" t="n">
-        <v>76.67619999999999</v>
+        <v>77.04340000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.455</v>
+        <v>21.3436</v>
       </c>
       <c r="C16" t="n">
-        <v>58.3358</v>
+        <v>58.0696</v>
       </c>
       <c r="D16" t="n">
-        <v>74.55</v>
+        <v>76.8493</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2427</v>
+        <v>21.4603</v>
       </c>
       <c r="C17" t="n">
-        <v>59.4201</v>
+        <v>58.8547</v>
       </c>
       <c r="D17" t="n">
-        <v>76.3244</v>
+        <v>76.926</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.78612</v>
+        <v>4.77041</v>
       </c>
       <c r="C2" t="n">
-        <v>14.5822</v>
+        <v>14.4896</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4297</v>
+        <v>19.4808</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.37026</v>
+        <v>9.35548</v>
       </c>
       <c r="C3" t="n">
-        <v>27.6138</v>
+        <v>27.3741</v>
       </c>
       <c r="D3" t="n">
-        <v>36.9122</v>
+        <v>36.8121</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5289</v>
+        <v>13.4898</v>
       </c>
       <c r="C4" t="n">
-        <v>39.4181</v>
+        <v>39.4041</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2156</v>
+        <v>51.3695</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.1137</v>
+        <v>16.0816</v>
       </c>
       <c r="C5" t="n">
-        <v>42.7025</v>
+        <v>42.5294</v>
       </c>
       <c r="D5" t="n">
-        <v>57.2142</v>
+        <v>56.9295</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4413</v>
+        <v>19.4516</v>
       </c>
       <c r="C6" t="n">
-        <v>50.6847</v>
+        <v>50.9388</v>
       </c>
       <c r="D6" t="n">
-        <v>67.8997</v>
+        <v>67.74420000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8865</v>
+        <v>22.8171</v>
       </c>
       <c r="C7" t="n">
-        <v>59.8748</v>
+        <v>60.1188</v>
       </c>
       <c r="D7" t="n">
-        <v>79.2696</v>
+        <v>79.392</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4054</v>
+        <v>20.451</v>
       </c>
       <c r="C8" t="n">
-        <v>52.4765</v>
+        <v>52.9712</v>
       </c>
       <c r="D8" t="n">
-        <v>68.14749999999999</v>
+        <v>69.5219</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9194</v>
+        <v>21.0675</v>
       </c>
       <c r="C9" t="n">
-        <v>52.6812</v>
+        <v>52.5115</v>
       </c>
       <c r="D9" t="n">
-        <v>69.9046</v>
+        <v>69.5475</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4543</v>
+        <v>21.2364</v>
       </c>
       <c r="C10" t="n">
-        <v>54.3922</v>
+        <v>55.0057</v>
       </c>
       <c r="D10" t="n">
-        <v>71.36450000000001</v>
+        <v>70.5839</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4836</v>
+        <v>21.5654</v>
       </c>
       <c r="C11" t="n">
-        <v>55.0946</v>
+        <v>55.5069</v>
       </c>
       <c r="D11" t="n">
-        <v>71.78489999999999</v>
+        <v>71.2478</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4944</v>
+        <v>21.434</v>
       </c>
       <c r="C12" t="n">
-        <v>55.3865</v>
+        <v>56.4056</v>
       </c>
       <c r="D12" t="n">
-        <v>71.5848</v>
+        <v>73.73650000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.3091</v>
+        <v>21.6748</v>
       </c>
       <c r="C13" t="n">
-        <v>56.8861</v>
+        <v>55.5193</v>
       </c>
       <c r="D13" t="n">
-        <v>75.16540000000001</v>
+        <v>73.7505</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5299</v>
+        <v>21.46</v>
       </c>
       <c r="C14" t="n">
-        <v>55.6722</v>
+        <v>57.1382</v>
       </c>
       <c r="D14" t="n">
-        <v>74.19589999999999</v>
+        <v>74.2269</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.8242</v>
+        <v>21.6988</v>
       </c>
       <c r="C15" t="n">
-        <v>56.8008</v>
+        <v>56.4779</v>
       </c>
       <c r="D15" t="n">
-        <v>74.90860000000001</v>
+        <v>74.95569999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2302</v>
+        <v>21.7674</v>
       </c>
       <c r="C16" t="n">
-        <v>57.1895</v>
+        <v>56.1533</v>
       </c>
       <c r="D16" t="n">
-        <v>74.5827</v>
+        <v>74.0732</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6328</v>
+        <v>21.69</v>
       </c>
       <c r="C17" t="n">
-        <v>56.6798</v>
+        <v>58.0494</v>
       </c>
       <c r="D17" t="n">
-        <v>74.81780000000001</v>
+        <v>74.84820000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.91235</v>
+        <v>8.7967</v>
       </c>
       <c r="C2" t="n">
-        <v>18.5444</v>
+        <v>18.2822</v>
       </c>
       <c r="D2" t="n">
-        <v>22.2383</v>
+        <v>22.0597</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0257</v>
+        <v>16.9527</v>
       </c>
       <c r="C3" t="n">
-        <v>34.2292</v>
+        <v>34.1348</v>
       </c>
       <c r="D3" t="n">
-        <v>40.5821</v>
+        <v>40.5162</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.5019</v>
+        <v>24.4208</v>
       </c>
       <c r="C4" t="n">
-        <v>48.1624</v>
+        <v>47.7076</v>
       </c>
       <c r="D4" t="n">
-        <v>57.3229</v>
+        <v>56.9386</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.7257</v>
+        <v>24.7038</v>
       </c>
       <c r="C5" t="n">
-        <v>47.831</v>
+        <v>47.6697</v>
       </c>
       <c r="D5" t="n">
-        <v>59.5747</v>
+        <v>60.1708</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2477</v>
+        <v>28.3075</v>
       </c>
       <c r="C6" t="n">
-        <v>54.1223</v>
+        <v>54.0028</v>
       </c>
       <c r="D6" t="n">
-        <v>70.6199</v>
+        <v>70.9983</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3473</v>
+        <v>34.2959</v>
       </c>
       <c r="C7" t="n">
-        <v>62.263</v>
+        <v>62.0768</v>
       </c>
       <c r="D7" t="n">
-        <v>79.0523</v>
+        <v>79.20399999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.883</v>
+        <v>31.2243</v>
       </c>
       <c r="C8" t="n">
-        <v>60.4699</v>
+        <v>60.2514</v>
       </c>
       <c r="D8" t="n">
-        <v>77.28530000000001</v>
+        <v>78.6474</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.2772</v>
+        <v>31.782</v>
       </c>
       <c r="C9" t="n">
-        <v>61.8573</v>
+        <v>60.3903</v>
       </c>
       <c r="D9" t="n">
-        <v>79.6378</v>
+        <v>78.7056</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.4582</v>
+        <v>32.288</v>
       </c>
       <c r="C10" t="n">
-        <v>59.8475</v>
+        <v>61.0406</v>
       </c>
       <c r="D10" t="n">
-        <v>80.4195</v>
+        <v>79.8514</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3923</v>
+        <v>32.6579</v>
       </c>
       <c r="C11" t="n">
-        <v>60.9729</v>
+        <v>61.4713</v>
       </c>
       <c r="D11" t="n">
-        <v>80.3951</v>
+        <v>81.1922</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.2521</v>
+        <v>32.4627</v>
       </c>
       <c r="C12" t="n">
-        <v>61.0918</v>
+        <v>60.6069</v>
       </c>
       <c r="D12" t="n">
-        <v>80.6965</v>
+        <v>81.3939</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.3232</v>
+        <v>33.0971</v>
       </c>
       <c r="C13" t="n">
-        <v>62.2283</v>
+        <v>62.1634</v>
       </c>
       <c r="D13" t="n">
-        <v>80.3169</v>
+        <v>80.83459999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.7098</v>
+        <v>32.9172</v>
       </c>
       <c r="C14" t="n">
-        <v>61.4814</v>
+        <v>61.9511</v>
       </c>
       <c r="D14" t="n">
-        <v>81.55159999999999</v>
+        <v>81.0882</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.124</v>
+        <v>32.7076</v>
       </c>
       <c r="C15" t="n">
-        <v>61.9965</v>
+        <v>61.2455</v>
       </c>
       <c r="D15" t="n">
-        <v>80.6373</v>
+        <v>79.5553</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7168</v>
+        <v>33.2458</v>
       </c>
       <c r="C16" t="n">
-        <v>62.6137</v>
+        <v>61.7947</v>
       </c>
       <c r="D16" t="n">
-        <v>79.98950000000001</v>
+        <v>80.0763</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.963</v>
+        <v>32.8413</v>
       </c>
       <c r="C17" t="n">
-        <v>61.4841</v>
+        <v>61.9096</v>
       </c>
       <c r="D17" t="n">
-        <v>80.501</v>
+        <v>79.9181</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2399</v>
+        <v>10.1803</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4267</v>
+        <v>17.5339</v>
       </c>
       <c r="D2" t="n">
-        <v>21.0693</v>
+        <v>21.1483</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3044</v>
+        <v>19.3976</v>
       </c>
       <c r="C3" t="n">
-        <v>26.7055</v>
+        <v>27.3368</v>
       </c>
       <c r="D3" t="n">
-        <v>32.1135</v>
+        <v>32.0459</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.4962</v>
+        <v>26.2827</v>
       </c>
       <c r="C4" t="n">
-        <v>32.4701</v>
+        <v>31.5412</v>
       </c>
       <c r="D4" t="n">
-        <v>41.5797</v>
+        <v>40.4469</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.2235</v>
+        <v>21.0654</v>
       </c>
       <c r="C5" t="n">
-        <v>34.6102</v>
+        <v>34.3849</v>
       </c>
       <c r="D5" t="n">
-        <v>44.1527</v>
+        <v>43.953</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.3883</v>
+        <v>24.7607</v>
       </c>
       <c r="C6" t="n">
-        <v>38.3226</v>
+        <v>38.4206</v>
       </c>
       <c r="D6" t="n">
-        <v>43.8387</v>
+        <v>43.5342</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0148</v>
+        <v>29.2904</v>
       </c>
       <c r="C7" t="n">
-        <v>39.7349</v>
+        <v>40.2748</v>
       </c>
       <c r="D7" t="n">
-        <v>50.5044</v>
+        <v>50.2505</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.1342</v>
+        <v>21.2139</v>
       </c>
       <c r="C8" t="n">
-        <v>40.3548</v>
+        <v>39.6869</v>
       </c>
       <c r="D8" t="n">
-        <v>45.4245</v>
+        <v>47.1611</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6718</v>
+        <v>23.8679</v>
       </c>
       <c r="C9" t="n">
-        <v>45.2211</v>
+        <v>42.0131</v>
       </c>
       <c r="D9" t="n">
-        <v>51.8219</v>
+        <v>49.9111</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.5473</v>
+        <v>25.6527</v>
       </c>
       <c r="C10" t="n">
-        <v>45.7261</v>
+        <v>47.0296</v>
       </c>
       <c r="D10" t="n">
-        <v>54.5167</v>
+        <v>53.4532</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2391</v>
+        <v>24.5846</v>
       </c>
       <c r="C11" t="n">
-        <v>47.2453</v>
+        <v>48.5552</v>
       </c>
       <c r="D11" t="n">
-        <v>55.0178</v>
+        <v>55.8688</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4729</v>
+        <v>26.8809</v>
       </c>
       <c r="C12" t="n">
-        <v>49.2352</v>
+        <v>50.0562</v>
       </c>
       <c r="D12" t="n">
-        <v>56.3148</v>
+        <v>56.4425</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.9429</v>
+        <v>29.2152</v>
       </c>
       <c r="C13" t="n">
-        <v>51.4751</v>
+        <v>50.5242</v>
       </c>
       <c r="D13" t="n">
-        <v>60.1093</v>
+        <v>57.7607</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.7961</v>
+        <v>23.8392</v>
       </c>
       <c r="C14" t="n">
-        <v>49.0241</v>
+        <v>51.7942</v>
       </c>
       <c r="D14" t="n">
-        <v>58.2926</v>
+        <v>59.2229</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6207</v>
+        <v>25.7865</v>
       </c>
       <c r="C15" t="n">
-        <v>50.748</v>
+        <v>51.131</v>
       </c>
       <c r="D15" t="n">
-        <v>61.0076</v>
+        <v>62.3715</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.8374</v>
+        <v>27.0027</v>
       </c>
       <c r="C16" t="n">
-        <v>49.6352</v>
+        <v>52.3333</v>
       </c>
       <c r="D16" t="n">
-        <v>62.0657</v>
+        <v>61.0955</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.66</v>
+        <v>26.111</v>
       </c>
       <c r="C17" t="n">
-        <v>51.0397</v>
+        <v>52.3643</v>
       </c>
       <c r="D17" t="n">
-        <v>62.6988</v>
+        <v>60.1094</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.6661</v>
+        <v>10.7069</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3302</v>
+        <v>17.4552</v>
       </c>
       <c r="D2" t="n">
-        <v>20.8589</v>
+        <v>20.9732</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.9868</v>
+        <v>20.0196</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3846</v>
+        <v>27.3982</v>
       </c>
       <c r="D3" t="n">
-        <v>32.8549</v>
+        <v>32.5033</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.6985</v>
+        <v>26.7411</v>
       </c>
       <c r="C4" t="n">
-        <v>34.6345</v>
+        <v>34.4516</v>
       </c>
       <c r="D4" t="n">
-        <v>37.4239</v>
+        <v>39.004</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.0734</v>
+        <v>21.745</v>
       </c>
       <c r="C5" t="n">
-        <v>35.2363</v>
+        <v>35.1366</v>
       </c>
       <c r="D5" t="n">
-        <v>40.4485</v>
+        <v>41.1689</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.756</v>
+        <v>25.2055</v>
       </c>
       <c r="C6" t="n">
-        <v>37.5388</v>
+        <v>36.9734</v>
       </c>
       <c r="D6" t="n">
-        <v>43.872</v>
+        <v>44.9101</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.8693</v>
+        <v>30.1897</v>
       </c>
       <c r="C7" t="n">
-        <v>42.1593</v>
+        <v>43.807</v>
       </c>
       <c r="D7" t="n">
-        <v>49.9178</v>
+        <v>49.7924</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.82</v>
+        <v>21.7396</v>
       </c>
       <c r="C8" t="n">
-        <v>40.0766</v>
+        <v>41.4359</v>
       </c>
       <c r="D8" t="n">
-        <v>49.1355</v>
+        <v>48.1197</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.8823</v>
+        <v>25.1591</v>
       </c>
       <c r="C9" t="n">
-        <v>44.4987</v>
+        <v>45.9424</v>
       </c>
       <c r="D9" t="n">
-        <v>49.9458</v>
+        <v>50.4149</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.2735</v>
+        <v>27.293</v>
       </c>
       <c r="C10" t="n">
-        <v>47.8059</v>
+        <v>48.8548</v>
       </c>
       <c r="D10" t="n">
-        <v>51.1198</v>
+        <v>55.3716</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.133</v>
+        <v>25.1819</v>
       </c>
       <c r="C11" t="n">
-        <v>46.3928</v>
+        <v>49.4762</v>
       </c>
       <c r="D11" t="n">
-        <v>59.9114</v>
+        <v>58.6214</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.167</v>
+        <v>27.6036</v>
       </c>
       <c r="C12" t="n">
-        <v>50.579</v>
+        <v>50.1583</v>
       </c>
       <c r="D12" t="n">
-        <v>60.6859</v>
+        <v>60.6336</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8527</v>
+        <v>30.1942</v>
       </c>
       <c r="C13" t="n">
-        <v>50.1988</v>
+        <v>51.0404</v>
       </c>
       <c r="D13" t="n">
-        <v>61.2267</v>
+        <v>61.0667</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1453</v>
+        <v>24.2448</v>
       </c>
       <c r="C14" t="n">
-        <v>50.2721</v>
+        <v>50.8896</v>
       </c>
       <c r="D14" t="n">
-        <v>59.8734</v>
+        <v>60.9267</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.3944</v>
+        <v>26.5197</v>
       </c>
       <c r="C15" t="n">
-        <v>49.8737</v>
+        <v>51.3538</v>
       </c>
       <c r="D15" t="n">
-        <v>61.3053</v>
+        <v>59.9454</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.0537</v>
+        <v>27.866</v>
       </c>
       <c r="C16" t="n">
-        <v>51.0794</v>
+        <v>51.9076</v>
       </c>
       <c r="D16" t="n">
-        <v>62.501</v>
+        <v>61.4791</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.3468</v>
+        <v>26.4961</v>
       </c>
       <c r="C17" t="n">
-        <v>51.1057</v>
+        <v>50.9575</v>
       </c>
       <c r="D17" t="n">
-        <v>62.0892</v>
+        <v>61.9853</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.9899</v>
+        <v>13.0913</v>
       </c>
       <c r="C2" t="n">
-        <v>19.0506</v>
+        <v>19.1859</v>
       </c>
       <c r="D2" t="n">
-        <v>22.2305</v>
+        <v>22.3973</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.2703</v>
+        <v>23.4797</v>
       </c>
       <c r="C3" t="n">
-        <v>30.975</v>
+        <v>31.0277</v>
       </c>
       <c r="D3" t="n">
-        <v>33.989</v>
+        <v>32.0009</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5409</v>
+        <v>31.2883</v>
       </c>
       <c r="C4" t="n">
-        <v>36.8822</v>
+        <v>36.0026</v>
       </c>
       <c r="D4" t="n">
-        <v>40.5547</v>
+        <v>43.2297</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.5263</v>
+        <v>26.8817</v>
       </c>
       <c r="C5" t="n">
-        <v>37.1846</v>
+        <v>34.8679</v>
       </c>
       <c r="D5" t="n">
-        <v>50.6893</v>
+        <v>43.5419</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6583</v>
+        <v>31.8977</v>
       </c>
       <c r="C6" t="n">
-        <v>38.7859</v>
+        <v>40.4466</v>
       </c>
       <c r="D6" t="n">
-        <v>45.0729</v>
+        <v>50.7044</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.567</v>
+        <v>37.6956</v>
       </c>
       <c r="C7" t="n">
-        <v>51.0853</v>
+        <v>49.918</v>
       </c>
       <c r="D7" t="n">
-        <v>51.0161</v>
+        <v>50.7932</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.6615</v>
+        <v>34.6245</v>
       </c>
       <c r="C8" t="n">
-        <v>48.0234</v>
+        <v>48.0425</v>
       </c>
       <c r="D8" t="n">
-        <v>50.9648</v>
+        <v>50.5066</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.7385</v>
+        <v>33.7339</v>
       </c>
       <c r="C9" t="n">
-        <v>49.6817</v>
+        <v>48.9492</v>
       </c>
       <c r="D9" t="n">
-        <v>59.9351</v>
+        <v>60.0589</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.4351</v>
+        <v>34.0825</v>
       </c>
       <c r="C10" t="n">
-        <v>50.8055</v>
+        <v>50.0184</v>
       </c>
       <c r="D10" t="n">
-        <v>60.3846</v>
+        <v>60.0245</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.2731</v>
+        <v>35.4666</v>
       </c>
       <c r="C11" t="n">
-        <v>50.6443</v>
+        <v>56.6977</v>
       </c>
       <c r="D11" t="n">
-        <v>60.5227</v>
+        <v>61.0042</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.04</v>
+        <v>35.2525</v>
       </c>
       <c r="C12" t="n">
-        <v>51.8349</v>
+        <v>53.4</v>
       </c>
       <c r="D12" t="n">
-        <v>60.3155</v>
+        <v>59.1933</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.2917</v>
+        <v>34.3481</v>
       </c>
       <c r="C13" t="n">
-        <v>51.0832</v>
+        <v>51.089</v>
       </c>
       <c r="D13" t="n">
-        <v>60.2202</v>
+        <v>59.7659</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.0762</v>
+        <v>35.5999</v>
       </c>
       <c r="C14" t="n">
-        <v>50.0987</v>
+        <v>53.0071</v>
       </c>
       <c r="D14" t="n">
-        <v>58.0158</v>
+        <v>60.2835</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.6014</v>
+        <v>35.0194</v>
       </c>
       <c r="C15" t="n">
-        <v>51.2002</v>
+        <v>53.4891</v>
       </c>
       <c r="D15" t="n">
-        <v>58.9954</v>
+        <v>59.9813</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.6124</v>
+        <v>35.682</v>
       </c>
       <c r="C16" t="n">
-        <v>50.6088</v>
+        <v>55.4082</v>
       </c>
       <c r="D16" t="n">
-        <v>58.4937</v>
+        <v>58.1549</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.6953</v>
+        <v>35.1487</v>
       </c>
       <c r="C17" t="n">
-        <v>50.5566</v>
+        <v>53.1328</v>
       </c>
       <c r="D17" t="n">
-        <v>60.2184</v>
+        <v>58.5008</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.75882</v>
+        <v>4.70591</v>
       </c>
       <c r="C2" t="n">
-        <v>14.6187</v>
+        <v>14.7266</v>
       </c>
       <c r="D2" t="n">
-        <v>19.3942</v>
+        <v>19.508</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.30758</v>
+        <v>9.203480000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>28.1023</v>
+        <v>28.1213</v>
       </c>
       <c r="D3" t="n">
-        <v>36.56</v>
+        <v>36.8061</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3401</v>
+        <v>13.1905</v>
       </c>
       <c r="C4" t="n">
-        <v>39.3521</v>
+        <v>39.3243</v>
       </c>
       <c r="D4" t="n">
-        <v>50.6885</v>
+        <v>50.4329</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9175</v>
+        <v>15.8173</v>
       </c>
       <c r="C5" t="n">
-        <v>43.6851</v>
+        <v>43.7997</v>
       </c>
       <c r="D5" t="n">
-        <v>57.688</v>
+        <v>57.754</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1827</v>
+        <v>19.0866</v>
       </c>
       <c r="C6" t="n">
-        <v>51.9582</v>
+        <v>51.9165</v>
       </c>
       <c r="D6" t="n">
-        <v>68.5087</v>
+        <v>68.312</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4305</v>
+        <v>22.2517</v>
       </c>
       <c r="C7" t="n">
-        <v>61.1339</v>
+        <v>61.1087</v>
       </c>
       <c r="D7" t="n">
-        <v>80.5342</v>
+        <v>79.6949</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1897</v>
+        <v>19.9108</v>
       </c>
       <c r="C8" t="n">
-        <v>54.3855</v>
+        <v>55.8996</v>
       </c>
       <c r="D8" t="n">
-        <v>70.34099999999999</v>
+        <v>67.9302</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6731</v>
+        <v>20.548</v>
       </c>
       <c r="C9" t="n">
-        <v>53.1455</v>
+        <v>55.7117</v>
       </c>
       <c r="D9" t="n">
-        <v>74.2829</v>
+        <v>70.8017</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.0655</v>
+        <v>20.8085</v>
       </c>
       <c r="C10" t="n">
-        <v>55.6715</v>
+        <v>55.0584</v>
       </c>
       <c r="D10" t="n">
-        <v>73.3925</v>
+        <v>72.55500000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2888</v>
+        <v>20.9637</v>
       </c>
       <c r="C11" t="n">
-        <v>56.1413</v>
+        <v>56.201</v>
       </c>
       <c r="D11" t="n">
-        <v>75.3486</v>
+        <v>72.72620000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.137</v>
+        <v>21.078</v>
       </c>
       <c r="C12" t="n">
-        <v>58.0657</v>
+        <v>56.4123</v>
       </c>
       <c r="D12" t="n">
-        <v>74.58029999999999</v>
+        <v>76.2163</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.3121</v>
+        <v>21.2381</v>
       </c>
       <c r="C13" t="n">
-        <v>56.7679</v>
+        <v>58.7363</v>
       </c>
       <c r="D13" t="n">
-        <v>70.8458</v>
+        <v>75.08969999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.1537</v>
+        <v>21.1134</v>
       </c>
       <c r="C14" t="n">
-        <v>58.7257</v>
+        <v>58.4322</v>
       </c>
       <c r="D14" t="n">
-        <v>76.4378</v>
+        <v>75.0894</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.0947</v>
+        <v>21.0428</v>
       </c>
       <c r="C15" t="n">
-        <v>58.0146</v>
+        <v>58.782</v>
       </c>
       <c r="D15" t="n">
-        <v>77.04340000000001</v>
+        <v>76.53449999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3436</v>
+        <v>21.0828</v>
       </c>
       <c r="C16" t="n">
-        <v>58.0696</v>
+        <v>57.5262</v>
       </c>
       <c r="D16" t="n">
-        <v>76.8493</v>
+        <v>76.87569999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.4603</v>
+        <v>21.0645</v>
       </c>
       <c r="C17" t="n">
-        <v>58.8547</v>
+        <v>59.109</v>
       </c>
       <c r="D17" t="n">
-        <v>76.926</v>
+        <v>77.0842</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77041</v>
+        <v>4.70803</v>
       </c>
       <c r="C2" t="n">
-        <v>14.4896</v>
+        <v>14.5038</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4808</v>
+        <v>19.4037</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.35548</v>
+        <v>9.19722</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3741</v>
+        <v>27.4457</v>
       </c>
       <c r="D3" t="n">
-        <v>36.8121</v>
+        <v>36.221</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4898</v>
+        <v>13.2334</v>
       </c>
       <c r="C4" t="n">
-        <v>39.4041</v>
+        <v>38.5219</v>
       </c>
       <c r="D4" t="n">
-        <v>51.3695</v>
+        <v>50.8773</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0816</v>
+        <v>15.9451</v>
       </c>
       <c r="C5" t="n">
-        <v>42.5294</v>
+        <v>43.0013</v>
       </c>
       <c r="D5" t="n">
-        <v>56.9295</v>
+        <v>57.4265</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4516</v>
+        <v>19.3399</v>
       </c>
       <c r="C6" t="n">
-        <v>50.9388</v>
+        <v>50.8061</v>
       </c>
       <c r="D6" t="n">
-        <v>67.74420000000001</v>
+        <v>68.0853</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8171</v>
+        <v>22.6118</v>
       </c>
       <c r="C7" t="n">
-        <v>60.1188</v>
+        <v>59.5946</v>
       </c>
       <c r="D7" t="n">
-        <v>79.392</v>
+        <v>78.81829999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.451</v>
+        <v>20.3553</v>
       </c>
       <c r="C8" t="n">
-        <v>52.9712</v>
+        <v>52.4684</v>
       </c>
       <c r="D8" t="n">
-        <v>69.5219</v>
+        <v>70.14570000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0675</v>
+        <v>20.9697</v>
       </c>
       <c r="C9" t="n">
-        <v>52.5115</v>
+        <v>53.5856</v>
       </c>
       <c r="D9" t="n">
-        <v>69.5475</v>
+        <v>68.7698</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2364</v>
+        <v>20.9873</v>
       </c>
       <c r="C10" t="n">
-        <v>55.0057</v>
+        <v>52.9314</v>
       </c>
       <c r="D10" t="n">
-        <v>70.5839</v>
+        <v>71.62860000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5654</v>
+        <v>20.9387</v>
       </c>
       <c r="C11" t="n">
-        <v>55.5069</v>
+        <v>53.8854</v>
       </c>
       <c r="D11" t="n">
-        <v>71.2478</v>
+        <v>72.4483</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.434</v>
+        <v>21.3613</v>
       </c>
       <c r="C12" t="n">
-        <v>56.4056</v>
+        <v>54.6541</v>
       </c>
       <c r="D12" t="n">
-        <v>73.73650000000001</v>
+        <v>74.73439999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.6748</v>
+        <v>21.2029</v>
       </c>
       <c r="C13" t="n">
-        <v>55.5193</v>
+        <v>55.422</v>
       </c>
       <c r="D13" t="n">
-        <v>73.7505</v>
+        <v>74.2581</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.46</v>
+        <v>21.2046</v>
       </c>
       <c r="C14" t="n">
-        <v>57.1382</v>
+        <v>55.4906</v>
       </c>
       <c r="D14" t="n">
-        <v>74.2269</v>
+        <v>73.5552</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.6988</v>
+        <v>21.0997</v>
       </c>
       <c r="C15" t="n">
-        <v>56.4779</v>
+        <v>56.6475</v>
       </c>
       <c r="D15" t="n">
-        <v>74.95569999999999</v>
+        <v>73.9389</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7674</v>
+        <v>21.3637</v>
       </c>
       <c r="C16" t="n">
-        <v>56.1533</v>
+        <v>57.3205</v>
       </c>
       <c r="D16" t="n">
-        <v>74.0732</v>
+        <v>76.071</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.69</v>
+        <v>21.6381</v>
       </c>
       <c r="C17" t="n">
-        <v>58.0494</v>
+        <v>57.2821</v>
       </c>
       <c r="D17" t="n">
-        <v>74.84820000000001</v>
+        <v>75.1934</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.7967</v>
+        <v>8.79937</v>
       </c>
       <c r="C2" t="n">
-        <v>18.2822</v>
+        <v>18.505</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0597</v>
+        <v>22.2644</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.9527</v>
+        <v>16.8523</v>
       </c>
       <c r="C3" t="n">
-        <v>34.1348</v>
+        <v>33.7612</v>
       </c>
       <c r="D3" t="n">
-        <v>40.5162</v>
+        <v>40.2488</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.4208</v>
+        <v>24.0403</v>
       </c>
       <c r="C4" t="n">
-        <v>47.7076</v>
+        <v>47.5194</v>
       </c>
       <c r="D4" t="n">
-        <v>56.9386</v>
+        <v>56.5847</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.7038</v>
+        <v>24.8617</v>
       </c>
       <c r="C5" t="n">
-        <v>47.6697</v>
+        <v>47.7761</v>
       </c>
       <c r="D5" t="n">
-        <v>60.1708</v>
+        <v>60.6806</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.3075</v>
+        <v>28.3915</v>
       </c>
       <c r="C6" t="n">
-        <v>54.0028</v>
+        <v>54.4492</v>
       </c>
       <c r="D6" t="n">
-        <v>70.9983</v>
+        <v>71.05200000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.2959</v>
+        <v>34.3251</v>
       </c>
       <c r="C7" t="n">
-        <v>62.0768</v>
+        <v>61.5968</v>
       </c>
       <c r="D7" t="n">
-        <v>79.20399999999999</v>
+        <v>79.831</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.2243</v>
+        <v>31.2417</v>
       </c>
       <c r="C8" t="n">
-        <v>60.2514</v>
+        <v>60.508</v>
       </c>
       <c r="D8" t="n">
-        <v>78.6474</v>
+        <v>77.8472</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.782</v>
+        <v>31.5517</v>
       </c>
       <c r="C9" t="n">
-        <v>60.3903</v>
+        <v>60.2182</v>
       </c>
       <c r="D9" t="n">
-        <v>78.7056</v>
+        <v>79.72880000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.288</v>
+        <v>32.208</v>
       </c>
       <c r="C10" t="n">
-        <v>61.0406</v>
+        <v>61.3615</v>
       </c>
       <c r="D10" t="n">
-        <v>79.8514</v>
+        <v>80.91540000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.6579</v>
+        <v>32.5976</v>
       </c>
       <c r="C11" t="n">
-        <v>61.4713</v>
+        <v>61.0276</v>
       </c>
       <c r="D11" t="n">
-        <v>81.1922</v>
+        <v>80.2657</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4627</v>
+        <v>32.6648</v>
       </c>
       <c r="C12" t="n">
-        <v>60.6069</v>
+        <v>61.5664</v>
       </c>
       <c r="D12" t="n">
-        <v>81.3939</v>
+        <v>81.14570000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.0971</v>
+        <v>32.855</v>
       </c>
       <c r="C13" t="n">
-        <v>62.1634</v>
+        <v>62.9507</v>
       </c>
       <c r="D13" t="n">
-        <v>80.83459999999999</v>
+        <v>81.2093</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.9172</v>
+        <v>32.8018</v>
       </c>
       <c r="C14" t="n">
-        <v>61.9511</v>
+        <v>62.2444</v>
       </c>
       <c r="D14" t="n">
-        <v>81.0882</v>
+        <v>80.2745</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.7076</v>
+        <v>32.7956</v>
       </c>
       <c r="C15" t="n">
-        <v>61.2455</v>
+        <v>62.1255</v>
       </c>
       <c r="D15" t="n">
-        <v>79.5553</v>
+        <v>80.24769999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.2458</v>
+        <v>33.0721</v>
       </c>
       <c r="C16" t="n">
-        <v>61.7947</v>
+        <v>62.4026</v>
       </c>
       <c r="D16" t="n">
-        <v>80.0763</v>
+        <v>80.3073</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.8413</v>
+        <v>32.9425</v>
       </c>
       <c r="C17" t="n">
-        <v>61.9096</v>
+        <v>62.0666</v>
       </c>
       <c r="D17" t="n">
-        <v>79.9181</v>
+        <v>79.84780000000001</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1803</v>
+        <v>10.3394</v>
       </c>
       <c r="C2" t="n">
-        <v>17.5339</v>
+        <v>17.4586</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1483</v>
+        <v>20.9954</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3976</v>
+        <v>19.5613</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3368</v>
+        <v>27.089</v>
       </c>
       <c r="D3" t="n">
-        <v>32.0459</v>
+        <v>32.1097</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.2827</v>
+        <v>27.0336</v>
       </c>
       <c r="C4" t="n">
-        <v>31.5412</v>
+        <v>33.1819</v>
       </c>
       <c r="D4" t="n">
-        <v>40.4469</v>
+        <v>43.535</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.0654</v>
+        <v>20.7149</v>
       </c>
       <c r="C5" t="n">
-        <v>34.3849</v>
+        <v>34.755</v>
       </c>
       <c r="D5" t="n">
-        <v>43.953</v>
+        <v>43.6333</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.7607</v>
+        <v>24.1905</v>
       </c>
       <c r="C6" t="n">
-        <v>38.4206</v>
+        <v>38.3154</v>
       </c>
       <c r="D6" t="n">
-        <v>43.5342</v>
+        <v>43.747</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.2904</v>
+        <v>29.025</v>
       </c>
       <c r="C7" t="n">
-        <v>40.2748</v>
+        <v>40.4714</v>
       </c>
       <c r="D7" t="n">
-        <v>50.2505</v>
+        <v>49.7697</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.2139</v>
+        <v>21.1202</v>
       </c>
       <c r="C8" t="n">
-        <v>39.6869</v>
+        <v>40.0918</v>
       </c>
       <c r="D8" t="n">
-        <v>47.1611</v>
+        <v>47.0514</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8679</v>
+        <v>23.8774</v>
       </c>
       <c r="C9" t="n">
-        <v>42.0131</v>
+        <v>44.7501</v>
       </c>
       <c r="D9" t="n">
-        <v>49.9111</v>
+        <v>50.0907</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.6527</v>
+        <v>26.0614</v>
       </c>
       <c r="C10" t="n">
-        <v>47.0296</v>
+        <v>47.6672</v>
       </c>
       <c r="D10" t="n">
-        <v>53.4532</v>
+        <v>52.4947</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.5846</v>
+        <v>24.2487</v>
       </c>
       <c r="C11" t="n">
-        <v>48.5552</v>
+        <v>47.9263</v>
       </c>
       <c r="D11" t="n">
-        <v>55.8688</v>
+        <v>57.5743</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.8809</v>
+        <v>26.5329</v>
       </c>
       <c r="C12" t="n">
-        <v>50.0562</v>
+        <v>50.2341</v>
       </c>
       <c r="D12" t="n">
-        <v>56.4425</v>
+        <v>57.8356</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.2152</v>
+        <v>28.6668</v>
       </c>
       <c r="C13" t="n">
-        <v>50.5242</v>
+        <v>49.7234</v>
       </c>
       <c r="D13" t="n">
-        <v>57.7607</v>
+        <v>60.3345</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.8392</v>
+        <v>23.7018</v>
       </c>
       <c r="C14" t="n">
-        <v>51.7942</v>
+        <v>51.5357</v>
       </c>
       <c r="D14" t="n">
-        <v>59.2229</v>
+        <v>57.6121</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.7865</v>
+        <v>25.4571</v>
       </c>
       <c r="C15" t="n">
-        <v>51.131</v>
+        <v>50.9943</v>
       </c>
       <c r="D15" t="n">
-        <v>62.3715</v>
+        <v>59.0994</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.0027</v>
+        <v>26.7612</v>
       </c>
       <c r="C16" t="n">
-        <v>52.3333</v>
+        <v>51.9043</v>
       </c>
       <c r="D16" t="n">
-        <v>61.0955</v>
+        <v>61.5395</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.111</v>
+        <v>25.6383</v>
       </c>
       <c r="C17" t="n">
-        <v>52.3643</v>
+        <v>52.0565</v>
       </c>
       <c r="D17" t="n">
-        <v>60.1094</v>
+        <v>64.1819</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7069</v>
+        <v>10.7063</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4552</v>
+        <v>17.3165</v>
       </c>
       <c r="D2" t="n">
-        <v>20.9732</v>
+        <v>20.8853</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0196</v>
+        <v>20.0093</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3982</v>
+        <v>27.3649</v>
       </c>
       <c r="D3" t="n">
-        <v>32.5033</v>
+        <v>31.3859</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.7411</v>
+        <v>27.6863</v>
       </c>
       <c r="C4" t="n">
-        <v>34.4516</v>
+        <v>33.7498</v>
       </c>
       <c r="D4" t="n">
-        <v>39.004</v>
+        <v>37.9511</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.745</v>
+        <v>20.9027</v>
       </c>
       <c r="C5" t="n">
-        <v>35.1366</v>
+        <v>36.1721</v>
       </c>
       <c r="D5" t="n">
-        <v>41.1689</v>
+        <v>40.5612</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.2055</v>
+        <v>24.7854</v>
       </c>
       <c r="C6" t="n">
-        <v>36.9734</v>
+        <v>37.0779</v>
       </c>
       <c r="D6" t="n">
-        <v>44.9101</v>
+        <v>43.9504</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.1897</v>
+        <v>29.9489</v>
       </c>
       <c r="C7" t="n">
-        <v>43.807</v>
+        <v>43.2645</v>
       </c>
       <c r="D7" t="n">
-        <v>49.7924</v>
+        <v>50.7491</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.7396</v>
+        <v>21.6444</v>
       </c>
       <c r="C8" t="n">
-        <v>41.4359</v>
+        <v>41.5558</v>
       </c>
       <c r="D8" t="n">
-        <v>48.1197</v>
+        <v>48.0377</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.1591</v>
+        <v>25.0108</v>
       </c>
       <c r="C9" t="n">
-        <v>45.9424</v>
+        <v>45.2249</v>
       </c>
       <c r="D9" t="n">
-        <v>50.4149</v>
+        <v>50.48</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.293</v>
+        <v>27.2505</v>
       </c>
       <c r="C10" t="n">
-        <v>48.8548</v>
+        <v>44.6304</v>
       </c>
       <c r="D10" t="n">
-        <v>55.3716</v>
+        <v>56.3154</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1819</v>
+        <v>24.9597</v>
       </c>
       <c r="C11" t="n">
-        <v>49.4762</v>
+        <v>47.1469</v>
       </c>
       <c r="D11" t="n">
-        <v>58.6214</v>
+        <v>57.9326</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.6036</v>
+        <v>27.2686</v>
       </c>
       <c r="C12" t="n">
-        <v>50.1583</v>
+        <v>50.673</v>
       </c>
       <c r="D12" t="n">
-        <v>60.6336</v>
+        <v>59.5596</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.1942</v>
+        <v>29.9425</v>
       </c>
       <c r="C13" t="n">
-        <v>51.0404</v>
+        <v>50.2355</v>
       </c>
       <c r="D13" t="n">
-        <v>61.0667</v>
+        <v>60.9095</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.2448</v>
+        <v>24.1558</v>
       </c>
       <c r="C14" t="n">
-        <v>50.8896</v>
+        <v>50.0029</v>
       </c>
       <c r="D14" t="n">
-        <v>60.9267</v>
+        <v>60.9544</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.5197</v>
+        <v>26.3137</v>
       </c>
       <c r="C15" t="n">
-        <v>51.3538</v>
+        <v>51.6973</v>
       </c>
       <c r="D15" t="n">
-        <v>59.9454</v>
+        <v>61.9008</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.866</v>
+        <v>27.6192</v>
       </c>
       <c r="C16" t="n">
-        <v>51.9076</v>
+        <v>50.8627</v>
       </c>
       <c r="D16" t="n">
-        <v>61.4791</v>
+        <v>61.8508</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.4961</v>
+        <v>26.3637</v>
       </c>
       <c r="C17" t="n">
-        <v>50.9575</v>
+        <v>51.1314</v>
       </c>
       <c r="D17" t="n">
-        <v>61.9853</v>
+        <v>63.4913</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0913</v>
+        <v>13.0032</v>
       </c>
       <c r="C2" t="n">
-        <v>19.1859</v>
+        <v>19.1</v>
       </c>
       <c r="D2" t="n">
-        <v>22.3973</v>
+        <v>22.3695</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.4797</v>
+        <v>23.1756</v>
       </c>
       <c r="C3" t="n">
-        <v>31.0277</v>
+        <v>30.9623</v>
       </c>
       <c r="D3" t="n">
-        <v>32.0009</v>
+        <v>33.7008</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.2883</v>
+        <v>31.7249</v>
       </c>
       <c r="C4" t="n">
-        <v>36.0026</v>
+        <v>34.9398</v>
       </c>
       <c r="D4" t="n">
-        <v>43.2297</v>
+        <v>39.9404</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.8817</v>
+        <v>26.5968</v>
       </c>
       <c r="C5" t="n">
-        <v>34.8679</v>
+        <v>34.9803</v>
       </c>
       <c r="D5" t="n">
-        <v>43.5419</v>
+        <v>50.4269</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.8977</v>
+        <v>31.6995</v>
       </c>
       <c r="C6" t="n">
-        <v>40.4466</v>
+        <v>41.766</v>
       </c>
       <c r="D6" t="n">
-        <v>50.7044</v>
+        <v>50.6672</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.6956</v>
+        <v>37.5822</v>
       </c>
       <c r="C7" t="n">
-        <v>49.918</v>
+        <v>44.1119</v>
       </c>
       <c r="D7" t="n">
-        <v>50.7932</v>
+        <v>50.6266</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.6245</v>
+        <v>34.6786</v>
       </c>
       <c r="C8" t="n">
-        <v>48.0425</v>
+        <v>48.7435</v>
       </c>
       <c r="D8" t="n">
-        <v>50.5066</v>
+        <v>51.0058</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.7339</v>
+        <v>33.8596</v>
       </c>
       <c r="C9" t="n">
-        <v>48.9492</v>
+        <v>49.6449</v>
       </c>
       <c r="D9" t="n">
-        <v>60.0589</v>
+        <v>57.1519</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0825</v>
+        <v>34.0639</v>
       </c>
       <c r="C10" t="n">
-        <v>50.0184</v>
+        <v>48.5765</v>
       </c>
       <c r="D10" t="n">
-        <v>60.0245</v>
+        <v>60.3454</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.4666</v>
+        <v>34.4775</v>
       </c>
       <c r="C11" t="n">
-        <v>56.6977</v>
+        <v>50.5969</v>
       </c>
       <c r="D11" t="n">
-        <v>61.0042</v>
+        <v>59.8961</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.2525</v>
+        <v>34.6008</v>
       </c>
       <c r="C12" t="n">
-        <v>53.4</v>
+        <v>50.7485</v>
       </c>
       <c r="D12" t="n">
-        <v>59.1933</v>
+        <v>59.9899</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.3481</v>
+        <v>34.5513</v>
       </c>
       <c r="C13" t="n">
-        <v>51.089</v>
+        <v>50.0059</v>
       </c>
       <c r="D13" t="n">
-        <v>59.7659</v>
+        <v>60.7831</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.5999</v>
+        <v>35.8082</v>
       </c>
       <c r="C14" t="n">
-        <v>53.0071</v>
+        <v>51.1016</v>
       </c>
       <c r="D14" t="n">
-        <v>60.2835</v>
+        <v>61.072</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.0194</v>
+        <v>35.6074</v>
       </c>
       <c r="C15" t="n">
-        <v>53.4891</v>
+        <v>51.3112</v>
       </c>
       <c r="D15" t="n">
-        <v>59.9813</v>
+        <v>56.3276</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.682</v>
+        <v>35.8665</v>
       </c>
       <c r="C16" t="n">
-        <v>55.4082</v>
+        <v>51.0176</v>
       </c>
       <c r="D16" t="n">
-        <v>58.1549</v>
+        <v>60.7461</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.1487</v>
+        <v>35.4921</v>
       </c>
       <c r="C17" t="n">
-        <v>53.1328</v>
+        <v>50.3744</v>
       </c>
       <c r="D17" t="n">
-        <v>58.5008</v>
+        <v>61.181</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.70591</v>
+        <v>4.79423</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7266</v>
+        <v>14.6556</v>
       </c>
       <c r="D2" t="n">
-        <v>19.508</v>
+        <v>19.3957</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.203480000000001</v>
+        <v>9.349640000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>28.1213</v>
+        <v>27.4843</v>
       </c>
       <c r="D3" t="n">
-        <v>36.8061</v>
+        <v>35.7746</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.1905</v>
+        <v>13.4546</v>
       </c>
       <c r="C4" t="n">
-        <v>39.3243</v>
+        <v>39.0635</v>
       </c>
       <c r="D4" t="n">
-        <v>50.4329</v>
+        <v>50.4899</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8173</v>
+        <v>15.8881</v>
       </c>
       <c r="C5" t="n">
-        <v>43.7997</v>
+        <v>42.918</v>
       </c>
       <c r="D5" t="n">
-        <v>57.754</v>
+        <v>57.4282</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.0866</v>
+        <v>19.2679</v>
       </c>
       <c r="C6" t="n">
-        <v>51.9165</v>
+        <v>51.5015</v>
       </c>
       <c r="D6" t="n">
-        <v>68.312</v>
+        <v>68.0886</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.2517</v>
+        <v>22.4878</v>
       </c>
       <c r="C7" t="n">
-        <v>61.1087</v>
+        <v>60.9824</v>
       </c>
       <c r="D7" t="n">
-        <v>79.6949</v>
+        <v>80.44799999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9108</v>
+        <v>20.047</v>
       </c>
       <c r="C8" t="n">
-        <v>55.8996</v>
+        <v>53.5019</v>
       </c>
       <c r="D8" t="n">
-        <v>67.9302</v>
+        <v>69.8081</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.548</v>
+        <v>20.9415</v>
       </c>
       <c r="C9" t="n">
-        <v>55.7117</v>
+        <v>54.0074</v>
       </c>
       <c r="D9" t="n">
-        <v>70.8017</v>
+        <v>73.1605</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8085</v>
+        <v>21.1587</v>
       </c>
       <c r="C10" t="n">
-        <v>55.0584</v>
+        <v>54.4377</v>
       </c>
       <c r="D10" t="n">
-        <v>72.55500000000001</v>
+        <v>70.9353</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.9637</v>
+        <v>21.3441</v>
       </c>
       <c r="C11" t="n">
-        <v>56.201</v>
+        <v>55.6096</v>
       </c>
       <c r="D11" t="n">
-        <v>72.72620000000001</v>
+        <v>70.9225</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.078</v>
+        <v>21.2477</v>
       </c>
       <c r="C12" t="n">
-        <v>56.4123</v>
+        <v>58.2775</v>
       </c>
       <c r="D12" t="n">
-        <v>76.2163</v>
+        <v>74.21259999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2381</v>
+        <v>21.0661</v>
       </c>
       <c r="C13" t="n">
-        <v>58.7363</v>
+        <v>56.166</v>
       </c>
       <c r="D13" t="n">
-        <v>75.08969999999999</v>
+        <v>74.63079999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.1134</v>
+        <v>21.2469</v>
       </c>
       <c r="C14" t="n">
-        <v>58.4322</v>
+        <v>54.7644</v>
       </c>
       <c r="D14" t="n">
-        <v>75.0894</v>
+        <v>73.4406</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.0428</v>
+        <v>21.5166</v>
       </c>
       <c r="C15" t="n">
-        <v>58.782</v>
+        <v>58.0156</v>
       </c>
       <c r="D15" t="n">
-        <v>76.53449999999999</v>
+        <v>75.8609</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.0828</v>
+        <v>21.544</v>
       </c>
       <c r="C16" t="n">
-        <v>57.5262</v>
+        <v>57.092</v>
       </c>
       <c r="D16" t="n">
-        <v>76.87569999999999</v>
+        <v>75.41930000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0645</v>
+        <v>21.5622</v>
       </c>
       <c r="C17" t="n">
-        <v>59.109</v>
+        <v>58.4429</v>
       </c>
       <c r="D17" t="n">
-        <v>77.0842</v>
+        <v>76.983</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.70803</v>
+        <v>4.81969</v>
       </c>
       <c r="C2" t="n">
-        <v>14.5038</v>
+        <v>14.4736</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4037</v>
+        <v>19.5041</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.19722</v>
+        <v>9.40053</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4457</v>
+        <v>27.2978</v>
       </c>
       <c r="D3" t="n">
-        <v>36.221</v>
+        <v>36.3015</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2334</v>
+        <v>13.5675</v>
       </c>
       <c r="C4" t="n">
-        <v>38.5219</v>
+        <v>38.8517</v>
       </c>
       <c r="D4" t="n">
-        <v>50.8773</v>
+        <v>50.1324</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9451</v>
+        <v>16.0763</v>
       </c>
       <c r="C5" t="n">
-        <v>43.0013</v>
+        <v>41.7632</v>
       </c>
       <c r="D5" t="n">
-        <v>57.4265</v>
+        <v>56.2258</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3399</v>
+        <v>19.5255</v>
       </c>
       <c r="C6" t="n">
-        <v>50.8061</v>
+        <v>50.1078</v>
       </c>
       <c r="D6" t="n">
-        <v>68.0853</v>
+        <v>67.76430000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.6118</v>
+        <v>22.8873</v>
       </c>
       <c r="C7" t="n">
-        <v>59.5946</v>
+        <v>58.6307</v>
       </c>
       <c r="D7" t="n">
-        <v>78.81829999999999</v>
+        <v>79.0313</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3553</v>
+        <v>20.4661</v>
       </c>
       <c r="C8" t="n">
-        <v>52.4684</v>
+        <v>53.8876</v>
       </c>
       <c r="D8" t="n">
-        <v>70.14570000000001</v>
+        <v>65.8261</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9697</v>
+        <v>21.1532</v>
       </c>
       <c r="C9" t="n">
-        <v>53.5856</v>
+        <v>51.1426</v>
       </c>
       <c r="D9" t="n">
-        <v>68.7698</v>
+        <v>69.1546</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.9873</v>
+        <v>21.1964</v>
       </c>
       <c r="C10" t="n">
-        <v>52.9314</v>
+        <v>51.9594</v>
       </c>
       <c r="D10" t="n">
-        <v>71.62860000000001</v>
+        <v>71.4657</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.9387</v>
+        <v>21.953</v>
       </c>
       <c r="C11" t="n">
-        <v>53.8854</v>
+        <v>53.6257</v>
       </c>
       <c r="D11" t="n">
-        <v>72.4483</v>
+        <v>73.78919999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.3613</v>
+        <v>21.4527</v>
       </c>
       <c r="C12" t="n">
-        <v>54.6541</v>
+        <v>53.5786</v>
       </c>
       <c r="D12" t="n">
-        <v>74.73439999999999</v>
+        <v>71.54559999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2029</v>
+        <v>21.4479</v>
       </c>
       <c r="C13" t="n">
-        <v>55.422</v>
+        <v>54.4381</v>
       </c>
       <c r="D13" t="n">
-        <v>74.2581</v>
+        <v>75.33499999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2046</v>
+        <v>21.56</v>
       </c>
       <c r="C14" t="n">
-        <v>55.4906</v>
+        <v>55.6961</v>
       </c>
       <c r="D14" t="n">
-        <v>73.5552</v>
+        <v>72.4452</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.0997</v>
+        <v>21.5167</v>
       </c>
       <c r="C15" t="n">
-        <v>56.6475</v>
+        <v>56.9303</v>
       </c>
       <c r="D15" t="n">
-        <v>73.9389</v>
+        <v>74.9718</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3637</v>
+        <v>21.7689</v>
       </c>
       <c r="C16" t="n">
-        <v>57.3205</v>
+        <v>54.5278</v>
       </c>
       <c r="D16" t="n">
-        <v>76.071</v>
+        <v>72.85980000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6381</v>
+        <v>21.997</v>
       </c>
       <c r="C17" t="n">
-        <v>57.2821</v>
+        <v>56.5761</v>
       </c>
       <c r="D17" t="n">
-        <v>75.1934</v>
+        <v>75.2871</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.79937</v>
+        <v>8.945589999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>18.505</v>
+        <v>18.3748</v>
       </c>
       <c r="D2" t="n">
-        <v>22.2644</v>
+        <v>22.2125</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8523</v>
+        <v>17.0873</v>
       </c>
       <c r="C3" t="n">
-        <v>33.7612</v>
+        <v>33.6795</v>
       </c>
       <c r="D3" t="n">
-        <v>40.2488</v>
+        <v>40.4097</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0403</v>
+        <v>24.5788</v>
       </c>
       <c r="C4" t="n">
-        <v>47.5194</v>
+        <v>47.7552</v>
       </c>
       <c r="D4" t="n">
-        <v>56.5847</v>
+        <v>57.4135</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.8617</v>
+        <v>24.5891</v>
       </c>
       <c r="C5" t="n">
-        <v>47.7761</v>
+        <v>47.6916</v>
       </c>
       <c r="D5" t="n">
-        <v>60.6806</v>
+        <v>60.3157</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.3915</v>
+        <v>28.4211</v>
       </c>
       <c r="C6" t="n">
-        <v>54.4492</v>
+        <v>54.1949</v>
       </c>
       <c r="D6" t="n">
-        <v>71.05200000000001</v>
+        <v>70.8733</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3251</v>
+        <v>34.5076</v>
       </c>
       <c r="C7" t="n">
-        <v>61.5968</v>
+        <v>62.2961</v>
       </c>
       <c r="D7" t="n">
-        <v>79.831</v>
+        <v>79.2436</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.2417</v>
+        <v>31.185</v>
       </c>
       <c r="C8" t="n">
-        <v>60.508</v>
+        <v>59.9983</v>
       </c>
       <c r="D8" t="n">
-        <v>77.8472</v>
+        <v>77.2769</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.5517</v>
+        <v>32.8012</v>
       </c>
       <c r="C9" t="n">
-        <v>60.2182</v>
+        <v>59.7846</v>
       </c>
       <c r="D9" t="n">
-        <v>79.72880000000001</v>
+        <v>79.6189</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.208</v>
+        <v>32.2702</v>
       </c>
       <c r="C10" t="n">
-        <v>61.3615</v>
+        <v>60.6817</v>
       </c>
       <c r="D10" t="n">
-        <v>80.91540000000001</v>
+        <v>79.8625</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.5976</v>
+        <v>32.7489</v>
       </c>
       <c r="C11" t="n">
-        <v>61.0276</v>
+        <v>61.8874</v>
       </c>
       <c r="D11" t="n">
-        <v>80.2657</v>
+        <v>80.93729999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.6648</v>
+        <v>32.5017</v>
       </c>
       <c r="C12" t="n">
-        <v>61.5664</v>
+        <v>61.735</v>
       </c>
       <c r="D12" t="n">
-        <v>81.14570000000001</v>
+        <v>81.0386</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.855</v>
+        <v>32.6218</v>
       </c>
       <c r="C13" t="n">
-        <v>62.9507</v>
+        <v>61.3437</v>
       </c>
       <c r="D13" t="n">
-        <v>81.2093</v>
+        <v>81.2714</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.8018</v>
+        <v>32.6246</v>
       </c>
       <c r="C14" t="n">
-        <v>62.2444</v>
+        <v>61.1706</v>
       </c>
       <c r="D14" t="n">
-        <v>80.2745</v>
+        <v>81.02630000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.7956</v>
+        <v>33.1388</v>
       </c>
       <c r="C15" t="n">
-        <v>62.1255</v>
+        <v>61.1376</v>
       </c>
       <c r="D15" t="n">
-        <v>80.24769999999999</v>
+        <v>81.7841</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.0721</v>
+        <v>32.6755</v>
       </c>
       <c r="C16" t="n">
-        <v>62.4026</v>
+        <v>62.0539</v>
       </c>
       <c r="D16" t="n">
-        <v>80.3073</v>
+        <v>79.9794</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.9425</v>
+        <v>32.8955</v>
       </c>
       <c r="C17" t="n">
-        <v>62.0666</v>
+        <v>61.3004</v>
       </c>
       <c r="D17" t="n">
-        <v>79.84780000000001</v>
+        <v>80.267</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3394</v>
+        <v>10.261</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4586</v>
+        <v>17.5694</v>
       </c>
       <c r="D2" t="n">
-        <v>20.9954</v>
+        <v>21.1309</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5613</v>
+        <v>19.4699</v>
       </c>
       <c r="C3" t="n">
-        <v>27.089</v>
+        <v>26.8209</v>
       </c>
       <c r="D3" t="n">
-        <v>32.1097</v>
+        <v>30.9592</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.0336</v>
+        <v>25.8707</v>
       </c>
       <c r="C4" t="n">
-        <v>33.1819</v>
+        <v>32.3722</v>
       </c>
       <c r="D4" t="n">
-        <v>43.535</v>
+        <v>39.0859</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.7149</v>
+        <v>20.8599</v>
       </c>
       <c r="C5" t="n">
-        <v>34.755</v>
+        <v>35.6039</v>
       </c>
       <c r="D5" t="n">
-        <v>43.6333</v>
+        <v>43.3682</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.1905</v>
+        <v>24.7728</v>
       </c>
       <c r="C6" t="n">
-        <v>38.3154</v>
+        <v>38.6539</v>
       </c>
       <c r="D6" t="n">
-        <v>43.747</v>
+        <v>43.5456</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.025</v>
+        <v>29.2489</v>
       </c>
       <c r="C7" t="n">
-        <v>40.4714</v>
+        <v>40.7914</v>
       </c>
       <c r="D7" t="n">
-        <v>49.7697</v>
+        <v>50.2865</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.1202</v>
+        <v>21.0544</v>
       </c>
       <c r="C8" t="n">
-        <v>40.0918</v>
+        <v>39.9824</v>
       </c>
       <c r="D8" t="n">
-        <v>47.0514</v>
+        <v>48.7911</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8774</v>
+        <v>23.9986</v>
       </c>
       <c r="C9" t="n">
-        <v>44.7501</v>
+        <v>41.2798</v>
       </c>
       <c r="D9" t="n">
-        <v>50.0907</v>
+        <v>50.8793</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.0614</v>
+        <v>26.6213</v>
       </c>
       <c r="C10" t="n">
-        <v>47.6672</v>
+        <v>47.5749</v>
       </c>
       <c r="D10" t="n">
-        <v>52.4947</v>
+        <v>51.4157</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2487</v>
+        <v>24.7088</v>
       </c>
       <c r="C11" t="n">
-        <v>47.9263</v>
+        <v>48.7547</v>
       </c>
       <c r="D11" t="n">
-        <v>57.5743</v>
+        <v>56.0372</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.5329</v>
+        <v>26.7863</v>
       </c>
       <c r="C12" t="n">
-        <v>50.2341</v>
+        <v>50.5508</v>
       </c>
       <c r="D12" t="n">
-        <v>57.8356</v>
+        <v>58.0625</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.6668</v>
+        <v>29.1999</v>
       </c>
       <c r="C13" t="n">
-        <v>49.7234</v>
+        <v>51.3942</v>
       </c>
       <c r="D13" t="n">
-        <v>60.3345</v>
+        <v>58.9064</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.7018</v>
+        <v>23.8913</v>
       </c>
       <c r="C14" t="n">
-        <v>51.5357</v>
+        <v>49.776</v>
       </c>
       <c r="D14" t="n">
-        <v>57.6121</v>
+        <v>60.3977</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4571</v>
+        <v>25.6842</v>
       </c>
       <c r="C15" t="n">
-        <v>50.9943</v>
+        <v>51.471</v>
       </c>
       <c r="D15" t="n">
-        <v>59.0994</v>
+        <v>60.1733</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.7612</v>
+        <v>26.8935</v>
       </c>
       <c r="C16" t="n">
-        <v>51.9043</v>
+        <v>51.3076</v>
       </c>
       <c r="D16" t="n">
-        <v>61.5395</v>
+        <v>60.3176</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.6383</v>
+        <v>25.8032</v>
       </c>
       <c r="C17" t="n">
-        <v>52.0565</v>
+        <v>51.4245</v>
       </c>
       <c r="D17" t="n">
-        <v>64.1819</v>
+        <v>61.9117</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7063</v>
+        <v>10.7248</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3165</v>
+        <v>17.4211</v>
       </c>
       <c r="D2" t="n">
-        <v>20.8853</v>
+        <v>20.9718</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0093</v>
+        <v>20.1257</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3649</v>
+        <v>27.5511</v>
       </c>
       <c r="D3" t="n">
-        <v>31.3859</v>
+        <v>30.3607</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.6863</v>
+        <v>26.7203</v>
       </c>
       <c r="C4" t="n">
-        <v>33.7498</v>
+        <v>32.9054</v>
       </c>
       <c r="D4" t="n">
-        <v>37.9511</v>
+        <v>37.5448</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9027</v>
+        <v>20.7811</v>
       </c>
       <c r="C5" t="n">
-        <v>36.1721</v>
+        <v>34.3321</v>
       </c>
       <c r="D5" t="n">
-        <v>40.5612</v>
+        <v>40.2968</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.7854</v>
+        <v>25.2031</v>
       </c>
       <c r="C6" t="n">
-        <v>37.0779</v>
+        <v>37.0498</v>
       </c>
       <c r="D6" t="n">
-        <v>43.9504</v>
+        <v>44.1754</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9489</v>
+        <v>30.1829</v>
       </c>
       <c r="C7" t="n">
-        <v>43.2645</v>
+        <v>43.1015</v>
       </c>
       <c r="D7" t="n">
-        <v>50.7491</v>
+        <v>50.7021</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6444</v>
+        <v>21.7272</v>
       </c>
       <c r="C8" t="n">
-        <v>41.5558</v>
+        <v>39.4246</v>
       </c>
       <c r="D8" t="n">
-        <v>48.0377</v>
+        <v>45.5516</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.0108</v>
+        <v>25.148</v>
       </c>
       <c r="C9" t="n">
-        <v>45.2249</v>
+        <v>42.3222</v>
       </c>
       <c r="D9" t="n">
-        <v>50.48</v>
+        <v>51.676</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.2505</v>
+        <v>28.0837</v>
       </c>
       <c r="C10" t="n">
-        <v>44.6304</v>
+        <v>45.3396</v>
       </c>
       <c r="D10" t="n">
-        <v>56.3154</v>
+        <v>51.632</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9597</v>
+        <v>24.9992</v>
       </c>
       <c r="C11" t="n">
-        <v>47.1469</v>
+        <v>47.1278</v>
       </c>
       <c r="D11" t="n">
-        <v>57.9326</v>
+        <v>57.1802</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.2686</v>
+        <v>27.3997</v>
       </c>
       <c r="C12" t="n">
-        <v>50.673</v>
+        <v>49.7483</v>
       </c>
       <c r="D12" t="n">
-        <v>59.5596</v>
+        <v>60.4655</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9425</v>
+        <v>30.1396</v>
       </c>
       <c r="C13" t="n">
-        <v>50.2355</v>
+        <v>49.3618</v>
       </c>
       <c r="D13" t="n">
-        <v>60.9095</v>
+        <v>60.6512</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1558</v>
+        <v>24.3885</v>
       </c>
       <c r="C14" t="n">
-        <v>50.0029</v>
+        <v>48.6182</v>
       </c>
       <c r="D14" t="n">
-        <v>60.9544</v>
+        <v>61.0339</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.3137</v>
+        <v>26.868</v>
       </c>
       <c r="C15" t="n">
-        <v>51.6973</v>
+        <v>49.4417</v>
       </c>
       <c r="D15" t="n">
-        <v>61.9008</v>
+        <v>62.627</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.6192</v>
+        <v>28.0951</v>
       </c>
       <c r="C16" t="n">
-        <v>50.8627</v>
+        <v>50.837</v>
       </c>
       <c r="D16" t="n">
-        <v>61.8508</v>
+        <v>60.7113</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.3637</v>
+        <v>26.4097</v>
       </c>
       <c r="C17" t="n">
-        <v>51.1314</v>
+        <v>50.1792</v>
       </c>
       <c r="D17" t="n">
-        <v>63.4913</v>
+        <v>62.3778</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0032</v>
+        <v>13.0562</v>
       </c>
       <c r="C2" t="n">
-        <v>19.1</v>
+        <v>19.153</v>
       </c>
       <c r="D2" t="n">
-        <v>22.3695</v>
+        <v>22.2578</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.1756</v>
+        <v>23.1917</v>
       </c>
       <c r="C3" t="n">
-        <v>30.9623</v>
+        <v>30.0449</v>
       </c>
       <c r="D3" t="n">
-        <v>33.7008</v>
+        <v>34.1383</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.7249</v>
+        <v>31.4901</v>
       </c>
       <c r="C4" t="n">
-        <v>34.9398</v>
+        <v>34.5842</v>
       </c>
       <c r="D4" t="n">
-        <v>39.9404</v>
+        <v>39.9793</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.5968</v>
+        <v>26.4009</v>
       </c>
       <c r="C5" t="n">
-        <v>34.9803</v>
+        <v>36.3825</v>
       </c>
       <c r="D5" t="n">
-        <v>50.4269</v>
+        <v>50.4625</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6995</v>
+        <v>31.6597</v>
       </c>
       <c r="C6" t="n">
-        <v>41.766</v>
+        <v>41.2112</v>
       </c>
       <c r="D6" t="n">
-        <v>50.6672</v>
+        <v>50.9951</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.5822</v>
+        <v>37.7666</v>
       </c>
       <c r="C7" t="n">
-        <v>44.1119</v>
+        <v>43.8965</v>
       </c>
       <c r="D7" t="n">
-        <v>50.6266</v>
+        <v>50.5108</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.6786</v>
+        <v>33.9335</v>
       </c>
       <c r="C8" t="n">
-        <v>48.7435</v>
+        <v>48.5967</v>
       </c>
       <c r="D8" t="n">
-        <v>51.0058</v>
+        <v>50.6249</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.8596</v>
+        <v>33.7655</v>
       </c>
       <c r="C9" t="n">
-        <v>49.6449</v>
+        <v>48.6582</v>
       </c>
       <c r="D9" t="n">
-        <v>57.1519</v>
+        <v>60.44</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0639</v>
+        <v>34.4979</v>
       </c>
       <c r="C10" t="n">
-        <v>48.5765</v>
+        <v>48.7709</v>
       </c>
       <c r="D10" t="n">
-        <v>60.3454</v>
+        <v>55.0235</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.4775</v>
+        <v>34.8153</v>
       </c>
       <c r="C11" t="n">
-        <v>50.5969</v>
+        <v>51.3092</v>
       </c>
       <c r="D11" t="n">
-        <v>59.8961</v>
+        <v>58.9029</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.6008</v>
+        <v>35.1398</v>
       </c>
       <c r="C12" t="n">
-        <v>50.7485</v>
+        <v>50.4226</v>
       </c>
       <c r="D12" t="n">
-        <v>59.9899</v>
+        <v>60.1266</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5513</v>
+        <v>35.4708</v>
       </c>
       <c r="C13" t="n">
-        <v>50.0059</v>
+        <v>50.7892</v>
       </c>
       <c r="D13" t="n">
-        <v>60.7831</v>
+        <v>56.9693</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.8082</v>
+        <v>35.0685</v>
       </c>
       <c r="C14" t="n">
-        <v>51.1016</v>
+        <v>50.8439</v>
       </c>
       <c r="D14" t="n">
-        <v>61.072</v>
+        <v>58.8575</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.6074</v>
+        <v>34.9565</v>
       </c>
       <c r="C15" t="n">
-        <v>51.3112</v>
+        <v>51.0096</v>
       </c>
       <c r="D15" t="n">
-        <v>56.3276</v>
+        <v>54.8231</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.8665</v>
+        <v>35.342</v>
       </c>
       <c r="C16" t="n">
-        <v>51.0176</v>
+        <v>50.8301</v>
       </c>
       <c r="D16" t="n">
-        <v>60.7461</v>
+        <v>55.926</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.4921</v>
+        <v>35.8927</v>
       </c>
       <c r="C17" t="n">
-        <v>50.3744</v>
+        <v>51.2732</v>
       </c>
       <c r="D17" t="n">
-        <v>61.181</v>
+        <v>58.6042</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.79423</v>
+        <v>4.70381</v>
       </c>
       <c r="C2" t="n">
-        <v>14.6556</v>
+        <v>14.7178</v>
       </c>
       <c r="D2" t="n">
-        <v>19.3957</v>
+        <v>19.4744</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.349640000000001</v>
+        <v>9.17033</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4843</v>
+        <v>28.0398</v>
       </c>
       <c r="D3" t="n">
-        <v>35.7746</v>
+        <v>36.6082</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4546</v>
+        <v>13.1884</v>
       </c>
       <c r="C4" t="n">
-        <v>39.0635</v>
+        <v>39.1808</v>
       </c>
       <c r="D4" t="n">
-        <v>50.4899</v>
+        <v>50.448</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8881</v>
+        <v>15.7112</v>
       </c>
       <c r="C5" t="n">
-        <v>42.918</v>
+        <v>43.4345</v>
       </c>
       <c r="D5" t="n">
-        <v>57.4282</v>
+        <v>57.9988</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2679</v>
+        <v>19.056</v>
       </c>
       <c r="C6" t="n">
-        <v>51.5015</v>
+        <v>51.1118</v>
       </c>
       <c r="D6" t="n">
-        <v>68.0886</v>
+        <v>67.9474</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4878</v>
+        <v>22.2383</v>
       </c>
       <c r="C7" t="n">
-        <v>60.9824</v>
+        <v>61.124</v>
       </c>
       <c r="D7" t="n">
-        <v>80.44799999999999</v>
+        <v>80.23560000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.047</v>
+        <v>19.5641</v>
       </c>
       <c r="C8" t="n">
-        <v>53.5019</v>
+        <v>55.3129</v>
       </c>
       <c r="D8" t="n">
-        <v>69.8081</v>
+        <v>70.0904</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9415</v>
+        <v>20.4744</v>
       </c>
       <c r="C9" t="n">
-        <v>54.0074</v>
+        <v>56.2343</v>
       </c>
       <c r="D9" t="n">
-        <v>73.1605</v>
+        <v>69.72280000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1587</v>
+        <v>20.8155</v>
       </c>
       <c r="C10" t="n">
-        <v>54.4377</v>
+        <v>54.122</v>
       </c>
       <c r="D10" t="n">
-        <v>70.9353</v>
+        <v>73.5183</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3441</v>
+        <v>21.2211</v>
       </c>
       <c r="C11" t="n">
-        <v>55.6096</v>
+        <v>55.4538</v>
       </c>
       <c r="D11" t="n">
-        <v>70.9225</v>
+        <v>73.9144</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.2477</v>
+        <v>20.9516</v>
       </c>
       <c r="C12" t="n">
-        <v>58.2775</v>
+        <v>56.4634</v>
       </c>
       <c r="D12" t="n">
-        <v>74.21259999999999</v>
+        <v>73.2831</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0661</v>
+        <v>20.7913</v>
       </c>
       <c r="C13" t="n">
-        <v>56.166</v>
+        <v>56.2703</v>
       </c>
       <c r="D13" t="n">
-        <v>74.63079999999999</v>
+        <v>74.3438</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2469</v>
+        <v>20.6425</v>
       </c>
       <c r="C14" t="n">
-        <v>54.7644</v>
+        <v>59.3707</v>
       </c>
       <c r="D14" t="n">
-        <v>73.4406</v>
+        <v>75.62820000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5166</v>
+        <v>21.0089</v>
       </c>
       <c r="C15" t="n">
-        <v>58.0156</v>
+        <v>58.1671</v>
       </c>
       <c r="D15" t="n">
-        <v>75.8609</v>
+        <v>74.9243</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.544</v>
+        <v>20.955</v>
       </c>
       <c r="C16" t="n">
-        <v>57.092</v>
+        <v>59.4335</v>
       </c>
       <c r="D16" t="n">
-        <v>75.41930000000001</v>
+        <v>78.44</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.5622</v>
+        <v>21.3435</v>
       </c>
       <c r="C17" t="n">
-        <v>58.4429</v>
+        <v>58.601</v>
       </c>
       <c r="D17" t="n">
-        <v>76.983</v>
+        <v>76.35599999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.81969</v>
+        <v>4.7141</v>
       </c>
       <c r="C2" t="n">
-        <v>14.4736</v>
+        <v>14.5716</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5041</v>
+        <v>19.5385</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.40053</v>
+        <v>9.20579</v>
       </c>
       <c r="C3" t="n">
-        <v>27.2978</v>
+        <v>27.5453</v>
       </c>
       <c r="D3" t="n">
-        <v>36.3015</v>
+        <v>36.4777</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5675</v>
+        <v>13.2521</v>
       </c>
       <c r="C4" t="n">
-        <v>38.8517</v>
+        <v>39.2903</v>
       </c>
       <c r="D4" t="n">
-        <v>50.1324</v>
+        <v>50.6277</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0763</v>
+        <v>15.9504</v>
       </c>
       <c r="C5" t="n">
-        <v>41.7632</v>
+        <v>42.525</v>
       </c>
       <c r="D5" t="n">
-        <v>56.2258</v>
+        <v>58.0264</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5255</v>
+        <v>19.285</v>
       </c>
       <c r="C6" t="n">
-        <v>50.1078</v>
+        <v>49.7155</v>
       </c>
       <c r="D6" t="n">
-        <v>67.76430000000001</v>
+        <v>67.43810000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8873</v>
+        <v>22.5982</v>
       </c>
       <c r="C7" t="n">
-        <v>58.6307</v>
+        <v>59.0523</v>
       </c>
       <c r="D7" t="n">
-        <v>79.0313</v>
+        <v>78.7736</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4661</v>
+        <v>20.1628</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8876</v>
+        <v>49.8107</v>
       </c>
       <c r="D8" t="n">
-        <v>65.8261</v>
+        <v>69.0198</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1532</v>
+        <v>20.8551</v>
       </c>
       <c r="C9" t="n">
-        <v>51.1426</v>
+        <v>52.3479</v>
       </c>
       <c r="D9" t="n">
-        <v>69.1546</v>
+        <v>72.96899999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1964</v>
+        <v>20.8502</v>
       </c>
       <c r="C10" t="n">
-        <v>51.9594</v>
+        <v>52.0013</v>
       </c>
       <c r="D10" t="n">
-        <v>71.4657</v>
+        <v>70.8441</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.953</v>
+        <v>21.4841</v>
       </c>
       <c r="C11" t="n">
-        <v>53.6257</v>
+        <v>52.7985</v>
       </c>
       <c r="D11" t="n">
-        <v>73.78919999999999</v>
+        <v>70.6347</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4527</v>
+        <v>21.2998</v>
       </c>
       <c r="C12" t="n">
-        <v>53.5786</v>
+        <v>55.2965</v>
       </c>
       <c r="D12" t="n">
-        <v>71.54559999999999</v>
+        <v>75.2814</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4479</v>
+        <v>21.2629</v>
       </c>
       <c r="C13" t="n">
-        <v>54.4381</v>
+        <v>54.8356</v>
       </c>
       <c r="D13" t="n">
-        <v>75.33499999999999</v>
+        <v>73.3451</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.56</v>
+        <v>21.3295</v>
       </c>
       <c r="C14" t="n">
-        <v>55.6961</v>
+        <v>54.7976</v>
       </c>
       <c r="D14" t="n">
-        <v>72.4452</v>
+        <v>74.2285</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5167</v>
+        <v>21.5537</v>
       </c>
       <c r="C15" t="n">
-        <v>56.9303</v>
+        <v>55.7296</v>
       </c>
       <c r="D15" t="n">
-        <v>74.9718</v>
+        <v>74.2846</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7689</v>
+        <v>21.2842</v>
       </c>
       <c r="C16" t="n">
-        <v>54.5278</v>
+        <v>56.2963</v>
       </c>
       <c r="D16" t="n">
-        <v>72.85980000000001</v>
+        <v>75.19929999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.997</v>
+        <v>21.86</v>
       </c>
       <c r="C17" t="n">
-        <v>56.5761</v>
+        <v>56.7237</v>
       </c>
       <c r="D17" t="n">
-        <v>75.2871</v>
+        <v>76.2046</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.945589999999999</v>
+        <v>8.805619999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>18.3748</v>
+        <v>18.4876</v>
       </c>
       <c r="D2" t="n">
-        <v>22.2125</v>
+        <v>22.1351</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0873</v>
+        <v>16.8285</v>
       </c>
       <c r="C3" t="n">
-        <v>33.6795</v>
+        <v>34.0637</v>
       </c>
       <c r="D3" t="n">
-        <v>40.4097</v>
+        <v>40.3947</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.5788</v>
+        <v>23.9414</v>
       </c>
       <c r="C4" t="n">
-        <v>47.7552</v>
+        <v>47.7368</v>
       </c>
       <c r="D4" t="n">
-        <v>57.4135</v>
+        <v>56.3309</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.5891</v>
+        <v>24.4861</v>
       </c>
       <c r="C5" t="n">
-        <v>47.6916</v>
+        <v>47.592</v>
       </c>
       <c r="D5" t="n">
-        <v>60.3157</v>
+        <v>59.9283</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.4211</v>
+        <v>28.529</v>
       </c>
       <c r="C6" t="n">
-        <v>54.1949</v>
+        <v>53.9846</v>
       </c>
       <c r="D6" t="n">
-        <v>70.8733</v>
+        <v>70.6721</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.5076</v>
+        <v>34.3322</v>
       </c>
       <c r="C7" t="n">
-        <v>62.2961</v>
+        <v>61.9897</v>
       </c>
       <c r="D7" t="n">
-        <v>79.2436</v>
+        <v>79.57080000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.185</v>
+        <v>31.0293</v>
       </c>
       <c r="C8" t="n">
-        <v>59.9983</v>
+        <v>60.45</v>
       </c>
       <c r="D8" t="n">
-        <v>77.2769</v>
+        <v>77.82340000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.8012</v>
+        <v>31.2385</v>
       </c>
       <c r="C9" t="n">
-        <v>59.7846</v>
+        <v>60.5721</v>
       </c>
       <c r="D9" t="n">
-        <v>79.6189</v>
+        <v>79.59869999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.2702</v>
+        <v>32.5182</v>
       </c>
       <c r="C10" t="n">
-        <v>60.6817</v>
+        <v>61.0482</v>
       </c>
       <c r="D10" t="n">
-        <v>79.8625</v>
+        <v>80.4629</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.7489</v>
+        <v>32.2735</v>
       </c>
       <c r="C11" t="n">
-        <v>61.8874</v>
+        <v>61.6951</v>
       </c>
       <c r="D11" t="n">
-        <v>80.93729999999999</v>
+        <v>80.5772</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.5017</v>
+        <v>32.1997</v>
       </c>
       <c r="C12" t="n">
-        <v>61.735</v>
+        <v>61.855</v>
       </c>
       <c r="D12" t="n">
-        <v>81.0386</v>
+        <v>79.93770000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.6218</v>
+        <v>32.5061</v>
       </c>
       <c r="C13" t="n">
-        <v>61.3437</v>
+        <v>61.5308</v>
       </c>
       <c r="D13" t="n">
-        <v>81.2714</v>
+        <v>80.2505</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.6246</v>
+        <v>33.1693</v>
       </c>
       <c r="C14" t="n">
-        <v>61.1706</v>
+        <v>61.3039</v>
       </c>
       <c r="D14" t="n">
-        <v>81.02630000000001</v>
+        <v>80.3553</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.1388</v>
+        <v>33.1022</v>
       </c>
       <c r="C15" t="n">
-        <v>61.1376</v>
+        <v>61.358</v>
       </c>
       <c r="D15" t="n">
-        <v>81.7841</v>
+        <v>80.1707</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.6755</v>
+        <v>32.9215</v>
       </c>
       <c r="C16" t="n">
-        <v>62.0539</v>
+        <v>61.1944</v>
       </c>
       <c r="D16" t="n">
-        <v>79.9794</v>
+        <v>80.25</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.8955</v>
+        <v>33.1126</v>
       </c>
       <c r="C17" t="n">
-        <v>61.3004</v>
+        <v>62.0067</v>
       </c>
       <c r="D17" t="n">
-        <v>80.267</v>
+        <v>80.61839999999999</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.261</v>
+        <v>10.2711</v>
       </c>
       <c r="C2" t="n">
-        <v>17.5694</v>
+        <v>12.8083</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1309</v>
+        <v>20.5152</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4699</v>
+        <v>19.3455</v>
       </c>
       <c r="C3" t="n">
-        <v>26.8209</v>
+        <v>19.2718</v>
       </c>
       <c r="D3" t="n">
-        <v>30.9592</v>
+        <v>32.3152</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.8707</v>
+        <v>26.7266</v>
       </c>
       <c r="C4" t="n">
-        <v>32.3722</v>
+        <v>24.2265</v>
       </c>
       <c r="D4" t="n">
-        <v>39.0859</v>
+        <v>38.5635</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.8599</v>
+        <v>20.9071</v>
       </c>
       <c r="C5" t="n">
-        <v>35.6039</v>
+        <v>26.5423</v>
       </c>
       <c r="D5" t="n">
-        <v>43.3682</v>
+        <v>41.379</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.7728</v>
+        <v>24.5012</v>
       </c>
       <c r="C6" t="n">
-        <v>38.6539</v>
+        <v>31.3507</v>
       </c>
       <c r="D6" t="n">
-        <v>43.5456</v>
+        <v>43.8691</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.2489</v>
+        <v>29.0687</v>
       </c>
       <c r="C7" t="n">
-        <v>40.7914</v>
+        <v>36.4824</v>
       </c>
       <c r="D7" t="n">
-        <v>50.2865</v>
+        <v>45.1668</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.0544</v>
+        <v>21.0553</v>
       </c>
       <c r="C8" t="n">
-        <v>39.9824</v>
+        <v>34.1809</v>
       </c>
       <c r="D8" t="n">
-        <v>48.7911</v>
+        <v>47.349</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9986</v>
+        <v>23.9072</v>
       </c>
       <c r="C9" t="n">
-        <v>41.2798</v>
+        <v>34.3058</v>
       </c>
       <c r="D9" t="n">
-        <v>50.8793</v>
+        <v>50.5457</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.6213</v>
+        <v>26.1731</v>
       </c>
       <c r="C10" t="n">
-        <v>47.5749</v>
+        <v>34.5459</v>
       </c>
       <c r="D10" t="n">
-        <v>51.4157</v>
+        <v>53.6258</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.7088</v>
+        <v>24.4921</v>
       </c>
       <c r="C11" t="n">
-        <v>48.7547</v>
+        <v>34.5717</v>
       </c>
       <c r="D11" t="n">
-        <v>56.0372</v>
+        <v>59.2026</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.7863</v>
+        <v>26.5016</v>
       </c>
       <c r="C12" t="n">
-        <v>50.5508</v>
+        <v>34.7009</v>
       </c>
       <c r="D12" t="n">
-        <v>58.0625</v>
+        <v>58.6405</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.1999</v>
+        <v>29.0265</v>
       </c>
       <c r="C13" t="n">
-        <v>51.3942</v>
+        <v>35.118</v>
       </c>
       <c r="D13" t="n">
-        <v>58.9064</v>
+        <v>56.8515</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.8913</v>
+        <v>23.9415</v>
       </c>
       <c r="C14" t="n">
-        <v>49.776</v>
+        <v>34.7226</v>
       </c>
       <c r="D14" t="n">
-        <v>60.3977</v>
+        <v>59.5203</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6842</v>
+        <v>25.5249</v>
       </c>
       <c r="C15" t="n">
-        <v>51.471</v>
+        <v>34.3691</v>
       </c>
       <c r="D15" t="n">
-        <v>60.1733</v>
+        <v>59.1194</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.8935</v>
+        <v>26.6359</v>
       </c>
       <c r="C16" t="n">
-        <v>51.3076</v>
+        <v>34.4982</v>
       </c>
       <c r="D16" t="n">
-        <v>60.3176</v>
+        <v>60.7012</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.8032</v>
+        <v>25.7136</v>
       </c>
       <c r="C17" t="n">
-        <v>51.4245</v>
+        <v>35.0004</v>
       </c>
       <c r="D17" t="n">
-        <v>61.9117</v>
+        <v>60.6902</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7248</v>
+        <v>10.661</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4211</v>
+        <v>12.8204</v>
       </c>
       <c r="D2" t="n">
-        <v>20.9718</v>
+        <v>20.348</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.1257</v>
+        <v>19.9721</v>
       </c>
       <c r="C3" t="n">
-        <v>27.5511</v>
+        <v>19.4497</v>
       </c>
       <c r="D3" t="n">
-        <v>30.3607</v>
+        <v>31.5167</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.7203</v>
+        <v>27.3309</v>
       </c>
       <c r="C4" t="n">
-        <v>32.9054</v>
+        <v>25.774</v>
       </c>
       <c r="D4" t="n">
-        <v>37.5448</v>
+        <v>37.103</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.7811</v>
+        <v>21.1728</v>
       </c>
       <c r="C5" t="n">
-        <v>34.3321</v>
+        <v>26.6094</v>
       </c>
       <c r="D5" t="n">
-        <v>40.2968</v>
+        <v>39.1034</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.2031</v>
+        <v>24.9234</v>
       </c>
       <c r="C6" t="n">
-        <v>37.0498</v>
+        <v>31.2433</v>
       </c>
       <c r="D6" t="n">
-        <v>44.1754</v>
+        <v>43.9571</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.1829</v>
+        <v>29.9292</v>
       </c>
       <c r="C7" t="n">
-        <v>43.1015</v>
+        <v>36.3921</v>
       </c>
       <c r="D7" t="n">
-        <v>50.7021</v>
+        <v>49.0484</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.7272</v>
+        <v>21.608</v>
       </c>
       <c r="C8" t="n">
-        <v>39.4246</v>
+        <v>33.4521</v>
       </c>
       <c r="D8" t="n">
-        <v>45.5516</v>
+        <v>45.325</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.148</v>
+        <v>25.1358</v>
       </c>
       <c r="C9" t="n">
-        <v>42.3222</v>
+        <v>33.7052</v>
       </c>
       <c r="D9" t="n">
-        <v>51.676</v>
+        <v>51.3433</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.0837</v>
+        <v>27.6291</v>
       </c>
       <c r="C10" t="n">
-        <v>45.3396</v>
+        <v>34.0653</v>
       </c>
       <c r="D10" t="n">
-        <v>51.632</v>
+        <v>51.9853</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9992</v>
+        <v>25.0643</v>
       </c>
       <c r="C11" t="n">
-        <v>47.1278</v>
+        <v>34.2718</v>
       </c>
       <c r="D11" t="n">
-        <v>57.1802</v>
+        <v>56.4307</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.3997</v>
+        <v>27.2965</v>
       </c>
       <c r="C12" t="n">
-        <v>49.7483</v>
+        <v>34.2922</v>
       </c>
       <c r="D12" t="n">
-        <v>60.4655</v>
+        <v>59.4107</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.1396</v>
+        <v>29.8985</v>
       </c>
       <c r="C13" t="n">
-        <v>49.3618</v>
+        <v>35.2007</v>
       </c>
       <c r="D13" t="n">
-        <v>60.6512</v>
+        <v>60.756</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.3885</v>
+        <v>24.1769</v>
       </c>
       <c r="C14" t="n">
-        <v>48.6182</v>
+        <v>35.237</v>
       </c>
       <c r="D14" t="n">
-        <v>61.0339</v>
+        <v>61.5467</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.868</v>
+        <v>26.2253</v>
       </c>
       <c r="C15" t="n">
-        <v>49.4417</v>
+        <v>35.2501</v>
       </c>
       <c r="D15" t="n">
-        <v>62.627</v>
+        <v>60.4429</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.0951</v>
+        <v>27.6508</v>
       </c>
       <c r="C16" t="n">
-        <v>50.837</v>
+        <v>35.5346</v>
       </c>
       <c r="D16" t="n">
-        <v>60.7113</v>
+        <v>60.749</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.4097</v>
+        <v>26.4761</v>
       </c>
       <c r="C17" t="n">
-        <v>50.1792</v>
+        <v>35.2048</v>
       </c>
       <c r="D17" t="n">
-        <v>62.3778</v>
+        <v>61.3501</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0562</v>
+        <v>13.0083</v>
       </c>
       <c r="C2" t="n">
-        <v>19.153</v>
+        <v>13.9459</v>
       </c>
       <c r="D2" t="n">
-        <v>22.2578</v>
+        <v>21.7064</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.1917</v>
+        <v>22.9786</v>
       </c>
       <c r="C3" t="n">
-        <v>30.0449</v>
+        <v>23.4016</v>
       </c>
       <c r="D3" t="n">
-        <v>34.1383</v>
+        <v>31.7249</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.4901</v>
+        <v>32.101</v>
       </c>
       <c r="C4" t="n">
-        <v>34.5842</v>
+        <v>28.9839</v>
       </c>
       <c r="D4" t="n">
-        <v>39.9793</v>
+        <v>38.9314</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.4009</v>
+        <v>26.4702</v>
       </c>
       <c r="C5" t="n">
-        <v>36.3825</v>
+        <v>28.8626</v>
       </c>
       <c r="D5" t="n">
-        <v>50.4625</v>
+        <v>48.2309</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6597</v>
+        <v>31.712</v>
       </c>
       <c r="C6" t="n">
-        <v>41.2112</v>
+        <v>32.5498</v>
       </c>
       <c r="D6" t="n">
-        <v>50.9951</v>
+        <v>50.5176</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.7666</v>
+        <v>37.6113</v>
       </c>
       <c r="C7" t="n">
-        <v>43.8965</v>
+        <v>38.1161</v>
       </c>
       <c r="D7" t="n">
-        <v>50.5108</v>
+        <v>50.4311</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.9335</v>
+        <v>34.9515</v>
       </c>
       <c r="C8" t="n">
-        <v>48.5967</v>
+        <v>34.2038</v>
       </c>
       <c r="D8" t="n">
-        <v>50.6249</v>
+        <v>49.1009</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.7655</v>
+        <v>34.5171</v>
       </c>
       <c r="C9" t="n">
-        <v>48.6582</v>
+        <v>34.0999</v>
       </c>
       <c r="D9" t="n">
-        <v>60.44</v>
+        <v>60.2487</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.4979</v>
+        <v>34.2258</v>
       </c>
       <c r="C10" t="n">
-        <v>48.7709</v>
+        <v>35.2269</v>
       </c>
       <c r="D10" t="n">
-        <v>55.0235</v>
+        <v>59.8412</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.8153</v>
+        <v>34.7933</v>
       </c>
       <c r="C11" t="n">
-        <v>51.3092</v>
+        <v>35.257</v>
       </c>
       <c r="D11" t="n">
-        <v>58.9029</v>
+        <v>60.606</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.1398</v>
+        <v>35.0413</v>
       </c>
       <c r="C12" t="n">
-        <v>50.4226</v>
+        <v>35.7027</v>
       </c>
       <c r="D12" t="n">
-        <v>60.1266</v>
+        <v>60.5947</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.4708</v>
+        <v>35.3304</v>
       </c>
       <c r="C13" t="n">
-        <v>50.7892</v>
+        <v>35.0834</v>
       </c>
       <c r="D13" t="n">
-        <v>56.9693</v>
+        <v>60.3045</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.0685</v>
+        <v>34.7663</v>
       </c>
       <c r="C14" t="n">
-        <v>50.8439</v>
+        <v>36.3501</v>
       </c>
       <c r="D14" t="n">
-        <v>58.8575</v>
+        <v>60.7548</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.9565</v>
+        <v>35.7253</v>
       </c>
       <c r="C15" t="n">
-        <v>51.0096</v>
+        <v>35.939</v>
       </c>
       <c r="D15" t="n">
-        <v>54.8231</v>
+        <v>56.8495</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.342</v>
+        <v>35.8282</v>
       </c>
       <c r="C16" t="n">
-        <v>50.8301</v>
+        <v>35.9393</v>
       </c>
       <c r="D16" t="n">
-        <v>55.926</v>
+        <v>58.3078</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.8927</v>
+        <v>35.644</v>
       </c>
       <c r="C17" t="n">
-        <v>51.2732</v>
+        <v>35.992</v>
       </c>
       <c r="D17" t="n">
-        <v>58.6042</v>
+        <v>59.6086</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.70381</v>
+        <v>4.76071</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7178</v>
+        <v>10.8387</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4744</v>
+        <v>18.9649</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.17033</v>
+        <v>9.31786</v>
       </c>
       <c r="C3" t="n">
-        <v>28.0398</v>
+        <v>18.8869</v>
       </c>
       <c r="D3" t="n">
-        <v>36.6082</v>
+        <v>35.6505</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.1884</v>
+        <v>13.4257</v>
       </c>
       <c r="C4" t="n">
-        <v>39.1808</v>
+        <v>25.8305</v>
       </c>
       <c r="D4" t="n">
-        <v>50.448</v>
+        <v>50.1569</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7112</v>
+        <v>15.9284</v>
       </c>
       <c r="C5" t="n">
-        <v>43.4345</v>
+        <v>26.3741</v>
       </c>
       <c r="D5" t="n">
-        <v>57.9988</v>
+        <v>56.3537</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.056</v>
+        <v>19.2105</v>
       </c>
       <c r="C6" t="n">
-        <v>51.1118</v>
+        <v>30.0506</v>
       </c>
       <c r="D6" t="n">
-        <v>67.9474</v>
+        <v>65.92310000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.2383</v>
+        <v>22.4609</v>
       </c>
       <c r="C7" t="n">
-        <v>61.124</v>
+        <v>35.0248</v>
       </c>
       <c r="D7" t="n">
-        <v>80.23560000000001</v>
+        <v>79.22450000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.5641</v>
+        <v>19.8028</v>
       </c>
       <c r="C8" t="n">
-        <v>55.3129</v>
+        <v>33.6405</v>
       </c>
       <c r="D8" t="n">
-        <v>70.0904</v>
+        <v>65.8403</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.4744</v>
+        <v>20.8224</v>
       </c>
       <c r="C9" t="n">
-        <v>56.2343</v>
+        <v>33.5449</v>
       </c>
       <c r="D9" t="n">
-        <v>69.72280000000001</v>
+        <v>71.6511</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8155</v>
+        <v>20.9956</v>
       </c>
       <c r="C10" t="n">
-        <v>54.122</v>
+        <v>33.5259</v>
       </c>
       <c r="D10" t="n">
-        <v>73.5183</v>
+        <v>68.8831</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2211</v>
+        <v>21.0377</v>
       </c>
       <c r="C11" t="n">
-        <v>55.4538</v>
+        <v>34.0078</v>
       </c>
       <c r="D11" t="n">
-        <v>73.9144</v>
+        <v>72.77030000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9516</v>
+        <v>21.4126</v>
       </c>
       <c r="C12" t="n">
-        <v>56.4634</v>
+        <v>33.9513</v>
       </c>
       <c r="D12" t="n">
-        <v>73.2831</v>
+        <v>71.96769999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.7913</v>
+        <v>21.4873</v>
       </c>
       <c r="C13" t="n">
-        <v>56.2703</v>
+        <v>34.2747</v>
       </c>
       <c r="D13" t="n">
-        <v>74.3438</v>
+        <v>73.04859999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6425</v>
+        <v>21.004</v>
       </c>
       <c r="C14" t="n">
-        <v>59.3707</v>
+        <v>34.0186</v>
       </c>
       <c r="D14" t="n">
-        <v>75.62820000000001</v>
+        <v>73.9962</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.0089</v>
+        <v>21.4921</v>
       </c>
       <c r="C15" t="n">
-        <v>58.1671</v>
+        <v>34.2024</v>
       </c>
       <c r="D15" t="n">
-        <v>74.9243</v>
+        <v>75.9251</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.955</v>
+        <v>21.1301</v>
       </c>
       <c r="C16" t="n">
-        <v>59.4335</v>
+        <v>34.3513</v>
       </c>
       <c r="D16" t="n">
-        <v>78.44</v>
+        <v>74.4586</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.3435</v>
+        <v>21.3192</v>
       </c>
       <c r="C17" t="n">
-        <v>58.601</v>
+        <v>34.5028</v>
       </c>
       <c r="D17" t="n">
-        <v>76.35599999999999</v>
+        <v>77.0757</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.7141</v>
+        <v>4.77801</v>
       </c>
       <c r="C2" t="n">
-        <v>14.5716</v>
+        <v>10.9284</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5385</v>
+        <v>18.9706</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.20579</v>
+        <v>9.35154</v>
       </c>
       <c r="C3" t="n">
-        <v>27.5453</v>
+        <v>18.8689</v>
       </c>
       <c r="D3" t="n">
-        <v>36.4777</v>
+        <v>35.4986</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2521</v>
+        <v>13.51</v>
       </c>
       <c r="C4" t="n">
-        <v>39.2903</v>
+        <v>26.2395</v>
       </c>
       <c r="D4" t="n">
-        <v>50.6277</v>
+        <v>50.0393</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9504</v>
+        <v>16.0542</v>
       </c>
       <c r="C5" t="n">
-        <v>42.525</v>
+        <v>26.3132</v>
       </c>
       <c r="D5" t="n">
-        <v>58.0264</v>
+        <v>56.0544</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.285</v>
+        <v>19.4391</v>
       </c>
       <c r="C6" t="n">
-        <v>49.7155</v>
+        <v>30.0124</v>
       </c>
       <c r="D6" t="n">
-        <v>67.43810000000001</v>
+        <v>66.8305</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.5982</v>
+        <v>22.844</v>
       </c>
       <c r="C7" t="n">
-        <v>59.0523</v>
+        <v>35.0091</v>
       </c>
       <c r="D7" t="n">
-        <v>78.7736</v>
+        <v>78.2064</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1628</v>
+        <v>20.3636</v>
       </c>
       <c r="C8" t="n">
-        <v>49.8107</v>
+        <v>34.0131</v>
       </c>
       <c r="D8" t="n">
-        <v>69.0198</v>
+        <v>67.63509999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8551</v>
+        <v>20.9885</v>
       </c>
       <c r="C9" t="n">
-        <v>52.3479</v>
+        <v>33.4795</v>
       </c>
       <c r="D9" t="n">
-        <v>72.96899999999999</v>
+        <v>71.59610000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8502</v>
+        <v>21.587</v>
       </c>
       <c r="C10" t="n">
-        <v>52.0013</v>
+        <v>33.3703</v>
       </c>
       <c r="D10" t="n">
-        <v>70.8441</v>
+        <v>70.1782</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4841</v>
+        <v>21.4733</v>
       </c>
       <c r="C11" t="n">
-        <v>52.7985</v>
+        <v>33.7608</v>
       </c>
       <c r="D11" t="n">
-        <v>70.6347</v>
+        <v>73.64619999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.2998</v>
+        <v>21.4421</v>
       </c>
       <c r="C12" t="n">
-        <v>55.2965</v>
+        <v>33.4206</v>
       </c>
       <c r="D12" t="n">
-        <v>75.2814</v>
+        <v>72.92059999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2629</v>
+        <v>21.2024</v>
       </c>
       <c r="C13" t="n">
-        <v>54.8356</v>
+        <v>34.2812</v>
       </c>
       <c r="D13" t="n">
-        <v>73.3451</v>
+        <v>72.59229999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3295</v>
+        <v>21.0995</v>
       </c>
       <c r="C14" t="n">
-        <v>54.7976</v>
+        <v>34.3746</v>
       </c>
       <c r="D14" t="n">
-        <v>74.2285</v>
+        <v>74.12869999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5537</v>
+        <v>21.5001</v>
       </c>
       <c r="C15" t="n">
-        <v>55.7296</v>
+        <v>34.2372</v>
       </c>
       <c r="D15" t="n">
-        <v>74.2846</v>
+        <v>72.1369</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2842</v>
+        <v>21.2131</v>
       </c>
       <c r="C16" t="n">
-        <v>56.2963</v>
+        <v>34.2645</v>
       </c>
       <c r="D16" t="n">
-        <v>75.19929999999999</v>
+        <v>74.39879999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.86</v>
+        <v>21.902</v>
       </c>
       <c r="C17" t="n">
-        <v>56.7237</v>
+        <v>34.5736</v>
       </c>
       <c r="D17" t="n">
-        <v>76.2046</v>
+        <v>74.9462</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +5374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="F27" sqref="F27"/>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.805619999999999</v>
+        <v>8.870469999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>18.4876</v>
+        <v>13.4133</v>
       </c>
       <c r="D2" t="n">
-        <v>22.1351</v>
+        <v>21.6555</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8285</v>
+        <v>16.9216</v>
       </c>
       <c r="C3" t="n">
-        <v>34.0637</v>
+        <v>22.587</v>
       </c>
       <c r="D3" t="n">
-        <v>40.3947</v>
+        <v>39.6454</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.9414</v>
+        <v>24.4975</v>
       </c>
       <c r="C4" t="n">
-        <v>47.7368</v>
+        <v>29.9124</v>
       </c>
       <c r="D4" t="n">
-        <v>56.3309</v>
+        <v>55.9103</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4861</v>
+        <v>24.4495</v>
       </c>
       <c r="C5" t="n">
-        <v>47.592</v>
+        <v>29.6541</v>
       </c>
       <c r="D5" t="n">
-        <v>59.9283</v>
+        <v>59.9127</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.529</v>
+        <v>28.2256</v>
       </c>
       <c r="C6" t="n">
-        <v>53.9846</v>
+        <v>32.5731</v>
       </c>
       <c r="D6" t="n">
-        <v>70.6721</v>
+        <v>69.286</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3322</v>
+        <v>34.3733</v>
       </c>
       <c r="C7" t="n">
-        <v>61.9897</v>
+        <v>37.4078</v>
       </c>
       <c r="D7" t="n">
-        <v>79.57080000000001</v>
+        <v>79.2778</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.0293</v>
+        <v>31.0774</v>
       </c>
       <c r="C8" t="n">
-        <v>60.45</v>
+        <v>36.4674</v>
       </c>
       <c r="D8" t="n">
-        <v>77.82340000000001</v>
+        <v>76.79940000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.2385</v>
+        <v>31.8634</v>
       </c>
       <c r="C9" t="n">
-        <v>60.5721</v>
+        <v>36.3286</v>
       </c>
       <c r="D9" t="n">
-        <v>79.59869999999999</v>
+        <v>79.1083</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.5182</v>
+        <v>32.2003</v>
       </c>
       <c r="C10" t="n">
-        <v>61.0482</v>
+        <v>36.9115</v>
       </c>
       <c r="D10" t="n">
-        <v>80.4629</v>
+        <v>79.62</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.2735</v>
+        <v>32.9201</v>
       </c>
       <c r="C11" t="n">
-        <v>61.6951</v>
+        <v>36.5166</v>
       </c>
       <c r="D11" t="n">
-        <v>80.5772</v>
+        <v>80.6015</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.1997</v>
+        <v>32.4338</v>
       </c>
       <c r="C12" t="n">
-        <v>61.855</v>
+        <v>36.7351</v>
       </c>
       <c r="D12" t="n">
-        <v>79.93770000000001</v>
+        <v>80.3639</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.5061</v>
+        <v>33.0005</v>
       </c>
       <c r="C13" t="n">
-        <v>61.5308</v>
+        <v>36.9404</v>
       </c>
       <c r="D13" t="n">
-        <v>80.2505</v>
+        <v>81.01609999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.1693</v>
+        <v>32.6301</v>
       </c>
       <c r="C14" t="n">
-        <v>61.3039</v>
+        <v>36.8024</v>
       </c>
       <c r="D14" t="n">
-        <v>80.3553</v>
+        <v>80.2826</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.1022</v>
+        <v>33.0886</v>
       </c>
       <c r="C15" t="n">
-        <v>61.358</v>
+        <v>36.9063</v>
       </c>
       <c r="D15" t="n">
-        <v>80.1707</v>
+        <v>79.1139</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.9215</v>
+        <v>32.7895</v>
       </c>
       <c r="C16" t="n">
-        <v>61.1944</v>
+        <v>36.8232</v>
       </c>
       <c r="D16" t="n">
-        <v>80.25</v>
+        <v>79.2668</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.1126</v>
+        <v>32.6306</v>
       </c>
       <c r="C17" t="n">
-        <v>62.0067</v>
+        <v>36.8827</v>
       </c>
       <c r="D17" t="n">
-        <v>80.61839999999999</v>
+        <v>80.2306</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.8155</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.9806</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.2169</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.1888</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>30.3287</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.0105</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.9483</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.5799</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.6174</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.6067</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.923</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.1742</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>37.5687</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.547</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.5465</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7523</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -278,7 +278,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.0237</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.5483</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7479</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.4058</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.3727</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.4698</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.0389</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.9232</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.4942</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0776</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.1283</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2963</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.9511</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.9614</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.9461</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>36.1476</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -424,7 +424,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.3402</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>30.0421</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.4251</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>45.4028</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.8164</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.9466</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.5062</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.9299</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.7653</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>40.7763</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.2757</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.4834</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3856</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.812</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.5151</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.17</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.3115</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>21.3377</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.9759</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>36.9453</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.0078</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.567</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.0236</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7934</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1537</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>41.2269</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.044</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.2941</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4397</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.4343</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.9971</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2668</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -856,7 +974,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8756</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.3022</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7141</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>32.7353</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.4842</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.8729</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.3784</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.8949</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.2611</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.1615</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.6816</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.4094</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.4607</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.6837</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>35.4533</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1002,7 +1120,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.2281</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>29.3131</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0279</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>43.3401</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.9461</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.324</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3256</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.357</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>42.9263</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>44.4764</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.4995</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>38.8887</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.0915</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>53.1451</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.3253</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.6415</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.38</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.6113</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.9767</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>34.9982</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>31.855</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.9548</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.3225</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.5931</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.1243</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.0461</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.6745</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.6163</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.7882</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.093</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.0737</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.2469</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1434,7 +1670,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.6187</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.3232</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0667</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.0206</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.439</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>33.6879</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.8504</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>32.7418</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.4355</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.636</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.676</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.8253</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4019</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.7958</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7958</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>31.9247</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1580,7 +1816,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>19.4058</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>28.4519</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.4547</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>51.6131</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.8486</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.9607</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.7581</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>35.3177</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.5044</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.2708</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.9998</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.7806</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.4542</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>40.6207</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.0763</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>47.8814</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.80876</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.074</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7496</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.5411</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.8405</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.3267</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.6785</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.1948</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.5386</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.7248</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7471</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.862</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.8593</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.8689</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.765</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7869</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2012,7 +2366,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6049</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.5666</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.408</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.1723</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>35.6446</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.8439</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6128</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.0986</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.8964</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.4847</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.5297</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.2206</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>43.8155</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>43.8653</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>43.6721</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.1658</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2158,7 +2512,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.5764</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.8358</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>45.2819</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>59.1192</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>54.0172</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>54.4127</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>50.4742</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>51.9251</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.902</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>56.1517</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.5848</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>58.5013</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.9038</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>60.0247</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7863</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.8409</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.7868</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.0767</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.7009</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>27.0746</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.6125</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.971</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.3573</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8574</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.0887</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.2369</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2309</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1931</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.1652</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.2482</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.2526</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2590,7 +3062,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6582</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.6945</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.5816</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.5794</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.116</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.2347</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.8983</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.4908</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.6198</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>43.3567</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.8296</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.0611</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>44.0334</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.3743</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.3181</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.2489</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2736,7 +3208,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.2903</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.3309</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>44.6355</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>58.5385</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>53.488</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>53.6234</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>49.8641</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>52.2535</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>52.3654</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.1198</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.0094</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.4396</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.1217</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>59.5574</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7426</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.2745</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.4883</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.1754</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.4118</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>38.4961</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.4254</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>41.5705</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>43.5271</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>45.6261</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>45.7379</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.3791</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.8115</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.6403</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.7812</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.4357</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>45.5424</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>45.8045</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3168,7 +3758,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.5867</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>27.3727</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>37.9749</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>48.9446</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>41.8231</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.5591</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>40.3313</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.9787</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>43.3113</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.4197</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.7413</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.7938</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.9366</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0147</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.0135</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.1628</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3314,7 +3904,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>20.0769</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>37.848</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>53.4698</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>70.1417</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.037</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>59.6639</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>51.8797</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>54.1691</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.4956</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>54.8678</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>54.8131</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.006</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.6955</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.2771</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>58.3954</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.4764</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4073,10 +4781,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4093,6 +4806,9 @@
         <v>12.8083</v>
       </c>
       <c r="D2" t="n">
+        <v>17.4358</v>
+      </c>
+      <c r="E2" t="n">
         <v>20.5152</v>
       </c>
     </row>
@@ -4107,6 +4823,9 @@
         <v>19.2718</v>
       </c>
       <c r="D3" t="n">
+        <v>27.3501</v>
+      </c>
+      <c r="E3" t="n">
         <v>32.3152</v>
       </c>
     </row>
@@ -4121,6 +4840,9 @@
         <v>24.2265</v>
       </c>
       <c r="D4" t="n">
+        <v>33.5064</v>
+      </c>
+      <c r="E4" t="n">
         <v>38.5635</v>
       </c>
     </row>
@@ -4135,6 +4857,9 @@
         <v>26.5423</v>
       </c>
       <c r="D5" t="n">
+        <v>34.8923</v>
+      </c>
+      <c r="E5" t="n">
         <v>41.379</v>
       </c>
     </row>
@@ -4149,6 +4874,9 @@
         <v>31.3507</v>
       </c>
       <c r="D6" t="n">
+        <v>38.6797</v>
+      </c>
+      <c r="E6" t="n">
         <v>43.8691</v>
       </c>
     </row>
@@ -4163,6 +4891,9 @@
         <v>36.4824</v>
       </c>
       <c r="D7" t="n">
+        <v>38.7791</v>
+      </c>
+      <c r="E7" t="n">
         <v>45.1668</v>
       </c>
     </row>
@@ -4177,6 +4908,9 @@
         <v>34.1809</v>
       </c>
       <c r="D8" t="n">
+        <v>39.3387</v>
+      </c>
+      <c r="E8" t="n">
         <v>47.349</v>
       </c>
     </row>
@@ -4191,6 +4925,9 @@
         <v>34.3058</v>
       </c>
       <c r="D9" t="n">
+        <v>44.2821</v>
+      </c>
+      <c r="E9" t="n">
         <v>50.5457</v>
       </c>
     </row>
@@ -4205,6 +4942,9 @@
         <v>34.5459</v>
       </c>
       <c r="D10" t="n">
+        <v>44.3191</v>
+      </c>
+      <c r="E10" t="n">
         <v>53.6258</v>
       </c>
     </row>
@@ -4219,6 +4959,9 @@
         <v>34.5717</v>
       </c>
       <c r="D11" t="n">
+        <v>48.9748</v>
+      </c>
+      <c r="E11" t="n">
         <v>59.2026</v>
       </c>
     </row>
@@ -4233,6 +4976,9 @@
         <v>34.7009</v>
       </c>
       <c r="D12" t="n">
+        <v>50.9267</v>
+      </c>
+      <c r="E12" t="n">
         <v>58.6405</v>
       </c>
     </row>
@@ -4247,6 +4993,9 @@
         <v>35.118</v>
       </c>
       <c r="D13" t="n">
+        <v>50.9898</v>
+      </c>
+      <c r="E13" t="n">
         <v>56.8515</v>
       </c>
     </row>
@@ -4261,6 +5010,9 @@
         <v>34.7226</v>
       </c>
       <c r="D14" t="n">
+        <v>51.1311</v>
+      </c>
+      <c r="E14" t="n">
         <v>59.5203</v>
       </c>
     </row>
@@ -4275,6 +5027,9 @@
         <v>34.3691</v>
       </c>
       <c r="D15" t="n">
+        <v>50.975</v>
+      </c>
+      <c r="E15" t="n">
         <v>59.1194</v>
       </c>
     </row>
@@ -4289,6 +5044,9 @@
         <v>34.4982</v>
       </c>
       <c r="D16" t="n">
+        <v>50.7326</v>
+      </c>
+      <c r="E16" t="n">
         <v>60.7012</v>
       </c>
     </row>
@@ -4303,6 +5061,9 @@
         <v>35.0004</v>
       </c>
       <c r="D17" t="n">
+        <v>50.7491</v>
+      </c>
+      <c r="E17" t="n">
         <v>60.6902</v>
       </c>
     </row>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4337,10 +5098,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4357,6 +5123,9 @@
         <v>12.8204</v>
       </c>
       <c r="D2" t="n">
+        <v>17.2873</v>
+      </c>
+      <c r="E2" t="n">
         <v>20.348</v>
       </c>
     </row>
@@ -4371,6 +5140,9 @@
         <v>19.4497</v>
       </c>
       <c r="D3" t="n">
+        <v>27.0321</v>
+      </c>
+      <c r="E3" t="n">
         <v>31.5167</v>
       </c>
     </row>
@@ -4385,6 +5157,9 @@
         <v>25.774</v>
       </c>
       <c r="D4" t="n">
+        <v>33.9514</v>
+      </c>
+      <c r="E4" t="n">
         <v>37.103</v>
       </c>
     </row>
@@ -4399,6 +5174,9 @@
         <v>26.6094</v>
       </c>
       <c r="D5" t="n">
+        <v>35.3386</v>
+      </c>
+      <c r="E5" t="n">
         <v>39.1034</v>
       </c>
     </row>
@@ -4413,6 +5191,9 @@
         <v>31.2433</v>
       </c>
       <c r="D6" t="n">
+        <v>38.1885</v>
+      </c>
+      <c r="E6" t="n">
         <v>43.9571</v>
       </c>
     </row>
@@ -4427,6 +5208,9 @@
         <v>36.3921</v>
       </c>
       <c r="D7" t="n">
+        <v>43.703</v>
+      </c>
+      <c r="E7" t="n">
         <v>49.0484</v>
       </c>
     </row>
@@ -4441,6 +5225,9 @@
         <v>33.4521</v>
       </c>
       <c r="D8" t="n">
+        <v>40.5064</v>
+      </c>
+      <c r="E8" t="n">
         <v>45.325</v>
       </c>
     </row>
@@ -4455,6 +5242,9 @@
         <v>33.7052</v>
       </c>
       <c r="D9" t="n">
+        <v>43.137</v>
+      </c>
+      <c r="E9" t="n">
         <v>51.3433</v>
       </c>
     </row>
@@ -4469,6 +5259,9 @@
         <v>34.0653</v>
       </c>
       <c r="D10" t="n">
+        <v>43.9042</v>
+      </c>
+      <c r="E10" t="n">
         <v>51.9853</v>
       </c>
     </row>
@@ -4483,6 +5276,9 @@
         <v>34.2718</v>
       </c>
       <c r="D11" t="n">
+        <v>46.647</v>
+      </c>
+      <c r="E11" t="n">
         <v>56.4307</v>
       </c>
     </row>
@@ -4497,6 +5293,9 @@
         <v>34.2922</v>
       </c>
       <c r="D12" t="n">
+        <v>47.4647</v>
+      </c>
+      <c r="E12" t="n">
         <v>59.4107</v>
       </c>
     </row>
@@ -4511,6 +5310,9 @@
         <v>35.2007</v>
       </c>
       <c r="D13" t="n">
+        <v>50.537</v>
+      </c>
+      <c r="E13" t="n">
         <v>60.756</v>
       </c>
     </row>
@@ -4525,6 +5327,9 @@
         <v>35.237</v>
       </c>
       <c r="D14" t="n">
+        <v>50.5324</v>
+      </c>
+      <c r="E14" t="n">
         <v>61.5467</v>
       </c>
     </row>
@@ -4539,6 +5344,9 @@
         <v>35.2501</v>
       </c>
       <c r="D15" t="n">
+        <v>49.1045</v>
+      </c>
+      <c r="E15" t="n">
         <v>60.4429</v>
       </c>
     </row>
@@ -4553,6 +5361,9 @@
         <v>35.5346</v>
       </c>
       <c r="D16" t="n">
+        <v>51.0998</v>
+      </c>
+      <c r="E16" t="n">
         <v>60.749</v>
       </c>
     </row>
@@ -4567,6 +5378,9 @@
         <v>35.2048</v>
       </c>
       <c r="D17" t="n">
+        <v>51.1652</v>
+      </c>
+      <c r="E17" t="n">
         <v>61.3501</v>
       </c>
     </row>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4601,10 +5415,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4621,6 +5440,9 @@
         <v>13.9459</v>
       </c>
       <c r="D2" t="n">
+        <v>18.9873</v>
+      </c>
+      <c r="E2" t="n">
         <v>21.7064</v>
       </c>
     </row>
@@ -4635,6 +5457,9 @@
         <v>23.4016</v>
       </c>
       <c r="D3" t="n">
+        <v>31.0015</v>
+      </c>
+      <c r="E3" t="n">
         <v>31.7249</v>
       </c>
     </row>
@@ -4649,6 +5474,9 @@
         <v>28.9839</v>
       </c>
       <c r="D4" t="n">
+        <v>35.3673</v>
+      </c>
+      <c r="E4" t="n">
         <v>38.9314</v>
       </c>
     </row>
@@ -4663,6 +5491,9 @@
         <v>28.8626</v>
       </c>
       <c r="D5" t="n">
+        <v>37.1374</v>
+      </c>
+      <c r="E5" t="n">
         <v>48.2309</v>
       </c>
     </row>
@@ -4677,6 +5508,9 @@
         <v>32.5498</v>
       </c>
       <c r="D6" t="n">
+        <v>40.0507</v>
+      </c>
+      <c r="E6" t="n">
         <v>50.5176</v>
       </c>
     </row>
@@ -4691,6 +5525,9 @@
         <v>38.1161</v>
       </c>
       <c r="D7" t="n">
+        <v>43.7335</v>
+      </c>
+      <c r="E7" t="n">
         <v>50.4311</v>
       </c>
     </row>
@@ -4705,6 +5542,9 @@
         <v>34.2038</v>
       </c>
       <c r="D8" t="n">
+        <v>47.2993</v>
+      </c>
+      <c r="E8" t="n">
         <v>49.1009</v>
       </c>
     </row>
@@ -4719,6 +5559,9 @@
         <v>34.0999</v>
       </c>
       <c r="D9" t="n">
+        <v>49.3686</v>
+      </c>
+      <c r="E9" t="n">
         <v>60.2487</v>
       </c>
     </row>
@@ -4733,6 +5576,9 @@
         <v>35.2269</v>
       </c>
       <c r="D10" t="n">
+        <v>50.0165</v>
+      </c>
+      <c r="E10" t="n">
         <v>59.8412</v>
       </c>
     </row>
@@ -4747,6 +5593,9 @@
         <v>35.257</v>
       </c>
       <c r="D11" t="n">
+        <v>50.8355</v>
+      </c>
+      <c r="E11" t="n">
         <v>60.606</v>
       </c>
     </row>
@@ -4761,6 +5610,9 @@
         <v>35.7027</v>
       </c>
       <c r="D12" t="n">
+        <v>50.9048</v>
+      </c>
+      <c r="E12" t="n">
         <v>60.5947</v>
       </c>
     </row>
@@ -4775,6 +5627,9 @@
         <v>35.0834</v>
       </c>
       <c r="D13" t="n">
+        <v>50.8061</v>
+      </c>
+      <c r="E13" t="n">
         <v>60.3045</v>
       </c>
     </row>
@@ -4789,6 +5644,9 @@
         <v>36.3501</v>
       </c>
       <c r="D14" t="n">
+        <v>51.0733</v>
+      </c>
+      <c r="E14" t="n">
         <v>60.7548</v>
       </c>
     </row>
@@ -4803,6 +5661,9 @@
         <v>35.939</v>
       </c>
       <c r="D15" t="n">
+        <v>51.5156</v>
+      </c>
+      <c r="E15" t="n">
         <v>56.8495</v>
       </c>
     </row>
@@ -4817,6 +5678,9 @@
         <v>35.9393</v>
       </c>
       <c r="D16" t="n">
+        <v>50.3564</v>
+      </c>
+      <c r="E16" t="n">
         <v>58.3078</v>
       </c>
     </row>
@@ -4831,6 +5695,9 @@
         <v>35.992</v>
       </c>
       <c r="D17" t="n">
+        <v>50.8308</v>
+      </c>
+      <c r="E17" t="n">
         <v>59.6086</v>
       </c>
     </row>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4865,10 +5732,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4885,6 +5757,9 @@
         <v>10.8387</v>
       </c>
       <c r="D2" t="n">
+        <v>14.6286</v>
+      </c>
+      <c r="E2" t="n">
         <v>18.9649</v>
       </c>
     </row>
@@ -4899,6 +5774,9 @@
         <v>18.8869</v>
       </c>
       <c r="D3" t="n">
+        <v>27.8316</v>
+      </c>
+      <c r="E3" t="n">
         <v>35.6505</v>
       </c>
     </row>
@@ -4913,6 +5791,9 @@
         <v>25.8305</v>
       </c>
       <c r="D4" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="E4" t="n">
         <v>50.1569</v>
       </c>
     </row>
@@ -4927,6 +5808,9 @@
         <v>26.3741</v>
       </c>
       <c r="D5" t="n">
+        <v>43.0469</v>
+      </c>
+      <c r="E5" t="n">
         <v>56.3537</v>
       </c>
     </row>
@@ -4941,6 +5825,9 @@
         <v>30.0506</v>
       </c>
       <c r="D6" t="n">
+        <v>51.4518</v>
+      </c>
+      <c r="E6" t="n">
         <v>65.92310000000001</v>
       </c>
     </row>
@@ -4955,6 +5842,9 @@
         <v>35.0248</v>
       </c>
       <c r="D7" t="n">
+        <v>61.0965</v>
+      </c>
+      <c r="E7" t="n">
         <v>79.22450000000001</v>
       </c>
     </row>
@@ -4969,6 +5859,9 @@
         <v>33.6405</v>
       </c>
       <c r="D8" t="n">
+        <v>55.3013</v>
+      </c>
+      <c r="E8" t="n">
         <v>65.8403</v>
       </c>
     </row>
@@ -4983,6 +5876,9 @@
         <v>33.5449</v>
       </c>
       <c r="D9" t="n">
+        <v>56.5532</v>
+      </c>
+      <c r="E9" t="n">
         <v>71.6511</v>
       </c>
     </row>
@@ -4997,6 +5893,9 @@
         <v>33.5259</v>
       </c>
       <c r="D10" t="n">
+        <v>54.9581</v>
+      </c>
+      <c r="E10" t="n">
         <v>68.8831</v>
       </c>
     </row>
@@ -5011,6 +5910,9 @@
         <v>34.0078</v>
       </c>
       <c r="D11" t="n">
+        <v>56.4733</v>
+      </c>
+      <c r="E11" t="n">
         <v>72.77030000000001</v>
       </c>
     </row>
@@ -5025,6 +5927,9 @@
         <v>33.9513</v>
       </c>
       <c r="D12" t="n">
+        <v>55.8851</v>
+      </c>
+      <c r="E12" t="n">
         <v>71.96769999999999</v>
       </c>
     </row>
@@ -5039,6 +5944,9 @@
         <v>34.2747</v>
       </c>
       <c r="D13" t="n">
+        <v>57.5386</v>
+      </c>
+      <c r="E13" t="n">
         <v>73.04859999999999</v>
       </c>
     </row>
@@ -5053,6 +5961,9 @@
         <v>34.0186</v>
       </c>
       <c r="D14" t="n">
+        <v>57.7387</v>
+      </c>
+      <c r="E14" t="n">
         <v>73.9962</v>
       </c>
     </row>
@@ -5067,6 +5978,9 @@
         <v>34.2024</v>
       </c>
       <c r="D15" t="n">
+        <v>59.3141</v>
+      </c>
+      <c r="E15" t="n">
         <v>75.9251</v>
       </c>
     </row>
@@ -5081,6 +5995,9 @@
         <v>34.3513</v>
       </c>
       <c r="D16" t="n">
+        <v>57.914</v>
+      </c>
+      <c r="E16" t="n">
         <v>74.4586</v>
       </c>
     </row>
@@ -5095,6 +6012,9 @@
         <v>34.5028</v>
       </c>
       <c r="D17" t="n">
+        <v>60.5013</v>
+      </c>
+      <c r="E17" t="n">
         <v>77.0757</v>
       </c>
     </row>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5129,10 +6049,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5149,6 +6074,9 @@
         <v>10.9284</v>
       </c>
       <c r="D2" t="n">
+        <v>14.5059</v>
+      </c>
+      <c r="E2" t="n">
         <v>18.9706</v>
       </c>
     </row>
@@ -5163,6 +6091,9 @@
         <v>18.8689</v>
       </c>
       <c r="D3" t="n">
+        <v>27.4306</v>
+      </c>
+      <c r="E3" t="n">
         <v>35.4986</v>
       </c>
     </row>
@@ -5177,6 +6108,9 @@
         <v>26.2395</v>
       </c>
       <c r="D4" t="n">
+        <v>38.856</v>
+      </c>
+      <c r="E4" t="n">
         <v>50.0393</v>
       </c>
     </row>
@@ -5191,6 +6125,9 @@
         <v>26.3132</v>
       </c>
       <c r="D5" t="n">
+        <v>42.0801</v>
+      </c>
+      <c r="E5" t="n">
         <v>56.0544</v>
       </c>
     </row>
@@ -5205,6 +6142,9 @@
         <v>30.0124</v>
       </c>
       <c r="D6" t="n">
+        <v>50.142</v>
+      </c>
+      <c r="E6" t="n">
         <v>66.8305</v>
       </c>
     </row>
@@ -5219,6 +6159,9 @@
         <v>35.0091</v>
       </c>
       <c r="D7" t="n">
+        <v>59.6886</v>
+      </c>
+      <c r="E7" t="n">
         <v>78.2064</v>
       </c>
     </row>
@@ -5233,6 +6176,9 @@
         <v>34.0131</v>
       </c>
       <c r="D8" t="n">
+        <v>52.0688</v>
+      </c>
+      <c r="E8" t="n">
         <v>67.63509999999999</v>
       </c>
     </row>
@@ -5247,6 +6193,9 @@
         <v>33.4795</v>
       </c>
       <c r="D9" t="n">
+        <v>53.2794</v>
+      </c>
+      <c r="E9" t="n">
         <v>71.59610000000001</v>
       </c>
     </row>
@@ -5261,6 +6210,9 @@
         <v>33.3703</v>
       </c>
       <c r="D10" t="n">
+        <v>52.7845</v>
+      </c>
+      <c r="E10" t="n">
         <v>70.1782</v>
       </c>
     </row>
@@ -5275,6 +6227,9 @@
         <v>33.7608</v>
       </c>
       <c r="D11" t="n">
+        <v>54.8578</v>
+      </c>
+      <c r="E11" t="n">
         <v>73.64619999999999</v>
       </c>
     </row>
@@ -5289,6 +6244,9 @@
         <v>33.4206</v>
       </c>
       <c r="D12" t="n">
+        <v>55.4625</v>
+      </c>
+      <c r="E12" t="n">
         <v>72.92059999999999</v>
       </c>
     </row>
@@ -5303,6 +6261,9 @@
         <v>34.2812</v>
       </c>
       <c r="D13" t="n">
+        <v>55.5691</v>
+      </c>
+      <c r="E13" t="n">
         <v>72.59229999999999</v>
       </c>
     </row>
@@ -5317,6 +6278,9 @@
         <v>34.3746</v>
       </c>
       <c r="D14" t="n">
+        <v>56.3953</v>
+      </c>
+      <c r="E14" t="n">
         <v>74.12869999999999</v>
       </c>
     </row>
@@ -5331,6 +6295,9 @@
         <v>34.2372</v>
       </c>
       <c r="D15" t="n">
+        <v>56.4311</v>
+      </c>
+      <c r="E15" t="n">
         <v>72.1369</v>
       </c>
     </row>
@@ -5345,6 +6312,9 @@
         <v>34.2645</v>
       </c>
       <c r="D16" t="n">
+        <v>56.5277</v>
+      </c>
+      <c r="E16" t="n">
         <v>74.39879999999999</v>
       </c>
     </row>
@@ -5359,6 +6329,9 @@
         <v>34.5736</v>
       </c>
       <c r="D17" t="n">
+        <v>57.2934</v>
+      </c>
+      <c r="E17" t="n">
         <v>74.9462</v>
       </c>
     </row>
@@ -5377,7 +6350,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5393,10 +6366,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5413,6 +6391,9 @@
         <v>13.4133</v>
       </c>
       <c r="D2" t="n">
+        <v>18.3068</v>
+      </c>
+      <c r="E2" t="n">
         <v>21.6555</v>
       </c>
     </row>
@@ -5427,6 +6408,9 @@
         <v>22.587</v>
       </c>
       <c r="D3" t="n">
+        <v>33.6805</v>
+      </c>
+      <c r="E3" t="n">
         <v>39.6454</v>
       </c>
     </row>
@@ -5441,6 +6425,9 @@
         <v>29.9124</v>
       </c>
       <c r="D4" t="n">
+        <v>47.8567</v>
+      </c>
+      <c r="E4" t="n">
         <v>55.9103</v>
       </c>
     </row>
@@ -5455,6 +6442,9 @@
         <v>29.6541</v>
       </c>
       <c r="D5" t="n">
+        <v>46.4764</v>
+      </c>
+      <c r="E5" t="n">
         <v>59.9127</v>
       </c>
     </row>
@@ -5469,6 +6459,9 @@
         <v>32.5731</v>
       </c>
       <c r="D6" t="n">
+        <v>54.0891</v>
+      </c>
+      <c r="E6" t="n">
         <v>69.286</v>
       </c>
     </row>
@@ -5483,6 +6476,9 @@
         <v>37.4078</v>
       </c>
       <c r="D7" t="n">
+        <v>62.1626</v>
+      </c>
+      <c r="E7" t="n">
         <v>79.2778</v>
       </c>
     </row>
@@ -5497,6 +6493,9 @@
         <v>36.4674</v>
       </c>
       <c r="D8" t="n">
+        <v>58.6218</v>
+      </c>
+      <c r="E8" t="n">
         <v>76.79940000000001</v>
       </c>
     </row>
@@ -5511,6 +6510,9 @@
         <v>36.3286</v>
       </c>
       <c r="D9" t="n">
+        <v>60.1451</v>
+      </c>
+      <c r="E9" t="n">
         <v>79.1083</v>
       </c>
     </row>
@@ -5525,6 +6527,9 @@
         <v>36.9115</v>
       </c>
       <c r="D10" t="n">
+        <v>59.6824</v>
+      </c>
+      <c r="E10" t="n">
         <v>79.62</v>
       </c>
     </row>
@@ -5539,6 +6544,9 @@
         <v>36.5166</v>
       </c>
       <c r="D11" t="n">
+        <v>60.6083</v>
+      </c>
+      <c r="E11" t="n">
         <v>80.6015</v>
       </c>
     </row>
@@ -5553,6 +6561,9 @@
         <v>36.7351</v>
       </c>
       <c r="D12" t="n">
+        <v>61.3122</v>
+      </c>
+      <c r="E12" t="n">
         <v>80.3639</v>
       </c>
     </row>
@@ -5567,6 +6578,9 @@
         <v>36.9404</v>
       </c>
       <c r="D13" t="n">
+        <v>62.382</v>
+      </c>
+      <c r="E13" t="n">
         <v>81.01609999999999</v>
       </c>
     </row>
@@ -5581,6 +6595,9 @@
         <v>36.8024</v>
       </c>
       <c r="D14" t="n">
+        <v>61.8953</v>
+      </c>
+      <c r="E14" t="n">
         <v>80.2826</v>
       </c>
     </row>
@@ -5595,6 +6612,9 @@
         <v>36.9063</v>
       </c>
       <c r="D15" t="n">
+        <v>61.8366</v>
+      </c>
+      <c r="E15" t="n">
         <v>79.1139</v>
       </c>
     </row>
@@ -5609,6 +6629,9 @@
         <v>36.8232</v>
       </c>
       <c r="D16" t="n">
+        <v>60.9882</v>
+      </c>
+      <c r="E16" t="n">
         <v>79.2668</v>
       </c>
     </row>
@@ -5623,6 +6646,9 @@
         <v>36.8827</v>
       </c>
       <c r="D17" t="n">
+        <v>61.7387</v>
+      </c>
+      <c r="E17" t="n">
         <v>80.2306</v>
       </c>
     </row>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2711</v>
+        <v>10.3049</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8083</v>
+        <v>12.8522</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4358</v>
+        <v>17.599</v>
       </c>
       <c r="E2" t="n">
-        <v>20.5152</v>
+        <v>21.2999</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3455</v>
+        <v>19.3735</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2718</v>
+        <v>19.4461</v>
       </c>
       <c r="D3" t="n">
-        <v>27.3501</v>
+        <v>27.9283</v>
       </c>
       <c r="E3" t="n">
-        <v>32.3152</v>
+        <v>31.9432</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.7266</v>
+        <v>26.619</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2265</v>
+        <v>25.031</v>
       </c>
       <c r="D4" t="n">
-        <v>33.5064</v>
+        <v>32.3898</v>
       </c>
       <c r="E4" t="n">
-        <v>38.5635</v>
+        <v>40.6438</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9071</v>
+        <v>20.8229</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5423</v>
+        <v>27.1144</v>
       </c>
       <c r="D5" t="n">
-        <v>34.8923</v>
+        <v>34.3491</v>
       </c>
       <c r="E5" t="n">
-        <v>41.379</v>
+        <v>43.7536</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.5012</v>
+        <v>24.2912</v>
       </c>
       <c r="C6" t="n">
-        <v>31.3507</v>
+        <v>31.5492</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6797</v>
+        <v>38.5673</v>
       </c>
       <c r="E6" t="n">
-        <v>43.8691</v>
+        <v>43.8367</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0687</v>
+        <v>28.7963</v>
       </c>
       <c r="C7" t="n">
-        <v>36.4824</v>
+        <v>36.9237</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7791</v>
+        <v>38.6993</v>
       </c>
       <c r="E7" t="n">
-        <v>45.1668</v>
+        <v>49.0309</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.0553</v>
+        <v>21.1423</v>
       </c>
       <c r="C8" t="n">
-        <v>34.1809</v>
+        <v>34.1416</v>
       </c>
       <c r="D8" t="n">
-        <v>39.3387</v>
+        <v>39.2685</v>
       </c>
       <c r="E8" t="n">
-        <v>47.349</v>
+        <v>47.5416</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9072</v>
+        <v>23.702</v>
       </c>
       <c r="C9" t="n">
-        <v>34.3058</v>
+        <v>34.1747</v>
       </c>
       <c r="D9" t="n">
-        <v>44.2821</v>
+        <v>43.7777</v>
       </c>
       <c r="E9" t="n">
-        <v>50.5457</v>
+        <v>51.0474</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.1731</v>
+        <v>26.0142</v>
       </c>
       <c r="C10" t="n">
-        <v>34.5459</v>
+        <v>34.2223</v>
       </c>
       <c r="D10" t="n">
-        <v>44.3191</v>
+        <v>45.6465</v>
       </c>
       <c r="E10" t="n">
-        <v>53.6258</v>
+        <v>51.2006</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4921</v>
+        <v>23.9971</v>
       </c>
       <c r="C11" t="n">
-        <v>34.5717</v>
+        <v>35.171</v>
       </c>
       <c r="D11" t="n">
-        <v>48.9748</v>
+        <v>47.862</v>
       </c>
       <c r="E11" t="n">
-        <v>59.2026</v>
+        <v>55.3026</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.5016</v>
+        <v>26.2782</v>
       </c>
       <c r="C12" t="n">
-        <v>34.7009</v>
+        <v>35.166</v>
       </c>
       <c r="D12" t="n">
-        <v>50.9267</v>
+        <v>51.1258</v>
       </c>
       <c r="E12" t="n">
-        <v>58.6405</v>
+        <v>54.4728</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.0265</v>
+        <v>28.8088</v>
       </c>
       <c r="C13" t="n">
-        <v>35.118</v>
+        <v>34.5824</v>
       </c>
       <c r="D13" t="n">
-        <v>50.9898</v>
+        <v>48.6615</v>
       </c>
       <c r="E13" t="n">
-        <v>56.8515</v>
+        <v>57.9411</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9415</v>
+        <v>23.922</v>
       </c>
       <c r="C14" t="n">
-        <v>34.7226</v>
+        <v>35.194</v>
       </c>
       <c r="D14" t="n">
-        <v>51.1311</v>
+        <v>50.1165</v>
       </c>
       <c r="E14" t="n">
-        <v>59.5203</v>
+        <v>60.0003</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.5249</v>
+        <v>25.663</v>
       </c>
       <c r="C15" t="n">
-        <v>34.3691</v>
+        <v>34.9957</v>
       </c>
       <c r="D15" t="n">
-        <v>50.975</v>
+        <v>49.6687</v>
       </c>
       <c r="E15" t="n">
-        <v>59.1194</v>
+        <v>60.6459</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.6359</v>
+        <v>26.605</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4982</v>
+        <v>35.3433</v>
       </c>
       <c r="D16" t="n">
-        <v>50.7326</v>
+        <v>51.556</v>
       </c>
       <c r="E16" t="n">
-        <v>60.7012</v>
+        <v>61.0449</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.7136</v>
+        <v>25.4558</v>
       </c>
       <c r="C17" t="n">
-        <v>35.0004</v>
+        <v>34.8601</v>
       </c>
       <c r="D17" t="n">
-        <v>50.7491</v>
+        <v>51.1405</v>
       </c>
       <c r="E17" t="n">
-        <v>60.6902</v>
+        <v>62.4508</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.661</v>
+        <v>10.7162</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8204</v>
+        <v>12.8543</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2873</v>
+        <v>17.466</v>
       </c>
       <c r="E2" t="n">
-        <v>20.348</v>
+        <v>21.1484</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.9721</v>
+        <v>20.1698</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4497</v>
+        <v>19.5291</v>
       </c>
       <c r="D3" t="n">
-        <v>27.0321</v>
+        <v>28.1347</v>
       </c>
       <c r="E3" t="n">
-        <v>31.5167</v>
+        <v>31.5699</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.3309</v>
+        <v>27.3291</v>
       </c>
       <c r="C4" t="n">
-        <v>25.774</v>
+        <v>26.3206</v>
       </c>
       <c r="D4" t="n">
-        <v>33.9514</v>
+        <v>34.2911</v>
       </c>
       <c r="E4" t="n">
-        <v>37.103</v>
+        <v>39.9504</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.1728</v>
+        <v>20.718</v>
       </c>
       <c r="C5" t="n">
-        <v>26.6094</v>
+        <v>26.9667</v>
       </c>
       <c r="D5" t="n">
-        <v>35.3386</v>
+        <v>35.834</v>
       </c>
       <c r="E5" t="n">
-        <v>39.1034</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9234</v>
+        <v>24.6976</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2433</v>
+        <v>31.4029</v>
       </c>
       <c r="D6" t="n">
-        <v>38.1885</v>
+        <v>36.5745</v>
       </c>
       <c r="E6" t="n">
-        <v>43.9571</v>
+        <v>44.1739</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9292</v>
+        <v>29.6876</v>
       </c>
       <c r="C7" t="n">
-        <v>36.3921</v>
+        <v>36.6465</v>
       </c>
       <c r="D7" t="n">
-        <v>43.703</v>
+        <v>42.5343</v>
       </c>
       <c r="E7" t="n">
-        <v>49.0484</v>
+        <v>49.2428</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.608</v>
+        <v>21.5776</v>
       </c>
       <c r="C8" t="n">
-        <v>33.4521</v>
+        <v>33.6797</v>
       </c>
       <c r="D8" t="n">
-        <v>40.5064</v>
+        <v>41.3544</v>
       </c>
       <c r="E8" t="n">
-        <v>45.325</v>
+        <v>47.3666</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.1358</v>
+        <v>24.9845</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7052</v>
+        <v>33.8657</v>
       </c>
       <c r="D9" t="n">
-        <v>43.137</v>
+        <v>43.7527</v>
       </c>
       <c r="E9" t="n">
-        <v>51.3433</v>
+        <v>49.1137</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.6291</v>
+        <v>27.2372</v>
       </c>
       <c r="C10" t="n">
-        <v>34.0653</v>
+        <v>34.3054</v>
       </c>
       <c r="D10" t="n">
-        <v>43.9042</v>
+        <v>44.0238</v>
       </c>
       <c r="E10" t="n">
-        <v>51.9853</v>
+        <v>54.4899</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0643</v>
+        <v>24.6067</v>
       </c>
       <c r="C11" t="n">
-        <v>34.2718</v>
+        <v>34.4005</v>
       </c>
       <c r="D11" t="n">
-        <v>46.647</v>
+        <v>47.0252</v>
       </c>
       <c r="E11" t="n">
-        <v>56.4307</v>
+        <v>52.4662</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.2965</v>
+        <v>26.9476</v>
       </c>
       <c r="C12" t="n">
-        <v>34.2922</v>
+        <v>35.0392</v>
       </c>
       <c r="D12" t="n">
-        <v>47.4647</v>
+        <v>48.7756</v>
       </c>
       <c r="E12" t="n">
-        <v>59.4107</v>
+        <v>59.2398</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8985</v>
+        <v>29.6401</v>
       </c>
       <c r="C13" t="n">
-        <v>35.2007</v>
+        <v>35.3428</v>
       </c>
       <c r="D13" t="n">
-        <v>50.537</v>
+        <v>49.1099</v>
       </c>
       <c r="E13" t="n">
-        <v>60.756</v>
+        <v>59.9996</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1769</v>
+        <v>23.9578</v>
       </c>
       <c r="C14" t="n">
-        <v>35.237</v>
+        <v>35.5025</v>
       </c>
       <c r="D14" t="n">
-        <v>50.5324</v>
+        <v>48.8138</v>
       </c>
       <c r="E14" t="n">
-        <v>61.5467</v>
+        <v>61.7523</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.2253</v>
+        <v>26.0634</v>
       </c>
       <c r="C15" t="n">
-        <v>35.2501</v>
+        <v>35.4155</v>
       </c>
       <c r="D15" t="n">
-        <v>49.1045</v>
+        <v>49.6267</v>
       </c>
       <c r="E15" t="n">
-        <v>60.4429</v>
+        <v>61.0928</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.6508</v>
+        <v>27.5777</v>
       </c>
       <c r="C16" t="n">
-        <v>35.5346</v>
+        <v>35.4605</v>
       </c>
       <c r="D16" t="n">
-        <v>51.0998</v>
+        <v>51.3049</v>
       </c>
       <c r="E16" t="n">
-        <v>60.749</v>
+        <v>62.6148</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.4761</v>
+        <v>25.9152</v>
       </c>
       <c r="C17" t="n">
-        <v>35.2048</v>
+        <v>35.9685</v>
       </c>
       <c r="D17" t="n">
-        <v>51.1652</v>
+        <v>51.1145</v>
       </c>
       <c r="E17" t="n">
-        <v>61.3501</v>
+        <v>63.5288</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0083</v>
+        <v>13.0832</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9459</v>
+        <v>13.9734</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9873</v>
+        <v>19.1755</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7064</v>
+        <v>22.5478</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>22.9786</v>
+        <v>23.2646</v>
       </c>
       <c r="C3" t="n">
-        <v>23.4016</v>
+        <v>23.4222</v>
       </c>
       <c r="D3" t="n">
-        <v>31.0015</v>
+        <v>30.821</v>
       </c>
       <c r="E3" t="n">
-        <v>31.7249</v>
+        <v>33.5628</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.101</v>
+        <v>31.6475</v>
       </c>
       <c r="C4" t="n">
-        <v>28.9839</v>
+        <v>29.7031</v>
       </c>
       <c r="D4" t="n">
-        <v>35.3673</v>
+        <v>35.8374</v>
       </c>
       <c r="E4" t="n">
-        <v>38.9314</v>
+        <v>46.2914</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.4702</v>
+        <v>26.838</v>
       </c>
       <c r="C5" t="n">
-        <v>28.8626</v>
+        <v>29.1469</v>
       </c>
       <c r="D5" t="n">
-        <v>37.1374</v>
+        <v>36.6485</v>
       </c>
       <c r="E5" t="n">
-        <v>48.2309</v>
+        <v>50.7048</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.712</v>
+        <v>31.8184</v>
       </c>
       <c r="C6" t="n">
-        <v>32.5498</v>
+        <v>33.1849</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0507</v>
+        <v>38.7795</v>
       </c>
       <c r="E6" t="n">
-        <v>50.5176</v>
+        <v>50.6968</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.6113</v>
+        <v>37.4946</v>
       </c>
       <c r="C7" t="n">
-        <v>38.1161</v>
+        <v>38.4736</v>
       </c>
       <c r="D7" t="n">
-        <v>43.7335</v>
+        <v>50.3752</v>
       </c>
       <c r="E7" t="n">
-        <v>50.4311</v>
+        <v>50.7686</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.9515</v>
+        <v>34.0603</v>
       </c>
       <c r="C8" t="n">
-        <v>34.2038</v>
+        <v>35.1271</v>
       </c>
       <c r="D8" t="n">
-        <v>47.2993</v>
+        <v>47.0847</v>
       </c>
       <c r="E8" t="n">
-        <v>49.1009</v>
+        <v>50.8918</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.5171</v>
+        <v>34.3479</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0999</v>
+        <v>34.8576</v>
       </c>
       <c r="D9" t="n">
-        <v>49.3686</v>
+        <v>47.6668</v>
       </c>
       <c r="E9" t="n">
-        <v>60.2487</v>
+        <v>60.2188</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.2258</v>
+        <v>34.8263</v>
       </c>
       <c r="C10" t="n">
-        <v>35.2269</v>
+        <v>34.9331</v>
       </c>
       <c r="D10" t="n">
-        <v>50.0165</v>
+        <v>49.3347</v>
       </c>
       <c r="E10" t="n">
-        <v>59.8412</v>
+        <v>58.1652</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.7933</v>
+        <v>34.1436</v>
       </c>
       <c r="C11" t="n">
-        <v>35.257</v>
+        <v>35.2205</v>
       </c>
       <c r="D11" t="n">
-        <v>50.8355</v>
+        <v>50.8225</v>
       </c>
       <c r="E11" t="n">
-        <v>60.606</v>
+        <v>60.5072</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.0413</v>
+        <v>34.7747</v>
       </c>
       <c r="C12" t="n">
-        <v>35.7027</v>
+        <v>35.0344</v>
       </c>
       <c r="D12" t="n">
-        <v>50.9048</v>
+        <v>51.2654</v>
       </c>
       <c r="E12" t="n">
-        <v>60.5947</v>
+        <v>60.3089</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.3304</v>
+        <v>34.9186</v>
       </c>
       <c r="C13" t="n">
-        <v>35.0834</v>
+        <v>35.8863</v>
       </c>
       <c r="D13" t="n">
-        <v>50.8061</v>
+        <v>50.9867</v>
       </c>
       <c r="E13" t="n">
-        <v>60.3045</v>
+        <v>60.4096</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.7663</v>
+        <v>34.9908</v>
       </c>
       <c r="C14" t="n">
-        <v>36.3501</v>
+        <v>35.7562</v>
       </c>
       <c r="D14" t="n">
-        <v>51.0733</v>
+        <v>50.7591</v>
       </c>
       <c r="E14" t="n">
-        <v>60.7548</v>
+        <v>59.6602</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.7253</v>
+        <v>35.7696</v>
       </c>
       <c r="C15" t="n">
-        <v>35.939</v>
+        <v>35.5</v>
       </c>
       <c r="D15" t="n">
-        <v>51.5156</v>
+        <v>50.5876</v>
       </c>
       <c r="E15" t="n">
-        <v>56.8495</v>
+        <v>56.3369</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.8282</v>
+        <v>35.3953</v>
       </c>
       <c r="C16" t="n">
-        <v>35.9393</v>
+        <v>36.6437</v>
       </c>
       <c r="D16" t="n">
-        <v>50.3564</v>
+        <v>49.934</v>
       </c>
       <c r="E16" t="n">
-        <v>58.3078</v>
+        <v>56.8093</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.644</v>
+        <v>35.5593</v>
       </c>
       <c r="C17" t="n">
-        <v>35.992</v>
+        <v>36.3815</v>
       </c>
       <c r="D17" t="n">
-        <v>50.8308</v>
+        <v>48.8411</v>
       </c>
       <c r="E17" t="n">
-        <v>59.6086</v>
+        <v>57.0136</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.76071</v>
+        <v>4.77028</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8387</v>
+        <v>10.833</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6286</v>
+        <v>14.7832</v>
       </c>
       <c r="E2" t="n">
-        <v>18.9649</v>
+        <v>19.6723</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.31786</v>
+        <v>9.31875</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8869</v>
+        <v>18.7581</v>
       </c>
       <c r="D3" t="n">
-        <v>27.8316</v>
+        <v>28.0386</v>
       </c>
       <c r="E3" t="n">
-        <v>35.6505</v>
+        <v>36.9502</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4257</v>
+        <v>13.4054</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8305</v>
+        <v>25.6114</v>
       </c>
       <c r="D4" t="n">
-        <v>39.75</v>
+        <v>39.7655</v>
       </c>
       <c r="E4" t="n">
-        <v>50.1569</v>
+        <v>50.9551</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9284</v>
+        <v>15.9336</v>
       </c>
       <c r="C5" t="n">
-        <v>26.3741</v>
+        <v>26.8111</v>
       </c>
       <c r="D5" t="n">
-        <v>43.0469</v>
+        <v>44.4933</v>
       </c>
       <c r="E5" t="n">
-        <v>56.3537</v>
+        <v>58.2286</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2105</v>
+        <v>19.1459</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0506</v>
+        <v>30.089</v>
       </c>
       <c r="D6" t="n">
-        <v>51.4518</v>
+        <v>51.9779</v>
       </c>
       <c r="E6" t="n">
-        <v>65.92310000000001</v>
+        <v>69.22110000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4609</v>
+        <v>22.3468</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0248</v>
+        <v>35.3108</v>
       </c>
       <c r="D7" t="n">
-        <v>61.0965</v>
+        <v>61.2521</v>
       </c>
       <c r="E7" t="n">
-        <v>79.22450000000001</v>
+        <v>81.2321</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8028</v>
+        <v>20.1827</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6405</v>
+        <v>34.229</v>
       </c>
       <c r="D8" t="n">
-        <v>55.3013</v>
+        <v>52.7252</v>
       </c>
       <c r="E8" t="n">
-        <v>65.8403</v>
+        <v>71.0889</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8224</v>
+        <v>20.6052</v>
       </c>
       <c r="C9" t="n">
-        <v>33.5449</v>
+        <v>33.884</v>
       </c>
       <c r="D9" t="n">
-        <v>56.5532</v>
+        <v>54.4457</v>
       </c>
       <c r="E9" t="n">
-        <v>71.6511</v>
+        <v>72.38420000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.9956</v>
+        <v>20.9974</v>
       </c>
       <c r="C10" t="n">
-        <v>33.5259</v>
+        <v>34.1373</v>
       </c>
       <c r="D10" t="n">
-        <v>54.9581</v>
+        <v>55.1552</v>
       </c>
       <c r="E10" t="n">
-        <v>68.8831</v>
+        <v>72.9388</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.0377</v>
+        <v>21.0033</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0078</v>
+        <v>33.9147</v>
       </c>
       <c r="D11" t="n">
-        <v>56.4733</v>
+        <v>56.4674</v>
       </c>
       <c r="E11" t="n">
-        <v>72.77030000000001</v>
+        <v>75.1664</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4126</v>
+        <v>21.1731</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9513</v>
+        <v>34.3515</v>
       </c>
       <c r="D12" t="n">
-        <v>55.8851</v>
+        <v>56.3868</v>
       </c>
       <c r="E12" t="n">
-        <v>71.96769999999999</v>
+        <v>77.51220000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4873</v>
+        <v>20.6765</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2747</v>
+        <v>34.6489</v>
       </c>
       <c r="D13" t="n">
-        <v>57.5386</v>
+        <v>58.3847</v>
       </c>
       <c r="E13" t="n">
-        <v>73.04859999999999</v>
+        <v>74.7051</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.004</v>
+        <v>20.8939</v>
       </c>
       <c r="C14" t="n">
-        <v>34.0186</v>
+        <v>34.1734</v>
       </c>
       <c r="D14" t="n">
-        <v>57.7387</v>
+        <v>58.1217</v>
       </c>
       <c r="E14" t="n">
-        <v>73.9962</v>
+        <v>75.17140000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4921</v>
+        <v>21.3205</v>
       </c>
       <c r="C15" t="n">
-        <v>34.2024</v>
+        <v>34.2713</v>
       </c>
       <c r="D15" t="n">
-        <v>59.3141</v>
+        <v>57.9419</v>
       </c>
       <c r="E15" t="n">
-        <v>75.9251</v>
+        <v>77.2889</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1301</v>
+        <v>21.1805</v>
       </c>
       <c r="C16" t="n">
-        <v>34.3513</v>
+        <v>34.6102</v>
       </c>
       <c r="D16" t="n">
-        <v>57.914</v>
+        <v>58.9988</v>
       </c>
       <c r="E16" t="n">
-        <v>74.4586</v>
+        <v>75.1456</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.3192</v>
+        <v>21.1708</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5028</v>
+        <v>34.4796</v>
       </c>
       <c r="D17" t="n">
-        <v>60.5013</v>
+        <v>59.1283</v>
       </c>
       <c r="E17" t="n">
-        <v>77.0757</v>
+        <v>77.8133</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77801</v>
+        <v>4.7898</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9284</v>
+        <v>10.93</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5059</v>
+        <v>14.5692</v>
       </c>
       <c r="E2" t="n">
-        <v>18.9706</v>
+        <v>19.7106</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.35154</v>
+        <v>9.36139</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8689</v>
+        <v>18.8412</v>
       </c>
       <c r="D3" t="n">
-        <v>27.4306</v>
+        <v>27.7019</v>
       </c>
       <c r="E3" t="n">
-        <v>35.4986</v>
+        <v>37.0546</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.51</v>
+        <v>13.5126</v>
       </c>
       <c r="C4" t="n">
-        <v>26.2395</v>
+        <v>25.8796</v>
       </c>
       <c r="D4" t="n">
-        <v>38.856</v>
+        <v>39.2367</v>
       </c>
       <c r="E4" t="n">
-        <v>50.0393</v>
+        <v>52.1311</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0542</v>
+        <v>15.9753</v>
       </c>
       <c r="C5" t="n">
-        <v>26.3132</v>
+        <v>26.8544</v>
       </c>
       <c r="D5" t="n">
-        <v>42.0801</v>
+        <v>42.7749</v>
       </c>
       <c r="E5" t="n">
-        <v>56.0544</v>
+        <v>57.3567</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4391</v>
+        <v>19.3817</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0124</v>
+        <v>30.2616</v>
       </c>
       <c r="D6" t="n">
-        <v>50.142</v>
+        <v>50.9995</v>
       </c>
       <c r="E6" t="n">
-        <v>66.8305</v>
+        <v>68.57380000000001</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.844</v>
+        <v>22.758</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0091</v>
+        <v>35.3498</v>
       </c>
       <c r="D7" t="n">
-        <v>59.6886</v>
+        <v>59.9597</v>
       </c>
       <c r="E7" t="n">
-        <v>78.2064</v>
+        <v>79.3494</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3636</v>
+        <v>20.4396</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0131</v>
+        <v>34.0518</v>
       </c>
       <c r="D8" t="n">
-        <v>52.0688</v>
+        <v>53.4878</v>
       </c>
       <c r="E8" t="n">
-        <v>67.63509999999999</v>
+        <v>70.86579999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9885</v>
+        <v>20.9709</v>
       </c>
       <c r="C9" t="n">
-        <v>33.4795</v>
+        <v>34.3499</v>
       </c>
       <c r="D9" t="n">
-        <v>53.2794</v>
+        <v>52.3891</v>
       </c>
       <c r="E9" t="n">
-        <v>71.59610000000001</v>
+        <v>70.4902</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.587</v>
+        <v>21.4754</v>
       </c>
       <c r="C10" t="n">
-        <v>33.3703</v>
+        <v>34.4268</v>
       </c>
       <c r="D10" t="n">
-        <v>52.7845</v>
+        <v>53.1404</v>
       </c>
       <c r="E10" t="n">
-        <v>70.1782</v>
+        <v>75.0513</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4733</v>
+        <v>21.34</v>
       </c>
       <c r="C11" t="n">
-        <v>33.7608</v>
+        <v>34.1366</v>
       </c>
       <c r="D11" t="n">
-        <v>54.8578</v>
+        <v>53.9242</v>
       </c>
       <c r="E11" t="n">
-        <v>73.64619999999999</v>
+        <v>73.2052</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4421</v>
+        <v>21.2803</v>
       </c>
       <c r="C12" t="n">
-        <v>33.4206</v>
+        <v>34.2191</v>
       </c>
       <c r="D12" t="n">
-        <v>55.4625</v>
+        <v>54.7698</v>
       </c>
       <c r="E12" t="n">
-        <v>72.92059999999999</v>
+        <v>73.0829</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2024</v>
+        <v>21.9253</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2812</v>
+        <v>34.5237</v>
       </c>
       <c r="D13" t="n">
-        <v>55.5691</v>
+        <v>55.1963</v>
       </c>
       <c r="E13" t="n">
-        <v>72.59229999999999</v>
+        <v>74.3584</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.0995</v>
+        <v>21.3449</v>
       </c>
       <c r="C14" t="n">
-        <v>34.3746</v>
+        <v>34.438</v>
       </c>
       <c r="D14" t="n">
-        <v>56.3953</v>
+        <v>55.7514</v>
       </c>
       <c r="E14" t="n">
-        <v>74.12869999999999</v>
+        <v>74.6771</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5001</v>
+        <v>21.6282</v>
       </c>
       <c r="C15" t="n">
-        <v>34.2372</v>
+        <v>34.612</v>
       </c>
       <c r="D15" t="n">
-        <v>56.4311</v>
+        <v>56.7315</v>
       </c>
       <c r="E15" t="n">
-        <v>72.1369</v>
+        <v>74.3574</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2131</v>
+        <v>21.5699</v>
       </c>
       <c r="C16" t="n">
-        <v>34.2645</v>
+        <v>34.8936</v>
       </c>
       <c r="D16" t="n">
-        <v>56.5277</v>
+        <v>56.0546</v>
       </c>
       <c r="E16" t="n">
-        <v>74.39879999999999</v>
+        <v>74.8728</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.902</v>
+        <v>21.3837</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5736</v>
+        <v>34.9521</v>
       </c>
       <c r="D17" t="n">
-        <v>57.2934</v>
+        <v>56.7158</v>
       </c>
       <c r="E17" t="n">
-        <v>74.9462</v>
+        <v>75.6476</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.870469999999999</v>
+        <v>8.865080000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.4133</v>
+        <v>13.4571</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3068</v>
+        <v>18.5551</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6555</v>
+        <v>22.4672</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.9216</v>
+        <v>17.0189</v>
       </c>
       <c r="C3" t="n">
-        <v>22.587</v>
+        <v>22.4872</v>
       </c>
       <c r="D3" t="n">
-        <v>33.6805</v>
+        <v>33.9415</v>
       </c>
       <c r="E3" t="n">
-        <v>39.6454</v>
+        <v>41.1003</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.4975</v>
+        <v>24.3183</v>
       </c>
       <c r="C4" t="n">
-        <v>29.9124</v>
+        <v>30.2642</v>
       </c>
       <c r="D4" t="n">
-        <v>47.8567</v>
+        <v>47.9114</v>
       </c>
       <c r="E4" t="n">
-        <v>55.9103</v>
+        <v>57.5428</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4495</v>
+        <v>24.4355</v>
       </c>
       <c r="C5" t="n">
-        <v>29.6541</v>
+        <v>29.668</v>
       </c>
       <c r="D5" t="n">
-        <v>46.4764</v>
+        <v>47.8543</v>
       </c>
       <c r="E5" t="n">
-        <v>59.9127</v>
+        <v>60.6626</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2256</v>
+        <v>28.3149</v>
       </c>
       <c r="C6" t="n">
-        <v>32.5731</v>
+        <v>32.6634</v>
       </c>
       <c r="D6" t="n">
-        <v>54.0891</v>
+        <v>53.9931</v>
       </c>
       <c r="E6" t="n">
-        <v>69.286</v>
+        <v>71.4438</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3733</v>
+        <v>34.2338</v>
       </c>
       <c r="C7" t="n">
-        <v>37.4078</v>
+        <v>37.6835</v>
       </c>
       <c r="D7" t="n">
-        <v>62.1626</v>
+        <v>62.224</v>
       </c>
       <c r="E7" t="n">
-        <v>79.2778</v>
+        <v>80.1772</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.0774</v>
+        <v>31.1304</v>
       </c>
       <c r="C8" t="n">
-        <v>36.4674</v>
+        <v>36.7477</v>
       </c>
       <c r="D8" t="n">
-        <v>58.6218</v>
+        <v>60.06</v>
       </c>
       <c r="E8" t="n">
-        <v>76.79940000000001</v>
+        <v>77.7199</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.8634</v>
+        <v>31.4368</v>
       </c>
       <c r="C9" t="n">
-        <v>36.3286</v>
+        <v>36.6475</v>
       </c>
       <c r="D9" t="n">
-        <v>60.1451</v>
+        <v>60.8618</v>
       </c>
       <c r="E9" t="n">
-        <v>79.1083</v>
+        <v>79.6554</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.2003</v>
+        <v>32.416</v>
       </c>
       <c r="C10" t="n">
-        <v>36.9115</v>
+        <v>36.9473</v>
       </c>
       <c r="D10" t="n">
-        <v>59.6824</v>
+        <v>61.4007</v>
       </c>
       <c r="E10" t="n">
-        <v>79.62</v>
+        <v>80.4984</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.9201</v>
+        <v>32.9024</v>
       </c>
       <c r="C11" t="n">
-        <v>36.5166</v>
+        <v>36.7014</v>
       </c>
       <c r="D11" t="n">
-        <v>60.6083</v>
+        <v>61.5656</v>
       </c>
       <c r="E11" t="n">
-        <v>80.6015</v>
+        <v>80.8687</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4338</v>
+        <v>32.3167</v>
       </c>
       <c r="C12" t="n">
-        <v>36.7351</v>
+        <v>37.061</v>
       </c>
       <c r="D12" t="n">
-        <v>61.3122</v>
+        <v>61.8919</v>
       </c>
       <c r="E12" t="n">
-        <v>80.3639</v>
+        <v>81.0754</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.0005</v>
+        <v>32.7176</v>
       </c>
       <c r="C13" t="n">
-        <v>36.9404</v>
+        <v>37.2191</v>
       </c>
       <c r="D13" t="n">
-        <v>62.382</v>
+        <v>60.2938</v>
       </c>
       <c r="E13" t="n">
-        <v>81.01609999999999</v>
+        <v>80.5699</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.6301</v>
+        <v>32.5771</v>
       </c>
       <c r="C14" t="n">
-        <v>36.8024</v>
+        <v>37.2697</v>
       </c>
       <c r="D14" t="n">
-        <v>61.8953</v>
+        <v>61.8428</v>
       </c>
       <c r="E14" t="n">
-        <v>80.2826</v>
+        <v>80.6318</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.0886</v>
+        <v>32.6777</v>
       </c>
       <c r="C15" t="n">
-        <v>36.9063</v>
+        <v>36.8986</v>
       </c>
       <c r="D15" t="n">
-        <v>61.8366</v>
+        <v>61.5173</v>
       </c>
       <c r="E15" t="n">
-        <v>79.1139</v>
+        <v>80.334</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7895</v>
+        <v>32.5536</v>
       </c>
       <c r="C16" t="n">
-        <v>36.8232</v>
+        <v>36.9916</v>
       </c>
       <c r="D16" t="n">
-        <v>60.9882</v>
+        <v>61.2924</v>
       </c>
       <c r="E16" t="n">
-        <v>79.2668</v>
+        <v>80.2692</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.6306</v>
+        <v>33.2742</v>
       </c>
       <c r="C17" t="n">
-        <v>36.8827</v>
+        <v>37.0857</v>
       </c>
       <c r="D17" t="n">
-        <v>61.7387</v>
+        <v>61.3178</v>
       </c>
       <c r="E17" t="n">
-        <v>80.2306</v>
+        <v>80.4449</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,278 +4795,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10.3049</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12.8522</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.599</v>
-      </c>
-      <c r="E2" t="n">
-        <v>21.2999</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>19.3735</v>
-      </c>
-      <c r="C3" t="n">
-        <v>19.4461</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.9283</v>
-      </c>
-      <c r="E3" t="n">
-        <v>31.9432</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>26.619</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25.031</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.3898</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40.6438</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>20.8229</v>
-      </c>
-      <c r="C5" t="n">
-        <v>27.1144</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34.3491</v>
-      </c>
-      <c r="E5" t="n">
-        <v>43.7536</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>24.2912</v>
-      </c>
-      <c r="C6" t="n">
-        <v>31.5492</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38.5673</v>
-      </c>
-      <c r="E6" t="n">
-        <v>43.8367</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>28.7963</v>
-      </c>
-      <c r="C7" t="n">
-        <v>36.9237</v>
-      </c>
-      <c r="D7" t="n">
-        <v>38.6993</v>
-      </c>
-      <c r="E7" t="n">
-        <v>49.0309</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>21.1423</v>
-      </c>
-      <c r="C8" t="n">
-        <v>34.1416</v>
-      </c>
-      <c r="D8" t="n">
-        <v>39.2685</v>
-      </c>
-      <c r="E8" t="n">
-        <v>47.5416</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>23.702</v>
-      </c>
-      <c r="C9" t="n">
-        <v>34.1747</v>
-      </c>
-      <c r="D9" t="n">
-        <v>43.7777</v>
-      </c>
-      <c r="E9" t="n">
-        <v>51.0474</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>26.0142</v>
-      </c>
-      <c r="C10" t="n">
-        <v>34.2223</v>
-      </c>
-      <c r="D10" t="n">
-        <v>45.6465</v>
-      </c>
-      <c r="E10" t="n">
-        <v>51.2006</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>23.9971</v>
-      </c>
-      <c r="C11" t="n">
-        <v>35.171</v>
-      </c>
-      <c r="D11" t="n">
-        <v>47.862</v>
-      </c>
-      <c r="E11" t="n">
-        <v>55.3026</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>26.2782</v>
-      </c>
-      <c r="C12" t="n">
-        <v>35.166</v>
-      </c>
-      <c r="D12" t="n">
-        <v>51.1258</v>
-      </c>
-      <c r="E12" t="n">
-        <v>54.4728</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>28.8088</v>
-      </c>
-      <c r="C13" t="n">
-        <v>34.5824</v>
-      </c>
-      <c r="D13" t="n">
-        <v>48.6615</v>
-      </c>
-      <c r="E13" t="n">
-        <v>57.9411</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>23.922</v>
-      </c>
-      <c r="C14" t="n">
-        <v>35.194</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50.1165</v>
-      </c>
-      <c r="E14" t="n">
-        <v>60.0003</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>25.663</v>
-      </c>
-      <c r="C15" t="n">
-        <v>34.9957</v>
-      </c>
-      <c r="D15" t="n">
-        <v>49.6687</v>
-      </c>
-      <c r="E15" t="n">
-        <v>60.6459</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>26.605</v>
-      </c>
-      <c r="C16" t="n">
-        <v>35.3433</v>
-      </c>
-      <c r="D16" t="n">
-        <v>51.556</v>
-      </c>
-      <c r="E16" t="n">
-        <v>61.0449</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>25.4558</v>
-      </c>
-      <c r="C17" t="n">
-        <v>34.8601</v>
-      </c>
-      <c r="D17" t="n">
-        <v>51.1405</v>
-      </c>
-      <c r="E17" t="n">
-        <v>62.4508</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5079,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5112,278 +4840,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10.7162</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12.8543</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.466</v>
-      </c>
-      <c r="E2" t="n">
-        <v>21.1484</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20.1698</v>
-      </c>
-      <c r="C3" t="n">
-        <v>19.5291</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.1347</v>
-      </c>
-      <c r="E3" t="n">
-        <v>31.5699</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>27.3291</v>
-      </c>
-      <c r="C4" t="n">
-        <v>26.3206</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.2911</v>
-      </c>
-      <c r="E4" t="n">
-        <v>39.9504</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>20.718</v>
-      </c>
-      <c r="C5" t="n">
-        <v>26.9667</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.834</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>24.6976</v>
-      </c>
-      <c r="C6" t="n">
-        <v>31.4029</v>
-      </c>
-      <c r="D6" t="n">
-        <v>36.5745</v>
-      </c>
-      <c r="E6" t="n">
-        <v>44.1739</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>29.6876</v>
-      </c>
-      <c r="C7" t="n">
-        <v>36.6465</v>
-      </c>
-      <c r="D7" t="n">
-        <v>42.5343</v>
-      </c>
-      <c r="E7" t="n">
-        <v>49.2428</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>21.5776</v>
-      </c>
-      <c r="C8" t="n">
-        <v>33.6797</v>
-      </c>
-      <c r="D8" t="n">
-        <v>41.3544</v>
-      </c>
-      <c r="E8" t="n">
-        <v>47.3666</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>24.9845</v>
-      </c>
-      <c r="C9" t="n">
-        <v>33.8657</v>
-      </c>
-      <c r="D9" t="n">
-        <v>43.7527</v>
-      </c>
-      <c r="E9" t="n">
-        <v>49.1137</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>27.2372</v>
-      </c>
-      <c r="C10" t="n">
-        <v>34.3054</v>
-      </c>
-      <c r="D10" t="n">
-        <v>44.0238</v>
-      </c>
-      <c r="E10" t="n">
-        <v>54.4899</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>24.6067</v>
-      </c>
-      <c r="C11" t="n">
-        <v>34.4005</v>
-      </c>
-      <c r="D11" t="n">
-        <v>47.0252</v>
-      </c>
-      <c r="E11" t="n">
-        <v>52.4662</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>26.9476</v>
-      </c>
-      <c r="C12" t="n">
-        <v>35.0392</v>
-      </c>
-      <c r="D12" t="n">
-        <v>48.7756</v>
-      </c>
-      <c r="E12" t="n">
-        <v>59.2398</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>29.6401</v>
-      </c>
-      <c r="C13" t="n">
-        <v>35.3428</v>
-      </c>
-      <c r="D13" t="n">
-        <v>49.1099</v>
-      </c>
-      <c r="E13" t="n">
-        <v>59.9996</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>23.9578</v>
-      </c>
-      <c r="C14" t="n">
-        <v>35.5025</v>
-      </c>
-      <c r="D14" t="n">
-        <v>48.8138</v>
-      </c>
-      <c r="E14" t="n">
-        <v>61.7523</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>26.0634</v>
-      </c>
-      <c r="C15" t="n">
-        <v>35.4155</v>
-      </c>
-      <c r="D15" t="n">
-        <v>49.6267</v>
-      </c>
-      <c r="E15" t="n">
-        <v>61.0928</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>27.5777</v>
-      </c>
-      <c r="C16" t="n">
-        <v>35.4605</v>
-      </c>
-      <c r="D16" t="n">
-        <v>51.3049</v>
-      </c>
-      <c r="E16" t="n">
-        <v>62.6148</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>25.9152</v>
-      </c>
-      <c r="C17" t="n">
-        <v>35.9685</v>
-      </c>
-      <c r="D17" t="n">
-        <v>51.1145</v>
-      </c>
-      <c r="E17" t="n">
-        <v>63.5288</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5396,7 +4852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5429,278 +4885,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>13.0832</v>
-      </c>
-      <c r="C2" t="n">
-        <v>13.9734</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.1755</v>
-      </c>
-      <c r="E2" t="n">
-        <v>22.5478</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>23.2646</v>
-      </c>
-      <c r="C3" t="n">
-        <v>23.4222</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.821</v>
-      </c>
-      <c r="E3" t="n">
-        <v>33.5628</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>31.6475</v>
-      </c>
-      <c r="C4" t="n">
-        <v>29.7031</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35.8374</v>
-      </c>
-      <c r="E4" t="n">
-        <v>46.2914</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>26.838</v>
-      </c>
-      <c r="C5" t="n">
-        <v>29.1469</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.6485</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50.7048</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>31.8184</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33.1849</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38.7795</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50.6968</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>37.4946</v>
-      </c>
-      <c r="C7" t="n">
-        <v>38.4736</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50.3752</v>
-      </c>
-      <c r="E7" t="n">
-        <v>50.7686</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>34.0603</v>
-      </c>
-      <c r="C8" t="n">
-        <v>35.1271</v>
-      </c>
-      <c r="D8" t="n">
-        <v>47.0847</v>
-      </c>
-      <c r="E8" t="n">
-        <v>50.8918</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>34.3479</v>
-      </c>
-      <c r="C9" t="n">
-        <v>34.8576</v>
-      </c>
-      <c r="D9" t="n">
-        <v>47.6668</v>
-      </c>
-      <c r="E9" t="n">
-        <v>60.2188</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>34.8263</v>
-      </c>
-      <c r="C10" t="n">
-        <v>34.9331</v>
-      </c>
-      <c r="D10" t="n">
-        <v>49.3347</v>
-      </c>
-      <c r="E10" t="n">
-        <v>58.1652</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>34.1436</v>
-      </c>
-      <c r="C11" t="n">
-        <v>35.2205</v>
-      </c>
-      <c r="D11" t="n">
-        <v>50.8225</v>
-      </c>
-      <c r="E11" t="n">
-        <v>60.5072</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>34.7747</v>
-      </c>
-      <c r="C12" t="n">
-        <v>35.0344</v>
-      </c>
-      <c r="D12" t="n">
-        <v>51.2654</v>
-      </c>
-      <c r="E12" t="n">
-        <v>60.3089</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>34.9186</v>
-      </c>
-      <c r="C13" t="n">
-        <v>35.8863</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50.9867</v>
-      </c>
-      <c r="E13" t="n">
-        <v>60.4096</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>34.9908</v>
-      </c>
-      <c r="C14" t="n">
-        <v>35.7562</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50.7591</v>
-      </c>
-      <c r="E14" t="n">
-        <v>59.6602</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>35.7696</v>
-      </c>
-      <c r="C15" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>50.5876</v>
-      </c>
-      <c r="E15" t="n">
-        <v>56.3369</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>35.3953</v>
-      </c>
-      <c r="C16" t="n">
-        <v>36.6437</v>
-      </c>
-      <c r="D16" t="n">
-        <v>49.934</v>
-      </c>
-      <c r="E16" t="n">
-        <v>56.8093</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>35.5593</v>
-      </c>
-      <c r="C17" t="n">
-        <v>36.3815</v>
-      </c>
-      <c r="D17" t="n">
-        <v>48.8411</v>
-      </c>
-      <c r="E17" t="n">
-        <v>57.0136</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5713,7 +4897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5746,278 +4930,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.77028</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.833</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.7832</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19.6723</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.31875</v>
-      </c>
-      <c r="C3" t="n">
-        <v>18.7581</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.0386</v>
-      </c>
-      <c r="E3" t="n">
-        <v>36.9502</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13.4054</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25.6114</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.7655</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50.9551</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>15.9336</v>
-      </c>
-      <c r="C5" t="n">
-        <v>26.8111</v>
-      </c>
-      <c r="D5" t="n">
-        <v>44.4933</v>
-      </c>
-      <c r="E5" t="n">
-        <v>58.2286</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>19.1459</v>
-      </c>
-      <c r="C6" t="n">
-        <v>30.089</v>
-      </c>
-      <c r="D6" t="n">
-        <v>51.9779</v>
-      </c>
-      <c r="E6" t="n">
-        <v>69.22110000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>22.3468</v>
-      </c>
-      <c r="C7" t="n">
-        <v>35.3108</v>
-      </c>
-      <c r="D7" t="n">
-        <v>61.2521</v>
-      </c>
-      <c r="E7" t="n">
-        <v>81.2321</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20.1827</v>
-      </c>
-      <c r="C8" t="n">
-        <v>34.229</v>
-      </c>
-      <c r="D8" t="n">
-        <v>52.7252</v>
-      </c>
-      <c r="E8" t="n">
-        <v>71.0889</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20.6052</v>
-      </c>
-      <c r="C9" t="n">
-        <v>33.884</v>
-      </c>
-      <c r="D9" t="n">
-        <v>54.4457</v>
-      </c>
-      <c r="E9" t="n">
-        <v>72.38420000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20.9974</v>
-      </c>
-      <c r="C10" t="n">
-        <v>34.1373</v>
-      </c>
-      <c r="D10" t="n">
-        <v>55.1552</v>
-      </c>
-      <c r="E10" t="n">
-        <v>72.9388</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>21.0033</v>
-      </c>
-      <c r="C11" t="n">
-        <v>33.9147</v>
-      </c>
-      <c r="D11" t="n">
-        <v>56.4674</v>
-      </c>
-      <c r="E11" t="n">
-        <v>75.1664</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>21.1731</v>
-      </c>
-      <c r="C12" t="n">
-        <v>34.3515</v>
-      </c>
-      <c r="D12" t="n">
-        <v>56.3868</v>
-      </c>
-      <c r="E12" t="n">
-        <v>77.51220000000001</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20.6765</v>
-      </c>
-      <c r="C13" t="n">
-        <v>34.6489</v>
-      </c>
-      <c r="D13" t="n">
-        <v>58.3847</v>
-      </c>
-      <c r="E13" t="n">
-        <v>74.7051</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>20.8939</v>
-      </c>
-      <c r="C14" t="n">
-        <v>34.1734</v>
-      </c>
-      <c r="D14" t="n">
-        <v>58.1217</v>
-      </c>
-      <c r="E14" t="n">
-        <v>75.17140000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>21.3205</v>
-      </c>
-      <c r="C15" t="n">
-        <v>34.2713</v>
-      </c>
-      <c r="D15" t="n">
-        <v>57.9419</v>
-      </c>
-      <c r="E15" t="n">
-        <v>77.2889</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>21.1805</v>
-      </c>
-      <c r="C16" t="n">
-        <v>34.6102</v>
-      </c>
-      <c r="D16" t="n">
-        <v>58.9988</v>
-      </c>
-      <c r="E16" t="n">
-        <v>75.1456</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>21.1708</v>
-      </c>
-      <c r="C17" t="n">
-        <v>34.4796</v>
-      </c>
-      <c r="D17" t="n">
-        <v>59.1283</v>
-      </c>
-      <c r="E17" t="n">
-        <v>77.8133</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -6030,7 +4942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -6061,278 +4973,6 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.7898</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.5692</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19.7106</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.36139</v>
-      </c>
-      <c r="C3" t="n">
-        <v>18.8412</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.7019</v>
-      </c>
-      <c r="E3" t="n">
-        <v>37.0546</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13.5126</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25.8796</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.2367</v>
-      </c>
-      <c r="E4" t="n">
-        <v>52.1311</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>15.9753</v>
-      </c>
-      <c r="C5" t="n">
-        <v>26.8544</v>
-      </c>
-      <c r="D5" t="n">
-        <v>42.7749</v>
-      </c>
-      <c r="E5" t="n">
-        <v>57.3567</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>19.3817</v>
-      </c>
-      <c r="C6" t="n">
-        <v>30.2616</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50.9995</v>
-      </c>
-      <c r="E6" t="n">
-        <v>68.57380000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>22.758</v>
-      </c>
-      <c r="C7" t="n">
-        <v>35.3498</v>
-      </c>
-      <c r="D7" t="n">
-        <v>59.9597</v>
-      </c>
-      <c r="E7" t="n">
-        <v>79.3494</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20.4396</v>
-      </c>
-      <c r="C8" t="n">
-        <v>34.0518</v>
-      </c>
-      <c r="D8" t="n">
-        <v>53.4878</v>
-      </c>
-      <c r="E8" t="n">
-        <v>70.86579999999999</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20.9709</v>
-      </c>
-      <c r="C9" t="n">
-        <v>34.3499</v>
-      </c>
-      <c r="D9" t="n">
-        <v>52.3891</v>
-      </c>
-      <c r="E9" t="n">
-        <v>70.4902</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>21.4754</v>
-      </c>
-      <c r="C10" t="n">
-        <v>34.4268</v>
-      </c>
-      <c r="D10" t="n">
-        <v>53.1404</v>
-      </c>
-      <c r="E10" t="n">
-        <v>75.0513</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>21.34</v>
-      </c>
-      <c r="C11" t="n">
-        <v>34.1366</v>
-      </c>
-      <c r="D11" t="n">
-        <v>53.9242</v>
-      </c>
-      <c r="E11" t="n">
-        <v>73.2052</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>21.2803</v>
-      </c>
-      <c r="C12" t="n">
-        <v>34.2191</v>
-      </c>
-      <c r="D12" t="n">
-        <v>54.7698</v>
-      </c>
-      <c r="E12" t="n">
-        <v>73.0829</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>21.9253</v>
-      </c>
-      <c r="C13" t="n">
-        <v>34.5237</v>
-      </c>
-      <c r="D13" t="n">
-        <v>55.1963</v>
-      </c>
-      <c r="E13" t="n">
-        <v>74.3584</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>21.3449</v>
-      </c>
-      <c r="C14" t="n">
-        <v>34.438</v>
-      </c>
-      <c r="D14" t="n">
-        <v>55.7514</v>
-      </c>
-      <c r="E14" t="n">
-        <v>74.6771</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>21.6282</v>
-      </c>
-      <c r="C15" t="n">
-        <v>34.612</v>
-      </c>
-      <c r="D15" t="n">
-        <v>56.7315</v>
-      </c>
-      <c r="E15" t="n">
-        <v>74.3574</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>21.5699</v>
-      </c>
-      <c r="C16" t="n">
-        <v>34.8936</v>
-      </c>
-      <c r="D16" t="n">
-        <v>56.0546</v>
-      </c>
-      <c r="E16" t="n">
-        <v>74.8728</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>21.3837</v>
-      </c>
-      <c r="C17" t="n">
-        <v>34.9521</v>
-      </c>
-      <c r="D17" t="n">
-        <v>56.7158</v>
-      </c>
-      <c r="E17" t="n">
-        <v>75.6476</v>
       </c>
     </row>
   </sheetData>
@@ -6380,278 +5020,22 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8.865080000000001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>13.4571</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.5551</v>
-      </c>
-      <c r="E2" t="n">
-        <v>22.4672</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>17.0189</v>
-      </c>
-      <c r="C3" t="n">
-        <v>22.4872</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.9415</v>
-      </c>
-      <c r="E3" t="n">
-        <v>41.1003</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>24.3183</v>
-      </c>
-      <c r="C4" t="n">
-        <v>30.2642</v>
-      </c>
-      <c r="D4" t="n">
-        <v>47.9114</v>
-      </c>
-      <c r="E4" t="n">
-        <v>57.5428</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>24.4355</v>
-      </c>
-      <c r="C5" t="n">
-        <v>29.668</v>
-      </c>
-      <c r="D5" t="n">
-        <v>47.8543</v>
-      </c>
-      <c r="E5" t="n">
-        <v>60.6626</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>28.3149</v>
-      </c>
-      <c r="C6" t="n">
-        <v>32.6634</v>
-      </c>
-      <c r="D6" t="n">
-        <v>53.9931</v>
-      </c>
-      <c r="E6" t="n">
-        <v>71.4438</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>34.2338</v>
-      </c>
-      <c r="C7" t="n">
-        <v>37.6835</v>
-      </c>
-      <c r="D7" t="n">
-        <v>62.224</v>
-      </c>
-      <c r="E7" t="n">
-        <v>80.1772</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>31.1304</v>
-      </c>
-      <c r="C8" t="n">
-        <v>36.7477</v>
-      </c>
-      <c r="D8" t="n">
-        <v>60.06</v>
-      </c>
-      <c r="E8" t="n">
-        <v>77.7199</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>31.4368</v>
-      </c>
-      <c r="C9" t="n">
-        <v>36.6475</v>
-      </c>
-      <c r="D9" t="n">
-        <v>60.8618</v>
-      </c>
-      <c r="E9" t="n">
-        <v>79.6554</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>32.416</v>
-      </c>
-      <c r="C10" t="n">
-        <v>36.9473</v>
-      </c>
-      <c r="D10" t="n">
-        <v>61.4007</v>
-      </c>
-      <c r="E10" t="n">
-        <v>80.4984</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>32.9024</v>
-      </c>
-      <c r="C11" t="n">
-        <v>36.7014</v>
-      </c>
-      <c r="D11" t="n">
-        <v>61.5656</v>
-      </c>
-      <c r="E11" t="n">
-        <v>80.8687</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>32.3167</v>
-      </c>
-      <c r="C12" t="n">
-        <v>37.061</v>
-      </c>
-      <c r="D12" t="n">
-        <v>61.8919</v>
-      </c>
-      <c r="E12" t="n">
-        <v>81.0754</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>32.7176</v>
-      </c>
-      <c r="C13" t="n">
-        <v>37.2191</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60.2938</v>
-      </c>
-      <c r="E13" t="n">
-        <v>80.5699</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>32.5771</v>
-      </c>
-      <c r="C14" t="n">
-        <v>37.2697</v>
-      </c>
-      <c r="D14" t="n">
-        <v>61.8428</v>
-      </c>
-      <c r="E14" t="n">
-        <v>80.6318</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>32.6777</v>
-      </c>
-      <c r="C15" t="n">
-        <v>36.8986</v>
-      </c>
-      <c r="D15" t="n">
-        <v>61.5173</v>
-      </c>
-      <c r="E15" t="n">
-        <v>80.334</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>32.5536</v>
-      </c>
-      <c r="C16" t="n">
-        <v>36.9916</v>
-      </c>
-      <c r="D16" t="n">
-        <v>61.2924</v>
-      </c>
-      <c r="E16" t="n">
-        <v>80.2692</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>33.2742</v>
-      </c>
-      <c r="C17" t="n">
-        <v>37.0857</v>
-      </c>
-      <c r="D17" t="n">
-        <v>61.3178</v>
-      </c>
-      <c r="E17" t="n">
-        <v>80.4449</v>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,6 +4795,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10.2857</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.8416</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.5831</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.274</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19.3832</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19.2127</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.0345</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34.2561</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25.7008</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24.3961</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.0184</v>
+      </c>
+      <c r="E4" t="n">
+        <v>38.9555</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20.6449</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26.9682</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.0228</v>
+      </c>
+      <c r="E5" t="n">
+        <v>43.7843</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>24.2721</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31.3551</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.371</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43.6128</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>28.8361</v>
+      </c>
+      <c r="C7" t="n">
+        <v>36.8805</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.7057</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.9111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>21.2058</v>
+      </c>
+      <c r="C8" t="n">
+        <v>34.4344</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40.307</v>
+      </c>
+      <c r="E8" t="n">
+        <v>46.0429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23.9073</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33.8662</v>
+      </c>
+      <c r="D9" t="n">
+        <v>44.4703</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48.689</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>26.1497</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34.8907</v>
+      </c>
+      <c r="D10" t="n">
+        <v>46.0398</v>
+      </c>
+      <c r="E10" t="n">
+        <v>51.9654</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24.1033</v>
+      </c>
+      <c r="C11" t="n">
+        <v>34.9105</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47.0116</v>
+      </c>
+      <c r="E11" t="n">
+        <v>53.2363</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>26.1822</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35.4358</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50.0523</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60.8106</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28.7928</v>
+      </c>
+      <c r="C13" t="n">
+        <v>35.4627</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50.877</v>
+      </c>
+      <c r="E13" t="n">
+        <v>60.3297</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>23.7495</v>
+      </c>
+      <c r="C14" t="n">
+        <v>35.1277</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50.5185</v>
+      </c>
+      <c r="E14" t="n">
+        <v>61.0223</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25.5397</v>
+      </c>
+      <c r="C15" t="n">
+        <v>34.9812</v>
+      </c>
+      <c r="D15" t="n">
+        <v>51.0176</v>
+      </c>
+      <c r="E15" t="n">
+        <v>61.0672</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>26.5639</v>
+      </c>
+      <c r="C16" t="n">
+        <v>34.6496</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50.5903</v>
+      </c>
+      <c r="E16" t="n">
+        <v>58.477</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>25.6625</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35.3404</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50.9022</v>
+      </c>
+      <c r="E17" t="n">
+        <v>60.2236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4807,7 +5079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4840,6 +5112,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10.7201</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.8342</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.4049</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.1345</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20.0486</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19.8854</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.6907</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31.182</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>27.1759</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.5581</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.6582</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39.338</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20.9014</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26.8307</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.7685</v>
+      </c>
+      <c r="E5" t="n">
+        <v>42.3133</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>24.6838</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31.5998</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.1285</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43.8475</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>29.6755</v>
+      </c>
+      <c r="C7" t="n">
+        <v>36.7546</v>
+      </c>
+      <c r="D7" t="n">
+        <v>42.562</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.6734</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>21.5767</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33.6698</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40.6385</v>
+      </c>
+      <c r="E8" t="n">
+        <v>47.572</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24.6068</v>
+      </c>
+      <c r="C9" t="n">
+        <v>34.2667</v>
+      </c>
+      <c r="D9" t="n">
+        <v>43.406</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50.2464</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>27.2783</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34.2948</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45.992</v>
+      </c>
+      <c r="E10" t="n">
+        <v>53.4665</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24.8938</v>
+      </c>
+      <c r="C11" t="n">
+        <v>34.4587</v>
+      </c>
+      <c r="D11" t="n">
+        <v>48.8429</v>
+      </c>
+      <c r="E11" t="n">
+        <v>57.961</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>26.9863</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34.8179</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50.0589</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60.9518</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>29.6041</v>
+      </c>
+      <c r="C13" t="n">
+        <v>35.5983</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50.3496</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58.4938</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24.0808</v>
+      </c>
+      <c r="C14" t="n">
+        <v>35.6121</v>
+      </c>
+      <c r="D14" t="n">
+        <v>51.461</v>
+      </c>
+      <c r="E14" t="n">
+        <v>58.9731</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>26.1659</v>
+      </c>
+      <c r="C15" t="n">
+        <v>35.4986</v>
+      </c>
+      <c r="D15" t="n">
+        <v>51.0123</v>
+      </c>
+      <c r="E15" t="n">
+        <v>61.6489</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>27.4807</v>
+      </c>
+      <c r="C16" t="n">
+        <v>35.8532</v>
+      </c>
+      <c r="D16" t="n">
+        <v>51.2649</v>
+      </c>
+      <c r="E16" t="n">
+        <v>62.0419</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>26.3234</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35.6587</v>
+      </c>
+      <c r="D17" t="n">
+        <v>48.9551</v>
+      </c>
+      <c r="E17" t="n">
+        <v>60.8027</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4852,7 +5396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4885,6 +5429,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13.0469</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.9703</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.1491</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22.5559</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23.2398</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.4017</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.4439</v>
+      </c>
+      <c r="E3" t="n">
+        <v>33.8863</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32.2241</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29.7252</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.169</v>
+      </c>
+      <c r="E4" t="n">
+        <v>44.2695</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>26.5487</v>
+      </c>
+      <c r="C5" t="n">
+        <v>28.7364</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.9413</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50.2623</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31.6417</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33.3067</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41.787</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50.8007</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>37.5909</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38.4203</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43.8916</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.5176</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>33.8965</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35.0477</v>
+      </c>
+      <c r="D8" t="n">
+        <v>47.0144</v>
+      </c>
+      <c r="E8" t="n">
+        <v>51.0229</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>34.4664</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35.056</v>
+      </c>
+      <c r="D9" t="n">
+        <v>48.5819</v>
+      </c>
+      <c r="E9" t="n">
+        <v>59.748</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33.782</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34.962</v>
+      </c>
+      <c r="D10" t="n">
+        <v>49.4228</v>
+      </c>
+      <c r="E10" t="n">
+        <v>59.6364</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>34.9158</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35.725</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50.2341</v>
+      </c>
+      <c r="E11" t="n">
+        <v>58.4053</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>34.9273</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35.1595</v>
+      </c>
+      <c r="D12" t="n">
+        <v>51.2497</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60.271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>35.0242</v>
+      </c>
+      <c r="C13" t="n">
+        <v>36.0111</v>
+      </c>
+      <c r="D13" t="n">
+        <v>51.1119</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58.3737</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>34.7959</v>
+      </c>
+      <c r="C14" t="n">
+        <v>35.7847</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50.1755</v>
+      </c>
+      <c r="E14" t="n">
+        <v>58.3209</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35.3244</v>
+      </c>
+      <c r="C15" t="n">
+        <v>35.8197</v>
+      </c>
+      <c r="D15" t="n">
+        <v>51.0222</v>
+      </c>
+      <c r="E15" t="n">
+        <v>59.7675</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>36.0357</v>
+      </c>
+      <c r="C16" t="n">
+        <v>36.367</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50.345</v>
+      </c>
+      <c r="E16" t="n">
+        <v>58.9793</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>35.5378</v>
+      </c>
+      <c r="C17" t="n">
+        <v>36.4405</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50.5921</v>
+      </c>
+      <c r="E17" t="n">
+        <v>58.3837</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4897,7 +5713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4930,6 +5746,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.77629</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.8012</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.705</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19.6339</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.30344</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18.8954</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.1816</v>
+      </c>
+      <c r="E3" t="n">
+        <v>36.8552</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.4109</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.8797</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.8958</v>
+      </c>
+      <c r="E4" t="n">
+        <v>51.2592</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15.8756</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26.5903</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.4357</v>
+      </c>
+      <c r="E5" t="n">
+        <v>58.827</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19.1719</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30.1701</v>
+      </c>
+      <c r="D6" t="n">
+        <v>51.7201</v>
+      </c>
+      <c r="E6" t="n">
+        <v>68.56399999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.3804</v>
+      </c>
+      <c r="C7" t="n">
+        <v>35.2091</v>
+      </c>
+      <c r="D7" t="n">
+        <v>61.158</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81.29900000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.2085</v>
+      </c>
+      <c r="C8" t="n">
+        <v>34.0946</v>
+      </c>
+      <c r="D8" t="n">
+        <v>55.1501</v>
+      </c>
+      <c r="E8" t="n">
+        <v>68.8095</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20.555</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33.7002</v>
+      </c>
+      <c r="D9" t="n">
+        <v>54.8997</v>
+      </c>
+      <c r="E9" t="n">
+        <v>72.9522</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>21.0152</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33.7915</v>
+      </c>
+      <c r="D10" t="n">
+        <v>55.9346</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71.7683</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21.1278</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33.962</v>
+      </c>
+      <c r="D11" t="n">
+        <v>55.169</v>
+      </c>
+      <c r="E11" t="n">
+        <v>73.9834</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>21.401</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33.6669</v>
+      </c>
+      <c r="D12" t="n">
+        <v>56.7954</v>
+      </c>
+      <c r="E12" t="n">
+        <v>77.04179999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>21.2814</v>
+      </c>
+      <c r="C13" t="n">
+        <v>34.5118</v>
+      </c>
+      <c r="D13" t="n">
+        <v>57.0679</v>
+      </c>
+      <c r="E13" t="n">
+        <v>75.48399999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21.2223</v>
+      </c>
+      <c r="C14" t="n">
+        <v>34.5862</v>
+      </c>
+      <c r="D14" t="n">
+        <v>57.3128</v>
+      </c>
+      <c r="E14" t="n">
+        <v>74.9367</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20.7608</v>
+      </c>
+      <c r="C15" t="n">
+        <v>34.4914</v>
+      </c>
+      <c r="D15" t="n">
+        <v>57.5046</v>
+      </c>
+      <c r="E15" t="n">
+        <v>76.9221</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21.1832</v>
+      </c>
+      <c r="C16" t="n">
+        <v>34.6852</v>
+      </c>
+      <c r="D16" t="n">
+        <v>58.9826</v>
+      </c>
+      <c r="E16" t="n">
+        <v>76.6491</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>21.2647</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34.7666</v>
+      </c>
+      <c r="D17" t="n">
+        <v>58.8455</v>
+      </c>
+      <c r="E17" t="n">
+        <v>78.15089999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4942,7 +6030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4973,6 +6061,278 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.77458</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.9296</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.5715</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19.685</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.37701</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18.9765</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.6732</v>
+      </c>
+      <c r="E3" t="n">
+        <v>36.8651</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.5397</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.6088</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.9255</v>
+      </c>
+      <c r="E4" t="n">
+        <v>51.2816</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15.9973</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42.7164</v>
+      </c>
+      <c r="E5" t="n">
+        <v>57.8429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19.3742</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30.1101</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50.878</v>
+      </c>
+      <c r="E6" t="n">
+        <v>67.9966</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.7697</v>
+      </c>
+      <c r="C7" t="n">
+        <v>35.3312</v>
+      </c>
+      <c r="D7" t="n">
+        <v>59.9425</v>
+      </c>
+      <c r="E7" t="n">
+        <v>79.4808</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.4264</v>
+      </c>
+      <c r="C8" t="n">
+        <v>34.0699</v>
+      </c>
+      <c r="D8" t="n">
+        <v>52.6258</v>
+      </c>
+      <c r="E8" t="n">
+        <v>70.651</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20.728</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33.9131</v>
+      </c>
+      <c r="D9" t="n">
+        <v>53.0163</v>
+      </c>
+      <c r="E9" t="n">
+        <v>72.3426</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>21.2945</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34.0497</v>
+      </c>
+      <c r="D10" t="n">
+        <v>51.7014</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71.60680000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="C11" t="n">
+        <v>34.0037</v>
+      </c>
+      <c r="D11" t="n">
+        <v>55.6338</v>
+      </c>
+      <c r="E11" t="n">
+        <v>75.13330000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>21.3557</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33.934</v>
+      </c>
+      <c r="D12" t="n">
+        <v>55.9477</v>
+      </c>
+      <c r="E12" t="n">
+        <v>73.1756</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>21.7013</v>
+      </c>
+      <c r="C13" t="n">
+        <v>34.672</v>
+      </c>
+      <c r="D13" t="n">
+        <v>56.1108</v>
+      </c>
+      <c r="E13" t="n">
+        <v>74.717</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21.2662</v>
+      </c>
+      <c r="C14" t="n">
+        <v>34.527</v>
+      </c>
+      <c r="D14" t="n">
+        <v>55.6694</v>
+      </c>
+      <c r="E14" t="n">
+        <v>75.0509</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>21.4813</v>
+      </c>
+      <c r="C15" t="n">
+        <v>34.7523</v>
+      </c>
+      <c r="D15" t="n">
+        <v>55.4182</v>
+      </c>
+      <c r="E15" t="n">
+        <v>75.7114</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21.9377</v>
+      </c>
+      <c r="C16" t="n">
+        <v>34.6774</v>
+      </c>
+      <c r="D16" t="n">
+        <v>57.6796</v>
+      </c>
+      <c r="E16" t="n">
+        <v>74.7915</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>21.8826</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34.7878</v>
+      </c>
+      <c r="D17" t="n">
+        <v>57.5771</v>
+      </c>
+      <c r="E17" t="n">
+        <v>77.05670000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5020,22 +6380,278 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.87026</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.3929</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.4566</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22.4101</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.8181</v>
+      </c>
+      <c r="C3" t="n">
+        <v>22.2509</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.8081</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40.4982</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24.283</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30.3906</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.2022</v>
+      </c>
+      <c r="E4" t="n">
+        <v>57.2395</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24.4185</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29.7913</v>
+      </c>
+      <c r="D5" t="n">
+        <v>47.717</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60.7908</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53.9306</v>
+      </c>
+      <c r="E6" t="n">
+        <v>71.41379999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34.3005</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37.7173</v>
+      </c>
+      <c r="D7" t="n">
+        <v>62.2465</v>
+      </c>
+      <c r="E7" t="n">
+        <v>79.8528</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31.2422</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36.7176</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60.3446</v>
+      </c>
+      <c r="E8" t="n">
+        <v>78.2217</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31.7851</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36.6628</v>
+      </c>
+      <c r="D9" t="n">
+        <v>61.4061</v>
+      </c>
+      <c r="E9" t="n">
+        <v>79.00700000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>32.5258</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60.5846</v>
+      </c>
+      <c r="E10" t="n">
+        <v>80.117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32.3819</v>
+      </c>
+      <c r="C11" t="n">
+        <v>36.6598</v>
+      </c>
+      <c r="D11" t="n">
+        <v>61.4618</v>
+      </c>
+      <c r="E11" t="n">
+        <v>80.8694</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32.4234</v>
+      </c>
+      <c r="C12" t="n">
+        <v>36.9037</v>
+      </c>
+      <c r="D12" t="n">
+        <v>61.4827</v>
+      </c>
+      <c r="E12" t="n">
+        <v>81.17019999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32.6309</v>
+      </c>
+      <c r="C13" t="n">
+        <v>37.2388</v>
+      </c>
+      <c r="D13" t="n">
+        <v>61.9009</v>
+      </c>
+      <c r="E13" t="n">
+        <v>81.55029999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>32.4693</v>
+      </c>
+      <c r="C14" t="n">
+        <v>37.1796</v>
+      </c>
+      <c r="D14" t="n">
+        <v>61.6791</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.4764</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>32.2997</v>
+      </c>
+      <c r="C15" t="n">
+        <v>36.8545</v>
+      </c>
+      <c r="D15" t="n">
+        <v>61.409</v>
+      </c>
+      <c r="E15" t="n">
+        <v>80.8792</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>32.2822</v>
+      </c>
+      <c r="C16" t="n">
+        <v>37.0197</v>
+      </c>
+      <c r="D16" t="n">
+        <v>61.4356</v>
+      </c>
+      <c r="E16" t="n">
+        <v>80.33750000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>33.2574</v>
+      </c>
+      <c r="C17" t="n">
+        <v>37.1615</v>
+      </c>
+      <c r="D17" t="n">
+        <v>62.5355</v>
+      </c>
+      <c r="E17" t="n">
+        <v>79.7482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="500k, 0.01" sheetId="1" state="visible" r:id="rId1"/>
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.04196</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7548</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.5965</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.1211</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.9593</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.1952</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.9931</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.6191</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>31.8691</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>29.1933</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.0212</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.0733</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>30.7886</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>31.0243</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>30.3046</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.2738</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.8239</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.1098</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.4315</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.4453</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>22.8333</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.6506</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.7991</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.586</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.6552</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>16.9317</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>16.0848</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>16.3772</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.8073</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>16.3375</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>16.3003</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>16.4925</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.8698</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.1979</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.226</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.5083</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.2833</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.809</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.5411</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.648</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.5141</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.696</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.562</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.6898</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.7771</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.6172</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>40.1725</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.233</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.014760000000001</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7253</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.2607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.5955</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>25.8655</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>27.8528</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.2896</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.4791</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>32.5906</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>32.0825</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.1665</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.3791</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.3403</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.6472</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7387</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.6481</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.7263</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.9888</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1975</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.3554</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.0146</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.4836</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.1334</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.3752</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.058</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.4598</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.4539</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.2711</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.6766</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.4165</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.297</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.5872</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.867</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.8568</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.0436</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.7699</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.3931</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>12.9162</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>25.3072</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>36.1843</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.6761</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>24.4303</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.3513</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>31.213</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.823</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8533</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.6766</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.75653</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.6313</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.9494</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>31.5999</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.3215</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.0275</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.7959</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.2449</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.0444</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.5689</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.7024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.6463</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.7974</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.8285</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.7665</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.8454</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5546</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.373</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.1499</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.8795</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.456</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>16.4204</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>15.7672</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>14.967</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>15.9969</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.8365</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.5373</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.3003</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.3664</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.3564</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.6061</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.5156</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.2155</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.1683</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>34.1297</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>44.6755</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.6211</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.7039</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>33.2518</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.6154</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.9122</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0458</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.0682</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.9944</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.1704</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.0711</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>36.2356</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2473</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.08628</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.2805</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.6583</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0278</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.3115</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.9464</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.429</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.6642</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.6046</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.5257</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.8832</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.5263</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.4168</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.5133</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9753</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.5673</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.224</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.5179</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1107</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0303</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4426</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.1139</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4737</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.5707</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>18.4397</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.7371</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.9475</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.448</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6857</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.489</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.5141</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.358</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.4487</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.2258</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.5025</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.9713</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.5319</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.4495</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.2362</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7844</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.7962</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.9492</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.1088</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.8895</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>41.5491</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5762</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.7578</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.7522</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.09909</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.3101</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.7179</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.2652</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.5296</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.98</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.674</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.0632</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8636</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.1339</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7174</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.6251</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1161</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.9719</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9311</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.909</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.1984</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.6114</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.403</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.5845</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.2278</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4989</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.2178</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>19.597</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.323</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.3089</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.4284</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.3952</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.2446</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.7765</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.6216</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.1478</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.7691</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.9245</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.2667</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>38.9787</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.5341</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6022</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.4625</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1908</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.5839</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.3806</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>41.092</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.9808</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5043</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.8637</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>41.843</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.50034</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.8289</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.3146</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.209</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.955</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>34.7817</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3239</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>38.1812</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.8878</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.009</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.3024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.8075</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>38.1555</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.9911</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8898</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>38.1378</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5142</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.5052</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.8285</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>30.4771</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>19.2644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.907</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.0008</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.8152</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>20.8086</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>19.8123</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>18.3327</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>18.6433</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6417</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.8255</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.8327</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.8783</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.4315</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.88</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.26</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.293</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.9577</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.6963</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.2567</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.0037</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.8414</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.8774</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.0872</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.7784</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3415</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>42.2976</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8443</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>42.8458</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4081,19 +4789,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3747</v>
+        <v>10.2857</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9138</v>
+        <v>12.8416</v>
       </c>
       <c r="D2" t="n">
-        <v>18.127</v>
+        <v>17.5831</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.274</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3572</v>
+        <v>19.3832</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3043</v>
+        <v>19.2127</v>
       </c>
       <c r="D3" t="n">
-        <v>28.9384</v>
+        <v>28.0345</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34.2561</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.8042</v>
+        <v>25.7008</v>
       </c>
       <c r="C4" t="n">
-        <v>23.9355</v>
+        <v>24.3961</v>
       </c>
       <c r="D4" t="n">
-        <v>35.1984</v>
+        <v>32.0184</v>
+      </c>
+      <c r="E4" t="n">
+        <v>38.9555</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.3684</v>
+        <v>20.6449</v>
       </c>
       <c r="C5" t="n">
-        <v>26.6522</v>
+        <v>26.9682</v>
       </c>
       <c r="D5" t="n">
-        <v>37.0612</v>
+        <v>34.0228</v>
+      </c>
+      <c r="E5" t="n">
+        <v>43.7843</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.4348</v>
+        <v>24.2721</v>
       </c>
       <c r="C6" t="n">
-        <v>31.3232</v>
+        <v>31.3551</v>
       </c>
       <c r="D6" t="n">
-        <v>38.718</v>
+        <v>38.371</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43.6128</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0456</v>
+        <v>28.8361</v>
       </c>
       <c r="C7" t="n">
-        <v>36.4553</v>
+        <v>36.8805</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7043</v>
+        <v>38.7057</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.9111</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.0985</v>
+        <v>21.2058</v>
       </c>
       <c r="C8" t="n">
-        <v>34.325</v>
+        <v>34.4344</v>
       </c>
       <c r="D8" t="n">
-        <v>39.7274</v>
+        <v>40.307</v>
+      </c>
+      <c r="E8" t="n">
+        <v>46.0429</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.1455</v>
+        <v>23.9073</v>
       </c>
       <c r="C9" t="n">
-        <v>34.4679</v>
+        <v>33.8662</v>
       </c>
       <c r="D9" t="n">
-        <v>43.3101</v>
+        <v>44.4703</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48.689</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.2513</v>
+        <v>26.1497</v>
       </c>
       <c r="C10" t="n">
-        <v>34.0617</v>
+        <v>34.8907</v>
       </c>
       <c r="D10" t="n">
-        <v>46.338</v>
+        <v>46.0398</v>
+      </c>
+      <c r="E10" t="n">
+        <v>51.9654</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.1919</v>
+        <v>24.1033</v>
       </c>
       <c r="C11" t="n">
-        <v>34.4455</v>
+        <v>34.9105</v>
       </c>
       <c r="D11" t="n">
-        <v>48.4528</v>
+        <v>47.0116</v>
+      </c>
+      <c r="E11" t="n">
+        <v>53.2363</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.3728</v>
+        <v>26.1822</v>
       </c>
       <c r="C12" t="n">
-        <v>34.7979</v>
+        <v>35.4358</v>
       </c>
       <c r="D12" t="n">
-        <v>51.2082</v>
+        <v>50.0523</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60.8106</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.927</v>
+        <v>28.7928</v>
       </c>
       <c r="C13" t="n">
-        <v>35.018</v>
+        <v>35.4627</v>
       </c>
       <c r="D13" t="n">
-        <v>51.3362</v>
+        <v>50.877</v>
+      </c>
+      <c r="E13" t="n">
+        <v>60.3297</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1775</v>
+        <v>23.7495</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5085</v>
+        <v>35.1277</v>
       </c>
       <c r="D14" t="n">
-        <v>51.9386</v>
+        <v>50.5185</v>
+      </c>
+      <c r="E14" t="n">
+        <v>61.0223</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.543</v>
+        <v>25.5397</v>
       </c>
       <c r="C15" t="n">
-        <v>34.9304</v>
+        <v>34.9812</v>
       </c>
       <c r="D15" t="n">
-        <v>52.0904</v>
+        <v>51.0176</v>
+      </c>
+      <c r="E15" t="n">
+        <v>61.0672</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.8394</v>
+        <v>26.5639</v>
       </c>
       <c r="C16" t="n">
-        <v>34.8776</v>
+        <v>34.6496</v>
       </c>
       <c r="D16" t="n">
-        <v>52.0947</v>
+        <v>50.5903</v>
+      </c>
+      <c r="E16" t="n">
+        <v>58.477</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.583</v>
+        <v>25.6625</v>
       </c>
       <c r="C17" t="n">
-        <v>34.8513</v>
+        <v>35.3404</v>
       </c>
       <c r="D17" t="n">
-        <v>51.1492</v>
+        <v>50.9022</v>
+      </c>
+      <c r="E17" t="n">
+        <v>60.2236</v>
       </c>
     </row>
   </sheetData>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4345,19 +5106,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.6848</v>
+        <v>10.7201</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9327</v>
+        <v>12.8342</v>
       </c>
       <c r="D2" t="n">
-        <v>17.946</v>
+        <v>17.4049</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.1345</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.1047</v>
+        <v>20.0486</v>
       </c>
       <c r="C3" t="n">
-        <v>20.4022</v>
+        <v>19.8854</v>
       </c>
       <c r="D3" t="n">
-        <v>28.1315</v>
+        <v>26.6907</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31.182</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.3517</v>
+        <v>27.1759</v>
       </c>
       <c r="C4" t="n">
-        <v>23.9125</v>
+        <v>25.5581</v>
       </c>
       <c r="D4" t="n">
-        <v>35.2922</v>
+        <v>35.6582</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39.338</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.8216</v>
+        <v>20.9014</v>
       </c>
       <c r="C5" t="n">
-        <v>26.7243</v>
+        <v>26.8307</v>
       </c>
       <c r="D5" t="n">
-        <v>35.7531</v>
+        <v>35.7685</v>
+      </c>
+      <c r="E5" t="n">
+        <v>42.3133</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.8949</v>
+        <v>24.6838</v>
       </c>
       <c r="C6" t="n">
-        <v>31.0909</v>
+        <v>31.5998</v>
       </c>
       <c r="D6" t="n">
-        <v>36.9292</v>
+        <v>38.1285</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43.8475</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9125</v>
+        <v>29.6755</v>
       </c>
       <c r="C7" t="n">
-        <v>36.434</v>
+        <v>36.7546</v>
       </c>
       <c r="D7" t="n">
-        <v>42.2268</v>
+        <v>42.562</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.6734</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.7859</v>
+        <v>21.5767</v>
       </c>
       <c r="C8" t="n">
-        <v>33.3065</v>
+        <v>33.6698</v>
       </c>
       <c r="D8" t="n">
-        <v>41.8939</v>
+        <v>40.6385</v>
+      </c>
+      <c r="E8" t="n">
+        <v>47.572</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.0106</v>
+        <v>24.6068</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6803</v>
+        <v>34.2667</v>
       </c>
       <c r="D9" t="n">
-        <v>43.4244</v>
+        <v>43.406</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50.2464</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.1237</v>
+        <v>27.2783</v>
       </c>
       <c r="C10" t="n">
-        <v>33.913</v>
+        <v>34.2948</v>
       </c>
       <c r="D10" t="n">
-        <v>48.6614</v>
+        <v>45.992</v>
+      </c>
+      <c r="E10" t="n">
+        <v>53.4665</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8681</v>
+        <v>24.8938</v>
       </c>
       <c r="C11" t="n">
-        <v>34.3054</v>
+        <v>34.4587</v>
       </c>
       <c r="D11" t="n">
-        <v>51.2371</v>
+        <v>48.8429</v>
+      </c>
+      <c r="E11" t="n">
+        <v>57.961</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1451</v>
+        <v>26.9863</v>
       </c>
       <c r="C12" t="n">
-        <v>34.8379</v>
+        <v>34.8179</v>
       </c>
       <c r="D12" t="n">
-        <v>49.9596</v>
+        <v>50.0589</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60.9518</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8993</v>
+        <v>29.6041</v>
       </c>
       <c r="C13" t="n">
-        <v>34.9476</v>
+        <v>35.5983</v>
       </c>
       <c r="D13" t="n">
-        <v>51.9662</v>
+        <v>50.3496</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58.4938</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1835</v>
+        <v>24.0808</v>
       </c>
       <c r="C14" t="n">
-        <v>35.2972</v>
+        <v>35.6121</v>
       </c>
       <c r="D14" t="n">
-        <v>50.515</v>
+        <v>51.461</v>
+      </c>
+      <c r="E14" t="n">
+        <v>58.9731</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.26</v>
+        <v>26.1659</v>
       </c>
       <c r="C15" t="n">
-        <v>35.6223</v>
+        <v>35.4986</v>
       </c>
       <c r="D15" t="n">
-        <v>50.9821</v>
+        <v>51.0123</v>
+      </c>
+      <c r="E15" t="n">
+        <v>61.6489</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.7812</v>
+        <v>27.4807</v>
       </c>
       <c r="C16" t="n">
-        <v>35.3537</v>
+        <v>35.8532</v>
       </c>
       <c r="D16" t="n">
-        <v>50.9783</v>
+        <v>51.2649</v>
+      </c>
+      <c r="E16" t="n">
+        <v>62.0419</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.2295</v>
+        <v>26.3234</v>
       </c>
       <c r="C17" t="n">
-        <v>35.4886</v>
+        <v>35.6587</v>
       </c>
       <c r="D17" t="n">
-        <v>51.2703</v>
+        <v>48.9551</v>
+      </c>
+      <c r="E17" t="n">
+        <v>60.8027</v>
       </c>
     </row>
   </sheetData>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4609,19 +5423,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0025</v>
+        <v>13.0469</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0454</v>
+        <v>13.9703</v>
       </c>
       <c r="D2" t="n">
-        <v>19.7605</v>
+        <v>19.1491</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22.5559</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.2941</v>
+        <v>23.2398</v>
       </c>
       <c r="C3" t="n">
-        <v>23.6353</v>
+        <v>23.4017</v>
       </c>
       <c r="D3" t="n">
-        <v>31.0266</v>
+        <v>30.4439</v>
+      </c>
+      <c r="E3" t="n">
+        <v>33.8863</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.7625</v>
+        <v>32.2241</v>
       </c>
       <c r="C4" t="n">
-        <v>29.6902</v>
+        <v>29.7252</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3966</v>
+        <v>36.169</v>
+      </c>
+      <c r="E4" t="n">
+        <v>44.2695</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.7902</v>
+        <v>26.5487</v>
       </c>
       <c r="C5" t="n">
-        <v>29.0182</v>
+        <v>28.7364</v>
       </c>
       <c r="D5" t="n">
-        <v>37.6939</v>
+        <v>34.9413</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50.2623</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.872</v>
+        <v>31.6417</v>
       </c>
       <c r="C6" t="n">
-        <v>32.778</v>
+        <v>33.3067</v>
       </c>
       <c r="D6" t="n">
-        <v>43.7076</v>
+        <v>41.787</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50.8007</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.6669</v>
+        <v>37.5909</v>
       </c>
       <c r="C7" t="n">
-        <v>38.2186</v>
+        <v>38.4203</v>
       </c>
       <c r="D7" t="n">
-        <v>44.8174</v>
+        <v>43.8916</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.5176</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.7029</v>
+        <v>33.8965</v>
       </c>
       <c r="C8" t="n">
-        <v>34.3952</v>
+        <v>35.0477</v>
       </c>
       <c r="D8" t="n">
-        <v>49.0155</v>
+        <v>47.0144</v>
+      </c>
+      <c r="E8" t="n">
+        <v>51.0229</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3587</v>
+        <v>34.4664</v>
       </c>
       <c r="C9" t="n">
-        <v>34.5368</v>
+        <v>35.056</v>
       </c>
       <c r="D9" t="n">
-        <v>50.026</v>
+        <v>48.5819</v>
+      </c>
+      <c r="E9" t="n">
+        <v>59.748</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.0904</v>
+        <v>33.782</v>
       </c>
       <c r="C10" t="n">
-        <v>34.3419</v>
+        <v>34.962</v>
       </c>
       <c r="D10" t="n">
-        <v>48.8978</v>
+        <v>49.4228</v>
+      </c>
+      <c r="E10" t="n">
+        <v>59.6364</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.4429</v>
+        <v>34.9158</v>
       </c>
       <c r="C11" t="n">
-        <v>34.7539</v>
+        <v>35.725</v>
       </c>
       <c r="D11" t="n">
-        <v>51.5799</v>
+        <v>50.2341</v>
+      </c>
+      <c r="E11" t="n">
+        <v>58.4053</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.9157</v>
+        <v>34.9273</v>
       </c>
       <c r="C12" t="n">
-        <v>35.1497</v>
+        <v>35.1595</v>
       </c>
       <c r="D12" t="n">
-        <v>51.4856</v>
+        <v>51.2497</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60.271</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.3094</v>
+        <v>35.0242</v>
       </c>
       <c r="C13" t="n">
-        <v>35.8474</v>
+        <v>36.0111</v>
       </c>
       <c r="D13" t="n">
-        <v>51.9401</v>
+        <v>51.1119</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58.3737</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.3355</v>
+        <v>34.7959</v>
       </c>
       <c r="C14" t="n">
-        <v>35.9253</v>
+        <v>35.7847</v>
       </c>
       <c r="D14" t="n">
-        <v>52.1228</v>
+        <v>50.1755</v>
+      </c>
+      <c r="E14" t="n">
+        <v>58.3209</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.5891</v>
+        <v>35.3244</v>
       </c>
       <c r="C15" t="n">
-        <v>36.1861</v>
+        <v>35.8197</v>
       </c>
       <c r="D15" t="n">
-        <v>50.4738</v>
+        <v>51.0222</v>
+      </c>
+      <c r="E15" t="n">
+        <v>59.7675</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.6682</v>
+        <v>36.0357</v>
       </c>
       <c r="C16" t="n">
-        <v>36.4805</v>
+        <v>36.367</v>
       </c>
       <c r="D16" t="n">
-        <v>51.1163</v>
+        <v>50.345</v>
+      </c>
+      <c r="E16" t="n">
+        <v>58.9793</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.7883</v>
+        <v>35.5378</v>
       </c>
       <c r="C17" t="n">
-        <v>36.2906</v>
+        <v>36.4405</v>
       </c>
       <c r="D17" t="n">
-        <v>50.1981</v>
+        <v>50.5921</v>
+      </c>
+      <c r="E17" t="n">
+        <v>58.3837</v>
       </c>
     </row>
   </sheetData>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4873,19 +5740,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77717</v>
+        <v>4.77629</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9189</v>
+        <v>10.8012</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0465</v>
+        <v>14.705</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19.6339</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.327870000000001</v>
+        <v>9.30344</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9682</v>
+        <v>18.8954</v>
       </c>
       <c r="D3" t="n">
-        <v>28.7702</v>
+        <v>28.1816</v>
+      </c>
+      <c r="E3" t="n">
+        <v>36.8552</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4621</v>
+        <v>13.4109</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1196</v>
+        <v>25.8797</v>
       </c>
       <c r="D4" t="n">
-        <v>40.7979</v>
+        <v>39.8958</v>
+      </c>
+      <c r="E4" t="n">
+        <v>51.2592</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8633</v>
+        <v>15.8756</v>
       </c>
       <c r="C5" t="n">
-        <v>26.2491</v>
+        <v>26.5903</v>
       </c>
       <c r="D5" t="n">
-        <v>44.5411</v>
+        <v>43.4357</v>
+      </c>
+      <c r="E5" t="n">
+        <v>58.827</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1702</v>
+        <v>19.1719</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9246</v>
+        <v>30.1701</v>
       </c>
       <c r="D6" t="n">
-        <v>53.2735</v>
+        <v>51.7201</v>
+      </c>
+      <c r="E6" t="n">
+        <v>68.56399999999999</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.422</v>
+        <v>22.3804</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0596</v>
+        <v>35.2091</v>
       </c>
       <c r="D7" t="n">
-        <v>62.7217</v>
+        <v>61.158</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81.29900000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3019</v>
+        <v>20.2085</v>
       </c>
       <c r="C8" t="n">
-        <v>33.4798</v>
+        <v>34.0946</v>
       </c>
       <c r="D8" t="n">
-        <v>55.5784</v>
+        <v>55.1501</v>
+      </c>
+      <c r="E8" t="n">
+        <v>68.8095</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.4255</v>
+        <v>20.555</v>
       </c>
       <c r="C9" t="n">
-        <v>33.3847</v>
+        <v>33.7002</v>
       </c>
       <c r="D9" t="n">
-        <v>54.7322</v>
+        <v>54.8997</v>
+      </c>
+      <c r="E9" t="n">
+        <v>72.9522</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8096</v>
+        <v>21.0152</v>
       </c>
       <c r="C10" t="n">
-        <v>33.7661</v>
+        <v>33.7915</v>
       </c>
       <c r="D10" t="n">
-        <v>58.0257</v>
+        <v>55.9346</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71.7683</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1104</v>
+        <v>21.1278</v>
       </c>
       <c r="C11" t="n">
-        <v>33.5501</v>
+        <v>33.962</v>
       </c>
       <c r="D11" t="n">
-        <v>56.2036</v>
+        <v>55.169</v>
+      </c>
+      <c r="E11" t="n">
+        <v>73.9834</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9975</v>
+        <v>21.401</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9313</v>
+        <v>33.6669</v>
       </c>
       <c r="D12" t="n">
-        <v>58.5992</v>
+        <v>56.7954</v>
+      </c>
+      <c r="E12" t="n">
+        <v>77.04179999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1029</v>
+        <v>21.2814</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2762</v>
+        <v>34.5118</v>
       </c>
       <c r="D13" t="n">
-        <v>57.9203</v>
+        <v>57.0679</v>
+      </c>
+      <c r="E13" t="n">
+        <v>75.48399999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.382</v>
+        <v>21.2223</v>
       </c>
       <c r="C14" t="n">
-        <v>34.0439</v>
+        <v>34.5862</v>
       </c>
       <c r="D14" t="n">
-        <v>58.6385</v>
+        <v>57.3128</v>
+      </c>
+      <c r="E14" t="n">
+        <v>74.9367</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2896</v>
+        <v>20.7608</v>
       </c>
       <c r="C15" t="n">
-        <v>34.3668</v>
+        <v>34.4914</v>
       </c>
       <c r="D15" t="n">
-        <v>60.5055</v>
+        <v>57.5046</v>
+      </c>
+      <c r="E15" t="n">
+        <v>76.9221</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2207</v>
+        <v>21.1832</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4917</v>
+        <v>34.6852</v>
       </c>
       <c r="D16" t="n">
-        <v>59.7491</v>
+        <v>58.9826</v>
+      </c>
+      <c r="E16" t="n">
+        <v>76.6491</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.495</v>
+        <v>21.2647</v>
       </c>
       <c r="C17" t="n">
-        <v>34.3089</v>
+        <v>34.7666</v>
       </c>
       <c r="D17" t="n">
-        <v>60.1866</v>
+        <v>58.8455</v>
+      </c>
+      <c r="E17" t="n">
+        <v>78.15089999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5137,19 +6057,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.78531</v>
+        <v>4.77458</v>
       </c>
       <c r="C2" t="n">
-        <v>10.994</v>
+        <v>10.9296</v>
       </c>
       <c r="D2" t="n">
-        <v>14.9212</v>
+        <v>14.5715</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19.685</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.39217</v>
+        <v>9.37701</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0411</v>
+        <v>18.9765</v>
       </c>
       <c r="D3" t="n">
-        <v>28.3836</v>
+        <v>27.6732</v>
+      </c>
+      <c r="E3" t="n">
+        <v>36.8651</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5106</v>
+        <v>13.5397</v>
       </c>
       <c r="C4" t="n">
-        <v>25.5798</v>
+        <v>25.6088</v>
       </c>
       <c r="D4" t="n">
-        <v>39.4686</v>
+        <v>38.9255</v>
+      </c>
+      <c r="E4" t="n">
+        <v>51.2816</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9286</v>
+        <v>15.9973</v>
       </c>
       <c r="C5" t="n">
-        <v>26.4614</v>
+        <v>26.83</v>
       </c>
       <c r="D5" t="n">
-        <v>42.0872</v>
+        <v>42.7164</v>
+      </c>
+      <c r="E5" t="n">
+        <v>57.8429</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4441</v>
+        <v>19.3742</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9888</v>
+        <v>30.1101</v>
       </c>
       <c r="D6" t="n">
-        <v>52.0606</v>
+        <v>50.878</v>
+      </c>
+      <c r="E6" t="n">
+        <v>67.9966</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8383</v>
+        <v>22.7697</v>
       </c>
       <c r="C7" t="n">
-        <v>35.135</v>
+        <v>35.3312</v>
       </c>
       <c r="D7" t="n">
-        <v>60.9878</v>
+        <v>59.9425</v>
+      </c>
+      <c r="E7" t="n">
+        <v>79.4808</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5139</v>
+        <v>20.4264</v>
       </c>
       <c r="C8" t="n">
-        <v>33.7615</v>
+        <v>34.0699</v>
       </c>
       <c r="D8" t="n">
-        <v>54.1168</v>
+        <v>52.6258</v>
+      </c>
+      <c r="E8" t="n">
+        <v>70.651</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9039</v>
+        <v>20.728</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0159</v>
+        <v>33.9131</v>
       </c>
       <c r="D9" t="n">
-        <v>52.9744</v>
+        <v>53.0163</v>
+      </c>
+      <c r="E9" t="n">
+        <v>72.3426</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2713</v>
+        <v>21.2945</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9798</v>
+        <v>34.0497</v>
       </c>
       <c r="D10" t="n">
-        <v>53.4625</v>
+        <v>51.7014</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71.60680000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6401</v>
+        <v>21.39</v>
       </c>
       <c r="C11" t="n">
-        <v>33.7893</v>
+        <v>34.0037</v>
       </c>
       <c r="D11" t="n">
-        <v>54.7316</v>
+        <v>55.6338</v>
+      </c>
+      <c r="E11" t="n">
+        <v>75.13330000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.5748</v>
+        <v>21.3557</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9919</v>
+        <v>33.934</v>
       </c>
       <c r="D12" t="n">
-        <v>57.2104</v>
+        <v>55.9477</v>
+      </c>
+      <c r="E12" t="n">
+        <v>73.1756</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.7902</v>
+        <v>21.7013</v>
       </c>
       <c r="C13" t="n">
-        <v>34.6301</v>
+        <v>34.672</v>
       </c>
       <c r="D13" t="n">
-        <v>56.823</v>
+        <v>56.1108</v>
+      </c>
+      <c r="E13" t="n">
+        <v>74.717</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.4217</v>
+        <v>21.2662</v>
       </c>
       <c r="C14" t="n">
-        <v>34.3608</v>
+        <v>34.527</v>
       </c>
       <c r="D14" t="n">
-        <v>57.8808</v>
+        <v>55.6694</v>
+      </c>
+      <c r="E14" t="n">
+        <v>75.0509</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.74</v>
+        <v>21.4813</v>
       </c>
       <c r="C15" t="n">
-        <v>34.1683</v>
+        <v>34.7523</v>
       </c>
       <c r="D15" t="n">
-        <v>57.0933</v>
+        <v>55.4182</v>
+      </c>
+      <c r="E15" t="n">
+        <v>75.7114</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.8985</v>
+        <v>21.9377</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5562</v>
+        <v>34.6774</v>
       </c>
       <c r="D16" t="n">
-        <v>57.5053</v>
+        <v>57.6796</v>
+      </c>
+      <c r="E16" t="n">
+        <v>74.7915</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.4247</v>
+        <v>21.8826</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7803</v>
+        <v>34.7878</v>
       </c>
       <c r="D17" t="n">
-        <v>58.3302</v>
+        <v>57.5771</v>
+      </c>
+      <c r="E17" t="n">
+        <v>77.05670000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5374,10 +6347,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5401,19 +6374,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.89866</v>
+        <v>8.87026</v>
       </c>
       <c r="C2" t="n">
-        <v>13.562</v>
+        <v>13.3929</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0679</v>
+        <v>18.4566</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22.4101</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0902</v>
+        <v>16.8181</v>
       </c>
       <c r="C3" t="n">
-        <v>22.8153</v>
+        <v>22.2509</v>
       </c>
       <c r="D3" t="n">
-        <v>34.7079</v>
+        <v>33.8081</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40.4982</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.729</v>
+        <v>24.283</v>
       </c>
       <c r="C4" t="n">
-        <v>30.0845</v>
+        <v>30.3906</v>
       </c>
       <c r="D4" t="n">
-        <v>49.7259</v>
+        <v>48.2022</v>
+      </c>
+      <c r="E4" t="n">
+        <v>57.2395</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.9536</v>
+        <v>24.4185</v>
       </c>
       <c r="C5" t="n">
-        <v>29.488</v>
+        <v>29.7913</v>
       </c>
       <c r="D5" t="n">
-        <v>48.3901</v>
+        <v>47.717</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60.7908</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2794</v>
+        <v>28.43</v>
       </c>
       <c r="C6" t="n">
-        <v>32.501</v>
+        <v>32.75</v>
       </c>
       <c r="D6" t="n">
-        <v>55.5042</v>
+        <v>53.9306</v>
+      </c>
+      <c r="E6" t="n">
+        <v>71.41379999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3919</v>
+        <v>34.3005</v>
       </c>
       <c r="C7" t="n">
-        <v>37.4716</v>
+        <v>37.7173</v>
       </c>
       <c r="D7" t="n">
-        <v>62.294</v>
+        <v>62.2465</v>
+      </c>
+      <c r="E7" t="n">
+        <v>79.8528</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.6003</v>
+        <v>31.2422</v>
       </c>
       <c r="C8" t="n">
-        <v>36.5081</v>
+        <v>36.7176</v>
       </c>
       <c r="D8" t="n">
-        <v>60.3902</v>
+        <v>60.3446</v>
+      </c>
+      <c r="E8" t="n">
+        <v>78.2217</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.9974</v>
+        <v>31.7851</v>
       </c>
       <c r="C9" t="n">
-        <v>36.2917</v>
+        <v>36.6628</v>
       </c>
       <c r="D9" t="n">
-        <v>61.0703</v>
+        <v>61.4061</v>
+      </c>
+      <c r="E9" t="n">
+        <v>79.00700000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.1198</v>
+        <v>32.5258</v>
       </c>
       <c r="C10" t="n">
-        <v>36.7296</v>
+        <v>36.8</v>
       </c>
       <c r="D10" t="n">
-        <v>62.1324</v>
+        <v>60.5846</v>
+      </c>
+      <c r="E10" t="n">
+        <v>80.117</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.4942</v>
+        <v>32.3819</v>
       </c>
       <c r="C11" t="n">
-        <v>36.532</v>
+        <v>36.6598</v>
       </c>
       <c r="D11" t="n">
-        <v>61.9252</v>
+        <v>61.4618</v>
+      </c>
+      <c r="E11" t="n">
+        <v>80.8694</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.1068</v>
+        <v>32.4234</v>
       </c>
       <c r="C12" t="n">
-        <v>36.5002</v>
+        <v>36.9037</v>
       </c>
       <c r="D12" t="n">
-        <v>62.0068</v>
+        <v>61.4827</v>
+      </c>
+      <c r="E12" t="n">
+        <v>81.17019999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.3352</v>
+        <v>32.6309</v>
       </c>
       <c r="C13" t="n">
-        <v>36.948</v>
+        <v>37.2388</v>
       </c>
       <c r="D13" t="n">
-        <v>61.9866</v>
+        <v>61.9009</v>
+      </c>
+      <c r="E13" t="n">
+        <v>81.55029999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.5502</v>
+        <v>32.4693</v>
       </c>
       <c r="C14" t="n">
-        <v>37.1123</v>
+        <v>37.1796</v>
       </c>
       <c r="D14" t="n">
-        <v>62.5933</v>
+        <v>61.6791</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.4764</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.8023</v>
+        <v>32.2997</v>
       </c>
       <c r="C15" t="n">
-        <v>36.5568</v>
+        <v>36.8545</v>
       </c>
       <c r="D15" t="n">
-        <v>63.1279</v>
+        <v>61.409</v>
+      </c>
+      <c r="E15" t="n">
+        <v>80.8792</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.9207</v>
+        <v>32.2822</v>
       </c>
       <c r="C16" t="n">
-        <v>36.7056</v>
+        <v>37.0197</v>
       </c>
       <c r="D16" t="n">
-        <v>62.9776</v>
+        <v>61.4356</v>
+      </c>
+      <c r="E16" t="n">
+        <v>80.33750000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.9732</v>
+        <v>33.2574</v>
       </c>
       <c r="C17" t="n">
-        <v>36.8027</v>
+        <v>37.1615</v>
       </c>
       <c r="D17" t="n">
-        <v>62.9494</v>
+        <v>62.5355</v>
+      </c>
+      <c r="E17" t="n">
+        <v>79.7482</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2857</v>
+        <v>10.4235</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8416</v>
+        <v>12.8238</v>
       </c>
       <c r="D2" t="n">
-        <v>17.5831</v>
+        <v>17.4671</v>
       </c>
       <c r="E2" t="n">
-        <v>21.274</v>
+        <v>21.2101</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3832</v>
+        <v>19.1323</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2127</v>
+        <v>19.4138</v>
       </c>
       <c r="D3" t="n">
-        <v>28.0345</v>
+        <v>26.9161</v>
       </c>
       <c r="E3" t="n">
-        <v>34.2561</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.7008</v>
+        <v>26.9731</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3961</v>
+        <v>24.9713</v>
       </c>
       <c r="D4" t="n">
-        <v>32.0184</v>
+        <v>32.7391</v>
       </c>
       <c r="E4" t="n">
-        <v>38.9555</v>
+        <v>40.6953</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.6449</v>
+        <v>20.8854</v>
       </c>
       <c r="C5" t="n">
-        <v>26.9682</v>
+        <v>27.5167</v>
       </c>
       <c r="D5" t="n">
-        <v>34.0228</v>
+        <v>35.7363</v>
       </c>
       <c r="E5" t="n">
-        <v>43.7843</v>
+        <v>44.1171</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.2721</v>
+        <v>24.4333</v>
       </c>
       <c r="C6" t="n">
-        <v>31.3551</v>
+        <v>31.2448</v>
       </c>
       <c r="D6" t="n">
-        <v>38.371</v>
+        <v>38.3437</v>
       </c>
       <c r="E6" t="n">
-        <v>43.6128</v>
+        <v>43.5682</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.8361</v>
+        <v>28.9304</v>
       </c>
       <c r="C7" t="n">
-        <v>36.8805</v>
+        <v>36.7374</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7057</v>
+        <v>38.4986</v>
       </c>
       <c r="E7" t="n">
-        <v>50.9111</v>
+        <v>49.9857</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.2058</v>
+        <v>20.9589</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4344</v>
+        <v>34.8377</v>
       </c>
       <c r="D8" t="n">
-        <v>40.307</v>
+        <v>39.9783</v>
       </c>
       <c r="E8" t="n">
-        <v>46.0429</v>
+        <v>47.0802</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9073</v>
+        <v>23.9366</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8662</v>
+        <v>34.7779</v>
       </c>
       <c r="D9" t="n">
-        <v>44.4703</v>
+        <v>43.7533</v>
       </c>
       <c r="E9" t="n">
-        <v>48.689</v>
+        <v>48.4084</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.1497</v>
+        <v>26.2469</v>
       </c>
       <c r="C10" t="n">
-        <v>34.8907</v>
+        <v>34.6262</v>
       </c>
       <c r="D10" t="n">
-        <v>46.0398</v>
+        <v>46.4248</v>
       </c>
       <c r="E10" t="n">
-        <v>51.9654</v>
+        <v>55.2995</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.1033</v>
+        <v>25.1672</v>
       </c>
       <c r="C11" t="n">
-        <v>34.9105</v>
+        <v>34.7648</v>
       </c>
       <c r="D11" t="n">
-        <v>47.0116</v>
+        <v>48.4511</v>
       </c>
       <c r="E11" t="n">
-        <v>53.2363</v>
+        <v>56.2396</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.1822</v>
+        <v>26.4767</v>
       </c>
       <c r="C12" t="n">
-        <v>35.4358</v>
+        <v>35.0635</v>
       </c>
       <c r="D12" t="n">
-        <v>50.0523</v>
+        <v>48.3167</v>
       </c>
       <c r="E12" t="n">
-        <v>60.8106</v>
+        <v>57.6889</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.7928</v>
+        <v>28.8405</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4627</v>
+        <v>35.0099</v>
       </c>
       <c r="D13" t="n">
-        <v>50.877</v>
+        <v>51.3714</v>
       </c>
       <c r="E13" t="n">
-        <v>60.3297</v>
+        <v>59.4951</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.7495</v>
+        <v>23.7177</v>
       </c>
       <c r="C14" t="n">
-        <v>35.1277</v>
+        <v>35.4321</v>
       </c>
       <c r="D14" t="n">
-        <v>50.5185</v>
+        <v>50.0992</v>
       </c>
       <c r="E14" t="n">
-        <v>61.0223</v>
+        <v>57.0049</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.5397</v>
+        <v>25.3353</v>
       </c>
       <c r="C15" t="n">
-        <v>34.9812</v>
+        <v>34.7992</v>
       </c>
       <c r="D15" t="n">
-        <v>51.0176</v>
+        <v>51.1862</v>
       </c>
       <c r="E15" t="n">
-        <v>61.0672</v>
+        <v>58.665</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.5639</v>
+        <v>26.9012</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6496</v>
+        <v>35.0551</v>
       </c>
       <c r="D16" t="n">
-        <v>50.5903</v>
+        <v>50.7994</v>
       </c>
       <c r="E16" t="n">
-        <v>58.477</v>
+        <v>61.6052</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.6625</v>
+        <v>25.7336</v>
       </c>
       <c r="C17" t="n">
-        <v>35.3404</v>
+        <v>35.0395</v>
       </c>
       <c r="D17" t="n">
-        <v>50.9022</v>
+        <v>51.3432</v>
       </c>
       <c r="E17" t="n">
-        <v>60.2236</v>
+        <v>61.2689</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7201</v>
+        <v>10.768</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8342</v>
+        <v>12.7645</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4049</v>
+        <v>17.2985</v>
       </c>
       <c r="E2" t="n">
-        <v>21.1345</v>
+        <v>21.0074</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0486</v>
+        <v>20.0317</v>
       </c>
       <c r="C3" t="n">
-        <v>19.8854</v>
+        <v>19.2551</v>
       </c>
       <c r="D3" t="n">
-        <v>26.6907</v>
+        <v>26.5312</v>
       </c>
       <c r="E3" t="n">
-        <v>31.182</v>
+        <v>31.7363</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.1759</v>
+        <v>27.9123</v>
       </c>
       <c r="C4" t="n">
-        <v>25.5581</v>
+        <v>26.1321</v>
       </c>
       <c r="D4" t="n">
-        <v>35.6582</v>
+        <v>33.5749</v>
       </c>
       <c r="E4" t="n">
-        <v>39.338</v>
+        <v>39.1606</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9014</v>
+        <v>20.8023</v>
       </c>
       <c r="C5" t="n">
-        <v>26.8307</v>
+        <v>27.3342</v>
       </c>
       <c r="D5" t="n">
-        <v>35.7685</v>
+        <v>35.3443</v>
       </c>
       <c r="E5" t="n">
-        <v>42.3133</v>
+        <v>41.0368</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.6838</v>
+        <v>24.7552</v>
       </c>
       <c r="C6" t="n">
-        <v>31.5998</v>
+        <v>31.1162</v>
       </c>
       <c r="D6" t="n">
-        <v>38.1285</v>
+        <v>38.356</v>
       </c>
       <c r="E6" t="n">
-        <v>43.8475</v>
+        <v>44.1558</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.6755</v>
+        <v>29.711</v>
       </c>
       <c r="C7" t="n">
-        <v>36.7546</v>
+        <v>36.6403</v>
       </c>
       <c r="D7" t="n">
-        <v>42.562</v>
+        <v>43.8758</v>
       </c>
       <c r="E7" t="n">
-        <v>50.6734</v>
+        <v>50.4944</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.5767</v>
+        <v>21.3952</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6698</v>
+        <v>33.5558</v>
       </c>
       <c r="D8" t="n">
-        <v>40.6385</v>
+        <v>40.1975</v>
       </c>
       <c r="E8" t="n">
-        <v>47.572</v>
+        <v>46.9623</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.6068</v>
+        <v>24.8462</v>
       </c>
       <c r="C9" t="n">
-        <v>34.2667</v>
+        <v>34.1593</v>
       </c>
       <c r="D9" t="n">
-        <v>43.406</v>
+        <v>42.1883</v>
       </c>
       <c r="E9" t="n">
-        <v>50.2464</v>
+        <v>50.7089</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.2783</v>
+        <v>27.6033</v>
       </c>
       <c r="C10" t="n">
-        <v>34.2948</v>
+        <v>34.2033</v>
       </c>
       <c r="D10" t="n">
-        <v>45.992</v>
+        <v>44.5901</v>
       </c>
       <c r="E10" t="n">
-        <v>53.4665</v>
+        <v>49.8308</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8938</v>
+        <v>24.877</v>
       </c>
       <c r="C11" t="n">
-        <v>34.4587</v>
+        <v>34.5627</v>
       </c>
       <c r="D11" t="n">
-        <v>48.8429</v>
+        <v>50.2934</v>
       </c>
       <c r="E11" t="n">
-        <v>57.961</v>
+        <v>58.4302</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.9863</v>
+        <v>27.1624</v>
       </c>
       <c r="C12" t="n">
-        <v>34.8179</v>
+        <v>34.5275</v>
       </c>
       <c r="D12" t="n">
-        <v>50.0589</v>
+        <v>49.1791</v>
       </c>
       <c r="E12" t="n">
-        <v>60.9518</v>
+        <v>60.4553</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6041</v>
+        <v>29.6829</v>
       </c>
       <c r="C13" t="n">
-        <v>35.5983</v>
+        <v>35.4263</v>
       </c>
       <c r="D13" t="n">
-        <v>50.3496</v>
+        <v>49.9881</v>
       </c>
       <c r="E13" t="n">
-        <v>58.4938</v>
+        <v>60.7224</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0808</v>
+        <v>23.7608</v>
       </c>
       <c r="C14" t="n">
-        <v>35.6121</v>
+        <v>35.3439</v>
       </c>
       <c r="D14" t="n">
-        <v>51.461</v>
+        <v>51.2073</v>
       </c>
       <c r="E14" t="n">
-        <v>58.9731</v>
+        <v>60.4425</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.1659</v>
+        <v>26.2801</v>
       </c>
       <c r="C15" t="n">
-        <v>35.4986</v>
+        <v>35.1978</v>
       </c>
       <c r="D15" t="n">
-        <v>51.0123</v>
+        <v>50.8477</v>
       </c>
       <c r="E15" t="n">
-        <v>61.6489</v>
+        <v>61.1226</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.4807</v>
+        <v>27.3685</v>
       </c>
       <c r="C16" t="n">
-        <v>35.8532</v>
+        <v>35.9991</v>
       </c>
       <c r="D16" t="n">
-        <v>51.2649</v>
+        <v>50.6924</v>
       </c>
       <c r="E16" t="n">
-        <v>62.0419</v>
+        <v>60.9981</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.3234</v>
+        <v>26.7634</v>
       </c>
       <c r="C17" t="n">
-        <v>35.6587</v>
+        <v>35.365</v>
       </c>
       <c r="D17" t="n">
-        <v>48.9551</v>
+        <v>51.4715</v>
       </c>
       <c r="E17" t="n">
-        <v>60.8027</v>
+        <v>62.4127</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0469</v>
+        <v>12.9756</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9703</v>
+        <v>13.8872</v>
       </c>
       <c r="D2" t="n">
-        <v>19.1491</v>
+        <v>19.0856</v>
       </c>
       <c r="E2" t="n">
-        <v>22.5559</v>
+        <v>22.4879</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.2398</v>
+        <v>23.0632</v>
       </c>
       <c r="C3" t="n">
-        <v>23.4017</v>
+        <v>23.1877</v>
       </c>
       <c r="D3" t="n">
-        <v>30.4439</v>
+        <v>30.5025</v>
       </c>
       <c r="E3" t="n">
-        <v>33.8863</v>
+        <v>33.9108</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.2241</v>
+        <v>32.4548</v>
       </c>
       <c r="C4" t="n">
-        <v>29.7252</v>
+        <v>29.4073</v>
       </c>
       <c r="D4" t="n">
-        <v>36.169</v>
+        <v>36.2453</v>
       </c>
       <c r="E4" t="n">
-        <v>44.2695</v>
+        <v>41.769</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.5487</v>
+        <v>26.7592</v>
       </c>
       <c r="C5" t="n">
-        <v>28.7364</v>
+        <v>28.9507</v>
       </c>
       <c r="D5" t="n">
-        <v>34.9413</v>
+        <v>34.5207</v>
       </c>
       <c r="E5" t="n">
-        <v>50.2623</v>
+        <v>48.9958</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6417</v>
+        <v>31.6257</v>
       </c>
       <c r="C6" t="n">
-        <v>33.3067</v>
+        <v>33.0062</v>
       </c>
       <c r="D6" t="n">
-        <v>41.787</v>
+        <v>40.8856</v>
       </c>
       <c r="E6" t="n">
-        <v>50.8007</v>
+        <v>50.9948</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.5909</v>
+        <v>37.5385</v>
       </c>
       <c r="C7" t="n">
-        <v>38.4203</v>
+        <v>38.4205</v>
       </c>
       <c r="D7" t="n">
-        <v>43.8916</v>
+        <v>49.9541</v>
       </c>
       <c r="E7" t="n">
-        <v>50.5176</v>
+        <v>51.0323</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.8965</v>
+        <v>34.0879</v>
       </c>
       <c r="C8" t="n">
-        <v>35.0477</v>
+        <v>34.4659</v>
       </c>
       <c r="D8" t="n">
-        <v>47.0144</v>
+        <v>49.3919</v>
       </c>
       <c r="E8" t="n">
-        <v>51.0229</v>
+        <v>50.903</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.4664</v>
+        <v>33.9569</v>
       </c>
       <c r="C9" t="n">
-        <v>35.056</v>
+        <v>34.4064</v>
       </c>
       <c r="D9" t="n">
-        <v>48.5819</v>
+        <v>50.8786</v>
       </c>
       <c r="E9" t="n">
-        <v>59.748</v>
+        <v>55.5663</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.782</v>
+        <v>33.899</v>
       </c>
       <c r="C10" t="n">
-        <v>34.962</v>
+        <v>34.8579</v>
       </c>
       <c r="D10" t="n">
-        <v>49.4228</v>
+        <v>50.4829</v>
       </c>
       <c r="E10" t="n">
-        <v>59.6364</v>
+        <v>58.9459</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.9158</v>
+        <v>34.7251</v>
       </c>
       <c r="C11" t="n">
-        <v>35.725</v>
+        <v>35.0866</v>
       </c>
       <c r="D11" t="n">
-        <v>50.2341</v>
+        <v>51.2927</v>
       </c>
       <c r="E11" t="n">
-        <v>58.4053</v>
+        <v>59.8877</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.9273</v>
+        <v>35.432</v>
       </c>
       <c r="C12" t="n">
-        <v>35.1595</v>
+        <v>35.7988</v>
       </c>
       <c r="D12" t="n">
-        <v>51.2497</v>
+        <v>50.6291</v>
       </c>
       <c r="E12" t="n">
-        <v>60.271</v>
+        <v>59.3467</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.0242</v>
+        <v>35.3625</v>
       </c>
       <c r="C13" t="n">
-        <v>36.0111</v>
+        <v>36.1726</v>
       </c>
       <c r="D13" t="n">
-        <v>51.1119</v>
+        <v>51.1038</v>
       </c>
       <c r="E13" t="n">
-        <v>58.3737</v>
+        <v>60.5862</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.7959</v>
+        <v>34.8709</v>
       </c>
       <c r="C14" t="n">
-        <v>35.7847</v>
+        <v>36.0902</v>
       </c>
       <c r="D14" t="n">
-        <v>50.1755</v>
+        <v>49.6255</v>
       </c>
       <c r="E14" t="n">
-        <v>58.3209</v>
+        <v>61.0512</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.3244</v>
+        <v>35.0549</v>
       </c>
       <c r="C15" t="n">
-        <v>35.8197</v>
+        <v>36.2156</v>
       </c>
       <c r="D15" t="n">
-        <v>51.0222</v>
+        <v>50.8709</v>
       </c>
       <c r="E15" t="n">
-        <v>59.7675</v>
+        <v>61.284</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.0357</v>
+        <v>35.3385</v>
       </c>
       <c r="C16" t="n">
-        <v>36.367</v>
+        <v>36.3271</v>
       </c>
       <c r="D16" t="n">
-        <v>50.345</v>
+        <v>50.5714</v>
       </c>
       <c r="E16" t="n">
-        <v>58.9793</v>
+        <v>58.2599</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.5378</v>
+        <v>35.804</v>
       </c>
       <c r="C17" t="n">
-        <v>36.4405</v>
+        <v>36.1666</v>
       </c>
       <c r="D17" t="n">
-        <v>50.5921</v>
+        <v>51.1734</v>
       </c>
       <c r="E17" t="n">
-        <v>58.3837</v>
+        <v>58.1958</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77629</v>
+        <v>4.83359</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8012</v>
+        <v>10.9471</v>
       </c>
       <c r="D2" t="n">
-        <v>14.705</v>
+        <v>14.8781</v>
       </c>
       <c r="E2" t="n">
-        <v>19.6339</v>
+        <v>19.6841</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.30344</v>
+        <v>9.384320000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8954</v>
+        <v>19.0265</v>
       </c>
       <c r="D3" t="n">
-        <v>28.1816</v>
+        <v>28.2565</v>
       </c>
       <c r="E3" t="n">
-        <v>36.8552</v>
+        <v>36.9523</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4109</v>
+        <v>13.6382</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8797</v>
+        <v>26.3826</v>
       </c>
       <c r="D4" t="n">
-        <v>39.8958</v>
+        <v>40.224</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2592</v>
+        <v>51.6206</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8756</v>
+        <v>15.8477</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5903</v>
+        <v>26.6804</v>
       </c>
       <c r="D5" t="n">
-        <v>43.4357</v>
+        <v>42.9662</v>
       </c>
       <c r="E5" t="n">
-        <v>58.827</v>
+        <v>57.5393</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1719</v>
+        <v>19.271</v>
       </c>
       <c r="C6" t="n">
-        <v>30.1701</v>
+        <v>29.9899</v>
       </c>
       <c r="D6" t="n">
-        <v>51.7201</v>
+        <v>51.5619</v>
       </c>
       <c r="E6" t="n">
-        <v>68.56399999999999</v>
+        <v>68.8117</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.3804</v>
+        <v>22.4721</v>
       </c>
       <c r="C7" t="n">
-        <v>35.2091</v>
+        <v>35.342</v>
       </c>
       <c r="D7" t="n">
-        <v>61.158</v>
+        <v>61.4741</v>
       </c>
       <c r="E7" t="n">
-        <v>81.29900000000001</v>
+        <v>81.35120000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2085</v>
+        <v>20.4965</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0946</v>
+        <v>33.757</v>
       </c>
       <c r="D8" t="n">
-        <v>55.1501</v>
+        <v>54.7313</v>
       </c>
       <c r="E8" t="n">
-        <v>68.8095</v>
+        <v>70.55029999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.555</v>
+        <v>20.7529</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7002</v>
+        <v>33.4516</v>
       </c>
       <c r="D9" t="n">
-        <v>54.8997</v>
+        <v>50.9315</v>
       </c>
       <c r="E9" t="n">
-        <v>72.9522</v>
+        <v>69.5915</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.0152</v>
+        <v>20.9241</v>
       </c>
       <c r="C10" t="n">
-        <v>33.7915</v>
+        <v>33.2277</v>
       </c>
       <c r="D10" t="n">
-        <v>55.9346</v>
+        <v>51.2796</v>
       </c>
       <c r="E10" t="n">
-        <v>71.7683</v>
+        <v>66.6409</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1278</v>
+        <v>20.7555</v>
       </c>
       <c r="C11" t="n">
-        <v>33.962</v>
+        <v>33.9077</v>
       </c>
       <c r="D11" t="n">
-        <v>55.169</v>
+        <v>56.4925</v>
       </c>
       <c r="E11" t="n">
-        <v>73.9834</v>
+        <v>72.08799999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.401</v>
+        <v>21.3551</v>
       </c>
       <c r="C12" t="n">
-        <v>33.6669</v>
+        <v>34.7417</v>
       </c>
       <c r="D12" t="n">
-        <v>56.7954</v>
+        <v>57.0226</v>
       </c>
       <c r="E12" t="n">
-        <v>77.04179999999999</v>
+        <v>75.3989</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2814</v>
+        <v>21.2393</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5118</v>
+        <v>34.589</v>
       </c>
       <c r="D13" t="n">
-        <v>57.0679</v>
+        <v>58.0954</v>
       </c>
       <c r="E13" t="n">
-        <v>75.48399999999999</v>
+        <v>74.93859999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2223</v>
+        <v>21.078</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5862</v>
+        <v>34.3581</v>
       </c>
       <c r="D14" t="n">
-        <v>57.3128</v>
+        <v>59.4743</v>
       </c>
       <c r="E14" t="n">
-        <v>74.9367</v>
+        <v>76.0125</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.7608</v>
+        <v>21.598</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4914</v>
+        <v>34.2399</v>
       </c>
       <c r="D15" t="n">
-        <v>57.5046</v>
+        <v>57.8491</v>
       </c>
       <c r="E15" t="n">
-        <v>76.9221</v>
+        <v>78.5312</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1832</v>
+        <v>21.0745</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6852</v>
+        <v>34.7101</v>
       </c>
       <c r="D16" t="n">
-        <v>58.9826</v>
+        <v>58.0594</v>
       </c>
       <c r="E16" t="n">
-        <v>76.6491</v>
+        <v>77.4192</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2647</v>
+        <v>21.4426</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7666</v>
+        <v>34.7499</v>
       </c>
       <c r="D17" t="n">
-        <v>58.8455</v>
+        <v>59.6874</v>
       </c>
       <c r="E17" t="n">
-        <v>78.15089999999999</v>
+        <v>79.7817</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77458</v>
+        <v>4.8417</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9296</v>
+        <v>11.0538</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5715</v>
+        <v>14.702</v>
       </c>
       <c r="E2" t="n">
-        <v>19.685</v>
+        <v>19.7597</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.37701</v>
+        <v>9.464309999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9765</v>
+        <v>18.9989</v>
       </c>
       <c r="D3" t="n">
-        <v>27.6732</v>
+        <v>27.9487</v>
       </c>
       <c r="E3" t="n">
-        <v>36.8651</v>
+        <v>37.0234</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5397</v>
+        <v>13.6683</v>
       </c>
       <c r="C4" t="n">
-        <v>25.6088</v>
+        <v>26.6611</v>
       </c>
       <c r="D4" t="n">
-        <v>38.9255</v>
+        <v>39.6313</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2816</v>
+        <v>51.7228</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9973</v>
+        <v>16.0806</v>
       </c>
       <c r="C5" t="n">
-        <v>26.83</v>
+        <v>26.9346</v>
       </c>
       <c r="D5" t="n">
-        <v>42.7164</v>
+        <v>41.737</v>
       </c>
       <c r="E5" t="n">
-        <v>57.8429</v>
+        <v>57.583</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3742</v>
+        <v>19.4869</v>
       </c>
       <c r="C6" t="n">
-        <v>30.1101</v>
+        <v>30.2834</v>
       </c>
       <c r="D6" t="n">
-        <v>50.878</v>
+        <v>50.4173</v>
       </c>
       <c r="E6" t="n">
-        <v>67.9966</v>
+        <v>67.8591</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7697</v>
+        <v>22.9019</v>
       </c>
       <c r="C7" t="n">
-        <v>35.3312</v>
+        <v>35.4433</v>
       </c>
       <c r="D7" t="n">
-        <v>59.9425</v>
+        <v>60.1011</v>
       </c>
       <c r="E7" t="n">
-        <v>79.4808</v>
+        <v>79.486</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4264</v>
+        <v>20.4425</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0699</v>
+        <v>34.2964</v>
       </c>
       <c r="D8" t="n">
-        <v>52.6258</v>
+        <v>52</v>
       </c>
       <c r="E8" t="n">
-        <v>70.651</v>
+        <v>68.11020000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.728</v>
+        <v>21.148</v>
       </c>
       <c r="C9" t="n">
-        <v>33.9131</v>
+        <v>33.7892</v>
       </c>
       <c r="D9" t="n">
-        <v>53.0163</v>
+        <v>53.4233</v>
       </c>
       <c r="E9" t="n">
-        <v>72.3426</v>
+        <v>71.4401</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2945</v>
+        <v>21.2816</v>
       </c>
       <c r="C10" t="n">
-        <v>34.0497</v>
+        <v>33.9953</v>
       </c>
       <c r="D10" t="n">
-        <v>51.7014</v>
+        <v>55.3901</v>
       </c>
       <c r="E10" t="n">
-        <v>71.60680000000001</v>
+        <v>71.95529999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.39</v>
+        <v>21.8205</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0037</v>
+        <v>34.3412</v>
       </c>
       <c r="D11" t="n">
-        <v>55.6338</v>
+        <v>55.7209</v>
       </c>
       <c r="E11" t="n">
-        <v>75.13330000000001</v>
+        <v>73.28570000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.3557</v>
+        <v>21.6642</v>
       </c>
       <c r="C12" t="n">
-        <v>33.934</v>
+        <v>33.9674</v>
       </c>
       <c r="D12" t="n">
-        <v>55.9477</v>
+        <v>56.4997</v>
       </c>
       <c r="E12" t="n">
-        <v>73.1756</v>
+        <v>73.4725</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.7013</v>
+        <v>21.4381</v>
       </c>
       <c r="C13" t="n">
-        <v>34.672</v>
+        <v>34.4102</v>
       </c>
       <c r="D13" t="n">
-        <v>56.1108</v>
+        <v>55.9889</v>
       </c>
       <c r="E13" t="n">
-        <v>74.717</v>
+        <v>74.61969999999999</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2662</v>
+        <v>21.5097</v>
       </c>
       <c r="C14" t="n">
-        <v>34.527</v>
+        <v>34.6398</v>
       </c>
       <c r="D14" t="n">
-        <v>55.6694</v>
+        <v>55.8009</v>
       </c>
       <c r="E14" t="n">
-        <v>75.0509</v>
+        <v>72.9676</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4813</v>
+        <v>21.4788</v>
       </c>
       <c r="C15" t="n">
-        <v>34.7523</v>
+        <v>34.5699</v>
       </c>
       <c r="D15" t="n">
-        <v>55.4182</v>
+        <v>55.9484</v>
       </c>
       <c r="E15" t="n">
-        <v>75.7114</v>
+        <v>73.9462</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.9377</v>
+        <v>21.7183</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6774</v>
+        <v>34.6802</v>
       </c>
       <c r="D16" t="n">
-        <v>57.6796</v>
+        <v>58.0276</v>
       </c>
       <c r="E16" t="n">
-        <v>74.7915</v>
+        <v>76.6292</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.8826</v>
+        <v>21.7623</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7878</v>
+        <v>35.0053</v>
       </c>
       <c r="D17" t="n">
-        <v>57.5771</v>
+        <v>57.0489</v>
       </c>
       <c r="E17" t="n">
-        <v>77.05670000000001</v>
+        <v>76.1768</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87026</v>
+        <v>9.012499999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.3929</v>
+        <v>13.4556</v>
       </c>
       <c r="D2" t="n">
-        <v>18.4566</v>
+        <v>18.5323</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4101</v>
+        <v>22.3872</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8181</v>
+        <v>17.1616</v>
       </c>
       <c r="C3" t="n">
-        <v>22.2509</v>
+        <v>22.379</v>
       </c>
       <c r="D3" t="n">
-        <v>33.8081</v>
+        <v>34.1374</v>
       </c>
       <c r="E3" t="n">
-        <v>40.4982</v>
+        <v>40.8488</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.283</v>
+        <v>24.6389</v>
       </c>
       <c r="C4" t="n">
-        <v>30.3906</v>
+        <v>30.073</v>
       </c>
       <c r="D4" t="n">
-        <v>48.2022</v>
+        <v>48.3497</v>
       </c>
       <c r="E4" t="n">
-        <v>57.2395</v>
+        <v>57.7285</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4185</v>
+        <v>24.466</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7913</v>
+        <v>29.8711</v>
       </c>
       <c r="D5" t="n">
-        <v>47.717</v>
+        <v>48.4667</v>
       </c>
       <c r="E5" t="n">
-        <v>60.7908</v>
+        <v>60.5975</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.43</v>
+        <v>28.537</v>
       </c>
       <c r="C6" t="n">
-        <v>32.75</v>
+        <v>32.827</v>
       </c>
       <c r="D6" t="n">
-        <v>53.9306</v>
+        <v>54.3035</v>
       </c>
       <c r="E6" t="n">
-        <v>71.41379999999999</v>
+        <v>71.6052</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3005</v>
+        <v>34.6333</v>
       </c>
       <c r="C7" t="n">
-        <v>37.7173</v>
+        <v>37.7201</v>
       </c>
       <c r="D7" t="n">
-        <v>62.2465</v>
+        <v>62.1823</v>
       </c>
       <c r="E7" t="n">
-        <v>79.8528</v>
+        <v>80.3506</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.2422</v>
+        <v>31.8491</v>
       </c>
       <c r="C8" t="n">
-        <v>36.7176</v>
+        <v>36.6407</v>
       </c>
       <c r="D8" t="n">
-        <v>60.3446</v>
+        <v>59.4761</v>
       </c>
       <c r="E8" t="n">
-        <v>78.2217</v>
+        <v>77.9409</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7851</v>
+        <v>32.353</v>
       </c>
       <c r="C9" t="n">
-        <v>36.6628</v>
+        <v>36.6329</v>
       </c>
       <c r="D9" t="n">
-        <v>61.4061</v>
+        <v>60.7831</v>
       </c>
       <c r="E9" t="n">
-        <v>79.00700000000001</v>
+        <v>79.9901</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.5258</v>
+        <v>32.0453</v>
       </c>
       <c r="C10" t="n">
-        <v>36.8</v>
+        <v>36.8086</v>
       </c>
       <c r="D10" t="n">
-        <v>60.5846</v>
+        <v>61.4001</v>
       </c>
       <c r="E10" t="n">
-        <v>80.117</v>
+        <v>80.72280000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3819</v>
+        <v>33.0776</v>
       </c>
       <c r="C11" t="n">
-        <v>36.6598</v>
+        <v>36.5663</v>
       </c>
       <c r="D11" t="n">
-        <v>61.4618</v>
+        <v>62.8369</v>
       </c>
       <c r="E11" t="n">
-        <v>80.8694</v>
+        <v>80.1758</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4234</v>
+        <v>32.8094</v>
       </c>
       <c r="C12" t="n">
-        <v>36.9037</v>
+        <v>36.926</v>
       </c>
       <c r="D12" t="n">
-        <v>61.4827</v>
+        <v>61.7327</v>
       </c>
       <c r="E12" t="n">
-        <v>81.17019999999999</v>
+        <v>81.8768</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.6309</v>
+        <v>32.8784</v>
       </c>
       <c r="C13" t="n">
-        <v>37.2388</v>
+        <v>37.2819</v>
       </c>
       <c r="D13" t="n">
-        <v>61.9009</v>
+        <v>61.8238</v>
       </c>
       <c r="E13" t="n">
-        <v>81.55029999999999</v>
+        <v>81.4567</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.4693</v>
+        <v>32.668</v>
       </c>
       <c r="C14" t="n">
-        <v>37.1796</v>
+        <v>36.8522</v>
       </c>
       <c r="D14" t="n">
-        <v>61.6791</v>
+        <v>62.2055</v>
       </c>
       <c r="E14" t="n">
-        <v>81.4764</v>
+        <v>80.3103</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.2997</v>
+        <v>32.6893</v>
       </c>
       <c r="C15" t="n">
-        <v>36.8545</v>
+        <v>36.8521</v>
       </c>
       <c r="D15" t="n">
-        <v>61.409</v>
+        <v>61.368</v>
       </c>
       <c r="E15" t="n">
-        <v>80.8792</v>
+        <v>80.42149999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.2822</v>
+        <v>33.168</v>
       </c>
       <c r="C16" t="n">
-        <v>37.0197</v>
+        <v>36.8409</v>
       </c>
       <c r="D16" t="n">
-        <v>61.4356</v>
+        <v>61.6743</v>
       </c>
       <c r="E16" t="n">
-        <v>80.33750000000001</v>
+        <v>80.2025</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.2574</v>
+        <v>32.9997</v>
       </c>
       <c r="C17" t="n">
-        <v>37.1615</v>
+        <v>36.9724</v>
       </c>
       <c r="D17" t="n">
-        <v>62.5355</v>
+        <v>62.603</v>
       </c>
       <c r="E17" t="n">
-        <v>79.7482</v>
+        <v>80.8481</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2857</v>
+        <v>10.3427</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8416</v>
+        <v>12.8264</v>
       </c>
       <c r="D2" t="n">
-        <v>17.5831</v>
+        <v>17.5885</v>
       </c>
       <c r="E2" t="n">
-        <v>21.274</v>
+        <v>21.204</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3832</v>
+        <v>19.2639</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2127</v>
+        <v>19.6047</v>
       </c>
       <c r="D3" t="n">
-        <v>28.0345</v>
+        <v>27.1453</v>
       </c>
       <c r="E3" t="n">
-        <v>34.2561</v>
+        <v>33.3681</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.7008</v>
+        <v>25.5168</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3961</v>
+        <v>24.551</v>
       </c>
       <c r="D4" t="n">
-        <v>32.0184</v>
+        <v>32.9329</v>
       </c>
       <c r="E4" t="n">
-        <v>38.9555</v>
+        <v>39.2481</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.6449</v>
+        <v>21.0708</v>
       </c>
       <c r="C5" t="n">
-        <v>26.9682</v>
+        <v>27.4235</v>
       </c>
       <c r="D5" t="n">
-        <v>34.0228</v>
+        <v>35.0617</v>
       </c>
       <c r="E5" t="n">
-        <v>43.7843</v>
+        <v>43.5604</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.2721</v>
+        <v>24.225</v>
       </c>
       <c r="C6" t="n">
-        <v>31.3551</v>
+        <v>31.5391</v>
       </c>
       <c r="D6" t="n">
-        <v>38.371</v>
+        <v>38.5267</v>
       </c>
       <c r="E6" t="n">
-        <v>43.6128</v>
+        <v>44.3765</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.8361</v>
+        <v>29.062</v>
       </c>
       <c r="C7" t="n">
-        <v>36.8805</v>
+        <v>36.829</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7057</v>
+        <v>38.2624</v>
       </c>
       <c r="E7" t="n">
-        <v>50.9111</v>
+        <v>49.1655</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.2058</v>
+        <v>21.0279</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4344</v>
+        <v>34.7251</v>
       </c>
       <c r="D8" t="n">
-        <v>40.307</v>
+        <v>40.4328</v>
       </c>
       <c r="E8" t="n">
-        <v>46.0429</v>
+        <v>46.4831</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9073</v>
+        <v>23.8597</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8662</v>
+        <v>34.3706</v>
       </c>
       <c r="D9" t="n">
-        <v>44.4703</v>
+        <v>44.294</v>
       </c>
       <c r="E9" t="n">
-        <v>48.689</v>
+        <v>50.528</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.1497</v>
+        <v>26.2665</v>
       </c>
       <c r="C10" t="n">
-        <v>34.8907</v>
+        <v>34.4043</v>
       </c>
       <c r="D10" t="n">
-        <v>46.0398</v>
+        <v>46.4897</v>
       </c>
       <c r="E10" t="n">
-        <v>51.9654</v>
+        <v>50.7034</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.1033</v>
+        <v>24.2466</v>
       </c>
       <c r="C11" t="n">
-        <v>34.9105</v>
+        <v>34.6847</v>
       </c>
       <c r="D11" t="n">
-        <v>47.0116</v>
+        <v>49.4753</v>
       </c>
       <c r="E11" t="n">
-        <v>53.2363</v>
+        <v>56.5798</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.1822</v>
+        <v>26.46</v>
       </c>
       <c r="C12" t="n">
-        <v>35.4358</v>
+        <v>34.7911</v>
       </c>
       <c r="D12" t="n">
-        <v>50.0523</v>
+        <v>49.9615</v>
       </c>
       <c r="E12" t="n">
-        <v>60.8106</v>
+        <v>57.4078</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.7928</v>
+        <v>28.9577</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4627</v>
+        <v>35.2421</v>
       </c>
       <c r="D13" t="n">
-        <v>50.877</v>
+        <v>50.3729</v>
       </c>
       <c r="E13" t="n">
-        <v>60.3297</v>
+        <v>58.5283</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.7495</v>
+        <v>23.7029</v>
       </c>
       <c r="C14" t="n">
-        <v>35.1277</v>
+        <v>34.9987</v>
       </c>
       <c r="D14" t="n">
-        <v>50.5185</v>
+        <v>51.2067</v>
       </c>
       <c r="E14" t="n">
-        <v>61.0223</v>
+        <v>62.3747</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.5397</v>
+        <v>25.4344</v>
       </c>
       <c r="C15" t="n">
-        <v>34.9812</v>
+        <v>35.0855</v>
       </c>
       <c r="D15" t="n">
-        <v>51.0176</v>
+        <v>50.7762</v>
       </c>
       <c r="E15" t="n">
-        <v>61.0672</v>
+        <v>60.3991</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.5639</v>
+        <v>26.9787</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6496</v>
+        <v>35.0379</v>
       </c>
       <c r="D16" t="n">
-        <v>50.5903</v>
+        <v>51.0418</v>
       </c>
       <c r="E16" t="n">
-        <v>58.477</v>
+        <v>62.4454</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.6625</v>
+        <v>25.7623</v>
       </c>
       <c r="C17" t="n">
-        <v>35.3404</v>
+        <v>35.3176</v>
       </c>
       <c r="D17" t="n">
-        <v>50.9022</v>
+        <v>51.0243</v>
       </c>
       <c r="E17" t="n">
-        <v>60.2236</v>
+        <v>61.5042</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7201</v>
+        <v>10.7794</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8342</v>
+        <v>12.7995</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4049</v>
+        <v>17.3814</v>
       </c>
       <c r="E2" t="n">
-        <v>21.1345</v>
+        <v>21.007</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0486</v>
+        <v>20.0424</v>
       </c>
       <c r="C3" t="n">
-        <v>19.8854</v>
+        <v>19.7452</v>
       </c>
       <c r="D3" t="n">
-        <v>26.6907</v>
+        <v>27.1507</v>
       </c>
       <c r="E3" t="n">
-        <v>31.182</v>
+        <v>30.4967</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.1759</v>
+        <v>27.8919</v>
       </c>
       <c r="C4" t="n">
-        <v>25.5581</v>
+        <v>25.5523</v>
       </c>
       <c r="D4" t="n">
-        <v>35.6582</v>
+        <v>34.9303</v>
       </c>
       <c r="E4" t="n">
-        <v>39.338</v>
+        <v>37.7344</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9014</v>
+        <v>20.7702</v>
       </c>
       <c r="C5" t="n">
-        <v>26.8307</v>
+        <v>27.09</v>
       </c>
       <c r="D5" t="n">
-        <v>35.7685</v>
+        <v>36.1393</v>
       </c>
       <c r="E5" t="n">
-        <v>42.3133</v>
+        <v>41.6242</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.6838</v>
+        <v>24.8756</v>
       </c>
       <c r="C6" t="n">
-        <v>31.5998</v>
+        <v>31.4769</v>
       </c>
       <c r="D6" t="n">
-        <v>38.1285</v>
+        <v>38.3957</v>
       </c>
       <c r="E6" t="n">
-        <v>43.8475</v>
+        <v>44.1055</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.6755</v>
+        <v>29.7732</v>
       </c>
       <c r="C7" t="n">
-        <v>36.7546</v>
+        <v>36.6491</v>
       </c>
       <c r="D7" t="n">
-        <v>42.562</v>
+        <v>42.0007</v>
       </c>
       <c r="E7" t="n">
-        <v>50.6734</v>
+        <v>50.6594</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.5767</v>
+        <v>21.4978</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6698</v>
+        <v>33.2552</v>
       </c>
       <c r="D8" t="n">
-        <v>40.6385</v>
+        <v>40.5189</v>
       </c>
       <c r="E8" t="n">
-        <v>47.572</v>
+        <v>44.9609</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.6068</v>
+        <v>24.7991</v>
       </c>
       <c r="C9" t="n">
-        <v>34.2667</v>
+        <v>34.283</v>
       </c>
       <c r="D9" t="n">
-        <v>43.406</v>
+        <v>42.6185</v>
       </c>
       <c r="E9" t="n">
-        <v>50.2464</v>
+        <v>49.4098</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.2783</v>
+        <v>27.3759</v>
       </c>
       <c r="C10" t="n">
-        <v>34.2948</v>
+        <v>34.7616</v>
       </c>
       <c r="D10" t="n">
-        <v>45.992</v>
+        <v>47.2391</v>
       </c>
       <c r="E10" t="n">
-        <v>53.4665</v>
+        <v>52.0499</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8938</v>
+        <v>25.2064</v>
       </c>
       <c r="C11" t="n">
-        <v>34.4587</v>
+        <v>34.2231</v>
       </c>
       <c r="D11" t="n">
-        <v>48.8429</v>
+        <v>46.7758</v>
       </c>
       <c r="E11" t="n">
-        <v>57.961</v>
+        <v>57.3708</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.9863</v>
+        <v>27.0841</v>
       </c>
       <c r="C12" t="n">
-        <v>34.8179</v>
+        <v>35.2259</v>
       </c>
       <c r="D12" t="n">
-        <v>50.0589</v>
+        <v>49.8302</v>
       </c>
       <c r="E12" t="n">
-        <v>60.9518</v>
+        <v>60.7754</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6041</v>
+        <v>29.7739</v>
       </c>
       <c r="C13" t="n">
-        <v>35.5983</v>
+        <v>35.1933</v>
       </c>
       <c r="D13" t="n">
-        <v>50.3496</v>
+        <v>48.7329</v>
       </c>
       <c r="E13" t="n">
-        <v>58.4938</v>
+        <v>60.2451</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0808</v>
+        <v>23.8648</v>
       </c>
       <c r="C14" t="n">
-        <v>35.6121</v>
+        <v>35.5318</v>
       </c>
       <c r="D14" t="n">
-        <v>51.461</v>
+        <v>51.2464</v>
       </c>
       <c r="E14" t="n">
-        <v>58.9731</v>
+        <v>62.5323</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.1659</v>
+        <v>26.2357</v>
       </c>
       <c r="C15" t="n">
-        <v>35.4986</v>
+        <v>35.6312</v>
       </c>
       <c r="D15" t="n">
-        <v>51.0123</v>
+        <v>50.7514</v>
       </c>
       <c r="E15" t="n">
-        <v>61.6489</v>
+        <v>61.9589</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.4807</v>
+        <v>27.494</v>
       </c>
       <c r="C16" t="n">
-        <v>35.8532</v>
+        <v>35.6869</v>
       </c>
       <c r="D16" t="n">
-        <v>51.2649</v>
+        <v>50.9636</v>
       </c>
       <c r="E16" t="n">
-        <v>62.0419</v>
+        <v>61.2084</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.3234</v>
+        <v>26.6152</v>
       </c>
       <c r="C17" t="n">
-        <v>35.6587</v>
+        <v>35.6134</v>
       </c>
       <c r="D17" t="n">
-        <v>48.9551</v>
+        <v>51.0533</v>
       </c>
       <c r="E17" t="n">
-        <v>60.8027</v>
+        <v>60.3153</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0469</v>
+        <v>13.0177</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9703</v>
+        <v>13.8941</v>
       </c>
       <c r="D2" t="n">
-        <v>19.1491</v>
+        <v>19.0168</v>
       </c>
       <c r="E2" t="n">
-        <v>22.5559</v>
+        <v>22.3658</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.2398</v>
+        <v>23.1511</v>
       </c>
       <c r="C3" t="n">
-        <v>23.4017</v>
+        <v>23.0446</v>
       </c>
       <c r="D3" t="n">
-        <v>30.4439</v>
+        <v>30.3185</v>
       </c>
       <c r="E3" t="n">
-        <v>33.8863</v>
+        <v>34.441</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.2241</v>
+        <v>32.1423</v>
       </c>
       <c r="C4" t="n">
-        <v>29.7252</v>
+        <v>29.8228</v>
       </c>
       <c r="D4" t="n">
-        <v>36.169</v>
+        <v>36.3602</v>
       </c>
       <c r="E4" t="n">
-        <v>44.2695</v>
+        <v>45.0789</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.5487</v>
+        <v>26.347</v>
       </c>
       <c r="C5" t="n">
-        <v>28.7364</v>
+        <v>28.7801</v>
       </c>
       <c r="D5" t="n">
-        <v>34.9413</v>
+        <v>36.36</v>
       </c>
       <c r="E5" t="n">
-        <v>50.2623</v>
+        <v>50.5186</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6417</v>
+        <v>31.5481</v>
       </c>
       <c r="C6" t="n">
-        <v>33.3067</v>
+        <v>33.0031</v>
       </c>
       <c r="D6" t="n">
-        <v>41.787</v>
+        <v>39.4582</v>
       </c>
       <c r="E6" t="n">
-        <v>50.8007</v>
+        <v>50.6916</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.5909</v>
+        <v>37.4509</v>
       </c>
       <c r="C7" t="n">
-        <v>38.4203</v>
+        <v>38.4283</v>
       </c>
       <c r="D7" t="n">
-        <v>43.8916</v>
+        <v>50.5681</v>
       </c>
       <c r="E7" t="n">
-        <v>50.5176</v>
+        <v>50.8931</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.8965</v>
+        <v>33.7356</v>
       </c>
       <c r="C8" t="n">
-        <v>35.0477</v>
+        <v>34.8651</v>
       </c>
       <c r="D8" t="n">
-        <v>47.0144</v>
+        <v>46.8031</v>
       </c>
       <c r="E8" t="n">
-        <v>51.0229</v>
+        <v>50.3933</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.4664</v>
+        <v>33.9247</v>
       </c>
       <c r="C9" t="n">
-        <v>35.056</v>
+        <v>35.3691</v>
       </c>
       <c r="D9" t="n">
-        <v>48.5819</v>
+        <v>48.5217</v>
       </c>
       <c r="E9" t="n">
-        <v>59.748</v>
+        <v>55.1672</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.782</v>
+        <v>34.1942</v>
       </c>
       <c r="C10" t="n">
-        <v>34.962</v>
+        <v>34.4584</v>
       </c>
       <c r="D10" t="n">
-        <v>49.4228</v>
+        <v>49.8484</v>
       </c>
       <c r="E10" t="n">
-        <v>59.6364</v>
+        <v>59.7125</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.9158</v>
+        <v>34.4829</v>
       </c>
       <c r="C11" t="n">
-        <v>35.725</v>
+        <v>36.3656</v>
       </c>
       <c r="D11" t="n">
-        <v>50.2341</v>
+        <v>51.1939</v>
       </c>
       <c r="E11" t="n">
-        <v>58.4053</v>
+        <v>58.1249</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.9273</v>
+        <v>33.981</v>
       </c>
       <c r="C12" t="n">
-        <v>35.1595</v>
+        <v>35.8226</v>
       </c>
       <c r="D12" t="n">
-        <v>51.2497</v>
+        <v>50.6279</v>
       </c>
       <c r="E12" t="n">
-        <v>60.271</v>
+        <v>58.2291</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.0242</v>
+        <v>35.3081</v>
       </c>
       <c r="C13" t="n">
-        <v>36.0111</v>
+        <v>35.4814</v>
       </c>
       <c r="D13" t="n">
-        <v>51.1119</v>
+        <v>50.8237</v>
       </c>
       <c r="E13" t="n">
-        <v>58.3737</v>
+        <v>59.7584</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.7959</v>
+        <v>35.0904</v>
       </c>
       <c r="C14" t="n">
-        <v>35.7847</v>
+        <v>36.2628</v>
       </c>
       <c r="D14" t="n">
-        <v>50.1755</v>
+        <v>51.1668</v>
       </c>
       <c r="E14" t="n">
-        <v>58.3209</v>
+        <v>60.7649</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.3244</v>
+        <v>35.4756</v>
       </c>
       <c r="C15" t="n">
-        <v>35.8197</v>
+        <v>35.936</v>
       </c>
       <c r="D15" t="n">
-        <v>51.0222</v>
+        <v>51.3</v>
       </c>
       <c r="E15" t="n">
-        <v>59.7675</v>
+        <v>59.3616</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.0357</v>
+        <v>35.2661</v>
       </c>
       <c r="C16" t="n">
-        <v>36.367</v>
+        <v>36.3924</v>
       </c>
       <c r="D16" t="n">
-        <v>50.345</v>
+        <v>50.6472</v>
       </c>
       <c r="E16" t="n">
-        <v>58.9793</v>
+        <v>57.0447</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.5378</v>
+        <v>35.3565</v>
       </c>
       <c r="C17" t="n">
-        <v>36.4405</v>
+        <v>36.5003</v>
       </c>
       <c r="D17" t="n">
-        <v>50.5921</v>
+        <v>51.3315</v>
       </c>
       <c r="E17" t="n">
-        <v>58.3837</v>
+        <v>55.7346</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77629</v>
+        <v>4.80484</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8012</v>
+        <v>10.9112</v>
       </c>
       <c r="D2" t="n">
-        <v>14.705</v>
+        <v>14.7533</v>
       </c>
       <c r="E2" t="n">
-        <v>19.6339</v>
+        <v>19.7815</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.30344</v>
+        <v>9.39035</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8954</v>
+        <v>18.9705</v>
       </c>
       <c r="D3" t="n">
-        <v>28.1816</v>
+        <v>28.1253</v>
       </c>
       <c r="E3" t="n">
-        <v>36.8552</v>
+        <v>37.2369</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4109</v>
+        <v>13.4964</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8797</v>
+        <v>25.8376</v>
       </c>
       <c r="D4" t="n">
-        <v>39.8958</v>
+        <v>39.6026</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2592</v>
+        <v>51.8542</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8756</v>
+        <v>15.957</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5903</v>
+        <v>26.8604</v>
       </c>
       <c r="D5" t="n">
-        <v>43.4357</v>
+        <v>43.7855</v>
       </c>
       <c r="E5" t="n">
-        <v>58.827</v>
+        <v>58.8191</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1719</v>
+        <v>19.291</v>
       </c>
       <c r="C6" t="n">
-        <v>30.1701</v>
+        <v>30.3158</v>
       </c>
       <c r="D6" t="n">
-        <v>51.7201</v>
+        <v>52.2669</v>
       </c>
       <c r="E6" t="n">
-        <v>68.56399999999999</v>
+        <v>69.2282</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.3804</v>
+        <v>22.4406</v>
       </c>
       <c r="C7" t="n">
-        <v>35.2091</v>
+        <v>35.3136</v>
       </c>
       <c r="D7" t="n">
-        <v>61.158</v>
+        <v>61.2561</v>
       </c>
       <c r="E7" t="n">
-        <v>81.29900000000001</v>
+        <v>81.6737</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2085</v>
+        <v>20.2089</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0946</v>
+        <v>33.9455</v>
       </c>
       <c r="D8" t="n">
-        <v>55.1501</v>
+        <v>55.1876</v>
       </c>
       <c r="E8" t="n">
-        <v>68.8095</v>
+        <v>69.8837</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.555</v>
+        <v>21.0029</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7002</v>
+        <v>34.083</v>
       </c>
       <c r="D9" t="n">
-        <v>54.8997</v>
+        <v>55.363</v>
       </c>
       <c r="E9" t="n">
-        <v>72.9522</v>
+        <v>73.51560000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.0152</v>
+        <v>20.788</v>
       </c>
       <c r="C10" t="n">
-        <v>33.7915</v>
+        <v>33.3597</v>
       </c>
       <c r="D10" t="n">
-        <v>55.9346</v>
+        <v>56.3336</v>
       </c>
       <c r="E10" t="n">
-        <v>71.7683</v>
+        <v>74.8231</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1278</v>
+        <v>21.4658</v>
       </c>
       <c r="C11" t="n">
-        <v>33.962</v>
+        <v>34.0069</v>
       </c>
       <c r="D11" t="n">
-        <v>55.169</v>
+        <v>56.6103</v>
       </c>
       <c r="E11" t="n">
-        <v>73.9834</v>
+        <v>75.5526</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.401</v>
+        <v>21.3745</v>
       </c>
       <c r="C12" t="n">
-        <v>33.6669</v>
+        <v>34.3485</v>
       </c>
       <c r="D12" t="n">
-        <v>56.7954</v>
+        <v>57.4399</v>
       </c>
       <c r="E12" t="n">
-        <v>77.04179999999999</v>
+        <v>74.4675</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2814</v>
+        <v>21.1999</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5118</v>
+        <v>34.5838</v>
       </c>
       <c r="D13" t="n">
-        <v>57.0679</v>
+        <v>56.3699</v>
       </c>
       <c r="E13" t="n">
-        <v>75.48399999999999</v>
+        <v>76.288</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2223</v>
+        <v>21.3109</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5862</v>
+        <v>34.8511</v>
       </c>
       <c r="D14" t="n">
-        <v>57.3128</v>
+        <v>58.7426</v>
       </c>
       <c r="E14" t="n">
-        <v>74.9367</v>
+        <v>76.4328</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.7608</v>
+        <v>21.4294</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4914</v>
+        <v>34.5422</v>
       </c>
       <c r="D15" t="n">
-        <v>57.5046</v>
+        <v>58.5107</v>
       </c>
       <c r="E15" t="n">
-        <v>76.9221</v>
+        <v>74.35769999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1832</v>
+        <v>21.171</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6852</v>
+        <v>34.639</v>
       </c>
       <c r="D16" t="n">
-        <v>58.9826</v>
+        <v>58.4652</v>
       </c>
       <c r="E16" t="n">
-        <v>76.6491</v>
+        <v>78.2294</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2647</v>
+        <v>21.3472</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7666</v>
+        <v>34.4805</v>
       </c>
       <c r="D17" t="n">
-        <v>58.8455</v>
+        <v>58.4062</v>
       </c>
       <c r="E17" t="n">
-        <v>78.15089999999999</v>
+        <v>79.34269999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77458</v>
+        <v>4.82197</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9296</v>
+        <v>10.9783</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5715</v>
+        <v>14.633</v>
       </c>
       <c r="E2" t="n">
-        <v>19.685</v>
+        <v>19.7981</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.37701</v>
+        <v>9.430260000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9765</v>
+        <v>19.1653</v>
       </c>
       <c r="D3" t="n">
-        <v>27.6732</v>
+        <v>27.8078</v>
       </c>
       <c r="E3" t="n">
-        <v>36.8651</v>
+        <v>37.1876</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5397</v>
+        <v>13.6359</v>
       </c>
       <c r="C4" t="n">
-        <v>25.6088</v>
+        <v>26.4844</v>
       </c>
       <c r="D4" t="n">
-        <v>38.9255</v>
+        <v>38.973</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2816</v>
+        <v>52.1716</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9973</v>
+        <v>16.0984</v>
       </c>
       <c r="C5" t="n">
-        <v>26.83</v>
+        <v>26.9541</v>
       </c>
       <c r="D5" t="n">
-        <v>42.7164</v>
+        <v>43.0586</v>
       </c>
       <c r="E5" t="n">
-        <v>57.8429</v>
+        <v>57.7021</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3742</v>
+        <v>19.5416</v>
       </c>
       <c r="C6" t="n">
-        <v>30.1101</v>
+        <v>30.2982</v>
       </c>
       <c r="D6" t="n">
-        <v>50.878</v>
+        <v>50.8908</v>
       </c>
       <c r="E6" t="n">
-        <v>67.9966</v>
+        <v>68.5962</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7697</v>
+        <v>22.8536</v>
       </c>
       <c r="C7" t="n">
-        <v>35.3312</v>
+        <v>35.348</v>
       </c>
       <c r="D7" t="n">
-        <v>59.9425</v>
+        <v>59.9722</v>
       </c>
       <c r="E7" t="n">
-        <v>79.4808</v>
+        <v>80.0069</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4264</v>
+        <v>20.5724</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0699</v>
+        <v>34.2849</v>
       </c>
       <c r="D8" t="n">
-        <v>52.6258</v>
+        <v>54.101</v>
       </c>
       <c r="E8" t="n">
-        <v>70.651</v>
+        <v>66.80200000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.728</v>
+        <v>21.1689</v>
       </c>
       <c r="C9" t="n">
-        <v>33.9131</v>
+        <v>33.7121</v>
       </c>
       <c r="D9" t="n">
-        <v>53.0163</v>
+        <v>53.0746</v>
       </c>
       <c r="E9" t="n">
-        <v>72.3426</v>
+        <v>69.33929999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2945</v>
+        <v>21.4367</v>
       </c>
       <c r="C10" t="n">
-        <v>34.0497</v>
+        <v>34.1844</v>
       </c>
       <c r="D10" t="n">
-        <v>51.7014</v>
+        <v>52.6387</v>
       </c>
       <c r="E10" t="n">
-        <v>71.60680000000001</v>
+        <v>74.0283</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.39</v>
+        <v>21.5591</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0037</v>
+        <v>34.4385</v>
       </c>
       <c r="D11" t="n">
-        <v>55.6338</v>
+        <v>55.082</v>
       </c>
       <c r="E11" t="n">
-        <v>75.13330000000001</v>
+        <v>73.3302</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.3557</v>
+        <v>21.5718</v>
       </c>
       <c r="C12" t="n">
-        <v>33.934</v>
+        <v>34.4325</v>
       </c>
       <c r="D12" t="n">
-        <v>55.9477</v>
+        <v>55.026</v>
       </c>
       <c r="E12" t="n">
-        <v>73.1756</v>
+        <v>74.24469999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.7013</v>
+        <v>21.1467</v>
       </c>
       <c r="C13" t="n">
-        <v>34.672</v>
+        <v>34.2054</v>
       </c>
       <c r="D13" t="n">
-        <v>56.1108</v>
+        <v>56.4843</v>
       </c>
       <c r="E13" t="n">
-        <v>74.717</v>
+        <v>74.5331</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2662</v>
+        <v>21.6341</v>
       </c>
       <c r="C14" t="n">
-        <v>34.527</v>
+        <v>34.4706</v>
       </c>
       <c r="D14" t="n">
-        <v>55.6694</v>
+        <v>53.8496</v>
       </c>
       <c r="E14" t="n">
-        <v>75.0509</v>
+        <v>75.3613</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4813</v>
+        <v>21.7895</v>
       </c>
       <c r="C15" t="n">
-        <v>34.7523</v>
+        <v>34.6987</v>
       </c>
       <c r="D15" t="n">
-        <v>55.4182</v>
+        <v>55.7079</v>
       </c>
       <c r="E15" t="n">
-        <v>75.7114</v>
+        <v>73.7743</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.9377</v>
+        <v>21.5848</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6774</v>
+        <v>34.9312</v>
       </c>
       <c r="D16" t="n">
-        <v>57.6796</v>
+        <v>57.7259</v>
       </c>
       <c r="E16" t="n">
-        <v>74.7915</v>
+        <v>75.17230000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.8826</v>
+        <v>21.9937</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7878</v>
+        <v>34.9335</v>
       </c>
       <c r="D17" t="n">
-        <v>57.5771</v>
+        <v>57.6003</v>
       </c>
       <c r="E17" t="n">
-        <v>77.05670000000001</v>
+        <v>78.5051</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87026</v>
+        <v>8.955769999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.3929</v>
+        <v>13.4247</v>
       </c>
       <c r="D2" t="n">
-        <v>18.4566</v>
+        <v>18.5087</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4101</v>
+        <v>22.3128</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8181</v>
+        <v>17.2058</v>
       </c>
       <c r="C3" t="n">
-        <v>22.2509</v>
+        <v>22.6424</v>
       </c>
       <c r="D3" t="n">
-        <v>33.8081</v>
+        <v>33.957</v>
       </c>
       <c r="E3" t="n">
-        <v>40.4982</v>
+        <v>40.9611</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.283</v>
+        <v>24.4009</v>
       </c>
       <c r="C4" t="n">
-        <v>30.3906</v>
+        <v>29.5238</v>
       </c>
       <c r="D4" t="n">
-        <v>48.2022</v>
+        <v>47.5611</v>
       </c>
       <c r="E4" t="n">
-        <v>57.2395</v>
+        <v>57.9225</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4185</v>
+        <v>24.7608</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7913</v>
+        <v>29.6951</v>
       </c>
       <c r="D5" t="n">
-        <v>47.717</v>
+        <v>47.8183</v>
       </c>
       <c r="E5" t="n">
-        <v>60.7908</v>
+        <v>61.0188</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.43</v>
+        <v>28.722</v>
       </c>
       <c r="C6" t="n">
-        <v>32.75</v>
+        <v>32.7715</v>
       </c>
       <c r="D6" t="n">
-        <v>53.9306</v>
+        <v>53.9444</v>
       </c>
       <c r="E6" t="n">
-        <v>71.41379999999999</v>
+        <v>71.03279999999999</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3005</v>
+        <v>34.3636</v>
       </c>
       <c r="C7" t="n">
-        <v>37.7173</v>
+        <v>37.6593</v>
       </c>
       <c r="D7" t="n">
-        <v>62.2465</v>
+        <v>62.2489</v>
       </c>
       <c r="E7" t="n">
-        <v>79.8528</v>
+        <v>80.33710000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.2422</v>
+        <v>31.7193</v>
       </c>
       <c r="C8" t="n">
-        <v>36.7176</v>
+        <v>36.3789</v>
       </c>
       <c r="D8" t="n">
-        <v>60.3446</v>
+        <v>59.9878</v>
       </c>
       <c r="E8" t="n">
-        <v>78.2217</v>
+        <v>78.5249</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7851</v>
+        <v>32.0149</v>
       </c>
       <c r="C9" t="n">
-        <v>36.6628</v>
+        <v>36.757</v>
       </c>
       <c r="D9" t="n">
-        <v>61.4061</v>
+        <v>60.1876</v>
       </c>
       <c r="E9" t="n">
-        <v>79.00700000000001</v>
+        <v>79.682</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.5258</v>
+        <v>32.3427</v>
       </c>
       <c r="C10" t="n">
-        <v>36.8</v>
+        <v>36.7772</v>
       </c>
       <c r="D10" t="n">
-        <v>60.5846</v>
+        <v>60.9911</v>
       </c>
       <c r="E10" t="n">
-        <v>80.117</v>
+        <v>80.7663</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3819</v>
+        <v>32.9179</v>
       </c>
       <c r="C11" t="n">
-        <v>36.6598</v>
+        <v>36.8722</v>
       </c>
       <c r="D11" t="n">
-        <v>61.4618</v>
+        <v>62.0424</v>
       </c>
       <c r="E11" t="n">
-        <v>80.8694</v>
+        <v>80.646</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4234</v>
+        <v>32.3617</v>
       </c>
       <c r="C12" t="n">
-        <v>36.9037</v>
+        <v>36.8162</v>
       </c>
       <c r="D12" t="n">
-        <v>61.4827</v>
+        <v>61.2399</v>
       </c>
       <c r="E12" t="n">
-        <v>81.17019999999999</v>
+        <v>81.0132</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.6309</v>
+        <v>33.3774</v>
       </c>
       <c r="C13" t="n">
-        <v>37.2388</v>
+        <v>37.0032</v>
       </c>
       <c r="D13" t="n">
-        <v>61.9009</v>
+        <v>61.5249</v>
       </c>
       <c r="E13" t="n">
-        <v>81.55029999999999</v>
+        <v>80.7486</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.4693</v>
+        <v>32.9758</v>
       </c>
       <c r="C14" t="n">
-        <v>37.1796</v>
+        <v>37.2404</v>
       </c>
       <c r="D14" t="n">
-        <v>61.6791</v>
+        <v>62.2957</v>
       </c>
       <c r="E14" t="n">
-        <v>81.4764</v>
+        <v>80.2169</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.2997</v>
+        <v>32.9495</v>
       </c>
       <c r="C15" t="n">
-        <v>36.8545</v>
+        <v>36.6957</v>
       </c>
       <c r="D15" t="n">
-        <v>61.409</v>
+        <v>60.9543</v>
       </c>
       <c r="E15" t="n">
-        <v>80.8792</v>
+        <v>80.08410000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.2822</v>
+        <v>32.7554</v>
       </c>
       <c r="C16" t="n">
-        <v>37.0197</v>
+        <v>36.8448</v>
       </c>
       <c r="D16" t="n">
-        <v>61.4356</v>
+        <v>60.9166</v>
       </c>
       <c r="E16" t="n">
-        <v>80.33750000000001</v>
+        <v>80.77849999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.2574</v>
+        <v>32.7554</v>
       </c>
       <c r="C17" t="n">
-        <v>37.1615</v>
+        <v>37.1125</v>
       </c>
       <c r="D17" t="n">
-        <v>62.5355</v>
+        <v>61.2826</v>
       </c>
       <c r="E17" t="n">
-        <v>79.7482</v>
+        <v>80.2855</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4235</v>
+        <v>10.4022</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8238</v>
+        <v>12.8392</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4671</v>
+        <v>17.5628</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2101</v>
+        <v>21.1445</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.1323</v>
+        <v>19.2621</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4138</v>
+        <v>20.068</v>
       </c>
       <c r="D3" t="n">
-        <v>26.9161</v>
+        <v>27.642</v>
       </c>
       <c r="E3" t="n">
-        <v>31.71</v>
+        <v>32.678</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.9731</v>
+        <v>26.5818</v>
       </c>
       <c r="C4" t="n">
-        <v>24.9713</v>
+        <v>24.339</v>
       </c>
       <c r="D4" t="n">
-        <v>32.7391</v>
+        <v>31.2535</v>
       </c>
       <c r="E4" t="n">
-        <v>40.6953</v>
+        <v>41.2357</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.8854</v>
+        <v>20.7055</v>
       </c>
       <c r="C5" t="n">
-        <v>27.5167</v>
+        <v>27.5828</v>
       </c>
       <c r="D5" t="n">
-        <v>35.7363</v>
+        <v>34.2495</v>
       </c>
       <c r="E5" t="n">
-        <v>44.1171</v>
+        <v>43.6254</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.4333</v>
+        <v>24.3979</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2448</v>
+        <v>31.4261</v>
       </c>
       <c r="D6" t="n">
-        <v>38.3437</v>
+        <v>38.4655</v>
       </c>
       <c r="E6" t="n">
-        <v>43.5682</v>
+        <v>43.8503</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9304</v>
+        <v>28.9492</v>
       </c>
       <c r="C7" t="n">
-        <v>36.7374</v>
+        <v>36.8289</v>
       </c>
       <c r="D7" t="n">
-        <v>38.4986</v>
+        <v>38.8238</v>
       </c>
       <c r="E7" t="n">
-        <v>49.9857</v>
+        <v>49.6798</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.9589</v>
+        <v>20.9859</v>
       </c>
       <c r="C8" t="n">
-        <v>34.8377</v>
+        <v>33.8648</v>
       </c>
       <c r="D8" t="n">
-        <v>39.9783</v>
+        <v>40.0066</v>
       </c>
       <c r="E8" t="n">
-        <v>47.0802</v>
+        <v>46.8689</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9366</v>
+        <v>23.7177</v>
       </c>
       <c r="C9" t="n">
-        <v>34.7779</v>
+        <v>34.1712</v>
       </c>
       <c r="D9" t="n">
-        <v>43.7533</v>
+        <v>44.1523</v>
       </c>
       <c r="E9" t="n">
-        <v>48.4084</v>
+        <v>51.3434</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.2469</v>
+        <v>26.2289</v>
       </c>
       <c r="C10" t="n">
-        <v>34.6262</v>
+        <v>34.2785</v>
       </c>
       <c r="D10" t="n">
-        <v>46.4248</v>
+        <v>45.9774</v>
       </c>
       <c r="E10" t="n">
-        <v>55.2995</v>
+        <v>50.165</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1672</v>
+        <v>24.2005</v>
       </c>
       <c r="C11" t="n">
-        <v>34.7648</v>
+        <v>34.8273</v>
       </c>
       <c r="D11" t="n">
-        <v>48.4511</v>
+        <v>48.8442</v>
       </c>
       <c r="E11" t="n">
-        <v>56.2396</v>
+        <v>57.4789</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4767</v>
+        <v>26.394</v>
       </c>
       <c r="C12" t="n">
-        <v>35.0635</v>
+        <v>34.4234</v>
       </c>
       <c r="D12" t="n">
-        <v>48.3167</v>
+        <v>51.9229</v>
       </c>
       <c r="E12" t="n">
-        <v>57.6889</v>
+        <v>59.3219</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.8405</v>
+        <v>28.8397</v>
       </c>
       <c r="C13" t="n">
-        <v>35.0099</v>
+        <v>35.5072</v>
       </c>
       <c r="D13" t="n">
-        <v>51.3714</v>
+        <v>49.7896</v>
       </c>
       <c r="E13" t="n">
-        <v>59.4951</v>
+        <v>59.9031</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.7177</v>
+        <v>23.6562</v>
       </c>
       <c r="C14" t="n">
-        <v>35.4321</v>
+        <v>35.3047</v>
       </c>
       <c r="D14" t="n">
-        <v>50.0992</v>
+        <v>51.0701</v>
       </c>
       <c r="E14" t="n">
-        <v>57.0049</v>
+        <v>56.8152</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.3353</v>
+        <v>25.3147</v>
       </c>
       <c r="C15" t="n">
-        <v>34.7992</v>
+        <v>35.3693</v>
       </c>
       <c r="D15" t="n">
-        <v>51.1862</v>
+        <v>50.7772</v>
       </c>
       <c r="E15" t="n">
-        <v>58.665</v>
+        <v>59.6162</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.9012</v>
+        <v>26.5429</v>
       </c>
       <c r="C16" t="n">
-        <v>35.0551</v>
+        <v>35.0745</v>
       </c>
       <c r="D16" t="n">
-        <v>50.7994</v>
+        <v>50.5512</v>
       </c>
       <c r="E16" t="n">
-        <v>61.6052</v>
+        <v>62.3775</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.7336</v>
+        <v>25.6284</v>
       </c>
       <c r="C17" t="n">
-        <v>35.0395</v>
+        <v>35.3618</v>
       </c>
       <c r="D17" t="n">
-        <v>51.3432</v>
+        <v>51.5324</v>
       </c>
       <c r="E17" t="n">
-        <v>61.2689</v>
+        <v>64.12130000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.768</v>
+        <v>10.7104</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7645</v>
+        <v>12.7263</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2985</v>
+        <v>17.3202</v>
       </c>
       <c r="E2" t="n">
-        <v>21.0074</v>
+        <v>20.9683</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0317</v>
+        <v>19.7498</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2551</v>
+        <v>19.3072</v>
       </c>
       <c r="D3" t="n">
-        <v>26.5312</v>
+        <v>26.3896</v>
       </c>
       <c r="E3" t="n">
-        <v>31.7363</v>
+        <v>32.0149</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.9123</v>
+        <v>27.525</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1321</v>
+        <v>25.2887</v>
       </c>
       <c r="D4" t="n">
-        <v>33.5749</v>
+        <v>33.2018</v>
       </c>
       <c r="E4" t="n">
-        <v>39.1606</v>
+        <v>38.1842</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.8023</v>
+        <v>20.9269</v>
       </c>
       <c r="C5" t="n">
-        <v>27.3342</v>
+        <v>26.8527</v>
       </c>
       <c r="D5" t="n">
-        <v>35.3443</v>
+        <v>34.2241</v>
       </c>
       <c r="E5" t="n">
-        <v>41.0368</v>
+        <v>42.5114</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.7552</v>
+        <v>24.8446</v>
       </c>
       <c r="C6" t="n">
-        <v>31.1162</v>
+        <v>31.4302</v>
       </c>
       <c r="D6" t="n">
-        <v>38.356</v>
+        <v>37.4759</v>
       </c>
       <c r="E6" t="n">
-        <v>44.1558</v>
+        <v>44.7195</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.711</v>
+        <v>29.7558</v>
       </c>
       <c r="C7" t="n">
-        <v>36.6403</v>
+        <v>36.5763</v>
       </c>
       <c r="D7" t="n">
-        <v>43.8758</v>
+        <v>43.5671</v>
       </c>
       <c r="E7" t="n">
-        <v>50.4944</v>
+        <v>50.638</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.3952</v>
+        <v>21.6682</v>
       </c>
       <c r="C8" t="n">
-        <v>33.5558</v>
+        <v>33.3612</v>
       </c>
       <c r="D8" t="n">
-        <v>40.1975</v>
+        <v>41.1511</v>
       </c>
       <c r="E8" t="n">
-        <v>46.9623</v>
+        <v>49.2313</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.8462</v>
+        <v>24.7233</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1593</v>
+        <v>33.6174</v>
       </c>
       <c r="D9" t="n">
-        <v>42.1883</v>
+        <v>43.5527</v>
       </c>
       <c r="E9" t="n">
-        <v>50.7089</v>
+        <v>49.791</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.6033</v>
+        <v>27.5577</v>
       </c>
       <c r="C10" t="n">
-        <v>34.2033</v>
+        <v>34.4897</v>
       </c>
       <c r="D10" t="n">
-        <v>44.5901</v>
+        <v>45.4727</v>
       </c>
       <c r="E10" t="n">
-        <v>49.8308</v>
+        <v>51.2454</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.877</v>
+        <v>24.9277</v>
       </c>
       <c r="C11" t="n">
-        <v>34.5627</v>
+        <v>34.2018</v>
       </c>
       <c r="D11" t="n">
-        <v>50.2934</v>
+        <v>45.6011</v>
       </c>
       <c r="E11" t="n">
-        <v>58.4302</v>
+        <v>59.0896</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1624</v>
+        <v>27.0761</v>
       </c>
       <c r="C12" t="n">
-        <v>34.5275</v>
+        <v>35.2492</v>
       </c>
       <c r="D12" t="n">
-        <v>49.1791</v>
+        <v>50.5523</v>
       </c>
       <c r="E12" t="n">
-        <v>60.4553</v>
+        <v>59.5603</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6829</v>
+        <v>29.7308</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4263</v>
+        <v>35.6334</v>
       </c>
       <c r="D13" t="n">
-        <v>49.9881</v>
+        <v>51.1614</v>
       </c>
       <c r="E13" t="n">
-        <v>60.7224</v>
+        <v>61.0143</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.7608</v>
+        <v>23.5821</v>
       </c>
       <c r="C14" t="n">
-        <v>35.3439</v>
+        <v>35.3026</v>
       </c>
       <c r="D14" t="n">
-        <v>51.2073</v>
+        <v>50.4329</v>
       </c>
       <c r="E14" t="n">
-        <v>60.4425</v>
+        <v>60.3587</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.2801</v>
+        <v>25.8797</v>
       </c>
       <c r="C15" t="n">
-        <v>35.1978</v>
+        <v>34.8618</v>
       </c>
       <c r="D15" t="n">
-        <v>50.8477</v>
+        <v>50.4541</v>
       </c>
       <c r="E15" t="n">
-        <v>61.1226</v>
+        <v>60.4245</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.3685</v>
+        <v>27.2859</v>
       </c>
       <c r="C16" t="n">
-        <v>35.9991</v>
+        <v>35.5743</v>
       </c>
       <c r="D16" t="n">
-        <v>50.6924</v>
+        <v>51.653</v>
       </c>
       <c r="E16" t="n">
-        <v>60.9981</v>
+        <v>61.2018</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.7634</v>
+        <v>26.4189</v>
       </c>
       <c r="C17" t="n">
-        <v>35.365</v>
+        <v>35.5723</v>
       </c>
       <c r="D17" t="n">
-        <v>51.4715</v>
+        <v>50.7757</v>
       </c>
       <c r="E17" t="n">
-        <v>62.4127</v>
+        <v>61.426</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.9756</v>
+        <v>12.9279</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8872</v>
+        <v>13.8545</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0856</v>
+        <v>19.0642</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4879</v>
+        <v>22.3904</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.0632</v>
+        <v>23.0262</v>
       </c>
       <c r="C3" t="n">
-        <v>23.1877</v>
+        <v>23.3139</v>
       </c>
       <c r="D3" t="n">
-        <v>30.5025</v>
+        <v>30.5863</v>
       </c>
       <c r="E3" t="n">
-        <v>33.9108</v>
+        <v>34.2445</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.4548</v>
+        <v>32.0486</v>
       </c>
       <c r="C4" t="n">
-        <v>29.4073</v>
+        <v>29.2455</v>
       </c>
       <c r="D4" t="n">
-        <v>36.2453</v>
+        <v>34.8612</v>
       </c>
       <c r="E4" t="n">
-        <v>41.769</v>
+        <v>41.2619</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.7592</v>
+        <v>27.0093</v>
       </c>
       <c r="C5" t="n">
-        <v>28.9507</v>
+        <v>29.3007</v>
       </c>
       <c r="D5" t="n">
-        <v>34.5207</v>
+        <v>35.839</v>
       </c>
       <c r="E5" t="n">
-        <v>48.9958</v>
+        <v>50.6609</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6257</v>
+        <v>31.5612</v>
       </c>
       <c r="C6" t="n">
-        <v>33.0062</v>
+        <v>32.9265</v>
       </c>
       <c r="D6" t="n">
-        <v>40.8856</v>
+        <v>38.8216</v>
       </c>
       <c r="E6" t="n">
-        <v>50.9948</v>
+        <v>50.7448</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.5385</v>
+        <v>37.4655</v>
       </c>
       <c r="C7" t="n">
-        <v>38.4205</v>
+        <v>38.3594</v>
       </c>
       <c r="D7" t="n">
-        <v>49.9541</v>
+        <v>45.15</v>
       </c>
       <c r="E7" t="n">
-        <v>51.0323</v>
+        <v>50.7519</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.0879</v>
+        <v>34.0725</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4659</v>
+        <v>35.0605</v>
       </c>
       <c r="D8" t="n">
-        <v>49.3919</v>
+        <v>50.4088</v>
       </c>
       <c r="E8" t="n">
-        <v>50.903</v>
+        <v>50.802</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.9569</v>
+        <v>33.8849</v>
       </c>
       <c r="C9" t="n">
-        <v>34.4064</v>
+        <v>35.3338</v>
       </c>
       <c r="D9" t="n">
-        <v>50.8786</v>
+        <v>49.238</v>
       </c>
       <c r="E9" t="n">
-        <v>55.5663</v>
+        <v>58.7473</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.899</v>
+        <v>34.1123</v>
       </c>
       <c r="C10" t="n">
-        <v>34.8579</v>
+        <v>34.9162</v>
       </c>
       <c r="D10" t="n">
-        <v>50.4829</v>
+        <v>50.0345</v>
       </c>
       <c r="E10" t="n">
-        <v>58.9459</v>
+        <v>56.4349</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.7251</v>
+        <v>34.611</v>
       </c>
       <c r="C11" t="n">
-        <v>35.0866</v>
+        <v>35.9705</v>
       </c>
       <c r="D11" t="n">
-        <v>51.2927</v>
+        <v>50.7139</v>
       </c>
       <c r="E11" t="n">
-        <v>59.8877</v>
+        <v>60.1273</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.432</v>
+        <v>34.6436</v>
       </c>
       <c r="C12" t="n">
-        <v>35.7988</v>
+        <v>35.6574</v>
       </c>
       <c r="D12" t="n">
-        <v>50.6291</v>
+        <v>51.3757</v>
       </c>
       <c r="E12" t="n">
-        <v>59.3467</v>
+        <v>60.6395</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.3625</v>
+        <v>35.8113</v>
       </c>
       <c r="C13" t="n">
-        <v>36.1726</v>
+        <v>35.4232</v>
       </c>
       <c r="D13" t="n">
-        <v>51.1038</v>
+        <v>50.9036</v>
       </c>
       <c r="E13" t="n">
-        <v>60.5862</v>
+        <v>59.6878</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.8709</v>
+        <v>34.9839</v>
       </c>
       <c r="C14" t="n">
-        <v>36.0902</v>
+        <v>35.9066</v>
       </c>
       <c r="D14" t="n">
-        <v>49.6255</v>
+        <v>51.4357</v>
       </c>
       <c r="E14" t="n">
-        <v>61.0512</v>
+        <v>60.8753</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.0549</v>
+        <v>34.6206</v>
       </c>
       <c r="C15" t="n">
-        <v>36.2156</v>
+        <v>36.1043</v>
       </c>
       <c r="D15" t="n">
-        <v>50.8709</v>
+        <v>51.2269</v>
       </c>
       <c r="E15" t="n">
-        <v>61.284</v>
+        <v>60.0934</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.3385</v>
+        <v>35.3497</v>
       </c>
       <c r="C16" t="n">
-        <v>36.3271</v>
+        <v>36.087</v>
       </c>
       <c r="D16" t="n">
-        <v>50.5714</v>
+        <v>51.1686</v>
       </c>
       <c r="E16" t="n">
-        <v>58.2599</v>
+        <v>60.7946</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.804</v>
+        <v>35.7885</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1666</v>
+        <v>36.1444</v>
       </c>
       <c r="D17" t="n">
-        <v>51.1734</v>
+        <v>51.7417</v>
       </c>
       <c r="E17" t="n">
-        <v>58.1958</v>
+        <v>58.7248</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.83359</v>
+        <v>4.79174</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9471</v>
+        <v>10.8727</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8781</v>
+        <v>14.6833</v>
       </c>
       <c r="E2" t="n">
-        <v>19.6841</v>
+        <v>19.7514</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.384320000000001</v>
+        <v>9.351940000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0265</v>
+        <v>18.8205</v>
       </c>
       <c r="D3" t="n">
-        <v>28.2565</v>
+        <v>27.9798</v>
       </c>
       <c r="E3" t="n">
-        <v>36.9523</v>
+        <v>36.9095</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.6382</v>
+        <v>13.4956</v>
       </c>
       <c r="C4" t="n">
-        <v>26.3826</v>
+        <v>25.8531</v>
       </c>
       <c r="D4" t="n">
-        <v>40.224</v>
+        <v>39.615</v>
       </c>
       <c r="E4" t="n">
-        <v>51.6206</v>
+        <v>51.9377</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8477</v>
+        <v>15.8775</v>
       </c>
       <c r="C5" t="n">
-        <v>26.6804</v>
+        <v>26.5437</v>
       </c>
       <c r="D5" t="n">
-        <v>42.9662</v>
+        <v>43.6434</v>
       </c>
       <c r="E5" t="n">
-        <v>57.5393</v>
+        <v>59.2545</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.271</v>
+        <v>19.2549</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9899</v>
+        <v>30.1811</v>
       </c>
       <c r="D6" t="n">
-        <v>51.5619</v>
+        <v>51.5064</v>
       </c>
       <c r="E6" t="n">
-        <v>68.8117</v>
+        <v>68.6207</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4721</v>
+        <v>22.3736</v>
       </c>
       <c r="C7" t="n">
-        <v>35.342</v>
+        <v>35.126</v>
       </c>
       <c r="D7" t="n">
-        <v>61.4741</v>
+        <v>61.1918</v>
       </c>
       <c r="E7" t="n">
-        <v>81.35120000000001</v>
+        <v>81.1454</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4965</v>
+        <v>20.0666</v>
       </c>
       <c r="C8" t="n">
-        <v>33.757</v>
+        <v>34.1862</v>
       </c>
       <c r="D8" t="n">
-        <v>54.7313</v>
+        <v>54.4774</v>
       </c>
       <c r="E8" t="n">
-        <v>70.55029999999999</v>
+        <v>70.3961</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.7529</v>
+        <v>20.8948</v>
       </c>
       <c r="C9" t="n">
-        <v>33.4516</v>
+        <v>33.5404</v>
       </c>
       <c r="D9" t="n">
-        <v>50.9315</v>
+        <v>54.0555</v>
       </c>
       <c r="E9" t="n">
-        <v>69.5915</v>
+        <v>70.58669999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.9241</v>
+        <v>21.1318</v>
       </c>
       <c r="C10" t="n">
-        <v>33.2277</v>
+        <v>33.8157</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2796</v>
+        <v>56.9358</v>
       </c>
       <c r="E10" t="n">
-        <v>66.6409</v>
+        <v>73.9855</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.7555</v>
+        <v>21.019</v>
       </c>
       <c r="C11" t="n">
-        <v>33.9077</v>
+        <v>33.85</v>
       </c>
       <c r="D11" t="n">
-        <v>56.4925</v>
+        <v>56.0377</v>
       </c>
       <c r="E11" t="n">
-        <v>72.08799999999999</v>
+        <v>75.4841</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.3551</v>
+        <v>20.939</v>
       </c>
       <c r="C12" t="n">
-        <v>34.7417</v>
+        <v>34.3758</v>
       </c>
       <c r="D12" t="n">
-        <v>57.0226</v>
+        <v>58.3715</v>
       </c>
       <c r="E12" t="n">
-        <v>75.3989</v>
+        <v>73.5485</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2393</v>
+        <v>21.2728</v>
       </c>
       <c r="C13" t="n">
-        <v>34.589</v>
+        <v>34.7271</v>
       </c>
       <c r="D13" t="n">
-        <v>58.0954</v>
+        <v>57.8155</v>
       </c>
       <c r="E13" t="n">
-        <v>74.93859999999999</v>
+        <v>77.0611</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.078</v>
+        <v>21.2157</v>
       </c>
       <c r="C14" t="n">
-        <v>34.3581</v>
+        <v>34.3205</v>
       </c>
       <c r="D14" t="n">
-        <v>59.4743</v>
+        <v>58.2728</v>
       </c>
       <c r="E14" t="n">
-        <v>76.0125</v>
+        <v>76.0252</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.598</v>
+        <v>21.2572</v>
       </c>
       <c r="C15" t="n">
-        <v>34.2399</v>
+        <v>34.5359</v>
       </c>
       <c r="D15" t="n">
-        <v>57.8491</v>
+        <v>58.4036</v>
       </c>
       <c r="E15" t="n">
-        <v>78.5312</v>
+        <v>77.0093</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.0745</v>
+        <v>21.3114</v>
       </c>
       <c r="C16" t="n">
-        <v>34.7101</v>
+        <v>34.3368</v>
       </c>
       <c r="D16" t="n">
-        <v>58.0594</v>
+        <v>57.9923</v>
       </c>
       <c r="E16" t="n">
-        <v>77.4192</v>
+        <v>76.45999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.4426</v>
+        <v>20.9212</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7499</v>
+        <v>34.7163</v>
       </c>
       <c r="D17" t="n">
-        <v>59.6874</v>
+        <v>59.5188</v>
       </c>
       <c r="E17" t="n">
-        <v>79.7817</v>
+        <v>77.5367</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.8417</v>
+        <v>4.81514</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0538</v>
+        <v>10.9658</v>
       </c>
       <c r="D2" t="n">
-        <v>14.702</v>
+        <v>14.5547</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7597</v>
+        <v>19.7158</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.464309999999999</v>
+        <v>9.409700000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9989</v>
+        <v>18.8615</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9487</v>
+        <v>27.6701</v>
       </c>
       <c r="E3" t="n">
-        <v>37.0234</v>
+        <v>37.0335</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.6683</v>
+        <v>13.549</v>
       </c>
       <c r="C4" t="n">
-        <v>26.6611</v>
+        <v>26.3247</v>
       </c>
       <c r="D4" t="n">
-        <v>39.6313</v>
+        <v>38.9265</v>
       </c>
       <c r="E4" t="n">
-        <v>51.7228</v>
+        <v>51.2325</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0806</v>
+        <v>16.09</v>
       </c>
       <c r="C5" t="n">
-        <v>26.9346</v>
+        <v>26.5916</v>
       </c>
       <c r="D5" t="n">
-        <v>41.737</v>
+        <v>42.8304</v>
       </c>
       <c r="E5" t="n">
-        <v>57.583</v>
+        <v>57.5772</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4869</v>
+        <v>19.4647</v>
       </c>
       <c r="C6" t="n">
-        <v>30.2834</v>
+        <v>30.2503</v>
       </c>
       <c r="D6" t="n">
-        <v>50.4173</v>
+        <v>50.6991</v>
       </c>
       <c r="E6" t="n">
-        <v>67.8591</v>
+        <v>68.5659</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.9019</v>
+        <v>22.7722</v>
       </c>
       <c r="C7" t="n">
-        <v>35.4433</v>
+        <v>35.2506</v>
       </c>
       <c r="D7" t="n">
-        <v>60.1011</v>
+        <v>59.6522</v>
       </c>
       <c r="E7" t="n">
-        <v>79.486</v>
+        <v>79.52200000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4425</v>
+        <v>20.5126</v>
       </c>
       <c r="C8" t="n">
-        <v>34.2964</v>
+        <v>34.0058</v>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>53.0011</v>
       </c>
       <c r="E8" t="n">
-        <v>68.11020000000001</v>
+        <v>69.5699</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.148</v>
+        <v>21.0677</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7892</v>
+        <v>33.9805</v>
       </c>
       <c r="D9" t="n">
-        <v>53.4233</v>
+        <v>53.4842</v>
       </c>
       <c r="E9" t="n">
-        <v>71.4401</v>
+        <v>74.48439999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2816</v>
+        <v>21.3211</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9953</v>
+        <v>33.9597</v>
       </c>
       <c r="D10" t="n">
-        <v>55.3901</v>
+        <v>53.8034</v>
       </c>
       <c r="E10" t="n">
-        <v>71.95529999999999</v>
+        <v>73.23820000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8205</v>
+        <v>21.4775</v>
       </c>
       <c r="C11" t="n">
-        <v>34.3412</v>
+        <v>33.9167</v>
       </c>
       <c r="D11" t="n">
-        <v>55.7209</v>
+        <v>55.0332</v>
       </c>
       <c r="E11" t="n">
-        <v>73.28570000000001</v>
+        <v>73.01909999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.6642</v>
+        <v>21.515</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9674</v>
+        <v>34.4784</v>
       </c>
       <c r="D12" t="n">
-        <v>56.4997</v>
+        <v>54.6512</v>
       </c>
       <c r="E12" t="n">
-        <v>73.4725</v>
+        <v>74.9302</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4381</v>
+        <v>21.6059</v>
       </c>
       <c r="C13" t="n">
-        <v>34.4102</v>
+        <v>34.7228</v>
       </c>
       <c r="D13" t="n">
-        <v>55.9889</v>
+        <v>56.0815</v>
       </c>
       <c r="E13" t="n">
-        <v>74.61969999999999</v>
+        <v>74.529</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5097</v>
+        <v>21.6949</v>
       </c>
       <c r="C14" t="n">
-        <v>34.6398</v>
+        <v>34.2449</v>
       </c>
       <c r="D14" t="n">
-        <v>55.8009</v>
+        <v>55.4909</v>
       </c>
       <c r="E14" t="n">
-        <v>72.9676</v>
+        <v>75.0659</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4788</v>
+        <v>21.5709</v>
       </c>
       <c r="C15" t="n">
-        <v>34.5699</v>
+        <v>34.4159</v>
       </c>
       <c r="D15" t="n">
-        <v>55.9484</v>
+        <v>57.5063</v>
       </c>
       <c r="E15" t="n">
-        <v>73.9462</v>
+        <v>76.1918</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7183</v>
+        <v>21.5064</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6802</v>
+        <v>34.4242</v>
       </c>
       <c r="D16" t="n">
-        <v>58.0276</v>
+        <v>56.1372</v>
       </c>
       <c r="E16" t="n">
-        <v>76.6292</v>
+        <v>76.1768</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.7623</v>
+        <v>21.6857</v>
       </c>
       <c r="C17" t="n">
-        <v>35.0053</v>
+        <v>34.5886</v>
       </c>
       <c r="D17" t="n">
-        <v>57.0489</v>
+        <v>56.1715</v>
       </c>
       <c r="E17" t="n">
-        <v>76.1768</v>
+        <v>76.6747</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.012499999999999</v>
+        <v>8.906650000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.4556</v>
+        <v>13.3361</v>
       </c>
       <c r="D2" t="n">
-        <v>18.5323</v>
+        <v>18.3759</v>
       </c>
       <c r="E2" t="n">
-        <v>22.3872</v>
+        <v>22.243</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.1616</v>
+        <v>17.0938</v>
       </c>
       <c r="C3" t="n">
-        <v>22.379</v>
+        <v>22.3763</v>
       </c>
       <c r="D3" t="n">
-        <v>34.1374</v>
+        <v>33.6774</v>
       </c>
       <c r="E3" t="n">
-        <v>40.8488</v>
+        <v>40.5831</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.6389</v>
+        <v>24.402</v>
       </c>
       <c r="C4" t="n">
-        <v>30.073</v>
+        <v>29.4445</v>
       </c>
       <c r="D4" t="n">
-        <v>48.3497</v>
+        <v>47.5928</v>
       </c>
       <c r="E4" t="n">
-        <v>57.7285</v>
+        <v>57.3033</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.466</v>
+        <v>24.7166</v>
       </c>
       <c r="C5" t="n">
-        <v>29.8711</v>
+        <v>29.7195</v>
       </c>
       <c r="D5" t="n">
-        <v>48.4667</v>
+        <v>47.6477</v>
       </c>
       <c r="E5" t="n">
-        <v>60.5975</v>
+        <v>60.7798</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.537</v>
+        <v>28.6397</v>
       </c>
       <c r="C6" t="n">
-        <v>32.827</v>
+        <v>32.6862</v>
       </c>
       <c r="D6" t="n">
-        <v>54.3035</v>
+        <v>54.1359</v>
       </c>
       <c r="E6" t="n">
-        <v>71.6052</v>
+        <v>71.3364</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.6333</v>
+        <v>34.0981</v>
       </c>
       <c r="C7" t="n">
-        <v>37.7201</v>
+        <v>37.5132</v>
       </c>
       <c r="D7" t="n">
-        <v>62.1823</v>
+        <v>61.9048</v>
       </c>
       <c r="E7" t="n">
-        <v>80.3506</v>
+        <v>79.7103</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8491</v>
+        <v>31.4839</v>
       </c>
       <c r="C8" t="n">
-        <v>36.6407</v>
+        <v>36.4274</v>
       </c>
       <c r="D8" t="n">
-        <v>59.4761</v>
+        <v>60.6169</v>
       </c>
       <c r="E8" t="n">
-        <v>77.9409</v>
+        <v>77.428</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.353</v>
+        <v>32.1542</v>
       </c>
       <c r="C9" t="n">
-        <v>36.6329</v>
+        <v>36.4885</v>
       </c>
       <c r="D9" t="n">
-        <v>60.7831</v>
+        <v>61.0322</v>
       </c>
       <c r="E9" t="n">
-        <v>79.9901</v>
+        <v>80.0705</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.0453</v>
+        <v>31.8355</v>
       </c>
       <c r="C10" t="n">
-        <v>36.8086</v>
+        <v>36.9024</v>
       </c>
       <c r="D10" t="n">
-        <v>61.4001</v>
+        <v>61.1809</v>
       </c>
       <c r="E10" t="n">
-        <v>80.72280000000001</v>
+        <v>80.2461</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.0776</v>
+        <v>33.0988</v>
       </c>
       <c r="C11" t="n">
-        <v>36.5663</v>
+        <v>36.7474</v>
       </c>
       <c r="D11" t="n">
-        <v>62.8369</v>
+        <v>61.8373</v>
       </c>
       <c r="E11" t="n">
-        <v>80.1758</v>
+        <v>80.6444</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.8094</v>
+        <v>32.4326</v>
       </c>
       <c r="C12" t="n">
-        <v>36.926</v>
+        <v>36.6295</v>
       </c>
       <c r="D12" t="n">
-        <v>61.7327</v>
+        <v>61.1856</v>
       </c>
       <c r="E12" t="n">
-        <v>81.8768</v>
+        <v>81.09399999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.8784</v>
+        <v>32.7449</v>
       </c>
       <c r="C13" t="n">
-        <v>37.2819</v>
+        <v>36.96</v>
       </c>
       <c r="D13" t="n">
-        <v>61.8238</v>
+        <v>61.7223</v>
       </c>
       <c r="E13" t="n">
-        <v>81.4567</v>
+        <v>79.73099999999999</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.668</v>
+        <v>32.812</v>
       </c>
       <c r="C14" t="n">
-        <v>36.8522</v>
+        <v>36.9251</v>
       </c>
       <c r="D14" t="n">
-        <v>62.2055</v>
+        <v>61.4977</v>
       </c>
       <c r="E14" t="n">
-        <v>80.3103</v>
+        <v>80.75239999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6893</v>
+        <v>31.9366</v>
       </c>
       <c r="C15" t="n">
-        <v>36.8521</v>
+        <v>36.792</v>
       </c>
       <c r="D15" t="n">
-        <v>61.368</v>
+        <v>61.9308</v>
       </c>
       <c r="E15" t="n">
-        <v>80.42149999999999</v>
+        <v>80.9209</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.168</v>
+        <v>32.7118</v>
       </c>
       <c r="C16" t="n">
-        <v>36.8409</v>
+        <v>36.6844</v>
       </c>
       <c r="D16" t="n">
-        <v>61.6743</v>
+        <v>62.6982</v>
       </c>
       <c r="E16" t="n">
-        <v>80.2025</v>
+        <v>80.38290000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.9997</v>
+        <v>32.8358</v>
       </c>
       <c r="C17" t="n">
-        <v>36.9724</v>
+        <v>36.8518</v>
       </c>
       <c r="D17" t="n">
-        <v>62.603</v>
+        <v>60.9493</v>
       </c>
       <c r="E17" t="n">
-        <v>80.8481</v>
+        <v>80.4837</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4022</v>
+        <v>10.4886</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8392</v>
+        <v>12.9057</v>
       </c>
       <c r="D2" t="n">
-        <v>17.5628</v>
+        <v>16.3889</v>
       </c>
       <c r="E2" t="n">
-        <v>21.1445</v>
+        <v>19.4327</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.2621</v>
+        <v>19.5107</v>
       </c>
       <c r="C3" t="n">
-        <v>20.068</v>
+        <v>19.0804</v>
       </c>
       <c r="D3" t="n">
-        <v>27.642</v>
+        <v>25.4813</v>
       </c>
       <c r="E3" t="n">
-        <v>32.678</v>
+        <v>30.304</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.5818</v>
+        <v>26.4157</v>
       </c>
       <c r="C4" t="n">
-        <v>24.339</v>
+        <v>24.0991</v>
       </c>
       <c r="D4" t="n">
-        <v>31.2535</v>
+        <v>31.1848</v>
       </c>
       <c r="E4" t="n">
-        <v>41.2357</v>
+        <v>35.4503</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.7055</v>
+        <v>21.1523</v>
       </c>
       <c r="C5" t="n">
-        <v>27.5828</v>
+        <v>27.0476</v>
       </c>
       <c r="D5" t="n">
-        <v>34.2495</v>
+        <v>32.2518</v>
       </c>
       <c r="E5" t="n">
-        <v>43.6254</v>
+        <v>37.5371</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.3979</v>
+        <v>24.5024</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4261</v>
+        <v>31.2753</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4655</v>
+        <v>34.7238</v>
       </c>
       <c r="E6" t="n">
-        <v>43.8503</v>
+        <v>38.6384</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9492</v>
+        <v>29.0988</v>
       </c>
       <c r="C7" t="n">
-        <v>36.8289</v>
+        <v>36.5503</v>
       </c>
       <c r="D7" t="n">
-        <v>38.8238</v>
+        <v>38.4402</v>
       </c>
       <c r="E7" t="n">
-        <v>49.6798</v>
+        <v>43.6719</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.9859</v>
+        <v>21.4613</v>
       </c>
       <c r="C8" t="n">
-        <v>33.8648</v>
+        <v>34.0312</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0066</v>
+        <v>37.9945</v>
       </c>
       <c r="E8" t="n">
-        <v>46.8689</v>
+        <v>41.4724</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7177</v>
+        <v>24.0692</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1712</v>
+        <v>33.8544</v>
       </c>
       <c r="D9" t="n">
-        <v>44.1523</v>
+        <v>41.0052</v>
       </c>
       <c r="E9" t="n">
-        <v>51.3434</v>
+        <v>46.2738</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.2289</v>
+        <v>26.2749</v>
       </c>
       <c r="C10" t="n">
-        <v>34.2785</v>
+        <v>34.3571</v>
       </c>
       <c r="D10" t="n">
-        <v>45.9774</v>
+        <v>43.1829</v>
       </c>
       <c r="E10" t="n">
-        <v>50.165</v>
+        <v>46.9847</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2005</v>
+        <v>24.1347</v>
       </c>
       <c r="C11" t="n">
-        <v>34.8273</v>
+        <v>34.4049</v>
       </c>
       <c r="D11" t="n">
-        <v>48.8442</v>
+        <v>44.2289</v>
       </c>
       <c r="E11" t="n">
-        <v>57.4789</v>
+        <v>50.4292</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.394</v>
+        <v>26.5448</v>
       </c>
       <c r="C12" t="n">
-        <v>34.4234</v>
+        <v>34.5479</v>
       </c>
       <c r="D12" t="n">
-        <v>51.9229</v>
+        <v>43.771</v>
       </c>
       <c r="E12" t="n">
-        <v>59.3219</v>
+        <v>51.5385</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.8397</v>
+        <v>29.0223</v>
       </c>
       <c r="C13" t="n">
-        <v>35.5072</v>
+        <v>35.3985</v>
       </c>
       <c r="D13" t="n">
-        <v>49.7896</v>
+        <v>44.4997</v>
       </c>
       <c r="E13" t="n">
-        <v>59.9031</v>
+        <v>51.7382</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.6562</v>
+        <v>24.0506</v>
       </c>
       <c r="C14" t="n">
-        <v>35.3047</v>
+        <v>34.9862</v>
       </c>
       <c r="D14" t="n">
-        <v>51.0701</v>
+        <v>44.8943</v>
       </c>
       <c r="E14" t="n">
-        <v>56.8152</v>
+        <v>51.8905</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.3147</v>
+        <v>25.6637</v>
       </c>
       <c r="C15" t="n">
-        <v>35.3693</v>
+        <v>34.852</v>
       </c>
       <c r="D15" t="n">
-        <v>50.7772</v>
+        <v>44.893</v>
       </c>
       <c r="E15" t="n">
-        <v>59.6162</v>
+        <v>51.4454</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.5429</v>
+        <v>26.8982</v>
       </c>
       <c r="C16" t="n">
-        <v>35.0745</v>
+        <v>34.698</v>
       </c>
       <c r="D16" t="n">
-        <v>50.5512</v>
+        <v>45.5986</v>
       </c>
       <c r="E16" t="n">
-        <v>62.3775</v>
+        <v>54.7531</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.6284</v>
+        <v>25.5141</v>
       </c>
       <c r="C17" t="n">
-        <v>35.3618</v>
+        <v>34.6857</v>
       </c>
       <c r="D17" t="n">
-        <v>51.5324</v>
+        <v>44.9691</v>
       </c>
       <c r="E17" t="n">
-        <v>64.12130000000001</v>
+        <v>51.783</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7104</v>
+        <v>10.7896</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7263</v>
+        <v>12.8962</v>
       </c>
       <c r="D2" t="n">
-        <v>17.3202</v>
+        <v>16.4094</v>
       </c>
       <c r="E2" t="n">
-        <v>20.9683</v>
+        <v>19.468</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.7498</v>
+        <v>20.1109</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3072</v>
+        <v>19.3198</v>
       </c>
       <c r="D3" t="n">
-        <v>26.3896</v>
+        <v>26.0725</v>
       </c>
       <c r="E3" t="n">
-        <v>32.0149</v>
+        <v>28.6581</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.525</v>
+        <v>28.1621</v>
       </c>
       <c r="C4" t="n">
-        <v>25.2887</v>
+        <v>25.5418</v>
       </c>
       <c r="D4" t="n">
-        <v>33.2018</v>
+        <v>30.8336</v>
       </c>
       <c r="E4" t="n">
-        <v>38.1842</v>
+        <v>34.8164</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9269</v>
+        <v>20.9656</v>
       </c>
       <c r="C5" t="n">
-        <v>26.8527</v>
+        <v>26.7078</v>
       </c>
       <c r="D5" t="n">
-        <v>34.2241</v>
+        <v>33.5738</v>
       </c>
       <c r="E5" t="n">
-        <v>42.5114</v>
+        <v>38.345</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.8446</v>
+        <v>24.9217</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4302</v>
+        <v>31.2232</v>
       </c>
       <c r="D6" t="n">
-        <v>37.4759</v>
+        <v>37.902</v>
       </c>
       <c r="E6" t="n">
-        <v>44.7195</v>
+        <v>38.8996</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.7558</v>
+        <v>29.8847</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5763</v>
+        <v>36.3196</v>
       </c>
       <c r="D7" t="n">
-        <v>43.5671</v>
+        <v>38.5604</v>
       </c>
       <c r="E7" t="n">
-        <v>50.638</v>
+        <v>44.0746</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6682</v>
+        <v>21.829</v>
       </c>
       <c r="C8" t="n">
-        <v>33.3612</v>
+        <v>33.3165</v>
       </c>
       <c r="D8" t="n">
-        <v>41.1511</v>
+        <v>34.7363</v>
       </c>
       <c r="E8" t="n">
-        <v>49.2313</v>
+        <v>42.854</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.7233</v>
+        <v>25.2121</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6174</v>
+        <v>33.8067</v>
       </c>
       <c r="D9" t="n">
-        <v>43.5527</v>
+        <v>39.8201</v>
       </c>
       <c r="E9" t="n">
-        <v>49.791</v>
+        <v>45.7635</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.5577</v>
+        <v>27.6888</v>
       </c>
       <c r="C10" t="n">
-        <v>34.4897</v>
+        <v>34.063</v>
       </c>
       <c r="D10" t="n">
-        <v>45.4727</v>
+        <v>38.9219</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2454</v>
+        <v>46.4472</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9277</v>
+        <v>24.8873</v>
       </c>
       <c r="C11" t="n">
-        <v>34.2018</v>
+        <v>33.951</v>
       </c>
       <c r="D11" t="n">
-        <v>45.6011</v>
+        <v>40.6367</v>
       </c>
       <c r="E11" t="n">
-        <v>59.0896</v>
+        <v>52.8087</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.0761</v>
+        <v>27.212</v>
       </c>
       <c r="C12" t="n">
-        <v>35.2492</v>
+        <v>34.8891</v>
       </c>
       <c r="D12" t="n">
-        <v>50.5523</v>
+        <v>43.5874</v>
       </c>
       <c r="E12" t="n">
-        <v>59.5603</v>
+        <v>50.8839</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7308</v>
+        <v>29.8432</v>
       </c>
       <c r="C13" t="n">
-        <v>35.6334</v>
+        <v>35.119</v>
       </c>
       <c r="D13" t="n">
-        <v>51.1614</v>
+        <v>45.9233</v>
       </c>
       <c r="E13" t="n">
-        <v>61.0143</v>
+        <v>53.1746</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.5821</v>
+        <v>24.2635</v>
       </c>
       <c r="C14" t="n">
-        <v>35.3026</v>
+        <v>35.378</v>
       </c>
       <c r="D14" t="n">
-        <v>50.4329</v>
+        <v>45.0553</v>
       </c>
       <c r="E14" t="n">
-        <v>60.3587</v>
+        <v>53.369</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.8797</v>
+        <v>26.1907</v>
       </c>
       <c r="C15" t="n">
-        <v>34.8618</v>
+        <v>35.3864</v>
       </c>
       <c r="D15" t="n">
-        <v>50.4541</v>
+        <v>46.2157</v>
       </c>
       <c r="E15" t="n">
-        <v>60.4245</v>
+        <v>53.1104</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.2859</v>
+        <v>27.7959</v>
       </c>
       <c r="C16" t="n">
-        <v>35.5743</v>
+        <v>35.4714</v>
       </c>
       <c r="D16" t="n">
-        <v>51.653</v>
+        <v>46.6828</v>
       </c>
       <c r="E16" t="n">
-        <v>61.2018</v>
+        <v>53.6292</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.4189</v>
+        <v>26.4102</v>
       </c>
       <c r="C17" t="n">
-        <v>35.5723</v>
+        <v>35.3494</v>
       </c>
       <c r="D17" t="n">
-        <v>50.7757</v>
+        <v>45.6728</v>
       </c>
       <c r="E17" t="n">
-        <v>61.426</v>
+        <v>56.0313</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.9279</v>
+        <v>13.1079</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8545</v>
+        <v>13.9997</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0642</v>
+        <v>18.865</v>
       </c>
       <c r="E2" t="n">
-        <v>22.3904</v>
+        <v>21.6865</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.0262</v>
+        <v>23.1662</v>
       </c>
       <c r="C3" t="n">
-        <v>23.3139</v>
+        <v>23.4086</v>
       </c>
       <c r="D3" t="n">
-        <v>30.5863</v>
+        <v>30.6592</v>
       </c>
       <c r="E3" t="n">
-        <v>34.2445</v>
+        <v>32.5777</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0486</v>
+        <v>32.1962</v>
       </c>
       <c r="C4" t="n">
-        <v>29.2455</v>
+        <v>29.0341</v>
       </c>
       <c r="D4" t="n">
-        <v>34.8612</v>
+        <v>35.1807</v>
       </c>
       <c r="E4" t="n">
-        <v>41.2619</v>
+        <v>40.0442</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.0093</v>
+        <v>27.0282</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3007</v>
+        <v>28.5884</v>
       </c>
       <c r="D5" t="n">
-        <v>35.839</v>
+        <v>34.1934</v>
       </c>
       <c r="E5" t="n">
-        <v>50.6609</v>
+        <v>43.0315</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.5612</v>
+        <v>31.7698</v>
       </c>
       <c r="C6" t="n">
-        <v>32.9265</v>
+        <v>32.7669</v>
       </c>
       <c r="D6" t="n">
-        <v>38.8216</v>
+        <v>41.4665</v>
       </c>
       <c r="E6" t="n">
-        <v>50.7448</v>
+        <v>50.3984</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.4655</v>
+        <v>37.642</v>
       </c>
       <c r="C7" t="n">
-        <v>38.3594</v>
+        <v>38.1614</v>
       </c>
       <c r="D7" t="n">
-        <v>45.15</v>
+        <v>44.0806</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7519</v>
+        <v>50.6785</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.0725</v>
+        <v>34.6596</v>
       </c>
       <c r="C8" t="n">
-        <v>35.0605</v>
+        <v>34.2421</v>
       </c>
       <c r="D8" t="n">
-        <v>50.4088</v>
+        <v>46.2655</v>
       </c>
       <c r="E8" t="n">
-        <v>50.802</v>
+        <v>49.1963</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.8849</v>
+        <v>34.0616</v>
       </c>
       <c r="C9" t="n">
-        <v>35.3338</v>
+        <v>34.5393</v>
       </c>
       <c r="D9" t="n">
-        <v>49.238</v>
+        <v>50.0282</v>
       </c>
       <c r="E9" t="n">
-        <v>58.7473</v>
+        <v>52.6333</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.1123</v>
+        <v>34.0526</v>
       </c>
       <c r="C10" t="n">
-        <v>34.9162</v>
+        <v>34.4278</v>
       </c>
       <c r="D10" t="n">
-        <v>50.0345</v>
+        <v>50.4568</v>
       </c>
       <c r="E10" t="n">
-        <v>56.4349</v>
+        <v>56.4429</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.611</v>
+        <v>34.8161</v>
       </c>
       <c r="C11" t="n">
-        <v>35.9705</v>
+        <v>35.3252</v>
       </c>
       <c r="D11" t="n">
-        <v>50.7139</v>
+        <v>50.6911</v>
       </c>
       <c r="E11" t="n">
-        <v>60.1273</v>
+        <v>56.6017</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.6436</v>
+        <v>34.6635</v>
       </c>
       <c r="C12" t="n">
-        <v>35.6574</v>
+        <v>35.2083</v>
       </c>
       <c r="D12" t="n">
-        <v>51.3757</v>
+        <v>50.2255</v>
       </c>
       <c r="E12" t="n">
-        <v>60.6395</v>
+        <v>58.2081</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.8113</v>
+        <v>35.4608</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4232</v>
+        <v>35.0744</v>
       </c>
       <c r="D13" t="n">
-        <v>50.9036</v>
+        <v>50.8813</v>
       </c>
       <c r="E13" t="n">
-        <v>59.6878</v>
+        <v>59.5802</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.9839</v>
+        <v>35.3903</v>
       </c>
       <c r="C14" t="n">
-        <v>35.9066</v>
+        <v>35.7963</v>
       </c>
       <c r="D14" t="n">
-        <v>51.4357</v>
+        <v>51.6184</v>
       </c>
       <c r="E14" t="n">
-        <v>60.8753</v>
+        <v>59.5025</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.6206</v>
+        <v>35.6358</v>
       </c>
       <c r="C15" t="n">
-        <v>36.1043</v>
+        <v>35.6489</v>
       </c>
       <c r="D15" t="n">
-        <v>51.2269</v>
+        <v>51.2527</v>
       </c>
       <c r="E15" t="n">
-        <v>60.0934</v>
+        <v>59.3248</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.3497</v>
+        <v>35.1883</v>
       </c>
       <c r="C16" t="n">
-        <v>36.087</v>
+        <v>35.7384</v>
       </c>
       <c r="D16" t="n">
-        <v>51.1686</v>
+        <v>51.9053</v>
       </c>
       <c r="E16" t="n">
-        <v>60.7946</v>
+        <v>58.8077</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.7885</v>
+        <v>35.2125</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1444</v>
+        <v>36.1009</v>
       </c>
       <c r="D17" t="n">
-        <v>51.7417</v>
+        <v>51.0539</v>
       </c>
       <c r="E17" t="n">
-        <v>58.7248</v>
+        <v>56.9688</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.79174</v>
+        <v>4.81218</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8727</v>
+        <v>11.0043</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6833</v>
+        <v>13.8973</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7514</v>
+        <v>18.4288</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.351940000000001</v>
+        <v>9.396129999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8205</v>
+        <v>19.0024</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9798</v>
+        <v>25.7552</v>
       </c>
       <c r="E3" t="n">
-        <v>36.9095</v>
+        <v>33.503</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4956</v>
+        <v>13.5536</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8531</v>
+        <v>26.4453</v>
       </c>
       <c r="D4" t="n">
-        <v>39.615</v>
+        <v>35.9575</v>
       </c>
       <c r="E4" t="n">
-        <v>51.9377</v>
+        <v>47.1812</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8775</v>
+        <v>15.9215</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5437</v>
+        <v>26.5192</v>
       </c>
       <c r="D5" t="n">
-        <v>43.6434</v>
+        <v>38.4045</v>
       </c>
       <c r="E5" t="n">
-        <v>59.2545</v>
+        <v>48.3984</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2549</v>
+        <v>19.3335</v>
       </c>
       <c r="C6" t="n">
-        <v>30.1811</v>
+        <v>29.6496</v>
       </c>
       <c r="D6" t="n">
-        <v>51.5064</v>
+        <v>44.2807</v>
       </c>
       <c r="E6" t="n">
-        <v>68.6207</v>
+        <v>56.3787</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.3736</v>
+        <v>22.4698</v>
       </c>
       <c r="C7" t="n">
-        <v>35.126</v>
+        <v>34.9865</v>
       </c>
       <c r="D7" t="n">
-        <v>61.1918</v>
+        <v>50.8132</v>
       </c>
       <c r="E7" t="n">
-        <v>81.1454</v>
+        <v>65.1409</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0666</v>
+        <v>20.4191</v>
       </c>
       <c r="C8" t="n">
-        <v>34.1862</v>
+        <v>33.5445</v>
       </c>
       <c r="D8" t="n">
-        <v>54.4774</v>
+        <v>44.0365</v>
       </c>
       <c r="E8" t="n">
-        <v>70.3961</v>
+        <v>60.4241</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8948</v>
+        <v>20.616</v>
       </c>
       <c r="C9" t="n">
-        <v>33.5404</v>
+        <v>33.7565</v>
       </c>
       <c r="D9" t="n">
-        <v>54.0555</v>
+        <v>45.6606</v>
       </c>
       <c r="E9" t="n">
-        <v>70.58669999999999</v>
+        <v>55.7769</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1318</v>
+        <v>20.9553</v>
       </c>
       <c r="C10" t="n">
-        <v>33.8157</v>
+        <v>33.8529</v>
       </c>
       <c r="D10" t="n">
-        <v>56.9358</v>
+        <v>44.9563</v>
       </c>
       <c r="E10" t="n">
-        <v>73.9855</v>
+        <v>59.5911</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.019</v>
+        <v>21.4617</v>
       </c>
       <c r="C11" t="n">
-        <v>33.85</v>
+        <v>33.8197</v>
       </c>
       <c r="D11" t="n">
-        <v>56.0377</v>
+        <v>45.2666</v>
       </c>
       <c r="E11" t="n">
-        <v>75.4841</v>
+        <v>62.1659</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.939</v>
+        <v>21.12</v>
       </c>
       <c r="C12" t="n">
-        <v>34.3758</v>
+        <v>33.8996</v>
       </c>
       <c r="D12" t="n">
-        <v>58.3715</v>
+        <v>47.436</v>
       </c>
       <c r="E12" t="n">
-        <v>73.5485</v>
+        <v>62.4724</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2728</v>
+        <v>21.3724</v>
       </c>
       <c r="C13" t="n">
-        <v>34.7271</v>
+        <v>34.0344</v>
       </c>
       <c r="D13" t="n">
-        <v>57.8155</v>
+        <v>46.7164</v>
       </c>
       <c r="E13" t="n">
-        <v>77.0611</v>
+        <v>60.9269</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2157</v>
+        <v>21.2054</v>
       </c>
       <c r="C14" t="n">
-        <v>34.3205</v>
+        <v>34.1107</v>
       </c>
       <c r="D14" t="n">
-        <v>58.2728</v>
+        <v>45.076</v>
       </c>
       <c r="E14" t="n">
-        <v>76.0252</v>
+        <v>62.3823</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2572</v>
+        <v>21.1434</v>
       </c>
       <c r="C15" t="n">
-        <v>34.5359</v>
+        <v>33.8863</v>
       </c>
       <c r="D15" t="n">
-        <v>58.4036</v>
+        <v>46.9245</v>
       </c>
       <c r="E15" t="n">
-        <v>77.0093</v>
+        <v>62.528</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3114</v>
+        <v>21.205</v>
       </c>
       <c r="C16" t="n">
-        <v>34.3368</v>
+        <v>33.9691</v>
       </c>
       <c r="D16" t="n">
-        <v>57.9923</v>
+        <v>42.0254</v>
       </c>
       <c r="E16" t="n">
-        <v>76.45999999999999</v>
+        <v>61.7473</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.9212</v>
+        <v>21.5043</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7163</v>
+        <v>34.4345</v>
       </c>
       <c r="D17" t="n">
-        <v>59.5188</v>
+        <v>46.4522</v>
       </c>
       <c r="E17" t="n">
-        <v>77.5367</v>
+        <v>59.0463</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.81514</v>
+        <v>4.83472</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9658</v>
+        <v>11.0882</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5547</v>
+        <v>13.9327</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7158</v>
+        <v>18.6581</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.409700000000001</v>
+        <v>9.456759999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8615</v>
+        <v>19.0479</v>
       </c>
       <c r="D3" t="n">
-        <v>27.6701</v>
+        <v>25.7246</v>
       </c>
       <c r="E3" t="n">
-        <v>37.0335</v>
+        <v>33.8434</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.549</v>
+        <v>13.6537</v>
       </c>
       <c r="C4" t="n">
-        <v>26.3247</v>
+        <v>26.3417</v>
       </c>
       <c r="D4" t="n">
-        <v>38.9265</v>
+        <v>36.3636</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2325</v>
+        <v>47.2728</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.09</v>
+        <v>16.0607</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5916</v>
+        <v>26.4012</v>
       </c>
       <c r="D5" t="n">
-        <v>42.8304</v>
+        <v>38.5335</v>
       </c>
       <c r="E5" t="n">
-        <v>57.5772</v>
+        <v>48.7735</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4647</v>
+        <v>19.5881</v>
       </c>
       <c r="C6" t="n">
-        <v>30.2503</v>
+        <v>29.8846</v>
       </c>
       <c r="D6" t="n">
-        <v>50.6991</v>
+        <v>44.0964</v>
       </c>
       <c r="E6" t="n">
-        <v>68.5659</v>
+        <v>55.9936</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7722</v>
+        <v>22.8824</v>
       </c>
       <c r="C7" t="n">
-        <v>35.2506</v>
+        <v>35.0495</v>
       </c>
       <c r="D7" t="n">
-        <v>59.6522</v>
+        <v>50.702</v>
       </c>
       <c r="E7" t="n">
-        <v>79.52200000000001</v>
+        <v>65.0926</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5126</v>
+        <v>20.472</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0058</v>
+        <v>33.8955</v>
       </c>
       <c r="D8" t="n">
-        <v>53.0011</v>
+        <v>45.4725</v>
       </c>
       <c r="E8" t="n">
-        <v>69.5699</v>
+        <v>58.9472</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0677</v>
+        <v>21.1507</v>
       </c>
       <c r="C9" t="n">
-        <v>33.9805</v>
+        <v>33.5995</v>
       </c>
       <c r="D9" t="n">
-        <v>53.4842</v>
+        <v>43.6165</v>
       </c>
       <c r="E9" t="n">
-        <v>74.48439999999999</v>
+        <v>60.523</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.3211</v>
+        <v>21.4158</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9597</v>
+        <v>33.6583</v>
       </c>
       <c r="D10" t="n">
-        <v>53.8034</v>
+        <v>44.2794</v>
       </c>
       <c r="E10" t="n">
-        <v>73.23820000000001</v>
+        <v>59.4985</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4775</v>
+        <v>21.5777</v>
       </c>
       <c r="C11" t="n">
-        <v>33.9167</v>
+        <v>33.7442</v>
       </c>
       <c r="D11" t="n">
-        <v>55.0332</v>
+        <v>44.5422</v>
       </c>
       <c r="E11" t="n">
-        <v>73.01909999999999</v>
+        <v>61.3963</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.515</v>
+        <v>21.8152</v>
       </c>
       <c r="C12" t="n">
-        <v>34.4784</v>
+        <v>34.0229</v>
       </c>
       <c r="D12" t="n">
-        <v>54.6512</v>
+        <v>46.0164</v>
       </c>
       <c r="E12" t="n">
-        <v>74.9302</v>
+        <v>61.9842</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.6059</v>
+        <v>21.4462</v>
       </c>
       <c r="C13" t="n">
-        <v>34.7228</v>
+        <v>33.9694</v>
       </c>
       <c r="D13" t="n">
-        <v>56.0815</v>
+        <v>47.8</v>
       </c>
       <c r="E13" t="n">
-        <v>74.529</v>
+        <v>61.5392</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.6949</v>
+        <v>21.597</v>
       </c>
       <c r="C14" t="n">
-        <v>34.2449</v>
+        <v>34.2232</v>
       </c>
       <c r="D14" t="n">
-        <v>55.4909</v>
+        <v>41.3538</v>
       </c>
       <c r="E14" t="n">
-        <v>75.0659</v>
+        <v>61.7248</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5709</v>
+        <v>21.8232</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4159</v>
+        <v>34.4249</v>
       </c>
       <c r="D15" t="n">
-        <v>57.5063</v>
+        <v>46.5325</v>
       </c>
       <c r="E15" t="n">
-        <v>76.1918</v>
+        <v>60.8141</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5064</v>
+        <v>21.8874</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4242</v>
+        <v>34.4654</v>
       </c>
       <c r="D16" t="n">
-        <v>56.1372</v>
+        <v>43.581</v>
       </c>
       <c r="E16" t="n">
-        <v>76.1768</v>
+        <v>61.7171</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6857</v>
+        <v>22.0276</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5886</v>
+        <v>34.5242</v>
       </c>
       <c r="D17" t="n">
-        <v>56.1715</v>
+        <v>48.5283</v>
       </c>
       <c r="E17" t="n">
-        <v>76.6747</v>
+        <v>61.4824</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.906650000000001</v>
+        <v>9.00756</v>
       </c>
       <c r="C2" t="n">
-        <v>13.3361</v>
+        <v>13.528</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3759</v>
+        <v>18.3661</v>
       </c>
       <c r="E2" t="n">
-        <v>22.243</v>
+        <v>21.7815</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0938</v>
+        <v>17.2219</v>
       </c>
       <c r="C3" t="n">
-        <v>22.3763</v>
+        <v>22.4211</v>
       </c>
       <c r="D3" t="n">
-        <v>33.6774</v>
+        <v>33.7767</v>
       </c>
       <c r="E3" t="n">
-        <v>40.5831</v>
+        <v>38.9151</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.402</v>
+        <v>24.5994</v>
       </c>
       <c r="C4" t="n">
-        <v>29.4445</v>
+        <v>30.7366</v>
       </c>
       <c r="D4" t="n">
-        <v>47.5928</v>
+        <v>47.845</v>
       </c>
       <c r="E4" t="n">
-        <v>57.3033</v>
+        <v>55.3013</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.7166</v>
+        <v>24.462</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7195</v>
+        <v>29.3932</v>
       </c>
       <c r="D5" t="n">
-        <v>47.6477</v>
+        <v>48.237</v>
       </c>
       <c r="E5" t="n">
-        <v>60.7798</v>
+        <v>56.4959</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.6397</v>
+        <v>28.4337</v>
       </c>
       <c r="C6" t="n">
-        <v>32.6862</v>
+        <v>32.5515</v>
       </c>
       <c r="D6" t="n">
-        <v>54.1359</v>
+        <v>55.0941</v>
       </c>
       <c r="E6" t="n">
-        <v>71.3364</v>
+        <v>64.53489999999999</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.0981</v>
+        <v>34.5967</v>
       </c>
       <c r="C7" t="n">
-        <v>37.5132</v>
+        <v>37.3563</v>
       </c>
       <c r="D7" t="n">
-        <v>61.9048</v>
+        <v>62.4023</v>
       </c>
       <c r="E7" t="n">
-        <v>79.7103</v>
+        <v>73.4449</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.4839</v>
+        <v>31.7703</v>
       </c>
       <c r="C8" t="n">
-        <v>36.4274</v>
+        <v>36.2512</v>
       </c>
       <c r="D8" t="n">
-        <v>60.6169</v>
+        <v>59.3653</v>
       </c>
       <c r="E8" t="n">
-        <v>77.428</v>
+        <v>72.1173</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.1542</v>
+        <v>32.0928</v>
       </c>
       <c r="C9" t="n">
-        <v>36.4885</v>
+        <v>36.4321</v>
       </c>
       <c r="D9" t="n">
-        <v>61.0322</v>
+        <v>60.5831</v>
       </c>
       <c r="E9" t="n">
-        <v>80.0705</v>
+        <v>70.5082</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.8355</v>
+        <v>32.2995</v>
       </c>
       <c r="C10" t="n">
-        <v>36.9024</v>
+        <v>36.5431</v>
       </c>
       <c r="D10" t="n">
-        <v>61.1809</v>
+        <v>59.8732</v>
       </c>
       <c r="E10" t="n">
-        <v>80.2461</v>
+        <v>73.25709999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.0988</v>
+        <v>32.7712</v>
       </c>
       <c r="C11" t="n">
-        <v>36.7474</v>
+        <v>36.6278</v>
       </c>
       <c r="D11" t="n">
-        <v>61.8373</v>
+        <v>60.0346</v>
       </c>
       <c r="E11" t="n">
-        <v>80.6444</v>
+        <v>73.50920000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4326</v>
+        <v>32.4187</v>
       </c>
       <c r="C12" t="n">
-        <v>36.6295</v>
+        <v>36.4835</v>
       </c>
       <c r="D12" t="n">
-        <v>61.1856</v>
+        <v>58.7115</v>
       </c>
       <c r="E12" t="n">
-        <v>81.09399999999999</v>
+        <v>74.1631</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.7449</v>
+        <v>33.121</v>
       </c>
       <c r="C13" t="n">
-        <v>36.96</v>
+        <v>36.9467</v>
       </c>
       <c r="D13" t="n">
-        <v>61.7223</v>
+        <v>61.15</v>
       </c>
       <c r="E13" t="n">
-        <v>79.73099999999999</v>
+        <v>73.9752</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.812</v>
+        <v>32.3235</v>
       </c>
       <c r="C14" t="n">
-        <v>36.9251</v>
+        <v>36.8523</v>
       </c>
       <c r="D14" t="n">
-        <v>61.4977</v>
+        <v>61.2515</v>
       </c>
       <c r="E14" t="n">
-        <v>80.75239999999999</v>
+        <v>73.977</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.9366</v>
+        <v>33.0015</v>
       </c>
       <c r="C15" t="n">
-        <v>36.792</v>
+        <v>36.6313</v>
       </c>
       <c r="D15" t="n">
-        <v>61.9308</v>
+        <v>61.0884</v>
       </c>
       <c r="E15" t="n">
-        <v>80.9209</v>
+        <v>72.2989</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7118</v>
+        <v>32.48</v>
       </c>
       <c r="C16" t="n">
-        <v>36.6844</v>
+        <v>36.6632</v>
       </c>
       <c r="D16" t="n">
-        <v>62.6982</v>
+        <v>62.1269</v>
       </c>
       <c r="E16" t="n">
-        <v>80.38290000000001</v>
+        <v>73.5856</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.8358</v>
+        <v>32.6955</v>
       </c>
       <c r="C17" t="n">
-        <v>36.8518</v>
+        <v>36.7364</v>
       </c>
       <c r="D17" t="n">
-        <v>60.9493</v>
+        <v>61.5842</v>
       </c>
       <c r="E17" t="n">
-        <v>80.4837</v>
+        <v>73.124</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4886</v>
+        <v>10.398</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9057</v>
+        <v>12.8648</v>
       </c>
       <c r="D2" t="n">
-        <v>16.3889</v>
+        <v>17.5238</v>
       </c>
       <c r="E2" t="n">
-        <v>19.4327</v>
+        <v>21.029</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5107</v>
+        <v>19.6241</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0804</v>
+        <v>19.356</v>
       </c>
       <c r="D3" t="n">
-        <v>25.4813</v>
+        <v>26.924</v>
       </c>
       <c r="E3" t="n">
-        <v>30.304</v>
+        <v>30.525</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.4157</v>
+        <v>26.6803</v>
       </c>
       <c r="C4" t="n">
-        <v>24.0991</v>
+        <v>25.0485</v>
       </c>
       <c r="D4" t="n">
-        <v>31.1848</v>
+        <v>33.9871</v>
       </c>
       <c r="E4" t="n">
-        <v>35.4503</v>
+        <v>39.6431</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.1523</v>
+        <v>20.7582</v>
       </c>
       <c r="C5" t="n">
-        <v>27.0476</v>
+        <v>27.1337</v>
       </c>
       <c r="D5" t="n">
-        <v>32.2518</v>
+        <v>33.7906</v>
       </c>
       <c r="E5" t="n">
-        <v>37.5371</v>
+        <v>40.7769</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.5024</v>
+        <v>24.4589</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2753</v>
+        <v>31.104</v>
       </c>
       <c r="D6" t="n">
-        <v>34.7238</v>
+        <v>38.4173</v>
       </c>
       <c r="E6" t="n">
-        <v>38.6384</v>
+        <v>43.8217</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0988</v>
+        <v>29.1825</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5503</v>
+        <v>36.5273</v>
       </c>
       <c r="D7" t="n">
-        <v>38.4402</v>
+        <v>38.7605</v>
       </c>
       <c r="E7" t="n">
-        <v>43.6719</v>
+        <v>43.7167</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.4613</v>
+        <v>21.1556</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0312</v>
+        <v>34.0124</v>
       </c>
       <c r="D8" t="n">
-        <v>37.9945</v>
+        <v>40.4094</v>
       </c>
       <c r="E8" t="n">
-        <v>41.4724</v>
+        <v>44.7174</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.0692</v>
+        <v>24.135</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8544</v>
+        <v>34.1557</v>
       </c>
       <c r="D9" t="n">
-        <v>41.0052</v>
+        <v>42.4545</v>
       </c>
       <c r="E9" t="n">
-        <v>46.2738</v>
+        <v>45.9509</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.2749</v>
+        <v>26.7515</v>
       </c>
       <c r="C10" t="n">
-        <v>34.3571</v>
+        <v>34.5496</v>
       </c>
       <c r="D10" t="n">
-        <v>43.1829</v>
+        <v>44.3759</v>
       </c>
       <c r="E10" t="n">
-        <v>46.9847</v>
+        <v>49.8624</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.1347</v>
+        <v>24.4118</v>
       </c>
       <c r="C11" t="n">
-        <v>34.4049</v>
+        <v>34.0149</v>
       </c>
       <c r="D11" t="n">
-        <v>44.2289</v>
+        <v>45.2288</v>
       </c>
       <c r="E11" t="n">
-        <v>50.4292</v>
+        <v>52.3395</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.5448</v>
+        <v>26.57</v>
       </c>
       <c r="C12" t="n">
-        <v>34.5479</v>
+        <v>34.8319</v>
       </c>
       <c r="D12" t="n">
-        <v>43.771</v>
+        <v>47.2079</v>
       </c>
       <c r="E12" t="n">
-        <v>51.5385</v>
+        <v>52.7796</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.0223</v>
+        <v>29.1581</v>
       </c>
       <c r="C13" t="n">
-        <v>35.3985</v>
+        <v>34.6675</v>
       </c>
       <c r="D13" t="n">
-        <v>44.4997</v>
+        <v>47.0398</v>
       </c>
       <c r="E13" t="n">
-        <v>51.7382</v>
+        <v>53.1615</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0506</v>
+        <v>24.2497</v>
       </c>
       <c r="C14" t="n">
-        <v>34.9862</v>
+        <v>34.6138</v>
       </c>
       <c r="D14" t="n">
-        <v>44.8943</v>
+        <v>48.8072</v>
       </c>
       <c r="E14" t="n">
-        <v>51.8905</v>
+        <v>54.5489</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6637</v>
+        <v>25.7268</v>
       </c>
       <c r="C15" t="n">
-        <v>34.852</v>
+        <v>34.6905</v>
       </c>
       <c r="D15" t="n">
-        <v>44.893</v>
+        <v>47.5735</v>
       </c>
       <c r="E15" t="n">
-        <v>51.4454</v>
+        <v>54.4872</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.8982</v>
+        <v>27.2049</v>
       </c>
       <c r="C16" t="n">
-        <v>34.698</v>
+        <v>35.1164</v>
       </c>
       <c r="D16" t="n">
-        <v>45.5986</v>
+        <v>47.9565</v>
       </c>
       <c r="E16" t="n">
-        <v>54.7531</v>
+        <v>56.9887</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.5141</v>
+        <v>25.8389</v>
       </c>
       <c r="C17" t="n">
-        <v>34.6857</v>
+        <v>35.0381</v>
       </c>
       <c r="D17" t="n">
-        <v>44.9691</v>
+        <v>47.1221</v>
       </c>
       <c r="E17" t="n">
-        <v>51.783</v>
+        <v>57.8524</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7896</v>
+        <v>10.7715</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8962</v>
+        <v>12.8582</v>
       </c>
       <c r="D2" t="n">
-        <v>16.4094</v>
+        <v>17.469</v>
       </c>
       <c r="E2" t="n">
-        <v>19.468</v>
+        <v>20.8306</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.1109</v>
+        <v>20.1656</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3198</v>
+        <v>19.7782</v>
       </c>
       <c r="D3" t="n">
-        <v>26.0725</v>
+        <v>26.677</v>
       </c>
       <c r="E3" t="n">
-        <v>28.6581</v>
+        <v>31.3788</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.1621</v>
+        <v>27.5818</v>
       </c>
       <c r="C4" t="n">
-        <v>25.5418</v>
+        <v>26.1371</v>
       </c>
       <c r="D4" t="n">
-        <v>30.8336</v>
+        <v>32.7955</v>
       </c>
       <c r="E4" t="n">
-        <v>34.8164</v>
+        <v>37.7901</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9656</v>
+        <v>20.9866</v>
       </c>
       <c r="C5" t="n">
-        <v>26.7078</v>
+        <v>26.8756</v>
       </c>
       <c r="D5" t="n">
-        <v>33.5738</v>
+        <v>35.1021</v>
       </c>
       <c r="E5" t="n">
-        <v>38.345</v>
+        <v>38.6316</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9217</v>
+        <v>24.9893</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2232</v>
+        <v>31.1414</v>
       </c>
       <c r="D6" t="n">
-        <v>37.902</v>
+        <v>38.0465</v>
       </c>
       <c r="E6" t="n">
-        <v>38.8996</v>
+        <v>43.8154</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.8847</v>
+        <v>29.9987</v>
       </c>
       <c r="C7" t="n">
-        <v>36.3196</v>
+        <v>36.2703</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5604</v>
+        <v>38.1563</v>
       </c>
       <c r="E7" t="n">
-        <v>44.0746</v>
+        <v>44.0493</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.829</v>
+        <v>21.6886</v>
       </c>
       <c r="C8" t="n">
-        <v>33.3165</v>
+        <v>32.9675</v>
       </c>
       <c r="D8" t="n">
-        <v>34.7363</v>
+        <v>38.4821</v>
       </c>
       <c r="E8" t="n">
-        <v>42.854</v>
+        <v>44.3531</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.2121</v>
+        <v>25.3263</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8067</v>
+        <v>34.1956</v>
       </c>
       <c r="D9" t="n">
-        <v>39.8201</v>
+        <v>40.0355</v>
       </c>
       <c r="E9" t="n">
-        <v>45.7635</v>
+        <v>48.0557</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.6888</v>
+        <v>28.1489</v>
       </c>
       <c r="C10" t="n">
-        <v>34.063</v>
+        <v>33.6589</v>
       </c>
       <c r="D10" t="n">
-        <v>38.9219</v>
+        <v>40.6169</v>
       </c>
       <c r="E10" t="n">
-        <v>46.4472</v>
+        <v>48.7833</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8873</v>
+        <v>25.1114</v>
       </c>
       <c r="C11" t="n">
-        <v>33.951</v>
+        <v>34.2162</v>
       </c>
       <c r="D11" t="n">
-        <v>40.6367</v>
+        <v>43.8817</v>
       </c>
       <c r="E11" t="n">
-        <v>52.8087</v>
+        <v>51.1407</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.212</v>
+        <v>27.2669</v>
       </c>
       <c r="C12" t="n">
-        <v>34.8891</v>
+        <v>34.5204</v>
       </c>
       <c r="D12" t="n">
-        <v>43.5874</v>
+        <v>46.804</v>
       </c>
       <c r="E12" t="n">
-        <v>50.8839</v>
+        <v>51.7684</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8432</v>
+        <v>29.9108</v>
       </c>
       <c r="C13" t="n">
-        <v>35.119</v>
+        <v>34.8349</v>
       </c>
       <c r="D13" t="n">
-        <v>45.9233</v>
+        <v>45.1564</v>
       </c>
       <c r="E13" t="n">
-        <v>53.1746</v>
+        <v>54.9984</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.2635</v>
+        <v>24.1389</v>
       </c>
       <c r="C14" t="n">
-        <v>35.378</v>
+        <v>35.1439</v>
       </c>
       <c r="D14" t="n">
-        <v>45.0553</v>
+        <v>48.0834</v>
       </c>
       <c r="E14" t="n">
-        <v>53.369</v>
+        <v>54.0692</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.1907</v>
+        <v>26.3814</v>
       </c>
       <c r="C15" t="n">
-        <v>35.3864</v>
+        <v>35.1623</v>
       </c>
       <c r="D15" t="n">
-        <v>46.2157</v>
+        <v>48.832</v>
       </c>
       <c r="E15" t="n">
-        <v>53.1104</v>
+        <v>55.827</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.7959</v>
+        <v>28.2931</v>
       </c>
       <c r="C16" t="n">
-        <v>35.4714</v>
+        <v>35.2353</v>
       </c>
       <c r="D16" t="n">
-        <v>46.6828</v>
+        <v>47.342</v>
       </c>
       <c r="E16" t="n">
-        <v>53.6292</v>
+        <v>55.9839</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.4102</v>
+        <v>26.2082</v>
       </c>
       <c r="C17" t="n">
-        <v>35.3494</v>
+        <v>35.6236</v>
       </c>
       <c r="D17" t="n">
-        <v>45.6728</v>
+        <v>49.9931</v>
       </c>
       <c r="E17" t="n">
-        <v>56.0313</v>
+        <v>54.4629</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.1079</v>
+        <v>13.0684</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9997</v>
+        <v>13.9574</v>
       </c>
       <c r="D2" t="n">
-        <v>18.865</v>
+        <v>19.3497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6865</v>
+        <v>22.3554</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.1662</v>
+        <v>23.2013</v>
       </c>
       <c r="C3" t="n">
-        <v>23.4086</v>
+        <v>23.3097</v>
       </c>
       <c r="D3" t="n">
-        <v>30.6592</v>
+        <v>30.73</v>
       </c>
       <c r="E3" t="n">
-        <v>32.5777</v>
+        <v>34.0633</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.1962</v>
+        <v>32.2578</v>
       </c>
       <c r="C4" t="n">
-        <v>29.0341</v>
+        <v>30.0871</v>
       </c>
       <c r="D4" t="n">
-        <v>35.1807</v>
+        <v>35.7862</v>
       </c>
       <c r="E4" t="n">
-        <v>40.0442</v>
+        <v>39.1794</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.0282</v>
+        <v>26.537</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5884</v>
+        <v>29.3007</v>
       </c>
       <c r="D5" t="n">
-        <v>34.1934</v>
+        <v>35.1548</v>
       </c>
       <c r="E5" t="n">
-        <v>43.0315</v>
+        <v>47.1797</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.7698</v>
+        <v>31.8816</v>
       </c>
       <c r="C6" t="n">
-        <v>32.7669</v>
+        <v>32.7363</v>
       </c>
       <c r="D6" t="n">
-        <v>41.4665</v>
+        <v>41.2892</v>
       </c>
       <c r="E6" t="n">
-        <v>50.3984</v>
+        <v>49.1325</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.642</v>
+        <v>37.4819</v>
       </c>
       <c r="C7" t="n">
-        <v>38.1614</v>
+        <v>38.0613</v>
       </c>
       <c r="D7" t="n">
-        <v>44.0806</v>
+        <v>49.6489</v>
       </c>
       <c r="E7" t="n">
-        <v>50.6785</v>
+        <v>50.7897</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.6596</v>
+        <v>33.9222</v>
       </c>
       <c r="C8" t="n">
-        <v>34.2421</v>
+        <v>34.414</v>
       </c>
       <c r="D8" t="n">
-        <v>46.2655</v>
+        <v>48.1712</v>
       </c>
       <c r="E8" t="n">
-        <v>49.1963</v>
+        <v>50.0767</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.0616</v>
+        <v>34.3677</v>
       </c>
       <c r="C9" t="n">
-        <v>34.5393</v>
+        <v>34.9869</v>
       </c>
       <c r="D9" t="n">
-        <v>50.0282</v>
+        <v>48.8677</v>
       </c>
       <c r="E9" t="n">
-        <v>52.6333</v>
+        <v>58.6264</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0526</v>
+        <v>34.7991</v>
       </c>
       <c r="C10" t="n">
-        <v>34.4278</v>
+        <v>34.7798</v>
       </c>
       <c r="D10" t="n">
-        <v>50.4568</v>
+        <v>51.2026</v>
       </c>
       <c r="E10" t="n">
-        <v>56.4429</v>
+        <v>59.0744</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.8161</v>
+        <v>34.5073</v>
       </c>
       <c r="C11" t="n">
-        <v>35.3252</v>
+        <v>34.736</v>
       </c>
       <c r="D11" t="n">
-        <v>50.6911</v>
+        <v>50.703</v>
       </c>
       <c r="E11" t="n">
-        <v>56.6017</v>
+        <v>60.8044</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.6635</v>
+        <v>34.8237</v>
       </c>
       <c r="C12" t="n">
-        <v>35.2083</v>
+        <v>34.6641</v>
       </c>
       <c r="D12" t="n">
-        <v>50.2255</v>
+        <v>51.9174</v>
       </c>
       <c r="E12" t="n">
-        <v>58.2081</v>
+        <v>60.4302</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.4608</v>
+        <v>35.5045</v>
       </c>
       <c r="C13" t="n">
-        <v>35.0744</v>
+        <v>35.1947</v>
       </c>
       <c r="D13" t="n">
-        <v>50.8813</v>
+        <v>53.1474</v>
       </c>
       <c r="E13" t="n">
-        <v>59.5802</v>
+        <v>58.8449</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.3903</v>
+        <v>34.9025</v>
       </c>
       <c r="C14" t="n">
-        <v>35.7963</v>
+        <v>35.952</v>
       </c>
       <c r="D14" t="n">
-        <v>51.6184</v>
+        <v>52.6095</v>
       </c>
       <c r="E14" t="n">
-        <v>59.5025</v>
+        <v>59.9695</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.6358</v>
+        <v>35.1775</v>
       </c>
       <c r="C15" t="n">
-        <v>35.6489</v>
+        <v>35.0445</v>
       </c>
       <c r="D15" t="n">
-        <v>51.2527</v>
+        <v>54.0017</v>
       </c>
       <c r="E15" t="n">
-        <v>59.3248</v>
+        <v>59.5638</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.1883</v>
+        <v>35.2991</v>
       </c>
       <c r="C16" t="n">
-        <v>35.7384</v>
+        <v>36.1371</v>
       </c>
       <c r="D16" t="n">
-        <v>51.9053</v>
+        <v>53.6613</v>
       </c>
       <c r="E16" t="n">
-        <v>58.8077</v>
+        <v>59.0544</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.2125</v>
+        <v>35.2018</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1009</v>
+        <v>36.0092</v>
       </c>
       <c r="D17" t="n">
-        <v>51.0539</v>
+        <v>53.3037</v>
       </c>
       <c r="E17" t="n">
-        <v>56.9688</v>
+        <v>61.1196</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.81218</v>
+        <v>4.8138</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0043</v>
+        <v>10.9335</v>
       </c>
       <c r="D2" t="n">
-        <v>13.8973</v>
+        <v>14.6544</v>
       </c>
       <c r="E2" t="n">
-        <v>18.4288</v>
+        <v>19.7268</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.396129999999999</v>
+        <v>9.418760000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0024</v>
+        <v>18.9446</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7552</v>
+        <v>27.3878</v>
       </c>
       <c r="E3" t="n">
-        <v>33.503</v>
+        <v>36.1392</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5536</v>
+        <v>13.5816</v>
       </c>
       <c r="C4" t="n">
-        <v>26.4453</v>
+        <v>26.2918</v>
       </c>
       <c r="D4" t="n">
-        <v>35.9575</v>
+        <v>38.3748</v>
       </c>
       <c r="E4" t="n">
-        <v>47.1812</v>
+        <v>49.7912</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9215</v>
+        <v>15.8878</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5192</v>
+        <v>26.583</v>
       </c>
       <c r="D5" t="n">
-        <v>38.4045</v>
+        <v>40.4169</v>
       </c>
       <c r="E5" t="n">
-        <v>48.3984</v>
+        <v>52.1374</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3335</v>
+        <v>19.3493</v>
       </c>
       <c r="C6" t="n">
-        <v>29.6496</v>
+        <v>30.1316</v>
       </c>
       <c r="D6" t="n">
-        <v>44.2807</v>
+        <v>46.8781</v>
       </c>
       <c r="E6" t="n">
-        <v>56.3787</v>
+        <v>60.1874</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4698</v>
+        <v>22.5292</v>
       </c>
       <c r="C7" t="n">
-        <v>34.9865</v>
+        <v>35.047</v>
       </c>
       <c r="D7" t="n">
-        <v>50.8132</v>
+        <v>54.2112</v>
       </c>
       <c r="E7" t="n">
-        <v>65.1409</v>
+        <v>69.249</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4191</v>
+        <v>20.4926</v>
       </c>
       <c r="C8" t="n">
-        <v>33.5445</v>
+        <v>33.748</v>
       </c>
       <c r="D8" t="n">
-        <v>44.0365</v>
+        <v>47.9111</v>
       </c>
       <c r="E8" t="n">
-        <v>60.4241</v>
+        <v>61.3965</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.616</v>
+        <v>21.0555</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7565</v>
+        <v>33.7946</v>
       </c>
       <c r="D9" t="n">
-        <v>45.6606</v>
+        <v>50.2824</v>
       </c>
       <c r="E9" t="n">
-        <v>55.7769</v>
+        <v>59.2125</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.9553</v>
+        <v>20.9498</v>
       </c>
       <c r="C10" t="n">
-        <v>33.8529</v>
+        <v>33.6079</v>
       </c>
       <c r="D10" t="n">
-        <v>44.9563</v>
+        <v>48.273</v>
       </c>
       <c r="E10" t="n">
-        <v>59.5911</v>
+        <v>64.08199999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4617</v>
+        <v>21.3317</v>
       </c>
       <c r="C11" t="n">
-        <v>33.8197</v>
+        <v>33.4605</v>
       </c>
       <c r="D11" t="n">
-        <v>45.2666</v>
+        <v>47.2549</v>
       </c>
       <c r="E11" t="n">
-        <v>62.1659</v>
+        <v>64.3968</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.12</v>
+        <v>21.5035</v>
       </c>
       <c r="C12" t="n">
-        <v>33.8996</v>
+        <v>33.919</v>
       </c>
       <c r="D12" t="n">
-        <v>47.436</v>
+        <v>47.97</v>
       </c>
       <c r="E12" t="n">
-        <v>62.4724</v>
+        <v>64.9537</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.3724</v>
+        <v>21.1415</v>
       </c>
       <c r="C13" t="n">
-        <v>34.0344</v>
+        <v>34.1663</v>
       </c>
       <c r="D13" t="n">
-        <v>46.7164</v>
+        <v>48.1648</v>
       </c>
       <c r="E13" t="n">
-        <v>60.9269</v>
+        <v>64.5197</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2054</v>
+        <v>21.4043</v>
       </c>
       <c r="C14" t="n">
-        <v>34.1107</v>
+        <v>33.9071</v>
       </c>
       <c r="D14" t="n">
-        <v>45.076</v>
+        <v>49.6686</v>
       </c>
       <c r="E14" t="n">
-        <v>62.3823</v>
+        <v>62.0871</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.1434</v>
+        <v>21.5186</v>
       </c>
       <c r="C15" t="n">
-        <v>33.8863</v>
+        <v>34.1949</v>
       </c>
       <c r="D15" t="n">
-        <v>46.9245</v>
+        <v>44.4676</v>
       </c>
       <c r="E15" t="n">
-        <v>62.528</v>
+        <v>64.96250000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.205</v>
+        <v>21.412</v>
       </c>
       <c r="C16" t="n">
-        <v>33.9691</v>
+        <v>34.4982</v>
       </c>
       <c r="D16" t="n">
-        <v>42.0254</v>
+        <v>50.6567</v>
       </c>
       <c r="E16" t="n">
-        <v>61.7473</v>
+        <v>65.1485</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.5043</v>
+        <v>21.0816</v>
       </c>
       <c r="C17" t="n">
-        <v>34.4345</v>
+        <v>34.2448</v>
       </c>
       <c r="D17" t="n">
-        <v>46.4522</v>
+        <v>51.483</v>
       </c>
       <c r="E17" t="n">
-        <v>59.0463</v>
+        <v>65.7762</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.83472</v>
+        <v>4.84666</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0882</v>
+        <v>11.0794</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9327</v>
+        <v>14.6257</v>
       </c>
       <c r="E2" t="n">
-        <v>18.6581</v>
+        <v>19.8156</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.456759999999999</v>
+        <v>9.48283</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0479</v>
+        <v>19.2123</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7246</v>
+        <v>27.3036</v>
       </c>
       <c r="E3" t="n">
-        <v>33.8434</v>
+        <v>36.2979</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.6537</v>
+        <v>13.7463</v>
       </c>
       <c r="C4" t="n">
-        <v>26.3417</v>
+        <v>26.6972</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3636</v>
+        <v>37.949</v>
       </c>
       <c r="E4" t="n">
-        <v>47.2728</v>
+        <v>50.3553</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0607</v>
+        <v>16.2011</v>
       </c>
       <c r="C5" t="n">
-        <v>26.4012</v>
+        <v>26.5137</v>
       </c>
       <c r="D5" t="n">
-        <v>38.5335</v>
+        <v>39.6652</v>
       </c>
       <c r="E5" t="n">
-        <v>48.7735</v>
+        <v>51.7621</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5881</v>
+        <v>19.5947</v>
       </c>
       <c r="C6" t="n">
-        <v>29.8846</v>
+        <v>30.1298</v>
       </c>
       <c r="D6" t="n">
-        <v>44.0964</v>
+        <v>46.4031</v>
       </c>
       <c r="E6" t="n">
-        <v>55.9936</v>
+        <v>59.9431</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8824</v>
+        <v>22.949</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0495</v>
+        <v>35.1297</v>
       </c>
       <c r="D7" t="n">
-        <v>50.702</v>
+        <v>52.7181</v>
       </c>
       <c r="E7" t="n">
-        <v>65.0926</v>
+        <v>67.94929999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.472</v>
+        <v>20.5237</v>
       </c>
       <c r="C8" t="n">
-        <v>33.8955</v>
+        <v>33.6165</v>
       </c>
       <c r="D8" t="n">
-        <v>45.4725</v>
+        <v>48.056</v>
       </c>
       <c r="E8" t="n">
-        <v>58.9472</v>
+        <v>58.6289</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1507</v>
+        <v>20.9709</v>
       </c>
       <c r="C9" t="n">
-        <v>33.5995</v>
+        <v>33.4005</v>
       </c>
       <c r="D9" t="n">
-        <v>43.6165</v>
+        <v>45.1782</v>
       </c>
       <c r="E9" t="n">
-        <v>60.523</v>
+        <v>62.3377</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4158</v>
+        <v>21.5793</v>
       </c>
       <c r="C10" t="n">
-        <v>33.6583</v>
+        <v>33.7299</v>
       </c>
       <c r="D10" t="n">
-        <v>44.2794</v>
+        <v>43.6237</v>
       </c>
       <c r="E10" t="n">
-        <v>59.4985</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5777</v>
+        <v>21.9122</v>
       </c>
       <c r="C11" t="n">
-        <v>33.7442</v>
+        <v>34.2276</v>
       </c>
       <c r="D11" t="n">
-        <v>44.5422</v>
+        <v>45.1977</v>
       </c>
       <c r="E11" t="n">
-        <v>61.3963</v>
+        <v>64.1486</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.8152</v>
+        <v>21.669</v>
       </c>
       <c r="C12" t="n">
-        <v>34.0229</v>
+        <v>33.9233</v>
       </c>
       <c r="D12" t="n">
-        <v>46.0164</v>
+        <v>44.3007</v>
       </c>
       <c r="E12" t="n">
-        <v>61.9842</v>
+        <v>64.05710000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4462</v>
+        <v>21.5825</v>
       </c>
       <c r="C13" t="n">
-        <v>33.9694</v>
+        <v>34.111</v>
       </c>
       <c r="D13" t="n">
-        <v>47.8</v>
+        <v>49.6673</v>
       </c>
       <c r="E13" t="n">
-        <v>61.5392</v>
+        <v>66.16500000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.597</v>
+        <v>21.5159</v>
       </c>
       <c r="C14" t="n">
-        <v>34.2232</v>
+        <v>34.1685</v>
       </c>
       <c r="D14" t="n">
-        <v>41.3538</v>
+        <v>41.8939</v>
       </c>
       <c r="E14" t="n">
-        <v>61.7248</v>
+        <v>64.0132</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.8232</v>
+        <v>21.8971</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4249</v>
+        <v>34.3875</v>
       </c>
       <c r="D15" t="n">
-        <v>46.5325</v>
+        <v>44.337</v>
       </c>
       <c r="E15" t="n">
-        <v>60.8141</v>
+        <v>62.6316</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.8874</v>
+        <v>21.4696</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4654</v>
+        <v>34.3523</v>
       </c>
       <c r="D16" t="n">
-        <v>43.581</v>
+        <v>40.2077</v>
       </c>
       <c r="E16" t="n">
-        <v>61.7171</v>
+        <v>64.7851</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.0276</v>
+        <v>21.7753</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5242</v>
+        <v>34.3816</v>
       </c>
       <c r="D17" t="n">
-        <v>48.5283</v>
+        <v>45.7542</v>
       </c>
       <c r="E17" t="n">
-        <v>61.4824</v>
+        <v>65.37430000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.00756</v>
+        <v>8.979150000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.528</v>
+        <v>13.502</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3661</v>
+        <v>18.7493</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7815</v>
+        <v>22.3181</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.2219</v>
+        <v>17.151</v>
       </c>
       <c r="C3" t="n">
-        <v>22.4211</v>
+        <v>22.4099</v>
       </c>
       <c r="D3" t="n">
-        <v>33.7767</v>
+        <v>34.3022</v>
       </c>
       <c r="E3" t="n">
-        <v>38.9151</v>
+        <v>40.0708</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.5994</v>
+        <v>24.7354</v>
       </c>
       <c r="C4" t="n">
-        <v>30.7366</v>
+        <v>29.9391</v>
       </c>
       <c r="D4" t="n">
-        <v>47.845</v>
+        <v>49.6372</v>
       </c>
       <c r="E4" t="n">
-        <v>55.3013</v>
+        <v>56.6848</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.462</v>
+        <v>24.6577</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3932</v>
+        <v>29.6449</v>
       </c>
       <c r="D5" t="n">
-        <v>48.237</v>
+        <v>49.3255</v>
       </c>
       <c r="E5" t="n">
-        <v>56.4959</v>
+        <v>57.6454</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.4337</v>
+        <v>28.5669</v>
       </c>
       <c r="C6" t="n">
-        <v>32.5515</v>
+        <v>32.558</v>
       </c>
       <c r="D6" t="n">
-        <v>55.0941</v>
+        <v>56.746</v>
       </c>
       <c r="E6" t="n">
-        <v>64.53489999999999</v>
+        <v>66.2015</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.5967</v>
+        <v>34.5996</v>
       </c>
       <c r="C7" t="n">
-        <v>37.3563</v>
+        <v>37.3021</v>
       </c>
       <c r="D7" t="n">
-        <v>62.4023</v>
+        <v>62.9529</v>
       </c>
       <c r="E7" t="n">
-        <v>73.4449</v>
+        <v>74.66759999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.7703</v>
+        <v>31.5872</v>
       </c>
       <c r="C8" t="n">
-        <v>36.2512</v>
+        <v>36.2173</v>
       </c>
       <c r="D8" t="n">
-        <v>59.3653</v>
+        <v>61.0486</v>
       </c>
       <c r="E8" t="n">
-        <v>72.1173</v>
+        <v>72.1328</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.0928</v>
+        <v>31.7263</v>
       </c>
       <c r="C9" t="n">
-        <v>36.4321</v>
+        <v>36.3991</v>
       </c>
       <c r="D9" t="n">
-        <v>60.5831</v>
+        <v>60.3751</v>
       </c>
       <c r="E9" t="n">
-        <v>70.5082</v>
+        <v>73.94289999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.2995</v>
+        <v>32.8453</v>
       </c>
       <c r="C10" t="n">
-        <v>36.5431</v>
+        <v>36.529</v>
       </c>
       <c r="D10" t="n">
-        <v>59.8732</v>
+        <v>62.1421</v>
       </c>
       <c r="E10" t="n">
-        <v>73.25709999999999</v>
+        <v>74.36579999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.7712</v>
+        <v>33.0806</v>
       </c>
       <c r="C11" t="n">
-        <v>36.6278</v>
+        <v>36.5218</v>
       </c>
       <c r="D11" t="n">
-        <v>60.0346</v>
+        <v>62.1512</v>
       </c>
       <c r="E11" t="n">
-        <v>73.50920000000001</v>
+        <v>74.5907</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4187</v>
+        <v>32.7756</v>
       </c>
       <c r="C12" t="n">
-        <v>36.4835</v>
+        <v>36.5281</v>
       </c>
       <c r="D12" t="n">
-        <v>58.7115</v>
+        <v>62.0864</v>
       </c>
       <c r="E12" t="n">
-        <v>74.1631</v>
+        <v>75.8408</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.121</v>
+        <v>32.2105</v>
       </c>
       <c r="C13" t="n">
-        <v>36.9467</v>
+        <v>36.6549</v>
       </c>
       <c r="D13" t="n">
-        <v>61.15</v>
+        <v>60.1258</v>
       </c>
       <c r="E13" t="n">
-        <v>73.9752</v>
+        <v>75.08110000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.3235</v>
+        <v>32.8107</v>
       </c>
       <c r="C14" t="n">
-        <v>36.8523</v>
+        <v>36.6196</v>
       </c>
       <c r="D14" t="n">
-        <v>61.2515</v>
+        <v>62.4992</v>
       </c>
       <c r="E14" t="n">
-        <v>73.977</v>
+        <v>76.1995</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.0015</v>
+        <v>32.9118</v>
       </c>
       <c r="C15" t="n">
-        <v>36.6313</v>
+        <v>36.4398</v>
       </c>
       <c r="D15" t="n">
-        <v>61.0884</v>
+        <v>63.6161</v>
       </c>
       <c r="E15" t="n">
-        <v>72.2989</v>
+        <v>75.6297</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.48</v>
+        <v>32.9533</v>
       </c>
       <c r="C16" t="n">
-        <v>36.6632</v>
+        <v>36.6873</v>
       </c>
       <c r="D16" t="n">
-        <v>62.1269</v>
+        <v>62.27</v>
       </c>
       <c r="E16" t="n">
-        <v>73.5856</v>
+        <v>74.6662</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.6955</v>
+        <v>33.0007</v>
       </c>
       <c r="C17" t="n">
-        <v>36.7364</v>
+        <v>36.6102</v>
       </c>
       <c r="D17" t="n">
-        <v>61.5842</v>
+        <v>62.977</v>
       </c>
       <c r="E17" t="n">
-        <v>73.124</v>
+        <v>75.55880000000001</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.398</v>
+        <v>10.3955</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8648</v>
+        <v>12.8448</v>
       </c>
       <c r="D2" t="n">
-        <v>17.5238</v>
+        <v>17.4049</v>
       </c>
       <c r="E2" t="n">
-        <v>21.029</v>
+        <v>19.8184</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.6241</v>
+        <v>19.3447</v>
       </c>
       <c r="C3" t="n">
-        <v>19.356</v>
+        <v>19.5836</v>
       </c>
       <c r="D3" t="n">
-        <v>26.924</v>
+        <v>27.4297</v>
       </c>
       <c r="E3" t="n">
-        <v>30.525</v>
+        <v>29.4168</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.6803</v>
+        <v>26.9228</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0485</v>
+        <v>24.2132</v>
       </c>
       <c r="D4" t="n">
-        <v>33.9871</v>
+        <v>33.6183</v>
       </c>
       <c r="E4" t="n">
-        <v>39.6431</v>
+        <v>37.5133</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.7582</v>
+        <v>20.7809</v>
       </c>
       <c r="C5" t="n">
-        <v>27.1337</v>
+        <v>27.0043</v>
       </c>
       <c r="D5" t="n">
-        <v>33.7906</v>
+        <v>33.4531</v>
       </c>
       <c r="E5" t="n">
-        <v>40.7769</v>
+        <v>38.52</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.4589</v>
+        <v>24.508</v>
       </c>
       <c r="C6" t="n">
-        <v>31.104</v>
+        <v>31.5161</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4173</v>
+        <v>38.5365</v>
       </c>
       <c r="E6" t="n">
-        <v>43.8217</v>
+        <v>42.931</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.1825</v>
+        <v>29.1106</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5273</v>
+        <v>36.9111</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7605</v>
+        <v>38.4949</v>
       </c>
       <c r="E7" t="n">
-        <v>43.7167</v>
+        <v>43.8356</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.1556</v>
+        <v>21.4861</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0124</v>
+        <v>34.1202</v>
       </c>
       <c r="D8" t="n">
-        <v>40.4094</v>
+        <v>39.1218</v>
       </c>
       <c r="E8" t="n">
-        <v>44.7174</v>
+        <v>42.6331</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.135</v>
+        <v>24.3576</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1557</v>
+        <v>34.5731</v>
       </c>
       <c r="D9" t="n">
-        <v>42.4545</v>
+        <v>42.0918</v>
       </c>
       <c r="E9" t="n">
-        <v>45.9509</v>
+        <v>44.7316</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.7515</v>
+        <v>26.7107</v>
       </c>
       <c r="C10" t="n">
-        <v>34.5496</v>
+        <v>34.5063</v>
       </c>
       <c r="D10" t="n">
-        <v>44.3759</v>
+        <v>45.0525</v>
       </c>
       <c r="E10" t="n">
-        <v>49.8624</v>
+        <v>45.9116</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4118</v>
+        <v>24.5431</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0149</v>
+        <v>35.2168</v>
       </c>
       <c r="D11" t="n">
-        <v>45.2288</v>
+        <v>43.7613</v>
       </c>
       <c r="E11" t="n">
-        <v>52.3395</v>
+        <v>49.15</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.57</v>
+        <v>26.5306</v>
       </c>
       <c r="C12" t="n">
-        <v>34.8319</v>
+        <v>34.5489</v>
       </c>
       <c r="D12" t="n">
-        <v>47.2079</v>
+        <v>44.7022</v>
       </c>
       <c r="E12" t="n">
-        <v>52.7796</v>
+        <v>49.809</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.1581</v>
+        <v>29.0768</v>
       </c>
       <c r="C13" t="n">
-        <v>34.6675</v>
+        <v>35.2097</v>
       </c>
       <c r="D13" t="n">
-        <v>47.0398</v>
+        <v>45.6683</v>
       </c>
       <c r="E13" t="n">
-        <v>53.1615</v>
+        <v>51.5053</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.2497</v>
+        <v>24.2329</v>
       </c>
       <c r="C14" t="n">
-        <v>34.6138</v>
+        <v>34.7642</v>
       </c>
       <c r="D14" t="n">
-        <v>48.8072</v>
+        <v>45.9424</v>
       </c>
       <c r="E14" t="n">
-        <v>54.5489</v>
+        <v>50.8516</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.7268</v>
+        <v>25.9924</v>
       </c>
       <c r="C15" t="n">
-        <v>34.6905</v>
+        <v>35.23</v>
       </c>
       <c r="D15" t="n">
-        <v>47.5735</v>
+        <v>46.2321</v>
       </c>
       <c r="E15" t="n">
-        <v>54.4872</v>
+        <v>51.2737</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.2049</v>
+        <v>26.8956</v>
       </c>
       <c r="C16" t="n">
-        <v>35.1164</v>
+        <v>35.1864</v>
       </c>
       <c r="D16" t="n">
-        <v>47.9565</v>
+        <v>46.3578</v>
       </c>
       <c r="E16" t="n">
-        <v>56.9887</v>
+        <v>50.9409</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.8389</v>
+        <v>25.949</v>
       </c>
       <c r="C17" t="n">
-        <v>35.0381</v>
+        <v>35.3438</v>
       </c>
       <c r="D17" t="n">
-        <v>47.1221</v>
+        <v>46.7074</v>
       </c>
       <c r="E17" t="n">
-        <v>57.8524</v>
+        <v>51.5398</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7715</v>
+        <v>10.7467</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8582</v>
+        <v>12.8636</v>
       </c>
       <c r="D2" t="n">
-        <v>17.469</v>
+        <v>17.3916</v>
       </c>
       <c r="E2" t="n">
-        <v>20.8306</v>
+        <v>19.7293</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.1656</v>
+        <v>19.7375</v>
       </c>
       <c r="C3" t="n">
-        <v>19.7782</v>
+        <v>19.6072</v>
       </c>
       <c r="D3" t="n">
-        <v>26.677</v>
+        <v>26.6674</v>
       </c>
       <c r="E3" t="n">
-        <v>31.3788</v>
+        <v>29.594</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.5818</v>
+        <v>27.6551</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1371</v>
+        <v>25.7127</v>
       </c>
       <c r="D4" t="n">
-        <v>32.7955</v>
+        <v>33.6034</v>
       </c>
       <c r="E4" t="n">
-        <v>37.7901</v>
+        <v>38.1301</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9866</v>
+        <v>20.9392</v>
       </c>
       <c r="C5" t="n">
-        <v>26.8756</v>
+        <v>26.9738</v>
       </c>
       <c r="D5" t="n">
-        <v>35.1021</v>
+        <v>34.619</v>
       </c>
       <c r="E5" t="n">
-        <v>38.6316</v>
+        <v>37.3196</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9893</v>
+        <v>24.9732</v>
       </c>
       <c r="C6" t="n">
-        <v>31.1414</v>
+        <v>31.3732</v>
       </c>
       <c r="D6" t="n">
-        <v>38.0465</v>
+        <v>38.167</v>
       </c>
       <c r="E6" t="n">
-        <v>43.8154</v>
+        <v>38.6561</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9987</v>
+        <v>29.9325</v>
       </c>
       <c r="C7" t="n">
-        <v>36.2703</v>
+        <v>36.585</v>
       </c>
       <c r="D7" t="n">
-        <v>38.1563</v>
+        <v>38.4287</v>
       </c>
       <c r="E7" t="n">
-        <v>44.0493</v>
+        <v>44.0065</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6886</v>
+        <v>21.9459</v>
       </c>
       <c r="C8" t="n">
-        <v>32.9675</v>
+        <v>33.1643</v>
       </c>
       <c r="D8" t="n">
-        <v>38.4821</v>
+        <v>37.6053</v>
       </c>
       <c r="E8" t="n">
-        <v>44.3531</v>
+        <v>44.1736</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.3263</v>
+        <v>25.3644</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1956</v>
+        <v>34.1142</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0355</v>
+        <v>37.7413</v>
       </c>
       <c r="E9" t="n">
-        <v>48.0557</v>
+        <v>46.68</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.1489</v>
+        <v>27.7364</v>
       </c>
       <c r="C10" t="n">
-        <v>33.6589</v>
+        <v>34.2522</v>
       </c>
       <c r="D10" t="n">
-        <v>40.6169</v>
+        <v>41.5307</v>
       </c>
       <c r="E10" t="n">
-        <v>48.7833</v>
+        <v>49.4493</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1114</v>
+        <v>24.8897</v>
       </c>
       <c r="C11" t="n">
-        <v>34.2162</v>
+        <v>34.1933</v>
       </c>
       <c r="D11" t="n">
-        <v>43.8817</v>
+        <v>42.5652</v>
       </c>
       <c r="E11" t="n">
-        <v>51.1407</v>
+        <v>50.88</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.2669</v>
+        <v>27.1653</v>
       </c>
       <c r="C12" t="n">
-        <v>34.5204</v>
+        <v>34.7216</v>
       </c>
       <c r="D12" t="n">
-        <v>46.804</v>
+        <v>43.137</v>
       </c>
       <c r="E12" t="n">
-        <v>51.7684</v>
+        <v>50.9009</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9108</v>
+        <v>29.8874</v>
       </c>
       <c r="C13" t="n">
-        <v>34.8349</v>
+        <v>35.4336</v>
       </c>
       <c r="D13" t="n">
-        <v>45.1564</v>
+        <v>43.7911</v>
       </c>
       <c r="E13" t="n">
-        <v>54.9984</v>
+        <v>51.5884</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.1389</v>
+        <v>24.4261</v>
       </c>
       <c r="C14" t="n">
-        <v>35.1439</v>
+        <v>35.8622</v>
       </c>
       <c r="D14" t="n">
-        <v>48.0834</v>
+        <v>45.715</v>
       </c>
       <c r="E14" t="n">
-        <v>54.0692</v>
+        <v>50.1881</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.3814</v>
+        <v>26.5781</v>
       </c>
       <c r="C15" t="n">
-        <v>35.1623</v>
+        <v>35.262</v>
       </c>
       <c r="D15" t="n">
-        <v>48.832</v>
+        <v>45.4408</v>
       </c>
       <c r="E15" t="n">
-        <v>55.827</v>
+        <v>51.587</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.2931</v>
+        <v>28.3356</v>
       </c>
       <c r="C16" t="n">
-        <v>35.2353</v>
+        <v>35.3647</v>
       </c>
       <c r="D16" t="n">
-        <v>47.342</v>
+        <v>46.0953</v>
       </c>
       <c r="E16" t="n">
-        <v>55.9839</v>
+        <v>51.4021</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.2082</v>
+        <v>26.1957</v>
       </c>
       <c r="C17" t="n">
-        <v>35.6236</v>
+        <v>35.8383</v>
       </c>
       <c r="D17" t="n">
-        <v>49.9931</v>
+        <v>47.8051</v>
       </c>
       <c r="E17" t="n">
-        <v>54.4629</v>
+        <v>51.2488</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0684</v>
+        <v>13.0401</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9574</v>
+        <v>13.9484</v>
       </c>
       <c r="D2" t="n">
-        <v>19.3497</v>
+        <v>19.0716</v>
       </c>
       <c r="E2" t="n">
-        <v>22.3554</v>
+        <v>21.1077</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.2013</v>
+        <v>23.1146</v>
       </c>
       <c r="C3" t="n">
-        <v>23.3097</v>
+        <v>23.4498</v>
       </c>
       <c r="D3" t="n">
-        <v>30.73</v>
+        <v>30.7858</v>
       </c>
       <c r="E3" t="n">
-        <v>34.0633</v>
+        <v>31.9633</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.2578</v>
+        <v>31.8471</v>
       </c>
       <c r="C4" t="n">
-        <v>30.0871</v>
+        <v>29.8247</v>
       </c>
       <c r="D4" t="n">
-        <v>35.7862</v>
+        <v>34.7615</v>
       </c>
       <c r="E4" t="n">
-        <v>39.1794</v>
+        <v>38.6941</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.537</v>
+        <v>26.6358</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3007</v>
+        <v>28.7361</v>
       </c>
       <c r="D5" t="n">
-        <v>35.1548</v>
+        <v>36.2262</v>
       </c>
       <c r="E5" t="n">
-        <v>47.1797</v>
+        <v>40.5503</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.8816</v>
+        <v>31.7013</v>
       </c>
       <c r="C6" t="n">
-        <v>32.7363</v>
+        <v>32.8237</v>
       </c>
       <c r="D6" t="n">
-        <v>41.2892</v>
+        <v>45.7315</v>
       </c>
       <c r="E6" t="n">
-        <v>49.1325</v>
+        <v>47.8984</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.4819</v>
+        <v>37.521</v>
       </c>
       <c r="C7" t="n">
-        <v>38.0613</v>
+        <v>38.2507</v>
       </c>
       <c r="D7" t="n">
-        <v>49.6489</v>
+        <v>44.8154</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7897</v>
+        <v>50.7325</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.9222</v>
+        <v>34.1726</v>
       </c>
       <c r="C8" t="n">
-        <v>34.414</v>
+        <v>34.0884</v>
       </c>
       <c r="D8" t="n">
-        <v>48.1712</v>
+        <v>50.18</v>
       </c>
       <c r="E8" t="n">
-        <v>50.0767</v>
+        <v>48.7373</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3677</v>
+        <v>33.8638</v>
       </c>
       <c r="C9" t="n">
-        <v>34.9869</v>
+        <v>34.6547</v>
       </c>
       <c r="D9" t="n">
-        <v>48.8677</v>
+        <v>50.428</v>
       </c>
       <c r="E9" t="n">
-        <v>58.6264</v>
+        <v>53.2329</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.7991</v>
+        <v>34.5005</v>
       </c>
       <c r="C10" t="n">
-        <v>34.7798</v>
+        <v>35.0533</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2026</v>
+        <v>49.7869</v>
       </c>
       <c r="E10" t="n">
-        <v>59.0744</v>
+        <v>52.3108</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.5073</v>
+        <v>35.1919</v>
       </c>
       <c r="C11" t="n">
-        <v>34.736</v>
+        <v>35.1594</v>
       </c>
       <c r="D11" t="n">
-        <v>50.703</v>
+        <v>50.6687</v>
       </c>
       <c r="E11" t="n">
-        <v>60.8044</v>
+        <v>56.7724</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.8237</v>
+        <v>35.0884</v>
       </c>
       <c r="C12" t="n">
-        <v>34.6641</v>
+        <v>35.7117</v>
       </c>
       <c r="D12" t="n">
-        <v>51.9174</v>
+        <v>51.1855</v>
       </c>
       <c r="E12" t="n">
-        <v>60.4302</v>
+        <v>55.2957</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.5045</v>
+        <v>34.5802</v>
       </c>
       <c r="C13" t="n">
-        <v>35.1947</v>
+        <v>35.8851</v>
       </c>
       <c r="D13" t="n">
-        <v>53.1474</v>
+        <v>50.8847</v>
       </c>
       <c r="E13" t="n">
-        <v>58.8449</v>
+        <v>55.4209</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.9025</v>
+        <v>34.9902</v>
       </c>
       <c r="C14" t="n">
-        <v>35.952</v>
+        <v>35.6671</v>
       </c>
       <c r="D14" t="n">
-        <v>52.6095</v>
+        <v>52.6077</v>
       </c>
       <c r="E14" t="n">
-        <v>59.9695</v>
+        <v>57.8596</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.1775</v>
+        <v>35.4613</v>
       </c>
       <c r="C15" t="n">
-        <v>35.0445</v>
+        <v>35.8724</v>
       </c>
       <c r="D15" t="n">
-        <v>54.0017</v>
+        <v>51.128</v>
       </c>
       <c r="E15" t="n">
-        <v>59.5638</v>
+        <v>57.5446</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.2991</v>
+        <v>35.7869</v>
       </c>
       <c r="C16" t="n">
-        <v>36.1371</v>
+        <v>35.8752</v>
       </c>
       <c r="D16" t="n">
-        <v>53.6613</v>
+        <v>50.9148</v>
       </c>
       <c r="E16" t="n">
-        <v>59.0544</v>
+        <v>55.7635</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.2018</v>
+        <v>35.4422</v>
       </c>
       <c r="C17" t="n">
-        <v>36.0092</v>
+        <v>36.288</v>
       </c>
       <c r="D17" t="n">
-        <v>53.3037</v>
+        <v>49.8627</v>
       </c>
       <c r="E17" t="n">
-        <v>61.1196</v>
+        <v>55.981</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.8138</v>
+        <v>4.82612</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9335</v>
+        <v>10.9631</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6544</v>
+        <v>14.6991</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7268</v>
+        <v>18.8516</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.418760000000001</v>
+        <v>9.40748</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9446</v>
+        <v>19.1603</v>
       </c>
       <c r="D3" t="n">
-        <v>27.3878</v>
+        <v>27.1833</v>
       </c>
       <c r="E3" t="n">
-        <v>36.1392</v>
+        <v>34.7375</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5816</v>
+        <v>13.5718</v>
       </c>
       <c r="C4" t="n">
-        <v>26.2918</v>
+        <v>26.2181</v>
       </c>
       <c r="D4" t="n">
-        <v>38.3748</v>
+        <v>38.2882</v>
       </c>
       <c r="E4" t="n">
-        <v>49.7912</v>
+        <v>48.6205</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8878</v>
+        <v>15.9003</v>
       </c>
       <c r="C5" t="n">
-        <v>26.583</v>
+        <v>26.7758</v>
       </c>
       <c r="D5" t="n">
-        <v>40.4169</v>
+        <v>40.6905</v>
       </c>
       <c r="E5" t="n">
-        <v>52.1374</v>
+        <v>50.4049</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3493</v>
+        <v>19.2831</v>
       </c>
       <c r="C6" t="n">
-        <v>30.1316</v>
+        <v>30.0955</v>
       </c>
       <c r="D6" t="n">
-        <v>46.8781</v>
+        <v>46.8074</v>
       </c>
       <c r="E6" t="n">
-        <v>60.1874</v>
+        <v>58.2058</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.5292</v>
+        <v>22.504</v>
       </c>
       <c r="C7" t="n">
-        <v>35.047</v>
+        <v>35.196</v>
       </c>
       <c r="D7" t="n">
-        <v>54.2112</v>
+        <v>53.5383</v>
       </c>
       <c r="E7" t="n">
-        <v>69.249</v>
+        <v>66.3253</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4926</v>
+        <v>20.1213</v>
       </c>
       <c r="C8" t="n">
-        <v>33.748</v>
+        <v>33.6411</v>
       </c>
       <c r="D8" t="n">
-        <v>47.9111</v>
+        <v>45.7724</v>
       </c>
       <c r="E8" t="n">
-        <v>61.3965</v>
+        <v>60.8972</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0555</v>
+        <v>20.7547</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7946</v>
+        <v>33.8017</v>
       </c>
       <c r="D9" t="n">
-        <v>50.2824</v>
+        <v>48.7984</v>
       </c>
       <c r="E9" t="n">
-        <v>59.2125</v>
+        <v>59.3649</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.9498</v>
+        <v>21.0523</v>
       </c>
       <c r="C10" t="n">
-        <v>33.6079</v>
+        <v>33.5892</v>
       </c>
       <c r="D10" t="n">
-        <v>48.273</v>
+        <v>48.4288</v>
       </c>
       <c r="E10" t="n">
-        <v>64.08199999999999</v>
+        <v>59.9998</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3317</v>
+        <v>21.3528</v>
       </c>
       <c r="C11" t="n">
-        <v>33.4605</v>
+        <v>33.9359</v>
       </c>
       <c r="D11" t="n">
-        <v>47.2549</v>
+        <v>48.8671</v>
       </c>
       <c r="E11" t="n">
-        <v>64.3968</v>
+        <v>62.192</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.5035</v>
+        <v>21.2608</v>
       </c>
       <c r="C12" t="n">
-        <v>33.919</v>
+        <v>34.3714</v>
       </c>
       <c r="D12" t="n">
-        <v>47.97</v>
+        <v>46.8598</v>
       </c>
       <c r="E12" t="n">
-        <v>64.9537</v>
+        <v>61.3089</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1415</v>
+        <v>21.4665</v>
       </c>
       <c r="C13" t="n">
-        <v>34.1663</v>
+        <v>33.9476</v>
       </c>
       <c r="D13" t="n">
-        <v>48.1648</v>
+        <v>48.0561</v>
       </c>
       <c r="E13" t="n">
-        <v>64.5197</v>
+        <v>63.4016</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.4043</v>
+        <v>21.5576</v>
       </c>
       <c r="C14" t="n">
-        <v>33.9071</v>
+        <v>34.5815</v>
       </c>
       <c r="D14" t="n">
-        <v>49.6686</v>
+        <v>47.6273</v>
       </c>
       <c r="E14" t="n">
-        <v>62.0871</v>
+        <v>62.3635</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5186</v>
+        <v>21.5529</v>
       </c>
       <c r="C15" t="n">
-        <v>34.1949</v>
+        <v>34.4313</v>
       </c>
       <c r="D15" t="n">
-        <v>44.4676</v>
+        <v>49.9426</v>
       </c>
       <c r="E15" t="n">
-        <v>64.96250000000001</v>
+        <v>62.9246</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.412</v>
+        <v>20.896</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4982</v>
+        <v>34.6569</v>
       </c>
       <c r="D16" t="n">
-        <v>50.6567</v>
+        <v>45.8953</v>
       </c>
       <c r="E16" t="n">
-        <v>65.1485</v>
+        <v>61.938</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0816</v>
+        <v>21.5088</v>
       </c>
       <c r="C17" t="n">
-        <v>34.2448</v>
+        <v>34.8831</v>
       </c>
       <c r="D17" t="n">
-        <v>51.483</v>
+        <v>51.0418</v>
       </c>
       <c r="E17" t="n">
-        <v>65.7762</v>
+        <v>65.1541</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.84666</v>
+        <v>4.83685</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0794</v>
+        <v>11.0445</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6257</v>
+        <v>14.6119</v>
       </c>
       <c r="E2" t="n">
-        <v>19.8156</v>
+        <v>18.8955</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.48283</v>
+        <v>9.484019999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2123</v>
+        <v>19.1537</v>
       </c>
       <c r="D3" t="n">
-        <v>27.3036</v>
+        <v>27.0922</v>
       </c>
       <c r="E3" t="n">
-        <v>36.2979</v>
+        <v>34.8017</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.7463</v>
+        <v>13.6713</v>
       </c>
       <c r="C4" t="n">
-        <v>26.6972</v>
+        <v>26.6585</v>
       </c>
       <c r="D4" t="n">
-        <v>37.949</v>
+        <v>37.9342</v>
       </c>
       <c r="E4" t="n">
-        <v>50.3553</v>
+        <v>48.8411</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.2011</v>
+        <v>16.0721</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5137</v>
+        <v>26.9284</v>
       </c>
       <c r="D5" t="n">
-        <v>39.6652</v>
+        <v>40.2701</v>
       </c>
       <c r="E5" t="n">
-        <v>51.7621</v>
+        <v>50.7145</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5947</v>
+        <v>19.5433</v>
       </c>
       <c r="C6" t="n">
-        <v>30.1298</v>
+        <v>30.3577</v>
       </c>
       <c r="D6" t="n">
-        <v>46.4031</v>
+        <v>46.5821</v>
       </c>
       <c r="E6" t="n">
-        <v>59.9431</v>
+        <v>57.7061</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.949</v>
+        <v>22.9132</v>
       </c>
       <c r="C7" t="n">
-        <v>35.1297</v>
+        <v>35.3181</v>
       </c>
       <c r="D7" t="n">
-        <v>52.7181</v>
+        <v>52.2771</v>
       </c>
       <c r="E7" t="n">
-        <v>67.94929999999999</v>
+        <v>65.17659999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5237</v>
+        <v>20.7209</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6165</v>
+        <v>34.3133</v>
       </c>
       <c r="D8" t="n">
-        <v>48.056</v>
+        <v>44.4066</v>
       </c>
       <c r="E8" t="n">
-        <v>58.6289</v>
+        <v>59.1855</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9709</v>
+        <v>21.2946</v>
       </c>
       <c r="C9" t="n">
-        <v>33.4005</v>
+        <v>34.2217</v>
       </c>
       <c r="D9" t="n">
-        <v>45.1782</v>
+        <v>46.92</v>
       </c>
       <c r="E9" t="n">
-        <v>62.3377</v>
+        <v>56.6125</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.5793</v>
+        <v>21.4137</v>
       </c>
       <c r="C10" t="n">
-        <v>33.7299</v>
+        <v>33.9145</v>
       </c>
       <c r="D10" t="n">
-        <v>43.6237</v>
+        <v>43.2974</v>
       </c>
       <c r="E10" t="n">
-        <v>63.1</v>
+        <v>58.861</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9122</v>
+        <v>21.8724</v>
       </c>
       <c r="C11" t="n">
-        <v>34.2276</v>
+        <v>34.0876</v>
       </c>
       <c r="D11" t="n">
-        <v>45.1977</v>
+        <v>47.6304</v>
       </c>
       <c r="E11" t="n">
-        <v>64.1486</v>
+        <v>60.4408</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.669</v>
+        <v>21.5542</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9233</v>
+        <v>34.4993</v>
       </c>
       <c r="D12" t="n">
-        <v>44.3007</v>
+        <v>44.7301</v>
       </c>
       <c r="E12" t="n">
-        <v>64.05710000000001</v>
+        <v>60.4287</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5825</v>
+        <v>21.5149</v>
       </c>
       <c r="C13" t="n">
-        <v>34.111</v>
+        <v>34.5422</v>
       </c>
       <c r="D13" t="n">
-        <v>49.6673</v>
+        <v>45.4519</v>
       </c>
       <c r="E13" t="n">
-        <v>66.16500000000001</v>
+        <v>61.03</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5159</v>
+        <v>21.5931</v>
       </c>
       <c r="C14" t="n">
-        <v>34.1685</v>
+        <v>34.6132</v>
       </c>
       <c r="D14" t="n">
-        <v>41.8939</v>
+        <v>45.6138</v>
       </c>
       <c r="E14" t="n">
-        <v>64.0132</v>
+        <v>63.1391</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.8971</v>
+        <v>21.8232</v>
       </c>
       <c r="C15" t="n">
-        <v>34.3875</v>
+        <v>34.5422</v>
       </c>
       <c r="D15" t="n">
-        <v>44.337</v>
+        <v>43.8731</v>
       </c>
       <c r="E15" t="n">
-        <v>62.6316</v>
+        <v>61.9207</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.4696</v>
+        <v>21.5313</v>
       </c>
       <c r="C16" t="n">
-        <v>34.3523</v>
+        <v>34.618</v>
       </c>
       <c r="D16" t="n">
-        <v>40.2077</v>
+        <v>47.7998</v>
       </c>
       <c r="E16" t="n">
-        <v>64.7851</v>
+        <v>62.4373</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.7753</v>
+        <v>22.0986</v>
       </c>
       <c r="C17" t="n">
-        <v>34.3816</v>
+        <v>34.7538</v>
       </c>
       <c r="D17" t="n">
-        <v>45.7542</v>
+        <v>48.7853</v>
       </c>
       <c r="E17" t="n">
-        <v>65.37430000000001</v>
+        <v>63.087</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.979150000000001</v>
+        <v>8.99391</v>
       </c>
       <c r="C2" t="n">
-        <v>13.502</v>
+        <v>13.4955</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7493</v>
+        <v>18.7656</v>
       </c>
       <c r="E2" t="n">
-        <v>22.3181</v>
+        <v>21.2914</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.151</v>
+        <v>17.1363</v>
       </c>
       <c r="C3" t="n">
-        <v>22.4099</v>
+        <v>22.4938</v>
       </c>
       <c r="D3" t="n">
-        <v>34.3022</v>
+        <v>34.3473</v>
       </c>
       <c r="E3" t="n">
-        <v>40.0708</v>
+        <v>38.4019</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.7354</v>
+        <v>24.6058</v>
       </c>
       <c r="C4" t="n">
-        <v>29.9391</v>
+        <v>29.9988</v>
       </c>
       <c r="D4" t="n">
-        <v>49.6372</v>
+        <v>49.3163</v>
       </c>
       <c r="E4" t="n">
-        <v>56.6848</v>
+        <v>54.1225</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.6577</v>
+        <v>24.0847</v>
       </c>
       <c r="C5" t="n">
-        <v>29.6449</v>
+        <v>29.4877</v>
       </c>
       <c r="D5" t="n">
-        <v>49.3255</v>
+        <v>48.5893</v>
       </c>
       <c r="E5" t="n">
-        <v>57.6454</v>
+        <v>55.7964</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.5669</v>
+        <v>28.3973</v>
       </c>
       <c r="C6" t="n">
-        <v>32.558</v>
+        <v>32.635</v>
       </c>
       <c r="D6" t="n">
-        <v>56.746</v>
+        <v>56.2571</v>
       </c>
       <c r="E6" t="n">
-        <v>66.2015</v>
+        <v>64.15989999999999</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.5996</v>
+        <v>34.6221</v>
       </c>
       <c r="C7" t="n">
-        <v>37.3021</v>
+        <v>37.5611</v>
       </c>
       <c r="D7" t="n">
-        <v>62.9529</v>
+        <v>63.3575</v>
       </c>
       <c r="E7" t="n">
-        <v>74.66759999999999</v>
+        <v>72.38120000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.5872</v>
+        <v>31.4554</v>
       </c>
       <c r="C8" t="n">
-        <v>36.2173</v>
+        <v>36.547</v>
       </c>
       <c r="D8" t="n">
-        <v>61.0486</v>
+        <v>60.9693</v>
       </c>
       <c r="E8" t="n">
-        <v>72.1328</v>
+        <v>69.64570000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7263</v>
+        <v>32.4339</v>
       </c>
       <c r="C9" t="n">
-        <v>36.3991</v>
+        <v>36.498</v>
       </c>
       <c r="D9" t="n">
-        <v>60.3751</v>
+        <v>60.5375</v>
       </c>
       <c r="E9" t="n">
-        <v>73.94289999999999</v>
+        <v>70.6362</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.8453</v>
+        <v>32.5486</v>
       </c>
       <c r="C10" t="n">
-        <v>36.529</v>
+        <v>36.7709</v>
       </c>
       <c r="D10" t="n">
-        <v>62.1421</v>
+        <v>59.8959</v>
       </c>
       <c r="E10" t="n">
-        <v>74.36579999999999</v>
+        <v>70.6031</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.0806</v>
+        <v>32.7167</v>
       </c>
       <c r="C11" t="n">
-        <v>36.5218</v>
+        <v>36.6382</v>
       </c>
       <c r="D11" t="n">
-        <v>62.1512</v>
+        <v>61.7749</v>
       </c>
       <c r="E11" t="n">
-        <v>74.5907</v>
+        <v>70.9986</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.7756</v>
+        <v>32.6715</v>
       </c>
       <c r="C12" t="n">
-        <v>36.5281</v>
+        <v>36.8527</v>
       </c>
       <c r="D12" t="n">
-        <v>62.0864</v>
+        <v>62.9566</v>
       </c>
       <c r="E12" t="n">
-        <v>75.8408</v>
+        <v>70.13930000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.2105</v>
+        <v>33.3044</v>
       </c>
       <c r="C13" t="n">
-        <v>36.6549</v>
+        <v>36.9536</v>
       </c>
       <c r="D13" t="n">
-        <v>60.1258</v>
+        <v>63.214</v>
       </c>
       <c r="E13" t="n">
-        <v>75.08110000000001</v>
+        <v>70.937</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.8107</v>
+        <v>33.1199</v>
       </c>
       <c r="C14" t="n">
-        <v>36.6196</v>
+        <v>36.8722</v>
       </c>
       <c r="D14" t="n">
-        <v>62.4992</v>
+        <v>62.4964</v>
       </c>
       <c r="E14" t="n">
-        <v>76.1995</v>
+        <v>71.47490000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.9118</v>
+        <v>33.29</v>
       </c>
       <c r="C15" t="n">
-        <v>36.4398</v>
+        <v>36.8316</v>
       </c>
       <c r="D15" t="n">
-        <v>63.6161</v>
+        <v>63.1564</v>
       </c>
       <c r="E15" t="n">
-        <v>75.6297</v>
+        <v>69.6884</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.9533</v>
+        <v>33.0157</v>
       </c>
       <c r="C16" t="n">
-        <v>36.6873</v>
+        <v>36.874</v>
       </c>
       <c r="D16" t="n">
-        <v>62.27</v>
+        <v>62.2749</v>
       </c>
       <c r="E16" t="n">
-        <v>74.6662</v>
+        <v>70.90179999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.0007</v>
+        <v>32.8402</v>
       </c>
       <c r="C17" t="n">
-        <v>36.6102</v>
+        <v>37.0417</v>
       </c>
       <c r="D17" t="n">
-        <v>62.977</v>
+        <v>62.2118</v>
       </c>
       <c r="E17" t="n">
-        <v>75.55880000000001</v>
+        <v>70.8943</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3955</v>
+        <v>10.4643</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8448</v>
+        <v>12.9214</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4049</v>
+        <v>16.3914</v>
       </c>
       <c r="E2" t="n">
-        <v>19.8184</v>
+        <v>19.4099</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.3447</v>
+        <v>19.6608</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5836</v>
+        <v>19.5441</v>
       </c>
       <c r="D3" t="n">
-        <v>27.4297</v>
+        <v>25.0005</v>
       </c>
       <c r="E3" t="n">
-        <v>29.4168</v>
+        <v>30.3191</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.9228</v>
+        <v>26.0706</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2132</v>
+        <v>24.415</v>
       </c>
       <c r="D4" t="n">
-        <v>33.6183</v>
+        <v>31.1781</v>
       </c>
       <c r="E4" t="n">
-        <v>37.5133</v>
+        <v>38.0289</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.7809</v>
+        <v>20.5639</v>
       </c>
       <c r="C5" t="n">
-        <v>27.0043</v>
+        <v>27.424</v>
       </c>
       <c r="D5" t="n">
-        <v>33.4531</v>
+        <v>32.6043</v>
       </c>
       <c r="E5" t="n">
-        <v>38.52</v>
+        <v>38.0234</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.508</v>
+        <v>24.4971</v>
       </c>
       <c r="C6" t="n">
-        <v>31.5161</v>
+        <v>31.2133</v>
       </c>
       <c r="D6" t="n">
-        <v>38.5365</v>
+        <v>34.6238</v>
       </c>
       <c r="E6" t="n">
-        <v>42.931</v>
+        <v>38.6541</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.1106</v>
+        <v>29.1087</v>
       </c>
       <c r="C7" t="n">
-        <v>36.9111</v>
+        <v>36.6307</v>
       </c>
       <c r="D7" t="n">
-        <v>38.4949</v>
+        <v>38.6594</v>
       </c>
       <c r="E7" t="n">
-        <v>43.8356</v>
+        <v>43.6936</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.4861</v>
+        <v>21.1963</v>
       </c>
       <c r="C8" t="n">
-        <v>34.1202</v>
+        <v>34.4203</v>
       </c>
       <c r="D8" t="n">
-        <v>39.1218</v>
+        <v>37.7228</v>
       </c>
       <c r="E8" t="n">
-        <v>42.6331</v>
+        <v>41.0156</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.3576</v>
+        <v>24.4703</v>
       </c>
       <c r="C9" t="n">
-        <v>34.5731</v>
+        <v>34.3398</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0918</v>
+        <v>41.3838</v>
       </c>
       <c r="E9" t="n">
-        <v>44.7316</v>
+        <v>44.0827</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.7107</v>
+        <v>26.9168</v>
       </c>
       <c r="C10" t="n">
-        <v>34.5063</v>
+        <v>34.5582</v>
       </c>
       <c r="D10" t="n">
-        <v>45.0525</v>
+        <v>43.3529</v>
       </c>
       <c r="E10" t="n">
-        <v>45.9116</v>
+        <v>48.1418</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.5431</v>
+        <v>24.3265</v>
       </c>
       <c r="C11" t="n">
-        <v>35.2168</v>
+        <v>35.006</v>
       </c>
       <c r="D11" t="n">
-        <v>43.7613</v>
+        <v>44.8954</v>
       </c>
       <c r="E11" t="n">
-        <v>49.15</v>
+        <v>50.8158</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.5306</v>
+        <v>26.4592</v>
       </c>
       <c r="C12" t="n">
-        <v>34.5489</v>
+        <v>35.0599</v>
       </c>
       <c r="D12" t="n">
-        <v>44.7022</v>
+        <v>45.7138</v>
       </c>
       <c r="E12" t="n">
-        <v>49.809</v>
+        <v>50.8317</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.0768</v>
+        <v>29.0769</v>
       </c>
       <c r="C13" t="n">
-        <v>35.2097</v>
+        <v>35.237</v>
       </c>
       <c r="D13" t="n">
-        <v>45.6683</v>
+        <v>44.4353</v>
       </c>
       <c r="E13" t="n">
-        <v>51.5053</v>
+        <v>53.4629</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.2329</v>
+        <v>23.9967</v>
       </c>
       <c r="C14" t="n">
-        <v>34.7642</v>
+        <v>34.9788</v>
       </c>
       <c r="D14" t="n">
-        <v>45.9424</v>
+        <v>44.6913</v>
       </c>
       <c r="E14" t="n">
-        <v>50.8516</v>
+        <v>52.505</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.9924</v>
+        <v>25.5168</v>
       </c>
       <c r="C15" t="n">
-        <v>35.23</v>
+        <v>34.3901</v>
       </c>
       <c r="D15" t="n">
-        <v>46.2321</v>
+        <v>46.8795</v>
       </c>
       <c r="E15" t="n">
-        <v>51.2737</v>
+        <v>51.9148</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.8956</v>
+        <v>27.0407</v>
       </c>
       <c r="C16" t="n">
-        <v>35.1864</v>
+        <v>34.4474</v>
       </c>
       <c r="D16" t="n">
-        <v>46.3578</v>
+        <v>46.4247</v>
       </c>
       <c r="E16" t="n">
-        <v>50.9409</v>
+        <v>53.9196</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.949</v>
+        <v>25.7093</v>
       </c>
       <c r="C17" t="n">
-        <v>35.3438</v>
+        <v>34.5428</v>
       </c>
       <c r="D17" t="n">
-        <v>46.7074</v>
+        <v>46.2934</v>
       </c>
       <c r="E17" t="n">
-        <v>51.5398</v>
+        <v>51.4905</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7467</v>
+        <v>10.7601</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8636</v>
+        <v>12.9113</v>
       </c>
       <c r="D2" t="n">
-        <v>17.3916</v>
+        <v>16.4262</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7293</v>
+        <v>19.485</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.7375</v>
+        <v>20.03</v>
       </c>
       <c r="C3" t="n">
-        <v>19.6072</v>
+        <v>19.2601</v>
       </c>
       <c r="D3" t="n">
-        <v>26.6674</v>
+        <v>25.9213</v>
       </c>
       <c r="E3" t="n">
-        <v>29.594</v>
+        <v>28.008</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.6551</v>
+        <v>27.7719</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7127</v>
+        <v>25.8171</v>
       </c>
       <c r="D4" t="n">
-        <v>33.6034</v>
+        <v>31.6512</v>
       </c>
       <c r="E4" t="n">
-        <v>38.1301</v>
+        <v>34.9723</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9392</v>
+        <v>20.722</v>
       </c>
       <c r="C5" t="n">
-        <v>26.9738</v>
+        <v>27.1166</v>
       </c>
       <c r="D5" t="n">
-        <v>34.619</v>
+        <v>32.575</v>
       </c>
       <c r="E5" t="n">
-        <v>37.3196</v>
+        <v>46.1966</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9732</v>
+        <v>25.059</v>
       </c>
       <c r="C6" t="n">
-        <v>31.3732</v>
+        <v>31.2888</v>
       </c>
       <c r="D6" t="n">
-        <v>38.167</v>
+        <v>36.7269</v>
       </c>
       <c r="E6" t="n">
-        <v>38.6561</v>
+        <v>38.7359</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9325</v>
+        <v>29.9364</v>
       </c>
       <c r="C7" t="n">
-        <v>36.585</v>
+        <v>36.3993</v>
       </c>
       <c r="D7" t="n">
-        <v>38.4287</v>
+        <v>38.7278</v>
       </c>
       <c r="E7" t="n">
-        <v>44.0065</v>
+        <v>43.7536</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.9459</v>
+        <v>21.7656</v>
       </c>
       <c r="C8" t="n">
-        <v>33.1643</v>
+        <v>33.6717</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6053</v>
+        <v>36.8143</v>
       </c>
       <c r="E8" t="n">
-        <v>44.1736</v>
+        <v>42.1637</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.3644</v>
+        <v>25.1364</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1142</v>
+        <v>33.8349</v>
       </c>
       <c r="D9" t="n">
-        <v>37.7413</v>
+        <v>37.566</v>
       </c>
       <c r="E9" t="n">
-        <v>46.68</v>
+        <v>47.7263</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.7364</v>
+        <v>27.6656</v>
       </c>
       <c r="C10" t="n">
-        <v>34.2522</v>
+        <v>34.2574</v>
       </c>
       <c r="D10" t="n">
-        <v>41.5307</v>
+        <v>40.0387</v>
       </c>
       <c r="E10" t="n">
-        <v>49.4493</v>
+        <v>48.1847</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8897</v>
+        <v>24.6722</v>
       </c>
       <c r="C11" t="n">
-        <v>34.1933</v>
+        <v>34.0708</v>
       </c>
       <c r="D11" t="n">
-        <v>42.5652</v>
+        <v>41.9883</v>
       </c>
       <c r="E11" t="n">
-        <v>50.88</v>
+        <v>51.0979</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1653</v>
+        <v>27.1677</v>
       </c>
       <c r="C12" t="n">
-        <v>34.7216</v>
+        <v>34.4807</v>
       </c>
       <c r="D12" t="n">
-        <v>43.137</v>
+        <v>43.1875</v>
       </c>
       <c r="E12" t="n">
-        <v>50.9009</v>
+        <v>50.1546</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8874</v>
+        <v>29.8618</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4336</v>
+        <v>35.1763</v>
       </c>
       <c r="D13" t="n">
-        <v>43.7911</v>
+        <v>46.8655</v>
       </c>
       <c r="E13" t="n">
-        <v>51.5884</v>
+        <v>52.8573</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.4261</v>
+        <v>23.9078</v>
       </c>
       <c r="C14" t="n">
-        <v>35.8622</v>
+        <v>35.1152</v>
       </c>
       <c r="D14" t="n">
-        <v>45.715</v>
+        <v>44.3119</v>
       </c>
       <c r="E14" t="n">
-        <v>50.1881</v>
+        <v>51.1669</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.5781</v>
+        <v>26.6662</v>
       </c>
       <c r="C15" t="n">
-        <v>35.262</v>
+        <v>35.2375</v>
       </c>
       <c r="D15" t="n">
-        <v>45.4408</v>
+        <v>45.7042</v>
       </c>
       <c r="E15" t="n">
-        <v>51.587</v>
+        <v>54.6717</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.3356</v>
+        <v>27.6854</v>
       </c>
       <c r="C16" t="n">
-        <v>35.3647</v>
+        <v>35.5815</v>
       </c>
       <c r="D16" t="n">
-        <v>46.0953</v>
+        <v>46.9666</v>
       </c>
       <c r="E16" t="n">
-        <v>51.4021</v>
+        <v>54.6472</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.1957</v>
+        <v>26.0744</v>
       </c>
       <c r="C17" t="n">
-        <v>35.8383</v>
+        <v>35.2782</v>
       </c>
       <c r="D17" t="n">
-        <v>47.8051</v>
+        <v>44.7654</v>
       </c>
       <c r="E17" t="n">
-        <v>51.2488</v>
+        <v>53.1796</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0401</v>
+        <v>13.0789</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9484</v>
+        <v>14.0167</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0716</v>
+        <v>18.835</v>
       </c>
       <c r="E2" t="n">
-        <v>21.1077</v>
+        <v>21.6626</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.1146</v>
+        <v>23.202</v>
       </c>
       <c r="C3" t="n">
-        <v>23.4498</v>
+        <v>23.1705</v>
       </c>
       <c r="D3" t="n">
-        <v>30.7858</v>
+        <v>30.096</v>
       </c>
       <c r="E3" t="n">
-        <v>31.9633</v>
+        <v>32.3825</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.8471</v>
+        <v>31.4671</v>
       </c>
       <c r="C4" t="n">
-        <v>29.8247</v>
+        <v>29.0425</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7615</v>
+        <v>34.3175</v>
       </c>
       <c r="E4" t="n">
-        <v>38.6941</v>
+        <v>39.0999</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.6358</v>
+        <v>26.7173</v>
       </c>
       <c r="C5" t="n">
-        <v>28.7361</v>
+        <v>28.6838</v>
       </c>
       <c r="D5" t="n">
-        <v>36.2262</v>
+        <v>34.5829</v>
       </c>
       <c r="E5" t="n">
-        <v>40.5503</v>
+        <v>43.6646</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.7013</v>
+        <v>31.7485</v>
       </c>
       <c r="C6" t="n">
-        <v>32.8237</v>
+        <v>32.6945</v>
       </c>
       <c r="D6" t="n">
-        <v>45.7315</v>
+        <v>40.0854</v>
       </c>
       <c r="E6" t="n">
-        <v>47.8984</v>
+        <v>50.1114</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.521</v>
+        <v>37.5499</v>
       </c>
       <c r="C7" t="n">
-        <v>38.2507</v>
+        <v>38.1721</v>
       </c>
       <c r="D7" t="n">
-        <v>44.8154</v>
+        <v>44.5155</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7325</v>
+        <v>50.65</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.1726</v>
+        <v>34.1558</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0884</v>
+        <v>34.4516</v>
       </c>
       <c r="D8" t="n">
-        <v>50.18</v>
+        <v>45.4045</v>
       </c>
       <c r="E8" t="n">
-        <v>48.7373</v>
+        <v>50.5132</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.8638</v>
+        <v>33.6055</v>
       </c>
       <c r="C9" t="n">
-        <v>34.6547</v>
+        <v>34.2756</v>
       </c>
       <c r="D9" t="n">
-        <v>50.428</v>
+        <v>50.3215</v>
       </c>
       <c r="E9" t="n">
-        <v>53.2329</v>
+        <v>52.2704</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.5005</v>
+        <v>35.001</v>
       </c>
       <c r="C10" t="n">
-        <v>35.0533</v>
+        <v>34.9245</v>
       </c>
       <c r="D10" t="n">
-        <v>49.7869</v>
+        <v>51.8417</v>
       </c>
       <c r="E10" t="n">
-        <v>52.3108</v>
+        <v>53.6404</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.1919</v>
+        <v>34.9154</v>
       </c>
       <c r="C11" t="n">
-        <v>35.1594</v>
+        <v>34.4233</v>
       </c>
       <c r="D11" t="n">
-        <v>50.6687</v>
+        <v>51.7218</v>
       </c>
       <c r="E11" t="n">
-        <v>56.7724</v>
+        <v>58.0783</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.0884</v>
+        <v>34.7288</v>
       </c>
       <c r="C12" t="n">
-        <v>35.7117</v>
+        <v>35.8132</v>
       </c>
       <c r="D12" t="n">
-        <v>51.1855</v>
+        <v>51.1264</v>
       </c>
       <c r="E12" t="n">
-        <v>55.2957</v>
+        <v>58.3202</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5802</v>
+        <v>35.4204</v>
       </c>
       <c r="C13" t="n">
-        <v>35.8851</v>
+        <v>35.4049</v>
       </c>
       <c r="D13" t="n">
-        <v>50.8847</v>
+        <v>51.7941</v>
       </c>
       <c r="E13" t="n">
-        <v>55.4209</v>
+        <v>53.8052</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.9902</v>
+        <v>34.8542</v>
       </c>
       <c r="C14" t="n">
-        <v>35.6671</v>
+        <v>35.5557</v>
       </c>
       <c r="D14" t="n">
-        <v>52.6077</v>
+        <v>52.0973</v>
       </c>
       <c r="E14" t="n">
-        <v>57.8596</v>
+        <v>59.2277</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.4613</v>
+        <v>35.1383</v>
       </c>
       <c r="C15" t="n">
-        <v>35.8724</v>
+        <v>36.1782</v>
       </c>
       <c r="D15" t="n">
-        <v>51.128</v>
+        <v>50.7999</v>
       </c>
       <c r="E15" t="n">
-        <v>57.5446</v>
+        <v>57.8291</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.7869</v>
+        <v>35.3419</v>
       </c>
       <c r="C16" t="n">
-        <v>35.8752</v>
+        <v>36.2508</v>
       </c>
       <c r="D16" t="n">
-        <v>50.9148</v>
+        <v>51.3358</v>
       </c>
       <c r="E16" t="n">
-        <v>55.7635</v>
+        <v>61.0155</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.4422</v>
+        <v>35.5172</v>
       </c>
       <c r="C17" t="n">
-        <v>36.288</v>
+        <v>36.3432</v>
       </c>
       <c r="D17" t="n">
-        <v>49.8627</v>
+        <v>50.714</v>
       </c>
       <c r="E17" t="n">
-        <v>55.981</v>
+        <v>59.3914</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.82612</v>
+        <v>4.8028</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9631</v>
+        <v>10.9862</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6991</v>
+        <v>13.9022</v>
       </c>
       <c r="E2" t="n">
-        <v>18.8516</v>
+        <v>18.3452</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.40748</v>
+        <v>9.37494</v>
       </c>
       <c r="C3" t="n">
-        <v>19.1603</v>
+        <v>18.8938</v>
       </c>
       <c r="D3" t="n">
-        <v>27.1833</v>
+        <v>25.6901</v>
       </c>
       <c r="E3" t="n">
-        <v>34.7375</v>
+        <v>33.3391</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5718</v>
+        <v>13.51</v>
       </c>
       <c r="C4" t="n">
-        <v>26.2181</v>
+        <v>26.0783</v>
       </c>
       <c r="D4" t="n">
-        <v>38.2882</v>
+        <v>34.6576</v>
       </c>
       <c r="E4" t="n">
-        <v>48.6205</v>
+        <v>46.3833</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9003</v>
+        <v>15.8649</v>
       </c>
       <c r="C5" t="n">
-        <v>26.7758</v>
+        <v>26.5083</v>
       </c>
       <c r="D5" t="n">
-        <v>40.6905</v>
+        <v>37.7881</v>
       </c>
       <c r="E5" t="n">
-        <v>50.4049</v>
+        <v>48.4444</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2831</v>
+        <v>19.3063</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0955</v>
+        <v>29.8593</v>
       </c>
       <c r="D6" t="n">
-        <v>46.8074</v>
+        <v>43.8176</v>
       </c>
       <c r="E6" t="n">
-        <v>58.2058</v>
+        <v>55.6396</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.504</v>
+        <v>22.3727</v>
       </c>
       <c r="C7" t="n">
-        <v>35.196</v>
+        <v>35.0659</v>
       </c>
       <c r="D7" t="n">
-        <v>53.5383</v>
+        <v>49.1586</v>
       </c>
       <c r="E7" t="n">
-        <v>66.3253</v>
+        <v>64.9883</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1213</v>
+        <v>20.222</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6411</v>
+        <v>33.4321</v>
       </c>
       <c r="D8" t="n">
-        <v>45.7724</v>
+        <v>44.1673</v>
       </c>
       <c r="E8" t="n">
-        <v>60.8972</v>
+        <v>57.8982</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.7547</v>
+        <v>20.8991</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8017</v>
+        <v>33.3529</v>
       </c>
       <c r="D9" t="n">
-        <v>48.7984</v>
+        <v>43.4355</v>
       </c>
       <c r="E9" t="n">
-        <v>59.3649</v>
+        <v>55.3926</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.0523</v>
+        <v>21.3733</v>
       </c>
       <c r="C10" t="n">
-        <v>33.5892</v>
+        <v>33.4322</v>
       </c>
       <c r="D10" t="n">
-        <v>48.4288</v>
+        <v>42.1801</v>
       </c>
       <c r="E10" t="n">
-        <v>59.9998</v>
+        <v>57.394</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3528</v>
+        <v>21.326</v>
       </c>
       <c r="C11" t="n">
-        <v>33.9359</v>
+        <v>33.8787</v>
       </c>
       <c r="D11" t="n">
-        <v>48.8671</v>
+        <v>43.2951</v>
       </c>
       <c r="E11" t="n">
-        <v>62.192</v>
+        <v>59.3399</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.2608</v>
+        <v>21.0521</v>
       </c>
       <c r="C12" t="n">
-        <v>34.3714</v>
+        <v>34.2293</v>
       </c>
       <c r="D12" t="n">
-        <v>46.8598</v>
+        <v>45.4215</v>
       </c>
       <c r="E12" t="n">
-        <v>61.3089</v>
+        <v>59.0999</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4665</v>
+        <v>21.0273</v>
       </c>
       <c r="C13" t="n">
-        <v>33.9476</v>
+        <v>34.5113</v>
       </c>
       <c r="D13" t="n">
-        <v>48.0561</v>
+        <v>44.4028</v>
       </c>
       <c r="E13" t="n">
-        <v>63.4016</v>
+        <v>58.0172</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5576</v>
+        <v>21.3161</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5815</v>
+        <v>34.2568</v>
       </c>
       <c r="D14" t="n">
-        <v>47.6273</v>
+        <v>44.5414</v>
       </c>
       <c r="E14" t="n">
-        <v>62.3635</v>
+        <v>61.3615</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5529</v>
+        <v>21.3568</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4313</v>
+        <v>34.1937</v>
       </c>
       <c r="D15" t="n">
-        <v>49.9426</v>
+        <v>43.5056</v>
       </c>
       <c r="E15" t="n">
-        <v>62.9246</v>
+        <v>60.9683</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.896</v>
+        <v>21.4683</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6569</v>
+        <v>34.2578</v>
       </c>
       <c r="D16" t="n">
-        <v>45.8953</v>
+        <v>45.6521</v>
       </c>
       <c r="E16" t="n">
-        <v>61.938</v>
+        <v>60.0876</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.5088</v>
+        <v>20.8445</v>
       </c>
       <c r="C17" t="n">
-        <v>34.8831</v>
+        <v>34.5206</v>
       </c>
       <c r="D17" t="n">
-        <v>51.0418</v>
+        <v>46.9697</v>
       </c>
       <c r="E17" t="n">
-        <v>65.1541</v>
+        <v>62.317</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.83685</v>
+        <v>4.78563</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0445</v>
+        <v>11.0814</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6119</v>
+        <v>13.6967</v>
       </c>
       <c r="E2" t="n">
-        <v>18.8955</v>
+        <v>18.1288</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.484019999999999</v>
+        <v>9.40729</v>
       </c>
       <c r="C3" t="n">
-        <v>19.1537</v>
+        <v>19.0898</v>
       </c>
       <c r="D3" t="n">
-        <v>27.0922</v>
+        <v>25.0495</v>
       </c>
       <c r="E3" t="n">
-        <v>34.8017</v>
+        <v>32.8893</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.6713</v>
+        <v>13.6083</v>
       </c>
       <c r="C4" t="n">
-        <v>26.6585</v>
+        <v>26.4111</v>
       </c>
       <c r="D4" t="n">
-        <v>37.9342</v>
+        <v>35.0509</v>
       </c>
       <c r="E4" t="n">
-        <v>48.8411</v>
+        <v>46.2737</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0721</v>
+        <v>16.0553</v>
       </c>
       <c r="C5" t="n">
-        <v>26.9284</v>
+        <v>26.6227</v>
       </c>
       <c r="D5" t="n">
-        <v>40.2701</v>
+        <v>38.0826</v>
       </c>
       <c r="E5" t="n">
-        <v>50.7145</v>
+        <v>48.4547</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5433</v>
+        <v>19.5527</v>
       </c>
       <c r="C6" t="n">
-        <v>30.3577</v>
+        <v>30.0378</v>
       </c>
       <c r="D6" t="n">
-        <v>46.5821</v>
+        <v>43.1617</v>
       </c>
       <c r="E6" t="n">
-        <v>57.7061</v>
+        <v>55.7752</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.9132</v>
+        <v>22.7774</v>
       </c>
       <c r="C7" t="n">
-        <v>35.3181</v>
+        <v>35.1245</v>
       </c>
       <c r="D7" t="n">
-        <v>52.2771</v>
+        <v>49.3665</v>
       </c>
       <c r="E7" t="n">
-        <v>65.17659999999999</v>
+        <v>63.8613</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7209</v>
+        <v>20.3791</v>
       </c>
       <c r="C8" t="n">
-        <v>34.3133</v>
+        <v>33.7482</v>
       </c>
       <c r="D8" t="n">
-        <v>44.4066</v>
+        <v>40.3937</v>
       </c>
       <c r="E8" t="n">
-        <v>59.1855</v>
+        <v>55.438</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.2946</v>
+        <v>21.0004</v>
       </c>
       <c r="C9" t="n">
-        <v>34.2217</v>
+        <v>34.1622</v>
       </c>
       <c r="D9" t="n">
-        <v>46.92</v>
+        <v>41.4964</v>
       </c>
       <c r="E9" t="n">
-        <v>56.6125</v>
+        <v>57.1503</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4137</v>
+        <v>21.3704</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9145</v>
+        <v>33.6686</v>
       </c>
       <c r="D10" t="n">
-        <v>43.2974</v>
+        <v>42.7059</v>
       </c>
       <c r="E10" t="n">
-        <v>58.861</v>
+        <v>57.8704</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8724</v>
+        <v>21.479</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0876</v>
+        <v>33.7533</v>
       </c>
       <c r="D11" t="n">
-        <v>47.6304</v>
+        <v>42.269</v>
       </c>
       <c r="E11" t="n">
-        <v>60.4408</v>
+        <v>59.0862</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.5542</v>
+        <v>21.5643</v>
       </c>
       <c r="C12" t="n">
-        <v>34.4993</v>
+        <v>33.8864</v>
       </c>
       <c r="D12" t="n">
-        <v>44.7301</v>
+        <v>41.3114</v>
       </c>
       <c r="E12" t="n">
-        <v>60.4287</v>
+        <v>59.9445</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5149</v>
+        <v>21.6556</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5422</v>
+        <v>34.2855</v>
       </c>
       <c r="D13" t="n">
-        <v>45.4519</v>
+        <v>41.9949</v>
       </c>
       <c r="E13" t="n">
-        <v>61.03</v>
+        <v>60.3023</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5931</v>
+        <v>21.6914</v>
       </c>
       <c r="C14" t="n">
-        <v>34.6132</v>
+        <v>34.1953</v>
       </c>
       <c r="D14" t="n">
-        <v>45.6138</v>
+        <v>40.1911</v>
       </c>
       <c r="E14" t="n">
-        <v>63.1391</v>
+        <v>59.854</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.8232</v>
+        <v>21.3893</v>
       </c>
       <c r="C15" t="n">
-        <v>34.5422</v>
+        <v>34.3459</v>
       </c>
       <c r="D15" t="n">
-        <v>43.8731</v>
+        <v>38.7942</v>
       </c>
       <c r="E15" t="n">
-        <v>61.9207</v>
+        <v>59.9797</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5313</v>
+        <v>21.5592</v>
       </c>
       <c r="C16" t="n">
-        <v>34.618</v>
+        <v>34.2863</v>
       </c>
       <c r="D16" t="n">
-        <v>47.7998</v>
+        <v>42.046</v>
       </c>
       <c r="E16" t="n">
-        <v>62.4373</v>
+        <v>60.8502</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.0986</v>
+        <v>21.6304</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7538</v>
+        <v>34.4404</v>
       </c>
       <c r="D17" t="n">
-        <v>48.7853</v>
+        <v>39.1121</v>
       </c>
       <c r="E17" t="n">
-        <v>63.087</v>
+        <v>62.5265</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.99391</v>
+        <v>8.987690000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.4955</v>
+        <v>13.5619</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7656</v>
+        <v>18.3543</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2914</v>
+        <v>21.8136</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.1363</v>
+        <v>17.1785</v>
       </c>
       <c r="C3" t="n">
-        <v>22.4938</v>
+        <v>22.7406</v>
       </c>
       <c r="D3" t="n">
-        <v>34.3473</v>
+        <v>33.7648</v>
       </c>
       <c r="E3" t="n">
-        <v>38.4019</v>
+        <v>39.0828</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.6058</v>
+        <v>24.8191</v>
       </c>
       <c r="C4" t="n">
-        <v>29.9988</v>
+        <v>30.8849</v>
       </c>
       <c r="D4" t="n">
-        <v>49.3163</v>
+        <v>47.5977</v>
       </c>
       <c r="E4" t="n">
-        <v>54.1225</v>
+        <v>54.8509</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.0847</v>
+        <v>23.838</v>
       </c>
       <c r="C5" t="n">
-        <v>29.4877</v>
+        <v>29.6053</v>
       </c>
       <c r="D5" t="n">
-        <v>48.5893</v>
+        <v>48.5844</v>
       </c>
       <c r="E5" t="n">
-        <v>55.7964</v>
+        <v>56.2733</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.3973</v>
+        <v>28.4564</v>
       </c>
       <c r="C6" t="n">
-        <v>32.635</v>
+        <v>32.6478</v>
       </c>
       <c r="D6" t="n">
-        <v>56.2571</v>
+        <v>55.1115</v>
       </c>
       <c r="E6" t="n">
-        <v>64.15989999999999</v>
+        <v>64.06</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.6221</v>
+        <v>34.6084</v>
       </c>
       <c r="C7" t="n">
-        <v>37.5611</v>
+        <v>37.479</v>
       </c>
       <c r="D7" t="n">
-        <v>63.3575</v>
+        <v>62.3512</v>
       </c>
       <c r="E7" t="n">
-        <v>72.38120000000001</v>
+        <v>73.7868</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.4554</v>
+        <v>31.6085</v>
       </c>
       <c r="C8" t="n">
-        <v>36.547</v>
+        <v>36.5175</v>
       </c>
       <c r="D8" t="n">
-        <v>60.9693</v>
+        <v>60.6042</v>
       </c>
       <c r="E8" t="n">
-        <v>69.64570000000001</v>
+        <v>71.29810000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.4339</v>
+        <v>32.5024</v>
       </c>
       <c r="C9" t="n">
-        <v>36.498</v>
+        <v>36.4182</v>
       </c>
       <c r="D9" t="n">
-        <v>60.5375</v>
+        <v>57.931</v>
       </c>
       <c r="E9" t="n">
-        <v>70.6362</v>
+        <v>72.1994</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.5486</v>
+        <v>32.1645</v>
       </c>
       <c r="C10" t="n">
-        <v>36.7709</v>
+        <v>36.4649</v>
       </c>
       <c r="D10" t="n">
-        <v>59.8959</v>
+        <v>60.8817</v>
       </c>
       <c r="E10" t="n">
-        <v>70.6031</v>
+        <v>73.3805</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.7167</v>
+        <v>32.9983</v>
       </c>
       <c r="C11" t="n">
-        <v>36.6382</v>
+        <v>36.7958</v>
       </c>
       <c r="D11" t="n">
-        <v>61.7749</v>
+        <v>61.2093</v>
       </c>
       <c r="E11" t="n">
-        <v>70.9986</v>
+        <v>72.9868</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.6715</v>
+        <v>32.6742</v>
       </c>
       <c r="C12" t="n">
-        <v>36.8527</v>
+        <v>36.6716</v>
       </c>
       <c r="D12" t="n">
-        <v>62.9566</v>
+        <v>60.322</v>
       </c>
       <c r="E12" t="n">
-        <v>70.13930000000001</v>
+        <v>73.1999</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.3044</v>
+        <v>32.6347</v>
       </c>
       <c r="C13" t="n">
-        <v>36.9536</v>
+        <v>36.7997</v>
       </c>
       <c r="D13" t="n">
-        <v>63.214</v>
+        <v>61.1505</v>
       </c>
       <c r="E13" t="n">
-        <v>70.937</v>
+        <v>73.1439</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.1199</v>
+        <v>33.0296</v>
       </c>
       <c r="C14" t="n">
-        <v>36.8722</v>
+        <v>36.743</v>
       </c>
       <c r="D14" t="n">
-        <v>62.4964</v>
+        <v>61.1393</v>
       </c>
       <c r="E14" t="n">
-        <v>71.47490000000001</v>
+        <v>73.1823</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.29</v>
+        <v>33.0207</v>
       </c>
       <c r="C15" t="n">
-        <v>36.8316</v>
+        <v>36.5122</v>
       </c>
       <c r="D15" t="n">
-        <v>63.1564</v>
+        <v>60.4142</v>
       </c>
       <c r="E15" t="n">
-        <v>69.6884</v>
+        <v>73.2085</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.0157</v>
+        <v>33.4376</v>
       </c>
       <c r="C16" t="n">
-        <v>36.874</v>
+        <v>36.7124</v>
       </c>
       <c r="D16" t="n">
-        <v>62.2749</v>
+        <v>60.8145</v>
       </c>
       <c r="E16" t="n">
-        <v>70.90179999999999</v>
+        <v>73.22280000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.8402</v>
+        <v>33.2727</v>
       </c>
       <c r="C17" t="n">
-        <v>37.0417</v>
+        <v>36.7162</v>
       </c>
       <c r="D17" t="n">
-        <v>62.2118</v>
+        <v>61.9188</v>
       </c>
       <c r="E17" t="n">
-        <v>70.8943</v>
+        <v>72.4053</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4643</v>
+        <v>10.3939</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9214</v>
+        <v>12.9205</v>
       </c>
       <c r="D2" t="n">
-        <v>16.3914</v>
+        <v>17.5842</v>
       </c>
       <c r="E2" t="n">
-        <v>19.4099</v>
+        <v>21.2202</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.6608</v>
+        <v>19.6011</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5441</v>
+        <v>19.3289</v>
       </c>
       <c r="D3" t="n">
-        <v>25.0005</v>
+        <v>28.1178</v>
       </c>
       <c r="E3" t="n">
-        <v>30.3191</v>
+        <v>33.3484</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.0706</v>
+        <v>26.9792</v>
       </c>
       <c r="C4" t="n">
-        <v>24.415</v>
+        <v>24.4407</v>
       </c>
       <c r="D4" t="n">
-        <v>31.1781</v>
+        <v>32.3825</v>
       </c>
       <c r="E4" t="n">
-        <v>38.0289</v>
+        <v>42.3903</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.5639</v>
+        <v>20.5023</v>
       </c>
       <c r="C5" t="n">
-        <v>27.424</v>
+        <v>26.5535</v>
       </c>
       <c r="D5" t="n">
-        <v>32.6043</v>
+        <v>36.3046</v>
       </c>
       <c r="E5" t="n">
-        <v>38.0234</v>
+        <v>43.7208</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.4971</v>
+        <v>24.3088</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2133</v>
+        <v>31.0977</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6238</v>
+        <v>38.5661</v>
       </c>
       <c r="E6" t="n">
-        <v>38.6541</v>
+        <v>43.9624</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.1087</v>
+        <v>28.9455</v>
       </c>
       <c r="C7" t="n">
-        <v>36.6307</v>
+        <v>36.5102</v>
       </c>
       <c r="D7" t="n">
-        <v>38.6594</v>
+        <v>43.6598</v>
       </c>
       <c r="E7" t="n">
-        <v>43.6936</v>
+        <v>50.6393</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.1963</v>
+        <v>21.2055</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4203</v>
+        <v>33.5365</v>
       </c>
       <c r="D8" t="n">
-        <v>37.7228</v>
+        <v>41.9877</v>
       </c>
       <c r="E8" t="n">
-        <v>41.0156</v>
+        <v>46.6386</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.4703</v>
+        <v>24.1065</v>
       </c>
       <c r="C9" t="n">
-        <v>34.3398</v>
+        <v>34.0878</v>
       </c>
       <c r="D9" t="n">
-        <v>41.3838</v>
+        <v>47.0277</v>
       </c>
       <c r="E9" t="n">
-        <v>44.0827</v>
+        <v>49.7259</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.9168</v>
+        <v>26.4055</v>
       </c>
       <c r="C10" t="n">
-        <v>34.5582</v>
+        <v>34.3964</v>
       </c>
       <c r="D10" t="n">
-        <v>43.3529</v>
+        <v>50.3899</v>
       </c>
       <c r="E10" t="n">
-        <v>48.1418</v>
+        <v>52.4047</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.3265</v>
+        <v>24.5517</v>
       </c>
       <c r="C11" t="n">
-        <v>35.006</v>
+        <v>34.7709</v>
       </c>
       <c r="D11" t="n">
-        <v>44.8954</v>
+        <v>51.9266</v>
       </c>
       <c r="E11" t="n">
-        <v>50.8158</v>
+        <v>56.7881</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4592</v>
+        <v>26.4452</v>
       </c>
       <c r="C12" t="n">
-        <v>35.0599</v>
+        <v>35.1285</v>
       </c>
       <c r="D12" t="n">
-        <v>45.7138</v>
+        <v>56.1288</v>
       </c>
       <c r="E12" t="n">
-        <v>50.8317</v>
+        <v>58.8372</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.0769</v>
+        <v>28.852</v>
       </c>
       <c r="C13" t="n">
-        <v>35.237</v>
+        <v>35.2781</v>
       </c>
       <c r="D13" t="n">
-        <v>44.4353</v>
+        <v>53.6357</v>
       </c>
       <c r="E13" t="n">
-        <v>53.4629</v>
+        <v>55.9274</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9967</v>
+        <v>23.7047</v>
       </c>
       <c r="C14" t="n">
-        <v>34.9788</v>
+        <v>34.5817</v>
       </c>
       <c r="D14" t="n">
-        <v>44.6913</v>
+        <v>54.9265</v>
       </c>
       <c r="E14" t="n">
-        <v>52.505</v>
+        <v>61.219</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.5168</v>
+        <v>25.9208</v>
       </c>
       <c r="C15" t="n">
-        <v>34.3901</v>
+        <v>34.5479</v>
       </c>
       <c r="D15" t="n">
-        <v>46.8795</v>
+        <v>55.2754</v>
       </c>
       <c r="E15" t="n">
-        <v>51.9148</v>
+        <v>57.4419</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.0407</v>
+        <v>26.8881</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4474</v>
+        <v>34.5014</v>
       </c>
       <c r="D16" t="n">
-        <v>46.4247</v>
+        <v>59.5197</v>
       </c>
       <c r="E16" t="n">
-        <v>53.9196</v>
+        <v>60.7979</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.7093</v>
+        <v>25.5999</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5428</v>
+        <v>34.7495</v>
       </c>
       <c r="D17" t="n">
-        <v>46.2934</v>
+        <v>54.8473</v>
       </c>
       <c r="E17" t="n">
-        <v>51.4905</v>
+        <v>61.7481</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7601</v>
+        <v>10.7443</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9113</v>
+        <v>12.9324</v>
       </c>
       <c r="D2" t="n">
-        <v>16.4262</v>
+        <v>17.481</v>
       </c>
       <c r="E2" t="n">
-        <v>19.485</v>
+        <v>20.9997</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.03</v>
+        <v>19.8491</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2601</v>
+        <v>19.5186</v>
       </c>
       <c r="D3" t="n">
-        <v>25.9213</v>
+        <v>27.3909</v>
       </c>
       <c r="E3" t="n">
-        <v>28.008</v>
+        <v>32.3566</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.7719</v>
+        <v>27.2115</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8171</v>
+        <v>25.8168</v>
       </c>
       <c r="D4" t="n">
-        <v>31.6512</v>
+        <v>36.0749</v>
       </c>
       <c r="E4" t="n">
-        <v>34.9723</v>
+        <v>39.1438</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.722</v>
+        <v>20.472</v>
       </c>
       <c r="C5" t="n">
-        <v>27.1166</v>
+        <v>26.4685</v>
       </c>
       <c r="D5" t="n">
-        <v>32.575</v>
+        <v>35.6898</v>
       </c>
       <c r="E5" t="n">
-        <v>46.1966</v>
+        <v>43.048</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.059</v>
+        <v>24.9397</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2888</v>
+        <v>31.0768</v>
       </c>
       <c r="D6" t="n">
-        <v>36.7269</v>
+        <v>44.16</v>
       </c>
       <c r="E6" t="n">
-        <v>38.7359</v>
+        <v>44.1132</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9364</v>
+        <v>29.6295</v>
       </c>
       <c r="C7" t="n">
-        <v>36.3993</v>
+        <v>36.2377</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7278</v>
+        <v>43.89</v>
       </c>
       <c r="E7" t="n">
-        <v>43.7536</v>
+        <v>50.7426</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.7656</v>
+        <v>21.6179</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6717</v>
+        <v>33.3283</v>
       </c>
       <c r="D8" t="n">
-        <v>36.8143</v>
+        <v>42.5337</v>
       </c>
       <c r="E8" t="n">
-        <v>42.1637</v>
+        <v>48.2652</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.1364</v>
+        <v>25.027</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8349</v>
+        <v>33.8218</v>
       </c>
       <c r="D9" t="n">
-        <v>37.566</v>
+        <v>47.217</v>
       </c>
       <c r="E9" t="n">
-        <v>47.7263</v>
+        <v>52.1793</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.6656</v>
+        <v>27.3218</v>
       </c>
       <c r="C10" t="n">
-        <v>34.2574</v>
+        <v>34.5587</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0387</v>
+        <v>47.6142</v>
       </c>
       <c r="E10" t="n">
-        <v>48.1847</v>
+        <v>53.7877</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.6722</v>
+        <v>24.7865</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0708</v>
+        <v>33.7756</v>
       </c>
       <c r="D11" t="n">
-        <v>41.9883</v>
+        <v>51.8242</v>
       </c>
       <c r="E11" t="n">
-        <v>51.0979</v>
+        <v>56.8055</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1677</v>
+        <v>27.1823</v>
       </c>
       <c r="C12" t="n">
-        <v>34.4807</v>
+        <v>34.6064</v>
       </c>
       <c r="D12" t="n">
-        <v>43.1875</v>
+        <v>58.3068</v>
       </c>
       <c r="E12" t="n">
-        <v>50.1546</v>
+        <v>60.9762</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8618</v>
+        <v>29.668</v>
       </c>
       <c r="C13" t="n">
-        <v>35.1763</v>
+        <v>34.8619</v>
       </c>
       <c r="D13" t="n">
-        <v>46.8655</v>
+        <v>55.7624</v>
       </c>
       <c r="E13" t="n">
-        <v>52.8573</v>
+        <v>60.5535</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9078</v>
+        <v>23.861</v>
       </c>
       <c r="C14" t="n">
-        <v>35.1152</v>
+        <v>35.1319</v>
       </c>
       <c r="D14" t="n">
-        <v>44.3119</v>
+        <v>57.0282</v>
       </c>
       <c r="E14" t="n">
-        <v>51.1669</v>
+        <v>61.7856</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.6662</v>
+        <v>25.8939</v>
       </c>
       <c r="C15" t="n">
-        <v>35.2375</v>
+        <v>35.4021</v>
       </c>
       <c r="D15" t="n">
-        <v>45.7042</v>
+        <v>56.7978</v>
       </c>
       <c r="E15" t="n">
-        <v>54.6717</v>
+        <v>61.7927</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.6854</v>
+        <v>27.7557</v>
       </c>
       <c r="C16" t="n">
-        <v>35.5815</v>
+        <v>35.1323</v>
       </c>
       <c r="D16" t="n">
-        <v>46.9666</v>
+        <v>59.4888</v>
       </c>
       <c r="E16" t="n">
-        <v>54.6472</v>
+        <v>61.9596</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.0744</v>
+        <v>26.2391</v>
       </c>
       <c r="C17" t="n">
-        <v>35.2782</v>
+        <v>35.4747</v>
       </c>
       <c r="D17" t="n">
-        <v>44.7654</v>
+        <v>57.6187</v>
       </c>
       <c r="E17" t="n">
-        <v>53.1796</v>
+        <v>62.2116</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0789</v>
+        <v>13.0423</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0167</v>
+        <v>14.0211</v>
       </c>
       <c r="D2" t="n">
-        <v>18.835</v>
+        <v>19.3258</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6626</v>
+        <v>22.4438</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.202</v>
+        <v>22.6951</v>
       </c>
       <c r="C3" t="n">
-        <v>23.1705</v>
+        <v>23.285</v>
       </c>
       <c r="D3" t="n">
-        <v>30.096</v>
+        <v>30.5381</v>
       </c>
       <c r="E3" t="n">
-        <v>32.3825</v>
+        <v>34.4211</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.4671</v>
+        <v>31.966</v>
       </c>
       <c r="C4" t="n">
-        <v>29.0425</v>
+        <v>29.5493</v>
       </c>
       <c r="D4" t="n">
-        <v>34.3175</v>
+        <v>35.2671</v>
       </c>
       <c r="E4" t="n">
-        <v>39.0999</v>
+        <v>42.896</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.7173</v>
+        <v>26.5484</v>
       </c>
       <c r="C5" t="n">
-        <v>28.6838</v>
+        <v>29.024</v>
       </c>
       <c r="D5" t="n">
-        <v>34.5829</v>
+        <v>38.5468</v>
       </c>
       <c r="E5" t="n">
-        <v>43.6646</v>
+        <v>47.4397</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.7485</v>
+        <v>31.5548</v>
       </c>
       <c r="C6" t="n">
-        <v>32.6945</v>
+        <v>32.74</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0854</v>
+        <v>46.2272</v>
       </c>
       <c r="E6" t="n">
-        <v>50.1114</v>
+        <v>50.9573</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.5499</v>
+        <v>37.2791</v>
       </c>
       <c r="C7" t="n">
-        <v>38.1721</v>
+        <v>38.1335</v>
       </c>
       <c r="D7" t="n">
-        <v>44.5155</v>
+        <v>50.1047</v>
       </c>
       <c r="E7" t="n">
-        <v>50.65</v>
+        <v>60.0744</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.1558</v>
+        <v>34.1369</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4516</v>
+        <v>34.2194</v>
       </c>
       <c r="D8" t="n">
-        <v>45.4045</v>
+        <v>50.2863</v>
       </c>
       <c r="E8" t="n">
-        <v>50.5132</v>
+        <v>58.7388</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.6055</v>
+        <v>33.6712</v>
       </c>
       <c r="C9" t="n">
-        <v>34.2756</v>
+        <v>34.2505</v>
       </c>
       <c r="D9" t="n">
-        <v>50.3215</v>
+        <v>54.6111</v>
       </c>
       <c r="E9" t="n">
-        <v>52.2704</v>
+        <v>59.9898</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.001</v>
+        <v>34.6085</v>
       </c>
       <c r="C10" t="n">
-        <v>34.9245</v>
+        <v>34.9732</v>
       </c>
       <c r="D10" t="n">
-        <v>51.8417</v>
+        <v>56.4108</v>
       </c>
       <c r="E10" t="n">
-        <v>53.6404</v>
+        <v>61.7091</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.9154</v>
+        <v>34.8233</v>
       </c>
       <c r="C11" t="n">
-        <v>34.4233</v>
+        <v>35.4483</v>
       </c>
       <c r="D11" t="n">
-        <v>51.7218</v>
+        <v>61.1419</v>
       </c>
       <c r="E11" t="n">
-        <v>58.0783</v>
+        <v>61.9794</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.7288</v>
+        <v>35.1457</v>
       </c>
       <c r="C12" t="n">
-        <v>35.8132</v>
+        <v>35.3068</v>
       </c>
       <c r="D12" t="n">
-        <v>51.1264</v>
+        <v>58.7808</v>
       </c>
       <c r="E12" t="n">
-        <v>58.3202</v>
+        <v>64.0171</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.4204</v>
+        <v>35.0351</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4049</v>
+        <v>35.3334</v>
       </c>
       <c r="D13" t="n">
-        <v>51.7941</v>
+        <v>60.2389</v>
       </c>
       <c r="E13" t="n">
-        <v>53.8052</v>
+        <v>61.1085</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.8542</v>
+        <v>35.1395</v>
       </c>
       <c r="C14" t="n">
-        <v>35.5557</v>
+        <v>35.9815</v>
       </c>
       <c r="D14" t="n">
-        <v>52.0973</v>
+        <v>61.7306</v>
       </c>
       <c r="E14" t="n">
-        <v>59.2277</v>
+        <v>61.8501</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.1383</v>
+        <v>35.4273</v>
       </c>
       <c r="C15" t="n">
-        <v>36.1782</v>
+        <v>36.3222</v>
       </c>
       <c r="D15" t="n">
-        <v>50.7999</v>
+        <v>60.6452</v>
       </c>
       <c r="E15" t="n">
-        <v>57.8291</v>
+        <v>61.4201</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.3419</v>
+        <v>35.2096</v>
       </c>
       <c r="C16" t="n">
-        <v>36.2508</v>
+        <v>36.305</v>
       </c>
       <c r="D16" t="n">
-        <v>51.3358</v>
+        <v>59.901</v>
       </c>
       <c r="E16" t="n">
-        <v>61.0155</v>
+        <v>62.1657</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.5172</v>
+        <v>35.4984</v>
       </c>
       <c r="C17" t="n">
-        <v>36.3432</v>
+        <v>35.99</v>
       </c>
       <c r="D17" t="n">
-        <v>50.714</v>
+        <v>60.9392</v>
       </c>
       <c r="E17" t="n">
-        <v>59.3914</v>
+        <v>61.7212</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.8028</v>
+        <v>4.76615</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9862</v>
+        <v>11.001</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9022</v>
+        <v>14.7681</v>
       </c>
       <c r="E2" t="n">
-        <v>18.3452</v>
+        <v>19.9305</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.37494</v>
+        <v>9.256069999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8938</v>
+        <v>19.1692</v>
       </c>
       <c r="D3" t="n">
-        <v>25.6901</v>
+        <v>28.1877</v>
       </c>
       <c r="E3" t="n">
-        <v>33.3391</v>
+        <v>37.2185</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.51</v>
+        <v>13.3842</v>
       </c>
       <c r="C4" t="n">
-        <v>26.0783</v>
+        <v>26.2043</v>
       </c>
       <c r="D4" t="n">
-        <v>34.6576</v>
+        <v>40.075</v>
       </c>
       <c r="E4" t="n">
-        <v>46.3833</v>
+        <v>52.5516</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8649</v>
+        <v>15.6411</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5083</v>
+        <v>26.4741</v>
       </c>
       <c r="D5" t="n">
-        <v>37.7881</v>
+        <v>46.3171</v>
       </c>
       <c r="E5" t="n">
-        <v>48.4444</v>
+        <v>60.0536</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3063</v>
+        <v>19.0885</v>
       </c>
       <c r="C6" t="n">
-        <v>29.8593</v>
+        <v>29.978</v>
       </c>
       <c r="D6" t="n">
-        <v>43.8176</v>
+        <v>56.5755</v>
       </c>
       <c r="E6" t="n">
-        <v>55.6396</v>
+        <v>71.7021</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.3727</v>
+        <v>22.188</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0659</v>
+        <v>34.8802</v>
       </c>
       <c r="D7" t="n">
-        <v>49.1586</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>64.9883</v>
+        <v>83.61320000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.222</v>
+        <v>19.8336</v>
       </c>
       <c r="C8" t="n">
-        <v>33.4321</v>
+        <v>33.6147</v>
       </c>
       <c r="D8" t="n">
-        <v>44.1673</v>
+        <v>55.8302</v>
       </c>
       <c r="E8" t="n">
-        <v>57.8982</v>
+        <v>72.65389999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8991</v>
+        <v>20.5706</v>
       </c>
       <c r="C9" t="n">
-        <v>33.3529</v>
+        <v>33.5203</v>
       </c>
       <c r="D9" t="n">
-        <v>43.4355</v>
+        <v>56.7751</v>
       </c>
       <c r="E9" t="n">
-        <v>55.3926</v>
+        <v>66.8283</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.3733</v>
+        <v>20.9907</v>
       </c>
       <c r="C10" t="n">
-        <v>33.4322</v>
+        <v>33.5319</v>
       </c>
       <c r="D10" t="n">
-        <v>42.1801</v>
+        <v>58.8658</v>
       </c>
       <c r="E10" t="n">
-        <v>57.394</v>
+        <v>75.3494</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.326</v>
+        <v>21.0784</v>
       </c>
       <c r="C11" t="n">
-        <v>33.8787</v>
+        <v>33.386</v>
       </c>
       <c r="D11" t="n">
-        <v>43.2951</v>
+        <v>60.4405</v>
       </c>
       <c r="E11" t="n">
-        <v>59.3399</v>
+        <v>75.68729999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.0521</v>
+        <v>20.8946</v>
       </c>
       <c r="C12" t="n">
-        <v>34.2293</v>
+        <v>33.9744</v>
       </c>
       <c r="D12" t="n">
-        <v>45.4215</v>
+        <v>61.1847</v>
       </c>
       <c r="E12" t="n">
-        <v>59.0999</v>
+        <v>76.50069999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0273</v>
+        <v>20.7539</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5113</v>
+        <v>34.2125</v>
       </c>
       <c r="D13" t="n">
-        <v>44.4028</v>
+        <v>61.1398</v>
       </c>
       <c r="E13" t="n">
-        <v>58.0172</v>
+        <v>77.60890000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3161</v>
+        <v>21.0784</v>
       </c>
       <c r="C14" t="n">
-        <v>34.2568</v>
+        <v>33.9779</v>
       </c>
       <c r="D14" t="n">
-        <v>44.5414</v>
+        <v>60.0265</v>
       </c>
       <c r="E14" t="n">
-        <v>61.3615</v>
+        <v>78.877</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.3568</v>
+        <v>20.9799</v>
       </c>
       <c r="C15" t="n">
-        <v>34.1937</v>
+        <v>34.311</v>
       </c>
       <c r="D15" t="n">
-        <v>43.5056</v>
+        <v>60.6345</v>
       </c>
       <c r="E15" t="n">
-        <v>60.9683</v>
+        <v>79.01649999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.4683</v>
+        <v>20.9434</v>
       </c>
       <c r="C16" t="n">
-        <v>34.2578</v>
+        <v>34.3127</v>
       </c>
       <c r="D16" t="n">
-        <v>45.6521</v>
+        <v>61.8129</v>
       </c>
       <c r="E16" t="n">
-        <v>60.0876</v>
+        <v>78.3095</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.8445</v>
+        <v>21.5415</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5206</v>
+        <v>34.328</v>
       </c>
       <c r="D17" t="n">
-        <v>46.9697</v>
+        <v>62.2631</v>
       </c>
       <c r="E17" t="n">
-        <v>62.317</v>
+        <v>78.9409</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.78563</v>
+        <v>4.77357</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0814</v>
+        <v>11.0706</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6967</v>
+        <v>14.675</v>
       </c>
       <c r="E2" t="n">
-        <v>18.1288</v>
+        <v>19.9814</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.40729</v>
+        <v>9.34638</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0898</v>
+        <v>19.2234</v>
       </c>
       <c r="D3" t="n">
-        <v>25.0495</v>
+        <v>27.8567</v>
       </c>
       <c r="E3" t="n">
-        <v>32.8893</v>
+        <v>37.426</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.6083</v>
+        <v>13.4272</v>
       </c>
       <c r="C4" t="n">
-        <v>26.4111</v>
+        <v>26.2594</v>
       </c>
       <c r="D4" t="n">
-        <v>35.0509</v>
+        <v>39.4533</v>
       </c>
       <c r="E4" t="n">
-        <v>46.2737</v>
+        <v>52.6194</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0553</v>
+        <v>15.8765</v>
       </c>
       <c r="C5" t="n">
-        <v>26.6227</v>
+        <v>26.6238</v>
       </c>
       <c r="D5" t="n">
-        <v>38.0826</v>
+        <v>45.8659</v>
       </c>
       <c r="E5" t="n">
-        <v>48.4547</v>
+        <v>58.8217</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5527</v>
+        <v>19.2956</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0378</v>
+        <v>30.0333</v>
       </c>
       <c r="D6" t="n">
-        <v>43.1617</v>
+        <v>55.4366</v>
       </c>
       <c r="E6" t="n">
-        <v>55.7752</v>
+        <v>70.6289</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7774</v>
+        <v>22.5101</v>
       </c>
       <c r="C7" t="n">
-        <v>35.1245</v>
+        <v>35.0271</v>
       </c>
       <c r="D7" t="n">
-        <v>49.3665</v>
+        <v>65.033</v>
       </c>
       <c r="E7" t="n">
-        <v>63.8613</v>
+        <v>81.50149999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3791</v>
+        <v>20.4889</v>
       </c>
       <c r="C8" t="n">
-        <v>33.7482</v>
+        <v>33.5643</v>
       </c>
       <c r="D8" t="n">
-        <v>40.3937</v>
+        <v>57.3692</v>
       </c>
       <c r="E8" t="n">
-        <v>55.438</v>
+        <v>67.8036</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0004</v>
+        <v>20.7514</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1622</v>
+        <v>33.4767</v>
       </c>
       <c r="D9" t="n">
-        <v>41.4964</v>
+        <v>56.1007</v>
       </c>
       <c r="E9" t="n">
-        <v>57.1503</v>
+        <v>70.1601</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.3704</v>
+        <v>21.36</v>
       </c>
       <c r="C10" t="n">
-        <v>33.6686</v>
+        <v>33.7882</v>
       </c>
       <c r="D10" t="n">
-        <v>42.7059</v>
+        <v>56.6324</v>
       </c>
       <c r="E10" t="n">
-        <v>57.8704</v>
+        <v>75.2088</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.479</v>
+        <v>21.2527</v>
       </c>
       <c r="C11" t="n">
-        <v>33.7533</v>
+        <v>33.9749</v>
       </c>
       <c r="D11" t="n">
-        <v>42.269</v>
+        <v>57.8861</v>
       </c>
       <c r="E11" t="n">
-        <v>59.0862</v>
+        <v>74.2546</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.5643</v>
+        <v>21.4269</v>
       </c>
       <c r="C12" t="n">
-        <v>33.8864</v>
+        <v>34.0067</v>
       </c>
       <c r="D12" t="n">
-        <v>41.3114</v>
+        <v>58.888</v>
       </c>
       <c r="E12" t="n">
-        <v>59.9445</v>
+        <v>76.51009999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.6556</v>
+        <v>21.2875</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2855</v>
+        <v>33.8326</v>
       </c>
       <c r="D13" t="n">
-        <v>41.9949</v>
+        <v>60.4775</v>
       </c>
       <c r="E13" t="n">
-        <v>60.3023</v>
+        <v>77.2908</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.6914</v>
+        <v>21.3902</v>
       </c>
       <c r="C14" t="n">
-        <v>34.1953</v>
+        <v>34.2449</v>
       </c>
       <c r="D14" t="n">
-        <v>40.1911</v>
+        <v>58.569</v>
       </c>
       <c r="E14" t="n">
-        <v>59.854</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.3893</v>
+        <v>21.1828</v>
       </c>
       <c r="C15" t="n">
-        <v>34.3459</v>
+        <v>34.4526</v>
       </c>
       <c r="D15" t="n">
-        <v>38.7942</v>
+        <v>60.8854</v>
       </c>
       <c r="E15" t="n">
-        <v>59.9797</v>
+        <v>77.5835</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5592</v>
+        <v>21.3394</v>
       </c>
       <c r="C16" t="n">
-        <v>34.2863</v>
+        <v>34.5043</v>
       </c>
       <c r="D16" t="n">
-        <v>42.046</v>
+        <v>62.7357</v>
       </c>
       <c r="E16" t="n">
-        <v>60.8502</v>
+        <v>78.1855</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6304</v>
+        <v>21.312</v>
       </c>
       <c r="C17" t="n">
-        <v>34.4404</v>
+        <v>34.5143</v>
       </c>
       <c r="D17" t="n">
-        <v>39.1121</v>
+        <v>62.0305</v>
       </c>
       <c r="E17" t="n">
-        <v>62.5265</v>
+        <v>77.9689</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.987690000000001</v>
+        <v>8.927709999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5619</v>
+        <v>13.5691</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3543</v>
+        <v>18.7978</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8136</v>
+        <v>22.4156</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.1785</v>
+        <v>16.9802</v>
       </c>
       <c r="C3" t="n">
-        <v>22.7406</v>
+        <v>22.4454</v>
       </c>
       <c r="D3" t="n">
-        <v>33.7648</v>
+        <v>34.9852</v>
       </c>
       <c r="E3" t="n">
-        <v>39.0828</v>
+        <v>41.0008</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.8191</v>
+        <v>24.4825</v>
       </c>
       <c r="C4" t="n">
-        <v>30.8849</v>
+        <v>29.9233</v>
       </c>
       <c r="D4" t="n">
-        <v>47.5977</v>
+        <v>50.3299</v>
       </c>
       <c r="E4" t="n">
-        <v>54.8509</v>
+        <v>58.4899</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.838</v>
+        <v>23.9099</v>
       </c>
       <c r="C5" t="n">
-        <v>29.6053</v>
+        <v>29.0357</v>
       </c>
       <c r="D5" t="n">
-        <v>48.5844</v>
+        <v>54.1853</v>
       </c>
       <c r="E5" t="n">
-        <v>56.2733</v>
+        <v>61.7585</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.4564</v>
+        <v>28.2245</v>
       </c>
       <c r="C6" t="n">
-        <v>32.6478</v>
+        <v>32.4965</v>
       </c>
       <c r="D6" t="n">
-        <v>55.1115</v>
+        <v>63.0922</v>
       </c>
       <c r="E6" t="n">
-        <v>64.06</v>
+        <v>73.4941</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.6084</v>
+        <v>34.2547</v>
       </c>
       <c r="C7" t="n">
-        <v>37.479</v>
+        <v>37.4</v>
       </c>
       <c r="D7" t="n">
-        <v>62.3512</v>
+        <v>75.0611</v>
       </c>
       <c r="E7" t="n">
-        <v>73.7868</v>
+        <v>87.45310000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.6085</v>
+        <v>31.5377</v>
       </c>
       <c r="C8" t="n">
-        <v>36.5175</v>
+        <v>36.2671</v>
       </c>
       <c r="D8" t="n">
-        <v>60.6042</v>
+        <v>71.6888</v>
       </c>
       <c r="E8" t="n">
-        <v>71.29810000000001</v>
+        <v>83.44029999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.5024</v>
+        <v>32.375</v>
       </c>
       <c r="C9" t="n">
-        <v>36.4182</v>
+        <v>36.3515</v>
       </c>
       <c r="D9" t="n">
-        <v>57.931</v>
+        <v>71.50320000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>72.1994</v>
+        <v>84.4559</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.1645</v>
+        <v>32.2129</v>
       </c>
       <c r="C10" t="n">
-        <v>36.4649</v>
+        <v>36.6162</v>
       </c>
       <c r="D10" t="n">
-        <v>60.8817</v>
+        <v>71.0402</v>
       </c>
       <c r="E10" t="n">
-        <v>73.3805</v>
+        <v>82.5802</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.9983</v>
+        <v>32.6379</v>
       </c>
       <c r="C11" t="n">
-        <v>36.7958</v>
+        <v>36.6217</v>
       </c>
       <c r="D11" t="n">
-        <v>61.2093</v>
+        <v>70.2452</v>
       </c>
       <c r="E11" t="n">
-        <v>72.9868</v>
+        <v>84.8396</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.6742</v>
+        <v>32.2376</v>
       </c>
       <c r="C12" t="n">
-        <v>36.6716</v>
+        <v>36.6584</v>
       </c>
       <c r="D12" t="n">
-        <v>60.322</v>
+        <v>71.9529</v>
       </c>
       <c r="E12" t="n">
-        <v>73.1999</v>
+        <v>84.69119999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.6347</v>
+        <v>32.2539</v>
       </c>
       <c r="C13" t="n">
-        <v>36.7997</v>
+        <v>36.7679</v>
       </c>
       <c r="D13" t="n">
-        <v>61.1505</v>
+        <v>73.64409999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>73.1439</v>
+        <v>84.0018</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.0296</v>
+        <v>32.3019</v>
       </c>
       <c r="C14" t="n">
-        <v>36.743</v>
+        <v>36.9178</v>
       </c>
       <c r="D14" t="n">
-        <v>61.1393</v>
+        <v>72.75749999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>73.1823</v>
+        <v>83.82859999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.0207</v>
+        <v>32.8012</v>
       </c>
       <c r="C15" t="n">
-        <v>36.5122</v>
+        <v>36.2659</v>
       </c>
       <c r="D15" t="n">
-        <v>60.4142</v>
+        <v>72.92749999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>73.2085</v>
+        <v>86.42100000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.4376</v>
+        <v>32.2637</v>
       </c>
       <c r="C16" t="n">
-        <v>36.7124</v>
+        <v>36.7104</v>
       </c>
       <c r="D16" t="n">
-        <v>60.8145</v>
+        <v>73.1024</v>
       </c>
       <c r="E16" t="n">
-        <v>73.22280000000001</v>
+        <v>84.58459999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.2727</v>
+        <v>32.7036</v>
       </c>
       <c r="C17" t="n">
-        <v>36.7162</v>
+        <v>36.6411</v>
       </c>
       <c r="D17" t="n">
-        <v>61.9188</v>
+        <v>72.5492</v>
       </c>
       <c r="E17" t="n">
-        <v>72.4053</v>
+        <v>84.0061</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3939</v>
+        <v>10.4057</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9205</v>
+        <v>12.9196</v>
       </c>
       <c r="D2" t="n">
-        <v>17.5842</v>
+        <v>17.6189</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2202</v>
+        <v>21.232</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.6011</v>
+        <v>19.5244</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3289</v>
+        <v>19.4512</v>
       </c>
       <c r="D3" t="n">
-        <v>28.1178</v>
+        <v>27.5861</v>
       </c>
       <c r="E3" t="n">
-        <v>33.3484</v>
+        <v>33.3886</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.9792</v>
+        <v>26.0274</v>
       </c>
       <c r="C4" t="n">
-        <v>24.4407</v>
+        <v>24.6569</v>
       </c>
       <c r="D4" t="n">
-        <v>32.3825</v>
+        <v>32.2394</v>
       </c>
       <c r="E4" t="n">
-        <v>42.3903</v>
+        <v>39.3473</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.5023</v>
+        <v>20.495</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5535</v>
+        <v>27.5781</v>
       </c>
       <c r="D5" t="n">
-        <v>36.3046</v>
+        <v>38.6045</v>
       </c>
       <c r="E5" t="n">
-        <v>43.7208</v>
+        <v>43.6358</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.3088</v>
+        <v>24.361</v>
       </c>
       <c r="C6" t="n">
-        <v>31.0977</v>
+        <v>31.226</v>
       </c>
       <c r="D6" t="n">
-        <v>38.5661</v>
+        <v>40.0399</v>
       </c>
       <c r="E6" t="n">
-        <v>43.9624</v>
+        <v>43.9473</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9455</v>
+        <v>28.9791</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5102</v>
+        <v>36.5464</v>
       </c>
       <c r="D7" t="n">
-        <v>43.6598</v>
+        <v>43.7282</v>
       </c>
       <c r="E7" t="n">
-        <v>50.6393</v>
+        <v>50.6851</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.2055</v>
+        <v>21.322</v>
       </c>
       <c r="C8" t="n">
-        <v>33.5365</v>
+        <v>34.1656</v>
       </c>
       <c r="D8" t="n">
-        <v>41.9877</v>
+        <v>41.7821</v>
       </c>
       <c r="E8" t="n">
-        <v>46.6386</v>
+        <v>49.9528</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.1065</v>
+        <v>23.9805</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0878</v>
+        <v>33.7278</v>
       </c>
       <c r="D9" t="n">
-        <v>47.0277</v>
+        <v>46.286</v>
       </c>
       <c r="E9" t="n">
-        <v>49.7259</v>
+        <v>50.6256</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.4055</v>
+        <v>26.574</v>
       </c>
       <c r="C10" t="n">
-        <v>34.3964</v>
+        <v>34.4866</v>
       </c>
       <c r="D10" t="n">
-        <v>50.3899</v>
+        <v>49.3201</v>
       </c>
       <c r="E10" t="n">
-        <v>52.4047</v>
+        <v>52.5198</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.5517</v>
+        <v>24.4674</v>
       </c>
       <c r="C11" t="n">
-        <v>34.7709</v>
+        <v>34.4276</v>
       </c>
       <c r="D11" t="n">
-        <v>51.9266</v>
+        <v>51.6852</v>
       </c>
       <c r="E11" t="n">
-        <v>56.7881</v>
+        <v>58.1684</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4452</v>
+        <v>26.3962</v>
       </c>
       <c r="C12" t="n">
-        <v>35.1285</v>
+        <v>35.0117</v>
       </c>
       <c r="D12" t="n">
-        <v>56.1288</v>
+        <v>52.2057</v>
       </c>
       <c r="E12" t="n">
-        <v>58.8372</v>
+        <v>57.488</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.852</v>
+        <v>28.9704</v>
       </c>
       <c r="C13" t="n">
-        <v>35.2781</v>
+        <v>35.0436</v>
       </c>
       <c r="D13" t="n">
-        <v>53.6357</v>
+        <v>54.4803</v>
       </c>
       <c r="E13" t="n">
-        <v>55.9274</v>
+        <v>60.3649</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.7047</v>
+        <v>23.6781</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5817</v>
+        <v>34.8937</v>
       </c>
       <c r="D14" t="n">
-        <v>54.9265</v>
+        <v>55.8271</v>
       </c>
       <c r="E14" t="n">
-        <v>61.219</v>
+        <v>61.0572</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.9208</v>
+        <v>25.4755</v>
       </c>
       <c r="C15" t="n">
-        <v>34.5479</v>
+        <v>34.901</v>
       </c>
       <c r="D15" t="n">
-        <v>55.2754</v>
+        <v>57.4427</v>
       </c>
       <c r="E15" t="n">
-        <v>57.4419</v>
+        <v>62.8615</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.8881</v>
+        <v>26.7633</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5014</v>
+        <v>34.6565</v>
       </c>
       <c r="D16" t="n">
-        <v>59.5197</v>
+        <v>59.4132</v>
       </c>
       <c r="E16" t="n">
-        <v>60.7979</v>
+        <v>64.6574</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.5999</v>
+        <v>25.8838</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7495</v>
+        <v>34.6018</v>
       </c>
       <c r="D17" t="n">
-        <v>54.8473</v>
+        <v>56.1248</v>
       </c>
       <c r="E17" t="n">
-        <v>61.7481</v>
+        <v>63.4805</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7443</v>
+        <v>10.6655</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9324</v>
+        <v>12.8932</v>
       </c>
       <c r="D2" t="n">
-        <v>17.481</v>
+        <v>17.417</v>
       </c>
       <c r="E2" t="n">
-        <v>20.9997</v>
+        <v>21.009</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.8491</v>
+        <v>19.2366</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5186</v>
+        <v>19.3001</v>
       </c>
       <c r="D3" t="n">
-        <v>27.3909</v>
+        <v>27.8141</v>
       </c>
       <c r="E3" t="n">
-        <v>32.3566</v>
+        <v>31.7243</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.2115</v>
+        <v>26.4318</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8168</v>
+        <v>25.1817</v>
       </c>
       <c r="D4" t="n">
-        <v>36.0749</v>
+        <v>35.1073</v>
       </c>
       <c r="E4" t="n">
-        <v>39.1438</v>
+        <v>38.7796</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.472</v>
+        <v>22.1867</v>
       </c>
       <c r="C5" t="n">
-        <v>26.4685</v>
+        <v>27.0297</v>
       </c>
       <c r="D5" t="n">
-        <v>35.6898</v>
+        <v>34.4398</v>
       </c>
       <c r="E5" t="n">
-        <v>43.048</v>
+        <v>43.3038</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9397</v>
+        <v>24.7392</v>
       </c>
       <c r="C6" t="n">
-        <v>31.0768</v>
+        <v>31.1919</v>
       </c>
       <c r="D6" t="n">
-        <v>44.16</v>
+        <v>43.6168</v>
       </c>
       <c r="E6" t="n">
-        <v>44.1132</v>
+        <v>44.6503</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.6295</v>
+        <v>29.8564</v>
       </c>
       <c r="C7" t="n">
-        <v>36.2377</v>
+        <v>36.2304</v>
       </c>
       <c r="D7" t="n">
-        <v>43.89</v>
+        <v>43.8677</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7426</v>
+        <v>50.7566</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6179</v>
+        <v>21.6409</v>
       </c>
       <c r="C8" t="n">
-        <v>33.3283</v>
+        <v>33.628</v>
       </c>
       <c r="D8" t="n">
-        <v>42.5337</v>
+        <v>44.5838</v>
       </c>
       <c r="E8" t="n">
-        <v>48.2652</v>
+        <v>48.5515</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.027</v>
+        <v>24.7083</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8218</v>
+        <v>33.2371</v>
       </c>
       <c r="D9" t="n">
-        <v>47.217</v>
+        <v>48.033</v>
       </c>
       <c r="E9" t="n">
-        <v>52.1793</v>
+        <v>49.8265</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.3218</v>
+        <v>26.4249</v>
       </c>
       <c r="C10" t="n">
-        <v>34.5587</v>
+        <v>33.8267</v>
       </c>
       <c r="D10" t="n">
-        <v>47.6142</v>
+        <v>50.3039</v>
       </c>
       <c r="E10" t="n">
-        <v>53.7877</v>
+        <v>52.2139</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.7865</v>
+        <v>25.0691</v>
       </c>
       <c r="C11" t="n">
-        <v>33.7756</v>
+        <v>34.4826</v>
       </c>
       <c r="D11" t="n">
-        <v>51.8242</v>
+        <v>55.7067</v>
       </c>
       <c r="E11" t="n">
-        <v>56.8055</v>
+        <v>60.0399</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1823</v>
+        <v>26.9633</v>
       </c>
       <c r="C12" t="n">
-        <v>34.6064</v>
+        <v>34.2878</v>
       </c>
       <c r="D12" t="n">
-        <v>58.3068</v>
+        <v>56.525</v>
       </c>
       <c r="E12" t="n">
-        <v>60.9762</v>
+        <v>60.557</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.668</v>
+        <v>29.6232</v>
       </c>
       <c r="C13" t="n">
-        <v>34.8619</v>
+        <v>34.9887</v>
       </c>
       <c r="D13" t="n">
-        <v>55.7624</v>
+        <v>56.7244</v>
       </c>
       <c r="E13" t="n">
-        <v>60.5535</v>
+        <v>61.0881</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.861</v>
+        <v>23.4417</v>
       </c>
       <c r="C14" t="n">
-        <v>35.1319</v>
+        <v>34.8736</v>
       </c>
       <c r="D14" t="n">
-        <v>57.0282</v>
+        <v>53.0229</v>
       </c>
       <c r="E14" t="n">
-        <v>61.7856</v>
+        <v>60.6565</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.8939</v>
+        <v>25.2898</v>
       </c>
       <c r="C15" t="n">
-        <v>35.4021</v>
+        <v>35.3339</v>
       </c>
       <c r="D15" t="n">
-        <v>56.7978</v>
+        <v>58.0287</v>
       </c>
       <c r="E15" t="n">
-        <v>61.7927</v>
+        <v>65.1836</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.7557</v>
+        <v>26.4639</v>
       </c>
       <c r="C16" t="n">
-        <v>35.1323</v>
+        <v>34.998</v>
       </c>
       <c r="D16" t="n">
-        <v>59.4888</v>
+        <v>59.4956</v>
       </c>
       <c r="E16" t="n">
-        <v>61.9596</v>
+        <v>62.8208</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.2391</v>
+        <v>26.0347</v>
       </c>
       <c r="C17" t="n">
-        <v>35.4747</v>
+        <v>35.4027</v>
       </c>
       <c r="D17" t="n">
-        <v>57.6187</v>
+        <v>59.3894</v>
       </c>
       <c r="E17" t="n">
-        <v>62.2116</v>
+        <v>65.40430000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0423</v>
+        <v>12.9635</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0211</v>
+        <v>13.9032</v>
       </c>
       <c r="D2" t="n">
-        <v>19.3258</v>
+        <v>19.21</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4438</v>
+        <v>22.2331</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>22.6951</v>
+        <v>21.1212</v>
       </c>
       <c r="C3" t="n">
-        <v>23.285</v>
+        <v>22.766</v>
       </c>
       <c r="D3" t="n">
-        <v>30.5381</v>
+        <v>30.9679</v>
       </c>
       <c r="E3" t="n">
-        <v>34.4211</v>
+        <v>34.2357</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.966</v>
+        <v>29.8683</v>
       </c>
       <c r="C4" t="n">
-        <v>29.5493</v>
+        <v>28.304</v>
       </c>
       <c r="D4" t="n">
-        <v>35.2671</v>
+        <v>35.3627</v>
       </c>
       <c r="E4" t="n">
-        <v>42.896</v>
+        <v>41.5448</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.5484</v>
+        <v>27.4107</v>
       </c>
       <c r="C5" t="n">
-        <v>29.024</v>
+        <v>29.1048</v>
       </c>
       <c r="D5" t="n">
-        <v>38.5468</v>
+        <v>40.11</v>
       </c>
       <c r="E5" t="n">
-        <v>47.4397</v>
+        <v>50.4996</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.5548</v>
+        <v>31.5863</v>
       </c>
       <c r="C6" t="n">
-        <v>32.74</v>
+        <v>32.9898</v>
       </c>
       <c r="D6" t="n">
-        <v>46.2272</v>
+        <v>45.4123</v>
       </c>
       <c r="E6" t="n">
-        <v>50.9573</v>
+        <v>50.5273</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.2791</v>
+        <v>37.0243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.1335</v>
+        <v>37.8498</v>
       </c>
       <c r="D7" t="n">
-        <v>50.1047</v>
+        <v>49.9344</v>
       </c>
       <c r="E7" t="n">
-        <v>60.0744</v>
+        <v>55.1859</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.1369</v>
+        <v>33.6875</v>
       </c>
       <c r="C8" t="n">
-        <v>34.2194</v>
+        <v>34.2552</v>
       </c>
       <c r="D8" t="n">
-        <v>50.2863</v>
+        <v>49.8245</v>
       </c>
       <c r="E8" t="n">
-        <v>58.7388</v>
+        <v>60.3969</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.6712</v>
+        <v>33.6444</v>
       </c>
       <c r="C9" t="n">
-        <v>34.2505</v>
+        <v>35.0232</v>
       </c>
       <c r="D9" t="n">
-        <v>54.6111</v>
+        <v>54.4927</v>
       </c>
       <c r="E9" t="n">
-        <v>59.9898</v>
+        <v>60.2458</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.6085</v>
+        <v>34.3225</v>
       </c>
       <c r="C10" t="n">
-        <v>34.9732</v>
+        <v>34.3648</v>
       </c>
       <c r="D10" t="n">
-        <v>56.4108</v>
+        <v>56.4664</v>
       </c>
       <c r="E10" t="n">
-        <v>61.7091</v>
+        <v>61.5178</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.8233</v>
+        <v>34.8056</v>
       </c>
       <c r="C11" t="n">
-        <v>35.4483</v>
+        <v>34.7205</v>
       </c>
       <c r="D11" t="n">
-        <v>61.1419</v>
+        <v>59.6886</v>
       </c>
       <c r="E11" t="n">
-        <v>61.9794</v>
+        <v>62.3924</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.1457</v>
+        <v>34.9965</v>
       </c>
       <c r="C12" t="n">
-        <v>35.3068</v>
+        <v>35.3598</v>
       </c>
       <c r="D12" t="n">
-        <v>58.7808</v>
+        <v>60.995</v>
       </c>
       <c r="E12" t="n">
-        <v>64.0171</v>
+        <v>64.26690000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.0351</v>
+        <v>35.0432</v>
       </c>
       <c r="C13" t="n">
-        <v>35.3334</v>
+        <v>36.2696</v>
       </c>
       <c r="D13" t="n">
-        <v>60.2389</v>
+        <v>61.4926</v>
       </c>
       <c r="E13" t="n">
-        <v>61.1085</v>
+        <v>62.3761</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.1395</v>
+        <v>35.0794</v>
       </c>
       <c r="C14" t="n">
-        <v>35.9815</v>
+        <v>35.2841</v>
       </c>
       <c r="D14" t="n">
-        <v>61.7306</v>
+        <v>59.5125</v>
       </c>
       <c r="E14" t="n">
-        <v>61.8501</v>
+        <v>64.85209999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.4273</v>
+        <v>34.879</v>
       </c>
       <c r="C15" t="n">
-        <v>36.3222</v>
+        <v>35.905</v>
       </c>
       <c r="D15" t="n">
-        <v>60.6452</v>
+        <v>61.7554</v>
       </c>
       <c r="E15" t="n">
-        <v>61.4201</v>
+        <v>62.0248</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.2096</v>
+        <v>34.8845</v>
       </c>
       <c r="C16" t="n">
-        <v>36.305</v>
+        <v>35.9927</v>
       </c>
       <c r="D16" t="n">
-        <v>59.901</v>
+        <v>59.958</v>
       </c>
       <c r="E16" t="n">
-        <v>62.1657</v>
+        <v>62.1013</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.4984</v>
+        <v>35.1559</v>
       </c>
       <c r="C17" t="n">
-        <v>35.99</v>
+        <v>36.1074</v>
       </c>
       <c r="D17" t="n">
-        <v>60.9392</v>
+        <v>60.4618</v>
       </c>
       <c r="E17" t="n">
-        <v>61.7212</v>
+        <v>61.3019</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.76615</v>
+        <v>4.70704</v>
       </c>
       <c r="C2" t="n">
-        <v>11.001</v>
+        <v>10.9635</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7681</v>
+        <v>14.7093</v>
       </c>
       <c r="E2" t="n">
-        <v>19.9305</v>
+        <v>19.8738</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.256069999999999</v>
+        <v>9.26694</v>
       </c>
       <c r="C3" t="n">
-        <v>19.1692</v>
+        <v>18.8418</v>
       </c>
       <c r="D3" t="n">
-        <v>28.1877</v>
+        <v>27.8647</v>
       </c>
       <c r="E3" t="n">
-        <v>37.2185</v>
+        <v>36.9642</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3842</v>
+        <v>13.3556</v>
       </c>
       <c r="C4" t="n">
-        <v>26.2043</v>
+        <v>26.1758</v>
       </c>
       <c r="D4" t="n">
-        <v>40.075</v>
+        <v>40.2309</v>
       </c>
       <c r="E4" t="n">
-        <v>52.5516</v>
+        <v>52.6831</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.6411</v>
+        <v>15.7316</v>
       </c>
       <c r="C5" t="n">
-        <v>26.4741</v>
+        <v>25.8224</v>
       </c>
       <c r="D5" t="n">
-        <v>46.3171</v>
+        <v>46.2572</v>
       </c>
       <c r="E5" t="n">
-        <v>60.0536</v>
+        <v>60.5041</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.0885</v>
+        <v>19.068</v>
       </c>
       <c r="C6" t="n">
-        <v>29.978</v>
+        <v>29.8368</v>
       </c>
       <c r="D6" t="n">
-        <v>56.5755</v>
+        <v>56.6118</v>
       </c>
       <c r="E6" t="n">
-        <v>71.7021</v>
+        <v>71.40300000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.188</v>
+        <v>22.2512</v>
       </c>
       <c r="C7" t="n">
-        <v>34.8802</v>
+        <v>35.0659</v>
       </c>
       <c r="D7" t="n">
-        <v>64.81999999999999</v>
+        <v>64.7021</v>
       </c>
       <c r="E7" t="n">
-        <v>83.61320000000001</v>
+        <v>83.5347</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8336</v>
+        <v>20.1207</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6147</v>
+        <v>33.6762</v>
       </c>
       <c r="D8" t="n">
-        <v>55.8302</v>
+        <v>56.9637</v>
       </c>
       <c r="E8" t="n">
-        <v>72.65389999999999</v>
+        <v>70.7436</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5706</v>
+        <v>20.5201</v>
       </c>
       <c r="C9" t="n">
-        <v>33.5203</v>
+        <v>33.51</v>
       </c>
       <c r="D9" t="n">
-        <v>56.7751</v>
+        <v>56.19</v>
       </c>
       <c r="E9" t="n">
-        <v>66.8283</v>
+        <v>73.0681</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.9907</v>
+        <v>20.8442</v>
       </c>
       <c r="C10" t="n">
-        <v>33.5319</v>
+        <v>33.6909</v>
       </c>
       <c r="D10" t="n">
-        <v>58.8658</v>
+        <v>56.0065</v>
       </c>
       <c r="E10" t="n">
-        <v>75.3494</v>
+        <v>77.26519999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.0784</v>
+        <v>21.188</v>
       </c>
       <c r="C11" t="n">
-        <v>33.386</v>
+        <v>33.5413</v>
       </c>
       <c r="D11" t="n">
-        <v>60.4405</v>
+        <v>59.8734</v>
       </c>
       <c r="E11" t="n">
-        <v>75.68729999999999</v>
+        <v>75.3655</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.8946</v>
+        <v>20.872</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9744</v>
+        <v>33.6341</v>
       </c>
       <c r="D12" t="n">
-        <v>61.1847</v>
+        <v>60.4862</v>
       </c>
       <c r="E12" t="n">
-        <v>76.50069999999999</v>
+        <v>72.7633</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.7539</v>
+        <v>21.1443</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2125</v>
+        <v>34.5306</v>
       </c>
       <c r="D13" t="n">
-        <v>61.1398</v>
+        <v>62.2499</v>
       </c>
       <c r="E13" t="n">
-        <v>77.60890000000001</v>
+        <v>79.1336</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.0784</v>
+        <v>20.7252</v>
       </c>
       <c r="C14" t="n">
-        <v>33.9779</v>
+        <v>34.1339</v>
       </c>
       <c r="D14" t="n">
-        <v>60.0265</v>
+        <v>60.5336</v>
       </c>
       <c r="E14" t="n">
-        <v>78.877</v>
+        <v>80.2882</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9799</v>
+        <v>21.0991</v>
       </c>
       <c r="C15" t="n">
-        <v>34.311</v>
+        <v>34.1995</v>
       </c>
       <c r="D15" t="n">
-        <v>60.6345</v>
+        <v>61.9174</v>
       </c>
       <c r="E15" t="n">
-        <v>79.01649999999999</v>
+        <v>79.0543</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.9434</v>
+        <v>21.3685</v>
       </c>
       <c r="C16" t="n">
-        <v>34.3127</v>
+        <v>34.5176</v>
       </c>
       <c r="D16" t="n">
-        <v>61.8129</v>
+        <v>62.1934</v>
       </c>
       <c r="E16" t="n">
-        <v>78.3095</v>
+        <v>80.0877</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.5415</v>
+        <v>21.421</v>
       </c>
       <c r="C17" t="n">
-        <v>34.328</v>
+        <v>34.0085</v>
       </c>
       <c r="D17" t="n">
-        <v>62.2631</v>
+        <v>61.53</v>
       </c>
       <c r="E17" t="n">
-        <v>78.9409</v>
+        <v>79.3249</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77357</v>
+        <v>4.78233</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0706</v>
+        <v>11.0698</v>
       </c>
       <c r="D2" t="n">
-        <v>14.675</v>
+        <v>14.6927</v>
       </c>
       <c r="E2" t="n">
-        <v>19.9814</v>
+        <v>19.9903</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.34638</v>
+        <v>9.34254</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2234</v>
+        <v>19.1766</v>
       </c>
       <c r="D3" t="n">
-        <v>27.8567</v>
+        <v>27.6981</v>
       </c>
       <c r="E3" t="n">
-        <v>37.426</v>
+        <v>37.365</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4272</v>
+        <v>13.4725</v>
       </c>
       <c r="C4" t="n">
-        <v>26.2594</v>
+        <v>26.207</v>
       </c>
       <c r="D4" t="n">
-        <v>39.4533</v>
+        <v>39.5869</v>
       </c>
       <c r="E4" t="n">
-        <v>52.6194</v>
+        <v>52.0335</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8765</v>
+        <v>15.8525</v>
       </c>
       <c r="C5" t="n">
-        <v>26.6238</v>
+        <v>26.3599</v>
       </c>
       <c r="D5" t="n">
-        <v>45.8659</v>
+        <v>46.1885</v>
       </c>
       <c r="E5" t="n">
-        <v>58.8217</v>
+        <v>58.9113</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2956</v>
+        <v>19.3136</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0333</v>
+        <v>29.8343</v>
       </c>
       <c r="D6" t="n">
-        <v>55.4366</v>
+        <v>55.3791</v>
       </c>
       <c r="E6" t="n">
-        <v>70.6289</v>
+        <v>69.75279999999999</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.5101</v>
+        <v>22.6281</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0271</v>
+        <v>35.0671</v>
       </c>
       <c r="D7" t="n">
-        <v>65.033</v>
+        <v>65.04949999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>81.50149999999999</v>
+        <v>81.54559999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4889</v>
+        <v>20.5301</v>
       </c>
       <c r="C8" t="n">
-        <v>33.5643</v>
+        <v>33.648</v>
       </c>
       <c r="D8" t="n">
-        <v>57.3692</v>
+        <v>54.9473</v>
       </c>
       <c r="E8" t="n">
-        <v>67.8036</v>
+        <v>70.2379</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.7514</v>
+        <v>20.84</v>
       </c>
       <c r="C9" t="n">
-        <v>33.4767</v>
+        <v>33.9533</v>
       </c>
       <c r="D9" t="n">
-        <v>56.1007</v>
+        <v>54.8776</v>
       </c>
       <c r="E9" t="n">
-        <v>70.1601</v>
+        <v>72.66419999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.36</v>
+        <v>21.0432</v>
       </c>
       <c r="C10" t="n">
-        <v>33.7882</v>
+        <v>33.4579</v>
       </c>
       <c r="D10" t="n">
-        <v>56.6324</v>
+        <v>57.4216</v>
       </c>
       <c r="E10" t="n">
-        <v>75.2088</v>
+        <v>74.3635</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2527</v>
+        <v>21.5351</v>
       </c>
       <c r="C11" t="n">
-        <v>33.9749</v>
+        <v>33.4104</v>
       </c>
       <c r="D11" t="n">
-        <v>57.8861</v>
+        <v>58.5774</v>
       </c>
       <c r="E11" t="n">
-        <v>74.2546</v>
+        <v>75.1807</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4269</v>
+        <v>21.3456</v>
       </c>
       <c r="C12" t="n">
-        <v>34.0067</v>
+        <v>33.9121</v>
       </c>
       <c r="D12" t="n">
-        <v>58.888</v>
+        <v>60.0551</v>
       </c>
       <c r="E12" t="n">
-        <v>76.51009999999999</v>
+        <v>75.82859999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2875</v>
+        <v>21.2697</v>
       </c>
       <c r="C13" t="n">
-        <v>33.8326</v>
+        <v>34.078</v>
       </c>
       <c r="D13" t="n">
-        <v>60.4775</v>
+        <v>59.8514</v>
       </c>
       <c r="E13" t="n">
-        <v>77.2908</v>
+        <v>77.0304</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3902</v>
+        <v>21.3999</v>
       </c>
       <c r="C14" t="n">
-        <v>34.2449</v>
+        <v>34.5068</v>
       </c>
       <c r="D14" t="n">
-        <v>58.569</v>
+        <v>60.0697</v>
       </c>
       <c r="E14" t="n">
-        <v>76.87</v>
+        <v>73.79649999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.1828</v>
+        <v>21.2264</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4526</v>
+        <v>34.4051</v>
       </c>
       <c r="D15" t="n">
-        <v>60.8854</v>
+        <v>60.6748</v>
       </c>
       <c r="E15" t="n">
-        <v>77.5835</v>
+        <v>74.7792</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3394</v>
+        <v>21.1901</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5043</v>
+        <v>33.9422</v>
       </c>
       <c r="D16" t="n">
-        <v>62.7357</v>
+        <v>60.3741</v>
       </c>
       <c r="E16" t="n">
-        <v>78.1855</v>
+        <v>77.03619999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.312</v>
+        <v>21.2315</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5143</v>
+        <v>34.381</v>
       </c>
       <c r="D17" t="n">
-        <v>62.0305</v>
+        <v>62.2661</v>
       </c>
       <c r="E17" t="n">
-        <v>77.9689</v>
+        <v>78.0421</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.927709999999999</v>
+        <v>8.69594</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5691</v>
+        <v>13.2448</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7978</v>
+        <v>16.9883</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4156</v>
+        <v>21.3329</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.9802</v>
+        <v>15.7798</v>
       </c>
       <c r="C3" t="n">
-        <v>22.4454</v>
+        <v>21.1539</v>
       </c>
       <c r="D3" t="n">
-        <v>34.9852</v>
+        <v>34.1689</v>
       </c>
       <c r="E3" t="n">
-        <v>41.0008</v>
+        <v>40.5899</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.4825</v>
+        <v>24.5644</v>
       </c>
       <c r="C4" t="n">
-        <v>29.9233</v>
+        <v>31.001</v>
       </c>
       <c r="D4" t="n">
-        <v>50.3299</v>
+        <v>49.7889</v>
       </c>
       <c r="E4" t="n">
-        <v>58.4899</v>
+        <v>57.9684</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.9099</v>
+        <v>23.7259</v>
       </c>
       <c r="C5" t="n">
-        <v>29.0357</v>
+        <v>29.3031</v>
       </c>
       <c r="D5" t="n">
-        <v>54.1853</v>
+        <v>54.2037</v>
       </c>
       <c r="E5" t="n">
-        <v>61.7585</v>
+        <v>61.7728</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2245</v>
+        <v>28.1212</v>
       </c>
       <c r="C6" t="n">
-        <v>32.4965</v>
+        <v>32.5433</v>
       </c>
       <c r="D6" t="n">
-        <v>63.0922</v>
+        <v>62.7808</v>
       </c>
       <c r="E6" t="n">
-        <v>73.4941</v>
+        <v>73.7653</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.2547</v>
+        <v>34.2878</v>
       </c>
       <c r="C7" t="n">
-        <v>37.4</v>
+        <v>37.4161</v>
       </c>
       <c r="D7" t="n">
-        <v>75.0611</v>
+        <v>74.3347</v>
       </c>
       <c r="E7" t="n">
-        <v>87.45310000000001</v>
+        <v>85.8578</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.5377</v>
+        <v>30.7092</v>
       </c>
       <c r="C8" t="n">
-        <v>36.2671</v>
+        <v>36.6585</v>
       </c>
       <c r="D8" t="n">
-        <v>71.6888</v>
+        <v>71.09480000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>83.44029999999999</v>
+        <v>82.6183</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.375</v>
+        <v>31.484</v>
       </c>
       <c r="C9" t="n">
-        <v>36.3515</v>
+        <v>36.284</v>
       </c>
       <c r="D9" t="n">
-        <v>71.50320000000001</v>
+        <v>70.312</v>
       </c>
       <c r="E9" t="n">
-        <v>84.4559</v>
+        <v>83.6403</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.2129</v>
+        <v>32.3003</v>
       </c>
       <c r="C10" t="n">
-        <v>36.6162</v>
+        <v>36.4273</v>
       </c>
       <c r="D10" t="n">
-        <v>71.0402</v>
+        <v>71.4516</v>
       </c>
       <c r="E10" t="n">
-        <v>82.5802</v>
+        <v>84.21769999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.6379</v>
+        <v>32.4703</v>
       </c>
       <c r="C11" t="n">
-        <v>36.6217</v>
+        <v>36.8314</v>
       </c>
       <c r="D11" t="n">
-        <v>70.2452</v>
+        <v>73.2423</v>
       </c>
       <c r="E11" t="n">
-        <v>84.8396</v>
+        <v>84.7569</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.2376</v>
+        <v>32.417</v>
       </c>
       <c r="C12" t="n">
-        <v>36.6584</v>
+        <v>36.7178</v>
       </c>
       <c r="D12" t="n">
-        <v>71.9529</v>
+        <v>75.12</v>
       </c>
       <c r="E12" t="n">
-        <v>84.69119999999999</v>
+        <v>83.3099</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.2539</v>
+        <v>32.6714</v>
       </c>
       <c r="C13" t="n">
-        <v>36.7679</v>
+        <v>36.9</v>
       </c>
       <c r="D13" t="n">
-        <v>73.64409999999999</v>
+        <v>71.9002</v>
       </c>
       <c r="E13" t="n">
-        <v>84.0018</v>
+        <v>85.2303</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.3019</v>
+        <v>32.6164</v>
       </c>
       <c r="C14" t="n">
-        <v>36.9178</v>
+        <v>36.6402</v>
       </c>
       <c r="D14" t="n">
-        <v>72.75749999999999</v>
+        <v>72.4726</v>
       </c>
       <c r="E14" t="n">
-        <v>83.82859999999999</v>
+        <v>85.63509999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.8012</v>
+        <v>32.731</v>
       </c>
       <c r="C15" t="n">
-        <v>36.2659</v>
+        <v>36.7221</v>
       </c>
       <c r="D15" t="n">
-        <v>72.92749999999999</v>
+        <v>71.6726</v>
       </c>
       <c r="E15" t="n">
-        <v>86.42100000000001</v>
+        <v>83.4217</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.2637</v>
+        <v>32.5791</v>
       </c>
       <c r="C16" t="n">
-        <v>36.7104</v>
+        <v>36.7092</v>
       </c>
       <c r="D16" t="n">
-        <v>73.1024</v>
+        <v>73.8798</v>
       </c>
       <c r="E16" t="n">
-        <v>84.58459999999999</v>
+        <v>83.84050000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.7036</v>
+        <v>32.958</v>
       </c>
       <c r="C17" t="n">
-        <v>36.6411</v>
+        <v>36.8267</v>
       </c>
       <c r="D17" t="n">
-        <v>72.5492</v>
+        <v>73.709</v>
       </c>
       <c r="E17" t="n">
-        <v>84.0061</v>
+        <v>84.8875</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4057</v>
+        <v>10.3615</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9196</v>
+        <v>12.8647</v>
       </c>
       <c r="D2" t="n">
-        <v>17.6189</v>
+        <v>17.6064</v>
       </c>
       <c r="E2" t="n">
-        <v>21.232</v>
+        <v>21.1805</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5244</v>
+        <v>19.563</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4512</v>
+        <v>19.1056</v>
       </c>
       <c r="D3" t="n">
-        <v>27.5861</v>
+        <v>28.2241</v>
       </c>
       <c r="E3" t="n">
-        <v>33.3886</v>
+        <v>33.0704</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.0274</v>
+        <v>26.8873</v>
       </c>
       <c r="C4" t="n">
-        <v>24.6569</v>
+        <v>24.9427</v>
       </c>
       <c r="D4" t="n">
-        <v>32.2394</v>
+        <v>32.3412</v>
       </c>
       <c r="E4" t="n">
-        <v>39.3473</v>
+        <v>41.3775</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.495</v>
+        <v>20.6937</v>
       </c>
       <c r="C5" t="n">
-        <v>27.5781</v>
+        <v>26.5595</v>
       </c>
       <c r="D5" t="n">
-        <v>38.6045</v>
+        <v>38.9825</v>
       </c>
       <c r="E5" t="n">
-        <v>43.6358</v>
+        <v>43.7403</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.361</v>
+        <v>24.2782</v>
       </c>
       <c r="C6" t="n">
-        <v>31.226</v>
+        <v>31.3824</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0399</v>
+        <v>38.6735</v>
       </c>
       <c r="E6" t="n">
-        <v>43.9473</v>
+        <v>44.077</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9791</v>
+        <v>29.0399</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5464</v>
+        <v>36.5059</v>
       </c>
       <c r="D7" t="n">
-        <v>43.7282</v>
+        <v>43.7466</v>
       </c>
       <c r="E7" t="n">
-        <v>50.6851</v>
+        <v>50.834</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.322</v>
+        <v>21.076</v>
       </c>
       <c r="C8" t="n">
-        <v>34.1656</v>
+        <v>34.6811</v>
       </c>
       <c r="D8" t="n">
-        <v>41.7821</v>
+        <v>40.6791</v>
       </c>
       <c r="E8" t="n">
-        <v>49.9528</v>
+        <v>47.4724</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9805</v>
+        <v>23.7254</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7278</v>
+        <v>34.1525</v>
       </c>
       <c r="D9" t="n">
-        <v>46.286</v>
+        <v>48.4707</v>
       </c>
       <c r="E9" t="n">
-        <v>50.6256</v>
+        <v>51.3158</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.574</v>
+        <v>25.8179</v>
       </c>
       <c r="C10" t="n">
-        <v>34.4866</v>
+        <v>34.5865</v>
       </c>
       <c r="D10" t="n">
-        <v>49.3201</v>
+        <v>48.7407</v>
       </c>
       <c r="E10" t="n">
-        <v>52.5198</v>
+        <v>52.0787</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4674</v>
+        <v>24.2602</v>
       </c>
       <c r="C11" t="n">
-        <v>34.4276</v>
+        <v>34.818</v>
       </c>
       <c r="D11" t="n">
-        <v>51.6852</v>
+        <v>53.0371</v>
       </c>
       <c r="E11" t="n">
-        <v>58.1684</v>
+        <v>59.8909</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.3962</v>
+        <v>26.4779</v>
       </c>
       <c r="C12" t="n">
-        <v>35.0117</v>
+        <v>34.503</v>
       </c>
       <c r="D12" t="n">
-        <v>52.2057</v>
+        <v>53.1405</v>
       </c>
       <c r="E12" t="n">
-        <v>57.488</v>
+        <v>55.7111</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.9704</v>
+        <v>28.9525</v>
       </c>
       <c r="C13" t="n">
-        <v>35.0436</v>
+        <v>34.9217</v>
       </c>
       <c r="D13" t="n">
-        <v>54.4803</v>
+        <v>53.9153</v>
       </c>
       <c r="E13" t="n">
-        <v>60.3649</v>
+        <v>59.818</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.6781</v>
+        <v>24.2441</v>
       </c>
       <c r="C14" t="n">
-        <v>34.8937</v>
+        <v>34.6797</v>
       </c>
       <c r="D14" t="n">
-        <v>55.8271</v>
+        <v>58.6543</v>
       </c>
       <c r="E14" t="n">
-        <v>61.0572</v>
+        <v>60.8809</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4755</v>
+        <v>25.5613</v>
       </c>
       <c r="C15" t="n">
-        <v>34.901</v>
+        <v>34.9614</v>
       </c>
       <c r="D15" t="n">
-        <v>57.4427</v>
+        <v>57.1226</v>
       </c>
       <c r="E15" t="n">
-        <v>62.8615</v>
+        <v>61.316</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.7633</v>
+        <v>26.9067</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6565</v>
+        <v>34.9694</v>
       </c>
       <c r="D16" t="n">
-        <v>59.4132</v>
+        <v>59.427</v>
       </c>
       <c r="E16" t="n">
-        <v>64.6574</v>
+        <v>66.1138</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.8838</v>
+        <v>25.9271</v>
       </c>
       <c r="C17" t="n">
-        <v>34.6018</v>
+        <v>35.1675</v>
       </c>
       <c r="D17" t="n">
-        <v>56.1248</v>
+        <v>58.5683</v>
       </c>
       <c r="E17" t="n">
-        <v>63.4805</v>
+        <v>68.729</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.6655</v>
+        <v>10.7239</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8932</v>
+        <v>12.7866</v>
       </c>
       <c r="D2" t="n">
-        <v>17.417</v>
+        <v>17.4338</v>
       </c>
       <c r="E2" t="n">
-        <v>21.009</v>
+        <v>21.0233</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.2366</v>
+        <v>19.9078</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3001</v>
+        <v>19.5048</v>
       </c>
       <c r="D3" t="n">
-        <v>27.8141</v>
+        <v>28.2115</v>
       </c>
       <c r="E3" t="n">
-        <v>31.7243</v>
+        <v>32.5489</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.4318</v>
+        <v>27.7113</v>
       </c>
       <c r="C4" t="n">
-        <v>25.1817</v>
+        <v>25.7504</v>
       </c>
       <c r="D4" t="n">
-        <v>35.1073</v>
+        <v>36.353</v>
       </c>
       <c r="E4" t="n">
-        <v>38.7796</v>
+        <v>37.8836</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.1867</v>
+        <v>20.9364</v>
       </c>
       <c r="C5" t="n">
-        <v>27.0297</v>
+        <v>26.5925</v>
       </c>
       <c r="D5" t="n">
-        <v>34.4398</v>
+        <v>36.2515</v>
       </c>
       <c r="E5" t="n">
-        <v>43.3038</v>
+        <v>43.498</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.7392</v>
+        <v>24.889</v>
       </c>
       <c r="C6" t="n">
-        <v>31.1919</v>
+        <v>31.1645</v>
       </c>
       <c r="D6" t="n">
-        <v>43.6168</v>
+        <v>43.6389</v>
       </c>
       <c r="E6" t="n">
-        <v>44.6503</v>
+        <v>44.0239</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.8564</v>
+        <v>29.8829</v>
       </c>
       <c r="C7" t="n">
-        <v>36.2304</v>
+        <v>36.4173</v>
       </c>
       <c r="D7" t="n">
-        <v>43.8677</v>
+        <v>44.099</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7566</v>
+        <v>50.6138</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6409</v>
+        <v>21.3789</v>
       </c>
       <c r="C8" t="n">
-        <v>33.628</v>
+        <v>33.8103</v>
       </c>
       <c r="D8" t="n">
-        <v>44.5838</v>
+        <v>43.3867</v>
       </c>
       <c r="E8" t="n">
-        <v>48.5515</v>
+        <v>47.6671</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.7083</v>
+        <v>24.9611</v>
       </c>
       <c r="C9" t="n">
-        <v>33.2371</v>
+        <v>33.8457</v>
       </c>
       <c r="D9" t="n">
-        <v>48.033</v>
+        <v>46.4868</v>
       </c>
       <c r="E9" t="n">
-        <v>49.8265</v>
+        <v>51.3643</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.4249</v>
+        <v>27.2159</v>
       </c>
       <c r="C10" t="n">
-        <v>33.8267</v>
+        <v>33.9449</v>
       </c>
       <c r="D10" t="n">
-        <v>50.3039</v>
+        <v>49.7283</v>
       </c>
       <c r="E10" t="n">
-        <v>52.2139</v>
+        <v>51.3289</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0691</v>
+        <v>25.5796</v>
       </c>
       <c r="C11" t="n">
-        <v>34.4826</v>
+        <v>34.4046</v>
       </c>
       <c r="D11" t="n">
-        <v>55.7067</v>
+        <v>52.7344</v>
       </c>
       <c r="E11" t="n">
-        <v>60.0399</v>
+        <v>60.5883</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.9633</v>
+        <v>27.2246</v>
       </c>
       <c r="C12" t="n">
-        <v>34.2878</v>
+        <v>34.1573</v>
       </c>
       <c r="D12" t="n">
-        <v>56.525</v>
+        <v>53.5565</v>
       </c>
       <c r="E12" t="n">
-        <v>60.557</v>
+        <v>59.7194</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6232</v>
+        <v>29.8695</v>
       </c>
       <c r="C13" t="n">
-        <v>34.9887</v>
+        <v>35.0609</v>
       </c>
       <c r="D13" t="n">
-        <v>56.7244</v>
+        <v>55.6571</v>
       </c>
       <c r="E13" t="n">
-        <v>61.0881</v>
+        <v>61.1963</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.4417</v>
+        <v>23.8333</v>
       </c>
       <c r="C14" t="n">
-        <v>34.8736</v>
+        <v>35.4764</v>
       </c>
       <c r="D14" t="n">
-        <v>53.0229</v>
+        <v>57.8084</v>
       </c>
       <c r="E14" t="n">
-        <v>60.6565</v>
+        <v>61.7284</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2898</v>
+        <v>26.1415</v>
       </c>
       <c r="C15" t="n">
-        <v>35.3339</v>
+        <v>35.2864</v>
       </c>
       <c r="D15" t="n">
-        <v>58.0287</v>
+        <v>59.0595</v>
       </c>
       <c r="E15" t="n">
-        <v>65.1836</v>
+        <v>65.20180000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.4639</v>
+        <v>27.9684</v>
       </c>
       <c r="C16" t="n">
-        <v>34.998</v>
+        <v>35.4911</v>
       </c>
       <c r="D16" t="n">
-        <v>59.4956</v>
+        <v>59.3007</v>
       </c>
       <c r="E16" t="n">
-        <v>62.8208</v>
+        <v>64.523</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.0347</v>
+        <v>26.8858</v>
       </c>
       <c r="C17" t="n">
-        <v>35.4027</v>
+        <v>35.5928</v>
       </c>
       <c r="D17" t="n">
-        <v>59.3894</v>
+        <v>58.1599</v>
       </c>
       <c r="E17" t="n">
-        <v>65.40430000000001</v>
+        <v>64.40309999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.9635</v>
+        <v>13.0159</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9032</v>
+        <v>13.9014</v>
       </c>
       <c r="D2" t="n">
-        <v>19.21</v>
+        <v>19.1944</v>
       </c>
       <c r="E2" t="n">
-        <v>22.2331</v>
+        <v>22.3903</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.1212</v>
+        <v>23.14</v>
       </c>
       <c r="C3" t="n">
-        <v>22.766</v>
+        <v>23.2561</v>
       </c>
       <c r="D3" t="n">
-        <v>30.9679</v>
+        <v>31.0324</v>
       </c>
       <c r="E3" t="n">
-        <v>34.2357</v>
+        <v>32.7727</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.8683</v>
+        <v>31.757</v>
       </c>
       <c r="C4" t="n">
-        <v>28.304</v>
+        <v>28.9766</v>
       </c>
       <c r="D4" t="n">
-        <v>35.3627</v>
+        <v>35.6344</v>
       </c>
       <c r="E4" t="n">
-        <v>41.5448</v>
+        <v>40.1673</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.4107</v>
+        <v>26.6186</v>
       </c>
       <c r="C5" t="n">
-        <v>29.1048</v>
+        <v>28.6683</v>
       </c>
       <c r="D5" t="n">
-        <v>40.11</v>
+        <v>39.1741</v>
       </c>
       <c r="E5" t="n">
-        <v>50.4996</v>
+        <v>44.3952</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.5863</v>
+        <v>31.6987</v>
       </c>
       <c r="C6" t="n">
-        <v>32.9898</v>
+        <v>32.7975</v>
       </c>
       <c r="D6" t="n">
-        <v>45.4123</v>
+        <v>44.8586</v>
       </c>
       <c r="E6" t="n">
-        <v>50.5273</v>
+        <v>50.5951</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.0243</v>
+        <v>37.6292</v>
       </c>
       <c r="C7" t="n">
-        <v>37.8498</v>
+        <v>38.2041</v>
       </c>
       <c r="D7" t="n">
-        <v>49.9344</v>
+        <v>44.336</v>
       </c>
       <c r="E7" t="n">
-        <v>55.1859</v>
+        <v>56.7248</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.6875</v>
+        <v>33.8621</v>
       </c>
       <c r="C8" t="n">
-        <v>34.2552</v>
+        <v>34.5031</v>
       </c>
       <c r="D8" t="n">
-        <v>49.8245</v>
+        <v>48.2284</v>
       </c>
       <c r="E8" t="n">
-        <v>60.3969</v>
+        <v>59.7144</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.6444</v>
+        <v>34.7401</v>
       </c>
       <c r="C9" t="n">
-        <v>35.0232</v>
+        <v>34.0251</v>
       </c>
       <c r="D9" t="n">
-        <v>54.4927</v>
+        <v>53.7221</v>
       </c>
       <c r="E9" t="n">
-        <v>60.2458</v>
+        <v>60.3227</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.3225</v>
+        <v>34.4652</v>
       </c>
       <c r="C10" t="n">
-        <v>34.3648</v>
+        <v>34.6507</v>
       </c>
       <c r="D10" t="n">
-        <v>56.4664</v>
+        <v>54.604</v>
       </c>
       <c r="E10" t="n">
-        <v>61.5178</v>
+        <v>60.2576</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.8056</v>
+        <v>34.9769</v>
       </c>
       <c r="C11" t="n">
-        <v>34.7205</v>
+        <v>35.1916</v>
       </c>
       <c r="D11" t="n">
-        <v>59.6886</v>
+        <v>60.5199</v>
       </c>
       <c r="E11" t="n">
-        <v>62.3924</v>
+        <v>60.0928</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.9965</v>
+        <v>34.6313</v>
       </c>
       <c r="C12" t="n">
-        <v>35.3598</v>
+        <v>35.0569</v>
       </c>
       <c r="D12" t="n">
-        <v>60.995</v>
+        <v>60.6334</v>
       </c>
       <c r="E12" t="n">
-        <v>64.26690000000001</v>
+        <v>63.1875</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.0432</v>
+        <v>35.1734</v>
       </c>
       <c r="C13" t="n">
-        <v>36.2696</v>
+        <v>35.5743</v>
       </c>
       <c r="D13" t="n">
-        <v>61.4926</v>
+        <v>61.0326</v>
       </c>
       <c r="E13" t="n">
-        <v>62.3761</v>
+        <v>63.5481</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.0794</v>
+        <v>35.1676</v>
       </c>
       <c r="C14" t="n">
-        <v>35.2841</v>
+        <v>35.7803</v>
       </c>
       <c r="D14" t="n">
-        <v>59.5125</v>
+        <v>59.167</v>
       </c>
       <c r="E14" t="n">
-        <v>64.85209999999999</v>
+        <v>62.0663</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.879</v>
+        <v>35.3889</v>
       </c>
       <c r="C15" t="n">
-        <v>35.905</v>
+        <v>35.887</v>
       </c>
       <c r="D15" t="n">
-        <v>61.7554</v>
+        <v>61.0187</v>
       </c>
       <c r="E15" t="n">
-        <v>62.0248</v>
+        <v>62.4534</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.8845</v>
+        <v>35.4794</v>
       </c>
       <c r="C16" t="n">
-        <v>35.9927</v>
+        <v>36.1507</v>
       </c>
       <c r="D16" t="n">
-        <v>59.958</v>
+        <v>60.6116</v>
       </c>
       <c r="E16" t="n">
-        <v>62.1013</v>
+        <v>60.942</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.1559</v>
+        <v>35.8183</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1074</v>
+        <v>36.0959</v>
       </c>
       <c r="D17" t="n">
-        <v>60.4618</v>
+        <v>60.3303</v>
       </c>
       <c r="E17" t="n">
-        <v>61.3019</v>
+        <v>61.0813</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.70704</v>
+        <v>4.80856</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9635</v>
+        <v>10.899</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7093</v>
+        <v>14.7961</v>
       </c>
       <c r="E2" t="n">
-        <v>19.8738</v>
+        <v>19.8668</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.26694</v>
+        <v>9.35478</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8418</v>
+        <v>18.8552</v>
       </c>
       <c r="D3" t="n">
-        <v>27.8647</v>
+        <v>27.8905</v>
       </c>
       <c r="E3" t="n">
-        <v>36.9642</v>
+        <v>37.169</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3556</v>
+        <v>13.5429</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1758</v>
+        <v>26.0366</v>
       </c>
       <c r="D4" t="n">
-        <v>40.2309</v>
+        <v>39.9493</v>
       </c>
       <c r="E4" t="n">
-        <v>52.6831</v>
+        <v>52.0544</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7316</v>
+        <v>15.8513</v>
       </c>
       <c r="C5" t="n">
-        <v>25.8224</v>
+        <v>26.5104</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2572</v>
+        <v>46.147</v>
       </c>
       <c r="E5" t="n">
-        <v>60.5041</v>
+        <v>60.4233</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.068</v>
+        <v>19.2858</v>
       </c>
       <c r="C6" t="n">
-        <v>29.8368</v>
+        <v>30.0857</v>
       </c>
       <c r="D6" t="n">
-        <v>56.6118</v>
+        <v>56.2832</v>
       </c>
       <c r="E6" t="n">
-        <v>71.40300000000001</v>
+        <v>72.0617</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.2512</v>
+        <v>22.4741</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0659</v>
+        <v>35.1047</v>
       </c>
       <c r="D7" t="n">
-        <v>64.7021</v>
+        <v>64.7394</v>
       </c>
       <c r="E7" t="n">
-        <v>83.5347</v>
+        <v>83.7316</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1207</v>
+        <v>20.0257</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6762</v>
+        <v>33.599</v>
       </c>
       <c r="D8" t="n">
-        <v>56.9637</v>
+        <v>57.1007</v>
       </c>
       <c r="E8" t="n">
-        <v>70.7436</v>
+        <v>70.2948</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5201</v>
+        <v>21.147</v>
       </c>
       <c r="C9" t="n">
-        <v>33.51</v>
+        <v>33.6062</v>
       </c>
       <c r="D9" t="n">
-        <v>56.19</v>
+        <v>59.0834</v>
       </c>
       <c r="E9" t="n">
-        <v>73.0681</v>
+        <v>75.52500000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8442</v>
+        <v>21.023</v>
       </c>
       <c r="C10" t="n">
-        <v>33.6909</v>
+        <v>33.9857</v>
       </c>
       <c r="D10" t="n">
-        <v>56.0065</v>
+        <v>58.1209</v>
       </c>
       <c r="E10" t="n">
-        <v>77.26519999999999</v>
+        <v>75.9914</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.188</v>
+        <v>21.3905</v>
       </c>
       <c r="C11" t="n">
-        <v>33.5413</v>
+        <v>33.5618</v>
       </c>
       <c r="D11" t="n">
-        <v>59.8734</v>
+        <v>59.8927</v>
       </c>
       <c r="E11" t="n">
-        <v>75.3655</v>
+        <v>76.2786</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.872</v>
+        <v>21.1799</v>
       </c>
       <c r="C12" t="n">
-        <v>33.6341</v>
+        <v>34.4081</v>
       </c>
       <c r="D12" t="n">
-        <v>60.4862</v>
+        <v>60.6879</v>
       </c>
       <c r="E12" t="n">
-        <v>72.7633</v>
+        <v>78.7406</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1443</v>
+        <v>21.385</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5306</v>
+        <v>34.5556</v>
       </c>
       <c r="D13" t="n">
-        <v>62.2499</v>
+        <v>60.4936</v>
       </c>
       <c r="E13" t="n">
-        <v>79.1336</v>
+        <v>77.2349</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.7252</v>
+        <v>21.34</v>
       </c>
       <c r="C14" t="n">
-        <v>34.1339</v>
+        <v>34.4124</v>
       </c>
       <c r="D14" t="n">
-        <v>60.5336</v>
+        <v>61.672</v>
       </c>
       <c r="E14" t="n">
-        <v>80.2882</v>
+        <v>75.2287</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.0991</v>
+        <v>21.6192</v>
       </c>
       <c r="C15" t="n">
-        <v>34.1995</v>
+        <v>34.3066</v>
       </c>
       <c r="D15" t="n">
-        <v>61.9174</v>
+        <v>60.9956</v>
       </c>
       <c r="E15" t="n">
-        <v>79.0543</v>
+        <v>77.4862</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3685</v>
+        <v>21.44</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5176</v>
+        <v>34.3925</v>
       </c>
       <c r="D16" t="n">
-        <v>62.1934</v>
+        <v>62.194</v>
       </c>
       <c r="E16" t="n">
-        <v>80.0877</v>
+        <v>79.16459999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.421</v>
+        <v>21.6208</v>
       </c>
       <c r="C17" t="n">
-        <v>34.0085</v>
+        <v>34.1739</v>
       </c>
       <c r="D17" t="n">
-        <v>61.53</v>
+        <v>62.7479</v>
       </c>
       <c r="E17" t="n">
-        <v>79.3249</v>
+        <v>79.2679</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.78233</v>
+        <v>4.80081</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0698</v>
+        <v>10.9801</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6927</v>
+        <v>14.5778</v>
       </c>
       <c r="E2" t="n">
-        <v>19.9903</v>
+        <v>19.7999</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.34254</v>
+        <v>9.39284</v>
       </c>
       <c r="C3" t="n">
-        <v>19.1766</v>
+        <v>18.9144</v>
       </c>
       <c r="D3" t="n">
-        <v>27.6981</v>
+        <v>27.767</v>
       </c>
       <c r="E3" t="n">
-        <v>37.365</v>
+        <v>37.0644</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4725</v>
+        <v>13.5635</v>
       </c>
       <c r="C4" t="n">
-        <v>26.207</v>
+        <v>26.4305</v>
       </c>
       <c r="D4" t="n">
-        <v>39.5869</v>
+        <v>39.4153</v>
       </c>
       <c r="E4" t="n">
-        <v>52.0335</v>
+        <v>52.2647</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8525</v>
+        <v>15.9913</v>
       </c>
       <c r="C5" t="n">
-        <v>26.3599</v>
+        <v>26.4347</v>
       </c>
       <c r="D5" t="n">
-        <v>46.1885</v>
+        <v>45.8626</v>
       </c>
       <c r="E5" t="n">
-        <v>58.9113</v>
+        <v>58.88</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3136</v>
+        <v>19.5006</v>
       </c>
       <c r="C6" t="n">
-        <v>29.8343</v>
+        <v>29.9952</v>
       </c>
       <c r="D6" t="n">
-        <v>55.3791</v>
+        <v>54.957</v>
       </c>
       <c r="E6" t="n">
-        <v>69.75279999999999</v>
+        <v>71.3184</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.6281</v>
+        <v>22.8816</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0671</v>
+        <v>35.141</v>
       </c>
       <c r="D7" t="n">
-        <v>65.04949999999999</v>
+        <v>64.8921</v>
       </c>
       <c r="E7" t="n">
-        <v>81.54559999999999</v>
+        <v>81.18389999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5301</v>
+        <v>20.7805</v>
       </c>
       <c r="C8" t="n">
-        <v>33.648</v>
+        <v>33.9799</v>
       </c>
       <c r="D8" t="n">
-        <v>54.9473</v>
+        <v>56.205</v>
       </c>
       <c r="E8" t="n">
-        <v>70.2379</v>
+        <v>70.4605</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.84</v>
+        <v>21.4307</v>
       </c>
       <c r="C9" t="n">
-        <v>33.9533</v>
+        <v>34.0348</v>
       </c>
       <c r="D9" t="n">
-        <v>54.8776</v>
+        <v>58.9774</v>
       </c>
       <c r="E9" t="n">
-        <v>72.66419999999999</v>
+        <v>70.07689999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.0432</v>
+        <v>21.4511</v>
       </c>
       <c r="C10" t="n">
-        <v>33.4579</v>
+        <v>34.046</v>
       </c>
       <c r="D10" t="n">
-        <v>57.4216</v>
+        <v>58.7255</v>
       </c>
       <c r="E10" t="n">
-        <v>74.3635</v>
+        <v>74.098</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5351</v>
+        <v>21.6232</v>
       </c>
       <c r="C11" t="n">
-        <v>33.4104</v>
+        <v>33.7538</v>
       </c>
       <c r="D11" t="n">
-        <v>58.5774</v>
+        <v>59.3519</v>
       </c>
       <c r="E11" t="n">
-        <v>75.1807</v>
+        <v>77.1276</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.3456</v>
+        <v>21.2836</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9121</v>
+        <v>34.2573</v>
       </c>
       <c r="D12" t="n">
-        <v>60.0551</v>
+        <v>58.1495</v>
       </c>
       <c r="E12" t="n">
-        <v>75.82859999999999</v>
+        <v>75.354</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2697</v>
+        <v>21.5282</v>
       </c>
       <c r="C13" t="n">
-        <v>34.078</v>
+        <v>34.603</v>
       </c>
       <c r="D13" t="n">
-        <v>59.8514</v>
+        <v>60.0568</v>
       </c>
       <c r="E13" t="n">
-        <v>77.0304</v>
+        <v>76.5506</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3999</v>
+        <v>21.628</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5068</v>
+        <v>34.3513</v>
       </c>
       <c r="D14" t="n">
-        <v>60.0697</v>
+        <v>60.2862</v>
       </c>
       <c r="E14" t="n">
-        <v>73.79649999999999</v>
+        <v>77.03660000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2264</v>
+        <v>22.0719</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4051</v>
+        <v>34.3554</v>
       </c>
       <c r="D15" t="n">
-        <v>60.6748</v>
+        <v>60.2606</v>
       </c>
       <c r="E15" t="n">
-        <v>74.7792</v>
+        <v>78.1551</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1901</v>
+        <v>21.4317</v>
       </c>
       <c r="C16" t="n">
-        <v>33.9422</v>
+        <v>34.4279</v>
       </c>
       <c r="D16" t="n">
-        <v>60.3741</v>
+        <v>61.0886</v>
       </c>
       <c r="E16" t="n">
-        <v>77.03619999999999</v>
+        <v>77.15900000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2315</v>
+        <v>21.7546</v>
       </c>
       <c r="C17" t="n">
-        <v>34.381</v>
+        <v>34.6246</v>
       </c>
       <c r="D17" t="n">
-        <v>62.2661</v>
+        <v>61.1871</v>
       </c>
       <c r="E17" t="n">
-        <v>78.0421</v>
+        <v>78.2021</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.69594</v>
+        <v>8.9808</v>
       </c>
       <c r="C2" t="n">
-        <v>13.2448</v>
+        <v>13.4071</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9883</v>
+        <v>18.7023</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3329</v>
+        <v>22.3277</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.7798</v>
+        <v>17.1666</v>
       </c>
       <c r="C3" t="n">
-        <v>21.1539</v>
+        <v>22.3056</v>
       </c>
       <c r="D3" t="n">
-        <v>34.1689</v>
+        <v>34.9637</v>
       </c>
       <c r="E3" t="n">
-        <v>40.5899</v>
+        <v>40.6085</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.5644</v>
+        <v>24.6515</v>
       </c>
       <c r="C4" t="n">
-        <v>31.001</v>
+        <v>29.911</v>
       </c>
       <c r="D4" t="n">
-        <v>49.7889</v>
+        <v>50.1836</v>
       </c>
       <c r="E4" t="n">
-        <v>57.9684</v>
+        <v>57.8634</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.7259</v>
+        <v>24.1773</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3031</v>
+        <v>29.1273</v>
       </c>
       <c r="D5" t="n">
-        <v>54.2037</v>
+        <v>53.1161</v>
       </c>
       <c r="E5" t="n">
-        <v>61.7728</v>
+        <v>62.1558</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.1212</v>
+        <v>28.2964</v>
       </c>
       <c r="C6" t="n">
-        <v>32.5433</v>
+        <v>32.5015</v>
       </c>
       <c r="D6" t="n">
-        <v>62.7808</v>
+        <v>61.5651</v>
       </c>
       <c r="E6" t="n">
-        <v>73.7653</v>
+        <v>71.3219</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.2878</v>
+        <v>34.4169</v>
       </c>
       <c r="C7" t="n">
-        <v>37.4161</v>
+        <v>37.508</v>
       </c>
       <c r="D7" t="n">
-        <v>74.3347</v>
+        <v>73.7163</v>
       </c>
       <c r="E7" t="n">
-        <v>85.8578</v>
+        <v>86.57089999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.7092</v>
+        <v>31.0571</v>
       </c>
       <c r="C8" t="n">
-        <v>36.6585</v>
+        <v>36.5299</v>
       </c>
       <c r="D8" t="n">
-        <v>71.09480000000001</v>
+        <v>68.1617</v>
       </c>
       <c r="E8" t="n">
-        <v>82.6183</v>
+        <v>81.9263</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.484</v>
+        <v>32.503</v>
       </c>
       <c r="C9" t="n">
-        <v>36.284</v>
+        <v>36.4346</v>
       </c>
       <c r="D9" t="n">
-        <v>70.312</v>
+        <v>71.1314</v>
       </c>
       <c r="E9" t="n">
-        <v>83.6403</v>
+        <v>81.8463</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.3003</v>
+        <v>32.6573</v>
       </c>
       <c r="C10" t="n">
-        <v>36.4273</v>
+        <v>36.7952</v>
       </c>
       <c r="D10" t="n">
-        <v>71.4516</v>
+        <v>69.08329999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>84.21769999999999</v>
+        <v>84.1018</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.4703</v>
+        <v>32.935</v>
       </c>
       <c r="C11" t="n">
-        <v>36.8314</v>
+        <v>36.5714</v>
       </c>
       <c r="D11" t="n">
-        <v>73.2423</v>
+        <v>69.6199</v>
       </c>
       <c r="E11" t="n">
-        <v>84.7569</v>
+        <v>83.8817</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.417</v>
+        <v>32.8125</v>
       </c>
       <c r="C12" t="n">
-        <v>36.7178</v>
+        <v>36.8548</v>
       </c>
       <c r="D12" t="n">
-        <v>75.12</v>
+        <v>71.4776</v>
       </c>
       <c r="E12" t="n">
-        <v>83.3099</v>
+        <v>83.0685</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.6714</v>
+        <v>32.4338</v>
       </c>
       <c r="C13" t="n">
-        <v>36.9</v>
+        <v>37.0543</v>
       </c>
       <c r="D13" t="n">
-        <v>71.9002</v>
+        <v>70.20099999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>85.2303</v>
+        <v>84.5972</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.6164</v>
+        <v>32.7148</v>
       </c>
       <c r="C14" t="n">
-        <v>36.6402</v>
+        <v>37.003</v>
       </c>
       <c r="D14" t="n">
-        <v>72.4726</v>
+        <v>72.1587</v>
       </c>
       <c r="E14" t="n">
-        <v>85.63509999999999</v>
+        <v>84.5192</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.731</v>
+        <v>33.1095</v>
       </c>
       <c r="C15" t="n">
-        <v>36.7221</v>
+        <v>36.4753</v>
       </c>
       <c r="D15" t="n">
-        <v>71.6726</v>
+        <v>72.3835</v>
       </c>
       <c r="E15" t="n">
-        <v>83.4217</v>
+        <v>84.6255</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.5791</v>
+        <v>33.0811</v>
       </c>
       <c r="C16" t="n">
-        <v>36.7092</v>
+        <v>36.7662</v>
       </c>
       <c r="D16" t="n">
-        <v>73.8798</v>
+        <v>71.4409</v>
       </c>
       <c r="E16" t="n">
-        <v>83.84050000000001</v>
+        <v>84.2889</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.958</v>
+        <v>32.8404</v>
       </c>
       <c r="C17" t="n">
-        <v>36.8267</v>
+        <v>37.0023</v>
       </c>
       <c r="D17" t="n">
-        <v>73.709</v>
+        <v>72.3674</v>
       </c>
       <c r="E17" t="n">
-        <v>84.8875</v>
+        <v>84.747</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3615</v>
+        <v>10.4577</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8647</v>
+        <v>12.8969</v>
       </c>
       <c r="D2" t="n">
-        <v>17.6064</v>
+        <v>17.6023</v>
       </c>
       <c r="E2" t="n">
-        <v>21.1805</v>
+        <v>21.1439</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.563</v>
+        <v>19.5276</v>
       </c>
       <c r="C3" t="n">
-        <v>19.1056</v>
+        <v>19.5407</v>
       </c>
       <c r="D3" t="n">
-        <v>28.2241</v>
+        <v>27.5599</v>
       </c>
       <c r="E3" t="n">
-        <v>33.0704</v>
+        <v>33.0112</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.8873</v>
+        <v>26.8468</v>
       </c>
       <c r="C4" t="n">
-        <v>24.9427</v>
+        <v>24.4203</v>
       </c>
       <c r="D4" t="n">
-        <v>32.3412</v>
+        <v>33.1151</v>
       </c>
       <c r="E4" t="n">
-        <v>41.3775</v>
+        <v>40.2912</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.6937</v>
+        <v>20.4282</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5595</v>
+        <v>26.4327</v>
       </c>
       <c r="D5" t="n">
-        <v>38.9825</v>
+        <v>38.5528</v>
       </c>
       <c r="E5" t="n">
-        <v>43.7403</v>
+        <v>43.3168</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.2782</v>
+        <v>24.5517</v>
       </c>
       <c r="C6" t="n">
-        <v>31.3824</v>
+        <v>31.1272</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6735</v>
+        <v>38.5511</v>
       </c>
       <c r="E6" t="n">
-        <v>44.077</v>
+        <v>43.9556</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0399</v>
+        <v>29.0666</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5059</v>
+        <v>36.4771</v>
       </c>
       <c r="D7" t="n">
-        <v>43.7466</v>
+        <v>43.8526</v>
       </c>
       <c r="E7" t="n">
-        <v>50.834</v>
+        <v>50.7733</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.076</v>
+        <v>21.1686</v>
       </c>
       <c r="C8" t="n">
-        <v>34.6811</v>
+        <v>33.8766</v>
       </c>
       <c r="D8" t="n">
-        <v>40.6791</v>
+        <v>39.5858</v>
       </c>
       <c r="E8" t="n">
-        <v>47.4724</v>
+        <v>49.9272</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7254</v>
+        <v>24.182</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1525</v>
+        <v>34.5298</v>
       </c>
       <c r="D9" t="n">
-        <v>48.4707</v>
+        <v>47.0419</v>
       </c>
       <c r="E9" t="n">
-        <v>51.3158</v>
+        <v>52.4848</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.8179</v>
+        <v>26.5228</v>
       </c>
       <c r="C10" t="n">
-        <v>34.5865</v>
+        <v>34.2513</v>
       </c>
       <c r="D10" t="n">
-        <v>48.7407</v>
+        <v>50.1575</v>
       </c>
       <c r="E10" t="n">
-        <v>52.0787</v>
+        <v>54.8063</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2602</v>
+        <v>24.5669</v>
       </c>
       <c r="C11" t="n">
-        <v>34.818</v>
+        <v>34.5757</v>
       </c>
       <c r="D11" t="n">
-        <v>53.0371</v>
+        <v>52.6625</v>
       </c>
       <c r="E11" t="n">
-        <v>59.8909</v>
+        <v>57.2553</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4779</v>
+        <v>26.4249</v>
       </c>
       <c r="C12" t="n">
-        <v>34.503</v>
+        <v>34.8722</v>
       </c>
       <c r="D12" t="n">
-        <v>53.1405</v>
+        <v>54.6211</v>
       </c>
       <c r="E12" t="n">
-        <v>55.7111</v>
+        <v>60.732</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.9525</v>
+        <v>29.0543</v>
       </c>
       <c r="C13" t="n">
-        <v>34.9217</v>
+        <v>34.8719</v>
       </c>
       <c r="D13" t="n">
-        <v>53.9153</v>
+        <v>54.461</v>
       </c>
       <c r="E13" t="n">
-        <v>59.818</v>
+        <v>61.2216</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.2441</v>
+        <v>24.0696</v>
       </c>
       <c r="C14" t="n">
-        <v>34.6797</v>
+        <v>34.9971</v>
       </c>
       <c r="D14" t="n">
-        <v>58.6543</v>
+        <v>55.6117</v>
       </c>
       <c r="E14" t="n">
-        <v>60.8809</v>
+        <v>60.1689</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.5613</v>
+        <v>25.9362</v>
       </c>
       <c r="C15" t="n">
-        <v>34.9614</v>
+        <v>35.0207</v>
       </c>
       <c r="D15" t="n">
-        <v>57.1226</v>
+        <v>53.4182</v>
       </c>
       <c r="E15" t="n">
-        <v>61.316</v>
+        <v>60.8182</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.9067</v>
+        <v>27.3738</v>
       </c>
       <c r="C16" t="n">
-        <v>34.9694</v>
+        <v>34.8734</v>
       </c>
       <c r="D16" t="n">
-        <v>59.427</v>
+        <v>56.8048</v>
       </c>
       <c r="E16" t="n">
-        <v>66.1138</v>
+        <v>63.6669</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.9271</v>
+        <v>25.7775</v>
       </c>
       <c r="C17" t="n">
-        <v>35.1675</v>
+        <v>35.2412</v>
       </c>
       <c r="D17" t="n">
-        <v>58.5683</v>
+        <v>55.6345</v>
       </c>
       <c r="E17" t="n">
-        <v>68.729</v>
+        <v>62.3469</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7239</v>
+        <v>10.7179</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7866</v>
+        <v>12.8986</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4338</v>
+        <v>17.5104</v>
       </c>
       <c r="E2" t="n">
-        <v>21.0233</v>
+        <v>20.9839</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.9078</v>
+        <v>20.0646</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5048</v>
+        <v>19.7147</v>
       </c>
       <c r="D3" t="n">
-        <v>28.2115</v>
+        <v>27.5216</v>
       </c>
       <c r="E3" t="n">
-        <v>32.5489</v>
+        <v>31.3546</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.7113</v>
+        <v>27.6722</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7504</v>
+        <v>25.7276</v>
       </c>
       <c r="D4" t="n">
-        <v>36.353</v>
+        <v>35.438</v>
       </c>
       <c r="E4" t="n">
-        <v>37.8836</v>
+        <v>37.2443</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9364</v>
+        <v>21.4529</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5925</v>
+        <v>26.7044</v>
       </c>
       <c r="D5" t="n">
-        <v>36.2515</v>
+        <v>37.0731</v>
       </c>
       <c r="E5" t="n">
-        <v>43.498</v>
+        <v>43.1253</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.889</v>
+        <v>25.0911</v>
       </c>
       <c r="C6" t="n">
-        <v>31.1645</v>
+        <v>31.1051</v>
       </c>
       <c r="D6" t="n">
-        <v>43.6389</v>
+        <v>43.1227</v>
       </c>
       <c r="E6" t="n">
-        <v>44.0239</v>
+        <v>44.0015</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.8829</v>
+        <v>29.9652</v>
       </c>
       <c r="C7" t="n">
-        <v>36.4173</v>
+        <v>36.414</v>
       </c>
       <c r="D7" t="n">
-        <v>44.099</v>
+        <v>43.8848</v>
       </c>
       <c r="E7" t="n">
-        <v>50.6138</v>
+        <v>50.8625</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.3789</v>
+        <v>21.6707</v>
       </c>
       <c r="C8" t="n">
-        <v>33.8103</v>
+        <v>33.1192</v>
       </c>
       <c r="D8" t="n">
-        <v>43.3867</v>
+        <v>44.688</v>
       </c>
       <c r="E8" t="n">
-        <v>47.6671</v>
+        <v>47.0741</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.9611</v>
+        <v>25.0657</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8457</v>
+        <v>33.8428</v>
       </c>
       <c r="D9" t="n">
-        <v>46.4868</v>
+        <v>48.3557</v>
       </c>
       <c r="E9" t="n">
-        <v>51.3643</v>
+        <v>52.1653</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.2159</v>
+        <v>27.5908</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9449</v>
+        <v>34.3774</v>
       </c>
       <c r="D10" t="n">
-        <v>49.7283</v>
+        <v>48.8114</v>
       </c>
       <c r="E10" t="n">
-        <v>51.3289</v>
+        <v>54.2548</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.5796</v>
+        <v>24.6583</v>
       </c>
       <c r="C11" t="n">
-        <v>34.4046</v>
+        <v>34.0391</v>
       </c>
       <c r="D11" t="n">
-        <v>52.7344</v>
+        <v>51.1832</v>
       </c>
       <c r="E11" t="n">
-        <v>60.5883</v>
+        <v>57.7417</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.2246</v>
+        <v>27.3176</v>
       </c>
       <c r="C12" t="n">
-        <v>34.1573</v>
+        <v>34.3978</v>
       </c>
       <c r="D12" t="n">
-        <v>53.5565</v>
+        <v>54.98</v>
       </c>
       <c r="E12" t="n">
-        <v>59.7194</v>
+        <v>61.9162</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8695</v>
+        <v>29.908</v>
       </c>
       <c r="C13" t="n">
-        <v>35.0609</v>
+        <v>34.8892</v>
       </c>
       <c r="D13" t="n">
-        <v>55.6571</v>
+        <v>51.9772</v>
       </c>
       <c r="E13" t="n">
-        <v>61.1963</v>
+        <v>61.9179</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.8333</v>
+        <v>24.2293</v>
       </c>
       <c r="C14" t="n">
-        <v>35.4764</v>
+        <v>35.1576</v>
       </c>
       <c r="D14" t="n">
-        <v>57.8084</v>
+        <v>58.7006</v>
       </c>
       <c r="E14" t="n">
-        <v>61.7284</v>
+        <v>63.4733</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.1415</v>
+        <v>26.3741</v>
       </c>
       <c r="C15" t="n">
-        <v>35.2864</v>
+        <v>35.1575</v>
       </c>
       <c r="D15" t="n">
-        <v>59.0595</v>
+        <v>56.0641</v>
       </c>
       <c r="E15" t="n">
-        <v>65.20180000000001</v>
+        <v>61.4641</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.9684</v>
+        <v>28.0218</v>
       </c>
       <c r="C16" t="n">
-        <v>35.4911</v>
+        <v>35.5308</v>
       </c>
       <c r="D16" t="n">
-        <v>59.3007</v>
+        <v>59.0309</v>
       </c>
       <c r="E16" t="n">
-        <v>64.523</v>
+        <v>62.2983</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.8858</v>
+        <v>26.2914</v>
       </c>
       <c r="C17" t="n">
-        <v>35.5928</v>
+        <v>35.4705</v>
       </c>
       <c r="D17" t="n">
-        <v>58.1599</v>
+        <v>57.6163</v>
       </c>
       <c r="E17" t="n">
-        <v>64.40309999999999</v>
+        <v>68.15600000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0159</v>
+        <v>13.0988</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9014</v>
+        <v>14.0467</v>
       </c>
       <c r="D2" t="n">
-        <v>19.1944</v>
+        <v>19.3696</v>
       </c>
       <c r="E2" t="n">
-        <v>22.3903</v>
+        <v>22.5011</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.14</v>
+        <v>23.2369</v>
       </c>
       <c r="C3" t="n">
-        <v>23.2561</v>
+        <v>23.2602</v>
       </c>
       <c r="D3" t="n">
-        <v>31.0324</v>
+        <v>30.5697</v>
       </c>
       <c r="E3" t="n">
-        <v>32.7727</v>
+        <v>35.2157</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.757</v>
+        <v>32.2865</v>
       </c>
       <c r="C4" t="n">
-        <v>28.9766</v>
+        <v>29.0924</v>
       </c>
       <c r="D4" t="n">
-        <v>35.6344</v>
+        <v>36.9192</v>
       </c>
       <c r="E4" t="n">
-        <v>40.1673</v>
+        <v>41.5676</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.6186</v>
+        <v>26.7015</v>
       </c>
       <c r="C5" t="n">
-        <v>28.6683</v>
+        <v>28.4279</v>
       </c>
       <c r="D5" t="n">
-        <v>39.1741</v>
+        <v>40.0625</v>
       </c>
       <c r="E5" t="n">
-        <v>44.3952</v>
+        <v>50.3411</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6987</v>
+        <v>31.8335</v>
       </c>
       <c r="C6" t="n">
-        <v>32.7975</v>
+        <v>32.9745</v>
       </c>
       <c r="D6" t="n">
-        <v>44.8586</v>
+        <v>44.2436</v>
       </c>
       <c r="E6" t="n">
-        <v>50.5951</v>
+        <v>50.7886</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.6292</v>
+        <v>37.683</v>
       </c>
       <c r="C7" t="n">
-        <v>38.2041</v>
+        <v>38.1436</v>
       </c>
       <c r="D7" t="n">
-        <v>44.336</v>
+        <v>50.384</v>
       </c>
       <c r="E7" t="n">
-        <v>56.7248</v>
+        <v>50.8614</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.8621</v>
+        <v>33.7766</v>
       </c>
       <c r="C8" t="n">
-        <v>34.5031</v>
+        <v>35.0383</v>
       </c>
       <c r="D8" t="n">
-        <v>48.2284</v>
+        <v>49.4914</v>
       </c>
       <c r="E8" t="n">
-        <v>59.7144</v>
+        <v>59.9482</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.7401</v>
+        <v>34.0451</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0251</v>
+        <v>34.7129</v>
       </c>
       <c r="D9" t="n">
-        <v>53.7221</v>
+        <v>52.5136</v>
       </c>
       <c r="E9" t="n">
-        <v>60.3227</v>
+        <v>59.2964</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.4652</v>
+        <v>34.4942</v>
       </c>
       <c r="C10" t="n">
-        <v>34.6507</v>
+        <v>35.2724</v>
       </c>
       <c r="D10" t="n">
-        <v>54.604</v>
+        <v>59.4863</v>
       </c>
       <c r="E10" t="n">
-        <v>60.2576</v>
+        <v>60.9226</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.9769</v>
+        <v>34.55</v>
       </c>
       <c r="C11" t="n">
-        <v>35.1916</v>
+        <v>34.295</v>
       </c>
       <c r="D11" t="n">
-        <v>60.5199</v>
+        <v>58.1776</v>
       </c>
       <c r="E11" t="n">
-        <v>60.0928</v>
+        <v>62.2774</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.6313</v>
+        <v>34.6791</v>
       </c>
       <c r="C12" t="n">
-        <v>35.0569</v>
+        <v>35.5125</v>
       </c>
       <c r="D12" t="n">
-        <v>60.6334</v>
+        <v>60.223</v>
       </c>
       <c r="E12" t="n">
-        <v>63.1875</v>
+        <v>61.3778</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.1734</v>
+        <v>34.7041</v>
       </c>
       <c r="C13" t="n">
-        <v>35.5743</v>
+        <v>35.4161</v>
       </c>
       <c r="D13" t="n">
-        <v>61.0326</v>
+        <v>60.8688</v>
       </c>
       <c r="E13" t="n">
-        <v>63.5481</v>
+        <v>65.2474</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.1676</v>
+        <v>35.4131</v>
       </c>
       <c r="C14" t="n">
-        <v>35.7803</v>
+        <v>35.7828</v>
       </c>
       <c r="D14" t="n">
-        <v>59.167</v>
+        <v>60.0309</v>
       </c>
       <c r="E14" t="n">
-        <v>62.0663</v>
+        <v>60.9439</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.3889</v>
+        <v>35.6967</v>
       </c>
       <c r="C15" t="n">
-        <v>35.887</v>
+        <v>35.4805</v>
       </c>
       <c r="D15" t="n">
-        <v>61.0187</v>
+        <v>60.6853</v>
       </c>
       <c r="E15" t="n">
-        <v>62.4534</v>
+        <v>61.2655</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.4794</v>
+        <v>35.2759</v>
       </c>
       <c r="C16" t="n">
-        <v>36.1507</v>
+        <v>36.2759</v>
       </c>
       <c r="D16" t="n">
-        <v>60.6116</v>
+        <v>60.3606</v>
       </c>
       <c r="E16" t="n">
-        <v>60.942</v>
+        <v>63.5252</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.8183</v>
+        <v>35.2891</v>
       </c>
       <c r="C17" t="n">
-        <v>36.0959</v>
+        <v>36.3606</v>
       </c>
       <c r="D17" t="n">
-        <v>60.3303</v>
+        <v>60.6218</v>
       </c>
       <c r="E17" t="n">
-        <v>61.0813</v>
+        <v>60.8733</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.80856</v>
+        <v>4.80443</v>
       </c>
       <c r="C2" t="n">
-        <v>10.899</v>
+        <v>10.9568</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7961</v>
+        <v>14.8107</v>
       </c>
       <c r="E2" t="n">
-        <v>19.8668</v>
+        <v>19.8359</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.35478</v>
+        <v>9.3843</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8552</v>
+        <v>19.0551</v>
       </c>
       <c r="D3" t="n">
-        <v>27.8905</v>
+        <v>28.0952</v>
       </c>
       <c r="E3" t="n">
-        <v>37.169</v>
+        <v>37.1682</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5429</v>
+        <v>13.5189</v>
       </c>
       <c r="C4" t="n">
-        <v>26.0366</v>
+        <v>26.012</v>
       </c>
       <c r="D4" t="n">
-        <v>39.9493</v>
+        <v>40.1547</v>
       </c>
       <c r="E4" t="n">
-        <v>52.0544</v>
+        <v>51.635</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8513</v>
+        <v>15.8563</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5104</v>
+        <v>26.3913</v>
       </c>
       <c r="D5" t="n">
-        <v>46.147</v>
+        <v>46.3547</v>
       </c>
       <c r="E5" t="n">
-        <v>60.4233</v>
+        <v>60.5261</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2858</v>
+        <v>19.2714</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0857</v>
+        <v>30.0719</v>
       </c>
       <c r="D6" t="n">
-        <v>56.2832</v>
+        <v>56.7845</v>
       </c>
       <c r="E6" t="n">
-        <v>72.0617</v>
+        <v>71.9927</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4741</v>
+        <v>22.464</v>
       </c>
       <c r="C7" t="n">
-        <v>35.1047</v>
+        <v>35.0834</v>
       </c>
       <c r="D7" t="n">
-        <v>64.7394</v>
+        <v>65.1481</v>
       </c>
       <c r="E7" t="n">
-        <v>83.7316</v>
+        <v>83.6626</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0257</v>
+        <v>19.4884</v>
       </c>
       <c r="C8" t="n">
-        <v>33.599</v>
+        <v>33.7727</v>
       </c>
       <c r="D8" t="n">
-        <v>57.1007</v>
+        <v>57.8005</v>
       </c>
       <c r="E8" t="n">
-        <v>70.2948</v>
+        <v>71.5209</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.147</v>
+        <v>20.6895</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6062</v>
+        <v>33.9915</v>
       </c>
       <c r="D9" t="n">
-        <v>59.0834</v>
+        <v>57.3081</v>
       </c>
       <c r="E9" t="n">
-        <v>75.52500000000001</v>
+        <v>69.7628</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.023</v>
+        <v>21.1684</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9857</v>
+        <v>33.4822</v>
       </c>
       <c r="D10" t="n">
-        <v>58.1209</v>
+        <v>56.96</v>
       </c>
       <c r="E10" t="n">
-        <v>75.9914</v>
+        <v>75.6195</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3905</v>
+        <v>21.2319</v>
       </c>
       <c r="C11" t="n">
-        <v>33.5618</v>
+        <v>33.7472</v>
       </c>
       <c r="D11" t="n">
-        <v>59.8927</v>
+        <v>59.0165</v>
       </c>
       <c r="E11" t="n">
-        <v>76.2786</v>
+        <v>75.6626</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.1799</v>
+        <v>21.2887</v>
       </c>
       <c r="C12" t="n">
-        <v>34.4081</v>
+        <v>34.3402</v>
       </c>
       <c r="D12" t="n">
-        <v>60.6879</v>
+        <v>57.8529</v>
       </c>
       <c r="E12" t="n">
-        <v>78.7406</v>
+        <v>76.7788</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.385</v>
+        <v>21.2354</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5556</v>
+        <v>34.2451</v>
       </c>
       <c r="D13" t="n">
-        <v>60.4936</v>
+        <v>61.6544</v>
       </c>
       <c r="E13" t="n">
-        <v>77.2349</v>
+        <v>76.3678</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.34</v>
+        <v>21.267</v>
       </c>
       <c r="C14" t="n">
-        <v>34.4124</v>
+        <v>34.2343</v>
       </c>
       <c r="D14" t="n">
-        <v>61.672</v>
+        <v>62.1916</v>
       </c>
       <c r="E14" t="n">
-        <v>75.2287</v>
+        <v>76.60899999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.6192</v>
+        <v>21.1874</v>
       </c>
       <c r="C15" t="n">
-        <v>34.3066</v>
+        <v>34.2833</v>
       </c>
       <c r="D15" t="n">
-        <v>60.9956</v>
+        <v>60.8175</v>
       </c>
       <c r="E15" t="n">
-        <v>77.4862</v>
+        <v>77.756</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.44</v>
+        <v>21.2571</v>
       </c>
       <c r="C16" t="n">
-        <v>34.3925</v>
+        <v>34.536</v>
       </c>
       <c r="D16" t="n">
-        <v>62.194</v>
+        <v>62.5609</v>
       </c>
       <c r="E16" t="n">
-        <v>79.16459999999999</v>
+        <v>79.877</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6208</v>
+        <v>21.6154</v>
       </c>
       <c r="C17" t="n">
-        <v>34.1739</v>
+        <v>33.865</v>
       </c>
       <c r="D17" t="n">
-        <v>62.7479</v>
+        <v>63.1148</v>
       </c>
       <c r="E17" t="n">
-        <v>79.2679</v>
+        <v>80.47669999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.80081</v>
+        <v>4.80845</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9801</v>
+        <v>11.0406</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5778</v>
+        <v>14.6474</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7999</v>
+        <v>19.8022</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.39284</v>
+        <v>9.38161</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9144</v>
+        <v>18.9384</v>
       </c>
       <c r="D3" t="n">
-        <v>27.767</v>
+        <v>27.6981</v>
       </c>
       <c r="E3" t="n">
-        <v>37.0644</v>
+        <v>37.0183</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5635</v>
+        <v>13.5346</v>
       </c>
       <c r="C4" t="n">
-        <v>26.4305</v>
+        <v>26.2358</v>
       </c>
       <c r="D4" t="n">
-        <v>39.4153</v>
+        <v>39.2312</v>
       </c>
       <c r="E4" t="n">
-        <v>52.2647</v>
+        <v>51.553</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9913</v>
+        <v>16.158</v>
       </c>
       <c r="C5" t="n">
-        <v>26.4347</v>
+        <v>26.378</v>
       </c>
       <c r="D5" t="n">
-        <v>45.8626</v>
+        <v>45.7133</v>
       </c>
       <c r="E5" t="n">
-        <v>58.88</v>
+        <v>58.9242</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5006</v>
+        <v>19.5608</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9952</v>
+        <v>29.9577</v>
       </c>
       <c r="D6" t="n">
-        <v>54.957</v>
+        <v>54.7006</v>
       </c>
       <c r="E6" t="n">
-        <v>71.3184</v>
+        <v>71.203</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8816</v>
+        <v>22.8777</v>
       </c>
       <c r="C7" t="n">
-        <v>35.141</v>
+        <v>35.1246</v>
       </c>
       <c r="D7" t="n">
-        <v>64.8921</v>
+        <v>65.05500000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>81.18389999999999</v>
+        <v>81.42440000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7805</v>
+        <v>20.6801</v>
       </c>
       <c r="C8" t="n">
-        <v>33.9799</v>
+        <v>33.6776</v>
       </c>
       <c r="D8" t="n">
-        <v>56.205</v>
+        <v>55.6215</v>
       </c>
       <c r="E8" t="n">
-        <v>70.4605</v>
+        <v>71.1046</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.4307</v>
+        <v>21.3685</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0348</v>
+        <v>33.851</v>
       </c>
       <c r="D9" t="n">
-        <v>58.9774</v>
+        <v>53.9955</v>
       </c>
       <c r="E9" t="n">
-        <v>70.07689999999999</v>
+        <v>70.7469</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4511</v>
+        <v>21.3564</v>
       </c>
       <c r="C10" t="n">
-        <v>34.046</v>
+        <v>34.1209</v>
       </c>
       <c r="D10" t="n">
-        <v>58.7255</v>
+        <v>58.2766</v>
       </c>
       <c r="E10" t="n">
-        <v>74.098</v>
+        <v>72.6919</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6232</v>
+        <v>21.4939</v>
       </c>
       <c r="C11" t="n">
-        <v>33.7538</v>
+        <v>33.9299</v>
       </c>
       <c r="D11" t="n">
-        <v>59.3519</v>
+        <v>58.4178</v>
       </c>
       <c r="E11" t="n">
-        <v>77.1276</v>
+        <v>75.7193</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.2836</v>
+        <v>21.5216</v>
       </c>
       <c r="C12" t="n">
-        <v>34.2573</v>
+        <v>33.8235</v>
       </c>
       <c r="D12" t="n">
-        <v>58.1495</v>
+        <v>59.7332</v>
       </c>
       <c r="E12" t="n">
-        <v>75.354</v>
+        <v>74.2754</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5282</v>
+        <v>21.5268</v>
       </c>
       <c r="C13" t="n">
-        <v>34.603</v>
+        <v>34.4149</v>
       </c>
       <c r="D13" t="n">
-        <v>60.0568</v>
+        <v>61.7228</v>
       </c>
       <c r="E13" t="n">
-        <v>76.5506</v>
+        <v>77.6935</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.628</v>
+        <v>21.637</v>
       </c>
       <c r="C14" t="n">
-        <v>34.3513</v>
+        <v>34.2261</v>
       </c>
       <c r="D14" t="n">
-        <v>60.2862</v>
+        <v>60.6909</v>
       </c>
       <c r="E14" t="n">
-        <v>77.03660000000001</v>
+        <v>74.4272</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.0719</v>
+        <v>21.7303</v>
       </c>
       <c r="C15" t="n">
-        <v>34.3554</v>
+        <v>34.1317</v>
       </c>
       <c r="D15" t="n">
-        <v>60.2606</v>
+        <v>62.5468</v>
       </c>
       <c r="E15" t="n">
-        <v>78.1551</v>
+        <v>76.0582</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.4317</v>
+        <v>21.3414</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4279</v>
+        <v>34.3909</v>
       </c>
       <c r="D16" t="n">
-        <v>61.0886</v>
+        <v>61.1538</v>
       </c>
       <c r="E16" t="n">
-        <v>77.15900000000001</v>
+        <v>79.1806</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.7546</v>
+        <v>21.7747</v>
       </c>
       <c r="C17" t="n">
-        <v>34.6246</v>
+        <v>34.5097</v>
       </c>
       <c r="D17" t="n">
-        <v>61.1871</v>
+        <v>62.0206</v>
       </c>
       <c r="E17" t="n">
-        <v>78.2021</v>
+        <v>78.6301</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.9808</v>
+        <v>8.918380000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.4071</v>
+        <v>13.4741</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7023</v>
+        <v>18.6509</v>
       </c>
       <c r="E2" t="n">
-        <v>22.3277</v>
+        <v>22.4477</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.1666</v>
+        <v>16.7971</v>
       </c>
       <c r="C3" t="n">
-        <v>22.3056</v>
+        <v>22.0418</v>
       </c>
       <c r="D3" t="n">
-        <v>34.9637</v>
+        <v>34.6688</v>
       </c>
       <c r="E3" t="n">
-        <v>40.6085</v>
+        <v>40.4307</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.6515</v>
+        <v>23.9627</v>
       </c>
       <c r="C4" t="n">
-        <v>29.911</v>
+        <v>29.2244</v>
       </c>
       <c r="D4" t="n">
-        <v>50.1836</v>
+        <v>49.3963</v>
       </c>
       <c r="E4" t="n">
-        <v>57.8634</v>
+        <v>56.6013</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.1773</v>
+        <v>24.6395</v>
       </c>
       <c r="C5" t="n">
-        <v>29.1273</v>
+        <v>29.4349</v>
       </c>
       <c r="D5" t="n">
-        <v>53.1161</v>
+        <v>54.0177</v>
       </c>
       <c r="E5" t="n">
-        <v>62.1558</v>
+        <v>62.0504</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2964</v>
+        <v>28.3619</v>
       </c>
       <c r="C6" t="n">
-        <v>32.5015</v>
+        <v>32.7041</v>
       </c>
       <c r="D6" t="n">
-        <v>61.5651</v>
+        <v>62.6987</v>
       </c>
       <c r="E6" t="n">
-        <v>71.3219</v>
+        <v>72.9691</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.4169</v>
+        <v>34.4099</v>
       </c>
       <c r="C7" t="n">
-        <v>37.508</v>
+        <v>37.4447</v>
       </c>
       <c r="D7" t="n">
-        <v>73.7163</v>
+        <v>74.06399999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>86.57089999999999</v>
+        <v>87.3575</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.0571</v>
+        <v>31.2012</v>
       </c>
       <c r="C8" t="n">
-        <v>36.5299</v>
+        <v>36.4524</v>
       </c>
       <c r="D8" t="n">
-        <v>68.1617</v>
+        <v>69.4787</v>
       </c>
       <c r="E8" t="n">
-        <v>81.9263</v>
+        <v>82.04170000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.503</v>
+        <v>32.3133</v>
       </c>
       <c r="C9" t="n">
-        <v>36.4346</v>
+        <v>36.1542</v>
       </c>
       <c r="D9" t="n">
-        <v>71.1314</v>
+        <v>68.0522</v>
       </c>
       <c r="E9" t="n">
-        <v>81.8463</v>
+        <v>83.6223</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.6573</v>
+        <v>32.4364</v>
       </c>
       <c r="C10" t="n">
-        <v>36.7952</v>
+        <v>36.6345</v>
       </c>
       <c r="D10" t="n">
-        <v>69.08329999999999</v>
+        <v>70.7342</v>
       </c>
       <c r="E10" t="n">
-        <v>84.1018</v>
+        <v>82.1704</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.935</v>
+        <v>32.8436</v>
       </c>
       <c r="C11" t="n">
-        <v>36.5714</v>
+        <v>36.5024</v>
       </c>
       <c r="D11" t="n">
-        <v>69.6199</v>
+        <v>71.0753</v>
       </c>
       <c r="E11" t="n">
-        <v>83.8817</v>
+        <v>80.4034</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.8125</v>
+        <v>32.5605</v>
       </c>
       <c r="C12" t="n">
-        <v>36.8548</v>
+        <v>36.5096</v>
       </c>
       <c r="D12" t="n">
-        <v>71.4776</v>
+        <v>70.38039999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>83.0685</v>
+        <v>84.2239</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.4338</v>
+        <v>32.347</v>
       </c>
       <c r="C13" t="n">
-        <v>37.0543</v>
+        <v>36.9427</v>
       </c>
       <c r="D13" t="n">
-        <v>70.20099999999999</v>
+        <v>71.49299999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>84.5972</v>
+        <v>85.0972</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.7148</v>
+        <v>32.9893</v>
       </c>
       <c r="C14" t="n">
-        <v>37.003</v>
+        <v>36.8966</v>
       </c>
       <c r="D14" t="n">
-        <v>72.1587</v>
+        <v>72.2867</v>
       </c>
       <c r="E14" t="n">
-        <v>84.5192</v>
+        <v>83.0317</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.1095</v>
+        <v>33.3996</v>
       </c>
       <c r="C15" t="n">
-        <v>36.4753</v>
+        <v>37.0287</v>
       </c>
       <c r="D15" t="n">
-        <v>72.3835</v>
+        <v>72.4948</v>
       </c>
       <c r="E15" t="n">
-        <v>84.6255</v>
+        <v>84.23399999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.0811</v>
+        <v>32.6153</v>
       </c>
       <c r="C16" t="n">
-        <v>36.7662</v>
+        <v>36.4642</v>
       </c>
       <c r="D16" t="n">
-        <v>71.4409</v>
+        <v>72.6467</v>
       </c>
       <c r="E16" t="n">
-        <v>84.2889</v>
+        <v>85.57689999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.8404</v>
+        <v>32.9697</v>
       </c>
       <c r="C17" t="n">
-        <v>37.0023</v>
+        <v>36.749</v>
       </c>
       <c r="D17" t="n">
-        <v>72.3674</v>
+        <v>72.96429999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>84.747</v>
+        <v>84.2978</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4577</v>
+        <v>10.4018</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8969</v>
+        <v>12.8757</v>
       </c>
       <c r="D2" t="n">
-        <v>17.6023</v>
+        <v>17.5279</v>
       </c>
       <c r="E2" t="n">
-        <v>21.1439</v>
+        <v>20.9081</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5276</v>
+        <v>19.4083</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5407</v>
+        <v>19.7837</v>
       </c>
       <c r="D3" t="n">
-        <v>27.5599</v>
+        <v>27.4882</v>
       </c>
       <c r="E3" t="n">
-        <v>33.0112</v>
+        <v>32.9914</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.8468</v>
+        <v>26.7472</v>
       </c>
       <c r="C4" t="n">
-        <v>24.4203</v>
+        <v>25.393</v>
       </c>
       <c r="D4" t="n">
-        <v>33.1151</v>
+        <v>32.8195</v>
       </c>
       <c r="E4" t="n">
-        <v>40.2912</v>
+        <v>40.3576</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.4282</v>
+        <v>20.9626</v>
       </c>
       <c r="C5" t="n">
-        <v>26.4327</v>
+        <v>27.0533</v>
       </c>
       <c r="D5" t="n">
-        <v>38.5528</v>
+        <v>38.2445</v>
       </c>
       <c r="E5" t="n">
-        <v>43.3168</v>
+        <v>43.6761</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.5517</v>
+        <v>24.5116</v>
       </c>
       <c r="C6" t="n">
-        <v>31.1272</v>
+        <v>31.4999</v>
       </c>
       <c r="D6" t="n">
-        <v>38.5511</v>
+        <v>38.6002</v>
       </c>
       <c r="E6" t="n">
-        <v>43.9556</v>
+        <v>44.0056</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0666</v>
+        <v>29.0647</v>
       </c>
       <c r="C7" t="n">
-        <v>36.4771</v>
+        <v>36.771</v>
       </c>
       <c r="D7" t="n">
-        <v>43.8526</v>
+        <v>43.5698</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7733</v>
+        <v>50.492</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.1686</v>
+        <v>21.1239</v>
       </c>
       <c r="C8" t="n">
-        <v>33.8766</v>
+        <v>34.2936</v>
       </c>
       <c r="D8" t="n">
-        <v>39.5858</v>
+        <v>41.3018</v>
       </c>
       <c r="E8" t="n">
-        <v>49.9272</v>
+        <v>46.7814</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.182</v>
+        <v>23.8151</v>
       </c>
       <c r="C9" t="n">
-        <v>34.5298</v>
+        <v>34.0953</v>
       </c>
       <c r="D9" t="n">
-        <v>47.0419</v>
+        <v>45.8686</v>
       </c>
       <c r="E9" t="n">
-        <v>52.4848</v>
+        <v>51.8241</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.5228</v>
+        <v>26.5161</v>
       </c>
       <c r="C10" t="n">
-        <v>34.2513</v>
+        <v>34.9336</v>
       </c>
       <c r="D10" t="n">
-        <v>50.1575</v>
+        <v>49.417</v>
       </c>
       <c r="E10" t="n">
-        <v>54.8063</v>
+        <v>53.1002</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.5669</v>
+        <v>24.3489</v>
       </c>
       <c r="C11" t="n">
-        <v>34.5757</v>
+        <v>34.845</v>
       </c>
       <c r="D11" t="n">
-        <v>52.6625</v>
+        <v>50.9503</v>
       </c>
       <c r="E11" t="n">
-        <v>57.2553</v>
+        <v>55.9697</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4249</v>
+        <v>26.5409</v>
       </c>
       <c r="C12" t="n">
-        <v>34.8722</v>
+        <v>34.6343</v>
       </c>
       <c r="D12" t="n">
-        <v>54.6211</v>
+        <v>51.238</v>
       </c>
       <c r="E12" t="n">
-        <v>60.732</v>
+        <v>61.134</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.0543</v>
+        <v>29.0808</v>
       </c>
       <c r="C13" t="n">
-        <v>34.8719</v>
+        <v>35.2061</v>
       </c>
       <c r="D13" t="n">
-        <v>54.461</v>
+        <v>57.3349</v>
       </c>
       <c r="E13" t="n">
-        <v>61.2216</v>
+        <v>58.5044</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0696</v>
+        <v>24.2113</v>
       </c>
       <c r="C14" t="n">
-        <v>34.9971</v>
+        <v>35.248</v>
       </c>
       <c r="D14" t="n">
-        <v>55.6117</v>
+        <v>54.975</v>
       </c>
       <c r="E14" t="n">
-        <v>60.1689</v>
+        <v>59.6522</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.9362</v>
+        <v>25.876</v>
       </c>
       <c r="C15" t="n">
-        <v>35.0207</v>
+        <v>35.3295</v>
       </c>
       <c r="D15" t="n">
-        <v>53.4182</v>
+        <v>58.3374</v>
       </c>
       <c r="E15" t="n">
-        <v>60.8182</v>
+        <v>61.4189</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.3738</v>
+        <v>26.8784</v>
       </c>
       <c r="C16" t="n">
-        <v>34.8734</v>
+        <v>35.1238</v>
       </c>
       <c r="D16" t="n">
-        <v>56.8048</v>
+        <v>56.8752</v>
       </c>
       <c r="E16" t="n">
-        <v>63.6669</v>
+        <v>60.752</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.7775</v>
+        <v>25.8218</v>
       </c>
       <c r="C17" t="n">
-        <v>35.2412</v>
+        <v>35.0119</v>
       </c>
       <c r="D17" t="n">
-        <v>55.6345</v>
+        <v>58.3918</v>
       </c>
       <c r="E17" t="n">
-        <v>62.3469</v>
+        <v>64.5959</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7179</v>
+        <v>10.7551</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8986</v>
+        <v>12.8804</v>
       </c>
       <c r="D2" t="n">
-        <v>17.5104</v>
+        <v>17.4171</v>
       </c>
       <c r="E2" t="n">
-        <v>20.9839</v>
+        <v>20.8462</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0646</v>
+        <v>20.126</v>
       </c>
       <c r="C3" t="n">
-        <v>19.7147</v>
+        <v>19.6631</v>
       </c>
       <c r="D3" t="n">
-        <v>27.5216</v>
+        <v>26.7176</v>
       </c>
       <c r="E3" t="n">
-        <v>31.3546</v>
+        <v>31.8916</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.6722</v>
+        <v>27.6196</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7276</v>
+        <v>25.8066</v>
       </c>
       <c r="D4" t="n">
-        <v>35.438</v>
+        <v>34.6376</v>
       </c>
       <c r="E4" t="n">
-        <v>37.2443</v>
+        <v>37.7745</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.4529</v>
+        <v>20.7684</v>
       </c>
       <c r="C5" t="n">
-        <v>26.7044</v>
+        <v>26.7341</v>
       </c>
       <c r="D5" t="n">
-        <v>37.0731</v>
+        <v>35.6091</v>
       </c>
       <c r="E5" t="n">
-        <v>43.1253</v>
+        <v>43.7762</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.0911</v>
+        <v>24.9797</v>
       </c>
       <c r="C6" t="n">
-        <v>31.1051</v>
+        <v>31.3027</v>
       </c>
       <c r="D6" t="n">
-        <v>43.1227</v>
+        <v>43.5403</v>
       </c>
       <c r="E6" t="n">
-        <v>44.0015</v>
+        <v>43.9359</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9652</v>
+        <v>29.9895</v>
       </c>
       <c r="C7" t="n">
-        <v>36.414</v>
+        <v>36.5958</v>
       </c>
       <c r="D7" t="n">
-        <v>43.8848</v>
+        <v>43.8338</v>
       </c>
       <c r="E7" t="n">
-        <v>50.8625</v>
+        <v>50.6843</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6707</v>
+        <v>21.8218</v>
       </c>
       <c r="C8" t="n">
-        <v>33.1192</v>
+        <v>33.831</v>
       </c>
       <c r="D8" t="n">
-        <v>44.688</v>
+        <v>42.8025</v>
       </c>
       <c r="E8" t="n">
-        <v>47.0741</v>
+        <v>49.0692</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.0657</v>
+        <v>25.408</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8428</v>
+        <v>33.8068</v>
       </c>
       <c r="D9" t="n">
-        <v>48.3557</v>
+        <v>48.2488</v>
       </c>
       <c r="E9" t="n">
-        <v>52.1653</v>
+        <v>51.53</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.5908</v>
+        <v>27.699</v>
       </c>
       <c r="C10" t="n">
-        <v>34.3774</v>
+        <v>34.4624</v>
       </c>
       <c r="D10" t="n">
-        <v>48.8114</v>
+        <v>50.0135</v>
       </c>
       <c r="E10" t="n">
-        <v>54.2548</v>
+        <v>53.8097</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.6583</v>
+        <v>25.1115</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0391</v>
+        <v>34.4782</v>
       </c>
       <c r="D11" t="n">
-        <v>51.1832</v>
+        <v>54.926</v>
       </c>
       <c r="E11" t="n">
-        <v>57.7417</v>
+        <v>56.2102</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.3176</v>
+        <v>27.2967</v>
       </c>
       <c r="C12" t="n">
-        <v>34.3978</v>
+        <v>34.8481</v>
       </c>
       <c r="D12" t="n">
-        <v>54.98</v>
+        <v>54.2977</v>
       </c>
       <c r="E12" t="n">
-        <v>61.9162</v>
+        <v>59.6403</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.908</v>
+        <v>29.974</v>
       </c>
       <c r="C13" t="n">
-        <v>34.8892</v>
+        <v>35.3648</v>
       </c>
       <c r="D13" t="n">
-        <v>51.9772</v>
+        <v>56.2416</v>
       </c>
       <c r="E13" t="n">
-        <v>61.9179</v>
+        <v>60.8784</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.2293</v>
+        <v>24.4124</v>
       </c>
       <c r="C14" t="n">
-        <v>35.1576</v>
+        <v>35.4003</v>
       </c>
       <c r="D14" t="n">
-        <v>58.7006</v>
+        <v>56.6237</v>
       </c>
       <c r="E14" t="n">
-        <v>63.4733</v>
+        <v>62.9319</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.3741</v>
+        <v>26.223</v>
       </c>
       <c r="C15" t="n">
-        <v>35.1575</v>
+        <v>35.5926</v>
       </c>
       <c r="D15" t="n">
-        <v>56.0641</v>
+        <v>58.5448</v>
       </c>
       <c r="E15" t="n">
-        <v>61.4641</v>
+        <v>60.2388</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.0218</v>
+        <v>27.804</v>
       </c>
       <c r="C16" t="n">
-        <v>35.5308</v>
+        <v>35.5789</v>
       </c>
       <c r="D16" t="n">
-        <v>59.0309</v>
+        <v>60.4004</v>
       </c>
       <c r="E16" t="n">
-        <v>62.2983</v>
+        <v>66.9115</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.2914</v>
+        <v>26.4767</v>
       </c>
       <c r="C17" t="n">
-        <v>35.4705</v>
+        <v>35.6792</v>
       </c>
       <c r="D17" t="n">
-        <v>57.6163</v>
+        <v>57.3607</v>
       </c>
       <c r="E17" t="n">
-        <v>68.15600000000001</v>
+        <v>61.761</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0988</v>
+        <v>13.1074</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0467</v>
+        <v>14.0154</v>
       </c>
       <c r="D2" t="n">
-        <v>19.3696</v>
+        <v>19.1688</v>
       </c>
       <c r="E2" t="n">
-        <v>22.5011</v>
+        <v>22.1429</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.2369</v>
+        <v>23.4033</v>
       </c>
       <c r="C3" t="n">
-        <v>23.2602</v>
+        <v>23.8004</v>
       </c>
       <c r="D3" t="n">
-        <v>30.5697</v>
+        <v>31.1139</v>
       </c>
       <c r="E3" t="n">
-        <v>35.2157</v>
+        <v>34.0345</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.2865</v>
+        <v>32.0513</v>
       </c>
       <c r="C4" t="n">
-        <v>29.0924</v>
+        <v>29.5992</v>
       </c>
       <c r="D4" t="n">
-        <v>36.9192</v>
+        <v>35.2026</v>
       </c>
       <c r="E4" t="n">
-        <v>41.5676</v>
+        <v>40.0063</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.7015</v>
+        <v>26.752</v>
       </c>
       <c r="C5" t="n">
-        <v>28.4279</v>
+        <v>28.8565</v>
       </c>
       <c r="D5" t="n">
-        <v>40.0625</v>
+        <v>39.124</v>
       </c>
       <c r="E5" t="n">
-        <v>50.3411</v>
+        <v>49.9015</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.8335</v>
+        <v>31.893</v>
       </c>
       <c r="C6" t="n">
-        <v>32.9745</v>
+        <v>32.9806</v>
       </c>
       <c r="D6" t="n">
-        <v>44.2436</v>
+        <v>43.9598</v>
       </c>
       <c r="E6" t="n">
-        <v>50.7886</v>
+        <v>50.4171</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.683</v>
+        <v>37.7584</v>
       </c>
       <c r="C7" t="n">
-        <v>38.1436</v>
+        <v>38.2991</v>
       </c>
       <c r="D7" t="n">
-        <v>50.384</v>
+        <v>49.7111</v>
       </c>
       <c r="E7" t="n">
-        <v>50.8614</v>
+        <v>58.1118</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.7766</v>
+        <v>34.2553</v>
       </c>
       <c r="C8" t="n">
-        <v>35.0383</v>
+        <v>35.441</v>
       </c>
       <c r="D8" t="n">
-        <v>49.4914</v>
+        <v>49.0469</v>
       </c>
       <c r="E8" t="n">
-        <v>59.9482</v>
+        <v>59.9642</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.0451</v>
+        <v>34.6263</v>
       </c>
       <c r="C9" t="n">
-        <v>34.7129</v>
+        <v>34.6818</v>
       </c>
       <c r="D9" t="n">
-        <v>52.5136</v>
+        <v>52.5599</v>
       </c>
       <c r="E9" t="n">
-        <v>59.2964</v>
+        <v>60.0279</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.4942</v>
+        <v>34.5755</v>
       </c>
       <c r="C10" t="n">
-        <v>35.2724</v>
+        <v>34.8946</v>
       </c>
       <c r="D10" t="n">
-        <v>59.4863</v>
+        <v>52.8632</v>
       </c>
       <c r="E10" t="n">
-        <v>60.9226</v>
+        <v>59.0127</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.55</v>
+        <v>34.7702</v>
       </c>
       <c r="C11" t="n">
-        <v>34.295</v>
+        <v>35.4231</v>
       </c>
       <c r="D11" t="n">
-        <v>58.1776</v>
+        <v>58.5736</v>
       </c>
       <c r="E11" t="n">
-        <v>62.2774</v>
+        <v>62.5388</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.6791</v>
+        <v>34.9694</v>
       </c>
       <c r="C12" t="n">
-        <v>35.5125</v>
+        <v>35.9629</v>
       </c>
       <c r="D12" t="n">
-        <v>60.223</v>
+        <v>60.1251</v>
       </c>
       <c r="E12" t="n">
-        <v>61.3778</v>
+        <v>59.9235</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.7041</v>
+        <v>35.2488</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4161</v>
+        <v>35.9064</v>
       </c>
       <c r="D13" t="n">
-        <v>60.8688</v>
+        <v>59.6362</v>
       </c>
       <c r="E13" t="n">
-        <v>65.2474</v>
+        <v>60.1779</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.4131</v>
+        <v>35.1597</v>
       </c>
       <c r="C14" t="n">
-        <v>35.7828</v>
+        <v>36.0359</v>
       </c>
       <c r="D14" t="n">
-        <v>60.0309</v>
+        <v>60.1536</v>
       </c>
       <c r="E14" t="n">
-        <v>60.9439</v>
+        <v>65.1602</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.6967</v>
+        <v>34.8346</v>
       </c>
       <c r="C15" t="n">
-        <v>35.4805</v>
+        <v>35.7068</v>
       </c>
       <c r="D15" t="n">
-        <v>60.6853</v>
+        <v>61.202</v>
       </c>
       <c r="E15" t="n">
-        <v>61.2655</v>
+        <v>61.756</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.2759</v>
+        <v>35.7014</v>
       </c>
       <c r="C16" t="n">
-        <v>36.2759</v>
+        <v>35.9797</v>
       </c>
       <c r="D16" t="n">
-        <v>60.3606</v>
+        <v>60.7719</v>
       </c>
       <c r="E16" t="n">
-        <v>63.5252</v>
+        <v>62.7459</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.2891</v>
+        <v>35.6102</v>
       </c>
       <c r="C17" t="n">
-        <v>36.3606</v>
+        <v>36.4942</v>
       </c>
       <c r="D17" t="n">
-        <v>60.6218</v>
+        <v>59.9094</v>
       </c>
       <c r="E17" t="n">
-        <v>60.8733</v>
+        <v>61.8878</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.80443</v>
+        <v>4.79694</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9568</v>
+        <v>10.9474</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8107</v>
+        <v>14.726</v>
       </c>
       <c r="E2" t="n">
-        <v>19.8359</v>
+        <v>19.7362</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.3843</v>
+        <v>9.379099999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0551</v>
+        <v>19.0263</v>
       </c>
       <c r="D3" t="n">
-        <v>28.0952</v>
+        <v>28.0744</v>
       </c>
       <c r="E3" t="n">
-        <v>37.1682</v>
+        <v>37.0524</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5189</v>
+        <v>13.5487</v>
       </c>
       <c r="C4" t="n">
-        <v>26.012</v>
+        <v>26.1817</v>
       </c>
       <c r="D4" t="n">
-        <v>40.1547</v>
+        <v>40.318</v>
       </c>
       <c r="E4" t="n">
-        <v>51.635</v>
+        <v>51.8949</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8563</v>
+        <v>15.8808</v>
       </c>
       <c r="C5" t="n">
-        <v>26.3913</v>
+        <v>26.7133</v>
       </c>
       <c r="D5" t="n">
-        <v>46.3547</v>
+        <v>46.1293</v>
       </c>
       <c r="E5" t="n">
-        <v>60.5261</v>
+        <v>58.777</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2714</v>
+        <v>19.2961</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0719</v>
+        <v>30.272</v>
       </c>
       <c r="D6" t="n">
-        <v>56.7845</v>
+        <v>55.6378</v>
       </c>
       <c r="E6" t="n">
-        <v>71.9927</v>
+        <v>69.5564</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.464</v>
+        <v>22.5235</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0834</v>
+        <v>35.3169</v>
       </c>
       <c r="D7" t="n">
-        <v>65.1481</v>
+        <v>63.7399</v>
       </c>
       <c r="E7" t="n">
-        <v>83.6626</v>
+        <v>82.1468</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.4884</v>
+        <v>20.231</v>
       </c>
       <c r="C8" t="n">
-        <v>33.7727</v>
+        <v>34.087</v>
       </c>
       <c r="D8" t="n">
-        <v>57.8005</v>
+        <v>56.5041</v>
       </c>
       <c r="E8" t="n">
-        <v>71.5209</v>
+        <v>70.7475</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6895</v>
+        <v>20.3503</v>
       </c>
       <c r="C9" t="n">
-        <v>33.9915</v>
+        <v>33.8224</v>
       </c>
       <c r="D9" t="n">
-        <v>57.3081</v>
+        <v>57.8602</v>
       </c>
       <c r="E9" t="n">
-        <v>69.7628</v>
+        <v>73.03740000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1684</v>
+        <v>21.1373</v>
       </c>
       <c r="C10" t="n">
-        <v>33.4822</v>
+        <v>33.9471</v>
       </c>
       <c r="D10" t="n">
-        <v>56.96</v>
+        <v>57.3888</v>
       </c>
       <c r="E10" t="n">
-        <v>75.6195</v>
+        <v>72.5287</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2319</v>
+        <v>21.1757</v>
       </c>
       <c r="C11" t="n">
-        <v>33.7472</v>
+        <v>33.8194</v>
       </c>
       <c r="D11" t="n">
-        <v>59.0165</v>
+        <v>58.5451</v>
       </c>
       <c r="E11" t="n">
-        <v>75.6626</v>
+        <v>73.9482</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.2887</v>
+        <v>21.3061</v>
       </c>
       <c r="C12" t="n">
-        <v>34.3402</v>
+        <v>34.127</v>
       </c>
       <c r="D12" t="n">
-        <v>57.8529</v>
+        <v>59.3855</v>
       </c>
       <c r="E12" t="n">
-        <v>76.7788</v>
+        <v>75.97410000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2354</v>
+        <v>21.0748</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2451</v>
+        <v>34.6022</v>
       </c>
       <c r="D13" t="n">
-        <v>61.6544</v>
+        <v>59.0412</v>
       </c>
       <c r="E13" t="n">
-        <v>76.3678</v>
+        <v>75.5714</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.267</v>
+        <v>21.3315</v>
       </c>
       <c r="C14" t="n">
-        <v>34.2343</v>
+        <v>34.4339</v>
       </c>
       <c r="D14" t="n">
-        <v>62.1916</v>
+        <v>60.8815</v>
       </c>
       <c r="E14" t="n">
-        <v>76.60899999999999</v>
+        <v>75.1178</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.1874</v>
+        <v>21.2694</v>
       </c>
       <c r="C15" t="n">
-        <v>34.2833</v>
+        <v>34.6089</v>
       </c>
       <c r="D15" t="n">
-        <v>60.8175</v>
+        <v>60.1487</v>
       </c>
       <c r="E15" t="n">
-        <v>77.756</v>
+        <v>77.3531</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2571</v>
+        <v>21.1327</v>
       </c>
       <c r="C16" t="n">
-        <v>34.536</v>
+        <v>34.6625</v>
       </c>
       <c r="D16" t="n">
-        <v>62.5609</v>
+        <v>61.6821</v>
       </c>
       <c r="E16" t="n">
-        <v>79.877</v>
+        <v>78.72</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6154</v>
+        <v>21.29</v>
       </c>
       <c r="C17" t="n">
-        <v>33.865</v>
+        <v>34.7766</v>
       </c>
       <c r="D17" t="n">
-        <v>63.1148</v>
+        <v>62.6839</v>
       </c>
       <c r="E17" t="n">
-        <v>80.47669999999999</v>
+        <v>79.2958</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.80845</v>
+        <v>4.81219</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0406</v>
+        <v>11.0412</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6474</v>
+        <v>14.6131</v>
       </c>
       <c r="E2" t="n">
-        <v>19.8022</v>
+        <v>19.8021</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.38161</v>
+        <v>9.450100000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9384</v>
+        <v>19.1123</v>
       </c>
       <c r="D3" t="n">
-        <v>27.6981</v>
+        <v>27.9631</v>
       </c>
       <c r="E3" t="n">
-        <v>37.0183</v>
+        <v>36.9458</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5346</v>
+        <v>13.6226</v>
       </c>
       <c r="C4" t="n">
-        <v>26.2358</v>
+        <v>25.9637</v>
       </c>
       <c r="D4" t="n">
-        <v>39.2312</v>
+        <v>39.7488</v>
       </c>
       <c r="E4" t="n">
-        <v>51.553</v>
+        <v>52.0137</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.158</v>
+        <v>16.1134</v>
       </c>
       <c r="C5" t="n">
-        <v>26.378</v>
+        <v>26.7037</v>
       </c>
       <c r="D5" t="n">
-        <v>45.7133</v>
+        <v>45.5986</v>
       </c>
       <c r="E5" t="n">
-        <v>58.9242</v>
+        <v>57.858</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5608</v>
+        <v>19.5594</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9577</v>
+        <v>30.1783</v>
       </c>
       <c r="D6" t="n">
-        <v>54.7006</v>
+        <v>55.3228</v>
       </c>
       <c r="E6" t="n">
-        <v>71.203</v>
+        <v>69.7525</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8777</v>
+        <v>22.9218</v>
       </c>
       <c r="C7" t="n">
-        <v>35.1246</v>
+        <v>35.3532</v>
       </c>
       <c r="D7" t="n">
-        <v>65.05500000000001</v>
+        <v>65.00020000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>81.42440000000001</v>
+        <v>81.2654</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6801</v>
+        <v>20.4823</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6776</v>
+        <v>33.9508</v>
       </c>
       <c r="D8" t="n">
-        <v>55.6215</v>
+        <v>57.1601</v>
       </c>
       <c r="E8" t="n">
-        <v>71.1046</v>
+        <v>68.25239999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3685</v>
+        <v>21.0848</v>
       </c>
       <c r="C9" t="n">
-        <v>33.851</v>
+        <v>33.9344</v>
       </c>
       <c r="D9" t="n">
-        <v>53.9955</v>
+        <v>55.4815</v>
       </c>
       <c r="E9" t="n">
-        <v>70.7469</v>
+        <v>69.3715</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.3564</v>
+        <v>21.5104</v>
       </c>
       <c r="C10" t="n">
-        <v>34.1209</v>
+        <v>34.2648</v>
       </c>
       <c r="D10" t="n">
-        <v>58.2766</v>
+        <v>55.5284</v>
       </c>
       <c r="E10" t="n">
-        <v>72.6919</v>
+        <v>73.4735</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4939</v>
+        <v>21.8131</v>
       </c>
       <c r="C11" t="n">
-        <v>33.9299</v>
+        <v>33.7797</v>
       </c>
       <c r="D11" t="n">
-        <v>58.4178</v>
+        <v>57.9176</v>
       </c>
       <c r="E11" t="n">
-        <v>75.7193</v>
+        <v>76.54389999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.5216</v>
+        <v>21.4352</v>
       </c>
       <c r="C12" t="n">
-        <v>33.8235</v>
+        <v>34.3926</v>
       </c>
       <c r="D12" t="n">
-        <v>59.7332</v>
+        <v>59.8762</v>
       </c>
       <c r="E12" t="n">
-        <v>74.2754</v>
+        <v>75.3633</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5268</v>
+        <v>21.4078</v>
       </c>
       <c r="C13" t="n">
-        <v>34.4149</v>
+        <v>34.7612</v>
       </c>
       <c r="D13" t="n">
-        <v>61.7228</v>
+        <v>59.9734</v>
       </c>
       <c r="E13" t="n">
-        <v>77.6935</v>
+        <v>73.4662</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.637</v>
+        <v>21.5676</v>
       </c>
       <c r="C14" t="n">
-        <v>34.2261</v>
+        <v>34.6002</v>
       </c>
       <c r="D14" t="n">
-        <v>60.6909</v>
+        <v>58.5912</v>
       </c>
       <c r="E14" t="n">
-        <v>74.4272</v>
+        <v>76.6986</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.7303</v>
+        <v>21.4356</v>
       </c>
       <c r="C15" t="n">
-        <v>34.1317</v>
+        <v>34.5701</v>
       </c>
       <c r="D15" t="n">
-        <v>62.5468</v>
+        <v>60.2318</v>
       </c>
       <c r="E15" t="n">
-        <v>76.0582</v>
+        <v>75.4442</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3414</v>
+        <v>21.8213</v>
       </c>
       <c r="C16" t="n">
-        <v>34.3909</v>
+        <v>34.6689</v>
       </c>
       <c r="D16" t="n">
-        <v>61.1538</v>
+        <v>61.1448</v>
       </c>
       <c r="E16" t="n">
-        <v>79.1806</v>
+        <v>76.264</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.7747</v>
+        <v>21.7967</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5097</v>
+        <v>34.8689</v>
       </c>
       <c r="D17" t="n">
-        <v>62.0206</v>
+        <v>61.7246</v>
       </c>
       <c r="E17" t="n">
-        <v>78.6301</v>
+        <v>78.49420000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.918380000000001</v>
+        <v>8.9937</v>
       </c>
       <c r="C2" t="n">
-        <v>13.4741</v>
+        <v>13.5109</v>
       </c>
       <c r="D2" t="n">
-        <v>18.6509</v>
+        <v>18.6673</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4477</v>
+        <v>22.269</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7971</v>
+        <v>17.1656</v>
       </c>
       <c r="C3" t="n">
-        <v>22.0418</v>
+        <v>22.4999</v>
       </c>
       <c r="D3" t="n">
-        <v>34.6688</v>
+        <v>34.8125</v>
       </c>
       <c r="E3" t="n">
-        <v>40.4307</v>
+        <v>40.4277</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.9627</v>
+        <v>24.768</v>
       </c>
       <c r="C4" t="n">
-        <v>29.2244</v>
+        <v>30.3986</v>
       </c>
       <c r="D4" t="n">
-        <v>49.3963</v>
+        <v>49.7623</v>
       </c>
       <c r="E4" t="n">
-        <v>56.6013</v>
+        <v>57.8622</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.6395</v>
+        <v>24.432</v>
       </c>
       <c r="C5" t="n">
-        <v>29.4349</v>
+        <v>29.5299</v>
       </c>
       <c r="D5" t="n">
-        <v>54.0177</v>
+        <v>53.9767</v>
       </c>
       <c r="E5" t="n">
-        <v>62.0504</v>
+        <v>61.6026</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.3619</v>
+        <v>28.5579</v>
       </c>
       <c r="C6" t="n">
-        <v>32.7041</v>
+        <v>32.8092</v>
       </c>
       <c r="D6" t="n">
-        <v>62.6987</v>
+        <v>62.7703</v>
       </c>
       <c r="E6" t="n">
-        <v>72.9691</v>
+        <v>71.05240000000001</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.4099</v>
+        <v>34.6305</v>
       </c>
       <c r="C7" t="n">
-        <v>37.4447</v>
+        <v>37.7223</v>
       </c>
       <c r="D7" t="n">
-        <v>74.06399999999999</v>
+        <v>73.8383</v>
       </c>
       <c r="E7" t="n">
-        <v>87.3575</v>
+        <v>87.8135</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.2012</v>
+        <v>30.9347</v>
       </c>
       <c r="C8" t="n">
-        <v>36.4524</v>
+        <v>36.4592</v>
       </c>
       <c r="D8" t="n">
-        <v>69.4787</v>
+        <v>69.0134</v>
       </c>
       <c r="E8" t="n">
-        <v>82.04170000000001</v>
+        <v>82.60899999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.3133</v>
+        <v>32.6036</v>
       </c>
       <c r="C9" t="n">
-        <v>36.1542</v>
+        <v>36.5213</v>
       </c>
       <c r="D9" t="n">
-        <v>68.0522</v>
+        <v>70.1978</v>
       </c>
       <c r="E9" t="n">
-        <v>83.6223</v>
+        <v>82.3026</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.4364</v>
+        <v>32.7208</v>
       </c>
       <c r="C10" t="n">
-        <v>36.6345</v>
+        <v>36.7192</v>
       </c>
       <c r="D10" t="n">
-        <v>70.7342</v>
+        <v>71.9628</v>
       </c>
       <c r="E10" t="n">
-        <v>82.1704</v>
+        <v>84.15130000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.8436</v>
+        <v>32.6696</v>
       </c>
       <c r="C11" t="n">
-        <v>36.5024</v>
+        <v>36.7539</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0753</v>
+        <v>71.42019999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>80.4034</v>
+        <v>83.5749</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.5605</v>
+        <v>32.4988</v>
       </c>
       <c r="C12" t="n">
-        <v>36.5096</v>
+        <v>36.8827</v>
       </c>
       <c r="D12" t="n">
-        <v>70.38039999999999</v>
+        <v>71.4224</v>
       </c>
       <c r="E12" t="n">
-        <v>84.2239</v>
+        <v>83.0616</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.347</v>
+        <v>32.8455</v>
       </c>
       <c r="C13" t="n">
-        <v>36.9427</v>
+        <v>37.1092</v>
       </c>
       <c r="D13" t="n">
-        <v>71.49299999999999</v>
+        <v>72.84780000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>85.0972</v>
+        <v>83.1644</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.9893</v>
+        <v>33.1478</v>
       </c>
       <c r="C14" t="n">
-        <v>36.8966</v>
+        <v>37.1732</v>
       </c>
       <c r="D14" t="n">
-        <v>72.2867</v>
+        <v>69.89709999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>83.0317</v>
+        <v>84.36499999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.3996</v>
+        <v>33.047</v>
       </c>
       <c r="C15" t="n">
-        <v>37.0287</v>
+        <v>36.7411</v>
       </c>
       <c r="D15" t="n">
-        <v>72.4948</v>
+        <v>72.3164</v>
       </c>
       <c r="E15" t="n">
-        <v>84.23399999999999</v>
+        <v>85.5702</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.6153</v>
+        <v>33.0844</v>
       </c>
       <c r="C16" t="n">
-        <v>36.4642</v>
+        <v>36.9045</v>
       </c>
       <c r="D16" t="n">
-        <v>72.6467</v>
+        <v>71.73480000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>85.57689999999999</v>
+        <v>84.5955</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.9697</v>
+        <v>32.7502</v>
       </c>
       <c r="C17" t="n">
-        <v>36.749</v>
+        <v>36.928</v>
       </c>
       <c r="D17" t="n">
-        <v>72.96429999999999</v>
+        <v>72.2954</v>
       </c>
       <c r="E17" t="n">
-        <v>84.2978</v>
+        <v>85.8553</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4018</v>
+        <v>10.1078</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8757</v>
+        <v>12.8243</v>
       </c>
       <c r="D2" t="n">
-        <v>17.5279</v>
+        <v>17.3847</v>
       </c>
       <c r="E2" t="n">
-        <v>20.9081</v>
+        <v>21.1714</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4083</v>
+        <v>19.4655</v>
       </c>
       <c r="C3" t="n">
-        <v>19.7837</v>
+        <v>19.4042</v>
       </c>
       <c r="D3" t="n">
-        <v>27.4882</v>
+        <v>27.5116</v>
       </c>
       <c r="E3" t="n">
-        <v>32.9914</v>
+        <v>33.4504</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.7472</v>
+        <v>26.4265</v>
       </c>
       <c r="C4" t="n">
-        <v>25.393</v>
+        <v>24.5694</v>
       </c>
       <c r="D4" t="n">
-        <v>32.8195</v>
+        <v>35.1522</v>
       </c>
       <c r="E4" t="n">
-        <v>40.3576</v>
+        <v>42.1857</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9626</v>
+        <v>20.9831</v>
       </c>
       <c r="C5" t="n">
-        <v>27.0533</v>
+        <v>27.2998</v>
       </c>
       <c r="D5" t="n">
-        <v>38.2445</v>
+        <v>37.2824</v>
       </c>
       <c r="E5" t="n">
-        <v>43.6761</v>
+        <v>43.8224</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.5116</v>
+        <v>24.4436</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4999</v>
+        <v>31.1314</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6002</v>
+        <v>38.7966</v>
       </c>
       <c r="E6" t="n">
-        <v>44.0056</v>
+        <v>43.9049</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0647</v>
+        <v>29.0863</v>
       </c>
       <c r="C7" t="n">
-        <v>36.771</v>
+        <v>36.4885</v>
       </c>
       <c r="D7" t="n">
-        <v>43.5698</v>
+        <v>43.9105</v>
       </c>
       <c r="E7" t="n">
-        <v>50.492</v>
+        <v>49.2821</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.1239</v>
+        <v>21.2181</v>
       </c>
       <c r="C8" t="n">
-        <v>34.2936</v>
+        <v>34.4138</v>
       </c>
       <c r="D8" t="n">
-        <v>41.3018</v>
+        <v>42.2726</v>
       </c>
       <c r="E8" t="n">
-        <v>46.7814</v>
+        <v>46.7471</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8151</v>
+        <v>24.2024</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0953</v>
+        <v>33.8876</v>
       </c>
       <c r="D9" t="n">
-        <v>45.8686</v>
+        <v>46.5939</v>
       </c>
       <c r="E9" t="n">
-        <v>51.8241</v>
+        <v>49.5214</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.5161</v>
+        <v>26.5264</v>
       </c>
       <c r="C10" t="n">
-        <v>34.9336</v>
+        <v>34.0724</v>
       </c>
       <c r="D10" t="n">
-        <v>49.417</v>
+        <v>49.3313</v>
       </c>
       <c r="E10" t="n">
-        <v>53.1002</v>
+        <v>54.2792</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.3489</v>
+        <v>24.4927</v>
       </c>
       <c r="C11" t="n">
-        <v>34.845</v>
+        <v>34.3405</v>
       </c>
       <c r="D11" t="n">
-        <v>50.9503</v>
+        <v>54.0461</v>
       </c>
       <c r="E11" t="n">
-        <v>55.9697</v>
+        <v>59.0407</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.5409</v>
+        <v>26.5378</v>
       </c>
       <c r="C12" t="n">
-        <v>34.6343</v>
+        <v>34.5977</v>
       </c>
       <c r="D12" t="n">
-        <v>51.238</v>
+        <v>53.7141</v>
       </c>
       <c r="E12" t="n">
-        <v>61.134</v>
+        <v>60.6487</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.0808</v>
+        <v>29.0506</v>
       </c>
       <c r="C13" t="n">
-        <v>35.2061</v>
+        <v>34.8835</v>
       </c>
       <c r="D13" t="n">
-        <v>57.3349</v>
+        <v>59.1394</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5044</v>
+        <v>61.4727</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.2113</v>
+        <v>24.0095</v>
       </c>
       <c r="C14" t="n">
-        <v>35.248</v>
+        <v>34.4972</v>
       </c>
       <c r="D14" t="n">
-        <v>54.975</v>
+        <v>58.8034</v>
       </c>
       <c r="E14" t="n">
-        <v>59.6522</v>
+        <v>65.2377</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.876</v>
+        <v>25.5478</v>
       </c>
       <c r="C15" t="n">
-        <v>35.3295</v>
+        <v>34.7185</v>
       </c>
       <c r="D15" t="n">
-        <v>58.3374</v>
+        <v>58.7424</v>
       </c>
       <c r="E15" t="n">
-        <v>61.4189</v>
+        <v>64.26909999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.8784</v>
+        <v>26.8543</v>
       </c>
       <c r="C16" t="n">
-        <v>35.1238</v>
+        <v>34.2314</v>
       </c>
       <c r="D16" t="n">
-        <v>56.8752</v>
+        <v>58.8051</v>
       </c>
       <c r="E16" t="n">
-        <v>60.752</v>
+        <v>62.8728</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.8218</v>
+        <v>26.0068</v>
       </c>
       <c r="C17" t="n">
-        <v>35.0119</v>
+        <v>34.9184</v>
       </c>
       <c r="D17" t="n">
-        <v>58.3918</v>
+        <v>60.6812</v>
       </c>
       <c r="E17" t="n">
-        <v>64.5959</v>
+        <v>64.6618</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7551</v>
+        <v>10.7792</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8804</v>
+        <v>12.9194</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4171</v>
+        <v>17.564</v>
       </c>
       <c r="E2" t="n">
-        <v>20.8462</v>
+        <v>21.0405</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.126</v>
+        <v>20.1434</v>
       </c>
       <c r="C3" t="n">
-        <v>19.6631</v>
+        <v>19.5269</v>
       </c>
       <c r="D3" t="n">
-        <v>26.7176</v>
+        <v>27.2734</v>
       </c>
       <c r="E3" t="n">
-        <v>31.8916</v>
+        <v>32.2185</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.6196</v>
+        <v>27.3858</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8066</v>
+        <v>26.2596</v>
       </c>
       <c r="D4" t="n">
-        <v>34.6376</v>
+        <v>34.5482</v>
       </c>
       <c r="E4" t="n">
-        <v>37.7745</v>
+        <v>38.553</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.7684</v>
+        <v>20.5338</v>
       </c>
       <c r="C5" t="n">
-        <v>26.7341</v>
+        <v>27.0949</v>
       </c>
       <c r="D5" t="n">
-        <v>35.6091</v>
+        <v>36.7667</v>
       </c>
       <c r="E5" t="n">
-        <v>43.7762</v>
+        <v>43.7481</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9797</v>
+        <v>24.9017</v>
       </c>
       <c r="C6" t="n">
-        <v>31.3027</v>
+        <v>30.9634</v>
       </c>
       <c r="D6" t="n">
-        <v>43.5403</v>
+        <v>43.4044</v>
       </c>
       <c r="E6" t="n">
-        <v>43.9359</v>
+        <v>43.9408</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9895</v>
+        <v>29.8594</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5958</v>
+        <v>36.2112</v>
       </c>
       <c r="D7" t="n">
-        <v>43.8338</v>
+        <v>43.9061</v>
       </c>
       <c r="E7" t="n">
-        <v>50.6843</v>
+        <v>50.4689</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.8218</v>
+        <v>21.7716</v>
       </c>
       <c r="C8" t="n">
-        <v>33.831</v>
+        <v>33.0553</v>
       </c>
       <c r="D8" t="n">
-        <v>42.8025</v>
+        <v>44.0629</v>
       </c>
       <c r="E8" t="n">
-        <v>49.0692</v>
+        <v>47.692</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.408</v>
+        <v>25.1345</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8068</v>
+        <v>34.4663</v>
       </c>
       <c r="D9" t="n">
-        <v>48.2488</v>
+        <v>45.8403</v>
       </c>
       <c r="E9" t="n">
-        <v>51.53</v>
+        <v>47.9474</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.699</v>
+        <v>26.8919</v>
       </c>
       <c r="C10" t="n">
-        <v>34.4624</v>
+        <v>33.9974</v>
       </c>
       <c r="D10" t="n">
-        <v>50.0135</v>
+        <v>51.0372</v>
       </c>
       <c r="E10" t="n">
-        <v>53.8097</v>
+        <v>53.2424</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1115</v>
+        <v>24.9491</v>
       </c>
       <c r="C11" t="n">
-        <v>34.4782</v>
+        <v>34.0887</v>
       </c>
       <c r="D11" t="n">
-        <v>54.926</v>
+        <v>52.3718</v>
       </c>
       <c r="E11" t="n">
-        <v>56.2102</v>
+        <v>59.5228</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.2967</v>
+        <v>27.1651</v>
       </c>
       <c r="C12" t="n">
-        <v>34.8481</v>
+        <v>34.6173</v>
       </c>
       <c r="D12" t="n">
-        <v>54.2977</v>
+        <v>59.1103</v>
       </c>
       <c r="E12" t="n">
-        <v>59.6403</v>
+        <v>61.496</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.974</v>
+        <v>29.8257</v>
       </c>
       <c r="C13" t="n">
-        <v>35.3648</v>
+        <v>35.4309</v>
       </c>
       <c r="D13" t="n">
-        <v>56.2416</v>
+        <v>59.2431</v>
       </c>
       <c r="E13" t="n">
-        <v>60.8784</v>
+        <v>62.3425</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.4124</v>
+        <v>24.292</v>
       </c>
       <c r="C14" t="n">
-        <v>35.4003</v>
+        <v>35.4389</v>
       </c>
       <c r="D14" t="n">
-        <v>56.6237</v>
+        <v>61.5742</v>
       </c>
       <c r="E14" t="n">
-        <v>62.9319</v>
+        <v>64.94159999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.223</v>
+        <v>26.3461</v>
       </c>
       <c r="C15" t="n">
-        <v>35.5926</v>
+        <v>35.296</v>
       </c>
       <c r="D15" t="n">
-        <v>58.5448</v>
+        <v>58.5297</v>
       </c>
       <c r="E15" t="n">
-        <v>60.2388</v>
+        <v>60.9649</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.804</v>
+        <v>27.9754</v>
       </c>
       <c r="C16" t="n">
-        <v>35.5789</v>
+        <v>35.3365</v>
       </c>
       <c r="D16" t="n">
-        <v>60.4004</v>
+        <v>61.0443</v>
       </c>
       <c r="E16" t="n">
-        <v>66.9115</v>
+        <v>68.9235</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.4767</v>
+        <v>26.1122</v>
       </c>
       <c r="C17" t="n">
-        <v>35.6792</v>
+        <v>35.4094</v>
       </c>
       <c r="D17" t="n">
-        <v>57.3607</v>
+        <v>60.9692</v>
       </c>
       <c r="E17" t="n">
-        <v>61.761</v>
+        <v>66.9345</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.1074</v>
+        <v>13.0739</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0154</v>
+        <v>14.004</v>
       </c>
       <c r="D2" t="n">
-        <v>19.1688</v>
+        <v>19.1705</v>
       </c>
       <c r="E2" t="n">
-        <v>22.1429</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.4033</v>
+        <v>23.2476</v>
       </c>
       <c r="C3" t="n">
-        <v>23.8004</v>
+        <v>23.2172</v>
       </c>
       <c r="D3" t="n">
-        <v>31.1139</v>
+        <v>30.871</v>
       </c>
       <c r="E3" t="n">
-        <v>34.0345</v>
+        <v>33.8371</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0513</v>
+        <v>32.4628</v>
       </c>
       <c r="C4" t="n">
-        <v>29.5992</v>
+        <v>29.6107</v>
       </c>
       <c r="D4" t="n">
-        <v>35.2026</v>
+        <v>37.0056</v>
       </c>
       <c r="E4" t="n">
-        <v>40.0063</v>
+        <v>43.9336</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.752</v>
+        <v>26.5285</v>
       </c>
       <c r="C5" t="n">
-        <v>28.8565</v>
+        <v>28.2788</v>
       </c>
       <c r="D5" t="n">
-        <v>39.124</v>
+        <v>38.8714</v>
       </c>
       <c r="E5" t="n">
-        <v>49.9015</v>
+        <v>47.9733</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.893</v>
+        <v>31.8688</v>
       </c>
       <c r="C6" t="n">
-        <v>32.9806</v>
+        <v>32.328</v>
       </c>
       <c r="D6" t="n">
-        <v>43.9598</v>
+        <v>46.8249</v>
       </c>
       <c r="E6" t="n">
-        <v>50.4171</v>
+        <v>50.6828</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.7584</v>
+        <v>37.2867</v>
       </c>
       <c r="C7" t="n">
-        <v>38.2991</v>
+        <v>37.9327</v>
       </c>
       <c r="D7" t="n">
-        <v>49.7111</v>
+        <v>50.6159</v>
       </c>
       <c r="E7" t="n">
-        <v>58.1118</v>
+        <v>59.84</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.2553</v>
+        <v>33.7433</v>
       </c>
       <c r="C8" t="n">
-        <v>35.441</v>
+        <v>35.0826</v>
       </c>
       <c r="D8" t="n">
-        <v>49.0469</v>
+        <v>49.8386</v>
       </c>
       <c r="E8" t="n">
-        <v>59.9642</v>
+        <v>60.4161</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.6263</v>
+        <v>33.8386</v>
       </c>
       <c r="C9" t="n">
-        <v>34.6818</v>
+        <v>35.0248</v>
       </c>
       <c r="D9" t="n">
-        <v>52.5599</v>
+        <v>51.5555</v>
       </c>
       <c r="E9" t="n">
-        <v>60.0279</v>
+        <v>60.648</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.5755</v>
+        <v>34.3932</v>
       </c>
       <c r="C10" t="n">
-        <v>34.8946</v>
+        <v>35.2727</v>
       </c>
       <c r="D10" t="n">
-        <v>52.8632</v>
+        <v>59.9401</v>
       </c>
       <c r="E10" t="n">
-        <v>59.0127</v>
+        <v>61.0992</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.7702</v>
+        <v>35.0031</v>
       </c>
       <c r="C11" t="n">
-        <v>35.4231</v>
+        <v>35.2814</v>
       </c>
       <c r="D11" t="n">
-        <v>58.5736</v>
+        <v>60.5474</v>
       </c>
       <c r="E11" t="n">
-        <v>62.5388</v>
+        <v>62.2003</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.9694</v>
+        <v>34.9517</v>
       </c>
       <c r="C12" t="n">
-        <v>35.9629</v>
+        <v>35.6952</v>
       </c>
       <c r="D12" t="n">
-        <v>60.1251</v>
+        <v>58.7474</v>
       </c>
       <c r="E12" t="n">
-        <v>59.9235</v>
+        <v>65.06950000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.2488</v>
+        <v>35.1501</v>
       </c>
       <c r="C13" t="n">
-        <v>35.9064</v>
+        <v>35.1953</v>
       </c>
       <c r="D13" t="n">
-        <v>59.6362</v>
+        <v>60.7998</v>
       </c>
       <c r="E13" t="n">
-        <v>60.1779</v>
+        <v>64.5025</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.1597</v>
+        <v>35.2597</v>
       </c>
       <c r="C14" t="n">
-        <v>36.0359</v>
+        <v>35.9173</v>
       </c>
       <c r="D14" t="n">
-        <v>60.1536</v>
+        <v>62.0123</v>
       </c>
       <c r="E14" t="n">
-        <v>65.1602</v>
+        <v>67.50239999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.8346</v>
+        <v>35.6414</v>
       </c>
       <c r="C15" t="n">
-        <v>35.7068</v>
+        <v>35.7252</v>
       </c>
       <c r="D15" t="n">
-        <v>61.202</v>
+        <v>61.3412</v>
       </c>
       <c r="E15" t="n">
-        <v>61.756</v>
+        <v>66.8297</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.7014</v>
+        <v>35.84</v>
       </c>
       <c r="C16" t="n">
-        <v>35.9797</v>
+        <v>36.0563</v>
       </c>
       <c r="D16" t="n">
-        <v>60.7719</v>
+        <v>61.022</v>
       </c>
       <c r="E16" t="n">
-        <v>62.7459</v>
+        <v>61.5904</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.6102</v>
+        <v>35.2395</v>
       </c>
       <c r="C17" t="n">
-        <v>36.4942</v>
+        <v>35.7031</v>
       </c>
       <c r="D17" t="n">
-        <v>59.9094</v>
+        <v>60.4941</v>
       </c>
       <c r="E17" t="n">
-        <v>61.8878</v>
+        <v>69.3848</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.79694</v>
+        <v>4.80204</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9474</v>
+        <v>10.9935</v>
       </c>
       <c r="D2" t="n">
-        <v>14.726</v>
+        <v>14.8786</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7362</v>
+        <v>19.8308</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.379099999999999</v>
+        <v>9.35328</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0263</v>
+        <v>18.9149</v>
       </c>
       <c r="D3" t="n">
-        <v>28.0744</v>
+        <v>28.401</v>
       </c>
       <c r="E3" t="n">
-        <v>37.0524</v>
+        <v>37.4477</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5487</v>
+        <v>13.5651</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1817</v>
+        <v>26.1757</v>
       </c>
       <c r="D4" t="n">
-        <v>40.318</v>
+        <v>40.22</v>
       </c>
       <c r="E4" t="n">
-        <v>51.8949</v>
+        <v>52.3624</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8808</v>
+        <v>15.8227</v>
       </c>
       <c r="C5" t="n">
-        <v>26.7133</v>
+        <v>26.3544</v>
       </c>
       <c r="D5" t="n">
-        <v>46.1293</v>
+        <v>45.581</v>
       </c>
       <c r="E5" t="n">
-        <v>58.777</v>
+        <v>60.1952</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2961</v>
+        <v>19.2908</v>
       </c>
       <c r="C6" t="n">
-        <v>30.272</v>
+        <v>29.9397</v>
       </c>
       <c r="D6" t="n">
-        <v>55.6378</v>
+        <v>56.7267</v>
       </c>
       <c r="E6" t="n">
-        <v>69.5564</v>
+        <v>71.9586</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.5235</v>
+        <v>22.4418</v>
       </c>
       <c r="C7" t="n">
-        <v>35.3169</v>
+        <v>34.9026</v>
       </c>
       <c r="D7" t="n">
-        <v>63.7399</v>
+        <v>66.7996</v>
       </c>
       <c r="E7" t="n">
-        <v>82.1468</v>
+        <v>83.3736</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.231</v>
+        <v>20.2549</v>
       </c>
       <c r="C8" t="n">
-        <v>34.087</v>
+        <v>33.8952</v>
       </c>
       <c r="D8" t="n">
-        <v>56.5041</v>
+        <v>58.4795</v>
       </c>
       <c r="E8" t="n">
-        <v>70.7475</v>
+        <v>71.3721</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.3503</v>
+        <v>20.5583</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8224</v>
+        <v>33.8774</v>
       </c>
       <c r="D9" t="n">
-        <v>57.8602</v>
+        <v>57.0236</v>
       </c>
       <c r="E9" t="n">
-        <v>73.03740000000001</v>
+        <v>73.4958</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1373</v>
+        <v>21.1167</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9471</v>
+        <v>33.1221</v>
       </c>
       <c r="D10" t="n">
-        <v>57.3888</v>
+        <v>55.7783</v>
       </c>
       <c r="E10" t="n">
-        <v>72.5287</v>
+        <v>76.48269999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1757</v>
+        <v>21.582</v>
       </c>
       <c r="C11" t="n">
-        <v>33.8194</v>
+        <v>33.5856</v>
       </c>
       <c r="D11" t="n">
-        <v>58.5451</v>
+        <v>58.6395</v>
       </c>
       <c r="E11" t="n">
-        <v>73.9482</v>
+        <v>76.7711</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.3061</v>
+        <v>21.0992</v>
       </c>
       <c r="C12" t="n">
-        <v>34.127</v>
+        <v>33.9275</v>
       </c>
       <c r="D12" t="n">
-        <v>59.3855</v>
+        <v>60.5889</v>
       </c>
       <c r="E12" t="n">
-        <v>75.97410000000001</v>
+        <v>74.304</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0748</v>
+        <v>21.8672</v>
       </c>
       <c r="C13" t="n">
-        <v>34.6022</v>
+        <v>34.2062</v>
       </c>
       <c r="D13" t="n">
-        <v>59.0412</v>
+        <v>58.6477</v>
       </c>
       <c r="E13" t="n">
-        <v>75.5714</v>
+        <v>77.6202</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3315</v>
+        <v>21.0416</v>
       </c>
       <c r="C14" t="n">
-        <v>34.4339</v>
+        <v>34.3637</v>
       </c>
       <c r="D14" t="n">
-        <v>60.8815</v>
+        <v>61.4111</v>
       </c>
       <c r="E14" t="n">
-        <v>75.1178</v>
+        <v>79.8676</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2694</v>
+        <v>21.3037</v>
       </c>
       <c r="C15" t="n">
-        <v>34.6089</v>
+        <v>34.2912</v>
       </c>
       <c r="D15" t="n">
-        <v>60.1487</v>
+        <v>61.5902</v>
       </c>
       <c r="E15" t="n">
-        <v>77.3531</v>
+        <v>77.12649999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1327</v>
+        <v>21.4444</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6625</v>
+        <v>34.1597</v>
       </c>
       <c r="D16" t="n">
-        <v>61.6821</v>
+        <v>63.3896</v>
       </c>
       <c r="E16" t="n">
-        <v>78.72</v>
+        <v>78.90779999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.29</v>
+        <v>21.411</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7766</v>
+        <v>34.403</v>
       </c>
       <c r="D17" t="n">
-        <v>62.6839</v>
+        <v>63.0859</v>
       </c>
       <c r="E17" t="n">
-        <v>79.2958</v>
+        <v>80.1421</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.81219</v>
+        <v>4.81762</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0412</v>
+        <v>11.0315</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6131</v>
+        <v>14.7328</v>
       </c>
       <c r="E2" t="n">
-        <v>19.8021</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.450100000000001</v>
+        <v>9.451230000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>19.1123</v>
+        <v>19.1446</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9631</v>
+        <v>28.268</v>
       </c>
       <c r="E3" t="n">
-        <v>36.9458</v>
+        <v>37.6481</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.6226</v>
+        <v>13.6972</v>
       </c>
       <c r="C4" t="n">
-        <v>25.9637</v>
+        <v>26.6772</v>
       </c>
       <c r="D4" t="n">
-        <v>39.7488</v>
+        <v>40.3573</v>
       </c>
       <c r="E4" t="n">
-        <v>52.0137</v>
+        <v>52.0239</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.1134</v>
+        <v>16.0921</v>
       </c>
       <c r="C5" t="n">
-        <v>26.7037</v>
+        <v>26.1889</v>
       </c>
       <c r="D5" t="n">
-        <v>45.5986</v>
+        <v>45.1661</v>
       </c>
       <c r="E5" t="n">
-        <v>57.858</v>
+        <v>58.9426</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5594</v>
+        <v>19.5408</v>
       </c>
       <c r="C6" t="n">
-        <v>30.1783</v>
+        <v>29.7094</v>
       </c>
       <c r="D6" t="n">
-        <v>55.3228</v>
+        <v>55.4018</v>
       </c>
       <c r="E6" t="n">
-        <v>69.7525</v>
+        <v>71.4986</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.9218</v>
+        <v>22.8407</v>
       </c>
       <c r="C7" t="n">
-        <v>35.3532</v>
+        <v>34.8746</v>
       </c>
       <c r="D7" t="n">
-        <v>65.00020000000001</v>
+        <v>65.6871</v>
       </c>
       <c r="E7" t="n">
-        <v>81.2654</v>
+        <v>82.6147</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4823</v>
+        <v>20.4287</v>
       </c>
       <c r="C8" t="n">
-        <v>33.9508</v>
+        <v>33.5539</v>
       </c>
       <c r="D8" t="n">
-        <v>57.1601</v>
+        <v>56.5087</v>
       </c>
       <c r="E8" t="n">
-        <v>68.25239999999999</v>
+        <v>72.39830000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0848</v>
+        <v>20.8237</v>
       </c>
       <c r="C9" t="n">
-        <v>33.9344</v>
+        <v>33.809</v>
       </c>
       <c r="D9" t="n">
-        <v>55.4815</v>
+        <v>55.9825</v>
       </c>
       <c r="E9" t="n">
-        <v>69.3715</v>
+        <v>74.9466</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.5104</v>
+        <v>21.8011</v>
       </c>
       <c r="C10" t="n">
-        <v>34.2648</v>
+        <v>33.2417</v>
       </c>
       <c r="D10" t="n">
-        <v>55.5284</v>
+        <v>57.3221</v>
       </c>
       <c r="E10" t="n">
-        <v>73.4735</v>
+        <v>76.9363</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8131</v>
+        <v>21.7329</v>
       </c>
       <c r="C11" t="n">
-        <v>33.7797</v>
+        <v>34.1861</v>
       </c>
       <c r="D11" t="n">
-        <v>57.9176</v>
+        <v>58.4526</v>
       </c>
       <c r="E11" t="n">
-        <v>76.54389999999999</v>
+        <v>77.4483</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4352</v>
+        <v>21.6278</v>
       </c>
       <c r="C12" t="n">
-        <v>34.3926</v>
+        <v>33.6965</v>
       </c>
       <c r="D12" t="n">
-        <v>59.8762</v>
+        <v>58.5874</v>
       </c>
       <c r="E12" t="n">
-        <v>75.3633</v>
+        <v>77.5946</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4078</v>
+        <v>21.7199</v>
       </c>
       <c r="C13" t="n">
-        <v>34.7612</v>
+        <v>34.3233</v>
       </c>
       <c r="D13" t="n">
-        <v>59.9734</v>
+        <v>59.4623</v>
       </c>
       <c r="E13" t="n">
-        <v>73.4662</v>
+        <v>77.7966</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5676</v>
+        <v>21.8803</v>
       </c>
       <c r="C14" t="n">
-        <v>34.6002</v>
+        <v>34.3083</v>
       </c>
       <c r="D14" t="n">
-        <v>58.5912</v>
+        <v>60.5245</v>
       </c>
       <c r="E14" t="n">
-        <v>76.6986</v>
+        <v>76.6328</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4356</v>
+        <v>21.6137</v>
       </c>
       <c r="C15" t="n">
-        <v>34.5701</v>
+        <v>33.9641</v>
       </c>
       <c r="D15" t="n">
-        <v>60.2318</v>
+        <v>60.7815</v>
       </c>
       <c r="E15" t="n">
-        <v>75.4442</v>
+        <v>78.7008</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.8213</v>
+        <v>21.8078</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6689</v>
+        <v>34.1844</v>
       </c>
       <c r="D16" t="n">
-        <v>61.1448</v>
+        <v>62.4344</v>
       </c>
       <c r="E16" t="n">
-        <v>76.264</v>
+        <v>78.626</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.7967</v>
+        <v>21.5942</v>
       </c>
       <c r="C17" t="n">
-        <v>34.8689</v>
+        <v>34.3624</v>
       </c>
       <c r="D17" t="n">
-        <v>61.7246</v>
+        <v>61.8494</v>
       </c>
       <c r="E17" t="n">
-        <v>78.49420000000001</v>
+        <v>80.9631</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.9937</v>
+        <v>8.985530000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5109</v>
+        <v>13.5712</v>
       </c>
       <c r="D2" t="n">
-        <v>18.6673</v>
+        <v>18.7491</v>
       </c>
       <c r="E2" t="n">
-        <v>22.269</v>
+        <v>22.3259</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.1656</v>
+        <v>17.2438</v>
       </c>
       <c r="C3" t="n">
-        <v>22.4999</v>
+        <v>22.8534</v>
       </c>
       <c r="D3" t="n">
-        <v>34.8125</v>
+        <v>34.9739</v>
       </c>
       <c r="E3" t="n">
-        <v>40.4277</v>
+        <v>41.1401</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.768</v>
+        <v>24.8301</v>
       </c>
       <c r="C4" t="n">
-        <v>30.3986</v>
+        <v>30.0708</v>
       </c>
       <c r="D4" t="n">
-        <v>49.7623</v>
+        <v>49.9719</v>
       </c>
       <c r="E4" t="n">
-        <v>57.8622</v>
+        <v>58.517</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.432</v>
+        <v>24.3948</v>
       </c>
       <c r="C5" t="n">
-        <v>29.5299</v>
+        <v>29.2164</v>
       </c>
       <c r="D5" t="n">
-        <v>53.9767</v>
+        <v>54.2679</v>
       </c>
       <c r="E5" t="n">
-        <v>61.6026</v>
+        <v>64.31010000000001</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.5579</v>
+        <v>28.4437</v>
       </c>
       <c r="C6" t="n">
-        <v>32.8092</v>
+        <v>32.3463</v>
       </c>
       <c r="D6" t="n">
-        <v>62.7703</v>
+        <v>63.9493</v>
       </c>
       <c r="E6" t="n">
-        <v>71.05240000000001</v>
+        <v>75.24509999999999</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.6305</v>
+        <v>34.4823</v>
       </c>
       <c r="C7" t="n">
-        <v>37.7223</v>
+        <v>37.0298</v>
       </c>
       <c r="D7" t="n">
-        <v>73.8383</v>
+        <v>75.0145</v>
       </c>
       <c r="E7" t="n">
-        <v>87.8135</v>
+        <v>90.23909999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.9347</v>
+        <v>31.3306</v>
       </c>
       <c r="C8" t="n">
-        <v>36.4592</v>
+        <v>36.3032</v>
       </c>
       <c r="D8" t="n">
-        <v>69.0134</v>
+        <v>70.741</v>
       </c>
       <c r="E8" t="n">
-        <v>82.60899999999999</v>
+        <v>83.66840000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.6036</v>
+        <v>31.9698</v>
       </c>
       <c r="C9" t="n">
-        <v>36.5213</v>
+        <v>36.1238</v>
       </c>
       <c r="D9" t="n">
-        <v>70.1978</v>
+        <v>73.5963</v>
       </c>
       <c r="E9" t="n">
-        <v>82.3026</v>
+        <v>84.2077</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.7208</v>
+        <v>32.4457</v>
       </c>
       <c r="C10" t="n">
-        <v>36.7192</v>
+        <v>36.6576</v>
       </c>
       <c r="D10" t="n">
-        <v>71.9628</v>
+        <v>73.5607</v>
       </c>
       <c r="E10" t="n">
-        <v>84.15130000000001</v>
+        <v>83.3772</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.6696</v>
+        <v>32.5467</v>
       </c>
       <c r="C11" t="n">
-        <v>36.7539</v>
+        <v>36.5841</v>
       </c>
       <c r="D11" t="n">
-        <v>71.42019999999999</v>
+        <v>73.7009</v>
       </c>
       <c r="E11" t="n">
-        <v>83.5749</v>
+        <v>86.41370000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4988</v>
+        <v>32.4814</v>
       </c>
       <c r="C12" t="n">
-        <v>36.8827</v>
+        <v>36.7197</v>
       </c>
       <c r="D12" t="n">
-        <v>71.4224</v>
+        <v>72.9996</v>
       </c>
       <c r="E12" t="n">
-        <v>83.0616</v>
+        <v>84.98480000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.8455</v>
+        <v>32.2607</v>
       </c>
       <c r="C13" t="n">
-        <v>37.1092</v>
+        <v>36.7107</v>
       </c>
       <c r="D13" t="n">
-        <v>72.84780000000001</v>
+        <v>74.52930000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>83.1644</v>
+        <v>86.2775</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.1478</v>
+        <v>32.7856</v>
       </c>
       <c r="C14" t="n">
-        <v>37.1732</v>
+        <v>36.7812</v>
       </c>
       <c r="D14" t="n">
-        <v>69.89709999999999</v>
+        <v>73.0107</v>
       </c>
       <c r="E14" t="n">
-        <v>84.36499999999999</v>
+        <v>88.30329999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.047</v>
+        <v>32.6836</v>
       </c>
       <c r="C15" t="n">
-        <v>36.7411</v>
+        <v>36.7772</v>
       </c>
       <c r="D15" t="n">
-        <v>72.3164</v>
+        <v>74.9395</v>
       </c>
       <c r="E15" t="n">
-        <v>85.5702</v>
+        <v>87.1121</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.0844</v>
+        <v>32.9257</v>
       </c>
       <c r="C16" t="n">
-        <v>36.9045</v>
+        <v>36.6207</v>
       </c>
       <c r="D16" t="n">
-        <v>71.73480000000001</v>
+        <v>75.4344</v>
       </c>
       <c r="E16" t="n">
-        <v>84.5955</v>
+        <v>87.4983</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.7502</v>
+        <v>33.4305</v>
       </c>
       <c r="C17" t="n">
-        <v>36.928</v>
+        <v>36.8746</v>
       </c>
       <c r="D17" t="n">
-        <v>72.2954</v>
+        <v>73.43729999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>85.8553</v>
+        <v>87.4896</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1078</v>
+        <v>10.3353</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8243</v>
+        <v>12.9162</v>
       </c>
       <c r="D2" t="n">
-        <v>17.3847</v>
+        <v>17.6224</v>
       </c>
       <c r="E2" t="n">
-        <v>21.1714</v>
+        <v>21.0035</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.4655</v>
+        <v>19.6415</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4042</v>
+        <v>19.5831</v>
       </c>
       <c r="D3" t="n">
-        <v>27.5116</v>
+        <v>27.626</v>
       </c>
       <c r="E3" t="n">
-        <v>33.4504</v>
+        <v>32.2651</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.4265</v>
+        <v>27.103</v>
       </c>
       <c r="C4" t="n">
-        <v>24.5694</v>
+        <v>24.9402</v>
       </c>
       <c r="D4" t="n">
-        <v>35.1522</v>
+        <v>32.363</v>
       </c>
       <c r="E4" t="n">
-        <v>42.1857</v>
+        <v>40.9239</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9831</v>
+        <v>20.8042</v>
       </c>
       <c r="C5" t="n">
-        <v>27.2998</v>
+        <v>26.6177</v>
       </c>
       <c r="D5" t="n">
-        <v>37.2824</v>
+        <v>36.0215</v>
       </c>
       <c r="E5" t="n">
-        <v>43.8224</v>
+        <v>43.7527</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.4436</v>
+        <v>24.3633</v>
       </c>
       <c r="C6" t="n">
-        <v>31.1314</v>
+        <v>31.2212</v>
       </c>
       <c r="D6" t="n">
-        <v>38.7966</v>
+        <v>38.7749</v>
       </c>
       <c r="E6" t="n">
-        <v>43.9049</v>
+        <v>44.0434</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0863</v>
+        <v>28.9823</v>
       </c>
       <c r="C7" t="n">
-        <v>36.4885</v>
+        <v>36.5705</v>
       </c>
       <c r="D7" t="n">
-        <v>43.9105</v>
+        <v>43.0315</v>
       </c>
       <c r="E7" t="n">
-        <v>49.2821</v>
+        <v>48.593</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.2181</v>
+        <v>21.3553</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4138</v>
+        <v>33.5003</v>
       </c>
       <c r="D8" t="n">
-        <v>42.2726</v>
+        <v>41.619</v>
       </c>
       <c r="E8" t="n">
-        <v>46.7471</v>
+        <v>46.3349</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.2024</v>
+        <v>24.1157</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8876</v>
+        <v>34.1396</v>
       </c>
       <c r="D9" t="n">
-        <v>46.5939</v>
+        <v>44.8548</v>
       </c>
       <c r="E9" t="n">
-        <v>49.5214</v>
+        <v>52.3026</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.5264</v>
+        <v>26.7611</v>
       </c>
       <c r="C10" t="n">
-        <v>34.0724</v>
+        <v>34.5219</v>
       </c>
       <c r="D10" t="n">
-        <v>49.3313</v>
+        <v>48.56</v>
       </c>
       <c r="E10" t="n">
-        <v>54.2792</v>
+        <v>54.9131</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4927</v>
+        <v>24.1433</v>
       </c>
       <c r="C11" t="n">
-        <v>34.3405</v>
+        <v>34.8678</v>
       </c>
       <c r="D11" t="n">
-        <v>54.0461</v>
+        <v>51.1902</v>
       </c>
       <c r="E11" t="n">
-        <v>59.0407</v>
+        <v>55.3803</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.5378</v>
+        <v>26.3433</v>
       </c>
       <c r="C12" t="n">
-        <v>34.5977</v>
+        <v>34.7774</v>
       </c>
       <c r="D12" t="n">
-        <v>53.7141</v>
+        <v>51.2644</v>
       </c>
       <c r="E12" t="n">
-        <v>60.6487</v>
+        <v>60.4635</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.0506</v>
+        <v>28.9516</v>
       </c>
       <c r="C13" t="n">
-        <v>34.8835</v>
+        <v>35.0515</v>
       </c>
       <c r="D13" t="n">
-        <v>59.1394</v>
+        <v>52.6484</v>
       </c>
       <c r="E13" t="n">
-        <v>61.4727</v>
+        <v>60.7288</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0095</v>
+        <v>23.9822</v>
       </c>
       <c r="C14" t="n">
-        <v>34.4972</v>
+        <v>35.0101</v>
       </c>
       <c r="D14" t="n">
-        <v>58.8034</v>
+        <v>50.7924</v>
       </c>
       <c r="E14" t="n">
-        <v>65.2377</v>
+        <v>60.0182</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.5478</v>
+        <v>25.72</v>
       </c>
       <c r="C15" t="n">
-        <v>34.7185</v>
+        <v>34.7398</v>
       </c>
       <c r="D15" t="n">
-        <v>58.7424</v>
+        <v>51.1506</v>
       </c>
       <c r="E15" t="n">
-        <v>64.26909999999999</v>
+        <v>61.3533</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.8543</v>
+        <v>27.4818</v>
       </c>
       <c r="C16" t="n">
-        <v>34.2314</v>
+        <v>34.5644</v>
       </c>
       <c r="D16" t="n">
-        <v>58.8051</v>
+        <v>51.532</v>
       </c>
       <c r="E16" t="n">
-        <v>62.8728</v>
+        <v>61.4525</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.0068</v>
+        <v>25.5812</v>
       </c>
       <c r="C17" t="n">
-        <v>34.9184</v>
+        <v>34.9838</v>
       </c>
       <c r="D17" t="n">
-        <v>60.6812</v>
+        <v>51.3723</v>
       </c>
       <c r="E17" t="n">
-        <v>64.6618</v>
+        <v>61.4054</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7792</v>
+        <v>10.7427</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9194</v>
+        <v>12.9168</v>
       </c>
       <c r="D2" t="n">
-        <v>17.564</v>
+        <v>17.4783</v>
       </c>
       <c r="E2" t="n">
-        <v>21.0405</v>
+        <v>20.8108</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.1434</v>
+        <v>19.9489</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5269</v>
+        <v>19.8592</v>
       </c>
       <c r="D3" t="n">
-        <v>27.2734</v>
+        <v>25.8413</v>
       </c>
       <c r="E3" t="n">
-        <v>32.2185</v>
+        <v>30.2622</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.3858</v>
+        <v>27.4103</v>
       </c>
       <c r="C4" t="n">
-        <v>26.2596</v>
+        <v>25.2991</v>
       </c>
       <c r="D4" t="n">
-        <v>34.5482</v>
+        <v>34.9987</v>
       </c>
       <c r="E4" t="n">
-        <v>38.553</v>
+        <v>38.8245</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.5338</v>
+        <v>20.634</v>
       </c>
       <c r="C5" t="n">
-        <v>27.0949</v>
+        <v>26.509</v>
       </c>
       <c r="D5" t="n">
-        <v>36.7667</v>
+        <v>37.104</v>
       </c>
       <c r="E5" t="n">
-        <v>43.7481</v>
+        <v>40.1022</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9017</v>
+        <v>24.8428</v>
       </c>
       <c r="C6" t="n">
-        <v>30.9634</v>
+        <v>31.0606</v>
       </c>
       <c r="D6" t="n">
-        <v>43.4044</v>
+        <v>38.878</v>
       </c>
       <c r="E6" t="n">
-        <v>43.9408</v>
+        <v>45.5811</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.8594</v>
+        <v>29.7724</v>
       </c>
       <c r="C7" t="n">
-        <v>36.2112</v>
+        <v>36.192</v>
       </c>
       <c r="D7" t="n">
-        <v>43.9061</v>
+        <v>44.1808</v>
       </c>
       <c r="E7" t="n">
-        <v>50.4689</v>
+        <v>50.8079</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.7716</v>
+        <v>21.8202</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0553</v>
+        <v>33.5837</v>
       </c>
       <c r="D8" t="n">
-        <v>44.0629</v>
+        <v>42.1698</v>
       </c>
       <c r="E8" t="n">
-        <v>47.692</v>
+        <v>48.2573</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.1345</v>
+        <v>25.1855</v>
       </c>
       <c r="C9" t="n">
-        <v>34.4663</v>
+        <v>33.716</v>
       </c>
       <c r="D9" t="n">
-        <v>45.8403</v>
+        <v>47.2859</v>
       </c>
       <c r="E9" t="n">
-        <v>47.9474</v>
+        <v>51.618</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.8919</v>
+        <v>27.7453</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9974</v>
+        <v>33.9938</v>
       </c>
       <c r="D10" t="n">
-        <v>51.0372</v>
+        <v>47.6181</v>
       </c>
       <c r="E10" t="n">
-        <v>53.2424</v>
+        <v>52.4577</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9491</v>
+        <v>24.5545</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0887</v>
+        <v>34.0522</v>
       </c>
       <c r="D11" t="n">
-        <v>52.3718</v>
+        <v>52.0488</v>
       </c>
       <c r="E11" t="n">
-        <v>59.5228</v>
+        <v>58.9312</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1651</v>
+        <v>27.1234</v>
       </c>
       <c r="C12" t="n">
-        <v>34.6173</v>
+        <v>34.2485</v>
       </c>
       <c r="D12" t="n">
-        <v>59.1103</v>
+        <v>51.3118</v>
       </c>
       <c r="E12" t="n">
-        <v>61.496</v>
+        <v>61.1154</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8257</v>
+        <v>29.6908</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4309</v>
+        <v>34.9754</v>
       </c>
       <c r="D13" t="n">
-        <v>59.2431</v>
+        <v>51.939</v>
       </c>
       <c r="E13" t="n">
-        <v>62.3425</v>
+        <v>61.2091</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.292</v>
+        <v>24.5043</v>
       </c>
       <c r="C14" t="n">
-        <v>35.4389</v>
+        <v>34.8409</v>
       </c>
       <c r="D14" t="n">
-        <v>61.5742</v>
+        <v>52.4495</v>
       </c>
       <c r="E14" t="n">
-        <v>64.94159999999999</v>
+        <v>60.9862</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.3461</v>
+        <v>26.3352</v>
       </c>
       <c r="C15" t="n">
-        <v>35.296</v>
+        <v>35.4125</v>
       </c>
       <c r="D15" t="n">
-        <v>58.5297</v>
+        <v>51.5036</v>
       </c>
       <c r="E15" t="n">
-        <v>60.9649</v>
+        <v>60.547</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.9754</v>
+        <v>28.2931</v>
       </c>
       <c r="C16" t="n">
-        <v>35.3365</v>
+        <v>35.0917</v>
       </c>
       <c r="D16" t="n">
-        <v>61.0443</v>
+        <v>51.4311</v>
       </c>
       <c r="E16" t="n">
-        <v>68.9235</v>
+        <v>60.9358</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.1122</v>
+        <v>25.948</v>
       </c>
       <c r="C17" t="n">
-        <v>35.4094</v>
+        <v>35.437</v>
       </c>
       <c r="D17" t="n">
-        <v>60.9692</v>
+        <v>53.198</v>
       </c>
       <c r="E17" t="n">
-        <v>66.9345</v>
+        <v>60.9229</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0739</v>
+        <v>13.0771</v>
       </c>
       <c r="C2" t="n">
-        <v>14.004</v>
+        <v>13.9962</v>
       </c>
       <c r="D2" t="n">
-        <v>19.1705</v>
+        <v>19.1642</v>
       </c>
       <c r="E2" t="n">
-        <v>22.31</v>
+        <v>22.1707</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.2476</v>
+        <v>23.1779</v>
       </c>
       <c r="C3" t="n">
-        <v>23.2172</v>
+        <v>23.2873</v>
       </c>
       <c r="D3" t="n">
-        <v>30.871</v>
+        <v>30.7737</v>
       </c>
       <c r="E3" t="n">
-        <v>33.8371</v>
+        <v>33.312</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.4628</v>
+        <v>32.4327</v>
       </c>
       <c r="C4" t="n">
-        <v>29.6107</v>
+        <v>29.7471</v>
       </c>
       <c r="D4" t="n">
-        <v>37.0056</v>
+        <v>35.9997</v>
       </c>
       <c r="E4" t="n">
-        <v>43.9336</v>
+        <v>40.4452</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.5285</v>
+        <v>26.8697</v>
       </c>
       <c r="C5" t="n">
-        <v>28.2788</v>
+        <v>28.7229</v>
       </c>
       <c r="D5" t="n">
-        <v>38.8714</v>
+        <v>40.891</v>
       </c>
       <c r="E5" t="n">
-        <v>47.9733</v>
+        <v>49.7933</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.8688</v>
+        <v>31.6311</v>
       </c>
       <c r="C6" t="n">
-        <v>32.328</v>
+        <v>32.6764</v>
       </c>
       <c r="D6" t="n">
-        <v>46.8249</v>
+        <v>45.1918</v>
       </c>
       <c r="E6" t="n">
-        <v>50.6828</v>
+        <v>50.3969</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.2867</v>
+        <v>37.4372</v>
       </c>
       <c r="C7" t="n">
-        <v>37.9327</v>
+        <v>38.0034</v>
       </c>
       <c r="D7" t="n">
-        <v>50.6159</v>
+        <v>50.5115</v>
       </c>
       <c r="E7" t="n">
-        <v>59.84</v>
+        <v>56.8989</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.7433</v>
+        <v>34.3752</v>
       </c>
       <c r="C8" t="n">
-        <v>35.0826</v>
+        <v>34.4565</v>
       </c>
       <c r="D8" t="n">
-        <v>49.8386</v>
+        <v>49.5911</v>
       </c>
       <c r="E8" t="n">
-        <v>60.4161</v>
+        <v>58.8787</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.8386</v>
+        <v>34.0107</v>
       </c>
       <c r="C9" t="n">
-        <v>35.0248</v>
+        <v>34.1159</v>
       </c>
       <c r="D9" t="n">
-        <v>51.5555</v>
+        <v>56.0544</v>
       </c>
       <c r="E9" t="n">
-        <v>60.648</v>
+        <v>56.4601</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.3932</v>
+        <v>33.8807</v>
       </c>
       <c r="C10" t="n">
-        <v>35.2727</v>
+        <v>34.6024</v>
       </c>
       <c r="D10" t="n">
-        <v>59.9401</v>
+        <v>55.3886</v>
       </c>
       <c r="E10" t="n">
-        <v>61.0992</v>
+        <v>58.8426</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.0031</v>
+        <v>34.2064</v>
       </c>
       <c r="C11" t="n">
-        <v>35.2814</v>
+        <v>35.0936</v>
       </c>
       <c r="D11" t="n">
-        <v>60.5474</v>
+        <v>58.1081</v>
       </c>
       <c r="E11" t="n">
-        <v>62.2003</v>
+        <v>60.0993</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.9517</v>
+        <v>34.5932</v>
       </c>
       <c r="C12" t="n">
-        <v>35.6952</v>
+        <v>35.3689</v>
       </c>
       <c r="D12" t="n">
-        <v>58.7474</v>
+        <v>58.0902</v>
       </c>
       <c r="E12" t="n">
-        <v>65.06950000000001</v>
+        <v>61.0458</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.1501</v>
+        <v>34.5036</v>
       </c>
       <c r="C13" t="n">
-        <v>35.1953</v>
+        <v>35.5871</v>
       </c>
       <c r="D13" t="n">
-        <v>60.7998</v>
+        <v>56.8471</v>
       </c>
       <c r="E13" t="n">
-        <v>64.5025</v>
+        <v>60.9941</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.2597</v>
+        <v>34.965</v>
       </c>
       <c r="C14" t="n">
-        <v>35.9173</v>
+        <v>35.8922</v>
       </c>
       <c r="D14" t="n">
-        <v>62.0123</v>
+        <v>58.3981</v>
       </c>
       <c r="E14" t="n">
-        <v>67.50239999999999</v>
+        <v>61.6829</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.6414</v>
+        <v>35.2483</v>
       </c>
       <c r="C15" t="n">
-        <v>35.7252</v>
+        <v>35.6464</v>
       </c>
       <c r="D15" t="n">
-        <v>61.3412</v>
+        <v>56.6791</v>
       </c>
       <c r="E15" t="n">
-        <v>66.8297</v>
+        <v>61.7648</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.84</v>
+        <v>35.5313</v>
       </c>
       <c r="C16" t="n">
-        <v>36.0563</v>
+        <v>36.1139</v>
       </c>
       <c r="D16" t="n">
-        <v>61.022</v>
+        <v>58.2711</v>
       </c>
       <c r="E16" t="n">
-        <v>61.5904</v>
+        <v>60.5206</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.2395</v>
+        <v>35.3151</v>
       </c>
       <c r="C17" t="n">
-        <v>35.7031</v>
+        <v>36.1875</v>
       </c>
       <c r="D17" t="n">
-        <v>60.4941</v>
+        <v>59.3846</v>
       </c>
       <c r="E17" t="n">
-        <v>69.3848</v>
+        <v>61.0641</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.80204</v>
+        <v>4.76222</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9935</v>
+        <v>10.9649</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8786</v>
+        <v>14.7788</v>
       </c>
       <c r="E2" t="n">
-        <v>19.8308</v>
+        <v>19.6955</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.35328</v>
+        <v>9.28867</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9149</v>
+        <v>18.9919</v>
       </c>
       <c r="D3" t="n">
-        <v>28.401</v>
+        <v>27.9601</v>
       </c>
       <c r="E3" t="n">
-        <v>37.4477</v>
+        <v>36.6449</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5651</v>
+        <v>13.3618</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1757</v>
+        <v>26.0529</v>
       </c>
       <c r="D4" t="n">
-        <v>40.22</v>
+        <v>39.5712</v>
       </c>
       <c r="E4" t="n">
-        <v>52.3624</v>
+        <v>51.0611</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8227</v>
+        <v>15.7565</v>
       </c>
       <c r="C5" t="n">
-        <v>26.3544</v>
+        <v>26.5646</v>
       </c>
       <c r="D5" t="n">
-        <v>45.581</v>
+        <v>43.6621</v>
       </c>
       <c r="E5" t="n">
-        <v>60.1952</v>
+        <v>57.6819</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2908</v>
+        <v>19.0232</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9397</v>
+        <v>29.8327</v>
       </c>
       <c r="D6" t="n">
-        <v>56.7267</v>
+        <v>52.8695</v>
       </c>
       <c r="E6" t="n">
-        <v>71.9586</v>
+        <v>68.2004</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4418</v>
+        <v>22.2075</v>
       </c>
       <c r="C7" t="n">
-        <v>34.9026</v>
+        <v>34.9602</v>
       </c>
       <c r="D7" t="n">
-        <v>66.7996</v>
+        <v>62.6911</v>
       </c>
       <c r="E7" t="n">
-        <v>83.3736</v>
+        <v>80.6666</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.2549</v>
+        <v>20.0418</v>
       </c>
       <c r="C8" t="n">
-        <v>33.8952</v>
+        <v>33.404</v>
       </c>
       <c r="D8" t="n">
-        <v>58.4795</v>
+        <v>57.8368</v>
       </c>
       <c r="E8" t="n">
-        <v>71.3721</v>
+        <v>70.869</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5583</v>
+        <v>20.7021</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8774</v>
+        <v>33.7481</v>
       </c>
       <c r="D9" t="n">
-        <v>57.0236</v>
+        <v>58.1255</v>
       </c>
       <c r="E9" t="n">
-        <v>73.4958</v>
+        <v>71.0819</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1167</v>
+        <v>20.833</v>
       </c>
       <c r="C10" t="n">
-        <v>33.1221</v>
+        <v>33.6547</v>
       </c>
       <c r="D10" t="n">
-        <v>55.7783</v>
+        <v>58.6886</v>
       </c>
       <c r="E10" t="n">
-        <v>76.48269999999999</v>
+        <v>72.6048</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.582</v>
+        <v>20.9696</v>
       </c>
       <c r="C11" t="n">
-        <v>33.5856</v>
+        <v>33.5498</v>
       </c>
       <c r="D11" t="n">
-        <v>58.6395</v>
+        <v>59.0313</v>
       </c>
       <c r="E11" t="n">
-        <v>76.7711</v>
+        <v>73.74509999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.0992</v>
+        <v>20.8039</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9275</v>
+        <v>33.8439</v>
       </c>
       <c r="D12" t="n">
-        <v>60.5889</v>
+        <v>59.961</v>
       </c>
       <c r="E12" t="n">
-        <v>74.304</v>
+        <v>77.69110000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.8672</v>
+        <v>20.822</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2062</v>
+        <v>34.2926</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6477</v>
+        <v>61.2288</v>
       </c>
       <c r="E13" t="n">
-        <v>77.6202</v>
+        <v>78.1914</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.0416</v>
+        <v>21.1423</v>
       </c>
       <c r="C14" t="n">
-        <v>34.3637</v>
+        <v>34.0818</v>
       </c>
       <c r="D14" t="n">
-        <v>61.4111</v>
+        <v>59.232</v>
       </c>
       <c r="E14" t="n">
-        <v>79.8676</v>
+        <v>77.4572</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.3037</v>
+        <v>20.9042</v>
       </c>
       <c r="C15" t="n">
-        <v>34.2912</v>
+        <v>34.2273</v>
       </c>
       <c r="D15" t="n">
-        <v>61.5902</v>
+        <v>59.8118</v>
       </c>
       <c r="E15" t="n">
-        <v>77.12649999999999</v>
+        <v>78.7718</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.4444</v>
+        <v>21.1294</v>
       </c>
       <c r="C16" t="n">
-        <v>34.1597</v>
+        <v>34.5438</v>
       </c>
       <c r="D16" t="n">
-        <v>63.3896</v>
+        <v>60.9123</v>
       </c>
       <c r="E16" t="n">
-        <v>78.90779999999999</v>
+        <v>77.7465</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.411</v>
+        <v>21.1927</v>
       </c>
       <c r="C17" t="n">
-        <v>34.403</v>
+        <v>34.4554</v>
       </c>
       <c r="D17" t="n">
-        <v>63.0859</v>
+        <v>60.0915</v>
       </c>
       <c r="E17" t="n">
-        <v>80.1421</v>
+        <v>79.3985</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.81762</v>
+        <v>4.78027</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0315</v>
+        <v>11.0556</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7328</v>
+        <v>14.6536</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>19.7283</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.451230000000001</v>
+        <v>9.29847</v>
       </c>
       <c r="C3" t="n">
-        <v>19.1446</v>
+        <v>19.0495</v>
       </c>
       <c r="D3" t="n">
-        <v>28.268</v>
+        <v>27.9357</v>
       </c>
       <c r="E3" t="n">
-        <v>37.6481</v>
+        <v>36.6326</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.6972</v>
+        <v>13.4909</v>
       </c>
       <c r="C4" t="n">
-        <v>26.6772</v>
+        <v>26.7819</v>
       </c>
       <c r="D4" t="n">
-        <v>40.3573</v>
+        <v>39.4039</v>
       </c>
       <c r="E4" t="n">
-        <v>52.0239</v>
+        <v>51.3439</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0921</v>
+        <v>15.8746</v>
       </c>
       <c r="C5" t="n">
-        <v>26.1889</v>
+        <v>26.3176</v>
       </c>
       <c r="D5" t="n">
-        <v>45.1661</v>
+        <v>44.173</v>
       </c>
       <c r="E5" t="n">
-        <v>58.9426</v>
+        <v>57.4339</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5408</v>
+        <v>19.2819</v>
       </c>
       <c r="C6" t="n">
-        <v>29.7094</v>
+        <v>30.0798</v>
       </c>
       <c r="D6" t="n">
-        <v>55.4018</v>
+        <v>52.8659</v>
       </c>
       <c r="E6" t="n">
-        <v>71.4986</v>
+        <v>68.373</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8407</v>
+        <v>22.5713</v>
       </c>
       <c r="C7" t="n">
-        <v>34.8746</v>
+        <v>35.0535</v>
       </c>
       <c r="D7" t="n">
-        <v>65.6871</v>
+        <v>62.5672</v>
       </c>
       <c r="E7" t="n">
-        <v>82.6147</v>
+        <v>79.926</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4287</v>
+        <v>20.3681</v>
       </c>
       <c r="C8" t="n">
-        <v>33.5539</v>
+        <v>33.8266</v>
       </c>
       <c r="D8" t="n">
-        <v>56.5087</v>
+        <v>55.8581</v>
       </c>
       <c r="E8" t="n">
-        <v>72.39830000000001</v>
+        <v>69.6519</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8237</v>
+        <v>20.9508</v>
       </c>
       <c r="C9" t="n">
-        <v>33.809</v>
+        <v>33.0979</v>
       </c>
       <c r="D9" t="n">
-        <v>55.9825</v>
+        <v>55.0923</v>
       </c>
       <c r="E9" t="n">
-        <v>74.9466</v>
+        <v>73.3494</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.8011</v>
+        <v>21.2482</v>
       </c>
       <c r="C10" t="n">
-        <v>33.2417</v>
+        <v>33.889</v>
       </c>
       <c r="D10" t="n">
-        <v>57.3221</v>
+        <v>56.6633</v>
       </c>
       <c r="E10" t="n">
-        <v>76.9363</v>
+        <v>74.4556</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.7329</v>
+        <v>21.5249</v>
       </c>
       <c r="C11" t="n">
-        <v>34.1861</v>
+        <v>34.1438</v>
       </c>
       <c r="D11" t="n">
-        <v>58.4526</v>
+        <v>57.8431</v>
       </c>
       <c r="E11" t="n">
-        <v>77.4483</v>
+        <v>74.6189</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.6278</v>
+        <v>21.5335</v>
       </c>
       <c r="C12" t="n">
-        <v>33.6965</v>
+        <v>33.8458</v>
       </c>
       <c r="D12" t="n">
-        <v>58.5874</v>
+        <v>59.2263</v>
       </c>
       <c r="E12" t="n">
-        <v>77.5946</v>
+        <v>75.0179</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.7199</v>
+        <v>21.0705</v>
       </c>
       <c r="C13" t="n">
-        <v>34.3233</v>
+        <v>34.2706</v>
       </c>
       <c r="D13" t="n">
-        <v>59.4623</v>
+        <v>59.9441</v>
       </c>
       <c r="E13" t="n">
-        <v>77.7966</v>
+        <v>77.1632</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8803</v>
+        <v>21.2092</v>
       </c>
       <c r="C14" t="n">
-        <v>34.3083</v>
+        <v>34.0474</v>
       </c>
       <c r="D14" t="n">
-        <v>60.5245</v>
+        <v>61.4325</v>
       </c>
       <c r="E14" t="n">
-        <v>76.6328</v>
+        <v>75.9537</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.6137</v>
+        <v>21.5545</v>
       </c>
       <c r="C15" t="n">
-        <v>33.9641</v>
+        <v>34.3857</v>
       </c>
       <c r="D15" t="n">
-        <v>60.7815</v>
+        <v>61.6542</v>
       </c>
       <c r="E15" t="n">
-        <v>78.7008</v>
+        <v>77.50230000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.8078</v>
+        <v>21.3875</v>
       </c>
       <c r="C16" t="n">
-        <v>34.1844</v>
+        <v>34.4135</v>
       </c>
       <c r="D16" t="n">
-        <v>62.4344</v>
+        <v>60.9427</v>
       </c>
       <c r="E16" t="n">
-        <v>78.626</v>
+        <v>76.94499999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.5942</v>
+        <v>21.712</v>
       </c>
       <c r="C17" t="n">
-        <v>34.3624</v>
+        <v>34.3661</v>
       </c>
       <c r="D17" t="n">
-        <v>61.8494</v>
+        <v>61.2552</v>
       </c>
       <c r="E17" t="n">
-        <v>80.9631</v>
+        <v>76.9832</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.985530000000001</v>
+        <v>8.887969999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5712</v>
+        <v>13.5269</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7491</v>
+        <v>18.7136</v>
       </c>
       <c r="E2" t="n">
-        <v>22.3259</v>
+        <v>22.1206</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.2438</v>
+        <v>16.8732</v>
       </c>
       <c r="C3" t="n">
-        <v>22.8534</v>
+        <v>22.4703</v>
       </c>
       <c r="D3" t="n">
-        <v>34.9739</v>
+        <v>34.8208</v>
       </c>
       <c r="E3" t="n">
-        <v>41.1401</v>
+        <v>40.5488</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.8301</v>
+        <v>24.5047</v>
       </c>
       <c r="C4" t="n">
-        <v>30.0708</v>
+        <v>31.0223</v>
       </c>
       <c r="D4" t="n">
-        <v>49.9719</v>
+        <v>49.8848</v>
       </c>
       <c r="E4" t="n">
-        <v>58.517</v>
+        <v>58.1911</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.3948</v>
+        <v>24.3009</v>
       </c>
       <c r="C5" t="n">
-        <v>29.2164</v>
+        <v>29.5176</v>
       </c>
       <c r="D5" t="n">
-        <v>54.2679</v>
+        <v>53.2514</v>
       </c>
       <c r="E5" t="n">
-        <v>64.31010000000001</v>
+        <v>62.2959</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.4437</v>
+        <v>28.2173</v>
       </c>
       <c r="C6" t="n">
-        <v>32.3463</v>
+        <v>32.5923</v>
       </c>
       <c r="D6" t="n">
-        <v>63.9493</v>
+        <v>61.8723</v>
       </c>
       <c r="E6" t="n">
-        <v>75.24509999999999</v>
+        <v>73.2962</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.4823</v>
+        <v>34.2908</v>
       </c>
       <c r="C7" t="n">
-        <v>37.0298</v>
+        <v>37.3573</v>
       </c>
       <c r="D7" t="n">
-        <v>75.0145</v>
+        <v>71.8695</v>
       </c>
       <c r="E7" t="n">
-        <v>90.23909999999999</v>
+        <v>86.9115</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.3306</v>
+        <v>31.0516</v>
       </c>
       <c r="C8" t="n">
-        <v>36.3032</v>
+        <v>36.5107</v>
       </c>
       <c r="D8" t="n">
-        <v>70.741</v>
+        <v>67.40049999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>83.66840000000001</v>
+        <v>79.0412</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.9698</v>
+        <v>31.3214</v>
       </c>
       <c r="C9" t="n">
-        <v>36.1238</v>
+        <v>36.3151</v>
       </c>
       <c r="D9" t="n">
-        <v>73.5963</v>
+        <v>67.34229999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>84.2077</v>
+        <v>81.4558</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.4457</v>
+        <v>32.3701</v>
       </c>
       <c r="C10" t="n">
-        <v>36.6576</v>
+        <v>36.4126</v>
       </c>
       <c r="D10" t="n">
-        <v>73.5607</v>
+        <v>68.8913</v>
       </c>
       <c r="E10" t="n">
-        <v>83.3772</v>
+        <v>83.4692</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.5467</v>
+        <v>32.8686</v>
       </c>
       <c r="C11" t="n">
-        <v>36.5841</v>
+        <v>36.777</v>
       </c>
       <c r="D11" t="n">
-        <v>73.7009</v>
+        <v>71.89060000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>86.41370000000001</v>
+        <v>81.9866</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4814</v>
+        <v>31.9696</v>
       </c>
       <c r="C12" t="n">
-        <v>36.7197</v>
+        <v>36.5127</v>
       </c>
       <c r="D12" t="n">
-        <v>72.9996</v>
+        <v>71.45050000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>84.98480000000001</v>
+        <v>82.4761</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.2607</v>
+        <v>32.4796</v>
       </c>
       <c r="C13" t="n">
-        <v>36.7107</v>
+        <v>36.8777</v>
       </c>
       <c r="D13" t="n">
-        <v>74.52930000000001</v>
+        <v>71.2611</v>
       </c>
       <c r="E13" t="n">
-        <v>86.2775</v>
+        <v>83.1446</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.7856</v>
+        <v>32.225</v>
       </c>
       <c r="C14" t="n">
-        <v>36.7812</v>
+        <v>36.9223</v>
       </c>
       <c r="D14" t="n">
-        <v>73.0107</v>
+        <v>70.2932</v>
       </c>
       <c r="E14" t="n">
-        <v>88.30329999999999</v>
+        <v>83.4752</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6836</v>
+        <v>32.7333</v>
       </c>
       <c r="C15" t="n">
-        <v>36.7772</v>
+        <v>36.7897</v>
       </c>
       <c r="D15" t="n">
-        <v>74.9395</v>
+        <v>71.99630000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>87.1121</v>
+        <v>83.7308</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.9257</v>
+        <v>32.7623</v>
       </c>
       <c r="C16" t="n">
-        <v>36.6207</v>
+        <v>36.4954</v>
       </c>
       <c r="D16" t="n">
-        <v>75.4344</v>
+        <v>71.8498</v>
       </c>
       <c r="E16" t="n">
-        <v>87.4983</v>
+        <v>84.4879</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.4305</v>
+        <v>32.9697</v>
       </c>
       <c r="C17" t="n">
-        <v>36.8746</v>
+        <v>36.7804</v>
       </c>
       <c r="D17" t="n">
-        <v>73.43729999999999</v>
+        <v>72.4346</v>
       </c>
       <c r="E17" t="n">
-        <v>87.4896</v>
+        <v>85.0046</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3353</v>
+        <v>10.3242</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9162</v>
+        <v>12.8955</v>
       </c>
       <c r="D2" t="n">
-        <v>17.6224</v>
+        <v>17.6185</v>
       </c>
       <c r="E2" t="n">
-        <v>21.0035</v>
+        <v>21.0976</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.6415</v>
+        <v>19.6917</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5831</v>
+        <v>19.3243</v>
       </c>
       <c r="D3" t="n">
-        <v>27.626</v>
+        <v>27.5301</v>
       </c>
       <c r="E3" t="n">
-        <v>32.2651</v>
+        <v>31.8428</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.103</v>
+        <v>26.5952</v>
       </c>
       <c r="C4" t="n">
-        <v>24.9402</v>
+        <v>24.69</v>
       </c>
       <c r="D4" t="n">
-        <v>32.363</v>
+        <v>33.7514</v>
       </c>
       <c r="E4" t="n">
-        <v>40.9239</v>
+        <v>40.9768</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.8042</v>
+        <v>20.5524</v>
       </c>
       <c r="C5" t="n">
-        <v>26.6177</v>
+        <v>27.2361</v>
       </c>
       <c r="D5" t="n">
-        <v>36.0215</v>
+        <v>38.1478</v>
       </c>
       <c r="E5" t="n">
-        <v>43.7527</v>
+        <v>43.6765</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.3633</v>
+        <v>24.3904</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2212</v>
+        <v>31.5398</v>
       </c>
       <c r="D6" t="n">
-        <v>38.7749</v>
+        <v>38.9004</v>
       </c>
       <c r="E6" t="n">
-        <v>44.0434</v>
+        <v>44.175</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9823</v>
+        <v>28.9677</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5705</v>
+        <v>36.9598</v>
       </c>
       <c r="D7" t="n">
-        <v>43.0315</v>
+        <v>43.8182</v>
       </c>
       <c r="E7" t="n">
-        <v>48.593</v>
+        <v>50.8566</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.3553</v>
+        <v>21.0002</v>
       </c>
       <c r="C8" t="n">
-        <v>33.5003</v>
+        <v>34.563</v>
       </c>
       <c r="D8" t="n">
-        <v>41.619</v>
+        <v>41.6376</v>
       </c>
       <c r="E8" t="n">
-        <v>46.3349</v>
+        <v>47.7485</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.1157</v>
+        <v>23.8441</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1396</v>
+        <v>34.5205</v>
       </c>
       <c r="D9" t="n">
-        <v>44.8548</v>
+        <v>46.0726</v>
       </c>
       <c r="E9" t="n">
-        <v>52.3026</v>
+        <v>52.1287</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.7611</v>
+        <v>26.5867</v>
       </c>
       <c r="C10" t="n">
-        <v>34.5219</v>
+        <v>34.6405</v>
       </c>
       <c r="D10" t="n">
-        <v>48.56</v>
+        <v>47.503</v>
       </c>
       <c r="E10" t="n">
-        <v>54.9131</v>
+        <v>53.4765</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.1433</v>
+        <v>23.921</v>
       </c>
       <c r="C11" t="n">
-        <v>34.8678</v>
+        <v>34.7353</v>
       </c>
       <c r="D11" t="n">
-        <v>51.1902</v>
+        <v>48.5314</v>
       </c>
       <c r="E11" t="n">
-        <v>55.3803</v>
+        <v>54.9674</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.3433</v>
+        <v>26.4202</v>
       </c>
       <c r="C12" t="n">
-        <v>34.7774</v>
+        <v>35.0476</v>
       </c>
       <c r="D12" t="n">
-        <v>51.2644</v>
+        <v>51.2664</v>
       </c>
       <c r="E12" t="n">
-        <v>60.4635</v>
+        <v>63.732</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.9516</v>
+        <v>28.9154</v>
       </c>
       <c r="C13" t="n">
-        <v>35.0515</v>
+        <v>35.8177</v>
       </c>
       <c r="D13" t="n">
-        <v>52.6484</v>
+        <v>52.4638</v>
       </c>
       <c r="E13" t="n">
-        <v>60.7288</v>
+        <v>61.1828</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9822</v>
+        <v>23.7971</v>
       </c>
       <c r="C14" t="n">
-        <v>35.0101</v>
+        <v>35.2203</v>
       </c>
       <c r="D14" t="n">
-        <v>50.7924</v>
+        <v>50.7028</v>
       </c>
       <c r="E14" t="n">
-        <v>60.0182</v>
+        <v>61.1652</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.72</v>
+        <v>25.661</v>
       </c>
       <c r="C15" t="n">
-        <v>34.7398</v>
+        <v>35.0439</v>
       </c>
       <c r="D15" t="n">
-        <v>51.1506</v>
+        <v>51.568</v>
       </c>
       <c r="E15" t="n">
-        <v>61.3533</v>
+        <v>61.1812</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.4818</v>
+        <v>27.2652</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5644</v>
+        <v>35.3429</v>
       </c>
       <c r="D16" t="n">
-        <v>51.532</v>
+        <v>50.4221</v>
       </c>
       <c r="E16" t="n">
-        <v>61.4525</v>
+        <v>60.8097</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.5812</v>
+        <v>25.476</v>
       </c>
       <c r="C17" t="n">
-        <v>34.9838</v>
+        <v>35.091</v>
       </c>
       <c r="D17" t="n">
-        <v>51.3723</v>
+        <v>51.9914</v>
       </c>
       <c r="E17" t="n">
-        <v>61.4054</v>
+        <v>60.9984</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7427</v>
+        <v>10.7995</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9168</v>
+        <v>12.8695</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4783</v>
+        <v>17.4983</v>
       </c>
       <c r="E2" t="n">
-        <v>20.8108</v>
+        <v>20.8891</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.9489</v>
+        <v>19.9577</v>
       </c>
       <c r="C3" t="n">
-        <v>19.8592</v>
+        <v>19.7475</v>
       </c>
       <c r="D3" t="n">
-        <v>25.8413</v>
+        <v>27.015</v>
       </c>
       <c r="E3" t="n">
-        <v>30.2622</v>
+        <v>31.1084</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.4103</v>
+        <v>28.011</v>
       </c>
       <c r="C4" t="n">
-        <v>25.2991</v>
+        <v>25.3156</v>
       </c>
       <c r="D4" t="n">
-        <v>34.9987</v>
+        <v>36.4748</v>
       </c>
       <c r="E4" t="n">
-        <v>38.8245</v>
+        <v>37.2083</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.634</v>
+        <v>20.4796</v>
       </c>
       <c r="C5" t="n">
-        <v>26.509</v>
+        <v>26.7994</v>
       </c>
       <c r="D5" t="n">
-        <v>37.104</v>
+        <v>36.5521</v>
       </c>
       <c r="E5" t="n">
-        <v>40.1022</v>
+        <v>42.1778</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.8428</v>
+        <v>24.9149</v>
       </c>
       <c r="C6" t="n">
-        <v>31.0606</v>
+        <v>31.4227</v>
       </c>
       <c r="D6" t="n">
-        <v>38.878</v>
+        <v>40.6143</v>
       </c>
       <c r="E6" t="n">
-        <v>45.5811</v>
+        <v>44.0144</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.7724</v>
+        <v>29.7528</v>
       </c>
       <c r="C7" t="n">
-        <v>36.192</v>
+        <v>36.7701</v>
       </c>
       <c r="D7" t="n">
-        <v>44.1808</v>
+        <v>43.9416</v>
       </c>
       <c r="E7" t="n">
-        <v>50.8079</v>
+        <v>50.6011</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.8202</v>
+        <v>21.7354</v>
       </c>
       <c r="C8" t="n">
-        <v>33.5837</v>
+        <v>33.3168</v>
       </c>
       <c r="D8" t="n">
-        <v>42.1698</v>
+        <v>43.3863</v>
       </c>
       <c r="E8" t="n">
-        <v>48.2573</v>
+        <v>47.0644</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.1855</v>
+        <v>25.0965</v>
       </c>
       <c r="C9" t="n">
-        <v>33.716</v>
+        <v>34.4007</v>
       </c>
       <c r="D9" t="n">
-        <v>47.2859</v>
+        <v>49.36</v>
       </c>
       <c r="E9" t="n">
-        <v>51.618</v>
+        <v>51.4811</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.7453</v>
+        <v>27.4511</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9938</v>
+        <v>34.1292</v>
       </c>
       <c r="D10" t="n">
-        <v>47.6181</v>
+        <v>47.9899</v>
       </c>
       <c r="E10" t="n">
-        <v>52.4577</v>
+        <v>53.5645</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.5545</v>
+        <v>25.1646</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0522</v>
+        <v>34.5827</v>
       </c>
       <c r="D11" t="n">
-        <v>52.0488</v>
+        <v>50.7555</v>
       </c>
       <c r="E11" t="n">
-        <v>58.9312</v>
+        <v>58.5805</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1234</v>
+        <v>27.1701</v>
       </c>
       <c r="C12" t="n">
-        <v>34.2485</v>
+        <v>34.8824</v>
       </c>
       <c r="D12" t="n">
-        <v>51.3118</v>
+        <v>50.4372</v>
       </c>
       <c r="E12" t="n">
-        <v>61.1154</v>
+        <v>61.5416</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6908</v>
+        <v>29.6997</v>
       </c>
       <c r="C13" t="n">
-        <v>34.9754</v>
+        <v>35.423</v>
       </c>
       <c r="D13" t="n">
-        <v>51.939</v>
+        <v>51.2137</v>
       </c>
       <c r="E13" t="n">
-        <v>61.2091</v>
+        <v>61.3024</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5043</v>
+        <v>23.9021</v>
       </c>
       <c r="C14" t="n">
-        <v>34.8409</v>
+        <v>35.8658</v>
       </c>
       <c r="D14" t="n">
-        <v>52.4495</v>
+        <v>51.1883</v>
       </c>
       <c r="E14" t="n">
-        <v>60.9862</v>
+        <v>60.8203</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.3352</v>
+        <v>26.0718</v>
       </c>
       <c r="C15" t="n">
-        <v>35.4125</v>
+        <v>35.8139</v>
       </c>
       <c r="D15" t="n">
-        <v>51.5036</v>
+        <v>50.4905</v>
       </c>
       <c r="E15" t="n">
-        <v>60.547</v>
+        <v>67.0134</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.2931</v>
+        <v>28.1382</v>
       </c>
       <c r="C16" t="n">
-        <v>35.0917</v>
+        <v>35.3699</v>
       </c>
       <c r="D16" t="n">
-        <v>51.4311</v>
+        <v>50.7706</v>
       </c>
       <c r="E16" t="n">
-        <v>60.9358</v>
+        <v>62.3378</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.948</v>
+        <v>26.3203</v>
       </c>
       <c r="C17" t="n">
-        <v>35.437</v>
+        <v>35.9336</v>
       </c>
       <c r="D17" t="n">
-        <v>53.198</v>
+        <v>51.0827</v>
       </c>
       <c r="E17" t="n">
-        <v>60.9229</v>
+        <v>62.5328</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0771</v>
+        <v>13.0749</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9962</v>
+        <v>14.0166</v>
       </c>
       <c r="D2" t="n">
-        <v>19.1642</v>
+        <v>19.275</v>
       </c>
       <c r="E2" t="n">
-        <v>22.1707</v>
+        <v>22.385</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.1779</v>
+        <v>23.2479</v>
       </c>
       <c r="C3" t="n">
-        <v>23.2873</v>
+        <v>23.5638</v>
       </c>
       <c r="D3" t="n">
-        <v>30.7737</v>
+        <v>31.0187</v>
       </c>
       <c r="E3" t="n">
-        <v>33.312</v>
+        <v>34.8638</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.4327</v>
+        <v>31.6996</v>
       </c>
       <c r="C4" t="n">
-        <v>29.7471</v>
+        <v>29.6361</v>
       </c>
       <c r="D4" t="n">
-        <v>35.9997</v>
+        <v>37.4406</v>
       </c>
       <c r="E4" t="n">
-        <v>40.4452</v>
+        <v>43.2293</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.8697</v>
+        <v>26.711</v>
       </c>
       <c r="C5" t="n">
-        <v>28.7229</v>
+        <v>29.0224</v>
       </c>
       <c r="D5" t="n">
-        <v>40.891</v>
+        <v>40.5814</v>
       </c>
       <c r="E5" t="n">
-        <v>49.7933</v>
+        <v>49.0048</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6311</v>
+        <v>31.7616</v>
       </c>
       <c r="C6" t="n">
-        <v>32.6764</v>
+        <v>32.665</v>
       </c>
       <c r="D6" t="n">
-        <v>45.1918</v>
+        <v>46.5043</v>
       </c>
       <c r="E6" t="n">
-        <v>50.3969</v>
+        <v>50.3912</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.4372</v>
+        <v>37.4148</v>
       </c>
       <c r="C7" t="n">
-        <v>38.0034</v>
+        <v>38.3412</v>
       </c>
       <c r="D7" t="n">
-        <v>50.5115</v>
+        <v>50.8303</v>
       </c>
       <c r="E7" t="n">
-        <v>56.8989</v>
+        <v>58.4948</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.3752</v>
+        <v>33.9488</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4565</v>
+        <v>34.3815</v>
       </c>
       <c r="D8" t="n">
-        <v>49.5911</v>
+        <v>46.7874</v>
       </c>
       <c r="E8" t="n">
-        <v>58.8787</v>
+        <v>55.2739</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.0107</v>
+        <v>33.7508</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1159</v>
+        <v>34.4078</v>
       </c>
       <c r="D9" t="n">
-        <v>56.0544</v>
+        <v>52.4603</v>
       </c>
       <c r="E9" t="n">
-        <v>56.4601</v>
+        <v>58.4913</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.8807</v>
+        <v>34.4109</v>
       </c>
       <c r="C10" t="n">
-        <v>34.6024</v>
+        <v>34.9038</v>
       </c>
       <c r="D10" t="n">
-        <v>55.3886</v>
+        <v>52.1504</v>
       </c>
       <c r="E10" t="n">
-        <v>58.8426</v>
+        <v>59.4074</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.2064</v>
+        <v>34.6767</v>
       </c>
       <c r="C11" t="n">
-        <v>35.0936</v>
+        <v>35.2442</v>
       </c>
       <c r="D11" t="n">
-        <v>58.1081</v>
+        <v>54.8549</v>
       </c>
       <c r="E11" t="n">
-        <v>60.0993</v>
+        <v>63.4852</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.5932</v>
+        <v>34.6198</v>
       </c>
       <c r="C12" t="n">
-        <v>35.3689</v>
+        <v>36.2441</v>
       </c>
       <c r="D12" t="n">
-        <v>58.0902</v>
+        <v>58.3842</v>
       </c>
       <c r="E12" t="n">
-        <v>61.0458</v>
+        <v>63.3927</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5036</v>
+        <v>34.9882</v>
       </c>
       <c r="C13" t="n">
-        <v>35.5871</v>
+        <v>35.1582</v>
       </c>
       <c r="D13" t="n">
-        <v>56.8471</v>
+        <v>60.1617</v>
       </c>
       <c r="E13" t="n">
-        <v>60.9941</v>
+        <v>62.5142</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.965</v>
+        <v>35.2781</v>
       </c>
       <c r="C14" t="n">
-        <v>35.8922</v>
+        <v>36.2981</v>
       </c>
       <c r="D14" t="n">
-        <v>58.3981</v>
+        <v>59.726</v>
       </c>
       <c r="E14" t="n">
-        <v>61.6829</v>
+        <v>62.6556</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.2483</v>
+        <v>35.5904</v>
       </c>
       <c r="C15" t="n">
-        <v>35.6464</v>
+        <v>36.15</v>
       </c>
       <c r="D15" t="n">
-        <v>56.6791</v>
+        <v>59.8102</v>
       </c>
       <c r="E15" t="n">
-        <v>61.7648</v>
+        <v>62.0287</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.5313</v>
+        <v>35.2702</v>
       </c>
       <c r="C16" t="n">
-        <v>36.1139</v>
+        <v>36.5894</v>
       </c>
       <c r="D16" t="n">
-        <v>58.2711</v>
+        <v>59.9086</v>
       </c>
       <c r="E16" t="n">
-        <v>60.5206</v>
+        <v>62.1722</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.3151</v>
+        <v>35.6697</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1875</v>
+        <v>36.4452</v>
       </c>
       <c r="D17" t="n">
-        <v>59.3846</v>
+        <v>60.4953</v>
       </c>
       <c r="E17" t="n">
-        <v>61.0641</v>
+        <v>61.9692</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.76222</v>
+        <v>4.76915</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9649</v>
+        <v>10.9505</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7788</v>
+        <v>14.7306</v>
       </c>
       <c r="E2" t="n">
-        <v>19.6955</v>
+        <v>19.7048</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.28867</v>
+        <v>9.274509999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9919</v>
+        <v>19.0571</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9601</v>
+        <v>27.9604</v>
       </c>
       <c r="E3" t="n">
-        <v>36.6449</v>
+        <v>36.805</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3618</v>
+        <v>13.3303</v>
       </c>
       <c r="C4" t="n">
-        <v>26.0529</v>
+        <v>25.68</v>
       </c>
       <c r="D4" t="n">
-        <v>39.5712</v>
+        <v>39.5992</v>
       </c>
       <c r="E4" t="n">
-        <v>51.0611</v>
+        <v>51.2635</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7565</v>
+        <v>15.8103</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5646</v>
+        <v>26.8693</v>
       </c>
       <c r="D5" t="n">
-        <v>43.6621</v>
+        <v>46.347</v>
       </c>
       <c r="E5" t="n">
-        <v>57.6819</v>
+        <v>60.9606</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.0232</v>
+        <v>19.1078</v>
       </c>
       <c r="C6" t="n">
-        <v>29.8327</v>
+        <v>30.2647</v>
       </c>
       <c r="D6" t="n">
-        <v>52.8695</v>
+        <v>56.9916</v>
       </c>
       <c r="E6" t="n">
-        <v>68.2004</v>
+        <v>73.0693</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.2075</v>
+        <v>22.2342</v>
       </c>
       <c r="C7" t="n">
-        <v>34.9602</v>
+        <v>35.2918</v>
       </c>
       <c r="D7" t="n">
-        <v>62.6911</v>
+        <v>64.4487</v>
       </c>
       <c r="E7" t="n">
-        <v>80.6666</v>
+        <v>85.2062</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0418</v>
+        <v>19.8004</v>
       </c>
       <c r="C8" t="n">
-        <v>33.404</v>
+        <v>34.0479</v>
       </c>
       <c r="D8" t="n">
-        <v>57.8368</v>
+        <v>56.0859</v>
       </c>
       <c r="E8" t="n">
-        <v>70.869</v>
+        <v>73.83329999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.7021</v>
+        <v>20.3726</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7481</v>
+        <v>33.7142</v>
       </c>
       <c r="D9" t="n">
-        <v>58.1255</v>
+        <v>57.8091</v>
       </c>
       <c r="E9" t="n">
-        <v>71.0819</v>
+        <v>74.09910000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.833</v>
+        <v>20.8757</v>
       </c>
       <c r="C10" t="n">
-        <v>33.6547</v>
+        <v>34.2288</v>
       </c>
       <c r="D10" t="n">
-        <v>58.6886</v>
+        <v>57.6533</v>
       </c>
       <c r="E10" t="n">
-        <v>72.6048</v>
+        <v>76.31359999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.9696</v>
+        <v>20.8533</v>
       </c>
       <c r="C11" t="n">
-        <v>33.5498</v>
+        <v>33.9805</v>
       </c>
       <c r="D11" t="n">
-        <v>59.0313</v>
+        <v>60.019</v>
       </c>
       <c r="E11" t="n">
-        <v>73.74509999999999</v>
+        <v>76.7178</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.8039</v>
+        <v>21.0568</v>
       </c>
       <c r="C12" t="n">
-        <v>33.8439</v>
+        <v>34.1769</v>
       </c>
       <c r="D12" t="n">
-        <v>59.961</v>
+        <v>61.2863</v>
       </c>
       <c r="E12" t="n">
-        <v>77.69110000000001</v>
+        <v>81.613</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.822</v>
+        <v>21.0965</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2926</v>
+        <v>34.6399</v>
       </c>
       <c r="D13" t="n">
-        <v>61.2288</v>
+        <v>61.5688</v>
       </c>
       <c r="E13" t="n">
-        <v>78.1914</v>
+        <v>80.50790000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.1423</v>
+        <v>20.955</v>
       </c>
       <c r="C14" t="n">
-        <v>34.0818</v>
+        <v>34.2801</v>
       </c>
       <c r="D14" t="n">
-        <v>59.232</v>
+        <v>60.1107</v>
       </c>
       <c r="E14" t="n">
-        <v>77.4572</v>
+        <v>81.40819999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9042</v>
+        <v>21.4273</v>
       </c>
       <c r="C15" t="n">
-        <v>34.2273</v>
+        <v>34.5763</v>
       </c>
       <c r="D15" t="n">
-        <v>59.8118</v>
+        <v>59.2284</v>
       </c>
       <c r="E15" t="n">
-        <v>78.7718</v>
+        <v>78.8207</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1294</v>
+        <v>21.2269</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5438</v>
+        <v>34.8663</v>
       </c>
       <c r="D16" t="n">
-        <v>60.9123</v>
+        <v>59.3628</v>
       </c>
       <c r="E16" t="n">
-        <v>77.7465</v>
+        <v>81.91240000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1927</v>
+        <v>21.312</v>
       </c>
       <c r="C17" t="n">
-        <v>34.4554</v>
+        <v>34.7035</v>
       </c>
       <c r="D17" t="n">
-        <v>60.0915</v>
+        <v>60.1615</v>
       </c>
       <c r="E17" t="n">
-        <v>79.3985</v>
+        <v>81.4868</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.78027</v>
+        <v>4.79436</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0556</v>
+        <v>11.0762</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6536</v>
+        <v>14.6504</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7283</v>
+        <v>19.8131</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.29847</v>
+        <v>9.37215</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0495</v>
+        <v>19.2169</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9357</v>
+        <v>28.0159</v>
       </c>
       <c r="E3" t="n">
-        <v>36.6326</v>
+        <v>37.2017</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4909</v>
+        <v>13.5419</v>
       </c>
       <c r="C4" t="n">
-        <v>26.7819</v>
+        <v>26.7898</v>
       </c>
       <c r="D4" t="n">
-        <v>39.4039</v>
+        <v>39.5613</v>
       </c>
       <c r="E4" t="n">
-        <v>51.3439</v>
+        <v>52.6873</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8746</v>
+        <v>15.9414</v>
       </c>
       <c r="C5" t="n">
-        <v>26.3176</v>
+        <v>26.5663</v>
       </c>
       <c r="D5" t="n">
-        <v>44.173</v>
+        <v>46.0438</v>
       </c>
       <c r="E5" t="n">
-        <v>57.4339</v>
+        <v>60.2057</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2819</v>
+        <v>19.3625</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0798</v>
+        <v>30.3332</v>
       </c>
       <c r="D6" t="n">
-        <v>52.8659</v>
+        <v>55.4162</v>
       </c>
       <c r="E6" t="n">
-        <v>68.373</v>
+        <v>72.75060000000001</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.5713</v>
+        <v>22.6251</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0535</v>
+        <v>35.4282</v>
       </c>
       <c r="D7" t="n">
-        <v>62.5672</v>
+        <v>66.0509</v>
       </c>
       <c r="E7" t="n">
-        <v>79.926</v>
+        <v>84.8319</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3681</v>
+        <v>20.3968</v>
       </c>
       <c r="C8" t="n">
-        <v>33.8266</v>
+        <v>34.1557</v>
       </c>
       <c r="D8" t="n">
-        <v>55.8581</v>
+        <v>57.7423</v>
       </c>
       <c r="E8" t="n">
-        <v>69.6519</v>
+        <v>71.4683</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9508</v>
+        <v>20.9067</v>
       </c>
       <c r="C9" t="n">
-        <v>33.0979</v>
+        <v>33.5648</v>
       </c>
       <c r="D9" t="n">
-        <v>55.0923</v>
+        <v>58.0234</v>
       </c>
       <c r="E9" t="n">
-        <v>73.3494</v>
+        <v>74.41160000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2482</v>
+        <v>21.2733</v>
       </c>
       <c r="C10" t="n">
-        <v>33.889</v>
+        <v>33.9858</v>
       </c>
       <c r="D10" t="n">
-        <v>56.6633</v>
+        <v>57.891</v>
       </c>
       <c r="E10" t="n">
-        <v>74.4556</v>
+        <v>74.7625</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5249</v>
+        <v>21.3501</v>
       </c>
       <c r="C11" t="n">
-        <v>34.1438</v>
+        <v>33.7631</v>
       </c>
       <c r="D11" t="n">
-        <v>57.8431</v>
+        <v>58.3376</v>
       </c>
       <c r="E11" t="n">
-        <v>74.6189</v>
+        <v>77.7311</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.5335</v>
+        <v>21.476</v>
       </c>
       <c r="C12" t="n">
-        <v>33.8458</v>
+        <v>34.4457</v>
       </c>
       <c r="D12" t="n">
-        <v>59.2263</v>
+        <v>59.4118</v>
       </c>
       <c r="E12" t="n">
-        <v>75.0179</v>
+        <v>78.7452</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0705</v>
+        <v>21.3258</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2706</v>
+        <v>34.5993</v>
       </c>
       <c r="D13" t="n">
-        <v>59.9441</v>
+        <v>61.4074</v>
       </c>
       <c r="E13" t="n">
-        <v>77.1632</v>
+        <v>77.9318</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2092</v>
+        <v>21.1022</v>
       </c>
       <c r="C14" t="n">
-        <v>34.0474</v>
+        <v>34.5191</v>
       </c>
       <c r="D14" t="n">
-        <v>61.4325</v>
+        <v>59.5275</v>
       </c>
       <c r="E14" t="n">
-        <v>75.9537</v>
+        <v>79.8058</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5545</v>
+        <v>21.6914</v>
       </c>
       <c r="C15" t="n">
-        <v>34.3857</v>
+        <v>34.7034</v>
       </c>
       <c r="D15" t="n">
-        <v>61.6542</v>
+        <v>61.0058</v>
       </c>
       <c r="E15" t="n">
-        <v>77.50230000000001</v>
+        <v>80.86660000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3875</v>
+        <v>21.3535</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4135</v>
+        <v>34.7553</v>
       </c>
       <c r="D16" t="n">
-        <v>60.9427</v>
+        <v>61.2367</v>
       </c>
       <c r="E16" t="n">
-        <v>76.94499999999999</v>
+        <v>80.7212</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.712</v>
+        <v>21.4652</v>
       </c>
       <c r="C17" t="n">
-        <v>34.3661</v>
+        <v>35.0577</v>
       </c>
       <c r="D17" t="n">
-        <v>61.2552</v>
+        <v>60.7047</v>
       </c>
       <c r="E17" t="n">
-        <v>76.9832</v>
+        <v>81.31180000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.887969999999999</v>
+        <v>8.96224</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5269</v>
+        <v>13.5539</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7136</v>
+        <v>18.7676</v>
       </c>
       <c r="E2" t="n">
-        <v>22.1206</v>
+        <v>22.3755</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8732</v>
+        <v>17.115</v>
       </c>
       <c r="C3" t="n">
-        <v>22.4703</v>
+        <v>22.6804</v>
       </c>
       <c r="D3" t="n">
-        <v>34.8208</v>
+        <v>34.9836</v>
       </c>
       <c r="E3" t="n">
-        <v>40.5488</v>
+        <v>41.4366</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.5047</v>
+        <v>24.7763</v>
       </c>
       <c r="C4" t="n">
-        <v>31.0223</v>
+        <v>31.2207</v>
       </c>
       <c r="D4" t="n">
-        <v>49.8848</v>
+        <v>49.9001</v>
       </c>
       <c r="E4" t="n">
-        <v>58.1911</v>
+        <v>58.8805</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.3009</v>
+        <v>23.8805</v>
       </c>
       <c r="C5" t="n">
-        <v>29.5176</v>
+        <v>29.5697</v>
       </c>
       <c r="D5" t="n">
-        <v>53.2514</v>
+        <v>54.8897</v>
       </c>
       <c r="E5" t="n">
-        <v>62.2959</v>
+        <v>66.3172</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2173</v>
+        <v>28.2423</v>
       </c>
       <c r="C6" t="n">
-        <v>32.5923</v>
+        <v>32.8696</v>
       </c>
       <c r="D6" t="n">
-        <v>61.8723</v>
+        <v>63.9923</v>
       </c>
       <c r="E6" t="n">
-        <v>73.2962</v>
+        <v>79.29259999999999</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.2908</v>
+        <v>34.3575</v>
       </c>
       <c r="C7" t="n">
-        <v>37.3573</v>
+        <v>37.7031</v>
       </c>
       <c r="D7" t="n">
-        <v>71.8695</v>
+        <v>74.7183</v>
       </c>
       <c r="E7" t="n">
-        <v>86.9115</v>
+        <v>91.806</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.0516</v>
+        <v>31.5026</v>
       </c>
       <c r="C8" t="n">
-        <v>36.5107</v>
+        <v>36.4444</v>
       </c>
       <c r="D8" t="n">
-        <v>67.40049999999999</v>
+        <v>65.86960000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>79.0412</v>
+        <v>80.854</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3214</v>
+        <v>31.3071</v>
       </c>
       <c r="C9" t="n">
-        <v>36.3151</v>
+        <v>36.803</v>
       </c>
       <c r="D9" t="n">
-        <v>67.34229999999999</v>
+        <v>66.27849999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>81.4558</v>
+        <v>83.0718</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.3701</v>
+        <v>32.2658</v>
       </c>
       <c r="C10" t="n">
-        <v>36.4126</v>
+        <v>36.9828</v>
       </c>
       <c r="D10" t="n">
-        <v>68.8913</v>
+        <v>68.2542</v>
       </c>
       <c r="E10" t="n">
-        <v>83.4692</v>
+        <v>84.2627</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.8686</v>
+        <v>32.5295</v>
       </c>
       <c r="C11" t="n">
-        <v>36.777</v>
+        <v>37.0524</v>
       </c>
       <c r="D11" t="n">
-        <v>71.89060000000001</v>
+        <v>70.4507</v>
       </c>
       <c r="E11" t="n">
-        <v>81.9866</v>
+        <v>84.9554</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31.9696</v>
+        <v>32.232</v>
       </c>
       <c r="C12" t="n">
-        <v>36.5127</v>
+        <v>37.0406</v>
       </c>
       <c r="D12" t="n">
-        <v>71.45050000000001</v>
+        <v>70.4696</v>
       </c>
       <c r="E12" t="n">
-        <v>82.4761</v>
+        <v>88.1765</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.4796</v>
+        <v>32.0822</v>
       </c>
       <c r="C13" t="n">
-        <v>36.8777</v>
+        <v>37.5052</v>
       </c>
       <c r="D13" t="n">
-        <v>71.2611</v>
+        <v>72.2791</v>
       </c>
       <c r="E13" t="n">
-        <v>83.1446</v>
+        <v>88.4006</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.225</v>
+        <v>32.6076</v>
       </c>
       <c r="C14" t="n">
-        <v>36.9223</v>
+        <v>36.7324</v>
       </c>
       <c r="D14" t="n">
-        <v>70.2932</v>
+        <v>72.5151</v>
       </c>
       <c r="E14" t="n">
-        <v>83.4752</v>
+        <v>87.30289999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.7333</v>
+        <v>32.9198</v>
       </c>
       <c r="C15" t="n">
-        <v>36.7897</v>
+        <v>37.0286</v>
       </c>
       <c r="D15" t="n">
-        <v>71.99630000000001</v>
+        <v>72.9054</v>
       </c>
       <c r="E15" t="n">
-        <v>83.7308</v>
+        <v>88.6516</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7623</v>
+        <v>32.7815</v>
       </c>
       <c r="C16" t="n">
-        <v>36.4954</v>
+        <v>37.1374</v>
       </c>
       <c r="D16" t="n">
-        <v>71.8498</v>
+        <v>71.1193</v>
       </c>
       <c r="E16" t="n">
-        <v>84.4879</v>
+        <v>88.99469999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.9697</v>
+        <v>32.7905</v>
       </c>
       <c r="C17" t="n">
-        <v>36.7804</v>
+        <v>37.1597</v>
       </c>
       <c r="D17" t="n">
-        <v>72.4346</v>
+        <v>72.3126</v>
       </c>
       <c r="E17" t="n">
-        <v>85.0046</v>
+        <v>90.28530000000001</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3242</v>
+        <v>10.4373</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8955</v>
+        <v>12.8658</v>
       </c>
       <c r="D2" t="n">
-        <v>17.6185</v>
+        <v>17.4965</v>
       </c>
       <c r="E2" t="n">
-        <v>21.0976</v>
+        <v>20.9344</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.6917</v>
+        <v>19.6579</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3243</v>
+        <v>19.5774</v>
       </c>
       <c r="D3" t="n">
-        <v>27.5301</v>
+        <v>27.347</v>
       </c>
       <c r="E3" t="n">
-        <v>31.8428</v>
+        <v>31.2685</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.5952</v>
+        <v>25.5242</v>
       </c>
       <c r="C4" t="n">
-        <v>24.69</v>
+        <v>24.4451</v>
       </c>
       <c r="D4" t="n">
-        <v>33.7514</v>
+        <v>33.243</v>
       </c>
       <c r="E4" t="n">
-        <v>40.9768</v>
+        <v>38.2713</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.5524</v>
+        <v>20.8677</v>
       </c>
       <c r="C5" t="n">
-        <v>27.2361</v>
+        <v>26.7495</v>
       </c>
       <c r="D5" t="n">
-        <v>38.1478</v>
+        <v>34.55</v>
       </c>
       <c r="E5" t="n">
-        <v>43.6765</v>
+        <v>43.4879</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.3904</v>
+        <v>24.4856</v>
       </c>
       <c r="C6" t="n">
-        <v>31.5398</v>
+        <v>31.6474</v>
       </c>
       <c r="D6" t="n">
-        <v>38.9004</v>
+        <v>39.1056</v>
       </c>
       <c r="E6" t="n">
-        <v>44.175</v>
+        <v>44.2729</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9677</v>
+        <v>29.0408</v>
       </c>
       <c r="C7" t="n">
-        <v>36.9598</v>
+        <v>36.9728</v>
       </c>
       <c r="D7" t="n">
-        <v>43.8182</v>
+        <v>43.6138</v>
       </c>
       <c r="E7" t="n">
-        <v>50.8566</v>
+        <v>50.7267</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.0002</v>
+        <v>21.2719</v>
       </c>
       <c r="C8" t="n">
-        <v>34.563</v>
+        <v>34.3803</v>
       </c>
       <c r="D8" t="n">
-        <v>41.6376</v>
+        <v>43.9592</v>
       </c>
       <c r="E8" t="n">
-        <v>47.7485</v>
+        <v>46.5975</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8441</v>
+        <v>23.8687</v>
       </c>
       <c r="C9" t="n">
-        <v>34.5205</v>
+        <v>34.5886</v>
       </c>
       <c r="D9" t="n">
-        <v>46.0726</v>
+        <v>44.9219</v>
       </c>
       <c r="E9" t="n">
-        <v>52.1287</v>
+        <v>51.2689</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.5867</v>
+        <v>26.1199</v>
       </c>
       <c r="C10" t="n">
-        <v>34.6405</v>
+        <v>34.8275</v>
       </c>
       <c r="D10" t="n">
-        <v>47.503</v>
+        <v>46.4619</v>
       </c>
       <c r="E10" t="n">
-        <v>53.4765</v>
+        <v>53.0995</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.921</v>
+        <v>24.2398</v>
       </c>
       <c r="C11" t="n">
-        <v>34.7353</v>
+        <v>34.6099</v>
       </c>
       <c r="D11" t="n">
-        <v>48.5314</v>
+        <v>47.3864</v>
       </c>
       <c r="E11" t="n">
-        <v>54.9674</v>
+        <v>54.0843</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4202</v>
+        <v>26.5321</v>
       </c>
       <c r="C12" t="n">
-        <v>35.0476</v>
+        <v>34.9211</v>
       </c>
       <c r="D12" t="n">
-        <v>51.2664</v>
+        <v>49.7096</v>
       </c>
       <c r="E12" t="n">
-        <v>63.732</v>
+        <v>55.2469</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.9154</v>
+        <v>28.8667</v>
       </c>
       <c r="C13" t="n">
-        <v>35.8177</v>
+        <v>35.1459</v>
       </c>
       <c r="D13" t="n">
-        <v>52.4638</v>
+        <v>51.0778</v>
       </c>
       <c r="E13" t="n">
-        <v>61.1828</v>
+        <v>59.7127</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.7971</v>
+        <v>23.8978</v>
       </c>
       <c r="C14" t="n">
-        <v>35.2203</v>
+        <v>35.2536</v>
       </c>
       <c r="D14" t="n">
-        <v>50.7028</v>
+        <v>50.8313</v>
       </c>
       <c r="E14" t="n">
-        <v>61.1652</v>
+        <v>60.0409</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.661</v>
+        <v>25.5651</v>
       </c>
       <c r="C15" t="n">
-        <v>35.0439</v>
+        <v>35.0477</v>
       </c>
       <c r="D15" t="n">
-        <v>51.568</v>
+        <v>50.494</v>
       </c>
       <c r="E15" t="n">
-        <v>61.1812</v>
+        <v>60.2183</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.2652</v>
+        <v>26.6651</v>
       </c>
       <c r="C16" t="n">
-        <v>35.3429</v>
+        <v>35.0463</v>
       </c>
       <c r="D16" t="n">
-        <v>50.4221</v>
+        <v>51.9409</v>
       </c>
       <c r="E16" t="n">
-        <v>60.8097</v>
+        <v>61.3391</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.476</v>
+        <v>25.6596</v>
       </c>
       <c r="C17" t="n">
-        <v>35.091</v>
+        <v>34.8846</v>
       </c>
       <c r="D17" t="n">
-        <v>51.9914</v>
+        <v>50.454</v>
       </c>
       <c r="E17" t="n">
-        <v>60.9984</v>
+        <v>60.8287</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7995</v>
+        <v>10.7876</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8695</v>
+        <v>12.8602</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4983</v>
+        <v>17.4088</v>
       </c>
       <c r="E2" t="n">
-        <v>20.8891</v>
+        <v>20.7664</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.9577</v>
+        <v>20.1109</v>
       </c>
       <c r="C3" t="n">
-        <v>19.7475</v>
+        <v>19.1903</v>
       </c>
       <c r="D3" t="n">
-        <v>27.015</v>
+        <v>26.1528</v>
       </c>
       <c r="E3" t="n">
-        <v>31.1084</v>
+        <v>31.2858</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.011</v>
+        <v>27.0467</v>
       </c>
       <c r="C4" t="n">
-        <v>25.3156</v>
+        <v>25.2036</v>
       </c>
       <c r="D4" t="n">
-        <v>36.4748</v>
+        <v>34.2238</v>
       </c>
       <c r="E4" t="n">
-        <v>37.2083</v>
+        <v>38.4966</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.4796</v>
+        <v>21.3022</v>
       </c>
       <c r="C5" t="n">
-        <v>26.7994</v>
+        <v>26.6036</v>
       </c>
       <c r="D5" t="n">
-        <v>36.5521</v>
+        <v>38.0827</v>
       </c>
       <c r="E5" t="n">
-        <v>42.1778</v>
+        <v>41.3366</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9149</v>
+        <v>25.0041</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4227</v>
+        <v>31.2838</v>
       </c>
       <c r="D6" t="n">
-        <v>40.6143</v>
+        <v>38.457</v>
       </c>
       <c r="E6" t="n">
-        <v>44.0144</v>
+        <v>44.4086</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.7528</v>
+        <v>29.7783</v>
       </c>
       <c r="C7" t="n">
-        <v>36.7701</v>
+        <v>36.7954</v>
       </c>
       <c r="D7" t="n">
-        <v>43.9416</v>
+        <v>43.9821</v>
       </c>
       <c r="E7" t="n">
-        <v>50.6011</v>
+        <v>50.9323</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.7354</v>
+        <v>21.7178</v>
       </c>
       <c r="C8" t="n">
-        <v>33.3168</v>
+        <v>33.8005</v>
       </c>
       <c r="D8" t="n">
-        <v>43.3863</v>
+        <v>44.4462</v>
       </c>
       <c r="E8" t="n">
-        <v>47.0644</v>
+        <v>49.1267</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.0965</v>
+        <v>25.2007</v>
       </c>
       <c r="C9" t="n">
-        <v>34.4007</v>
+        <v>34.0763</v>
       </c>
       <c r="D9" t="n">
-        <v>49.36</v>
+        <v>46.2907</v>
       </c>
       <c r="E9" t="n">
-        <v>51.4811</v>
+        <v>50.4543</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.4511</v>
+        <v>27.5411</v>
       </c>
       <c r="C10" t="n">
-        <v>34.1292</v>
+        <v>34.3065</v>
       </c>
       <c r="D10" t="n">
-        <v>47.9899</v>
+        <v>47.8316</v>
       </c>
       <c r="E10" t="n">
-        <v>53.5645</v>
+        <v>57.1876</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1646</v>
+        <v>24.7626</v>
       </c>
       <c r="C11" t="n">
-        <v>34.5827</v>
+        <v>34.331</v>
       </c>
       <c r="D11" t="n">
-        <v>50.7555</v>
+        <v>50.6888</v>
       </c>
       <c r="E11" t="n">
-        <v>58.5805</v>
+        <v>59.0508</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1701</v>
+        <v>27.2711</v>
       </c>
       <c r="C12" t="n">
-        <v>34.8824</v>
+        <v>35.0416</v>
       </c>
       <c r="D12" t="n">
-        <v>50.4372</v>
+        <v>50.7794</v>
       </c>
       <c r="E12" t="n">
-        <v>61.5416</v>
+        <v>59.9081</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6997</v>
+        <v>29.7412</v>
       </c>
       <c r="C13" t="n">
-        <v>35.423</v>
+        <v>35.3823</v>
       </c>
       <c r="D13" t="n">
-        <v>51.2137</v>
+        <v>51.0939</v>
       </c>
       <c r="E13" t="n">
-        <v>61.3024</v>
+        <v>61.3251</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9021</v>
+        <v>23.9507</v>
       </c>
       <c r="C14" t="n">
-        <v>35.8658</v>
+        <v>35.5458</v>
       </c>
       <c r="D14" t="n">
-        <v>51.1883</v>
+        <v>49.9875</v>
       </c>
       <c r="E14" t="n">
-        <v>60.8203</v>
+        <v>62.7512</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.0718</v>
+        <v>26.3272</v>
       </c>
       <c r="C15" t="n">
-        <v>35.8139</v>
+        <v>35.7615</v>
       </c>
       <c r="D15" t="n">
-        <v>50.4905</v>
+        <v>51.9909</v>
       </c>
       <c r="E15" t="n">
-        <v>67.0134</v>
+        <v>62.2823</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.1382</v>
+        <v>27.7162</v>
       </c>
       <c r="C16" t="n">
-        <v>35.3699</v>
+        <v>35.5166</v>
       </c>
       <c r="D16" t="n">
-        <v>50.7706</v>
+        <v>51.8023</v>
       </c>
       <c r="E16" t="n">
-        <v>62.3378</v>
+        <v>61.1654</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.3203</v>
+        <v>26.0047</v>
       </c>
       <c r="C17" t="n">
-        <v>35.9336</v>
+        <v>35.9806</v>
       </c>
       <c r="D17" t="n">
-        <v>51.0827</v>
+        <v>51.4307</v>
       </c>
       <c r="E17" t="n">
-        <v>62.5328</v>
+        <v>61.8555</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0749</v>
+        <v>13.0696</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0166</v>
+        <v>13.964</v>
       </c>
       <c r="D2" t="n">
-        <v>19.275</v>
+        <v>19.2222</v>
       </c>
       <c r="E2" t="n">
-        <v>22.385</v>
+        <v>22.247</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.2479</v>
+        <v>22.9169</v>
       </c>
       <c r="C3" t="n">
-        <v>23.5638</v>
+        <v>23.6292</v>
       </c>
       <c r="D3" t="n">
-        <v>31.0187</v>
+        <v>30.8874</v>
       </c>
       <c r="E3" t="n">
-        <v>34.8638</v>
+        <v>34.2875</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.6996</v>
+        <v>31.7399</v>
       </c>
       <c r="C4" t="n">
-        <v>29.6361</v>
+        <v>30.8777</v>
       </c>
       <c r="D4" t="n">
-        <v>37.4406</v>
+        <v>37.652</v>
       </c>
       <c r="E4" t="n">
-        <v>43.2293</v>
+        <v>41.7719</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.711</v>
+        <v>26.8092</v>
       </c>
       <c r="C5" t="n">
-        <v>29.0224</v>
+        <v>29.1023</v>
       </c>
       <c r="D5" t="n">
-        <v>40.5814</v>
+        <v>40.3446</v>
       </c>
       <c r="E5" t="n">
-        <v>49.0048</v>
+        <v>48.4962</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.7616</v>
+        <v>31.6647</v>
       </c>
       <c r="C6" t="n">
-        <v>32.665</v>
+        <v>33.0556</v>
       </c>
       <c r="D6" t="n">
-        <v>46.5043</v>
+        <v>46.3722</v>
       </c>
       <c r="E6" t="n">
-        <v>50.3912</v>
+        <v>50.6963</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.4148</v>
+        <v>37.4171</v>
       </c>
       <c r="C7" t="n">
-        <v>38.3412</v>
+        <v>38.5482</v>
       </c>
       <c r="D7" t="n">
-        <v>50.8303</v>
+        <v>45.3809</v>
       </c>
       <c r="E7" t="n">
-        <v>58.4948</v>
+        <v>58.761</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.9488</v>
+        <v>33.4198</v>
       </c>
       <c r="C8" t="n">
-        <v>34.3815</v>
+        <v>34.3188</v>
       </c>
       <c r="D8" t="n">
-        <v>46.7874</v>
+        <v>45.2652</v>
       </c>
       <c r="E8" t="n">
-        <v>55.2739</v>
+        <v>58.8855</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.7508</v>
+        <v>34.2022</v>
       </c>
       <c r="C9" t="n">
-        <v>34.4078</v>
+        <v>34.7502</v>
       </c>
       <c r="D9" t="n">
-        <v>52.4603</v>
+        <v>50.7296</v>
       </c>
       <c r="E9" t="n">
-        <v>58.4913</v>
+        <v>58.1674</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.4109</v>
+        <v>34.4174</v>
       </c>
       <c r="C10" t="n">
-        <v>34.9038</v>
+        <v>34.565</v>
       </c>
       <c r="D10" t="n">
-        <v>52.1504</v>
+        <v>52.7463</v>
       </c>
       <c r="E10" t="n">
-        <v>59.4074</v>
+        <v>60.0605</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.6767</v>
+        <v>34.4968</v>
       </c>
       <c r="C11" t="n">
-        <v>35.2442</v>
+        <v>35.0333</v>
       </c>
       <c r="D11" t="n">
-        <v>54.8549</v>
+        <v>54.4182</v>
       </c>
       <c r="E11" t="n">
-        <v>63.4852</v>
+        <v>61.1861</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.6198</v>
+        <v>35.1121</v>
       </c>
       <c r="C12" t="n">
-        <v>36.2441</v>
+        <v>35.6308</v>
       </c>
       <c r="D12" t="n">
-        <v>58.3842</v>
+        <v>54.1042</v>
       </c>
       <c r="E12" t="n">
-        <v>63.3927</v>
+        <v>62.3278</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.9882</v>
+        <v>34.7961</v>
       </c>
       <c r="C13" t="n">
-        <v>35.1582</v>
+        <v>35.8451</v>
       </c>
       <c r="D13" t="n">
-        <v>60.1617</v>
+        <v>58.615</v>
       </c>
       <c r="E13" t="n">
-        <v>62.5142</v>
+        <v>60.7096</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.2781</v>
+        <v>35.5045</v>
       </c>
       <c r="C14" t="n">
-        <v>36.2981</v>
+        <v>35.9633</v>
       </c>
       <c r="D14" t="n">
-        <v>59.726</v>
+        <v>57.4405</v>
       </c>
       <c r="E14" t="n">
-        <v>62.6556</v>
+        <v>61.7522</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.5904</v>
+        <v>35.5124</v>
       </c>
       <c r="C15" t="n">
-        <v>36.15</v>
+        <v>35.8288</v>
       </c>
       <c r="D15" t="n">
-        <v>59.8102</v>
+        <v>56.567</v>
       </c>
       <c r="E15" t="n">
-        <v>62.0287</v>
+        <v>63.8705</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.2702</v>
+        <v>35.6495</v>
       </c>
       <c r="C16" t="n">
-        <v>36.5894</v>
+        <v>36.3291</v>
       </c>
       <c r="D16" t="n">
-        <v>59.9086</v>
+        <v>56.4097</v>
       </c>
       <c r="E16" t="n">
-        <v>62.1722</v>
+        <v>60.57</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.6697</v>
+        <v>35.1414</v>
       </c>
       <c r="C17" t="n">
-        <v>36.4452</v>
+        <v>36.9029</v>
       </c>
       <c r="D17" t="n">
-        <v>60.4953</v>
+        <v>60.1526</v>
       </c>
       <c r="E17" t="n">
-        <v>61.9692</v>
+        <v>61.4032</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.76915</v>
+        <v>4.76106</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9505</v>
+        <v>10.9575</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7306</v>
+        <v>14.6886</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7048</v>
+        <v>19.5806</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.274509999999999</v>
+        <v>9.28567</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0571</v>
+        <v>19.0788</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9604</v>
+        <v>27.6088</v>
       </c>
       <c r="E3" t="n">
-        <v>36.805</v>
+        <v>36.2095</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3303</v>
+        <v>13.3725</v>
       </c>
       <c r="C4" t="n">
-        <v>25.68</v>
+        <v>26.2907</v>
       </c>
       <c r="D4" t="n">
-        <v>39.5992</v>
+        <v>39.2175</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2635</v>
+        <v>50.8931</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8103</v>
+        <v>15.778</v>
       </c>
       <c r="C5" t="n">
-        <v>26.8693</v>
+        <v>26.4806</v>
       </c>
       <c r="D5" t="n">
-        <v>46.347</v>
+        <v>43.593</v>
       </c>
       <c r="E5" t="n">
-        <v>60.9606</v>
+        <v>57.5179</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1078</v>
+        <v>19.1611</v>
       </c>
       <c r="C6" t="n">
-        <v>30.2647</v>
+        <v>30.1138</v>
       </c>
       <c r="D6" t="n">
-        <v>56.9916</v>
+        <v>52.8743</v>
       </c>
       <c r="E6" t="n">
-        <v>73.0693</v>
+        <v>67.70699999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.2342</v>
+        <v>22.2524</v>
       </c>
       <c r="C7" t="n">
-        <v>35.2918</v>
+        <v>35.3373</v>
       </c>
       <c r="D7" t="n">
-        <v>64.4487</v>
+        <v>62.2802</v>
       </c>
       <c r="E7" t="n">
-        <v>85.2062</v>
+        <v>79.6717</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8004</v>
+        <v>20.2551</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0479</v>
+        <v>33.8047</v>
       </c>
       <c r="D8" t="n">
-        <v>56.0859</v>
+        <v>55.65</v>
       </c>
       <c r="E8" t="n">
-        <v>73.83329999999999</v>
+        <v>71.6768</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.3726</v>
+        <v>20.5966</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7142</v>
+        <v>34.146</v>
       </c>
       <c r="D9" t="n">
-        <v>57.8091</v>
+        <v>57.0903</v>
       </c>
       <c r="E9" t="n">
-        <v>74.09910000000001</v>
+        <v>72.71129999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8757</v>
+        <v>20.6589</v>
       </c>
       <c r="C10" t="n">
-        <v>34.2288</v>
+        <v>33.5734</v>
       </c>
       <c r="D10" t="n">
-        <v>57.6533</v>
+        <v>57.8611</v>
       </c>
       <c r="E10" t="n">
-        <v>76.31359999999999</v>
+        <v>73.5654</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.8533</v>
+        <v>20.904</v>
       </c>
       <c r="C11" t="n">
-        <v>33.9805</v>
+        <v>33.7385</v>
       </c>
       <c r="D11" t="n">
-        <v>60.019</v>
+        <v>58.3397</v>
       </c>
       <c r="E11" t="n">
-        <v>76.7178</v>
+        <v>75.104</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.0568</v>
+        <v>21.2551</v>
       </c>
       <c r="C12" t="n">
-        <v>34.1769</v>
+        <v>34.0889</v>
       </c>
       <c r="D12" t="n">
-        <v>61.2863</v>
+        <v>60.6681</v>
       </c>
       <c r="E12" t="n">
-        <v>81.613</v>
+        <v>77.8844</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0965</v>
+        <v>20.6583</v>
       </c>
       <c r="C13" t="n">
-        <v>34.6399</v>
+        <v>34.967</v>
       </c>
       <c r="D13" t="n">
-        <v>61.5688</v>
+        <v>60.0909</v>
       </c>
       <c r="E13" t="n">
-        <v>80.50790000000001</v>
+        <v>79.75960000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.955</v>
+        <v>20.978</v>
       </c>
       <c r="C14" t="n">
-        <v>34.2801</v>
+        <v>34.6562</v>
       </c>
       <c r="D14" t="n">
-        <v>60.1107</v>
+        <v>58.7476</v>
       </c>
       <c r="E14" t="n">
-        <v>81.40819999999999</v>
+        <v>79.3035</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4273</v>
+        <v>21.2241</v>
       </c>
       <c r="C15" t="n">
-        <v>34.5763</v>
+        <v>34.5775</v>
       </c>
       <c r="D15" t="n">
-        <v>59.2284</v>
+        <v>59.4708</v>
       </c>
       <c r="E15" t="n">
-        <v>78.8207</v>
+        <v>77.8668</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2269</v>
+        <v>21.0611</v>
       </c>
       <c r="C16" t="n">
-        <v>34.8663</v>
+        <v>34.7651</v>
       </c>
       <c r="D16" t="n">
-        <v>59.3628</v>
+        <v>59.6732</v>
       </c>
       <c r="E16" t="n">
-        <v>81.91240000000001</v>
+        <v>79.5949</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.312</v>
+        <v>21.438</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7035</v>
+        <v>34.6727</v>
       </c>
       <c r="D17" t="n">
-        <v>60.1615</v>
+        <v>59.5957</v>
       </c>
       <c r="E17" t="n">
-        <v>81.4868</v>
+        <v>80.62990000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.79436</v>
+        <v>4.79292</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0762</v>
+        <v>11.0609</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6504</v>
+        <v>14.5672</v>
       </c>
       <c r="E2" t="n">
-        <v>19.8131</v>
+        <v>19.6534</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.37215</v>
+        <v>9.327209999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2169</v>
+        <v>19.1114</v>
       </c>
       <c r="D3" t="n">
-        <v>28.0159</v>
+        <v>27.557</v>
       </c>
       <c r="E3" t="n">
-        <v>37.2017</v>
+        <v>36.3403</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5419</v>
+        <v>13.504</v>
       </c>
       <c r="C4" t="n">
-        <v>26.7898</v>
+        <v>25.9362</v>
       </c>
       <c r="D4" t="n">
-        <v>39.5613</v>
+        <v>38.9778</v>
       </c>
       <c r="E4" t="n">
-        <v>52.6873</v>
+        <v>50.9679</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9414</v>
+        <v>15.9267</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5663</v>
+        <v>26.8302</v>
       </c>
       <c r="D5" t="n">
-        <v>46.0438</v>
+        <v>44.0683</v>
       </c>
       <c r="E5" t="n">
-        <v>60.2057</v>
+        <v>57.5691</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3625</v>
+        <v>19.4147</v>
       </c>
       <c r="C6" t="n">
-        <v>30.3332</v>
+        <v>30.2973</v>
       </c>
       <c r="D6" t="n">
-        <v>55.4162</v>
+        <v>52.7645</v>
       </c>
       <c r="E6" t="n">
-        <v>72.75060000000001</v>
+        <v>69.7467</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.6251</v>
+        <v>22.6443</v>
       </c>
       <c r="C7" t="n">
-        <v>35.4282</v>
+        <v>35.413</v>
       </c>
       <c r="D7" t="n">
-        <v>66.0509</v>
+        <v>61.7109</v>
       </c>
       <c r="E7" t="n">
-        <v>84.8319</v>
+        <v>79.99550000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3968</v>
+        <v>20.4715</v>
       </c>
       <c r="C8" t="n">
-        <v>34.1557</v>
+        <v>34.0543</v>
       </c>
       <c r="D8" t="n">
-        <v>57.7423</v>
+        <v>54.0344</v>
       </c>
       <c r="E8" t="n">
-        <v>71.4683</v>
+        <v>69.1262</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9067</v>
+        <v>20.8517</v>
       </c>
       <c r="C9" t="n">
-        <v>33.5648</v>
+        <v>34.1625</v>
       </c>
       <c r="D9" t="n">
-        <v>58.0234</v>
+        <v>55.0185</v>
       </c>
       <c r="E9" t="n">
-        <v>74.41160000000001</v>
+        <v>72.4743</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2733</v>
+        <v>20.9934</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9858</v>
+        <v>34.3302</v>
       </c>
       <c r="D10" t="n">
-        <v>57.891</v>
+        <v>57.0294</v>
       </c>
       <c r="E10" t="n">
-        <v>74.7625</v>
+        <v>74.628</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3501</v>
+        <v>21.5668</v>
       </c>
       <c r="C11" t="n">
-        <v>33.7631</v>
+        <v>34.5575</v>
       </c>
       <c r="D11" t="n">
-        <v>58.3376</v>
+        <v>57.4242</v>
       </c>
       <c r="E11" t="n">
-        <v>77.7311</v>
+        <v>76.6262</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.476</v>
+        <v>21.3909</v>
       </c>
       <c r="C12" t="n">
-        <v>34.4457</v>
+        <v>34.3258</v>
       </c>
       <c r="D12" t="n">
-        <v>59.4118</v>
+        <v>58.5127</v>
       </c>
       <c r="E12" t="n">
-        <v>78.7452</v>
+        <v>76.9676</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.3258</v>
+        <v>20.9076</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5993</v>
+        <v>34.6126</v>
       </c>
       <c r="D13" t="n">
-        <v>61.4074</v>
+        <v>58.0664</v>
       </c>
       <c r="E13" t="n">
-        <v>77.9318</v>
+        <v>76.7276</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.1022</v>
+        <v>21.5339</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5191</v>
+        <v>34.6085</v>
       </c>
       <c r="D14" t="n">
-        <v>59.5275</v>
+        <v>59.6201</v>
       </c>
       <c r="E14" t="n">
-        <v>79.8058</v>
+        <v>78.5633</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.6914</v>
+        <v>21.4029</v>
       </c>
       <c r="C15" t="n">
-        <v>34.7034</v>
+        <v>34.6834</v>
       </c>
       <c r="D15" t="n">
-        <v>61.0058</v>
+        <v>58.9878</v>
       </c>
       <c r="E15" t="n">
-        <v>80.86660000000001</v>
+        <v>76.05200000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3535</v>
+        <v>21.3419</v>
       </c>
       <c r="C16" t="n">
-        <v>34.7553</v>
+        <v>34.6711</v>
       </c>
       <c r="D16" t="n">
-        <v>61.2367</v>
+        <v>59.1247</v>
       </c>
       <c r="E16" t="n">
-        <v>80.7212</v>
+        <v>78.3625</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.4652</v>
+        <v>21.806</v>
       </c>
       <c r="C17" t="n">
-        <v>35.0577</v>
+        <v>35.0538</v>
       </c>
       <c r="D17" t="n">
-        <v>60.7047</v>
+        <v>60.7631</v>
       </c>
       <c r="E17" t="n">
-        <v>81.31180000000001</v>
+        <v>78.89239999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.96224</v>
+        <v>8.94727</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5539</v>
+        <v>13.5105</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7676</v>
+        <v>18.7343</v>
       </c>
       <c r="E2" t="n">
-        <v>22.3755</v>
+        <v>22.266</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.115</v>
+        <v>17.0088</v>
       </c>
       <c r="C3" t="n">
-        <v>22.6804</v>
+        <v>22.4601</v>
       </c>
       <c r="D3" t="n">
-        <v>34.9836</v>
+        <v>34.5661</v>
       </c>
       <c r="E3" t="n">
-        <v>41.4366</v>
+        <v>40.8205</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.7763</v>
+        <v>24.4183</v>
       </c>
       <c r="C4" t="n">
-        <v>31.2207</v>
+        <v>30.7</v>
       </c>
       <c r="D4" t="n">
-        <v>49.9001</v>
+        <v>49.7062</v>
       </c>
       <c r="E4" t="n">
-        <v>58.8805</v>
+        <v>57.8352</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.8805</v>
+        <v>24.7415</v>
       </c>
       <c r="C5" t="n">
-        <v>29.5697</v>
+        <v>29.7224</v>
       </c>
       <c r="D5" t="n">
-        <v>54.8897</v>
+        <v>53.3498</v>
       </c>
       <c r="E5" t="n">
-        <v>66.3172</v>
+        <v>63.7059</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2423</v>
+        <v>28.3648</v>
       </c>
       <c r="C6" t="n">
-        <v>32.8696</v>
+        <v>32.7876</v>
       </c>
       <c r="D6" t="n">
-        <v>63.9923</v>
+        <v>62.497</v>
       </c>
       <c r="E6" t="n">
-        <v>79.29259999999999</v>
+        <v>76.2089</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3575</v>
+        <v>34.3539</v>
       </c>
       <c r="C7" t="n">
-        <v>37.7031</v>
+        <v>37.6817</v>
       </c>
       <c r="D7" t="n">
-        <v>74.7183</v>
+        <v>72.8336</v>
       </c>
       <c r="E7" t="n">
-        <v>91.806</v>
+        <v>89.6024</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.5026</v>
+        <v>31.4333</v>
       </c>
       <c r="C8" t="n">
-        <v>36.4444</v>
+        <v>36.5706</v>
       </c>
       <c r="D8" t="n">
-        <v>65.86960000000001</v>
+        <v>66.8751</v>
       </c>
       <c r="E8" t="n">
-        <v>80.854</v>
+        <v>83.864</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3071</v>
+        <v>31.6523</v>
       </c>
       <c r="C9" t="n">
-        <v>36.803</v>
+        <v>36.7487</v>
       </c>
       <c r="D9" t="n">
-        <v>66.27849999999999</v>
+        <v>66.2273</v>
       </c>
       <c r="E9" t="n">
-        <v>83.0718</v>
+        <v>81.27030000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.2658</v>
+        <v>32.3943</v>
       </c>
       <c r="C10" t="n">
-        <v>36.9828</v>
+        <v>37.1377</v>
       </c>
       <c r="D10" t="n">
-        <v>68.2542</v>
+        <v>69.92059999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>84.2627</v>
+        <v>83.4845</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.5295</v>
+        <v>32.463</v>
       </c>
       <c r="C11" t="n">
-        <v>37.0524</v>
+        <v>36.8369</v>
       </c>
       <c r="D11" t="n">
-        <v>70.4507</v>
+        <v>68.7353</v>
       </c>
       <c r="E11" t="n">
-        <v>84.9554</v>
+        <v>84.5521</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.232</v>
+        <v>32.2876</v>
       </c>
       <c r="C12" t="n">
-        <v>37.0406</v>
+        <v>36.9734</v>
       </c>
       <c r="D12" t="n">
-        <v>70.4696</v>
+        <v>69.5586</v>
       </c>
       <c r="E12" t="n">
-        <v>88.1765</v>
+        <v>85.9868</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.0822</v>
+        <v>32.5156</v>
       </c>
       <c r="C13" t="n">
-        <v>37.5052</v>
+        <v>37.2726</v>
       </c>
       <c r="D13" t="n">
-        <v>72.2791</v>
+        <v>69.1576</v>
       </c>
       <c r="E13" t="n">
-        <v>88.4006</v>
+        <v>86.0772</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.6076</v>
+        <v>32.7024</v>
       </c>
       <c r="C14" t="n">
-        <v>36.7324</v>
+        <v>36.9786</v>
       </c>
       <c r="D14" t="n">
-        <v>72.5151</v>
+        <v>69.95699999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>87.30289999999999</v>
+        <v>86.76690000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.9198</v>
+        <v>32.0394</v>
       </c>
       <c r="C15" t="n">
-        <v>37.0286</v>
+        <v>36.8112</v>
       </c>
       <c r="D15" t="n">
-        <v>72.9054</v>
+        <v>71.8068</v>
       </c>
       <c r="E15" t="n">
-        <v>88.6516</v>
+        <v>87.06270000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7815</v>
+        <v>32.4428</v>
       </c>
       <c r="C16" t="n">
-        <v>37.1374</v>
+        <v>36.9954</v>
       </c>
       <c r="D16" t="n">
-        <v>71.1193</v>
+        <v>71.3164</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99469999999999</v>
+        <v>87.78749999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.7905</v>
+        <v>32.9663</v>
       </c>
       <c r="C17" t="n">
-        <v>37.1597</v>
+        <v>36.7836</v>
       </c>
       <c r="D17" t="n">
-        <v>72.3126</v>
+        <v>71.6751</v>
       </c>
       <c r="E17" t="n">
-        <v>90.28530000000001</v>
+        <v>88.88120000000001</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4022</v>
+        <v>10.3979</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8392</v>
+        <v>12.8738</v>
       </c>
       <c r="D2" t="n">
-        <v>17.5628</v>
+        <v>17.556</v>
       </c>
       <c r="E2" t="n">
-        <v>21.1445</v>
+        <v>21.2293</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.2621</v>
+        <v>19.5717</v>
       </c>
       <c r="C3" t="n">
-        <v>20.068</v>
+        <v>18.9904</v>
       </c>
       <c r="D3" t="n">
-        <v>27.642</v>
+        <v>27.6808</v>
       </c>
       <c r="E3" t="n">
-        <v>32.678</v>
+        <v>32.0838</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.5818</v>
+        <v>25.8545</v>
       </c>
       <c r="C4" t="n">
-        <v>24.339</v>
+        <v>24.3294</v>
       </c>
       <c r="D4" t="n">
-        <v>31.2535</v>
+        <v>31.5612</v>
       </c>
       <c r="E4" t="n">
-        <v>41.2357</v>
+        <v>41.3653</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.7055</v>
+        <v>20.7599</v>
       </c>
       <c r="C5" t="n">
-        <v>27.5828</v>
+        <v>27.0067</v>
       </c>
       <c r="D5" t="n">
-        <v>34.2495</v>
+        <v>34.3419</v>
       </c>
       <c r="E5" t="n">
-        <v>43.6254</v>
+        <v>43.6216</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.3979</v>
+        <v>24.5129</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4261</v>
+        <v>31.3268</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4655</v>
+        <v>38.2656</v>
       </c>
       <c r="E6" t="n">
-        <v>43.8503</v>
+        <v>43.7242</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9492</v>
+        <v>29.0014</v>
       </c>
       <c r="C7" t="n">
-        <v>36.8289</v>
+        <v>36.6161</v>
       </c>
       <c r="D7" t="n">
-        <v>38.8238</v>
+        <v>38.7779</v>
       </c>
       <c r="E7" t="n">
-        <v>49.6798</v>
+        <v>49.0051</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.9859</v>
+        <v>21.1769</v>
       </c>
       <c r="C8" t="n">
-        <v>33.8648</v>
+        <v>33.6177</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0066</v>
+        <v>39.9662</v>
       </c>
       <c r="E8" t="n">
-        <v>46.8689</v>
+        <v>46.1676</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7177</v>
+        <v>23.8056</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1712</v>
+        <v>33.7761</v>
       </c>
       <c r="D9" t="n">
-        <v>44.1523</v>
+        <v>45.1268</v>
       </c>
       <c r="E9" t="n">
-        <v>51.3434</v>
+        <v>52.1624</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.2289</v>
+        <v>25.7097</v>
       </c>
       <c r="C10" t="n">
-        <v>34.2785</v>
+        <v>34.2037</v>
       </c>
       <c r="D10" t="n">
-        <v>45.9774</v>
+        <v>50.4728</v>
       </c>
       <c r="E10" t="n">
-        <v>50.165</v>
+        <v>49.8518</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2005</v>
+        <v>24.4994</v>
       </c>
       <c r="C11" t="n">
-        <v>34.8273</v>
+        <v>34.1852</v>
       </c>
       <c r="D11" t="n">
-        <v>48.8442</v>
+        <v>50.5008</v>
       </c>
       <c r="E11" t="n">
-        <v>57.4789</v>
+        <v>53.3219</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.394</v>
+        <v>26.4311</v>
       </c>
       <c r="C12" t="n">
-        <v>34.4234</v>
+        <v>34.6239</v>
       </c>
       <c r="D12" t="n">
-        <v>51.9229</v>
+        <v>49.3328</v>
       </c>
       <c r="E12" t="n">
-        <v>59.3219</v>
+        <v>57.578</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.8397</v>
+        <v>28.9706</v>
       </c>
       <c r="C13" t="n">
-        <v>35.5072</v>
+        <v>35.4001</v>
       </c>
       <c r="D13" t="n">
-        <v>49.7896</v>
+        <v>51.6232</v>
       </c>
       <c r="E13" t="n">
-        <v>59.9031</v>
+        <v>59.3416</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.6562</v>
+        <v>23.926</v>
       </c>
       <c r="C14" t="n">
-        <v>35.3047</v>
+        <v>34.7757</v>
       </c>
       <c r="D14" t="n">
-        <v>51.0701</v>
+        <v>51.4971</v>
       </c>
       <c r="E14" t="n">
-        <v>56.8152</v>
+        <v>60.1626</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.3147</v>
+        <v>25.3284</v>
       </c>
       <c r="C15" t="n">
-        <v>35.3693</v>
+        <v>35.0947</v>
       </c>
       <c r="D15" t="n">
-        <v>50.7772</v>
+        <v>51.4514</v>
       </c>
       <c r="E15" t="n">
-        <v>59.6162</v>
+        <v>61.1522</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.5429</v>
+        <v>26.7317</v>
       </c>
       <c r="C16" t="n">
-        <v>35.0745</v>
+        <v>34.8126</v>
       </c>
       <c r="D16" t="n">
-        <v>50.5512</v>
+        <v>50.7663</v>
       </c>
       <c r="E16" t="n">
-        <v>62.3775</v>
+        <v>61.9128</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.6284</v>
+        <v>25.7455</v>
       </c>
       <c r="C17" t="n">
-        <v>35.3618</v>
+        <v>34.7047</v>
       </c>
       <c r="D17" t="n">
-        <v>51.5324</v>
+        <v>51.743</v>
       </c>
       <c r="E17" t="n">
-        <v>64.12130000000001</v>
+        <v>62.4807</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7104</v>
+        <v>10.7365</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7263</v>
+        <v>12.8763</v>
       </c>
       <c r="D2" t="n">
-        <v>17.3202</v>
+        <v>17.384</v>
       </c>
       <c r="E2" t="n">
-        <v>20.9683</v>
+        <v>20.9972</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.7498</v>
+        <v>20.0177</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3072</v>
+        <v>19.6618</v>
       </c>
       <c r="D3" t="n">
-        <v>26.3896</v>
+        <v>27.5859</v>
       </c>
       <c r="E3" t="n">
-        <v>32.0149</v>
+        <v>30.823</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.525</v>
+        <v>27.531</v>
       </c>
       <c r="C4" t="n">
-        <v>25.2887</v>
+        <v>25.5468</v>
       </c>
       <c r="D4" t="n">
-        <v>33.2018</v>
+        <v>34.1081</v>
       </c>
       <c r="E4" t="n">
-        <v>38.1842</v>
+        <v>38.7155</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9269</v>
+        <v>20.7427</v>
       </c>
       <c r="C5" t="n">
-        <v>26.8527</v>
+        <v>26.8162</v>
       </c>
       <c r="D5" t="n">
-        <v>34.2241</v>
+        <v>34.8996</v>
       </c>
       <c r="E5" t="n">
-        <v>42.5114</v>
+        <v>39.7741</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.8446</v>
+        <v>24.959</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4302</v>
+        <v>31.0873</v>
       </c>
       <c r="D6" t="n">
-        <v>37.4759</v>
+        <v>38.0665</v>
       </c>
       <c r="E6" t="n">
-        <v>44.7195</v>
+        <v>43.9373</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.7558</v>
+        <v>29.8076</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5763</v>
+        <v>36.2243</v>
       </c>
       <c r="D7" t="n">
-        <v>43.5671</v>
+        <v>43.7186</v>
       </c>
       <c r="E7" t="n">
-        <v>50.638</v>
+        <v>50.7062</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6682</v>
+        <v>21.9237</v>
       </c>
       <c r="C8" t="n">
-        <v>33.3612</v>
+        <v>33.6459</v>
       </c>
       <c r="D8" t="n">
-        <v>41.1511</v>
+        <v>42.9576</v>
       </c>
       <c r="E8" t="n">
-        <v>49.2313</v>
+        <v>47.126</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.7233</v>
+        <v>24.8972</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6174</v>
+        <v>33.7101</v>
       </c>
       <c r="D9" t="n">
-        <v>43.5527</v>
+        <v>43.598</v>
       </c>
       <c r="E9" t="n">
-        <v>49.791</v>
+        <v>50.6614</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.5577</v>
+        <v>27.3512</v>
       </c>
       <c r="C10" t="n">
-        <v>34.4897</v>
+        <v>33.6487</v>
       </c>
       <c r="D10" t="n">
-        <v>45.4727</v>
+        <v>43.3383</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2454</v>
+        <v>55.3379</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9277</v>
+        <v>24.835</v>
       </c>
       <c r="C11" t="n">
-        <v>34.2018</v>
+        <v>33.473</v>
       </c>
       <c r="D11" t="n">
-        <v>45.6011</v>
+        <v>50.0669</v>
       </c>
       <c r="E11" t="n">
-        <v>59.0896</v>
+        <v>60.0621</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.0761</v>
+        <v>27.1511</v>
       </c>
       <c r="C12" t="n">
-        <v>35.2492</v>
+        <v>34.4568</v>
       </c>
       <c r="D12" t="n">
-        <v>50.5523</v>
+        <v>49.9437</v>
       </c>
       <c r="E12" t="n">
-        <v>59.5603</v>
+        <v>59.0606</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7308</v>
+        <v>29.7705</v>
       </c>
       <c r="C13" t="n">
-        <v>35.6334</v>
+        <v>35.0611</v>
       </c>
       <c r="D13" t="n">
-        <v>51.1614</v>
+        <v>49.0705</v>
       </c>
       <c r="E13" t="n">
-        <v>61.0143</v>
+        <v>60.5558</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.5821</v>
+        <v>24.0495</v>
       </c>
       <c r="C14" t="n">
-        <v>35.3026</v>
+        <v>35.1427</v>
       </c>
       <c r="D14" t="n">
-        <v>50.4329</v>
+        <v>50.5304</v>
       </c>
       <c r="E14" t="n">
-        <v>60.3587</v>
+        <v>60.8396</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.8797</v>
+        <v>26.3095</v>
       </c>
       <c r="C15" t="n">
-        <v>34.8618</v>
+        <v>35.3258</v>
       </c>
       <c r="D15" t="n">
-        <v>50.4541</v>
+        <v>51.4416</v>
       </c>
       <c r="E15" t="n">
-        <v>60.4245</v>
+        <v>61.1556</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.2859</v>
+        <v>27.5583</v>
       </c>
       <c r="C16" t="n">
-        <v>35.5743</v>
+        <v>35.5035</v>
       </c>
       <c r="D16" t="n">
-        <v>51.653</v>
+        <v>52.0578</v>
       </c>
       <c r="E16" t="n">
-        <v>61.2018</v>
+        <v>61.5071</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.4189</v>
+        <v>26.1032</v>
       </c>
       <c r="C17" t="n">
-        <v>35.5723</v>
+        <v>35.4682</v>
       </c>
       <c r="D17" t="n">
-        <v>50.7757</v>
+        <v>51.6374</v>
       </c>
       <c r="E17" t="n">
-        <v>61.426</v>
+        <v>61.3594</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.9279</v>
+        <v>13.0498</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8545</v>
+        <v>13.9692</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0642</v>
+        <v>19.1423</v>
       </c>
       <c r="E2" t="n">
-        <v>22.3904</v>
+        <v>22.4691</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.0262</v>
+        <v>23.1856</v>
       </c>
       <c r="C3" t="n">
-        <v>23.3139</v>
+        <v>23.5656</v>
       </c>
       <c r="D3" t="n">
-        <v>30.5863</v>
+        <v>30.1704</v>
       </c>
       <c r="E3" t="n">
-        <v>34.2445</v>
+        <v>34.2275</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0486</v>
+        <v>31.7557</v>
       </c>
       <c r="C4" t="n">
-        <v>29.2455</v>
+        <v>29.4054</v>
       </c>
       <c r="D4" t="n">
-        <v>34.8612</v>
+        <v>36.433</v>
       </c>
       <c r="E4" t="n">
-        <v>41.2619</v>
+        <v>44.2352</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.0093</v>
+        <v>26.5764</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3007</v>
+        <v>29.1061</v>
       </c>
       <c r="D5" t="n">
-        <v>35.839</v>
+        <v>37.4773</v>
       </c>
       <c r="E5" t="n">
-        <v>50.6609</v>
+        <v>50.3376</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.5612</v>
+        <v>31.6994</v>
       </c>
       <c r="C6" t="n">
-        <v>32.9265</v>
+        <v>33.0212</v>
       </c>
       <c r="D6" t="n">
-        <v>38.8216</v>
+        <v>38.5884</v>
       </c>
       <c r="E6" t="n">
-        <v>50.7448</v>
+        <v>50.1048</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.4655</v>
+        <v>37.3759</v>
       </c>
       <c r="C7" t="n">
-        <v>38.3594</v>
+        <v>38.074</v>
       </c>
       <c r="D7" t="n">
-        <v>45.15</v>
+        <v>50.5608</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7519</v>
+        <v>50.7273</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.0725</v>
+        <v>34.1486</v>
       </c>
       <c r="C8" t="n">
-        <v>35.0605</v>
+        <v>34.9036</v>
       </c>
       <c r="D8" t="n">
-        <v>50.4088</v>
+        <v>49.3836</v>
       </c>
       <c r="E8" t="n">
-        <v>50.802</v>
+        <v>51.3867</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.8849</v>
+        <v>33.5517</v>
       </c>
       <c r="C9" t="n">
-        <v>35.3338</v>
+        <v>34.0102</v>
       </c>
       <c r="D9" t="n">
-        <v>49.238</v>
+        <v>48.7248</v>
       </c>
       <c r="E9" t="n">
-        <v>58.7473</v>
+        <v>59.3569</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.1123</v>
+        <v>34.7054</v>
       </c>
       <c r="C10" t="n">
-        <v>34.9162</v>
+        <v>35.0149</v>
       </c>
       <c r="D10" t="n">
-        <v>50.0345</v>
+        <v>50.4872</v>
       </c>
       <c r="E10" t="n">
-        <v>56.4349</v>
+        <v>58.0803</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.611</v>
+        <v>34.6946</v>
       </c>
       <c r="C11" t="n">
-        <v>35.9705</v>
+        <v>34.945</v>
       </c>
       <c r="D11" t="n">
-        <v>50.7139</v>
+        <v>51.3624</v>
       </c>
       <c r="E11" t="n">
-        <v>60.1273</v>
+        <v>60.792</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.6436</v>
+        <v>34.4985</v>
       </c>
       <c r="C12" t="n">
-        <v>35.6574</v>
+        <v>35.6592</v>
       </c>
       <c r="D12" t="n">
-        <v>51.3757</v>
+        <v>50.3107</v>
       </c>
       <c r="E12" t="n">
-        <v>60.6395</v>
+        <v>60.1194</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.8113</v>
+        <v>35.2754</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4232</v>
+        <v>35.7029</v>
       </c>
       <c r="D13" t="n">
-        <v>50.9036</v>
+        <v>49.8778</v>
       </c>
       <c r="E13" t="n">
-        <v>59.6878</v>
+        <v>59.8363</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.9839</v>
+        <v>34.6776</v>
       </c>
       <c r="C14" t="n">
-        <v>35.9066</v>
+        <v>35.9086</v>
       </c>
       <c r="D14" t="n">
-        <v>51.4357</v>
+        <v>50.9916</v>
       </c>
       <c r="E14" t="n">
-        <v>60.8753</v>
+        <v>60.2204</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.6206</v>
+        <v>34.9434</v>
       </c>
       <c r="C15" t="n">
-        <v>36.1043</v>
+        <v>34.9957</v>
       </c>
       <c r="D15" t="n">
-        <v>51.2269</v>
+        <v>51.2524</v>
       </c>
       <c r="E15" t="n">
-        <v>60.0934</v>
+        <v>59.4908</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.3497</v>
+        <v>35.5186</v>
       </c>
       <c r="C16" t="n">
-        <v>36.087</v>
+        <v>35.9179</v>
       </c>
       <c r="D16" t="n">
-        <v>51.1686</v>
+        <v>49.6259</v>
       </c>
       <c r="E16" t="n">
-        <v>60.7946</v>
+        <v>59.571</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.7885</v>
+        <v>35.3307</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1444</v>
+        <v>36.3649</v>
       </c>
       <c r="D17" t="n">
-        <v>51.7417</v>
+        <v>50.9768</v>
       </c>
       <c r="E17" t="n">
-        <v>58.7248</v>
+        <v>59.037</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.79174</v>
+        <v>4.78189</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8727</v>
+        <v>11.003</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6833</v>
+        <v>14.7772</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7514</v>
+        <v>19.8687</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.351940000000001</v>
+        <v>9.329029999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8205</v>
+        <v>19.0025</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9798</v>
+        <v>28.0098</v>
       </c>
       <c r="E3" t="n">
-        <v>36.9095</v>
+        <v>37.2306</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4956</v>
+        <v>13.4361</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8531</v>
+        <v>26.1418</v>
       </c>
       <c r="D4" t="n">
-        <v>39.615</v>
+        <v>39.8279</v>
       </c>
       <c r="E4" t="n">
-        <v>51.9377</v>
+        <v>51.8434</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8775</v>
+        <v>15.7906</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5437</v>
+        <v>26.36</v>
       </c>
       <c r="D5" t="n">
-        <v>43.6434</v>
+        <v>43.1265</v>
       </c>
       <c r="E5" t="n">
-        <v>59.2545</v>
+        <v>58.6887</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2549</v>
+        <v>19.1699</v>
       </c>
       <c r="C6" t="n">
-        <v>30.1811</v>
+        <v>29.8091</v>
       </c>
       <c r="D6" t="n">
-        <v>51.5064</v>
+        <v>52.101</v>
       </c>
       <c r="E6" t="n">
-        <v>68.6207</v>
+        <v>69.05670000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.3736</v>
+        <v>22.2576</v>
       </c>
       <c r="C7" t="n">
-        <v>35.126</v>
+        <v>34.9694</v>
       </c>
       <c r="D7" t="n">
-        <v>61.1918</v>
+        <v>61.3671</v>
       </c>
       <c r="E7" t="n">
-        <v>81.1454</v>
+        <v>81.4823</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0666</v>
+        <v>19.9493</v>
       </c>
       <c r="C8" t="n">
-        <v>34.1862</v>
+        <v>33.933</v>
       </c>
       <c r="D8" t="n">
-        <v>54.4774</v>
+        <v>55.9207</v>
       </c>
       <c r="E8" t="n">
-        <v>70.3961</v>
+        <v>69.6576</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8948</v>
+        <v>20.3971</v>
       </c>
       <c r="C9" t="n">
-        <v>33.5404</v>
+        <v>33.6514</v>
       </c>
       <c r="D9" t="n">
-        <v>54.0555</v>
+        <v>53.5403</v>
       </c>
       <c r="E9" t="n">
-        <v>70.58669999999999</v>
+        <v>70.2016</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1318</v>
+        <v>20.9039</v>
       </c>
       <c r="C10" t="n">
-        <v>33.8157</v>
+        <v>33.2561</v>
       </c>
       <c r="D10" t="n">
-        <v>56.9358</v>
+        <v>54.2503</v>
       </c>
       <c r="E10" t="n">
-        <v>73.9855</v>
+        <v>71.60290000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.019</v>
+        <v>21.2565</v>
       </c>
       <c r="C11" t="n">
-        <v>33.85</v>
+        <v>33.9753</v>
       </c>
       <c r="D11" t="n">
-        <v>56.0377</v>
+        <v>57.3126</v>
       </c>
       <c r="E11" t="n">
-        <v>75.4841</v>
+        <v>73.86669999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.939</v>
+        <v>21.169</v>
       </c>
       <c r="C12" t="n">
-        <v>34.3758</v>
+        <v>33.8018</v>
       </c>
       <c r="D12" t="n">
-        <v>58.3715</v>
+        <v>59.5006</v>
       </c>
       <c r="E12" t="n">
-        <v>73.5485</v>
+        <v>74.96850000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2728</v>
+        <v>21.5192</v>
       </c>
       <c r="C13" t="n">
-        <v>34.7271</v>
+        <v>34.2064</v>
       </c>
       <c r="D13" t="n">
-        <v>57.8155</v>
+        <v>58.0989</v>
       </c>
       <c r="E13" t="n">
-        <v>77.0611</v>
+        <v>76.8116</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2157</v>
+        <v>21.1373</v>
       </c>
       <c r="C14" t="n">
-        <v>34.3205</v>
+        <v>34.1531</v>
       </c>
       <c r="D14" t="n">
-        <v>58.2728</v>
+        <v>58.6698</v>
       </c>
       <c r="E14" t="n">
-        <v>76.0252</v>
+        <v>77.03189999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2572</v>
+        <v>20.7366</v>
       </c>
       <c r="C15" t="n">
-        <v>34.5359</v>
+        <v>34.098</v>
       </c>
       <c r="D15" t="n">
-        <v>58.4036</v>
+        <v>58.9442</v>
       </c>
       <c r="E15" t="n">
-        <v>77.0093</v>
+        <v>76.2782</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3114</v>
+        <v>20.9879</v>
       </c>
       <c r="C16" t="n">
-        <v>34.3368</v>
+        <v>34.3412</v>
       </c>
       <c r="D16" t="n">
-        <v>57.9923</v>
+        <v>58.8641</v>
       </c>
       <c r="E16" t="n">
-        <v>76.45999999999999</v>
+        <v>77.99299999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.9212</v>
+        <v>21.3639</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7163</v>
+        <v>34.4408</v>
       </c>
       <c r="D17" t="n">
-        <v>59.5188</v>
+        <v>60.2032</v>
       </c>
       <c r="E17" t="n">
-        <v>77.5367</v>
+        <v>78.79989999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.81514</v>
+        <v>4.80202</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9658</v>
+        <v>11.1011</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5547</v>
+        <v>14.6622</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7158</v>
+        <v>19.9011</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.409700000000001</v>
+        <v>9.38073</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8615</v>
+        <v>19.1857</v>
       </c>
       <c r="D3" t="n">
-        <v>27.6701</v>
+        <v>27.8729</v>
       </c>
       <c r="E3" t="n">
-        <v>37.0335</v>
+        <v>37.2638</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.549</v>
+        <v>13.5095</v>
       </c>
       <c r="C4" t="n">
-        <v>26.3247</v>
+        <v>25.9761</v>
       </c>
       <c r="D4" t="n">
-        <v>38.9265</v>
+        <v>38.9794</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2325</v>
+        <v>51.6818</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.09</v>
+        <v>16.0083</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5916</v>
+        <v>26.4189</v>
       </c>
       <c r="D5" t="n">
-        <v>42.8304</v>
+        <v>42.7202</v>
       </c>
       <c r="E5" t="n">
-        <v>57.5772</v>
+        <v>57.8929</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4647</v>
+        <v>19.4091</v>
       </c>
       <c r="C6" t="n">
-        <v>30.2503</v>
+        <v>29.9053</v>
       </c>
       <c r="D6" t="n">
-        <v>50.6991</v>
+        <v>51.6281</v>
       </c>
       <c r="E6" t="n">
-        <v>68.5659</v>
+        <v>68.9229</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7722</v>
+        <v>22.6781</v>
       </c>
       <c r="C7" t="n">
-        <v>35.2506</v>
+        <v>35.0456</v>
       </c>
       <c r="D7" t="n">
-        <v>59.6522</v>
+        <v>59.7463</v>
       </c>
       <c r="E7" t="n">
-        <v>79.52200000000001</v>
+        <v>79.5103</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5126</v>
+        <v>20.4666</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0058</v>
+        <v>33.9981</v>
       </c>
       <c r="D8" t="n">
-        <v>53.0011</v>
+        <v>53.0455</v>
       </c>
       <c r="E8" t="n">
-        <v>69.5699</v>
+        <v>69.52719999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0677</v>
+        <v>20.825</v>
       </c>
       <c r="C9" t="n">
-        <v>33.9805</v>
+        <v>33.7232</v>
       </c>
       <c r="D9" t="n">
-        <v>53.4842</v>
+        <v>50.44</v>
       </c>
       <c r="E9" t="n">
-        <v>74.48439999999999</v>
+        <v>70.63549999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.3211</v>
+        <v>21.2539</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9597</v>
+        <v>33.9391</v>
       </c>
       <c r="D10" t="n">
-        <v>53.8034</v>
+        <v>54.2568</v>
       </c>
       <c r="E10" t="n">
-        <v>73.23820000000001</v>
+        <v>72.1468</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4775</v>
+        <v>21.5455</v>
       </c>
       <c r="C11" t="n">
-        <v>33.9167</v>
+        <v>33.9483</v>
       </c>
       <c r="D11" t="n">
-        <v>55.0332</v>
+        <v>55.9233</v>
       </c>
       <c r="E11" t="n">
-        <v>73.01909999999999</v>
+        <v>72.2353</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.515</v>
+        <v>20.8421</v>
       </c>
       <c r="C12" t="n">
-        <v>34.4784</v>
+        <v>33.8563</v>
       </c>
       <c r="D12" t="n">
-        <v>54.6512</v>
+        <v>55.4606</v>
       </c>
       <c r="E12" t="n">
-        <v>74.9302</v>
+        <v>73.34</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.6059</v>
+        <v>21.5142</v>
       </c>
       <c r="C13" t="n">
-        <v>34.7228</v>
+        <v>34.404</v>
       </c>
       <c r="D13" t="n">
-        <v>56.0815</v>
+        <v>56.3343</v>
       </c>
       <c r="E13" t="n">
-        <v>74.529</v>
+        <v>76.17489999999999</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.6949</v>
+        <v>21.3844</v>
       </c>
       <c r="C14" t="n">
-        <v>34.2449</v>
+        <v>34.1457</v>
       </c>
       <c r="D14" t="n">
-        <v>55.4909</v>
+        <v>54.9523</v>
       </c>
       <c r="E14" t="n">
-        <v>75.0659</v>
+        <v>73.3066</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5709</v>
+        <v>21.4223</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4159</v>
+        <v>34.1687</v>
       </c>
       <c r="D15" t="n">
-        <v>57.5063</v>
+        <v>57.2312</v>
       </c>
       <c r="E15" t="n">
-        <v>76.1918</v>
+        <v>74.92189999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5064</v>
+        <v>21.6536</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4242</v>
+        <v>34.4627</v>
       </c>
       <c r="D16" t="n">
-        <v>56.1372</v>
+        <v>56.3314</v>
       </c>
       <c r="E16" t="n">
-        <v>76.1768</v>
+        <v>75.0731</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6857</v>
+        <v>21.3935</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5886</v>
+        <v>34.7013</v>
       </c>
       <c r="D17" t="n">
-        <v>56.1715</v>
+        <v>57.553</v>
       </c>
       <c r="E17" t="n">
-        <v>76.6747</v>
+        <v>75.8257</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.906650000000001</v>
+        <v>8.965260000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.3361</v>
+        <v>13.5475</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3759</v>
+        <v>18.6149</v>
       </c>
       <c r="E2" t="n">
-        <v>22.243</v>
+        <v>22.4284</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0938</v>
+        <v>17.0897</v>
       </c>
       <c r="C3" t="n">
-        <v>22.3763</v>
+        <v>22.6983</v>
       </c>
       <c r="D3" t="n">
-        <v>33.6774</v>
+        <v>34.1127</v>
       </c>
       <c r="E3" t="n">
-        <v>40.5831</v>
+        <v>40.8548</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.402</v>
+        <v>24.7428</v>
       </c>
       <c r="C4" t="n">
-        <v>29.4445</v>
+        <v>31.1012</v>
       </c>
       <c r="D4" t="n">
-        <v>47.5928</v>
+        <v>48.8284</v>
       </c>
       <c r="E4" t="n">
-        <v>57.3033</v>
+        <v>57.6797</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.7166</v>
+        <v>23.7113</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7195</v>
+        <v>29.2214</v>
       </c>
       <c r="D5" t="n">
-        <v>47.6477</v>
+        <v>46.553</v>
       </c>
       <c r="E5" t="n">
-        <v>60.7798</v>
+        <v>60.9584</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.6397</v>
+        <v>28.2854</v>
       </c>
       <c r="C6" t="n">
-        <v>32.6862</v>
+        <v>32.6284</v>
       </c>
       <c r="D6" t="n">
-        <v>54.1359</v>
+        <v>54.4195</v>
       </c>
       <c r="E6" t="n">
-        <v>71.3364</v>
+        <v>71.946</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.0981</v>
+        <v>34.4088</v>
       </c>
       <c r="C7" t="n">
-        <v>37.5132</v>
+        <v>37.4251</v>
       </c>
       <c r="D7" t="n">
-        <v>61.9048</v>
+        <v>62.0982</v>
       </c>
       <c r="E7" t="n">
-        <v>79.7103</v>
+        <v>80.89230000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.4839</v>
+        <v>31.4575</v>
       </c>
       <c r="C8" t="n">
-        <v>36.4274</v>
+        <v>36.4566</v>
       </c>
       <c r="D8" t="n">
-        <v>60.6169</v>
+        <v>60.1723</v>
       </c>
       <c r="E8" t="n">
-        <v>77.428</v>
+        <v>78.4714</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.1542</v>
+        <v>32.3029</v>
       </c>
       <c r="C9" t="n">
-        <v>36.4885</v>
+        <v>36.3958</v>
       </c>
       <c r="D9" t="n">
-        <v>61.0322</v>
+        <v>60.5263</v>
       </c>
       <c r="E9" t="n">
-        <v>80.0705</v>
+        <v>79.4355</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.8355</v>
+        <v>32.4405</v>
       </c>
       <c r="C10" t="n">
-        <v>36.9024</v>
+        <v>36.6689</v>
       </c>
       <c r="D10" t="n">
-        <v>61.1809</v>
+        <v>60.669</v>
       </c>
       <c r="E10" t="n">
-        <v>80.2461</v>
+        <v>79.2296</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.0988</v>
+        <v>32.3908</v>
       </c>
       <c r="C11" t="n">
-        <v>36.7474</v>
+        <v>36.5642</v>
       </c>
       <c r="D11" t="n">
-        <v>61.8373</v>
+        <v>62.582</v>
       </c>
       <c r="E11" t="n">
-        <v>80.6444</v>
+        <v>81.3472</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4326</v>
+        <v>32.3521</v>
       </c>
       <c r="C12" t="n">
-        <v>36.6295</v>
+        <v>36.5091</v>
       </c>
       <c r="D12" t="n">
-        <v>61.1856</v>
+        <v>61.0765</v>
       </c>
       <c r="E12" t="n">
-        <v>81.09399999999999</v>
+        <v>80.7261</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.7449</v>
+        <v>32.6029</v>
       </c>
       <c r="C13" t="n">
-        <v>36.96</v>
+        <v>36.7162</v>
       </c>
       <c r="D13" t="n">
-        <v>61.7223</v>
+        <v>62.2412</v>
       </c>
       <c r="E13" t="n">
-        <v>79.73099999999999</v>
+        <v>80.6815</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.812</v>
+        <v>32.412</v>
       </c>
       <c r="C14" t="n">
-        <v>36.9251</v>
+        <v>36.9802</v>
       </c>
       <c r="D14" t="n">
-        <v>61.4977</v>
+        <v>60.7954</v>
       </c>
       <c r="E14" t="n">
-        <v>80.75239999999999</v>
+        <v>80.03749999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.9366</v>
+        <v>32.794</v>
       </c>
       <c r="C15" t="n">
-        <v>36.792</v>
+        <v>36.3952</v>
       </c>
       <c r="D15" t="n">
-        <v>61.9308</v>
+        <v>62.3306</v>
       </c>
       <c r="E15" t="n">
-        <v>80.9209</v>
+        <v>81.22150000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7118</v>
+        <v>32.6625</v>
       </c>
       <c r="C16" t="n">
-        <v>36.6844</v>
+        <v>36.7577</v>
       </c>
       <c r="D16" t="n">
-        <v>62.6982</v>
+        <v>61.4005</v>
       </c>
       <c r="E16" t="n">
-        <v>80.38290000000001</v>
+        <v>80.31619999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.8358</v>
+        <v>32.637</v>
       </c>
       <c r="C17" t="n">
-        <v>36.8518</v>
+        <v>36.6046</v>
       </c>
       <c r="D17" t="n">
-        <v>60.9493</v>
+        <v>62.2766</v>
       </c>
       <c r="E17" t="n">
-        <v>80.4837</v>
+        <v>80.50109999999999</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3979</v>
+        <v>10.418</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8738</v>
+        <v>12.9051</v>
       </c>
       <c r="D2" t="n">
-        <v>17.556</v>
+        <v>17.5771</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2293</v>
+        <v>21.1054</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5717</v>
+        <v>18.9466</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9904</v>
+        <v>19.2216</v>
       </c>
       <c r="D3" t="n">
-        <v>27.6808</v>
+        <v>27.6707</v>
       </c>
       <c r="E3" t="n">
-        <v>32.0838</v>
+        <v>34.0945</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.8545</v>
+        <v>26.0552</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3294</v>
+        <v>24.5569</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5612</v>
+        <v>32.8989</v>
       </c>
       <c r="E4" t="n">
-        <v>41.3653</v>
+        <v>42.1012</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.7599</v>
+        <v>20.5618</v>
       </c>
       <c r="C5" t="n">
-        <v>27.0067</v>
+        <v>26.5244</v>
       </c>
       <c r="D5" t="n">
-        <v>34.3419</v>
+        <v>35.7771</v>
       </c>
       <c r="E5" t="n">
-        <v>43.6216</v>
+        <v>43.9717</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.5129</v>
+        <v>24.4922</v>
       </c>
       <c r="C6" t="n">
-        <v>31.3268</v>
+        <v>31.2453</v>
       </c>
       <c r="D6" t="n">
-        <v>38.2656</v>
+        <v>38.1713</v>
       </c>
       <c r="E6" t="n">
-        <v>43.7242</v>
+        <v>44.0222</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0014</v>
+        <v>28.9813</v>
       </c>
       <c r="C7" t="n">
-        <v>36.6161</v>
+        <v>36.3889</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7779</v>
+        <v>38.7085</v>
       </c>
       <c r="E7" t="n">
-        <v>49.0051</v>
+        <v>50.4699</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.1769</v>
+        <v>21.4769</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6177</v>
+        <v>33.9106</v>
       </c>
       <c r="D8" t="n">
-        <v>39.9662</v>
+        <v>40.7288</v>
       </c>
       <c r="E8" t="n">
-        <v>46.1676</v>
+        <v>46.1354</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8056</v>
+        <v>24.1383</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7761</v>
+        <v>34.8092</v>
       </c>
       <c r="D9" t="n">
-        <v>45.1268</v>
+        <v>42.3754</v>
       </c>
       <c r="E9" t="n">
-        <v>52.1624</v>
+        <v>48.8162</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.7097</v>
+        <v>26.2388</v>
       </c>
       <c r="C10" t="n">
-        <v>34.2037</v>
+        <v>34.373</v>
       </c>
       <c r="D10" t="n">
-        <v>50.4728</v>
+        <v>45.0171</v>
       </c>
       <c r="E10" t="n">
-        <v>49.8518</v>
+        <v>51.8144</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4994</v>
+        <v>24.3351</v>
       </c>
       <c r="C11" t="n">
-        <v>34.1852</v>
+        <v>33.9958</v>
       </c>
       <c r="D11" t="n">
-        <v>50.5008</v>
+        <v>48.366</v>
       </c>
       <c r="E11" t="n">
-        <v>53.3219</v>
+        <v>54.4748</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4311</v>
+        <v>26.3977</v>
       </c>
       <c r="C12" t="n">
-        <v>34.6239</v>
+        <v>34.9306</v>
       </c>
       <c r="D12" t="n">
-        <v>49.3328</v>
+        <v>51.0337</v>
       </c>
       <c r="E12" t="n">
-        <v>57.578</v>
+        <v>54.8081</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.9706</v>
+        <v>28.8079</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4001</v>
+        <v>35.2327</v>
       </c>
       <c r="D13" t="n">
-        <v>51.6232</v>
+        <v>49.2139</v>
       </c>
       <c r="E13" t="n">
-        <v>59.3416</v>
+        <v>59.1215</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.926</v>
+        <v>23.9413</v>
       </c>
       <c r="C14" t="n">
-        <v>34.7757</v>
+        <v>34.8602</v>
       </c>
       <c r="D14" t="n">
-        <v>51.4971</v>
+        <v>51.0188</v>
       </c>
       <c r="E14" t="n">
-        <v>60.1626</v>
+        <v>60.6568</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.3284</v>
+        <v>25.8578</v>
       </c>
       <c r="C15" t="n">
-        <v>35.0947</v>
+        <v>34.7188</v>
       </c>
       <c r="D15" t="n">
-        <v>51.4514</v>
+        <v>51.1303</v>
       </c>
       <c r="E15" t="n">
-        <v>61.1522</v>
+        <v>61.295</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.7317</v>
+        <v>27.5654</v>
       </c>
       <c r="C16" t="n">
-        <v>34.8126</v>
+        <v>34.4986</v>
       </c>
       <c r="D16" t="n">
-        <v>50.7663</v>
+        <v>51.0961</v>
       </c>
       <c r="E16" t="n">
-        <v>61.9128</v>
+        <v>61.5436</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.7455</v>
+        <v>25.5093</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7047</v>
+        <v>34.6395</v>
       </c>
       <c r="D17" t="n">
-        <v>51.743</v>
+        <v>51.0048</v>
       </c>
       <c r="E17" t="n">
-        <v>62.4807</v>
+        <v>61.3695</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7365</v>
+        <v>10.7373</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8763</v>
+        <v>12.8058</v>
       </c>
       <c r="D2" t="n">
-        <v>17.384</v>
+        <v>17.3587</v>
       </c>
       <c r="E2" t="n">
-        <v>20.9972</v>
+        <v>20.8915</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0177</v>
+        <v>19.8818</v>
       </c>
       <c r="C3" t="n">
-        <v>19.6618</v>
+        <v>19.506</v>
       </c>
       <c r="D3" t="n">
-        <v>27.5859</v>
+        <v>26.9711</v>
       </c>
       <c r="E3" t="n">
-        <v>30.823</v>
+        <v>32.1268</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.531</v>
+        <v>26.8155</v>
       </c>
       <c r="C4" t="n">
-        <v>25.5468</v>
+        <v>25.0828</v>
       </c>
       <c r="D4" t="n">
-        <v>34.1081</v>
+        <v>34.3745</v>
       </c>
       <c r="E4" t="n">
-        <v>38.7155</v>
+        <v>37.8498</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.7427</v>
+        <v>21.5499</v>
       </c>
       <c r="C5" t="n">
-        <v>26.8162</v>
+        <v>26.4722</v>
       </c>
       <c r="D5" t="n">
-        <v>34.8996</v>
+        <v>36.8163</v>
       </c>
       <c r="E5" t="n">
-        <v>39.7741</v>
+        <v>40.4379</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.959</v>
+        <v>24.962</v>
       </c>
       <c r="C6" t="n">
-        <v>31.0873</v>
+        <v>30.9944</v>
       </c>
       <c r="D6" t="n">
-        <v>38.0665</v>
+        <v>35.8073</v>
       </c>
       <c r="E6" t="n">
-        <v>43.9373</v>
+        <v>43.9588</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.8076</v>
+        <v>29.7098</v>
       </c>
       <c r="C7" t="n">
-        <v>36.2243</v>
+        <v>36.2988</v>
       </c>
       <c r="D7" t="n">
-        <v>43.7186</v>
+        <v>43.8734</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7062</v>
+        <v>50.8518</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.9237</v>
+        <v>21.7369</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6459</v>
+        <v>33.5612</v>
       </c>
       <c r="D8" t="n">
-        <v>42.9576</v>
+        <v>41.6368</v>
       </c>
       <c r="E8" t="n">
-        <v>47.126</v>
+        <v>46.9809</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.8972</v>
+        <v>25.2539</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7101</v>
+        <v>33.715</v>
       </c>
       <c r="D9" t="n">
-        <v>43.598</v>
+        <v>44.1452</v>
       </c>
       <c r="E9" t="n">
-        <v>50.6614</v>
+        <v>52.4143</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.3512</v>
+        <v>27.5803</v>
       </c>
       <c r="C10" t="n">
-        <v>33.6487</v>
+        <v>33.863</v>
       </c>
       <c r="D10" t="n">
-        <v>43.3383</v>
+        <v>45.24</v>
       </c>
       <c r="E10" t="n">
-        <v>55.3379</v>
+        <v>53.8672</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.835</v>
+        <v>24.8982</v>
       </c>
       <c r="C11" t="n">
-        <v>33.473</v>
+        <v>33.8877</v>
       </c>
       <c r="D11" t="n">
-        <v>50.0669</v>
+        <v>49.7157</v>
       </c>
       <c r="E11" t="n">
-        <v>60.0621</v>
+        <v>58.7126</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1511</v>
+        <v>27.0404</v>
       </c>
       <c r="C12" t="n">
-        <v>34.4568</v>
+        <v>34.4087</v>
       </c>
       <c r="D12" t="n">
-        <v>49.9437</v>
+        <v>50.2394</v>
       </c>
       <c r="E12" t="n">
-        <v>59.0606</v>
+        <v>57.6228</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7705</v>
+        <v>29.7347</v>
       </c>
       <c r="C13" t="n">
-        <v>35.0611</v>
+        <v>35.1604</v>
       </c>
       <c r="D13" t="n">
-        <v>49.0705</v>
+        <v>49.8319</v>
       </c>
       <c r="E13" t="n">
-        <v>60.5558</v>
+        <v>60.2339</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0495</v>
+        <v>24.373</v>
       </c>
       <c r="C14" t="n">
-        <v>35.1427</v>
+        <v>35.0122</v>
       </c>
       <c r="D14" t="n">
-        <v>50.5304</v>
+        <v>51.9385</v>
       </c>
       <c r="E14" t="n">
-        <v>60.8396</v>
+        <v>60.29</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.3095</v>
+        <v>26.6471</v>
       </c>
       <c r="C15" t="n">
-        <v>35.3258</v>
+        <v>35.2323</v>
       </c>
       <c r="D15" t="n">
-        <v>51.4416</v>
+        <v>51.4583</v>
       </c>
       <c r="E15" t="n">
-        <v>61.1556</v>
+        <v>62.2777</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.5583</v>
+        <v>28.3476</v>
       </c>
       <c r="C16" t="n">
-        <v>35.5035</v>
+        <v>35.4804</v>
       </c>
       <c r="D16" t="n">
-        <v>52.0578</v>
+        <v>51.4934</v>
       </c>
       <c r="E16" t="n">
-        <v>61.5071</v>
+        <v>61.7455</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.1032</v>
+        <v>26.2253</v>
       </c>
       <c r="C17" t="n">
-        <v>35.4682</v>
+        <v>35.449</v>
       </c>
       <c r="D17" t="n">
-        <v>51.6374</v>
+        <v>51.4486</v>
       </c>
       <c r="E17" t="n">
-        <v>61.3594</v>
+        <v>61.4957</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0498</v>
+        <v>13.0329</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9692</v>
+        <v>13.9561</v>
       </c>
       <c r="D2" t="n">
-        <v>19.1423</v>
+        <v>19.0326</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4691</v>
+        <v>22.3699</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.1856</v>
+        <v>23.0358</v>
       </c>
       <c r="C3" t="n">
-        <v>23.5656</v>
+        <v>22.9934</v>
       </c>
       <c r="D3" t="n">
-        <v>30.1704</v>
+        <v>30.9103</v>
       </c>
       <c r="E3" t="n">
-        <v>34.2275</v>
+        <v>33.1521</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.7557</v>
+        <v>32.096</v>
       </c>
       <c r="C4" t="n">
-        <v>29.4054</v>
+        <v>29.4855</v>
       </c>
       <c r="D4" t="n">
-        <v>36.433</v>
+        <v>35.0783</v>
       </c>
       <c r="E4" t="n">
-        <v>44.2352</v>
+        <v>42.1762</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.5764</v>
+        <v>26.7054</v>
       </c>
       <c r="C5" t="n">
-        <v>29.1061</v>
+        <v>28.9165</v>
       </c>
       <c r="D5" t="n">
-        <v>37.4773</v>
+        <v>36.3638</v>
       </c>
       <c r="E5" t="n">
-        <v>50.3376</v>
+        <v>50.9058</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6994</v>
+        <v>31.6151</v>
       </c>
       <c r="C6" t="n">
-        <v>33.0212</v>
+        <v>32.594</v>
       </c>
       <c r="D6" t="n">
-        <v>38.5884</v>
+        <v>40.464</v>
       </c>
       <c r="E6" t="n">
-        <v>50.1048</v>
+        <v>50.8527</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.3759</v>
+        <v>37.4734</v>
       </c>
       <c r="C7" t="n">
-        <v>38.074</v>
+        <v>38.1113</v>
       </c>
       <c r="D7" t="n">
-        <v>50.5608</v>
+        <v>44.1957</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7273</v>
+        <v>50.7413</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.1486</v>
+        <v>34.2966</v>
       </c>
       <c r="C8" t="n">
-        <v>34.9036</v>
+        <v>34.576</v>
       </c>
       <c r="D8" t="n">
-        <v>49.3836</v>
+        <v>45.9845</v>
       </c>
       <c r="E8" t="n">
-        <v>51.3867</v>
+        <v>50.8309</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.5517</v>
+        <v>34.366</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0102</v>
+        <v>34.6834</v>
       </c>
       <c r="D9" t="n">
-        <v>48.7248</v>
+        <v>50.1389</v>
       </c>
       <c r="E9" t="n">
-        <v>59.3569</v>
+        <v>58.1211</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.7054</v>
+        <v>34.4676</v>
       </c>
       <c r="C10" t="n">
-        <v>35.0149</v>
+        <v>34.5126</v>
       </c>
       <c r="D10" t="n">
-        <v>50.4872</v>
+        <v>49.2666</v>
       </c>
       <c r="E10" t="n">
-        <v>58.0803</v>
+        <v>57.09</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.6946</v>
+        <v>34.9947</v>
       </c>
       <c r="C11" t="n">
-        <v>34.945</v>
+        <v>35.2441</v>
       </c>
       <c r="D11" t="n">
-        <v>51.3624</v>
+        <v>49.3901</v>
       </c>
       <c r="E11" t="n">
-        <v>60.792</v>
+        <v>60.9205</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.4985</v>
+        <v>33.9565</v>
       </c>
       <c r="C12" t="n">
-        <v>35.6592</v>
+        <v>36.0998</v>
       </c>
       <c r="D12" t="n">
-        <v>50.3107</v>
+        <v>50.0744</v>
       </c>
       <c r="E12" t="n">
-        <v>60.1194</v>
+        <v>60.8794</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.2754</v>
+        <v>35.4175</v>
       </c>
       <c r="C13" t="n">
-        <v>35.7029</v>
+        <v>35.0567</v>
       </c>
       <c r="D13" t="n">
-        <v>49.8778</v>
+        <v>50.6371</v>
       </c>
       <c r="E13" t="n">
-        <v>59.8363</v>
+        <v>56.9895</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.6776</v>
+        <v>34.947</v>
       </c>
       <c r="C14" t="n">
-        <v>35.9086</v>
+        <v>35.6309</v>
       </c>
       <c r="D14" t="n">
-        <v>50.9916</v>
+        <v>50.126</v>
       </c>
       <c r="E14" t="n">
-        <v>60.2204</v>
+        <v>60.4458</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.9434</v>
+        <v>35.6322</v>
       </c>
       <c r="C15" t="n">
-        <v>34.9957</v>
+        <v>35.6016</v>
       </c>
       <c r="D15" t="n">
-        <v>51.2524</v>
+        <v>49.7118</v>
       </c>
       <c r="E15" t="n">
-        <v>59.4908</v>
+        <v>59.6321</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.5186</v>
+        <v>35.3335</v>
       </c>
       <c r="C16" t="n">
-        <v>35.9179</v>
+        <v>35.8848</v>
       </c>
       <c r="D16" t="n">
-        <v>49.6259</v>
+        <v>50.7953</v>
       </c>
       <c r="E16" t="n">
-        <v>59.571</v>
+        <v>59.6907</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.3307</v>
+        <v>35.6833</v>
       </c>
       <c r="C17" t="n">
-        <v>36.3649</v>
+        <v>36.189</v>
       </c>
       <c r="D17" t="n">
-        <v>50.9768</v>
+        <v>50.547</v>
       </c>
       <c r="E17" t="n">
-        <v>59.037</v>
+        <v>54.325</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.78189</v>
+        <v>4.76642</v>
       </c>
       <c r="C2" t="n">
-        <v>11.003</v>
+        <v>10.9906</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7772</v>
+        <v>14.7736</v>
       </c>
       <c r="E2" t="n">
-        <v>19.8687</v>
+        <v>19.818</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.329029999999999</v>
+        <v>9.26362</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0025</v>
+        <v>18.9486</v>
       </c>
       <c r="D3" t="n">
-        <v>28.0098</v>
+        <v>27.9183</v>
       </c>
       <c r="E3" t="n">
-        <v>37.2306</v>
+        <v>36.9258</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4361</v>
+        <v>13.3327</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1418</v>
+        <v>26.0657</v>
       </c>
       <c r="D4" t="n">
-        <v>39.8279</v>
+        <v>39.5887</v>
       </c>
       <c r="E4" t="n">
-        <v>51.8434</v>
+        <v>51.5906</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7906</v>
+        <v>15.7986</v>
       </c>
       <c r="C5" t="n">
-        <v>26.36</v>
+        <v>26.2644</v>
       </c>
       <c r="D5" t="n">
-        <v>43.1265</v>
+        <v>43.9834</v>
       </c>
       <c r="E5" t="n">
-        <v>58.6887</v>
+        <v>58.1525</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1699</v>
+        <v>19.0865</v>
       </c>
       <c r="C6" t="n">
-        <v>29.8091</v>
+        <v>29.7491</v>
       </c>
       <c r="D6" t="n">
-        <v>52.101</v>
+        <v>51.9864</v>
       </c>
       <c r="E6" t="n">
-        <v>69.05670000000001</v>
+        <v>68.4678</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.2576</v>
+        <v>22.2091</v>
       </c>
       <c r="C7" t="n">
-        <v>34.9694</v>
+        <v>34.997</v>
       </c>
       <c r="D7" t="n">
-        <v>61.3671</v>
+        <v>61.2383</v>
       </c>
       <c r="E7" t="n">
-        <v>81.4823</v>
+        <v>81.56829999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.9493</v>
+        <v>19.8558</v>
       </c>
       <c r="C8" t="n">
-        <v>33.933</v>
+        <v>33.6273</v>
       </c>
       <c r="D8" t="n">
-        <v>55.9207</v>
+        <v>56.2984</v>
       </c>
       <c r="E8" t="n">
-        <v>69.6576</v>
+        <v>69.9085</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.3971</v>
+        <v>20.8005</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6514</v>
+        <v>33.6877</v>
       </c>
       <c r="D9" t="n">
-        <v>53.5403</v>
+        <v>56.2582</v>
       </c>
       <c r="E9" t="n">
-        <v>70.2016</v>
+        <v>74.2854</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.9039</v>
+        <v>20.7332</v>
       </c>
       <c r="C10" t="n">
-        <v>33.2561</v>
+        <v>33.717</v>
       </c>
       <c r="D10" t="n">
-        <v>54.2503</v>
+        <v>55.9429</v>
       </c>
       <c r="E10" t="n">
-        <v>71.60290000000001</v>
+        <v>74.36669999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2565</v>
+        <v>20.8461</v>
       </c>
       <c r="C11" t="n">
-        <v>33.9753</v>
+        <v>33.6823</v>
       </c>
       <c r="D11" t="n">
-        <v>57.3126</v>
+        <v>55.1169</v>
       </c>
       <c r="E11" t="n">
-        <v>73.86669999999999</v>
+        <v>73.21299999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.169</v>
+        <v>20.909</v>
       </c>
       <c r="C12" t="n">
-        <v>33.8018</v>
+        <v>34.2165</v>
       </c>
       <c r="D12" t="n">
-        <v>59.5006</v>
+        <v>57.3105</v>
       </c>
       <c r="E12" t="n">
-        <v>74.96850000000001</v>
+        <v>76.0415</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5192</v>
+        <v>20.8371</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2064</v>
+        <v>34.3004</v>
       </c>
       <c r="D13" t="n">
-        <v>58.0989</v>
+        <v>56.8308</v>
       </c>
       <c r="E13" t="n">
-        <v>76.8116</v>
+        <v>75.2037</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.1373</v>
+        <v>20.9933</v>
       </c>
       <c r="C14" t="n">
-        <v>34.1531</v>
+        <v>34.4793</v>
       </c>
       <c r="D14" t="n">
-        <v>58.6698</v>
+        <v>58.473</v>
       </c>
       <c r="E14" t="n">
-        <v>77.03189999999999</v>
+        <v>76.7662</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.7366</v>
+        <v>21.2348</v>
       </c>
       <c r="C15" t="n">
-        <v>34.098</v>
+        <v>34.2589</v>
       </c>
       <c r="D15" t="n">
-        <v>58.9442</v>
+        <v>58.285</v>
       </c>
       <c r="E15" t="n">
-        <v>76.2782</v>
+        <v>76.37860000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.9879</v>
+        <v>21.3722</v>
       </c>
       <c r="C16" t="n">
-        <v>34.3412</v>
+        <v>34.3153</v>
       </c>
       <c r="D16" t="n">
-        <v>58.8641</v>
+        <v>60.1459</v>
       </c>
       <c r="E16" t="n">
-        <v>77.99299999999999</v>
+        <v>77.3871</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.3639</v>
+        <v>21.2418</v>
       </c>
       <c r="C17" t="n">
-        <v>34.4408</v>
+        <v>34.1556</v>
       </c>
       <c r="D17" t="n">
-        <v>60.2032</v>
+        <v>58.7481</v>
       </c>
       <c r="E17" t="n">
-        <v>78.79989999999999</v>
+        <v>77.9388</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.80202</v>
+        <v>4.77816</v>
       </c>
       <c r="C2" t="n">
-        <v>11.1011</v>
+        <v>11.079</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6622</v>
+        <v>14.6394</v>
       </c>
       <c r="E2" t="n">
-        <v>19.9011</v>
+        <v>19.8466</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.38073</v>
+        <v>9.30742</v>
       </c>
       <c r="C3" t="n">
-        <v>19.1857</v>
+        <v>19.1491</v>
       </c>
       <c r="D3" t="n">
-        <v>27.8729</v>
+        <v>27.5174</v>
       </c>
       <c r="E3" t="n">
-        <v>37.2638</v>
+        <v>37.1635</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5095</v>
+        <v>13.4699</v>
       </c>
       <c r="C4" t="n">
-        <v>25.9761</v>
+        <v>26.0131</v>
       </c>
       <c r="D4" t="n">
-        <v>38.9794</v>
+        <v>39.2902</v>
       </c>
       <c r="E4" t="n">
-        <v>51.6818</v>
+        <v>51.776</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0083</v>
+        <v>15.9004</v>
       </c>
       <c r="C5" t="n">
-        <v>26.4189</v>
+        <v>26.5531</v>
       </c>
       <c r="D5" t="n">
-        <v>42.7202</v>
+        <v>42.9492</v>
       </c>
       <c r="E5" t="n">
-        <v>57.8929</v>
+        <v>57.355</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4091</v>
+        <v>19.3114</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9053</v>
+        <v>29.9836</v>
       </c>
       <c r="D6" t="n">
-        <v>51.6281</v>
+        <v>50.5154</v>
       </c>
       <c r="E6" t="n">
-        <v>68.9229</v>
+        <v>68.56399999999999</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.6781</v>
+        <v>22.5891</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0456</v>
+        <v>34.951</v>
       </c>
       <c r="D7" t="n">
-        <v>59.7463</v>
+        <v>60.1554</v>
       </c>
       <c r="E7" t="n">
-        <v>79.5103</v>
+        <v>79.6052</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4666</v>
+        <v>20.1053</v>
       </c>
       <c r="C8" t="n">
-        <v>33.9981</v>
+        <v>33.7665</v>
       </c>
       <c r="D8" t="n">
-        <v>53.0455</v>
+        <v>52.5611</v>
       </c>
       <c r="E8" t="n">
-        <v>69.52719999999999</v>
+        <v>70.0684</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.825</v>
+        <v>20.9305</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7232</v>
+        <v>33.6155</v>
       </c>
       <c r="D9" t="n">
-        <v>50.44</v>
+        <v>53.6944</v>
       </c>
       <c r="E9" t="n">
-        <v>70.63549999999999</v>
+        <v>68.756</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2539</v>
+        <v>20.8703</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9391</v>
+        <v>33.8918</v>
       </c>
       <c r="D10" t="n">
-        <v>54.2568</v>
+        <v>54.7327</v>
       </c>
       <c r="E10" t="n">
-        <v>72.1468</v>
+        <v>73.5031</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5455</v>
+        <v>21.2491</v>
       </c>
       <c r="C11" t="n">
-        <v>33.9483</v>
+        <v>33.9504</v>
       </c>
       <c r="D11" t="n">
-        <v>55.9233</v>
+        <v>54.5748</v>
       </c>
       <c r="E11" t="n">
-        <v>72.2353</v>
+        <v>73.7611</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.8421</v>
+        <v>21.3683</v>
       </c>
       <c r="C12" t="n">
-        <v>33.8563</v>
+        <v>34.2662</v>
       </c>
       <c r="D12" t="n">
-        <v>55.4606</v>
+        <v>55.5719</v>
       </c>
       <c r="E12" t="n">
-        <v>73.34</v>
+        <v>73.7333</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5142</v>
+        <v>21.0459</v>
       </c>
       <c r="C13" t="n">
-        <v>34.404</v>
+        <v>33.9654</v>
       </c>
       <c r="D13" t="n">
-        <v>56.3343</v>
+        <v>54.7479</v>
       </c>
       <c r="E13" t="n">
-        <v>76.17489999999999</v>
+        <v>77.4393</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3844</v>
+        <v>21.3047</v>
       </c>
       <c r="C14" t="n">
-        <v>34.1457</v>
+        <v>34.217</v>
       </c>
       <c r="D14" t="n">
-        <v>54.9523</v>
+        <v>57.2697</v>
       </c>
       <c r="E14" t="n">
-        <v>73.3066</v>
+        <v>74.2801</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4223</v>
+        <v>21.4486</v>
       </c>
       <c r="C15" t="n">
-        <v>34.1687</v>
+        <v>34.302</v>
       </c>
       <c r="D15" t="n">
-        <v>57.2312</v>
+        <v>56.7895</v>
       </c>
       <c r="E15" t="n">
-        <v>74.92189999999999</v>
+        <v>74.8929</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.6536</v>
+        <v>21.5039</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4627</v>
+        <v>34.7367</v>
       </c>
       <c r="D16" t="n">
-        <v>56.3314</v>
+        <v>56.1225</v>
       </c>
       <c r="E16" t="n">
-        <v>75.0731</v>
+        <v>75.5936</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.3935</v>
+        <v>21.6537</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7013</v>
+        <v>34.6029</v>
       </c>
       <c r="D17" t="n">
-        <v>57.553</v>
+        <v>56.9408</v>
       </c>
       <c r="E17" t="n">
-        <v>75.8257</v>
+        <v>77.03189999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.965260000000001</v>
+        <v>8.86712</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5475</v>
+        <v>13.4132</v>
       </c>
       <c r="D2" t="n">
-        <v>18.6149</v>
+        <v>18.488</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4284</v>
+        <v>22.2737</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0897</v>
+        <v>16.9104</v>
       </c>
       <c r="C3" t="n">
-        <v>22.6983</v>
+        <v>22.4503</v>
       </c>
       <c r="D3" t="n">
-        <v>34.1127</v>
+        <v>34.0486</v>
       </c>
       <c r="E3" t="n">
-        <v>40.8548</v>
+        <v>40.5075</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.7428</v>
+        <v>24.4282</v>
       </c>
       <c r="C4" t="n">
-        <v>31.1012</v>
+        <v>29.9594</v>
       </c>
       <c r="D4" t="n">
-        <v>48.8284</v>
+        <v>48.7628</v>
       </c>
       <c r="E4" t="n">
-        <v>57.6797</v>
+        <v>57.5386</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.7113</v>
+        <v>24.1095</v>
       </c>
       <c r="C5" t="n">
-        <v>29.2214</v>
+        <v>29.275</v>
       </c>
       <c r="D5" t="n">
-        <v>46.553</v>
+        <v>47.6772</v>
       </c>
       <c r="E5" t="n">
-        <v>60.9584</v>
+        <v>60.4804</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2854</v>
+        <v>28.2894</v>
       </c>
       <c r="C6" t="n">
-        <v>32.6284</v>
+        <v>32.5055</v>
       </c>
       <c r="D6" t="n">
-        <v>54.4195</v>
+        <v>54.6158</v>
       </c>
       <c r="E6" t="n">
-        <v>71.946</v>
+        <v>71.4319</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.4088</v>
+        <v>34.2127</v>
       </c>
       <c r="C7" t="n">
-        <v>37.4251</v>
+        <v>37.3855</v>
       </c>
       <c r="D7" t="n">
-        <v>62.0982</v>
+        <v>62.1226</v>
       </c>
       <c r="E7" t="n">
-        <v>80.89230000000001</v>
+        <v>80.60899999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.4575</v>
+        <v>31.0255</v>
       </c>
       <c r="C8" t="n">
-        <v>36.4566</v>
+        <v>36.423</v>
       </c>
       <c r="D8" t="n">
-        <v>60.1723</v>
+        <v>59.5588</v>
       </c>
       <c r="E8" t="n">
-        <v>78.4714</v>
+        <v>78.2323</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.3029</v>
+        <v>32.5205</v>
       </c>
       <c r="C9" t="n">
-        <v>36.3958</v>
+        <v>36.3093</v>
       </c>
       <c r="D9" t="n">
-        <v>60.5263</v>
+        <v>60.4392</v>
       </c>
       <c r="E9" t="n">
-        <v>79.4355</v>
+        <v>79.7907</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.4405</v>
+        <v>32.0593</v>
       </c>
       <c r="C10" t="n">
-        <v>36.6689</v>
+        <v>36.8331</v>
       </c>
       <c r="D10" t="n">
-        <v>60.669</v>
+        <v>60.2478</v>
       </c>
       <c r="E10" t="n">
-        <v>79.2296</v>
+        <v>80.98860000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3908</v>
+        <v>32.7229</v>
       </c>
       <c r="C11" t="n">
-        <v>36.5642</v>
+        <v>36.6361</v>
       </c>
       <c r="D11" t="n">
-        <v>62.582</v>
+        <v>61.0314</v>
       </c>
       <c r="E11" t="n">
-        <v>81.3472</v>
+        <v>81.1627</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.3521</v>
+        <v>32.4754</v>
       </c>
       <c r="C12" t="n">
-        <v>36.5091</v>
+        <v>36.685</v>
       </c>
       <c r="D12" t="n">
-        <v>61.0765</v>
+        <v>62.2401</v>
       </c>
       <c r="E12" t="n">
-        <v>80.7261</v>
+        <v>81.1566</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.6029</v>
+        <v>33.0015</v>
       </c>
       <c r="C13" t="n">
-        <v>36.7162</v>
+        <v>37.0075</v>
       </c>
       <c r="D13" t="n">
-        <v>62.2412</v>
+        <v>61.4526</v>
       </c>
       <c r="E13" t="n">
-        <v>80.6815</v>
+        <v>80.19029999999999</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.412</v>
+        <v>32.4772</v>
       </c>
       <c r="C14" t="n">
-        <v>36.9802</v>
+        <v>36.5697</v>
       </c>
       <c r="D14" t="n">
-        <v>60.7954</v>
+        <v>60.8974</v>
       </c>
       <c r="E14" t="n">
-        <v>80.03749999999999</v>
+        <v>81.07559999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.794</v>
+        <v>32.6354</v>
       </c>
       <c r="C15" t="n">
-        <v>36.3952</v>
+        <v>36.5615</v>
       </c>
       <c r="D15" t="n">
-        <v>62.3306</v>
+        <v>61.463</v>
       </c>
       <c r="E15" t="n">
-        <v>81.22150000000001</v>
+        <v>79.569</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.6625</v>
+        <v>32.8664</v>
       </c>
       <c r="C16" t="n">
-        <v>36.7577</v>
+        <v>36.6152</v>
       </c>
       <c r="D16" t="n">
-        <v>61.4005</v>
+        <v>61.3873</v>
       </c>
       <c r="E16" t="n">
-        <v>80.31619999999999</v>
+        <v>81.1459</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.637</v>
+        <v>32.5592</v>
       </c>
       <c r="C17" t="n">
-        <v>36.6046</v>
+        <v>36.9365</v>
       </c>
       <c r="D17" t="n">
-        <v>62.2766</v>
+        <v>61.7287</v>
       </c>
       <c r="E17" t="n">
-        <v>80.50109999999999</v>
+        <v>81.6906</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.418</v>
+        <v>10.3088</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9051</v>
+        <v>12.8959</v>
       </c>
       <c r="D2" t="n">
-        <v>17.5771</v>
+        <v>17.5602</v>
       </c>
       <c r="E2" t="n">
-        <v>21.1054</v>
+        <v>21.094</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.9466</v>
+        <v>19.0893</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2216</v>
+        <v>19.4933</v>
       </c>
       <c r="D3" t="n">
-        <v>27.6707</v>
+        <v>26.785</v>
       </c>
       <c r="E3" t="n">
-        <v>34.0945</v>
+        <v>31.3856</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.0552</v>
+        <v>27.0635</v>
       </c>
       <c r="C4" t="n">
-        <v>24.5569</v>
+        <v>24.0716</v>
       </c>
       <c r="D4" t="n">
-        <v>32.8989</v>
+        <v>32.9082</v>
       </c>
       <c r="E4" t="n">
-        <v>42.1012</v>
+        <v>38.8143</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.5618</v>
+        <v>20.5557</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5244</v>
+        <v>26.4809</v>
       </c>
       <c r="D5" t="n">
-        <v>35.7771</v>
+        <v>34.6152</v>
       </c>
       <c r="E5" t="n">
-        <v>43.9717</v>
+        <v>44.3283</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.4922</v>
+        <v>24.499</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2453</v>
+        <v>31.1382</v>
       </c>
       <c r="D6" t="n">
-        <v>38.1713</v>
+        <v>38.7536</v>
       </c>
       <c r="E6" t="n">
-        <v>44.0222</v>
+        <v>43.8644</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9813</v>
+        <v>28.9156</v>
       </c>
       <c r="C7" t="n">
-        <v>36.3889</v>
+        <v>36.4189</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7085</v>
+        <v>38.6143</v>
       </c>
       <c r="E7" t="n">
-        <v>50.4699</v>
+        <v>50.4341</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.4769</v>
+        <v>21.1884</v>
       </c>
       <c r="C8" t="n">
-        <v>33.9106</v>
+        <v>33.0522</v>
       </c>
       <c r="D8" t="n">
-        <v>40.7288</v>
+        <v>40.1063</v>
       </c>
       <c r="E8" t="n">
-        <v>46.1354</v>
+        <v>46.2526</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.1383</v>
+        <v>23.8833</v>
       </c>
       <c r="C9" t="n">
-        <v>34.8092</v>
+        <v>34.1187</v>
       </c>
       <c r="D9" t="n">
-        <v>42.3754</v>
+        <v>42.9725</v>
       </c>
       <c r="E9" t="n">
-        <v>48.8162</v>
+        <v>51.887</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.2388</v>
+        <v>26.0937</v>
       </c>
       <c r="C10" t="n">
-        <v>34.373</v>
+        <v>34.2841</v>
       </c>
       <c r="D10" t="n">
-        <v>45.0171</v>
+        <v>46.1678</v>
       </c>
       <c r="E10" t="n">
-        <v>51.8144</v>
+        <v>52.9832</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.3351</v>
+        <v>24.268</v>
       </c>
       <c r="C11" t="n">
-        <v>33.9958</v>
+        <v>34.094</v>
       </c>
       <c r="D11" t="n">
-        <v>48.366</v>
+        <v>47.4671</v>
       </c>
       <c r="E11" t="n">
-        <v>54.4748</v>
+        <v>55.865</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.3977</v>
+        <v>26.6022</v>
       </c>
       <c r="C12" t="n">
-        <v>34.9306</v>
+        <v>34.0687</v>
       </c>
       <c r="D12" t="n">
-        <v>51.0337</v>
+        <v>47.7462</v>
       </c>
       <c r="E12" t="n">
-        <v>54.8081</v>
+        <v>58.5309</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.8079</v>
+        <v>28.8243</v>
       </c>
       <c r="C13" t="n">
-        <v>35.2327</v>
+        <v>35.1549</v>
       </c>
       <c r="D13" t="n">
-        <v>49.2139</v>
+        <v>50.9223</v>
       </c>
       <c r="E13" t="n">
-        <v>59.1215</v>
+        <v>55.8992</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9413</v>
+        <v>23.8478</v>
       </c>
       <c r="C14" t="n">
-        <v>34.8602</v>
+        <v>35.1497</v>
       </c>
       <c r="D14" t="n">
-        <v>51.0188</v>
+        <v>50.8321</v>
       </c>
       <c r="E14" t="n">
-        <v>60.6568</v>
+        <v>60.885</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.8578</v>
+        <v>25.4469</v>
       </c>
       <c r="C15" t="n">
-        <v>34.7188</v>
+        <v>34.7759</v>
       </c>
       <c r="D15" t="n">
-        <v>51.1303</v>
+        <v>51.0871</v>
       </c>
       <c r="E15" t="n">
-        <v>61.295</v>
+        <v>62.9364</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.5654</v>
+        <v>26.5194</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4986</v>
+        <v>34.9047</v>
       </c>
       <c r="D16" t="n">
-        <v>51.0961</v>
+        <v>52.3234</v>
       </c>
       <c r="E16" t="n">
-        <v>61.5436</v>
+        <v>62.1233</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.5093</v>
+        <v>25.4796</v>
       </c>
       <c r="C17" t="n">
-        <v>34.6395</v>
+        <v>34.9857</v>
       </c>
       <c r="D17" t="n">
-        <v>51.0048</v>
+        <v>50.8218</v>
       </c>
       <c r="E17" t="n">
-        <v>61.3695</v>
+        <v>61.7985</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7373</v>
+        <v>10.7443</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8058</v>
+        <v>12.8344</v>
       </c>
       <c r="D2" t="n">
-        <v>17.3587</v>
+        <v>17.3567</v>
       </c>
       <c r="E2" t="n">
-        <v>20.8915</v>
+        <v>20.9446</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.8818</v>
+        <v>19.7539</v>
       </c>
       <c r="C3" t="n">
-        <v>19.506</v>
+        <v>19.3066</v>
       </c>
       <c r="D3" t="n">
-        <v>26.9711</v>
+        <v>27.3363</v>
       </c>
       <c r="E3" t="n">
-        <v>32.1268</v>
+        <v>32.1013</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.8155</v>
+        <v>27.3405</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0828</v>
+        <v>24.6976</v>
       </c>
       <c r="D4" t="n">
-        <v>34.3745</v>
+        <v>34.0006</v>
       </c>
       <c r="E4" t="n">
-        <v>37.8498</v>
+        <v>38.4586</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.5499</v>
+        <v>20.7914</v>
       </c>
       <c r="C5" t="n">
-        <v>26.4722</v>
+        <v>26.6011</v>
       </c>
       <c r="D5" t="n">
-        <v>36.8163</v>
+        <v>34.145</v>
       </c>
       <c r="E5" t="n">
-        <v>40.4379</v>
+        <v>40.0509</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.962</v>
+        <v>24.8968</v>
       </c>
       <c r="C6" t="n">
-        <v>30.9944</v>
+        <v>31.0329</v>
       </c>
       <c r="D6" t="n">
-        <v>35.8073</v>
+        <v>38.3875</v>
       </c>
       <c r="E6" t="n">
-        <v>43.9588</v>
+        <v>44.4335</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.7098</v>
+        <v>29.7754</v>
       </c>
       <c r="C7" t="n">
-        <v>36.2988</v>
+        <v>36.2146</v>
       </c>
       <c r="D7" t="n">
-        <v>43.8734</v>
+        <v>43.9343</v>
       </c>
       <c r="E7" t="n">
-        <v>50.8518</v>
+        <v>49.9262</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.7369</v>
+        <v>21.5448</v>
       </c>
       <c r="C8" t="n">
-        <v>33.5612</v>
+        <v>33.017</v>
       </c>
       <c r="D8" t="n">
-        <v>41.6368</v>
+        <v>41.4202</v>
       </c>
       <c r="E8" t="n">
-        <v>46.9809</v>
+        <v>47.5212</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.2539</v>
+        <v>24.7229</v>
       </c>
       <c r="C9" t="n">
-        <v>33.715</v>
+        <v>33.3344</v>
       </c>
       <c r="D9" t="n">
-        <v>44.1452</v>
+        <v>41.7716</v>
       </c>
       <c r="E9" t="n">
-        <v>52.4143</v>
+        <v>51.4066</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.5803</v>
+        <v>27.0099</v>
       </c>
       <c r="C10" t="n">
-        <v>33.863</v>
+        <v>33.835</v>
       </c>
       <c r="D10" t="n">
-        <v>45.24</v>
+        <v>45.4139</v>
       </c>
       <c r="E10" t="n">
-        <v>53.8672</v>
+        <v>52.627</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8982</v>
+        <v>24.9475</v>
       </c>
       <c r="C11" t="n">
-        <v>33.8877</v>
+        <v>34.0531</v>
       </c>
       <c r="D11" t="n">
-        <v>49.7157</v>
+        <v>47.2596</v>
       </c>
       <c r="E11" t="n">
-        <v>58.7126</v>
+        <v>60.1913</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.0404</v>
+        <v>27.204</v>
       </c>
       <c r="C12" t="n">
-        <v>34.4087</v>
+        <v>34.6878</v>
       </c>
       <c r="D12" t="n">
-        <v>50.2394</v>
+        <v>50.3342</v>
       </c>
       <c r="E12" t="n">
-        <v>57.6228</v>
+        <v>58.7095</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7347</v>
+        <v>29.705</v>
       </c>
       <c r="C13" t="n">
-        <v>35.1604</v>
+        <v>35.1255</v>
       </c>
       <c r="D13" t="n">
-        <v>49.8319</v>
+        <v>49.554</v>
       </c>
       <c r="E13" t="n">
-        <v>60.2339</v>
+        <v>60.7124</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.373</v>
+        <v>24.1244</v>
       </c>
       <c r="C14" t="n">
-        <v>35.0122</v>
+        <v>35.129</v>
       </c>
       <c r="D14" t="n">
-        <v>51.9385</v>
+        <v>50.3088</v>
       </c>
       <c r="E14" t="n">
-        <v>60.29</v>
+        <v>61.556</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.6471</v>
+        <v>26.3023</v>
       </c>
       <c r="C15" t="n">
-        <v>35.2323</v>
+        <v>35.2258</v>
       </c>
       <c r="D15" t="n">
-        <v>51.4583</v>
+        <v>50.9705</v>
       </c>
       <c r="E15" t="n">
-        <v>62.2777</v>
+        <v>61.2869</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.3476</v>
+        <v>27.5876</v>
       </c>
       <c r="C16" t="n">
-        <v>35.4804</v>
+        <v>35.0919</v>
       </c>
       <c r="D16" t="n">
-        <v>51.4934</v>
+        <v>50.551</v>
       </c>
       <c r="E16" t="n">
-        <v>61.7455</v>
+        <v>63.6494</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.2253</v>
+        <v>26.2805</v>
       </c>
       <c r="C17" t="n">
-        <v>35.449</v>
+        <v>34.7874</v>
       </c>
       <c r="D17" t="n">
-        <v>51.4486</v>
+        <v>50.7163</v>
       </c>
       <c r="E17" t="n">
-        <v>61.4957</v>
+        <v>60.2007</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0329</v>
+        <v>13.007</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9561</v>
+        <v>13.963</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0326</v>
+        <v>19.0709</v>
       </c>
       <c r="E2" t="n">
-        <v>22.3699</v>
+        <v>22.3488</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.0358</v>
+        <v>22.9131</v>
       </c>
       <c r="C3" t="n">
-        <v>22.9934</v>
+        <v>23.5251</v>
       </c>
       <c r="D3" t="n">
-        <v>30.9103</v>
+        <v>30.7606</v>
       </c>
       <c r="E3" t="n">
-        <v>33.1521</v>
+        <v>34.0831</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.096</v>
+        <v>31.7395</v>
       </c>
       <c r="C4" t="n">
-        <v>29.4855</v>
+        <v>29.8525</v>
       </c>
       <c r="D4" t="n">
-        <v>35.0783</v>
+        <v>34.9903</v>
       </c>
       <c r="E4" t="n">
-        <v>42.1762</v>
+        <v>40.1079</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.7054</v>
+        <v>26.6551</v>
       </c>
       <c r="C5" t="n">
-        <v>28.9165</v>
+        <v>28.6592</v>
       </c>
       <c r="D5" t="n">
-        <v>36.3638</v>
+        <v>34.2906</v>
       </c>
       <c r="E5" t="n">
-        <v>50.9058</v>
+        <v>44.338</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6151</v>
+        <v>31.6638</v>
       </c>
       <c r="C6" t="n">
-        <v>32.594</v>
+        <v>32.6758</v>
       </c>
       <c r="D6" t="n">
-        <v>40.464</v>
+        <v>40.8756</v>
       </c>
       <c r="E6" t="n">
-        <v>50.8527</v>
+        <v>51.0113</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.4734</v>
+        <v>37.4073</v>
       </c>
       <c r="C7" t="n">
-        <v>38.1113</v>
+        <v>38.1165</v>
       </c>
       <c r="D7" t="n">
-        <v>44.1957</v>
+        <v>49.9833</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7413</v>
+        <v>50.7206</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.2966</v>
+        <v>34.328</v>
       </c>
       <c r="C8" t="n">
-        <v>34.576</v>
+        <v>33.6417</v>
       </c>
       <c r="D8" t="n">
-        <v>45.9845</v>
+        <v>47.732</v>
       </c>
       <c r="E8" t="n">
-        <v>50.8309</v>
+        <v>50.5707</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.366</v>
+        <v>33.5802</v>
       </c>
       <c r="C9" t="n">
-        <v>34.6834</v>
+        <v>34.4628</v>
       </c>
       <c r="D9" t="n">
-        <v>50.1389</v>
+        <v>48.2821</v>
       </c>
       <c r="E9" t="n">
-        <v>58.1211</v>
+        <v>61.3732</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.4676</v>
+        <v>34.533</v>
       </c>
       <c r="C10" t="n">
-        <v>34.5126</v>
+        <v>35.285</v>
       </c>
       <c r="D10" t="n">
-        <v>49.2666</v>
+        <v>48.6779</v>
       </c>
       <c r="E10" t="n">
-        <v>57.09</v>
+        <v>56.9422</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.9947</v>
+        <v>34.1962</v>
       </c>
       <c r="C11" t="n">
-        <v>35.2441</v>
+        <v>35.5711</v>
       </c>
       <c r="D11" t="n">
-        <v>49.3901</v>
+        <v>50.4956</v>
       </c>
       <c r="E11" t="n">
-        <v>60.9205</v>
+        <v>60.7128</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.9565</v>
+        <v>35.0002</v>
       </c>
       <c r="C12" t="n">
-        <v>36.0998</v>
+        <v>35.3742</v>
       </c>
       <c r="D12" t="n">
-        <v>50.0744</v>
+        <v>49.937</v>
       </c>
       <c r="E12" t="n">
-        <v>60.8794</v>
+        <v>60.061</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.4175</v>
+        <v>35.157</v>
       </c>
       <c r="C13" t="n">
-        <v>35.0567</v>
+        <v>35.3325</v>
       </c>
       <c r="D13" t="n">
-        <v>50.6371</v>
+        <v>50.0085</v>
       </c>
       <c r="E13" t="n">
-        <v>56.9895</v>
+        <v>59.0479</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.947</v>
+        <v>34.9303</v>
       </c>
       <c r="C14" t="n">
-        <v>35.6309</v>
+        <v>35.6656</v>
       </c>
       <c r="D14" t="n">
-        <v>50.126</v>
+        <v>51.9458</v>
       </c>
       <c r="E14" t="n">
-        <v>60.4458</v>
+        <v>57.7928</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.6322</v>
+        <v>34.8066</v>
       </c>
       <c r="C15" t="n">
-        <v>35.6016</v>
+        <v>35.9843</v>
       </c>
       <c r="D15" t="n">
-        <v>49.7118</v>
+        <v>51.3013</v>
       </c>
       <c r="E15" t="n">
-        <v>59.6321</v>
+        <v>58.788</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.3335</v>
+        <v>35.2649</v>
       </c>
       <c r="C16" t="n">
-        <v>35.8848</v>
+        <v>35.7245</v>
       </c>
       <c r="D16" t="n">
-        <v>50.7953</v>
+        <v>51.2593</v>
       </c>
       <c r="E16" t="n">
-        <v>59.6907</v>
+        <v>60.7345</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.6833</v>
+        <v>35.0553</v>
       </c>
       <c r="C17" t="n">
-        <v>36.189</v>
+        <v>35.8677</v>
       </c>
       <c r="D17" t="n">
-        <v>50.547</v>
+        <v>50.3102</v>
       </c>
       <c r="E17" t="n">
-        <v>54.325</v>
+        <v>58.5269</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.76642</v>
+        <v>4.76439</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9906</v>
+        <v>10.9889</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7736</v>
+        <v>14.7357</v>
       </c>
       <c r="E2" t="n">
-        <v>19.818</v>
+        <v>19.5822</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.26362</v>
+        <v>9.24065</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9486</v>
+        <v>18.9219</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9183</v>
+        <v>27.7358</v>
       </c>
       <c r="E3" t="n">
-        <v>36.9258</v>
+        <v>36.9557</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3327</v>
+        <v>13.3544</v>
       </c>
       <c r="C4" t="n">
-        <v>26.0657</v>
+        <v>26.0174</v>
       </c>
       <c r="D4" t="n">
-        <v>39.5887</v>
+        <v>39.9791</v>
       </c>
       <c r="E4" t="n">
-        <v>51.5906</v>
+        <v>51.1263</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7986</v>
+        <v>15.7244</v>
       </c>
       <c r="C5" t="n">
-        <v>26.2644</v>
+        <v>26.4843</v>
       </c>
       <c r="D5" t="n">
-        <v>43.9834</v>
+        <v>43.5977</v>
       </c>
       <c r="E5" t="n">
-        <v>58.1525</v>
+        <v>58.2811</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.0865</v>
+        <v>19.0704</v>
       </c>
       <c r="C6" t="n">
-        <v>29.7491</v>
+        <v>29.8593</v>
       </c>
       <c r="D6" t="n">
-        <v>51.9864</v>
+        <v>52.1914</v>
       </c>
       <c r="E6" t="n">
-        <v>68.4678</v>
+        <v>69.42010000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.2091</v>
+        <v>22.1843</v>
       </c>
       <c r="C7" t="n">
-        <v>34.997</v>
+        <v>35.0305</v>
       </c>
       <c r="D7" t="n">
-        <v>61.2383</v>
+        <v>61.3269</v>
       </c>
       <c r="E7" t="n">
-        <v>81.56829999999999</v>
+        <v>81.4799</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8558</v>
+        <v>19.8622</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6273</v>
+        <v>33.3839</v>
       </c>
       <c r="D8" t="n">
-        <v>56.2984</v>
+        <v>56.1597</v>
       </c>
       <c r="E8" t="n">
-        <v>69.9085</v>
+        <v>70.87</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8005</v>
+        <v>20.435</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6877</v>
+        <v>33.5971</v>
       </c>
       <c r="D9" t="n">
-        <v>56.2582</v>
+        <v>55.5632</v>
       </c>
       <c r="E9" t="n">
-        <v>74.2854</v>
+        <v>71.7889</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.7332</v>
+        <v>20.6574</v>
       </c>
       <c r="C10" t="n">
-        <v>33.717</v>
+        <v>33.7868</v>
       </c>
       <c r="D10" t="n">
-        <v>55.9429</v>
+        <v>55.3974</v>
       </c>
       <c r="E10" t="n">
-        <v>74.36669999999999</v>
+        <v>74.52370000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.8461</v>
+        <v>21.0203</v>
       </c>
       <c r="C11" t="n">
-        <v>33.6823</v>
+        <v>33.8541</v>
       </c>
       <c r="D11" t="n">
-        <v>55.1169</v>
+        <v>56.9148</v>
       </c>
       <c r="E11" t="n">
-        <v>73.21299999999999</v>
+        <v>74.2004</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.909</v>
+        <v>20.7243</v>
       </c>
       <c r="C12" t="n">
-        <v>34.2165</v>
+        <v>34.1</v>
       </c>
       <c r="D12" t="n">
-        <v>57.3105</v>
+        <v>56.9405</v>
       </c>
       <c r="E12" t="n">
-        <v>76.0415</v>
+        <v>75.4092</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.8371</v>
+        <v>20.6981</v>
       </c>
       <c r="C13" t="n">
-        <v>34.3004</v>
+        <v>34.589</v>
       </c>
       <c r="D13" t="n">
-        <v>56.8308</v>
+        <v>57.9789</v>
       </c>
       <c r="E13" t="n">
-        <v>75.2037</v>
+        <v>74.71080000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.9933</v>
+        <v>21.2315</v>
       </c>
       <c r="C14" t="n">
-        <v>34.4793</v>
+        <v>34.1137</v>
       </c>
       <c r="D14" t="n">
-        <v>58.473</v>
+        <v>58.4798</v>
       </c>
       <c r="E14" t="n">
-        <v>76.7662</v>
+        <v>76.6512</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2348</v>
+        <v>21.2205</v>
       </c>
       <c r="C15" t="n">
-        <v>34.2589</v>
+        <v>34.2671</v>
       </c>
       <c r="D15" t="n">
-        <v>58.285</v>
+        <v>58.1188</v>
       </c>
       <c r="E15" t="n">
-        <v>76.37860000000001</v>
+        <v>78.1661</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3722</v>
+        <v>21.1999</v>
       </c>
       <c r="C16" t="n">
-        <v>34.3153</v>
+        <v>34.303</v>
       </c>
       <c r="D16" t="n">
-        <v>60.1459</v>
+        <v>58.8958</v>
       </c>
       <c r="E16" t="n">
-        <v>77.3871</v>
+        <v>76.4512</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2418</v>
+        <v>21.409</v>
       </c>
       <c r="C17" t="n">
-        <v>34.1556</v>
+        <v>34.2965</v>
       </c>
       <c r="D17" t="n">
-        <v>58.7481</v>
+        <v>59.4346</v>
       </c>
       <c r="E17" t="n">
-        <v>77.9388</v>
+        <v>78.21040000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.77816</v>
+        <v>4.78289</v>
       </c>
       <c r="C2" t="n">
-        <v>11.079</v>
+        <v>11.1013</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6394</v>
+        <v>14.6686</v>
       </c>
       <c r="E2" t="n">
-        <v>19.8466</v>
+        <v>19.8293</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.30742</v>
+        <v>9.31786</v>
       </c>
       <c r="C3" t="n">
-        <v>19.1491</v>
+        <v>19.1046</v>
       </c>
       <c r="D3" t="n">
-        <v>27.5174</v>
+        <v>27.6771</v>
       </c>
       <c r="E3" t="n">
-        <v>37.1635</v>
+        <v>36.9912</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4699</v>
+        <v>13.5159</v>
       </c>
       <c r="C4" t="n">
-        <v>26.0131</v>
+        <v>26.7667</v>
       </c>
       <c r="D4" t="n">
-        <v>39.2902</v>
+        <v>39.1902</v>
       </c>
       <c r="E4" t="n">
-        <v>51.776</v>
+        <v>52.2882</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9004</v>
+        <v>15.8975</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5531</v>
+        <v>26.1338</v>
       </c>
       <c r="D5" t="n">
-        <v>42.9492</v>
+        <v>42.7951</v>
       </c>
       <c r="E5" t="n">
-        <v>57.355</v>
+        <v>57.7628</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.3114</v>
+        <v>19.314</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9836</v>
+        <v>29.8288</v>
       </c>
       <c r="D6" t="n">
-        <v>50.5154</v>
+        <v>50.0258</v>
       </c>
       <c r="E6" t="n">
-        <v>68.56399999999999</v>
+        <v>68.6878</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.5891</v>
+        <v>22.5936</v>
       </c>
       <c r="C7" t="n">
-        <v>34.951</v>
+        <v>35.0535</v>
       </c>
       <c r="D7" t="n">
-        <v>60.1554</v>
+        <v>59.2</v>
       </c>
       <c r="E7" t="n">
-        <v>79.6052</v>
+        <v>79.75839999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.1053</v>
+        <v>20.1534</v>
       </c>
       <c r="C8" t="n">
-        <v>33.7665</v>
+        <v>33.8348</v>
       </c>
       <c r="D8" t="n">
-        <v>52.5611</v>
+        <v>53.8993</v>
       </c>
       <c r="E8" t="n">
-        <v>70.0684</v>
+        <v>70.12269999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9305</v>
+        <v>21.2022</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6155</v>
+        <v>33.933</v>
       </c>
       <c r="D9" t="n">
-        <v>53.6944</v>
+        <v>52.1613</v>
       </c>
       <c r="E9" t="n">
-        <v>68.756</v>
+        <v>72.1027</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8703</v>
+        <v>21.3403</v>
       </c>
       <c r="C10" t="n">
-        <v>33.8918</v>
+        <v>34.1043</v>
       </c>
       <c r="D10" t="n">
-        <v>54.7327</v>
+        <v>53.815</v>
       </c>
       <c r="E10" t="n">
-        <v>73.5031</v>
+        <v>72.7837</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2491</v>
+        <v>21.1418</v>
       </c>
       <c r="C11" t="n">
-        <v>33.9504</v>
+        <v>34.2597</v>
       </c>
       <c r="D11" t="n">
-        <v>54.5748</v>
+        <v>54.9677</v>
       </c>
       <c r="E11" t="n">
-        <v>73.7611</v>
+        <v>72.9862</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.3683</v>
+        <v>21.4036</v>
       </c>
       <c r="C12" t="n">
-        <v>34.2662</v>
+        <v>33.938</v>
       </c>
       <c r="D12" t="n">
-        <v>55.5719</v>
+        <v>54.8428</v>
       </c>
       <c r="E12" t="n">
-        <v>73.7333</v>
+        <v>76.5748</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0459</v>
+        <v>21.0105</v>
       </c>
       <c r="C13" t="n">
-        <v>33.9654</v>
+        <v>34.1647</v>
       </c>
       <c r="D13" t="n">
-        <v>54.7479</v>
+        <v>54.4621</v>
       </c>
       <c r="E13" t="n">
-        <v>77.4393</v>
+        <v>74.7724</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3047</v>
+        <v>21.2286</v>
       </c>
       <c r="C14" t="n">
-        <v>34.217</v>
+        <v>33.8411</v>
       </c>
       <c r="D14" t="n">
-        <v>57.2697</v>
+        <v>55.5501</v>
       </c>
       <c r="E14" t="n">
-        <v>74.2801</v>
+        <v>74.0898</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4486</v>
+        <v>21.8458</v>
       </c>
       <c r="C15" t="n">
-        <v>34.302</v>
+        <v>34.3369</v>
       </c>
       <c r="D15" t="n">
-        <v>56.7895</v>
+        <v>56.3143</v>
       </c>
       <c r="E15" t="n">
-        <v>74.8929</v>
+        <v>73.96169999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5039</v>
+        <v>21.4651</v>
       </c>
       <c r="C16" t="n">
-        <v>34.7367</v>
+        <v>34.4148</v>
       </c>
       <c r="D16" t="n">
-        <v>56.1225</v>
+        <v>56.834</v>
       </c>
       <c r="E16" t="n">
-        <v>75.5936</v>
+        <v>76.5346</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6537</v>
+        <v>21.5919</v>
       </c>
       <c r="C17" t="n">
-        <v>34.6029</v>
+        <v>34.4591</v>
       </c>
       <c r="D17" t="n">
-        <v>56.9408</v>
+        <v>58.2525</v>
       </c>
       <c r="E17" t="n">
-        <v>77.03189999999999</v>
+        <v>76.3832</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.86712</v>
+        <v>8.92773</v>
       </c>
       <c r="C2" t="n">
-        <v>13.4132</v>
+        <v>13.4695</v>
       </c>
       <c r="D2" t="n">
-        <v>18.488</v>
+        <v>18.4696</v>
       </c>
       <c r="E2" t="n">
-        <v>22.2737</v>
+        <v>22.2629</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.9104</v>
+        <v>17.0326</v>
       </c>
       <c r="C3" t="n">
-        <v>22.4503</v>
+        <v>22.4104</v>
       </c>
       <c r="D3" t="n">
-        <v>34.0486</v>
+        <v>34.2174</v>
       </c>
       <c r="E3" t="n">
-        <v>40.5075</v>
+        <v>40.6456</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.4282</v>
+        <v>24.5619</v>
       </c>
       <c r="C4" t="n">
-        <v>29.9594</v>
+        <v>30.0876</v>
       </c>
       <c r="D4" t="n">
-        <v>48.7628</v>
+        <v>48.186</v>
       </c>
       <c r="E4" t="n">
-        <v>57.5386</v>
+        <v>57.2781</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.1095</v>
+        <v>24.1181</v>
       </c>
       <c r="C5" t="n">
-        <v>29.275</v>
+        <v>29.1003</v>
       </c>
       <c r="D5" t="n">
-        <v>47.6772</v>
+        <v>47.7957</v>
       </c>
       <c r="E5" t="n">
-        <v>60.4804</v>
+        <v>61.0662</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2894</v>
+        <v>28.1408</v>
       </c>
       <c r="C6" t="n">
-        <v>32.5055</v>
+        <v>32.5</v>
       </c>
       <c r="D6" t="n">
-        <v>54.6158</v>
+        <v>54.0779</v>
       </c>
       <c r="E6" t="n">
-        <v>71.4319</v>
+        <v>70.8502</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.2127</v>
+        <v>34.1944</v>
       </c>
       <c r="C7" t="n">
-        <v>37.3855</v>
+        <v>37.4091</v>
       </c>
       <c r="D7" t="n">
-        <v>62.1226</v>
+        <v>62.0998</v>
       </c>
       <c r="E7" t="n">
-        <v>80.60899999999999</v>
+        <v>80.191</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.0255</v>
+        <v>30.9922</v>
       </c>
       <c r="C8" t="n">
-        <v>36.423</v>
+        <v>36.3882</v>
       </c>
       <c r="D8" t="n">
-        <v>59.5588</v>
+        <v>59.8923</v>
       </c>
       <c r="E8" t="n">
-        <v>78.2323</v>
+        <v>77.1634</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.5205</v>
+        <v>32.0389</v>
       </c>
       <c r="C9" t="n">
-        <v>36.3093</v>
+        <v>36.1173</v>
       </c>
       <c r="D9" t="n">
-        <v>60.4392</v>
+        <v>59.9109</v>
       </c>
       <c r="E9" t="n">
-        <v>79.7907</v>
+        <v>80.09059999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.0593</v>
+        <v>32.1711</v>
       </c>
       <c r="C10" t="n">
-        <v>36.8331</v>
+        <v>36.7787</v>
       </c>
       <c r="D10" t="n">
-        <v>60.2478</v>
+        <v>61.2998</v>
       </c>
       <c r="E10" t="n">
-        <v>80.98860000000001</v>
+        <v>80.40309999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.7229</v>
+        <v>32.3382</v>
       </c>
       <c r="C11" t="n">
-        <v>36.6361</v>
+        <v>36.4683</v>
       </c>
       <c r="D11" t="n">
-        <v>61.0314</v>
+        <v>61.6494</v>
       </c>
       <c r="E11" t="n">
-        <v>81.1627</v>
+        <v>81.059</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4754</v>
+        <v>32.5724</v>
       </c>
       <c r="C12" t="n">
-        <v>36.685</v>
+        <v>36.7428</v>
       </c>
       <c r="D12" t="n">
-        <v>62.2401</v>
+        <v>61.264</v>
       </c>
       <c r="E12" t="n">
-        <v>81.1566</v>
+        <v>81.1605</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.0015</v>
+        <v>32.6455</v>
       </c>
       <c r="C13" t="n">
-        <v>37.0075</v>
+        <v>36.9984</v>
       </c>
       <c r="D13" t="n">
-        <v>61.4526</v>
+        <v>61.4551</v>
       </c>
       <c r="E13" t="n">
-        <v>80.19029999999999</v>
+        <v>81.2937</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.4772</v>
+        <v>32.5845</v>
       </c>
       <c r="C14" t="n">
-        <v>36.5697</v>
+        <v>36.8132</v>
       </c>
       <c r="D14" t="n">
-        <v>60.8974</v>
+        <v>62.0223</v>
       </c>
       <c r="E14" t="n">
-        <v>81.07559999999999</v>
+        <v>80.31950000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6354</v>
+        <v>32.6129</v>
       </c>
       <c r="C15" t="n">
-        <v>36.5615</v>
+        <v>36.7151</v>
       </c>
       <c r="D15" t="n">
-        <v>61.463</v>
+        <v>61.0881</v>
       </c>
       <c r="E15" t="n">
-        <v>79.569</v>
+        <v>79.6527</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.8664</v>
+        <v>32.4926</v>
       </c>
       <c r="C16" t="n">
-        <v>36.6152</v>
+        <v>36.5843</v>
       </c>
       <c r="D16" t="n">
-        <v>61.3873</v>
+        <v>62.411</v>
       </c>
       <c r="E16" t="n">
-        <v>81.1459</v>
+        <v>79.87350000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.5592</v>
+        <v>32.4713</v>
       </c>
       <c r="C17" t="n">
-        <v>36.9365</v>
+        <v>36.842</v>
       </c>
       <c r="D17" t="n">
-        <v>61.7287</v>
+        <v>61.8786</v>
       </c>
       <c r="E17" t="n">
-        <v>81.6906</v>
+        <v>79.2218</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4022</v>
+        <v>10.1845</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8392</v>
+        <v>12.6269</v>
       </c>
       <c r="D2" t="n">
-        <v>17.5628</v>
+        <v>17.3737</v>
       </c>
       <c r="E2" t="n">
-        <v>21.1445</v>
+        <v>20.8629</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.2621</v>
+        <v>19.2339</v>
       </c>
       <c r="C3" t="n">
-        <v>20.068</v>
+        <v>19.2749</v>
       </c>
       <c r="D3" t="n">
-        <v>27.642</v>
+        <v>26.9537</v>
       </c>
       <c r="E3" t="n">
-        <v>32.678</v>
+        <v>31.9198</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.5818</v>
+        <v>26.4391</v>
       </c>
       <c r="C4" t="n">
-        <v>24.339</v>
+        <v>24.2598</v>
       </c>
       <c r="D4" t="n">
-        <v>31.2535</v>
+        <v>32.6656</v>
       </c>
       <c r="E4" t="n">
-        <v>41.2357</v>
+        <v>42.8305</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.7055</v>
+        <v>20.4772</v>
       </c>
       <c r="C5" t="n">
-        <v>27.5828</v>
+        <v>26.5148</v>
       </c>
       <c r="D5" t="n">
-        <v>34.2495</v>
+        <v>33.8371</v>
       </c>
       <c r="E5" t="n">
-        <v>43.6254</v>
+        <v>43.8745</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.3979</v>
+        <v>24.3844</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4261</v>
+        <v>31.1772</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4655</v>
+        <v>38.6046</v>
       </c>
       <c r="E6" t="n">
-        <v>43.8503</v>
+        <v>43.8918</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9492</v>
+        <v>28.9185</v>
       </c>
       <c r="C7" t="n">
-        <v>36.8289</v>
+        <v>36.4607</v>
       </c>
       <c r="D7" t="n">
-        <v>38.8238</v>
+        <v>38.9373</v>
       </c>
       <c r="E7" t="n">
-        <v>49.6798</v>
+        <v>49.8703</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.9859</v>
+        <v>21.3457</v>
       </c>
       <c r="C8" t="n">
-        <v>33.8648</v>
+        <v>34.2328</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0066</v>
+        <v>40.2657</v>
       </c>
       <c r="E8" t="n">
-        <v>46.8689</v>
+        <v>45.3024</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7177</v>
+        <v>24.1241</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1712</v>
+        <v>33.8915</v>
       </c>
       <c r="D9" t="n">
-        <v>44.1523</v>
+        <v>45.588</v>
       </c>
       <c r="E9" t="n">
-        <v>51.3434</v>
+        <v>49.5734</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.2289</v>
+        <v>26.5045</v>
       </c>
       <c r="C10" t="n">
-        <v>34.2785</v>
+        <v>34.878</v>
       </c>
       <c r="D10" t="n">
-        <v>45.9774</v>
+        <v>46.3642</v>
       </c>
       <c r="E10" t="n">
-        <v>50.165</v>
+        <v>52.8583</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2005</v>
+        <v>24.2488</v>
       </c>
       <c r="C11" t="n">
-        <v>34.8273</v>
+        <v>34.2409</v>
       </c>
       <c r="D11" t="n">
-        <v>48.8442</v>
+        <v>46.0739</v>
       </c>
       <c r="E11" t="n">
-        <v>57.4789</v>
+        <v>53.2423</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.394</v>
+        <v>26.372</v>
       </c>
       <c r="C12" t="n">
-        <v>34.4234</v>
+        <v>34.7166</v>
       </c>
       <c r="D12" t="n">
-        <v>51.9229</v>
+        <v>49.4625</v>
       </c>
       <c r="E12" t="n">
-        <v>59.3219</v>
+        <v>55.8439</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.8397</v>
+        <v>28.9059</v>
       </c>
       <c r="C13" t="n">
-        <v>35.5072</v>
+        <v>34.983</v>
       </c>
       <c r="D13" t="n">
-        <v>49.7896</v>
+        <v>50.1304</v>
       </c>
       <c r="E13" t="n">
-        <v>59.9031</v>
+        <v>57.5711</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.6562</v>
+        <v>23.8146</v>
       </c>
       <c r="C14" t="n">
-        <v>35.3047</v>
+        <v>34.7865</v>
       </c>
       <c r="D14" t="n">
-        <v>51.0701</v>
+        <v>50.266</v>
       </c>
       <c r="E14" t="n">
-        <v>56.8152</v>
+        <v>61.1887</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.3147</v>
+        <v>25.7647</v>
       </c>
       <c r="C15" t="n">
-        <v>35.3693</v>
+        <v>34.7956</v>
       </c>
       <c r="D15" t="n">
-        <v>50.7772</v>
+        <v>49.3637</v>
       </c>
       <c r="E15" t="n">
-        <v>59.6162</v>
+        <v>59.2073</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.5429</v>
+        <v>27.2872</v>
       </c>
       <c r="C16" t="n">
-        <v>35.0745</v>
+        <v>34.6142</v>
       </c>
       <c r="D16" t="n">
-        <v>50.5512</v>
+        <v>50.3322</v>
       </c>
       <c r="E16" t="n">
-        <v>62.3775</v>
+        <v>55.7043</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.6284</v>
+        <v>25.738</v>
       </c>
       <c r="C17" t="n">
-        <v>35.3618</v>
+        <v>34.7439</v>
       </c>
       <c r="D17" t="n">
-        <v>51.5324</v>
+        <v>50.7234</v>
       </c>
       <c r="E17" t="n">
-        <v>64.12130000000001</v>
+        <v>60.6061</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7104</v>
+        <v>10.6224</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7263</v>
+        <v>12.6796</v>
       </c>
       <c r="D2" t="n">
-        <v>17.3202</v>
+        <v>17.2594</v>
       </c>
       <c r="E2" t="n">
-        <v>20.9683</v>
+        <v>20.7653</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.7498</v>
+        <v>19.5897</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3072</v>
+        <v>19.6207</v>
       </c>
       <c r="D3" t="n">
-        <v>26.3896</v>
+        <v>25.5061</v>
       </c>
       <c r="E3" t="n">
-        <v>32.0149</v>
+        <v>31.5792</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.525</v>
+        <v>27.1967</v>
       </c>
       <c r="C4" t="n">
-        <v>25.2887</v>
+        <v>25.5025</v>
       </c>
       <c r="D4" t="n">
-        <v>33.2018</v>
+        <v>33.5473</v>
       </c>
       <c r="E4" t="n">
-        <v>38.1842</v>
+        <v>38.3386</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.9269</v>
+        <v>20.5026</v>
       </c>
       <c r="C5" t="n">
-        <v>26.8527</v>
+        <v>26.5556</v>
       </c>
       <c r="D5" t="n">
-        <v>34.2241</v>
+        <v>34.9162</v>
       </c>
       <c r="E5" t="n">
-        <v>42.5114</v>
+        <v>40.4549</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.8446</v>
+        <v>24.7609</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4302</v>
+        <v>31.0574</v>
       </c>
       <c r="D6" t="n">
-        <v>37.4759</v>
+        <v>36.2289</v>
       </c>
       <c r="E6" t="n">
-        <v>44.7195</v>
+        <v>43.9344</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.7558</v>
+        <v>29.8077</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5763</v>
+        <v>36.469</v>
       </c>
       <c r="D7" t="n">
-        <v>43.5671</v>
+        <v>42.7823</v>
       </c>
       <c r="E7" t="n">
-        <v>50.638</v>
+        <v>50.7615</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6682</v>
+        <v>21.4356</v>
       </c>
       <c r="C8" t="n">
-        <v>33.3612</v>
+        <v>33.7586</v>
       </c>
       <c r="D8" t="n">
-        <v>41.1511</v>
+        <v>39.5148</v>
       </c>
       <c r="E8" t="n">
-        <v>49.2313</v>
+        <v>46.2981</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.7233</v>
+        <v>24.8854</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6174</v>
+        <v>34.0738</v>
       </c>
       <c r="D9" t="n">
-        <v>43.5527</v>
+        <v>42.0207</v>
       </c>
       <c r="E9" t="n">
-        <v>49.791</v>
+        <v>52.1423</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.5577</v>
+        <v>27.7644</v>
       </c>
       <c r="C10" t="n">
-        <v>34.4897</v>
+        <v>33.697</v>
       </c>
       <c r="D10" t="n">
-        <v>45.4727</v>
+        <v>45.0616</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2454</v>
+        <v>51.8929</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9277</v>
+        <v>24.5725</v>
       </c>
       <c r="C11" t="n">
-        <v>34.2018</v>
+        <v>34.4116</v>
       </c>
       <c r="D11" t="n">
-        <v>45.6011</v>
+        <v>45.5544</v>
       </c>
       <c r="E11" t="n">
-        <v>59.0896</v>
+        <v>55.7091</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.0761</v>
+        <v>27.1071</v>
       </c>
       <c r="C12" t="n">
-        <v>35.2492</v>
+        <v>34.7396</v>
       </c>
       <c r="D12" t="n">
-        <v>50.5523</v>
+        <v>49.0123</v>
       </c>
       <c r="E12" t="n">
-        <v>59.5603</v>
+        <v>59.5042</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7308</v>
+        <v>29.7541</v>
       </c>
       <c r="C13" t="n">
-        <v>35.6334</v>
+        <v>35.4233</v>
       </c>
       <c r="D13" t="n">
-        <v>51.1614</v>
+        <v>48.3107</v>
       </c>
       <c r="E13" t="n">
-        <v>61.0143</v>
+        <v>59.8796</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.5821</v>
+        <v>24.2949</v>
       </c>
       <c r="C14" t="n">
-        <v>35.3026</v>
+        <v>35.2971</v>
       </c>
       <c r="D14" t="n">
-        <v>50.4329</v>
+        <v>47.2654</v>
       </c>
       <c r="E14" t="n">
-        <v>60.3587</v>
+        <v>60.5695</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.8797</v>
+        <v>26.5269</v>
       </c>
       <c r="C15" t="n">
-        <v>34.8618</v>
+        <v>35.6045</v>
       </c>
       <c r="D15" t="n">
-        <v>50.4541</v>
+        <v>48.7423</v>
       </c>
       <c r="E15" t="n">
-        <v>60.4245</v>
+        <v>60.0651</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.2859</v>
+        <v>28.093</v>
       </c>
       <c r="C16" t="n">
-        <v>35.5743</v>
+        <v>35.6697</v>
       </c>
       <c r="D16" t="n">
-        <v>51.653</v>
+        <v>50.8272</v>
       </c>
       <c r="E16" t="n">
-        <v>61.2018</v>
+        <v>61.2425</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.4189</v>
+        <v>26.1043</v>
       </c>
       <c r="C17" t="n">
-        <v>35.5723</v>
+        <v>35.7933</v>
       </c>
       <c r="D17" t="n">
-        <v>50.7757</v>
+        <v>50.9936</v>
       </c>
       <c r="E17" t="n">
-        <v>61.426</v>
+        <v>62.8912</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.9279</v>
+        <v>12.95</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8545</v>
+        <v>13.7814</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0642</v>
+        <v>19.0355</v>
       </c>
       <c r="E2" t="n">
-        <v>22.3904</v>
+        <v>22.2198</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.0262</v>
+        <v>23.0234</v>
       </c>
       <c r="C3" t="n">
-        <v>23.3139</v>
+        <v>22.6195</v>
       </c>
       <c r="D3" t="n">
-        <v>30.5863</v>
+        <v>29.8404</v>
       </c>
       <c r="E3" t="n">
-        <v>34.2445</v>
+        <v>33.5448</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0486</v>
+        <v>31.8059</v>
       </c>
       <c r="C4" t="n">
-        <v>29.2455</v>
+        <v>28.6008</v>
       </c>
       <c r="D4" t="n">
-        <v>34.8612</v>
+        <v>34.6061</v>
       </c>
       <c r="E4" t="n">
-        <v>41.2619</v>
+        <v>39.1722</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.0093</v>
+        <v>26.6399</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3007</v>
+        <v>28.6141</v>
       </c>
       <c r="D5" t="n">
-        <v>35.839</v>
+        <v>35.054</v>
       </c>
       <c r="E5" t="n">
-        <v>50.6609</v>
+        <v>49.0503</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.5612</v>
+        <v>31.5086</v>
       </c>
       <c r="C6" t="n">
-        <v>32.9265</v>
+        <v>32.8786</v>
       </c>
       <c r="D6" t="n">
-        <v>38.8216</v>
+        <v>39.4429</v>
       </c>
       <c r="E6" t="n">
-        <v>50.7448</v>
+        <v>51.0155</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.4655</v>
+        <v>37.4944</v>
       </c>
       <c r="C7" t="n">
-        <v>38.3594</v>
+        <v>38.1823</v>
       </c>
       <c r="D7" t="n">
-        <v>45.15</v>
+        <v>49.7853</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7519</v>
+        <v>50.8496</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.0725</v>
+        <v>33.6938</v>
       </c>
       <c r="C8" t="n">
-        <v>35.0605</v>
+        <v>34.7848</v>
       </c>
       <c r="D8" t="n">
-        <v>50.4088</v>
+        <v>46.7894</v>
       </c>
       <c r="E8" t="n">
-        <v>50.802</v>
+        <v>50.3136</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.8849</v>
+        <v>34.8308</v>
       </c>
       <c r="C9" t="n">
-        <v>35.3338</v>
+        <v>35.0066</v>
       </c>
       <c r="D9" t="n">
-        <v>49.238</v>
+        <v>48.403</v>
       </c>
       <c r="E9" t="n">
-        <v>58.7473</v>
+        <v>60.2136</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.1123</v>
+        <v>34.3808</v>
       </c>
       <c r="C10" t="n">
-        <v>34.9162</v>
+        <v>34.9748</v>
       </c>
       <c r="D10" t="n">
-        <v>50.0345</v>
+        <v>48.9206</v>
       </c>
       <c r="E10" t="n">
-        <v>56.4349</v>
+        <v>59.6393</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.611</v>
+        <v>35.2045</v>
       </c>
       <c r="C11" t="n">
-        <v>35.9705</v>
+        <v>35.6123</v>
       </c>
       <c r="D11" t="n">
-        <v>50.7139</v>
+        <v>50.8162</v>
       </c>
       <c r="E11" t="n">
-        <v>60.1273</v>
+        <v>60.1032</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.6436</v>
+        <v>35.33</v>
       </c>
       <c r="C12" t="n">
-        <v>35.6574</v>
+        <v>35.5315</v>
       </c>
       <c r="D12" t="n">
-        <v>51.3757</v>
+        <v>51.0442</v>
       </c>
       <c r="E12" t="n">
-        <v>60.6395</v>
+        <v>60.5753</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.8113</v>
+        <v>35.0018</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4232</v>
+        <v>36.4343</v>
       </c>
       <c r="D13" t="n">
-        <v>50.9036</v>
+        <v>49.1706</v>
       </c>
       <c r="E13" t="n">
-        <v>59.6878</v>
+        <v>58.0289</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.9839</v>
+        <v>34.6667</v>
       </c>
       <c r="C14" t="n">
-        <v>35.9066</v>
+        <v>36.348</v>
       </c>
       <c r="D14" t="n">
-        <v>51.4357</v>
+        <v>51.5632</v>
       </c>
       <c r="E14" t="n">
-        <v>60.8753</v>
+        <v>60.9127</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.6206</v>
+        <v>35.1599</v>
       </c>
       <c r="C15" t="n">
-        <v>36.1043</v>
+        <v>36.0917</v>
       </c>
       <c r="D15" t="n">
-        <v>51.2269</v>
+        <v>51.2877</v>
       </c>
       <c r="E15" t="n">
-        <v>60.0934</v>
+        <v>55.8661</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.3497</v>
+        <v>35.3352</v>
       </c>
       <c r="C16" t="n">
-        <v>36.087</v>
+        <v>36.5336</v>
       </c>
       <c r="D16" t="n">
-        <v>51.1686</v>
+        <v>51.166</v>
       </c>
       <c r="E16" t="n">
-        <v>60.7946</v>
+        <v>57.3434</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.7885</v>
+        <v>35.2753</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1444</v>
+        <v>36.0837</v>
       </c>
       <c r="D17" t="n">
-        <v>51.7417</v>
+        <v>49.7086</v>
       </c>
       <c r="E17" t="n">
-        <v>58.7248</v>
+        <v>58.1909</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.79174</v>
+        <v>4.79242</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8727</v>
+        <v>10.8854</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6833</v>
+        <v>14.6901</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7514</v>
+        <v>19.656</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.351940000000001</v>
+        <v>9.358029999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8205</v>
+        <v>18.9975</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9798</v>
+        <v>27.8406</v>
       </c>
       <c r="E3" t="n">
-        <v>36.9095</v>
+        <v>36.9332</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4956</v>
+        <v>13.514</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8531</v>
+        <v>25.915</v>
       </c>
       <c r="D4" t="n">
-        <v>39.615</v>
+        <v>39.8187</v>
       </c>
       <c r="E4" t="n">
-        <v>51.9377</v>
+        <v>51.8658</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8775</v>
+        <v>15.8348</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5437</v>
+        <v>26.3357</v>
       </c>
       <c r="D5" t="n">
-        <v>43.6434</v>
+        <v>42.8838</v>
       </c>
       <c r="E5" t="n">
-        <v>59.2545</v>
+        <v>58.6692</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2549</v>
+        <v>19.2438</v>
       </c>
       <c r="C6" t="n">
-        <v>30.1811</v>
+        <v>30.2325</v>
       </c>
       <c r="D6" t="n">
-        <v>51.5064</v>
+        <v>51.4719</v>
       </c>
       <c r="E6" t="n">
-        <v>68.6207</v>
+        <v>68.35939999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.3736</v>
+        <v>22.4572</v>
       </c>
       <c r="C7" t="n">
-        <v>35.126</v>
+        <v>35.1921</v>
       </c>
       <c r="D7" t="n">
-        <v>61.1918</v>
+        <v>61.3392</v>
       </c>
       <c r="E7" t="n">
-        <v>81.1454</v>
+        <v>81.4442</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0666</v>
+        <v>20.3608</v>
       </c>
       <c r="C8" t="n">
-        <v>34.1862</v>
+        <v>33.8418</v>
       </c>
       <c r="D8" t="n">
-        <v>54.4774</v>
+        <v>55.6665</v>
       </c>
       <c r="E8" t="n">
-        <v>70.3961</v>
+        <v>69.54730000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8948</v>
+        <v>20.7159</v>
       </c>
       <c r="C9" t="n">
-        <v>33.5404</v>
+        <v>33.8088</v>
       </c>
       <c r="D9" t="n">
-        <v>54.0555</v>
+        <v>51.9052</v>
       </c>
       <c r="E9" t="n">
-        <v>70.58669999999999</v>
+        <v>73.3258</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1318</v>
+        <v>21.1324</v>
       </c>
       <c r="C10" t="n">
-        <v>33.8157</v>
+        <v>33.877</v>
       </c>
       <c r="D10" t="n">
-        <v>56.9358</v>
+        <v>56.2237</v>
       </c>
       <c r="E10" t="n">
-        <v>73.9855</v>
+        <v>70.84269999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.019</v>
+        <v>20.9897</v>
       </c>
       <c r="C11" t="n">
-        <v>33.85</v>
+        <v>33.8062</v>
       </c>
       <c r="D11" t="n">
-        <v>56.0377</v>
+        <v>55.7072</v>
       </c>
       <c r="E11" t="n">
-        <v>75.4841</v>
+        <v>74.34269999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.939</v>
+        <v>21.5278</v>
       </c>
       <c r="C12" t="n">
-        <v>34.3758</v>
+        <v>34.3412</v>
       </c>
       <c r="D12" t="n">
-        <v>58.3715</v>
+        <v>56.0545</v>
       </c>
       <c r="E12" t="n">
-        <v>73.5485</v>
+        <v>75.11450000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2728</v>
+        <v>21.3326</v>
       </c>
       <c r="C13" t="n">
-        <v>34.7271</v>
+        <v>34.5778</v>
       </c>
       <c r="D13" t="n">
-        <v>57.8155</v>
+        <v>57.663</v>
       </c>
       <c r="E13" t="n">
-        <v>77.0611</v>
+        <v>76.1681</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.2157</v>
+        <v>21.1053</v>
       </c>
       <c r="C14" t="n">
-        <v>34.3205</v>
+        <v>34.263</v>
       </c>
       <c r="D14" t="n">
-        <v>58.2728</v>
+        <v>57.5568</v>
       </c>
       <c r="E14" t="n">
-        <v>76.0252</v>
+        <v>74.26990000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2572</v>
+        <v>21.2027</v>
       </c>
       <c r="C15" t="n">
-        <v>34.5359</v>
+        <v>34.2437</v>
       </c>
       <c r="D15" t="n">
-        <v>58.4036</v>
+        <v>58.7384</v>
       </c>
       <c r="E15" t="n">
-        <v>77.0093</v>
+        <v>75.96899999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3114</v>
+        <v>21.2188</v>
       </c>
       <c r="C16" t="n">
-        <v>34.3368</v>
+        <v>34.3942</v>
       </c>
       <c r="D16" t="n">
-        <v>57.9923</v>
+        <v>57.6583</v>
       </c>
       <c r="E16" t="n">
-        <v>76.45999999999999</v>
+        <v>76.371</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.9212</v>
+        <v>21.3393</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7163</v>
+        <v>34.5249</v>
       </c>
       <c r="D17" t="n">
-        <v>59.5188</v>
+        <v>58.2753</v>
       </c>
       <c r="E17" t="n">
-        <v>77.5367</v>
+        <v>77.8175</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.81514</v>
+        <v>4.82373</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9658</v>
+        <v>11.0142</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5547</v>
+        <v>14.5633</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7158</v>
+        <v>19.7015</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.409700000000001</v>
+        <v>9.442209999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8615</v>
+        <v>19.1283</v>
       </c>
       <c r="D3" t="n">
-        <v>27.6701</v>
+        <v>27.7453</v>
       </c>
       <c r="E3" t="n">
-        <v>37.0335</v>
+        <v>37.1876</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.549</v>
+        <v>13.6783</v>
       </c>
       <c r="C4" t="n">
-        <v>26.3247</v>
+        <v>26.1787</v>
       </c>
       <c r="D4" t="n">
-        <v>38.9265</v>
+        <v>39.1231</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2325</v>
+        <v>51.7941</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.09</v>
+        <v>16.0971</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5916</v>
+        <v>26.5535</v>
       </c>
       <c r="D5" t="n">
-        <v>42.8304</v>
+        <v>41.9951</v>
       </c>
       <c r="E5" t="n">
-        <v>57.5772</v>
+        <v>57.1371</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4647</v>
+        <v>19.4997</v>
       </c>
       <c r="C6" t="n">
-        <v>30.2503</v>
+        <v>30.2293</v>
       </c>
       <c r="D6" t="n">
-        <v>50.6991</v>
+        <v>50.6385</v>
       </c>
       <c r="E6" t="n">
-        <v>68.5659</v>
+        <v>68.3342</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7722</v>
+        <v>22.8871</v>
       </c>
       <c r="C7" t="n">
-        <v>35.2506</v>
+        <v>35.1927</v>
       </c>
       <c r="D7" t="n">
-        <v>59.6522</v>
+        <v>59.5089</v>
       </c>
       <c r="E7" t="n">
-        <v>79.52200000000001</v>
+        <v>79.4264</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5126</v>
+        <v>20.3839</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0058</v>
+        <v>33.8784</v>
       </c>
       <c r="D8" t="n">
-        <v>53.0011</v>
+        <v>52.8522</v>
       </c>
       <c r="E8" t="n">
-        <v>69.5699</v>
+        <v>68.84229999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0677</v>
+        <v>21.0574</v>
       </c>
       <c r="C9" t="n">
-        <v>33.9805</v>
+        <v>33.7864</v>
       </c>
       <c r="D9" t="n">
-        <v>53.4842</v>
+        <v>52.6637</v>
       </c>
       <c r="E9" t="n">
-        <v>74.48439999999999</v>
+        <v>72.301</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.3211</v>
+        <v>21.2767</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9597</v>
+        <v>34.1191</v>
       </c>
       <c r="D10" t="n">
-        <v>53.8034</v>
+        <v>51.9882</v>
       </c>
       <c r="E10" t="n">
-        <v>73.23820000000001</v>
+        <v>72.5857</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4775</v>
+        <v>21.9597</v>
       </c>
       <c r="C11" t="n">
-        <v>33.9167</v>
+        <v>34.2226</v>
       </c>
       <c r="D11" t="n">
-        <v>55.0332</v>
+        <v>53.779</v>
       </c>
       <c r="E11" t="n">
-        <v>73.01909999999999</v>
+        <v>73.1083</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.515</v>
+        <v>21.3954</v>
       </c>
       <c r="C12" t="n">
-        <v>34.4784</v>
+        <v>33.6625</v>
       </c>
       <c r="D12" t="n">
-        <v>54.6512</v>
+        <v>52.6806</v>
       </c>
       <c r="E12" t="n">
-        <v>74.9302</v>
+        <v>73.69970000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.6059</v>
+        <v>21.3211</v>
       </c>
       <c r="C13" t="n">
-        <v>34.7228</v>
+        <v>34.4854</v>
       </c>
       <c r="D13" t="n">
-        <v>56.0815</v>
+        <v>55.2192</v>
       </c>
       <c r="E13" t="n">
-        <v>74.529</v>
+        <v>73.87430000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.6949</v>
+        <v>21.7079</v>
       </c>
       <c r="C14" t="n">
-        <v>34.2449</v>
+        <v>34.4361</v>
       </c>
       <c r="D14" t="n">
-        <v>55.4909</v>
+        <v>55.2611</v>
       </c>
       <c r="E14" t="n">
-        <v>75.0659</v>
+        <v>74.39749999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5709</v>
+        <v>21.487</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4159</v>
+        <v>34.6348</v>
       </c>
       <c r="D15" t="n">
-        <v>57.5063</v>
+        <v>55.9754</v>
       </c>
       <c r="E15" t="n">
-        <v>76.1918</v>
+        <v>76.31229999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5064</v>
+        <v>21.8891</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4242</v>
+        <v>34.8518</v>
       </c>
       <c r="D16" t="n">
-        <v>56.1372</v>
+        <v>57.3808</v>
       </c>
       <c r="E16" t="n">
-        <v>76.1768</v>
+        <v>76.26819999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6857</v>
+        <v>21.5571</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5886</v>
+        <v>34.8984</v>
       </c>
       <c r="D17" t="n">
-        <v>56.1715</v>
+        <v>56.3736</v>
       </c>
       <c r="E17" t="n">
-        <v>76.6747</v>
+        <v>77.7163</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.906650000000001</v>
+        <v>8.93141</v>
       </c>
       <c r="C2" t="n">
-        <v>13.3361</v>
+        <v>13.2704</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3759</v>
+        <v>18.2533</v>
       </c>
       <c r="E2" t="n">
-        <v>22.243</v>
+        <v>22.0467</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0938</v>
+        <v>16.9711</v>
       </c>
       <c r="C3" t="n">
-        <v>22.3763</v>
+        <v>22.2287</v>
       </c>
       <c r="D3" t="n">
-        <v>33.6774</v>
+        <v>33.5844</v>
       </c>
       <c r="E3" t="n">
-        <v>40.5831</v>
+        <v>40.0308</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.402</v>
+        <v>24.2512</v>
       </c>
       <c r="C4" t="n">
-        <v>29.4445</v>
+        <v>29.4513</v>
       </c>
       <c r="D4" t="n">
-        <v>47.5928</v>
+        <v>46.9102</v>
       </c>
       <c r="E4" t="n">
-        <v>57.3033</v>
+        <v>56.9244</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.7166</v>
+        <v>24.8107</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7195</v>
+        <v>29.326</v>
       </c>
       <c r="D5" t="n">
-        <v>47.6477</v>
+        <v>47.3093</v>
       </c>
       <c r="E5" t="n">
-        <v>60.7798</v>
+        <v>60.6342</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.6397</v>
+        <v>28.4725</v>
       </c>
       <c r="C6" t="n">
-        <v>32.6862</v>
+        <v>32.5982</v>
       </c>
       <c r="D6" t="n">
-        <v>54.1359</v>
+        <v>54.1157</v>
       </c>
       <c r="E6" t="n">
-        <v>71.3364</v>
+        <v>71.20740000000001</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.0981</v>
+        <v>34.3659</v>
       </c>
       <c r="C7" t="n">
-        <v>37.5132</v>
+        <v>37.5147</v>
       </c>
       <c r="D7" t="n">
-        <v>61.9048</v>
+        <v>62.093</v>
       </c>
       <c r="E7" t="n">
-        <v>79.7103</v>
+        <v>79.35899999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.4839</v>
+        <v>30.8578</v>
       </c>
       <c r="C8" t="n">
-        <v>36.4274</v>
+        <v>36.5216</v>
       </c>
       <c r="D8" t="n">
-        <v>60.6169</v>
+        <v>59.5321</v>
       </c>
       <c r="E8" t="n">
-        <v>77.428</v>
+        <v>76.8194</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.1542</v>
+        <v>32.2349</v>
       </c>
       <c r="C9" t="n">
-        <v>36.4885</v>
+        <v>36.2822</v>
       </c>
       <c r="D9" t="n">
-        <v>61.0322</v>
+        <v>59.4999</v>
       </c>
       <c r="E9" t="n">
-        <v>80.0705</v>
+        <v>79.4773</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.8355</v>
+        <v>32.7544</v>
       </c>
       <c r="C10" t="n">
-        <v>36.9024</v>
+        <v>36.7198</v>
       </c>
       <c r="D10" t="n">
-        <v>61.1809</v>
+        <v>60.6296</v>
       </c>
       <c r="E10" t="n">
-        <v>80.2461</v>
+        <v>80.14060000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.0988</v>
+        <v>32.7216</v>
       </c>
       <c r="C11" t="n">
-        <v>36.7474</v>
+        <v>36.478</v>
       </c>
       <c r="D11" t="n">
-        <v>61.8373</v>
+        <v>61.2974</v>
       </c>
       <c r="E11" t="n">
-        <v>80.6444</v>
+        <v>80.2116</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.4326</v>
+        <v>32.6045</v>
       </c>
       <c r="C12" t="n">
-        <v>36.6295</v>
+        <v>36.7417</v>
       </c>
       <c r="D12" t="n">
-        <v>61.1856</v>
+        <v>60.9125</v>
       </c>
       <c r="E12" t="n">
-        <v>81.09399999999999</v>
+        <v>80.0134</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.7449</v>
+        <v>32.7355</v>
       </c>
       <c r="C13" t="n">
-        <v>36.96</v>
+        <v>37.1493</v>
       </c>
       <c r="D13" t="n">
-        <v>61.7223</v>
+        <v>61.0003</v>
       </c>
       <c r="E13" t="n">
-        <v>79.73099999999999</v>
+        <v>80.98860000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.812</v>
+        <v>32.9463</v>
       </c>
       <c r="C14" t="n">
-        <v>36.9251</v>
+        <v>37.0972</v>
       </c>
       <c r="D14" t="n">
-        <v>61.4977</v>
+        <v>61.2886</v>
       </c>
       <c r="E14" t="n">
-        <v>80.75239999999999</v>
+        <v>79.47239999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.9366</v>
+        <v>32.9113</v>
       </c>
       <c r="C15" t="n">
-        <v>36.792</v>
+        <v>36.7484</v>
       </c>
       <c r="D15" t="n">
-        <v>61.9308</v>
+        <v>61.5511</v>
       </c>
       <c r="E15" t="n">
-        <v>80.9209</v>
+        <v>79.72539999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7118</v>
+        <v>32.8145</v>
       </c>
       <c r="C16" t="n">
-        <v>36.6844</v>
+        <v>37.0291</v>
       </c>
       <c r="D16" t="n">
-        <v>62.6982</v>
+        <v>61.3432</v>
       </c>
       <c r="E16" t="n">
-        <v>80.38290000000001</v>
+        <v>80.6889</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.8358</v>
+        <v>32.9379</v>
       </c>
       <c r="C17" t="n">
-        <v>36.8518</v>
+        <v>36.7814</v>
       </c>
       <c r="D17" t="n">
-        <v>60.9493</v>
+        <v>60.9997</v>
       </c>
       <c r="E17" t="n">
-        <v>80.4837</v>
+        <v>80.2229</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Parallel workload.xlsx
+++ b/vs-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1845</v>
+        <v>10.1397</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6269</v>
+        <v>12.6665</v>
       </c>
       <c r="D2" t="n">
-        <v>17.3737</v>
+        <v>17.4151</v>
       </c>
       <c r="E2" t="n">
-        <v>20.8629</v>
+        <v>20.8616</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.2339</v>
+        <v>19.1314</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2749</v>
+        <v>19.0544</v>
       </c>
       <c r="D3" t="n">
-        <v>26.9537</v>
+        <v>25.8865</v>
       </c>
       <c r="E3" t="n">
-        <v>31.9198</v>
+        <v>32.7085</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.4391</v>
+        <v>26.2755</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2598</v>
+        <v>24.5707</v>
       </c>
       <c r="D4" t="n">
-        <v>32.6656</v>
+        <v>32.946</v>
       </c>
       <c r="E4" t="n">
-        <v>42.8305</v>
+        <v>39.6042</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.4772</v>
+        <v>20.7175</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5148</v>
+        <v>27.0942</v>
       </c>
       <c r="D5" t="n">
-        <v>33.8371</v>
+        <v>33.64</v>
       </c>
       <c r="E5" t="n">
-        <v>43.8745</v>
+        <v>44.0301</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.3844</v>
+        <v>24.2304</v>
       </c>
       <c r="C6" t="n">
-        <v>31.1772</v>
+        <v>31.2131</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6046</v>
+        <v>38.3376</v>
       </c>
       <c r="E6" t="n">
-        <v>43.8918</v>
+        <v>43.8929</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9185</v>
+        <v>28.8796</v>
       </c>
       <c r="C7" t="n">
-        <v>36.4607</v>
+        <v>36.5046</v>
       </c>
       <c r="D7" t="n">
-        <v>38.9373</v>
+        <v>38.8165</v>
       </c>
       <c r="E7" t="n">
-        <v>49.8703</v>
+        <v>48.51</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.3457</v>
+        <v>21.1385</v>
       </c>
       <c r="C8" t="n">
-        <v>34.2328</v>
+        <v>34.0395</v>
       </c>
       <c r="D8" t="n">
-        <v>40.2657</v>
+        <v>39.0915</v>
       </c>
       <c r="E8" t="n">
-        <v>45.3024</v>
+        <v>48.0664</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.1241</v>
+        <v>24.1623</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8915</v>
+        <v>33.9958</v>
       </c>
       <c r="D9" t="n">
-        <v>45.588</v>
+        <v>44.7472</v>
       </c>
       <c r="E9" t="n">
-        <v>49.5734</v>
+        <v>49.4788</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.5045</v>
+        <v>26.3822</v>
       </c>
       <c r="C10" t="n">
-        <v>34.878</v>
+        <v>34.5488</v>
       </c>
       <c r="D10" t="n">
-        <v>46.3642</v>
+        <v>46.1855</v>
       </c>
       <c r="E10" t="n">
-        <v>52.8583</v>
+        <v>53.8072</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2488</v>
+        <v>24.2552</v>
       </c>
       <c r="C11" t="n">
-        <v>34.2409</v>
+        <v>34.6014</v>
       </c>
       <c r="D11" t="n">
-        <v>46.0739</v>
+        <v>46.1464</v>
       </c>
       <c r="E11" t="n">
-        <v>53.2423</v>
+        <v>54.5504</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.372</v>
+        <v>26.3505</v>
       </c>
       <c r="C12" t="n">
-        <v>34.7166</v>
+        <v>34.5743</v>
       </c>
       <c r="D12" t="n">
-        <v>49.4625</v>
+        <v>47.8626</v>
       </c>
       <c r="E12" t="n">
-        <v>55.8439</v>
+        <v>54.9211</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28.9059</v>
+        <v>28.8839</v>
       </c>
       <c r="C13" t="n">
-        <v>34.983</v>
+        <v>34.9116</v>
       </c>
       <c r="D13" t="n">
-        <v>50.1304</v>
+        <v>50.6451</v>
       </c>
       <c r="E13" t="n">
-        <v>57.5711</v>
+        <v>52.4665</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.8146</v>
+        <v>23.7249</v>
       </c>
       <c r="C14" t="n">
-        <v>34.7865</v>
+        <v>34.8687</v>
       </c>
       <c r="D14" t="n">
-        <v>50.266</v>
+        <v>51.1363</v>
       </c>
       <c r="E14" t="n">
-        <v>61.1887</v>
+        <v>56.1597</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.7647</v>
+        <v>25.7261</v>
       </c>
       <c r="C15" t="n">
-        <v>34.7956</v>
+        <v>34.2169</v>
       </c>
       <c r="D15" t="n">
-        <v>49.3637</v>
+        <v>51.1067</v>
       </c>
       <c r="E15" t="n">
-        <v>59.2073</v>
+        <v>61.4699</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.2872</v>
+        <v>26.8123</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6142</v>
+        <v>34.8426</v>
       </c>
       <c r="D16" t="n">
         <v>50.3322</v>
       </c>
       <c r="E16" t="n">
-        <v>55.7043</v>
+        <v>60.4628</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.738</v>
+        <v>25.6752</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7439</v>
+        <v>34.6761</v>
       </c>
       <c r="D17" t="n">
-        <v>50.7234</v>
+        <v>51.4628</v>
       </c>
       <c r="E17" t="n">
-        <v>60.6061</v>
+        <v>61.5754</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.6224</v>
+        <v>10.614</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6796</v>
+        <v>12.6196</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2594</v>
+        <v>17.2293</v>
       </c>
       <c r="E2" t="n">
-        <v>20.7653</v>
+        <v>20.8285</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5897</v>
+        <v>19.6874</v>
       </c>
       <c r="C3" t="n">
-        <v>19.6207</v>
+        <v>18.4211</v>
       </c>
       <c r="D3" t="n">
-        <v>25.5061</v>
+        <v>26.7815</v>
       </c>
       <c r="E3" t="n">
-        <v>31.5792</v>
+        <v>31.2267</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.1967</v>
+        <v>27.0673</v>
       </c>
       <c r="C4" t="n">
-        <v>25.5025</v>
+        <v>25.6696</v>
       </c>
       <c r="D4" t="n">
-        <v>33.5473</v>
+        <v>33.6715</v>
       </c>
       <c r="E4" t="n">
-        <v>38.3386</v>
+        <v>37.9944</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.5026</v>
+        <v>20.7673</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5556</v>
+        <v>27.0105</v>
       </c>
       <c r="D5" t="n">
-        <v>34.9162</v>
+        <v>34.5088</v>
       </c>
       <c r="E5" t="n">
-        <v>40.4549</v>
+        <v>41.894</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.7609</v>
+        <v>24.753</v>
       </c>
       <c r="C6" t="n">
-        <v>31.0574</v>
+        <v>31.2581</v>
       </c>
       <c r="D6" t="n">
-        <v>36.2289</v>
+        <v>38.0639</v>
       </c>
       <c r="E6" t="n">
-        <v>43.9344</v>
+        <v>44.0138</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.8077</v>
+        <v>29.7995</v>
       </c>
       <c r="C7" t="n">
-        <v>36.469</v>
+        <v>36.3152</v>
       </c>
       <c r="D7" t="n">
-        <v>42.7823</v>
+        <v>40.3741</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7615</v>
+        <v>50.6396</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.4356</v>
+        <v>21.6178</v>
       </c>
       <c r="C8" t="n">
-        <v>33.7586</v>
+        <v>33.0933</v>
       </c>
       <c r="D8" t="n">
-        <v>39.5148</v>
+        <v>40.5264</v>
       </c>
       <c r="E8" t="n">
-        <v>46.2981</v>
+        <v>47.6459</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.8854</v>
+        <v>25.2046</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0738</v>
+        <v>33.1685</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0207</v>
+        <v>40.2626</v>
       </c>
       <c r="E9" t="n">
-        <v>52.1423</v>
+        <v>48.3424</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.7644</v>
+        <v>27.587</v>
       </c>
       <c r="C10" t="n">
-        <v>33.697</v>
+        <v>33.9569</v>
       </c>
       <c r="D10" t="n">
-        <v>45.0616</v>
+        <v>43.562</v>
       </c>
       <c r="E10" t="n">
-        <v>51.8929</v>
+        <v>52.264</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.5725</v>
+        <v>24.5586</v>
       </c>
       <c r="C11" t="n">
-        <v>34.4116</v>
+        <v>33.8399</v>
       </c>
       <c r="D11" t="n">
-        <v>45.5544</v>
+        <v>48.094</v>
       </c>
       <c r="E11" t="n">
-        <v>55.7091</v>
+        <v>58.8494</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1071</v>
+        <v>27.1199</v>
       </c>
       <c r="C12" t="n">
-        <v>34.7396</v>
+        <v>34.8012</v>
       </c>
       <c r="D12" t="n">
-        <v>49.0123</v>
+        <v>49.956</v>
       </c>
       <c r="E12" t="n">
-        <v>59.5042</v>
+        <v>59.5548</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7541</v>
+        <v>29.7048</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4233</v>
+        <v>35.2089</v>
       </c>
       <c r="D13" t="n">
-        <v>48.3107</v>
+        <v>49.7928</v>
       </c>
       <c r="E13" t="n">
-        <v>59.8796</v>
+        <v>59.3837</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.2949</v>
+        <v>24.143</v>
       </c>
       <c r="C14" t="n">
-        <v>35.2971</v>
+        <v>35.0043</v>
       </c>
       <c r="D14" t="n">
-        <v>47.2654</v>
+        <v>50.6972</v>
       </c>
       <c r="E14" t="n">
-        <v>60.5695</v>
+        <v>60.5256</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.5269</v>
+        <v>26.5819</v>
       </c>
       <c r="C15" t="n">
-        <v>35.6045</v>
+        <v>35.6211</v>
       </c>
       <c r="D15" t="n">
-        <v>48.7423</v>
+        <v>50.1545</v>
       </c>
       <c r="E15" t="n">
-        <v>60.0651</v>
+        <v>60.3116</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.093</v>
+        <v>27.7398</v>
       </c>
       <c r="C16" t="n">
-        <v>35.6697</v>
+        <v>35.5812</v>
       </c>
       <c r="D16" t="n">
-        <v>50.8272</v>
+        <v>50.3828</v>
       </c>
       <c r="E16" t="n">
-        <v>61.2425</v>
+        <v>61.0967</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.1043</v>
+        <v>25.9839</v>
       </c>
       <c r="C17" t="n">
-        <v>35.7933</v>
+        <v>35.5304</v>
       </c>
       <c r="D17" t="n">
-        <v>50.9936</v>
+        <v>50.5223</v>
       </c>
       <c r="E17" t="n">
-        <v>62.8912</v>
+        <v>63.3517</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.95</v>
+        <v>12.8953</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7814</v>
+        <v>13.7532</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0355</v>
+        <v>18.9896</v>
       </c>
       <c r="E2" t="n">
-        <v>22.2198</v>
+        <v>22.1549</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.0234</v>
+        <v>22.7567</v>
       </c>
       <c r="C3" t="n">
-        <v>22.6195</v>
+        <v>22.458</v>
       </c>
       <c r="D3" t="n">
-        <v>29.8404</v>
+        <v>30.6008</v>
       </c>
       <c r="E3" t="n">
-        <v>33.5448</v>
+        <v>33.5251</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.8059</v>
+        <v>31.3124</v>
       </c>
       <c r="C4" t="n">
-        <v>28.6008</v>
+        <v>28.6843</v>
       </c>
       <c r="D4" t="n">
-        <v>34.6061</v>
+        <v>34.8771</v>
       </c>
       <c r="E4" t="n">
-        <v>39.1722</v>
+        <v>45.4295</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.6399</v>
+        <v>26.6095</v>
       </c>
       <c r="C5" t="n">
-        <v>28.6141</v>
+        <v>28.5983</v>
       </c>
       <c r="D5" t="n">
-        <v>35.054</v>
+        <v>36.2124</v>
       </c>
       <c r="E5" t="n">
-        <v>49.0503</v>
+        <v>50.9221</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.5086</v>
+        <v>31.5111</v>
       </c>
       <c r="C6" t="n">
-        <v>32.8786</v>
+        <v>32.7337</v>
       </c>
       <c r="D6" t="n">
-        <v>39.4429</v>
+        <v>41.601</v>
       </c>
       <c r="E6" t="n">
-        <v>51.0155</v>
+        <v>50.7648</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.4944</v>
+        <v>37.2394</v>
       </c>
       <c r="C7" t="n">
-        <v>38.1823</v>
+        <v>38.1456</v>
       </c>
       <c r="D7" t="n">
-        <v>49.7853</v>
+        <v>48.9454</v>
       </c>
       <c r="E7" t="n">
-        <v>50.8496</v>
+        <v>50.8675</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.6938</v>
+        <v>32.9517</v>
       </c>
       <c r="C8" t="n">
-        <v>34.7848</v>
+        <v>34.4711</v>
       </c>
       <c r="D8" t="n">
-        <v>46.7894</v>
+        <v>46.8518</v>
       </c>
       <c r="E8" t="n">
-        <v>50.3136</v>
+        <v>49.5599</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.8308</v>
+        <v>34.5872</v>
       </c>
       <c r="C9" t="n">
-        <v>35.0066</v>
+        <v>34.8058</v>
       </c>
       <c r="D9" t="n">
-        <v>48.403</v>
+        <v>47.977</v>
       </c>
       <c r="E9" t="n">
-        <v>60.2136</v>
+        <v>57.8017</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.3808</v>
+        <v>33.9847</v>
       </c>
       <c r="C10" t="n">
-        <v>34.9748</v>
+        <v>34.9969</v>
       </c>
       <c r="D10" t="n">
-        <v>48.9206</v>
+        <v>48.5577</v>
       </c>
       <c r="E10" t="n">
-        <v>59.6393</v>
+        <v>60.2219</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.2045</v>
+        <v>34.4031</v>
       </c>
       <c r="C11" t="n">
-        <v>35.6123</v>
+        <v>35.3249</v>
       </c>
       <c r="D11" t="n">
-        <v>50.8162</v>
+        <v>49.0078</v>
       </c>
       <c r="E11" t="n">
-        <v>60.1032</v>
+        <v>59.53</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.33</v>
+        <v>34.8466</v>
       </c>
       <c r="C12" t="n">
-        <v>35.5315</v>
+        <v>35.566</v>
       </c>
       <c r="D12" t="n">
-        <v>51.0442</v>
+        <v>50.3393</v>
       </c>
       <c r="E12" t="n">
-        <v>60.5753</v>
+        <v>57.2701</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.0018</v>
+        <v>34.8176</v>
       </c>
       <c r="C13" t="n">
-        <v>36.4343</v>
+   